--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D780B5-E33E-44D0-AC39-C5B8F412BCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB00993-D91E-473A-A17C-30768229314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="654">
   <si>
     <t>Community Frameworks</t>
   </si>
@@ -3470,7 +3470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3783,111 +3783,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3917,6 +3816,122 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4708,9 +4723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B301-FC9E-4F7D-A454-62A8C1115EDF}">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T66" sqref="T66"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6758,15 +6773,36 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="93"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="93">
+        <v>3108865421</v>
+      </c>
+      <c r="C58" s="85" t="s">
+        <v>615</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="89" t="s">
+        <v>616</v>
+      </c>
+      <c r="F58" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
     </row>
@@ -6775,102 +6811,102 @@
         <v>58</v>
       </c>
       <c r="B59" s="93">
-        <v>3108865421</v>
+        <v>1828439124</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>615</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="89" t="s">
-        <v>616</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="89"/>
       <c r="F59" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J59" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="93">
-        <v>1828439124</v>
+        <v>1991570984</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D60" s="38"/>
       <c r="E60" s="89"/>
       <c r="F60" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
       <c r="I60" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J60" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K60" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L60" s="38" t="s">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="93">
-        <v>1991570984</v>
+        <v>3171576913</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="89"/>
       <c r="F61" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="G61" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="I61" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="38" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="93">
-        <v>3171576913</v>
+        <v>2111523728</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D62" s="38"/>
       <c r="E62" s="89"/>
@@ -6901,10 +6937,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="93">
-        <v>2111523728</v>
+        <v>2472500243</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="D63" s="38"/>
       <c r="E63" s="89"/>
@@ -6935,10 +6971,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="93">
-        <v>2472500243</v>
+        <v>2224593910</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="89"/>
@@ -6969,55 +7005,41 @@
         <v>64</v>
       </c>
       <c r="B65" s="93">
-        <v>2224593910</v>
+        <v>1832448183</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D65" s="38"/>
       <c r="E65" s="89"/>
-      <c r="F65" s="87" t="s">
-        <v>8</v>
-      </c>
+      <c r="F65" s="87"/>
       <c r="G65" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="38" t="s">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H65" s="38"/>
       <c r="I65" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K65" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L65" s="38" t="s">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
     </row>
     <row r="66" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="93">
-        <v>1832448183</v>
+        <v>1895432270</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="89"/>
       <c r="F66" s="87"/>
-      <c r="G66" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="G66" s="38"/>
       <c r="H66" s="38"/>
-      <c r="I66" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="I66" s="38"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
       <c r="L66" s="38"/>
@@ -7027,10 +7049,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="93">
-        <v>1895432270</v>
+        <v>2912241382</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="89"/>
@@ -7047,10 +7069,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="93">
-        <v>2912241382</v>
+        <v>2307297070</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D68" s="38"/>
       <c r="E68" s="89"/>
@@ -7063,11 +7085,14 @@
       <c r="L68" s="38"/>
     </row>
     <row r="69" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" s="93">
-        <v>2307297070</v>
+        <v>1710977250</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="89"/>
@@ -7079,12 +7104,15 @@
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
     </row>
-    <row r="70" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" s="93">
-        <v>1710977250</v>
+        <v>2895049000</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D70" s="38"/>
       <c r="E70" s="89"/>
@@ -7096,12 +7124,15 @@
       <c r="K70" s="38"/>
       <c r="L70" s="38"/>
     </row>
-    <row r="71" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" s="93">
-        <v>2895049000</v>
+        <v>2651195301</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D71" s="38"/>
       <c r="E71" s="89"/>
@@ -7114,11 +7145,14 @@
       <c r="L71" s="38"/>
     </row>
     <row r="72" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" s="93">
-        <v>2651195301</v>
+        <v>2874589934</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D72" s="38"/>
       <c r="E72" s="89"/>
@@ -7131,11 +7165,14 @@
       <c r="L72" s="38"/>
     </row>
     <row r="73" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" s="93">
-        <v>2874589934</v>
+        <v>3119592638</v>
       </c>
       <c r="C73" s="85" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D73" s="38"/>
       <c r="E73" s="89"/>
@@ -7148,50 +7185,46 @@
       <c r="L73" s="38"/>
     </row>
     <row r="74" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="93">
-        <v>3119592638</v>
-      </c>
-      <c r="C74" s="85" t="s">
-        <v>643</v>
-      </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
+      <c r="B74" s="191"/>
+      <c r="C74" s="192"/>
+      <c r="D74" s="193"/>
+      <c r="E74" s="194"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="193"/>
+      <c r="H74" s="193"/>
+      <c r="I74" s="193"/>
+      <c r="J74" s="193"/>
+      <c r="K74" s="193"/>
+      <c r="L74" s="193"/>
     </row>
     <row r="76" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="92">
+      <c r="B76" s="117">
         <v>2856976851</v>
       </c>
-      <c r="C76" s="84" t="s">
+      <c r="C76" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="89"/>
-      <c r="F76" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="38"/>
-      <c r="J76" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="5"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="114"/>
+      <c r="J76" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="119"/>
     </row>
     <row r="77" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="117">
@@ -7530,8 +7563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7557,31 +7590,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S1" s="176"/>
+      <c r="S1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S2" s="176"/>
+      <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -7596,19 +7629,19 @@
       <c r="F4" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -7659,10 +7692,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="181" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7719,13 +7752,13 @@
       <c r="T6" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="V6" s="171" t="s">
+      <c r="V6" s="138" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="145"/>
-      <c r="B7" s="148"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="60" t="s">
         <v>46</v>
       </c>
@@ -7735,7 +7768,7 @@
       <c r="E7" s="45" t="s">
         <v>458</v>
       </c>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="139" t="s">
         <v>652</v>
       </c>
       <c r="G7" s="24" t="s">
@@ -7771,13 +7804,13 @@
       <c r="S7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="172" t="s">
+      <c r="V7" s="139" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
-      <c r="B8" s="148"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="60" t="s">
         <v>53</v>
       </c>
@@ -7787,7 +7820,7 @@
       <c r="E8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="171" t="s">
+      <c r="F8" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G8" s="24" t="s">
@@ -7821,13 +7854,13 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="130"/>
       <c r="S8" s="26"/>
-      <c r="V8" s="173" t="s">
+      <c r="V8" s="140" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
-      <c r="B9" s="148"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="60" t="s">
         <v>287</v>
       </c>
@@ -7837,7 +7870,7 @@
       <c r="E9" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="F9" s="171" t="s">
+      <c r="F9" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G9" s="24" t="s">
@@ -7873,13 +7906,13 @@
       <c r="S9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="175" t="s">
+      <c r="V9" s="141" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="145"/>
-      <c r="B10" s="148"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="60" t="s">
         <v>47</v>
       </c>
@@ -7889,7 +7922,7 @@
       <c r="E10" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="F10" s="175" t="s">
+      <c r="F10" s="141" t="s">
         <v>649</v>
       </c>
       <c r="G10" s="24" t="s">
@@ -7923,13 +7956,13 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="130"/>
       <c r="S10" s="26"/>
-      <c r="V10" s="174" t="s">
+      <c r="V10" s="190" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="145"/>
-      <c r="B11" s="148"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="60" t="s">
         <v>63</v>
       </c>
@@ -7939,7 +7972,7 @@
       <c r="E11" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G11" s="24" t="s">
@@ -7977,8 +8010,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
-      <c r="B12" s="148"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="60" t="s">
         <v>48</v>
       </c>
@@ -7988,7 +8021,7 @@
       <c r="E12" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="F12" s="171" t="s">
+      <c r="F12" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G12" s="24" t="s">
@@ -8024,8 +8057,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="148"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="60" t="s">
         <v>645</v>
       </c>
@@ -8035,7 +8068,7 @@
       <c r="E13" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="F13" s="171" t="s">
+      <c r="F13" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G13" s="24" t="s">
@@ -8059,8 +8092,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="145"/>
-      <c r="B14" s="148"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="60" t="s">
         <v>49</v>
       </c>
@@ -8070,7 +8103,7 @@
       <c r="E14" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="F14" s="175" t="s">
+      <c r="F14" s="141" t="s">
         <v>649</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -8106,8 +8139,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145"/>
-      <c r="B15" s="148"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="60" t="s">
         <v>78</v>
       </c>
@@ -8117,7 +8150,7 @@
       <c r="E15" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="F15" s="175" t="s">
+      <c r="F15" s="141" t="s">
         <v>649</v>
       </c>
       <c r="G15" s="24" t="s">
@@ -8153,8 +8186,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
-      <c r="B16" s="148"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="60" t="s">
         <v>50</v>
       </c>
@@ -8164,7 +8197,7 @@
       <c r="E16" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="F16" s="174" t="s">
+      <c r="F16" s="190" t="s">
         <v>648</v>
       </c>
       <c r="G16" s="24" t="s">
@@ -8198,8 +8231,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="148"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="60" t="s">
         <v>51</v>
       </c>
@@ -8209,7 +8242,7 @@
       <c r="E17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="174" t="s">
+      <c r="F17" s="190" t="s">
         <v>648</v>
       </c>
       <c r="G17" s="24" t="s">
@@ -8243,8 +8276,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
-      <c r="B18" s="148"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="60" t="s">
         <v>52</v>
       </c>
@@ -8254,7 +8287,7 @@
       <c r="E18" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="F18" s="174" t="s">
+      <c r="F18" s="190" t="s">
         <v>648</v>
       </c>
       <c r="G18" s="24" t="s">
@@ -8288,8 +8321,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
-      <c r="B19" s="148"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="60" t="s">
         <v>350</v>
       </c>
@@ -8299,7 +8332,7 @@
       <c r="E19" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="F19" s="174" t="s">
+      <c r="F19" s="190" t="s">
         <v>648</v>
       </c>
       <c r="G19" s="24" t="s">
@@ -8335,8 +8368,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
-      <c r="B20" s="149"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="182"/>
       <c r="C20" s="61" t="s">
         <v>54</v>
       </c>
@@ -8346,7 +8379,7 @@
       <c r="E20" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="F20" s="177" t="s">
+      <c r="F20" s="142" t="s">
         <v>649</v>
       </c>
       <c r="G20" s="29" t="s">
@@ -8378,8 +8411,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="145"/>
-      <c r="B21" s="141" t="s">
+      <c r="A21" s="179"/>
+      <c r="B21" s="178" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="120" t="s">
@@ -8391,7 +8424,7 @@
       <c r="E21" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="178" t="s">
+      <c r="F21" s="143" t="s">
         <v>652</v>
       </c>
       <c r="G21" s="122" t="s">
@@ -8430,8 +8463,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="145"/>
-      <c r="B22" s="142"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="61" t="s">
         <v>237</v>
       </c>
@@ -8441,7 +8474,7 @@
       <c r="E22" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="171" t="s">
+      <c r="F22" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G22" s="29" t="s">
@@ -8475,8 +8508,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
-      <c r="B23" s="142"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="60" t="s">
         <v>49</v>
       </c>
@@ -8486,7 +8519,7 @@
       <c r="E23" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="F23" s="175" t="s">
+      <c r="F23" s="141" t="s">
         <v>649</v>
       </c>
       <c r="G23" s="24" t="s">
@@ -8520,8 +8553,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
-      <c r="B24" s="142"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="60" t="s">
         <v>124</v>
       </c>
@@ -8531,7 +8564,7 @@
       <c r="E24" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="F24" s="171" t="s">
+      <c r="F24" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G24" s="24" t="s">
@@ -8567,8 +8600,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="145"/>
-      <c r="B25" s="142"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="60" t="s">
         <v>239</v>
       </c>
@@ -8578,7 +8611,7 @@
       <c r="E25" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G25" s="24" t="s">
@@ -8616,8 +8649,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="145"/>
-      <c r="B26" s="142"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="60" t="s">
         <v>354</v>
       </c>
@@ -8627,7 +8660,7 @@
       <c r="E26" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="F26" s="175" t="s">
+      <c r="F26" s="141" t="s">
         <v>649</v>
       </c>
       <c r="G26" s="24" t="s">
@@ -8661,8 +8694,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
-      <c r="B27" s="142"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="60" t="s">
         <v>123</v>
       </c>
@@ -8672,7 +8705,7 @@
       <c r="E27" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="F27" s="171" t="s">
+      <c r="F27" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G27" s="24" t="s">
@@ -8706,8 +8739,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
-      <c r="B28" s="142"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="60" t="s">
         <v>469</v>
       </c>
@@ -8717,7 +8750,7 @@
       <c r="E28" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="171" t="s">
+      <c r="F28" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G28" s="24" t="s">
@@ -8751,8 +8784,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="145"/>
-      <c r="B29" s="142"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="60" t="s">
         <v>389</v>
       </c>
@@ -8762,7 +8795,7 @@
       <c r="E29" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="F29" s="171" t="s">
+      <c r="F29" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G29" s="24" t="s">
@@ -8798,8 +8831,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
-      <c r="B30" s="142"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="60" t="s">
         <v>242</v>
       </c>
@@ -8809,7 +8842,7 @@
       <c r="E30" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="F30" s="172" t="s">
+      <c r="F30" s="139" t="s">
         <v>652</v>
       </c>
       <c r="G30" s="24" t="s">
@@ -8846,8 +8879,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
-      <c r="B31" s="142"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="60" t="s">
         <v>355</v>
       </c>
@@ -8857,7 +8890,7 @@
       <c r="E31" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="F31" s="171" t="s">
+      <c r="F31" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -8893,8 +8926,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="145"/>
-      <c r="B32" s="142"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="165"/>
       <c r="C32" s="60" t="s">
         <v>220</v>
       </c>
@@ -8904,7 +8937,7 @@
       <c r="E32" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="F32" s="171" t="s">
+      <c r="F32" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G32" s="24" t="s">
@@ -8941,8 +8974,8 @@
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
-      <c r="B33" s="142"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="165"/>
       <c r="C33" s="60" t="s">
         <v>246</v>
       </c>
@@ -8952,7 +8985,7 @@
       <c r="E33" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="171" t="s">
+      <c r="F33" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G33" s="24" t="s">
@@ -8988,8 +9021,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
-      <c r="B34" s="142"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="165"/>
       <c r="C34" s="60" t="s">
         <v>379</v>
       </c>
@@ -8999,7 +9032,7 @@
       <c r="E34" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="F34" s="174" t="s">
+      <c r="F34" s="190" t="s">
         <v>648</v>
       </c>
       <c r="G34" s="24" t="s">
@@ -9033,8 +9066,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
-      <c r="B35" s="142"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="60" t="s">
         <v>392</v>
       </c>
@@ -9044,7 +9077,7 @@
       <c r="E35" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="F35" s="174" t="s">
+      <c r="F35" s="190" t="s">
         <v>648</v>
       </c>
       <c r="G35" s="24" t="s">
@@ -9078,8 +9111,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="145"/>
-      <c r="B36" s="143"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="65" t="s">
         <v>238</v>
       </c>
@@ -9089,7 +9122,7 @@
       <c r="E36" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="F36" s="172" t="s">
+      <c r="F36" s="139" t="s">
         <v>652</v>
       </c>
       <c r="G36" s="24" t="s">
@@ -9123,10 +9156,10 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="155" t="s">
+      <c r="A37" s="186" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="157" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="62" t="s">
@@ -9138,7 +9171,9 @@
       <c r="E37" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="143" t="s">
+        <v>652</v>
+      </c>
       <c r="G37" s="34" t="s">
         <v>8</v>
       </c>
@@ -9169,8 +9204,8 @@
       <c r="T37" s="33"/>
     </row>
     <row r="38" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="156"/>
-      <c r="B38" s="148"/>
+      <c r="A38" s="187"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="60" t="s">
         <v>111</v>
       </c>
@@ -9180,7 +9215,9 @@
       <c r="E38" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="145" t="s">
+        <v>652</v>
+      </c>
       <c r="G38" s="24" t="s">
         <v>8</v>
       </c>
@@ -9210,8 +9247,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="156"/>
-      <c r="B39" s="148"/>
+      <c r="A39" s="187"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="60" t="s">
         <v>112</v>
       </c>
@@ -9221,7 +9258,9 @@
       <c r="E39" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="145" t="s">
+        <v>652</v>
+      </c>
       <c r="G39" s="24" t="s">
         <v>8</v>
       </c>
@@ -9252,8 +9291,8 @@
       <c r="T39" s="23"/>
     </row>
     <row r="40" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="156"/>
-      <c r="B40" s="148"/>
+      <c r="A40" s="187"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="61" t="s">
         <v>113</v>
       </c>
@@ -9263,7 +9302,9 @@
       <c r="E40" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="F40" s="44"/>
+      <c r="F40" s="189" t="s">
+        <v>652</v>
+      </c>
       <c r="G40" s="29" t="s">
         <v>8</v>
       </c>
@@ -9299,8 +9340,8 @@
       <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="156"/>
-      <c r="B41" s="153" t="s">
+      <c r="A41" s="187"/>
+      <c r="B41" s="164" t="s">
         <v>197</v>
       </c>
       <c r="C41" s="63" t="s">
@@ -9312,7 +9353,7 @@
       <c r="E41" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="F41" s="181" t="s">
+      <c r="F41" s="146" t="s">
         <v>647</v>
       </c>
       <c r="G41" s="54" t="s">
@@ -9346,8 +9387,8 @@
       <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="156"/>
-      <c r="B42" s="142"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="165"/>
       <c r="C42" s="60" t="s">
         <v>222</v>
       </c>
@@ -9387,8 +9428,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156"/>
-      <c r="B43" s="142"/>
+      <c r="A43" s="187"/>
+      <c r="B43" s="165"/>
       <c r="C43" s="60" t="s">
         <v>262</v>
       </c>
@@ -9428,8 +9469,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="156"/>
-      <c r="B44" s="142"/>
+      <c r="A44" s="187"/>
+      <c r="B44" s="165"/>
       <c r="C44" s="60" t="s">
         <v>223</v>
       </c>
@@ -9439,7 +9480,9 @@
       <c r="E44" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="138" t="s">
+        <v>651</v>
+      </c>
       <c r="G44" s="24" t="s">
         <v>8</v>
       </c>
@@ -9469,8 +9512,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156"/>
-      <c r="B45" s="142"/>
+      <c r="A45" s="187"/>
+      <c r="B45" s="165"/>
       <c r="C45" s="60" t="s">
         <v>494</v>
       </c>
@@ -9513,8 +9556,8 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="156"/>
-      <c r="B46" s="142"/>
+      <c r="A46" s="187"/>
+      <c r="B46" s="165"/>
       <c r="C46" s="60" t="s">
         <v>417</v>
       </c>
@@ -9524,7 +9567,9 @@
       <c r="E46" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="F46" s="47"/>
+      <c r="F46" s="138" t="s">
+        <v>651</v>
+      </c>
       <c r="G46" s="24" t="s">
         <v>8</v>
       </c>
@@ -9554,8 +9599,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="142"/>
+      <c r="A47" s="187"/>
+      <c r="B47" s="165"/>
       <c r="C47" s="60" t="s">
         <v>414</v>
       </c>
@@ -9595,8 +9640,8 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="156"/>
-      <c r="B48" s="142"/>
+      <c r="A48" s="187"/>
+      <c r="B48" s="165"/>
       <c r="C48" s="60" t="s">
         <v>412</v>
       </c>
@@ -9606,7 +9651,9 @@
       <c r="E48" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="F48" s="47"/>
+      <c r="F48" s="155" t="s">
+        <v>647</v>
+      </c>
       <c r="G48" s="24" t="s">
         <v>8</v>
       </c>
@@ -9640,8 +9687,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="156"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="187"/>
+      <c r="B49" s="165"/>
       <c r="C49" s="60" t="s">
         <v>261</v>
       </c>
@@ -9683,8 +9730,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="157"/>
-      <c r="B50" s="143"/>
+      <c r="A50" s="188"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="65" t="s">
         <v>535</v>
       </c>
@@ -9726,10 +9773,10 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="158" t="s">
+      <c r="A51" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="150" t="s">
+      <c r="B51" s="157" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -9741,7 +9788,7 @@
       <c r="E51" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="F51" s="178" t="s">
+      <c r="F51" s="143" t="s">
         <v>652</v>
       </c>
       <c r="G51" s="34" t="s">
@@ -9776,8 +9823,8 @@
       <c r="T51" s="33"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="159"/>
-      <c r="B52" s="148"/>
+      <c r="A52" s="160"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="60" t="s">
         <v>70</v>
       </c>
@@ -9787,7 +9834,7 @@
       <c r="E52" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="F52" s="175" t="s">
+      <c r="F52" s="141" t="s">
         <v>649</v>
       </c>
       <c r="G52" s="24" t="s">
@@ -9823,8 +9870,8 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="159"/>
-      <c r="B53" s="148"/>
+      <c r="A53" s="160"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="60" t="s">
         <v>71</v>
       </c>
@@ -9834,7 +9881,7 @@
       <c r="E53" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="F53" s="171" t="s">
+      <c r="F53" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G53" s="24" t="s">
@@ -9870,8 +9917,8 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="159"/>
-      <c r="B54" s="148"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="158"/>
       <c r="C54" s="61" t="s">
         <v>72</v>
       </c>
@@ -9881,7 +9928,7 @@
       <c r="E54" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="F54" s="171" t="s">
+      <c r="F54" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G54" s="29" t="s">
@@ -9917,8 +9964,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="159"/>
-      <c r="B55" s="148"/>
+      <c r="A55" s="160"/>
+      <c r="B55" s="158"/>
       <c r="C55" s="65" t="s">
         <v>612</v>
       </c>
@@ -9928,7 +9975,7 @@
       <c r="E55" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="F55" s="172" t="s">
+      <c r="F55" s="139" t="s">
         <v>652</v>
       </c>
       <c r="G55" s="24" t="s">
@@ -9962,8 +10009,8 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="159"/>
-      <c r="B56" s="153" t="s">
+      <c r="A56" s="160"/>
+      <c r="B56" s="164" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -9975,7 +10022,7 @@
       <c r="E56" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="F56" s="183" t="s">
+      <c r="F56" s="148" t="s">
         <v>649</v>
       </c>
       <c r="G56" s="54" t="s">
@@ -10009,8 +10056,8 @@
       <c r="S56" s="57"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="159"/>
-      <c r="B57" s="142"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="165"/>
       <c r="C57" s="60" t="s">
         <v>213</v>
       </c>
@@ -10020,7 +10067,7 @@
       <c r="E57" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="F57" s="171" t="s">
+      <c r="F57" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G57" s="24" t="s">
@@ -10056,8 +10103,8 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="159"/>
-      <c r="B58" s="142"/>
+      <c r="A58" s="160"/>
+      <c r="B58" s="165"/>
       <c r="C58" s="60" t="s">
         <v>206</v>
       </c>
@@ -10099,8 +10146,8 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="159"/>
-      <c r="B59" s="142"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="165"/>
       <c r="C59" s="60" t="s">
         <v>201</v>
       </c>
@@ -10110,7 +10157,7 @@
       <c r="E59" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="F59" s="171" t="s">
+      <c r="F59" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G59" s="24" t="s">
@@ -10146,8 +10193,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="159"/>
-      <c r="B60" s="142"/>
+      <c r="A60" s="160"/>
+      <c r="B60" s="165"/>
       <c r="C60" s="60" t="s">
         <v>202</v>
       </c>
@@ -10157,7 +10204,7 @@
       <c r="E60" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="F60" s="171" t="s">
+      <c r="F60" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G60" s="24" t="s">
@@ -10193,8 +10240,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="159"/>
-      <c r="B61" s="142"/>
+      <c r="A61" s="160"/>
+      <c r="B61" s="165"/>
       <c r="C61" s="60" t="s">
         <v>95</v>
       </c>
@@ -10204,7 +10251,7 @@
       <c r="E61" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="F61" s="171" t="s">
+      <c r="F61" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G61" s="24" t="s">
@@ -10238,8 +10285,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="159"/>
-      <c r="B62" s="142"/>
+      <c r="A62" s="160"/>
+      <c r="B62" s="165"/>
       <c r="C62" s="60" t="s">
         <v>419</v>
       </c>
@@ -10249,7 +10296,7 @@
       <c r="E62" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="F62" s="171" t="s">
+      <c r="F62" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G62" s="24" t="s">
@@ -10283,8 +10330,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="159"/>
-      <c r="B63" s="142"/>
+      <c r="A63" s="160"/>
+      <c r="B63" s="165"/>
       <c r="C63" s="60" t="s">
         <v>203</v>
       </c>
@@ -10294,7 +10341,7 @@
       <c r="E63" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="F63" s="171" t="s">
+      <c r="F63" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G63" s="24" t="s">
@@ -10330,8 +10377,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="159"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="160"/>
+      <c r="B64" s="165"/>
       <c r="C64" s="60" t="s">
         <v>433</v>
       </c>
@@ -10341,7 +10388,7 @@
       <c r="E64" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="F64" s="179" t="s">
+      <c r="F64" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G64" s="24" t="s">
@@ -10377,8 +10424,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="159"/>
-      <c r="B65" s="142"/>
+      <c r="A65" s="160"/>
+      <c r="B65" s="165"/>
       <c r="C65" s="60" t="s">
         <v>381</v>
       </c>
@@ -10388,7 +10435,7 @@
       <c r="E65" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="F65" s="179" t="s">
+      <c r="F65" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G65" s="24" t="s">
@@ -10423,8 +10470,8 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="159"/>
-      <c r="B66" s="142"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="165"/>
       <c r="C66" s="60" t="s">
         <v>398</v>
       </c>
@@ -10434,7 +10481,7 @@
       <c r="E66" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="F66" s="174" t="s">
+      <c r="F66" s="190" t="s">
         <v>648</v>
       </c>
       <c r="G66" s="24" t="s">
@@ -10470,8 +10517,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="159"/>
-      <c r="B67" s="142"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="60" t="s">
         <v>258</v>
       </c>
@@ -10481,7 +10528,7 @@
       <c r="E67" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F67" s="172" t="s">
+      <c r="F67" s="139" t="s">
         <v>652</v>
       </c>
       <c r="G67" s="24" t="s">
@@ -10518,8 +10565,8 @@
       <c r="T67" s="23"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="159"/>
-      <c r="B68" s="142"/>
+      <c r="A68" s="160"/>
+      <c r="B68" s="165"/>
       <c r="C68" s="60" t="s">
         <v>436</v>
       </c>
@@ -10529,7 +10576,7 @@
       <c r="E68" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="F68" s="182" t="s">
+      <c r="F68" s="147" t="s">
         <v>647</v>
       </c>
       <c r="G68" s="24" t="s">
@@ -10563,8 +10610,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="159"/>
-      <c r="B69" s="142"/>
+      <c r="A69" s="160"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="61" t="s">
         <v>207</v>
       </c>
@@ -10574,7 +10621,7 @@
       <c r="E69" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="F69" s="180" t="s">
+      <c r="F69" s="145" t="s">
         <v>652</v>
       </c>
       <c r="G69" s="29" t="s">
@@ -10609,10 +10656,10 @@
       <c r="T69" s="28"/>
     </row>
     <row r="70" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="168" t="s">
+      <c r="A70" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="167"/>
+      <c r="B70" s="171"/>
       <c r="C70" s="62" t="s">
         <v>83</v>
       </c>
@@ -10622,7 +10669,7 @@
       <c r="E70" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="F70" s="184" t="s">
+      <c r="F70" s="149" t="s">
         <v>651</v>
       </c>
       <c r="G70" s="34" t="s">
@@ -10659,8 +10706,8 @@
       <c r="T70" s="33"/>
     </row>
     <row r="71" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="169"/>
-      <c r="B71" s="148"/>
+      <c r="A71" s="173"/>
+      <c r="B71" s="158"/>
       <c r="C71" s="60" t="s">
         <v>84</v>
       </c>
@@ -10670,7 +10717,7 @@
       <c r="E71" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="F71" s="171" t="s">
+      <c r="F71" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G71" s="24" t="s">
@@ -10706,8 +10753,8 @@
       <c r="S71" s="26"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="169"/>
-      <c r="B72" s="148"/>
+      <c r="A72" s="173"/>
+      <c r="B72" s="158"/>
       <c r="C72" s="60" t="s">
         <v>85</v>
       </c>
@@ -10717,7 +10764,7 @@
       <c r="E72" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="F72" s="179" t="s">
+      <c r="F72" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G72" s="24" t="s">
@@ -10755,8 +10802,8 @@
       <c r="S72" s="26"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="169"/>
-      <c r="B73" s="148"/>
+      <c r="A73" s="173"/>
+      <c r="B73" s="158"/>
       <c r="C73" s="60" t="s">
         <v>86</v>
       </c>
@@ -10766,7 +10813,7 @@
       <c r="E73" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="F73" s="179" t="s">
+      <c r="F73" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G73" s="24" t="s">
@@ -10802,8 +10849,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="169"/>
-      <c r="B74" s="148"/>
+      <c r="A74" s="173"/>
+      <c r="B74" s="158"/>
       <c r="C74" s="60" t="s">
         <v>87</v>
       </c>
@@ -10813,7 +10860,7 @@
       <c r="E74" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F74" s="179" t="s">
+      <c r="F74" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G74" s="37" t="s">
@@ -10851,8 +10898,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="169"/>
-      <c r="B75" s="148"/>
+      <c r="A75" s="173"/>
+      <c r="B75" s="158"/>
       <c r="C75" s="60" t="s">
         <v>88</v>
       </c>
@@ -10862,7 +10909,7 @@
       <c r="E75" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F75" s="179" t="s">
+      <c r="F75" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G75" s="24" t="s">
@@ -10898,8 +10945,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="169"/>
-      <c r="B76" s="148"/>
+      <c r="A76" s="173"/>
+      <c r="B76" s="158"/>
       <c r="C76" s="60" t="s">
         <v>89</v>
       </c>
@@ -10909,7 +10956,7 @@
       <c r="E76" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="F76" s="171" t="s">
+      <c r="F76" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G76" s="24" t="s">
@@ -10943,8 +10990,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="169"/>
-      <c r="B77" s="148"/>
+      <c r="A77" s="173"/>
+      <c r="B77" s="158"/>
       <c r="C77" s="60" t="s">
         <v>90</v>
       </c>
@@ -10954,7 +11001,7 @@
       <c r="E77" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="F77" s="171" t="s">
+      <c r="F77" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G77" s="24" t="s">
@@ -10990,8 +11037,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="169"/>
-      <c r="B78" s="148"/>
+      <c r="A78" s="173"/>
+      <c r="B78" s="158"/>
       <c r="C78" s="60" t="s">
         <v>91</v>
       </c>
@@ -11001,7 +11048,7 @@
       <c r="E78" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="F78" s="171" t="s">
+      <c r="F78" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G78" s="24" t="s">
@@ -11039,8 +11086,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="169"/>
-      <c r="B79" s="148"/>
+      <c r="A79" s="173"/>
+      <c r="B79" s="158"/>
       <c r="C79" s="60" t="s">
         <v>229</v>
       </c>
@@ -11050,7 +11097,7 @@
       <c r="E79" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="F79" s="179" t="s">
+      <c r="F79" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G79" s="24" t="s">
@@ -11086,8 +11133,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="169"/>
-      <c r="B80" s="166"/>
+      <c r="A80" s="173"/>
+      <c r="B80" s="169"/>
       <c r="C80" s="61" t="s">
         <v>94</v>
       </c>
@@ -11097,7 +11144,7 @@
       <c r="E80" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="F80" s="185" t="s">
+      <c r="F80" s="150" t="s">
         <v>651</v>
       </c>
       <c r="G80" s="29" t="s">
@@ -11133,8 +11180,8 @@
       <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="169"/>
-      <c r="B81" s="142" t="s">
+      <c r="A81" s="173"/>
+      <c r="B81" s="165" t="s">
         <v>197</v>
       </c>
       <c r="C81" s="63" t="s">
@@ -11178,8 +11225,8 @@
       <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="169"/>
-      <c r="B82" s="142"/>
+      <c r="A82" s="173"/>
+      <c r="B82" s="165"/>
       <c r="C82" s="60" t="s">
         <v>217</v>
       </c>
@@ -11222,8 +11269,8 @@
       <c r="S82" s="26"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="169"/>
-      <c r="B83" s="142"/>
+      <c r="A83" s="173"/>
+      <c r="B83" s="165"/>
       <c r="C83" s="60" t="s">
         <v>431</v>
       </c>
@@ -11233,7 +11280,7 @@
       <c r="E83" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="F83" s="179" t="s">
+      <c r="F83" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G83" s="24" t="s">
@@ -11267,8 +11314,8 @@
       <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="169"/>
-      <c r="B84" s="142"/>
+      <c r="A84" s="173"/>
+      <c r="B84" s="165"/>
       <c r="C84" s="60" t="s">
         <v>299</v>
       </c>
@@ -11278,7 +11325,7 @@
       <c r="E84" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="F84" s="179" t="s">
+      <c r="F84" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G84" s="24" t="s">
@@ -11312,8 +11359,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="169"/>
-      <c r="B85" s="142"/>
+      <c r="A85" s="173"/>
+      <c r="B85" s="165"/>
       <c r="C85" s="60" t="s">
         <v>372</v>
       </c>
@@ -11323,7 +11370,7 @@
       <c r="E85" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="F85" s="186" t="s">
+      <c r="F85" s="151" t="s">
         <v>649</v>
       </c>
       <c r="G85" s="24" t="s">
@@ -11357,8 +11404,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="169"/>
-      <c r="B86" s="142"/>
+      <c r="A86" s="173"/>
+      <c r="B86" s="165"/>
       <c r="C86" s="60" t="s">
         <v>225</v>
       </c>
@@ -11368,7 +11415,7 @@
       <c r="E86" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="F86" s="179" t="s">
+      <c r="F86" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G86" s="24" t="s">
@@ -11402,8 +11449,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="169"/>
-      <c r="B87" s="142"/>
+      <c r="A87" s="173"/>
+      <c r="B87" s="165"/>
       <c r="C87" s="60" t="s">
         <v>326</v>
       </c>
@@ -11413,7 +11460,7 @@
       <c r="E87" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="F87" s="179" t="s">
+      <c r="F87" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G87" s="24" t="s">
@@ -11449,8 +11496,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="169"/>
-      <c r="B88" s="142"/>
+      <c r="A88" s="173"/>
+      <c r="B88" s="165"/>
       <c r="C88" s="61" t="s">
         <v>253</v>
       </c>
@@ -11460,7 +11507,7 @@
       <c r="E88" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="F88" s="179" t="s">
+      <c r="F88" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G88" s="29" t="s">
@@ -11494,8 +11541,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="169"/>
-      <c r="B89" s="142"/>
+      <c r="A89" s="173"/>
+      <c r="B89" s="165"/>
       <c r="C89" s="60" t="s">
         <v>408</v>
       </c>
@@ -11536,8 +11583,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="169"/>
-      <c r="B90" s="142"/>
+      <c r="A90" s="173"/>
+      <c r="B90" s="165"/>
       <c r="C90" s="60" t="s">
         <v>374</v>
       </c>
@@ -11579,8 +11626,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="169"/>
-      <c r="B91" s="142"/>
+      <c r="A91" s="173"/>
+      <c r="B91" s="165"/>
       <c r="C91" s="60" t="s">
         <v>361</v>
       </c>
@@ -11624,8 +11671,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="169"/>
-      <c r="B92" s="142"/>
+      <c r="A92" s="173"/>
+      <c r="B92" s="165"/>
       <c r="C92" s="60" t="s">
         <v>357</v>
       </c>
@@ -11669,8 +11716,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="169"/>
-      <c r="B93" s="142"/>
+      <c r="A93" s="173"/>
+      <c r="B93" s="165"/>
       <c r="C93" s="60" t="s">
         <v>216</v>
       </c>
@@ -11713,8 +11760,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="169"/>
-      <c r="B94" s="142"/>
+      <c r="A94" s="173"/>
+      <c r="B94" s="165"/>
       <c r="C94" s="60" t="s">
         <v>377</v>
       </c>
@@ -11724,7 +11771,7 @@
       <c r="E94" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="F94" s="179" t="s">
+      <c r="F94" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G94" s="24" t="s">
@@ -11758,8 +11805,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="169"/>
-      <c r="B95" s="142"/>
+      <c r="A95" s="173"/>
+      <c r="B95" s="165"/>
       <c r="C95" s="60" t="s">
         <v>226</v>
       </c>
@@ -11769,7 +11816,7 @@
       <c r="E95" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="F95" s="171" t="s">
+      <c r="F95" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G95" s="24" t="s">
@@ -11803,8 +11850,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="169"/>
-      <c r="B96" s="142"/>
+      <c r="A96" s="173"/>
+      <c r="B96" s="165"/>
       <c r="C96" s="60" t="s">
         <v>251</v>
       </c>
@@ -11814,7 +11861,7 @@
       <c r="E96" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="F96" s="171" t="s">
+      <c r="F96" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G96" s="24" t="s">
@@ -11848,8 +11895,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="169"/>
-      <c r="B97" s="142"/>
+      <c r="A97" s="173"/>
+      <c r="B97" s="165"/>
       <c r="C97" s="60" t="s">
         <v>298</v>
       </c>
@@ -11859,7 +11906,7 @@
       <c r="E97" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="F97" s="171" t="s">
+      <c r="F97" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G97" s="24" t="s">
@@ -11893,8 +11940,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="169"/>
-      <c r="B98" s="142"/>
+      <c r="A98" s="173"/>
+      <c r="B98" s="165"/>
       <c r="C98" s="60" t="s">
         <v>228</v>
       </c>
@@ -11904,7 +11951,7 @@
       <c r="E98" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F98" s="171" t="s">
+      <c r="F98" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G98" s="24" t="s">
@@ -11938,8 +11985,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="169"/>
-      <c r="B99" s="142"/>
+      <c r="A99" s="173"/>
+      <c r="B99" s="165"/>
       <c r="C99" s="60" t="s">
         <v>236</v>
       </c>
@@ -11978,8 +12025,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="169"/>
-      <c r="B100" s="142"/>
+      <c r="A100" s="173"/>
+      <c r="B100" s="165"/>
       <c r="C100" s="60" t="s">
         <v>227</v>
       </c>
@@ -12020,8 +12067,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="169"/>
-      <c r="B101" s="142"/>
+      <c r="A101" s="173"/>
+      <c r="B101" s="165"/>
       <c r="C101" s="65" t="s">
         <v>221</v>
       </c>
@@ -12031,7 +12078,7 @@
       <c r="E101" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="F101" s="171" t="s">
+      <c r="F101" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G101" s="24" t="s">
@@ -12067,8 +12114,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="169"/>
-      <c r="B102" s="142"/>
+      <c r="A102" s="173"/>
+      <c r="B102" s="165"/>
       <c r="C102" s="60" t="s">
         <v>218</v>
       </c>
@@ -12078,7 +12125,7 @@
       <c r="E102" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="F102" s="189"/>
+      <c r="F102" s="154"/>
       <c r="G102" s="24" t="s">
         <v>8</v>
       </c>
@@ -12110,8 +12157,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="169"/>
-      <c r="B103" s="142"/>
+      <c r="A103" s="173"/>
+      <c r="B103" s="165"/>
       <c r="C103" s="60" t="s">
         <v>219</v>
       </c>
@@ -12121,7 +12168,7 @@
       <c r="E103" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="F103" s="189"/>
+      <c r="F103" s="154"/>
       <c r="G103" s="24" t="s">
         <v>8</v>
       </c>
@@ -12155,15 +12202,15 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="169"/>
-      <c r="B104" s="142"/>
+      <c r="A104" s="173"/>
+      <c r="B104" s="165"/>
       <c r="C104" s="60" t="s">
         <v>363</v>
       </c>
       <c r="D104" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E104" s="187" t="s">
+      <c r="E104" s="152" t="s">
         <v>364</v>
       </c>
       <c r="G104" s="24" t="s">
@@ -12197,15 +12244,15 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="169"/>
-      <c r="B105" s="142"/>
+      <c r="A105" s="173"/>
+      <c r="B105" s="165"/>
       <c r="C105" s="60" t="s">
         <v>235</v>
       </c>
       <c r="D105" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E105" s="187" t="s">
+      <c r="E105" s="152" t="s">
         <v>608</v>
       </c>
       <c r="G105" s="24" t="s">
@@ -12239,8 +12286,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="169"/>
-      <c r="B106" s="142"/>
+      <c r="A106" s="173"/>
+      <c r="B106" s="165"/>
       <c r="C106" s="60" t="s">
         <v>210</v>
       </c>
@@ -12250,7 +12297,7 @@
       <c r="E106" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="F106" s="189"/>
+      <c r="F106" s="154"/>
       <c r="G106" s="24" t="s">
         <v>8</v>
       </c>
@@ -12282,8 +12329,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="169"/>
-      <c r="B107" s="142"/>
+      <c r="A107" s="173"/>
+      <c r="B107" s="165"/>
       <c r="C107" s="60" t="s">
         <v>211</v>
       </c>
@@ -12293,7 +12340,7 @@
       <c r="E107" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="F107" s="189"/>
+      <c r="F107" s="154"/>
       <c r="G107" s="24" t="s">
         <v>8</v>
       </c>
@@ -12325,15 +12372,15 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="169"/>
-      <c r="B108" s="142"/>
+      <c r="A108" s="173"/>
+      <c r="B108" s="165"/>
       <c r="C108" s="60" t="s">
         <v>506</v>
       </c>
       <c r="D108" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E108" s="187" t="s">
+      <c r="E108" s="152" t="s">
         <v>351</v>
       </c>
       <c r="G108" s="24" t="s">
@@ -12367,15 +12414,15 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="169"/>
-      <c r="B109" s="142"/>
+      <c r="A109" s="173"/>
+      <c r="B109" s="165"/>
       <c r="C109" s="60" t="s">
         <v>252</v>
       </c>
       <c r="D109" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="E109" s="187" t="s">
+      <c r="E109" s="152" t="s">
         <v>321</v>
       </c>
       <c r="G109" s="24" t="s">
@@ -12409,18 +12456,18 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="169"/>
-      <c r="B110" s="142"/>
+      <c r="A110" s="173"/>
+      <c r="B110" s="165"/>
       <c r="C110" s="60" t="s">
         <v>255</v>
       </c>
       <c r="D110" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E110" s="187" t="s">
+      <c r="E110" s="152" t="s">
         <v>320</v>
       </c>
-      <c r="F110" s="174" t="s">
+      <c r="F110" s="190" t="s">
         <v>648</v>
       </c>
       <c r="G110" s="24" t="s">
@@ -12454,8 +12501,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="169"/>
-      <c r="B111" s="142"/>
+      <c r="A111" s="173"/>
+      <c r="B111" s="165"/>
       <c r="C111" s="60" t="s">
         <v>232</v>
       </c>
@@ -12465,7 +12512,7 @@
       <c r="E111" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="F111" s="190" t="s">
+      <c r="F111" s="155" t="s">
         <v>647</v>
       </c>
       <c r="G111" s="24" t="s">
@@ -12501,8 +12548,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="169"/>
-      <c r="B112" s="142"/>
+      <c r="A112" s="173"/>
+      <c r="B112" s="165"/>
       <c r="C112" s="60" t="s">
         <v>233</v>
       </c>
@@ -12512,7 +12559,7 @@
       <c r="E112" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="F112" s="190" t="s">
+      <c r="F112" s="155" t="s">
         <v>647</v>
       </c>
       <c r="G112" s="24" t="s">
@@ -12548,16 +12595,16 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="169"/>
-      <c r="B113" s="142"/>
+      <c r="A113" s="173"/>
+      <c r="B113" s="165"/>
       <c r="C113" s="65" t="s">
         <v>606</v>
       </c>
       <c r="D113" s="23"/>
-      <c r="E113" s="188" t="s">
+      <c r="E113" s="153" t="s">
         <v>607</v>
       </c>
-      <c r="F113" s="179" t="s">
+      <c r="F113" s="144" t="s">
         <v>652</v>
       </c>
       <c r="G113" s="24"/>
@@ -12576,8 +12623,8 @@
       <c r="T113" s="23"/>
     </row>
     <row r="114" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="169"/>
-      <c r="B114" s="142"/>
+      <c r="A114" s="173"/>
+      <c r="B114" s="165"/>
       <c r="C114" s="60" t="s">
         <v>329</v>
       </c>
@@ -12587,7 +12634,7 @@
       <c r="E114" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="F114" s="186" t="s">
+      <c r="F114" s="151" t="s">
         <v>649</v>
       </c>
       <c r="G114" s="24" t="s">
@@ -12622,8 +12669,8 @@
       <c r="T114" s="23"/>
     </row>
     <row r="115" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="170"/>
-      <c r="B115" s="143"/>
+      <c r="A115" s="174"/>
+      <c r="B115" s="170"/>
       <c r="C115" s="61" t="s">
         <v>322</v>
       </c>
@@ -12633,7 +12680,7 @@
       <c r="E115" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="F115" s="171" t="s">
+      <c r="F115" s="138" t="s">
         <v>651</v>
       </c>
       <c r="G115" s="29" t="s">
@@ -12676,10 +12723,10 @@
       <c r="T115" s="28"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="163" t="s">
+      <c r="A116" s="166" t="s">
         <v>504</v>
       </c>
-      <c r="B116" s="150" t="s">
+      <c r="B116" s="157" t="s">
         <v>55</v>
       </c>
       <c r="C116" s="62" t="s">
@@ -12722,8 +12769,8 @@
       <c r="T116" s="33"/>
     </row>
     <row r="117" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="164"/>
-      <c r="B117" s="148"/>
+      <c r="A117" s="167"/>
+      <c r="B117" s="158"/>
       <c r="C117" s="60" t="s">
         <v>96</v>
       </c>
@@ -12767,8 +12814,8 @@
       <c r="S117" s="26"/>
     </row>
     <row r="118" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="164"/>
-      <c r="B118" s="148"/>
+      <c r="A118" s="167"/>
+      <c r="B118" s="158"/>
       <c r="C118" s="60" t="s">
         <v>97</v>
       </c>
@@ -12812,8 +12859,8 @@
       <c r="S118" s="26"/>
     </row>
     <row r="119" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="164"/>
-      <c r="B119" s="148"/>
+      <c r="A119" s="167"/>
+      <c r="B119" s="158"/>
       <c r="C119" s="60" t="s">
         <v>108</v>
       </c>
@@ -12853,8 +12900,8 @@
       <c r="S119" s="26"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="164"/>
-      <c r="B120" s="148"/>
+      <c r="A120" s="167"/>
+      <c r="B120" s="158"/>
       <c r="C120" s="61" t="s">
         <v>98</v>
       </c>
@@ -12895,8 +12942,8 @@
       <c r="T120" s="28"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="164"/>
-      <c r="B121" s="148"/>
+      <c r="A121" s="167"/>
+      <c r="B121" s="158"/>
       <c r="C121" s="60" t="s">
         <v>183</v>
       </c>
@@ -12937,8 +12984,8 @@
       <c r="T121" s="28"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="164"/>
-      <c r="B122" s="148"/>
+      <c r="A122" s="167"/>
+      <c r="B122" s="158"/>
       <c r="C122" s="61" t="s">
         <v>120</v>
       </c>
@@ -12979,8 +13026,8 @@
       <c r="T122" s="28"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="164"/>
-      <c r="B123" s="148"/>
+      <c r="A123" s="167"/>
+      <c r="B123" s="158"/>
       <c r="C123" s="60" t="s">
         <v>100</v>
       </c>
@@ -13022,8 +13069,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="164"/>
-      <c r="B124" s="148"/>
+      <c r="A124" s="167"/>
+      <c r="B124" s="158"/>
       <c r="C124" s="60" t="s">
         <v>505</v>
       </c>
@@ -13065,8 +13112,8 @@
       <c r="S124" s="26"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="164"/>
-      <c r="B125" s="166"/>
+      <c r="A125" s="167"/>
+      <c r="B125" s="169"/>
       <c r="C125" s="60" t="s">
         <v>180</v>
       </c>
@@ -13106,8 +13153,8 @@
       <c r="S125" s="26"/>
     </row>
     <row r="126" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="164"/>
-      <c r="B126" s="153" t="s">
+      <c r="A126" s="167"/>
+      <c r="B126" s="164" t="s">
         <v>197</v>
       </c>
       <c r="C126" s="63" t="s">
@@ -13152,8 +13199,8 @@
       <c r="T126" s="23"/>
     </row>
     <row r="127" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="164"/>
-      <c r="B127" s="142"/>
+      <c r="A127" s="167"/>
+      <c r="B127" s="165"/>
       <c r="C127" s="60" t="s">
         <v>452</v>
       </c>
@@ -13194,8 +13241,8 @@
       <c r="T127" s="23"/>
     </row>
     <row r="128" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="164"/>
-      <c r="B128" s="142"/>
+      <c r="A128" s="167"/>
+      <c r="B128" s="165"/>
       <c r="C128" s="60" t="s">
         <v>455</v>
       </c>
@@ -13236,8 +13283,8 @@
       <c r="T128" s="23"/>
     </row>
     <row r="129" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="164"/>
-      <c r="B129" s="142"/>
+      <c r="A129" s="167"/>
+      <c r="B129" s="165"/>
       <c r="C129" s="61" t="s">
         <v>429</v>
       </c>
@@ -13280,8 +13327,8 @@
       <c r="T129" s="23"/>
     </row>
     <row r="130" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="164"/>
-      <c r="B130" s="142"/>
+      <c r="A130" s="167"/>
+      <c r="B130" s="165"/>
       <c r="C130" s="60" t="s">
         <v>234</v>
       </c>
@@ -13322,8 +13369,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="164"/>
-      <c r="B131" s="142"/>
+      <c r="A131" s="167"/>
+      <c r="B131" s="165"/>
       <c r="C131" s="60" t="s">
         <v>212</v>
       </c>
@@ -13364,8 +13411,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="165"/>
-      <c r="B132" s="142"/>
+      <c r="A132" s="168"/>
+      <c r="B132" s="165"/>
       <c r="C132" s="65" t="s">
         <v>632</v>
       </c>
@@ -13388,10 +13435,10 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="160" t="s">
+      <c r="A133" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="B133" s="150" t="s">
+      <c r="B133" s="157" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="62" t="s">
@@ -13434,8 +13481,8 @@
       <c r="T133" s="33"/>
     </row>
     <row r="134" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="161"/>
-      <c r="B134" s="148"/>
+      <c r="A134" s="162"/>
+      <c r="B134" s="158"/>
       <c r="C134" s="61" t="s">
         <v>99</v>
       </c>
@@ -13475,8 +13522,8 @@
       <c r="S134" s="31"/>
     </row>
     <row r="135" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="161"/>
-      <c r="B135" s="148"/>
+      <c r="A135" s="162"/>
+      <c r="B135" s="158"/>
       <c r="C135" s="65" t="s">
         <v>610</v>
       </c>
@@ -13519,8 +13566,8 @@
       <c r="T135" s="19"/>
     </row>
     <row r="136" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="161"/>
-      <c r="B136" s="148"/>
+      <c r="A136" s="162"/>
+      <c r="B136" s="158"/>
       <c r="C136" s="60" t="s">
         <v>119</v>
       </c>
@@ -13562,8 +13609,8 @@
       <c r="T136" s="19"/>
     </row>
     <row r="137" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="161"/>
-      <c r="B137" s="148"/>
+      <c r="A137" s="162"/>
+      <c r="B137" s="158"/>
       <c r="C137" s="60" t="s">
         <v>118</v>
       </c>
@@ -13605,8 +13652,8 @@
       <c r="T137" s="19"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="161"/>
-      <c r="B138" s="153" t="s">
+      <c r="A138" s="162"/>
+      <c r="B138" s="164" t="s">
         <v>197</v>
       </c>
       <c r="C138" s="63" t="s">
@@ -13648,8 +13695,8 @@
       <c r="S138" s="57"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="161"/>
-      <c r="B139" s="142"/>
+      <c r="A139" s="162"/>
+      <c r="B139" s="165"/>
       <c r="C139" s="60" t="s">
         <v>403</v>
       </c>
@@ -13688,8 +13735,8 @@
       <c r="S139" s="26"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="161"/>
-      <c r="B140" s="142"/>
+      <c r="A140" s="162"/>
+      <c r="B140" s="165"/>
       <c r="C140" s="60" t="s">
         <v>259</v>
       </c>
@@ -13729,8 +13776,8 @@
       <c r="S140" s="26"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="161"/>
-      <c r="B141" s="142"/>
+      <c r="A141" s="162"/>
+      <c r="B141" s="165"/>
       <c r="C141" s="65" t="s">
         <v>626</v>
       </c>
@@ -13764,8 +13811,8 @@
       <c r="S141" s="26"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="161"/>
-      <c r="B142" s="142"/>
+      <c r="A142" s="162"/>
+      <c r="B142" s="165"/>
       <c r="C142" s="60" t="s">
         <v>426</v>
       </c>
@@ -13805,8 +13852,8 @@
       <c r="S142" s="26"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="161"/>
-      <c r="B143" s="142"/>
+      <c r="A143" s="162"/>
+      <c r="B143" s="165"/>
       <c r="C143" s="60" t="s">
         <v>384</v>
       </c>
@@ -13846,8 +13893,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="161"/>
-      <c r="B144" s="142"/>
+      <c r="A144" s="162"/>
+      <c r="B144" s="165"/>
       <c r="C144" s="60" t="s">
         <v>443</v>
       </c>
@@ -13887,8 +13934,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="161"/>
-      <c r="B145" s="142"/>
+      <c r="A145" s="162"/>
+      <c r="B145" s="165"/>
       <c r="C145" s="60" t="s">
         <v>362</v>
       </c>
@@ -13928,8 +13975,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="161"/>
-      <c r="B146" s="142"/>
+      <c r="A146" s="162"/>
+      <c r="B146" s="165"/>
       <c r="C146" s="60" t="s">
         <v>230</v>
       </c>
@@ -13969,8 +14016,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="161"/>
-      <c r="B147" s="142"/>
+      <c r="A147" s="162"/>
+      <c r="B147" s="165"/>
       <c r="C147" s="60" t="s">
         <v>425</v>
       </c>
@@ -14010,8 +14057,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="161"/>
-      <c r="B148" s="142"/>
+      <c r="A148" s="162"/>
+      <c r="B148" s="165"/>
       <c r="C148" s="60" t="s">
         <v>400</v>
       </c>
@@ -14051,8 +14098,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="161"/>
-      <c r="B149" s="142"/>
+      <c r="A149" s="162"/>
+      <c r="B149" s="165"/>
       <c r="C149" s="60" t="s">
         <v>437</v>
       </c>
@@ -14092,8 +14139,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="161"/>
-      <c r="B150" s="142"/>
+      <c r="A150" s="162"/>
+      <c r="B150" s="165"/>
       <c r="C150" s="60" t="s">
         <v>410</v>
       </c>
@@ -14133,8 +14180,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="161"/>
-      <c r="B151" s="142"/>
+      <c r="A151" s="162"/>
+      <c r="B151" s="165"/>
       <c r="C151" s="65" t="s">
         <v>525</v>
       </c>
@@ -14174,8 +14221,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="161"/>
-      <c r="B152" s="142"/>
+      <c r="A152" s="162"/>
+      <c r="B152" s="165"/>
       <c r="C152" s="65" t="s">
         <v>260</v>
       </c>
@@ -14215,8 +14262,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="161"/>
-      <c r="B153" s="142"/>
+      <c r="A153" s="162"/>
+      <c r="B153" s="165"/>
       <c r="C153" s="65" t="s">
         <v>450</v>
       </c>
@@ -14256,8 +14303,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="161"/>
-      <c r="B154" s="142"/>
+      <c r="A154" s="162"/>
+      <c r="B154" s="165"/>
       <c r="C154" s="65" t="s">
         <v>439</v>
       </c>
@@ -14297,8 +14344,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="161"/>
-      <c r="B155" s="142"/>
+      <c r="A155" s="162"/>
+      <c r="B155" s="165"/>
       <c r="C155" s="65" t="s">
         <v>323</v>
       </c>
@@ -14340,8 +14387,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="161"/>
-      <c r="B156" s="142"/>
+      <c r="A156" s="162"/>
+      <c r="B156" s="165"/>
       <c r="C156" s="65" t="s">
         <v>370</v>
       </c>
@@ -14381,8 +14428,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="162"/>
-      <c r="B157" s="142"/>
+      <c r="A157" s="163"/>
+      <c r="B157" s="165"/>
       <c r="C157" s="65" t="s">
         <v>215</v>
       </c>
@@ -14422,10 +14469,10 @@
       <c r="S157" s="31"/>
     </row>
     <row r="158" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="151" t="s">
+      <c r="A158" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="B158" s="141" t="s">
+      <c r="B158" s="178" t="s">
         <v>197</v>
       </c>
       <c r="C158" s="62" t="s">
@@ -14469,8 +14516,8 @@
       <c r="S158" s="36"/>
     </row>
     <row r="159" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="151"/>
-      <c r="B159" s="142"/>
+      <c r="A159" s="183"/>
+      <c r="B159" s="165"/>
       <c r="C159" s="60" t="s">
         <v>366</v>
       </c>
@@ -14512,8 +14559,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="151"/>
-      <c r="B160" s="142"/>
+      <c r="A160" s="183"/>
+      <c r="B160" s="165"/>
       <c r="C160" s="60" t="s">
         <v>385</v>
       </c>
@@ -14555,8 +14602,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="151"/>
-      <c r="B161" s="142"/>
+      <c r="A161" s="183"/>
+      <c r="B161" s="165"/>
       <c r="C161" s="60" t="s">
         <v>396</v>
       </c>
@@ -14598,8 +14645,8 @@
       <c r="S161" s="26"/>
     </row>
     <row r="162" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="151"/>
-      <c r="B162" s="142"/>
+      <c r="A162" s="183"/>
+      <c r="B162" s="165"/>
       <c r="C162" s="60" t="s">
         <v>254</v>
       </c>
@@ -14639,8 +14686,8 @@
       <c r="S162" s="26"/>
     </row>
     <row r="163" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="151"/>
-      <c r="B163" s="142"/>
+      <c r="A163" s="183"/>
+      <c r="B163" s="165"/>
       <c r="C163" s="61" t="s">
         <v>405</v>
       </c>
@@ -14682,8 +14729,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="151"/>
-      <c r="B164" s="142"/>
+      <c r="A164" s="183"/>
+      <c r="B164" s="165"/>
       <c r="C164" s="60" t="s">
         <v>376</v>
       </c>
@@ -14723,8 +14770,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="151"/>
-      <c r="B165" s="143"/>
+      <c r="A165" s="183"/>
+      <c r="B165" s="170"/>
       <c r="C165" s="60" t="s">
         <v>406</v>
       </c>
@@ -14764,7 +14811,7 @@
       <c r="S165" s="31"/>
     </row>
     <row r="166" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="152" t="s">
+      <c r="A166" s="184" t="s">
         <v>539</v>
       </c>
       <c r="B166" s="72" t="s">
@@ -14807,8 +14854,8 @@
       <c r="S166" s="71"/>
     </row>
     <row r="167" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="152"/>
-      <c r="B167" s="153" t="s">
+      <c r="A167" s="184"/>
+      <c r="B167" s="164" t="s">
         <v>197</v>
       </c>
       <c r="C167" s="60" t="s">
@@ -14846,8 +14893,8 @@
       <c r="S167" s="57"/>
     </row>
     <row r="168" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="152"/>
-      <c r="B168" s="142"/>
+      <c r="A168" s="184"/>
+      <c r="B168" s="165"/>
       <c r="C168" s="60" t="s">
         <v>199</v>
       </c>
@@ -14882,8 +14929,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="152"/>
-      <c r="B169" s="142"/>
+      <c r="A169" s="184"/>
+      <c r="B169" s="165"/>
       <c r="C169" s="60" t="s">
         <v>263</v>
       </c>
@@ -14921,8 +14968,8 @@
       <c r="S169" s="26"/>
     </row>
     <row r="170" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="152"/>
-      <c r="B170" s="142"/>
+      <c r="A170" s="184"/>
+      <c r="B170" s="165"/>
       <c r="C170" s="60" t="s">
         <v>421</v>
       </c>
@@ -14959,8 +15006,8 @@
       <c r="S170" s="26"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="152"/>
-      <c r="B171" s="154"/>
+      <c r="A171" s="184"/>
+      <c r="B171" s="185"/>
       <c r="C171" s="60" t="s">
         <v>422</v>
       </c>
@@ -14998,10 +15045,10 @@
       <c r="S171" s="26"/>
     </row>
     <row r="172" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="140" t="s">
+      <c r="A172" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B172" s="147" t="s">
+      <c r="B172" s="181" t="s">
         <v>55</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -15041,8 +15088,8 @@
       <c r="S172" s="36"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="140"/>
-      <c r="B173" s="148"/>
+      <c r="A173" s="177"/>
+      <c r="B173" s="158"/>
       <c r="C173" s="60" t="s">
         <v>188</v>
       </c>
@@ -15080,8 +15127,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="140"/>
-      <c r="B174" s="148"/>
+      <c r="A174" s="177"/>
+      <c r="B174" s="158"/>
       <c r="C174" s="60" t="s">
         <v>187</v>
       </c>
@@ -15119,8 +15166,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="140"/>
-      <c r="B175" s="148"/>
+      <c r="A175" s="177"/>
+      <c r="B175" s="158"/>
       <c r="C175" s="61" t="s">
         <v>189</v>
       </c>
@@ -15158,8 +15205,8 @@
       <c r="S175" s="31"/>
     </row>
     <row r="176" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="140"/>
-      <c r="B176" s="138" t="s">
+      <c r="A176" s="177"/>
+      <c r="B176" s="175" t="s">
         <v>197</v>
       </c>
       <c r="C176" s="63" t="s">
@@ -15193,8 +15240,8 @@
       <c r="S176" s="57"/>
     </row>
     <row r="177" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="140"/>
-      <c r="B177" s="139"/>
+      <c r="A177" s="177"/>
+      <c r="B177" s="176"/>
       <c r="C177" s="64"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
@@ -15923,18 +15970,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="A133:A157"/>
-    <mergeCell ref="B138:B157"/>
-    <mergeCell ref="A116:A132"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B81:B115"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="A70:A115"/>
-    <mergeCell ref="B133:B137"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="A172:A177"/>
     <mergeCell ref="B158:B165"/>
@@ -15950,6 +15985,18 @@
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="A37:A50"/>
     <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="A133:A157"/>
+    <mergeCell ref="B138:B157"/>
+    <mergeCell ref="A116:A132"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B81:B115"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="A70:A115"/>
+    <mergeCell ref="B133:B137"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB00993-D91E-473A-A17C-30768229314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4225BFAF-50C1-405C-BEB1-6B799BEBC9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -3470,7 +3470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3817,14 +3817,70 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3841,12 +3897,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3857,9 +3907,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3873,65 +3920,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4723,7 +4711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B301-FC9E-4F7D-A454-62A8C1115EDF}">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
@@ -7185,17 +7173,13 @@
       <c r="L73" s="38"/>
     </row>
     <row r="74" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="191"/>
-      <c r="C74" s="192"/>
-      <c r="D74" s="193"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="195"/>
-      <c r="G74" s="193"/>
-      <c r="H74" s="193"/>
-      <c r="I74" s="193"/>
-      <c r="J74" s="193"/>
-      <c r="K74" s="193"/>
-      <c r="L74" s="193"/>
+      <c r="B74" s="158"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="117">
@@ -7563,8 +7547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:V225"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W124" sqref="W124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7585,7 +7569,7 @@
     <col min="14" max="14" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="2" customWidth="1"/>
     <col min="16" max="18" width="11.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="17" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="17" customWidth="1"/>
     <col min="20" max="20" width="77.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7596,25 +7580,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -7629,19 +7613,19 @@
       <c r="F4" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -7692,10 +7676,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="167" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7757,8 +7741,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
-      <c r="B7" s="158"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="60" t="s">
         <v>46</v>
       </c>
@@ -7809,8 +7793,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
-      <c r="B8" s="158"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="60" t="s">
         <v>53</v>
       </c>
@@ -7859,8 +7843,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179"/>
-      <c r="B9" s="158"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="60" t="s">
         <v>287</v>
       </c>
@@ -7911,8 +7895,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="60" t="s">
         <v>47</v>
       </c>
@@ -7956,13 +7940,13 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="130"/>
       <c r="S10" s="26"/>
-      <c r="V10" s="190" t="s">
+      <c r="V10" s="157" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="179"/>
-      <c r="B11" s="158"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="60" t="s">
         <v>63</v>
       </c>
@@ -8010,8 +7994,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="158"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="60" t="s">
         <v>48</v>
       </c>
@@ -8057,8 +8041,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
-      <c r="B13" s="158"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="60" t="s">
         <v>645</v>
       </c>
@@ -8092,8 +8076,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="179"/>
-      <c r="B14" s="158"/>
+      <c r="A14" s="165"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="60" t="s">
         <v>49</v>
       </c>
@@ -8139,8 +8123,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="179"/>
-      <c r="B15" s="158"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="60" t="s">
         <v>78</v>
       </c>
@@ -8186,8 +8170,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="158"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="60" t="s">
         <v>50</v>
       </c>
@@ -8197,7 +8181,7 @@
       <c r="E16" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="157" t="s">
         <v>648</v>
       </c>
       <c r="G16" s="24" t="s">
@@ -8231,8 +8215,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="179"/>
-      <c r="B17" s="158"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="60" t="s">
         <v>51</v>
       </c>
@@ -8242,7 +8226,7 @@
       <c r="E17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="190" t="s">
+      <c r="F17" s="157" t="s">
         <v>648</v>
       </c>
       <c r="G17" s="24" t="s">
@@ -8276,8 +8260,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="179"/>
-      <c r="B18" s="158"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="60" t="s">
         <v>52</v>
       </c>
@@ -8287,7 +8271,7 @@
       <c r="E18" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="F18" s="190" t="s">
+      <c r="F18" s="157" t="s">
         <v>648</v>
       </c>
       <c r="G18" s="24" t="s">
@@ -8321,8 +8305,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="179"/>
-      <c r="B19" s="158"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="60" t="s">
         <v>350</v>
       </c>
@@ -8332,7 +8316,7 @@
       <c r="E19" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="F19" s="190" t="s">
+      <c r="F19" s="157" t="s">
         <v>648</v>
       </c>
       <c r="G19" s="24" t="s">
@@ -8368,8 +8352,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179"/>
-      <c r="B20" s="182"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="61" t="s">
         <v>54</v>
       </c>
@@ -8411,8 +8395,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="179"/>
-      <c r="B21" s="178" t="s">
+      <c r="A21" s="165"/>
+      <c r="B21" s="162" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="120" t="s">
@@ -8463,8 +8447,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="179"/>
-      <c r="B22" s="165"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="61" t="s">
         <v>237</v>
       </c>
@@ -8508,8 +8492,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="179"/>
-      <c r="B23" s="165"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="60" t="s">
         <v>49</v>
       </c>
@@ -8553,8 +8537,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179"/>
-      <c r="B24" s="165"/>
+      <c r="A24" s="165"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="60" t="s">
         <v>124</v>
       </c>
@@ -8600,8 +8584,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
-      <c r="B25" s="165"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="60" t="s">
         <v>239</v>
       </c>
@@ -8649,8 +8633,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
-      <c r="B26" s="165"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="163"/>
       <c r="C26" s="60" t="s">
         <v>354</v>
       </c>
@@ -8694,8 +8678,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179"/>
-      <c r="B27" s="165"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="60" t="s">
         <v>123</v>
       </c>
@@ -8739,8 +8723,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179"/>
-      <c r="B28" s="165"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="163"/>
       <c r="C28" s="60" t="s">
         <v>469</v>
       </c>
@@ -8784,8 +8768,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="179"/>
-      <c r="B29" s="165"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="60" t="s">
         <v>389</v>
       </c>
@@ -8831,8 +8815,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="179"/>
-      <c r="B30" s="165"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="60" t="s">
         <v>242</v>
       </c>
@@ -8879,8 +8863,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
-      <c r="B31" s="165"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="60" t="s">
         <v>355</v>
       </c>
@@ -8926,8 +8910,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="179"/>
-      <c r="B32" s="165"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="163"/>
       <c r="C32" s="60" t="s">
         <v>220</v>
       </c>
@@ -8974,8 +8958,8 @@
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="179"/>
-      <c r="B33" s="165"/>
+      <c r="A33" s="165"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="60" t="s">
         <v>246</v>
       </c>
@@ -9021,8 +9005,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="179"/>
-      <c r="B34" s="165"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="60" t="s">
         <v>379</v>
       </c>
@@ -9032,7 +9016,7 @@
       <c r="E34" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="F34" s="190" t="s">
+      <c r="F34" s="157" t="s">
         <v>648</v>
       </c>
       <c r="G34" s="24" t="s">
@@ -9066,8 +9050,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="179"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="60" t="s">
         <v>392</v>
       </c>
@@ -9077,7 +9061,7 @@
       <c r="E35" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="F35" s="190" t="s">
+      <c r="F35" s="157" t="s">
         <v>648</v>
       </c>
       <c r="G35" s="24" t="s">
@@ -9111,8 +9095,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
-      <c r="B36" s="170"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="65" t="s">
         <v>238</v>
       </c>
@@ -9156,10 +9140,10 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="186" t="s">
+      <c r="A37" s="175" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="157" t="s">
+      <c r="B37" s="170" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="62" t="s">
@@ -9204,8 +9188,8 @@
       <c r="T37" s="33"/>
     </row>
     <row r="38" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="187"/>
-      <c r="B38" s="158"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="60" t="s">
         <v>111</v>
       </c>
@@ -9247,8 +9231,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="187"/>
-      <c r="B39" s="158"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="60" t="s">
         <v>112</v>
       </c>
@@ -9291,8 +9275,8 @@
       <c r="T39" s="23"/>
     </row>
     <row r="40" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="187"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="176"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="61" t="s">
         <v>113</v>
       </c>
@@ -9302,7 +9286,7 @@
       <c r="E40" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="F40" s="189" t="s">
+      <c r="F40" s="156" t="s">
         <v>652</v>
       </c>
       <c r="G40" s="29" t="s">
@@ -9340,8 +9324,8 @@
       <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="187"/>
-      <c r="B41" s="164" t="s">
+      <c r="A41" s="176"/>
+      <c r="B41" s="173" t="s">
         <v>197</v>
       </c>
       <c r="C41" s="63" t="s">
@@ -9387,8 +9371,8 @@
       <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="187"/>
-      <c r="B42" s="165"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="60" t="s">
         <v>222</v>
       </c>
@@ -9428,8 +9412,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="187"/>
-      <c r="B43" s="165"/>
+      <c r="A43" s="176"/>
+      <c r="B43" s="163"/>
       <c r="C43" s="60" t="s">
         <v>262</v>
       </c>
@@ -9469,8 +9453,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="187"/>
-      <c r="B44" s="165"/>
+      <c r="A44" s="176"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="60" t="s">
         <v>223</v>
       </c>
@@ -9512,8 +9496,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="187"/>
-      <c r="B45" s="165"/>
+      <c r="A45" s="176"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="60" t="s">
         <v>494</v>
       </c>
@@ -9556,8 +9540,8 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="187"/>
-      <c r="B46" s="165"/>
+      <c r="A46" s="176"/>
+      <c r="B46" s="163"/>
       <c r="C46" s="60" t="s">
         <v>417</v>
       </c>
@@ -9599,8 +9583,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="187"/>
-      <c r="B47" s="165"/>
+      <c r="A47" s="176"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="60" t="s">
         <v>414</v>
       </c>
@@ -9640,8 +9624,8 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="187"/>
-      <c r="B48" s="165"/>
+      <c r="A48" s="176"/>
+      <c r="B48" s="163"/>
       <c r="C48" s="60" t="s">
         <v>412</v>
       </c>
@@ -9687,8 +9671,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="187"/>
-      <c r="B49" s="165"/>
+      <c r="A49" s="176"/>
+      <c r="B49" s="163"/>
       <c r="C49" s="60" t="s">
         <v>261</v>
       </c>
@@ -9730,8 +9714,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="188"/>
-      <c r="B50" s="170"/>
+      <c r="A50" s="177"/>
+      <c r="B50" s="164"/>
       <c r="C50" s="65" t="s">
         <v>535</v>
       </c>
@@ -9773,10 +9757,10 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="159" t="s">
+      <c r="A51" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="157" t="s">
+      <c r="B51" s="170" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -9823,8 +9807,8 @@
       <c r="T51" s="33"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="160"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="180"/>
+      <c r="B52" s="168"/>
       <c r="C52" s="60" t="s">
         <v>70</v>
       </c>
@@ -9870,8 +9854,8 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="160"/>
-      <c r="B53" s="158"/>
+      <c r="A53" s="180"/>
+      <c r="B53" s="168"/>
       <c r="C53" s="60" t="s">
         <v>71</v>
       </c>
@@ -9917,8 +9901,8 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="160"/>
-      <c r="B54" s="158"/>
+      <c r="A54" s="180"/>
+      <c r="B54" s="168"/>
       <c r="C54" s="61" t="s">
         <v>72</v>
       </c>
@@ -9964,8 +9948,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="160"/>
-      <c r="B55" s="158"/>
+      <c r="A55" s="180"/>
+      <c r="B55" s="168"/>
       <c r="C55" s="65" t="s">
         <v>612</v>
       </c>
@@ -10009,8 +9993,8 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="160"/>
-      <c r="B56" s="164" t="s">
+      <c r="A56" s="180"/>
+      <c r="B56" s="173" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -10056,8 +10040,8 @@
       <c r="S56" s="57"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="160"/>
-      <c r="B57" s="165"/>
+      <c r="A57" s="180"/>
+      <c r="B57" s="163"/>
       <c r="C57" s="60" t="s">
         <v>213</v>
       </c>
@@ -10103,8 +10087,8 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="160"/>
-      <c r="B58" s="165"/>
+      <c r="A58" s="180"/>
+      <c r="B58" s="163"/>
       <c r="C58" s="60" t="s">
         <v>206</v>
       </c>
@@ -10146,8 +10130,8 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="160"/>
-      <c r="B59" s="165"/>
+      <c r="A59" s="180"/>
+      <c r="B59" s="163"/>
       <c r="C59" s="60" t="s">
         <v>201</v>
       </c>
@@ -10193,8 +10177,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="160"/>
-      <c r="B60" s="165"/>
+      <c r="A60" s="180"/>
+      <c r="B60" s="163"/>
       <c r="C60" s="60" t="s">
         <v>202</v>
       </c>
@@ -10240,8 +10224,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="160"/>
-      <c r="B61" s="165"/>
+      <c r="A61" s="180"/>
+      <c r="B61" s="163"/>
       <c r="C61" s="60" t="s">
         <v>95</v>
       </c>
@@ -10285,8 +10269,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="160"/>
-      <c r="B62" s="165"/>
+      <c r="A62" s="180"/>
+      <c r="B62" s="163"/>
       <c r="C62" s="60" t="s">
         <v>419</v>
       </c>
@@ -10330,8 +10314,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="160"/>
-      <c r="B63" s="165"/>
+      <c r="A63" s="180"/>
+      <c r="B63" s="163"/>
       <c r="C63" s="60" t="s">
         <v>203</v>
       </c>
@@ -10377,8 +10361,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="160"/>
-      <c r="B64" s="165"/>
+      <c r="A64" s="180"/>
+      <c r="B64" s="163"/>
       <c r="C64" s="60" t="s">
         <v>433</v>
       </c>
@@ -10424,8 +10408,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="160"/>
-      <c r="B65" s="165"/>
+      <c r="A65" s="180"/>
+      <c r="B65" s="163"/>
       <c r="C65" s="60" t="s">
         <v>381</v>
       </c>
@@ -10470,8 +10454,8 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="160"/>
-      <c r="B66" s="165"/>
+      <c r="A66" s="180"/>
+      <c r="B66" s="163"/>
       <c r="C66" s="60" t="s">
         <v>398</v>
       </c>
@@ -10481,7 +10465,7 @@
       <c r="E66" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="F66" s="190" t="s">
+      <c r="F66" s="157" t="s">
         <v>648</v>
       </c>
       <c r="G66" s="24" t="s">
@@ -10517,8 +10501,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="160"/>
-      <c r="B67" s="165"/>
+      <c r="A67" s="180"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="60" t="s">
         <v>258</v>
       </c>
@@ -10565,8 +10549,8 @@
       <c r="T67" s="23"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="160"/>
-      <c r="B68" s="165"/>
+      <c r="A68" s="180"/>
+      <c r="B68" s="163"/>
       <c r="C68" s="60" t="s">
         <v>436</v>
       </c>
@@ -10610,8 +10594,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="160"/>
-      <c r="B69" s="165"/>
+      <c r="A69" s="180"/>
+      <c r="B69" s="163"/>
       <c r="C69" s="61" t="s">
         <v>207</v>
       </c>
@@ -10656,10 +10640,10 @@
       <c r="T69" s="28"/>
     </row>
     <row r="70" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="172" t="s">
+      <c r="A70" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="171"/>
+      <c r="B70" s="188"/>
       <c r="C70" s="62" t="s">
         <v>83</v>
       </c>
@@ -10706,8 +10690,8 @@
       <c r="T70" s="33"/>
     </row>
     <row r="71" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="173"/>
-      <c r="B71" s="158"/>
+      <c r="A71" s="190"/>
+      <c r="B71" s="168"/>
       <c r="C71" s="60" t="s">
         <v>84</v>
       </c>
@@ -10753,8 +10737,8 @@
       <c r="S71" s="26"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="173"/>
-      <c r="B72" s="158"/>
+      <c r="A72" s="190"/>
+      <c r="B72" s="168"/>
       <c r="C72" s="60" t="s">
         <v>85</v>
       </c>
@@ -10802,8 +10786,8 @@
       <c r="S72" s="26"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="173"/>
-      <c r="B73" s="158"/>
+      <c r="A73" s="190"/>
+      <c r="B73" s="168"/>
       <c r="C73" s="60" t="s">
         <v>86</v>
       </c>
@@ -10849,8 +10833,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="173"/>
-      <c r="B74" s="158"/>
+      <c r="A74" s="190"/>
+      <c r="B74" s="168"/>
       <c r="C74" s="60" t="s">
         <v>87</v>
       </c>
@@ -10898,8 +10882,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="173"/>
-      <c r="B75" s="158"/>
+      <c r="A75" s="190"/>
+      <c r="B75" s="168"/>
       <c r="C75" s="60" t="s">
         <v>88</v>
       </c>
@@ -10945,8 +10929,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="173"/>
-      <c r="B76" s="158"/>
+      <c r="A76" s="190"/>
+      <c r="B76" s="168"/>
       <c r="C76" s="60" t="s">
         <v>89</v>
       </c>
@@ -10990,8 +10974,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="173"/>
-      <c r="B77" s="158"/>
+      <c r="A77" s="190"/>
+      <c r="B77" s="168"/>
       <c r="C77" s="60" t="s">
         <v>90</v>
       </c>
@@ -11037,8 +11021,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="173"/>
-      <c r="B78" s="158"/>
+      <c r="A78" s="190"/>
+      <c r="B78" s="168"/>
       <c r="C78" s="60" t="s">
         <v>91</v>
       </c>
@@ -11086,8 +11070,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="173"/>
-      <c r="B79" s="158"/>
+      <c r="A79" s="190"/>
+      <c r="B79" s="168"/>
       <c r="C79" s="60" t="s">
         <v>229</v>
       </c>
@@ -11133,8 +11117,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="173"/>
-      <c r="B80" s="169"/>
+      <c r="A80" s="190"/>
+      <c r="B80" s="187"/>
       <c r="C80" s="61" t="s">
         <v>94</v>
       </c>
@@ -11180,8 +11164,8 @@
       <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="173"/>
-      <c r="B81" s="165" t="s">
+      <c r="A81" s="190"/>
+      <c r="B81" s="163" t="s">
         <v>197</v>
       </c>
       <c r="C81" s="63" t="s">
@@ -11225,8 +11209,8 @@
       <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="173"/>
-      <c r="B82" s="165"/>
+      <c r="A82" s="190"/>
+      <c r="B82" s="163"/>
       <c r="C82" s="60" t="s">
         <v>217</v>
       </c>
@@ -11269,8 +11253,8 @@
       <c r="S82" s="26"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="173"/>
-      <c r="B83" s="165"/>
+      <c r="A83" s="190"/>
+      <c r="B83" s="163"/>
       <c r="C83" s="60" t="s">
         <v>431</v>
       </c>
@@ -11314,8 +11298,8 @@
       <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="173"/>
-      <c r="B84" s="165"/>
+      <c r="A84" s="190"/>
+      <c r="B84" s="163"/>
       <c r="C84" s="60" t="s">
         <v>299</v>
       </c>
@@ -11359,8 +11343,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="173"/>
-      <c r="B85" s="165"/>
+      <c r="A85" s="190"/>
+      <c r="B85" s="163"/>
       <c r="C85" s="60" t="s">
         <v>372</v>
       </c>
@@ -11404,8 +11388,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="173"/>
-      <c r="B86" s="165"/>
+      <c r="A86" s="190"/>
+      <c r="B86" s="163"/>
       <c r="C86" s="60" t="s">
         <v>225</v>
       </c>
@@ -11449,8 +11433,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="173"/>
-      <c r="B87" s="165"/>
+      <c r="A87" s="190"/>
+      <c r="B87" s="163"/>
       <c r="C87" s="60" t="s">
         <v>326</v>
       </c>
@@ -11496,8 +11480,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="173"/>
-      <c r="B88" s="165"/>
+      <c r="A88" s="190"/>
+      <c r="B88" s="163"/>
       <c r="C88" s="61" t="s">
         <v>253</v>
       </c>
@@ -11541,8 +11525,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="173"/>
-      <c r="B89" s="165"/>
+      <c r="A89" s="190"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="60" t="s">
         <v>408</v>
       </c>
@@ -11583,8 +11567,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="173"/>
-      <c r="B90" s="165"/>
+      <c r="A90" s="190"/>
+      <c r="B90" s="163"/>
       <c r="C90" s="60" t="s">
         <v>374</v>
       </c>
@@ -11626,8 +11610,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="173"/>
-      <c r="B91" s="165"/>
+      <c r="A91" s="190"/>
+      <c r="B91" s="163"/>
       <c r="C91" s="60" t="s">
         <v>361</v>
       </c>
@@ -11671,8 +11655,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="173"/>
-      <c r="B92" s="165"/>
+      <c r="A92" s="190"/>
+      <c r="B92" s="163"/>
       <c r="C92" s="60" t="s">
         <v>357</v>
       </c>
@@ -11716,8 +11700,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="173"/>
-      <c r="B93" s="165"/>
+      <c r="A93" s="190"/>
+      <c r="B93" s="163"/>
       <c r="C93" s="60" t="s">
         <v>216</v>
       </c>
@@ -11760,8 +11744,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="173"/>
-      <c r="B94" s="165"/>
+      <c r="A94" s="190"/>
+      <c r="B94" s="163"/>
       <c r="C94" s="60" t="s">
         <v>377</v>
       </c>
@@ -11805,8 +11789,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="173"/>
-      <c r="B95" s="165"/>
+      <c r="A95" s="190"/>
+      <c r="B95" s="163"/>
       <c r="C95" s="60" t="s">
         <v>226</v>
       </c>
@@ -11850,8 +11834,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="173"/>
-      <c r="B96" s="165"/>
+      <c r="A96" s="190"/>
+      <c r="B96" s="163"/>
       <c r="C96" s="60" t="s">
         <v>251</v>
       </c>
@@ -11895,8 +11879,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="173"/>
-      <c r="B97" s="165"/>
+      <c r="A97" s="190"/>
+      <c r="B97" s="163"/>
       <c r="C97" s="60" t="s">
         <v>298</v>
       </c>
@@ -11940,8 +11924,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="173"/>
-      <c r="B98" s="165"/>
+      <c r="A98" s="190"/>
+      <c r="B98" s="163"/>
       <c r="C98" s="60" t="s">
         <v>228</v>
       </c>
@@ -11985,8 +11969,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="173"/>
-      <c r="B99" s="165"/>
+      <c r="A99" s="190"/>
+      <c r="B99" s="163"/>
       <c r="C99" s="60" t="s">
         <v>236</v>
       </c>
@@ -12025,8 +12009,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="173"/>
-      <c r="B100" s="165"/>
+      <c r="A100" s="190"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="60" t="s">
         <v>227</v>
       </c>
@@ -12067,8 +12051,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="173"/>
-      <c r="B101" s="165"/>
+      <c r="A101" s="190"/>
+      <c r="B101" s="163"/>
       <c r="C101" s="65" t="s">
         <v>221</v>
       </c>
@@ -12114,8 +12098,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="173"/>
-      <c r="B102" s="165"/>
+      <c r="A102" s="190"/>
+      <c r="B102" s="163"/>
       <c r="C102" s="60" t="s">
         <v>218</v>
       </c>
@@ -12157,8 +12141,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="173"/>
-      <c r="B103" s="165"/>
+      <c r="A103" s="190"/>
+      <c r="B103" s="163"/>
       <c r="C103" s="60" t="s">
         <v>219</v>
       </c>
@@ -12202,8 +12186,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="173"/>
-      <c r="B104" s="165"/>
+      <c r="A104" s="190"/>
+      <c r="B104" s="163"/>
       <c r="C104" s="60" t="s">
         <v>363</v>
       </c>
@@ -12244,8 +12228,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="173"/>
-      <c r="B105" s="165"/>
+      <c r="A105" s="190"/>
+      <c r="B105" s="163"/>
       <c r="C105" s="60" t="s">
         <v>235</v>
       </c>
@@ -12286,8 +12270,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="173"/>
-      <c r="B106" s="165"/>
+      <c r="A106" s="190"/>
+      <c r="B106" s="163"/>
       <c r="C106" s="60" t="s">
         <v>210</v>
       </c>
@@ -12329,8 +12313,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="173"/>
-      <c r="B107" s="165"/>
+      <c r="A107" s="190"/>
+      <c r="B107" s="163"/>
       <c r="C107" s="60" t="s">
         <v>211</v>
       </c>
@@ -12372,8 +12356,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="173"/>
-      <c r="B108" s="165"/>
+      <c r="A108" s="190"/>
+      <c r="B108" s="163"/>
       <c r="C108" s="60" t="s">
         <v>506</v>
       </c>
@@ -12414,8 +12398,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="173"/>
-      <c r="B109" s="165"/>
+      <c r="A109" s="190"/>
+      <c r="B109" s="163"/>
       <c r="C109" s="60" t="s">
         <v>252</v>
       </c>
@@ -12456,8 +12440,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="173"/>
-      <c r="B110" s="165"/>
+      <c r="A110" s="190"/>
+      <c r="B110" s="163"/>
       <c r="C110" s="60" t="s">
         <v>255</v>
       </c>
@@ -12467,7 +12451,7 @@
       <c r="E110" s="152" t="s">
         <v>320</v>
       </c>
-      <c r="F110" s="190" t="s">
+      <c r="F110" s="157" t="s">
         <v>648</v>
       </c>
       <c r="G110" s="24" t="s">
@@ -12501,8 +12485,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="173"/>
-      <c r="B111" s="165"/>
+      <c r="A111" s="190"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="60" t="s">
         <v>232</v>
       </c>
@@ -12548,8 +12532,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="173"/>
-      <c r="B112" s="165"/>
+      <c r="A112" s="190"/>
+      <c r="B112" s="163"/>
       <c r="C112" s="60" t="s">
         <v>233</v>
       </c>
@@ -12595,8 +12579,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="173"/>
-      <c r="B113" s="165"/>
+      <c r="A113" s="190"/>
+      <c r="B113" s="163"/>
       <c r="C113" s="65" t="s">
         <v>606</v>
       </c>
@@ -12623,8 +12607,8 @@
       <c r="T113" s="23"/>
     </row>
     <row r="114" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="173"/>
-      <c r="B114" s="165"/>
+      <c r="A114" s="190"/>
+      <c r="B114" s="163"/>
       <c r="C114" s="60" t="s">
         <v>329</v>
       </c>
@@ -12669,8 +12653,8 @@
       <c r="T114" s="23"/>
     </row>
     <row r="115" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="174"/>
-      <c r="B115" s="170"/>
+      <c r="A115" s="191"/>
+      <c r="B115" s="164"/>
       <c r="C115" s="61" t="s">
         <v>322</v>
       </c>
@@ -12723,10 +12707,10 @@
       <c r="T115" s="28"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="166" t="s">
+      <c r="A116" s="184" t="s">
         <v>504</v>
       </c>
-      <c r="B116" s="157" t="s">
+      <c r="B116" s="170" t="s">
         <v>55</v>
       </c>
       <c r="C116" s="62" t="s">
@@ -12769,8 +12753,8 @@
       <c r="T116" s="33"/>
     </row>
     <row r="117" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="167"/>
-      <c r="B117" s="158"/>
+      <c r="A117" s="185"/>
+      <c r="B117" s="168"/>
       <c r="C117" s="60" t="s">
         <v>96</v>
       </c>
@@ -12814,8 +12798,8 @@
       <c r="S117" s="26"/>
     </row>
     <row r="118" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="167"/>
-      <c r="B118" s="158"/>
+      <c r="A118" s="185"/>
+      <c r="B118" s="168"/>
       <c r="C118" s="60" t="s">
         <v>97</v>
       </c>
@@ -12859,8 +12843,8 @@
       <c r="S118" s="26"/>
     </row>
     <row r="119" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="167"/>
-      <c r="B119" s="158"/>
+      <c r="A119" s="185"/>
+      <c r="B119" s="168"/>
       <c r="C119" s="60" t="s">
         <v>108</v>
       </c>
@@ -12900,8 +12884,8 @@
       <c r="S119" s="26"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="167"/>
-      <c r="B120" s="158"/>
+      <c r="A120" s="185"/>
+      <c r="B120" s="168"/>
       <c r="C120" s="61" t="s">
         <v>98</v>
       </c>
@@ -12942,8 +12926,8 @@
       <c r="T120" s="28"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="167"/>
-      <c r="B121" s="158"/>
+      <c r="A121" s="185"/>
+      <c r="B121" s="168"/>
       <c r="C121" s="60" t="s">
         <v>183</v>
       </c>
@@ -12984,8 +12968,8 @@
       <c r="T121" s="28"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="167"/>
-      <c r="B122" s="158"/>
+      <c r="A122" s="185"/>
+      <c r="B122" s="168"/>
       <c r="C122" s="61" t="s">
         <v>120</v>
       </c>
@@ -13026,8 +13010,8 @@
       <c r="T122" s="28"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="167"/>
-      <c r="B123" s="158"/>
+      <c r="A123" s="185"/>
+      <c r="B123" s="168"/>
       <c r="C123" s="60" t="s">
         <v>100</v>
       </c>
@@ -13069,8 +13053,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="167"/>
-      <c r="B124" s="158"/>
+      <c r="A124" s="185"/>
+      <c r="B124" s="168"/>
       <c r="C124" s="60" t="s">
         <v>505</v>
       </c>
@@ -13112,8 +13096,8 @@
       <c r="S124" s="26"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="167"/>
-      <c r="B125" s="169"/>
+      <c r="A125" s="185"/>
+      <c r="B125" s="187"/>
       <c r="C125" s="60" t="s">
         <v>180</v>
       </c>
@@ -13153,8 +13137,8 @@
       <c r="S125" s="26"/>
     </row>
     <row r="126" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="167"/>
-      <c r="B126" s="164" t="s">
+      <c r="A126" s="185"/>
+      <c r="B126" s="173" t="s">
         <v>197</v>
       </c>
       <c r="C126" s="63" t="s">
@@ -13199,8 +13183,8 @@
       <c r="T126" s="23"/>
     </row>
     <row r="127" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="167"/>
-      <c r="B127" s="165"/>
+      <c r="A127" s="185"/>
+      <c r="B127" s="163"/>
       <c r="C127" s="60" t="s">
         <v>452</v>
       </c>
@@ -13241,8 +13225,8 @@
       <c r="T127" s="23"/>
     </row>
     <row r="128" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="167"/>
-      <c r="B128" s="165"/>
+      <c r="A128" s="185"/>
+      <c r="B128" s="163"/>
       <c r="C128" s="60" t="s">
         <v>455</v>
       </c>
@@ -13283,8 +13267,8 @@
       <c r="T128" s="23"/>
     </row>
     <row r="129" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="167"/>
-      <c r="B129" s="165"/>
+      <c r="A129" s="185"/>
+      <c r="B129" s="163"/>
       <c r="C129" s="61" t="s">
         <v>429</v>
       </c>
@@ -13327,8 +13311,8 @@
       <c r="T129" s="23"/>
     </row>
     <row r="130" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="167"/>
-      <c r="B130" s="165"/>
+      <c r="A130" s="185"/>
+      <c r="B130" s="163"/>
       <c r="C130" s="60" t="s">
         <v>234</v>
       </c>
@@ -13369,8 +13353,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="167"/>
-      <c r="B131" s="165"/>
+      <c r="A131" s="185"/>
+      <c r="B131" s="163"/>
       <c r="C131" s="60" t="s">
         <v>212</v>
       </c>
@@ -13411,8 +13395,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="168"/>
-      <c r="B132" s="165"/>
+      <c r="A132" s="186"/>
+      <c r="B132" s="163"/>
       <c r="C132" s="65" t="s">
         <v>632</v>
       </c>
@@ -13435,10 +13419,10 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="161" t="s">
+      <c r="A133" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="B133" s="157" t="s">
+      <c r="B133" s="170" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="62" t="s">
@@ -13481,8 +13465,8 @@
       <c r="T133" s="33"/>
     </row>
     <row r="134" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="162"/>
-      <c r="B134" s="158"/>
+      <c r="A134" s="182"/>
+      <c r="B134" s="168"/>
       <c r="C134" s="61" t="s">
         <v>99</v>
       </c>
@@ -13522,8 +13506,8 @@
       <c r="S134" s="31"/>
     </row>
     <row r="135" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="162"/>
-      <c r="B135" s="158"/>
+      <c r="A135" s="182"/>
+      <c r="B135" s="168"/>
       <c r="C135" s="65" t="s">
         <v>610</v>
       </c>
@@ -13566,8 +13550,8 @@
       <c r="T135" s="19"/>
     </row>
     <row r="136" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="162"/>
-      <c r="B136" s="158"/>
+      <c r="A136" s="182"/>
+      <c r="B136" s="168"/>
       <c r="C136" s="60" t="s">
         <v>119</v>
       </c>
@@ -13609,8 +13593,8 @@
       <c r="T136" s="19"/>
     </row>
     <row r="137" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="162"/>
-      <c r="B137" s="158"/>
+      <c r="A137" s="182"/>
+      <c r="B137" s="168"/>
       <c r="C137" s="60" t="s">
         <v>118</v>
       </c>
@@ -13652,8 +13636,8 @@
       <c r="T137" s="19"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="162"/>
-      <c r="B138" s="164" t="s">
+      <c r="A138" s="182"/>
+      <c r="B138" s="173" t="s">
         <v>197</v>
       </c>
       <c r="C138" s="63" t="s">
@@ -13695,8 +13679,8 @@
       <c r="S138" s="57"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="162"/>
-      <c r="B139" s="165"/>
+      <c r="A139" s="182"/>
+      <c r="B139" s="163"/>
       <c r="C139" s="60" t="s">
         <v>403</v>
       </c>
@@ -13735,8 +13719,8 @@
       <c r="S139" s="26"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="162"/>
-      <c r="B140" s="165"/>
+      <c r="A140" s="182"/>
+      <c r="B140" s="163"/>
       <c r="C140" s="60" t="s">
         <v>259</v>
       </c>
@@ -13776,8 +13760,8 @@
       <c r="S140" s="26"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="162"/>
-      <c r="B141" s="165"/>
+      <c r="A141" s="182"/>
+      <c r="B141" s="163"/>
       <c r="C141" s="65" t="s">
         <v>626</v>
       </c>
@@ -13811,8 +13795,8 @@
       <c r="S141" s="26"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="162"/>
-      <c r="B142" s="165"/>
+      <c r="A142" s="182"/>
+      <c r="B142" s="163"/>
       <c r="C142" s="60" t="s">
         <v>426</v>
       </c>
@@ -13852,8 +13836,8 @@
       <c r="S142" s="26"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="162"/>
-      <c r="B143" s="165"/>
+      <c r="A143" s="182"/>
+      <c r="B143" s="163"/>
       <c r="C143" s="60" t="s">
         <v>384</v>
       </c>
@@ -13893,8 +13877,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="162"/>
-      <c r="B144" s="165"/>
+      <c r="A144" s="182"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="60" t="s">
         <v>443</v>
       </c>
@@ -13934,8 +13918,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="162"/>
-      <c r="B145" s="165"/>
+      <c r="A145" s="182"/>
+      <c r="B145" s="163"/>
       <c r="C145" s="60" t="s">
         <v>362</v>
       </c>
@@ -13975,8 +13959,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="162"/>
-      <c r="B146" s="165"/>
+      <c r="A146" s="182"/>
+      <c r="B146" s="163"/>
       <c r="C146" s="60" t="s">
         <v>230</v>
       </c>
@@ -14016,8 +14000,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="162"/>
-      <c r="B147" s="165"/>
+      <c r="A147" s="182"/>
+      <c r="B147" s="163"/>
       <c r="C147" s="60" t="s">
         <v>425</v>
       </c>
@@ -14057,8 +14041,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="162"/>
-      <c r="B148" s="165"/>
+      <c r="A148" s="182"/>
+      <c r="B148" s="163"/>
       <c r="C148" s="60" t="s">
         <v>400</v>
       </c>
@@ -14098,8 +14082,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="162"/>
-      <c r="B149" s="165"/>
+      <c r="A149" s="182"/>
+      <c r="B149" s="163"/>
       <c r="C149" s="60" t="s">
         <v>437</v>
       </c>
@@ -14139,8 +14123,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="162"/>
-      <c r="B150" s="165"/>
+      <c r="A150" s="182"/>
+      <c r="B150" s="163"/>
       <c r="C150" s="60" t="s">
         <v>410</v>
       </c>
@@ -14180,8 +14164,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="162"/>
-      <c r="B151" s="165"/>
+      <c r="A151" s="182"/>
+      <c r="B151" s="163"/>
       <c r="C151" s="65" t="s">
         <v>525</v>
       </c>
@@ -14221,8 +14205,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="162"/>
-      <c r="B152" s="165"/>
+      <c r="A152" s="182"/>
+      <c r="B152" s="163"/>
       <c r="C152" s="65" t="s">
         <v>260</v>
       </c>
@@ -14262,8 +14246,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="162"/>
-      <c r="B153" s="165"/>
+      <c r="A153" s="182"/>
+      <c r="B153" s="163"/>
       <c r="C153" s="65" t="s">
         <v>450</v>
       </c>
@@ -14303,8 +14287,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="162"/>
-      <c r="B154" s="165"/>
+      <c r="A154" s="182"/>
+      <c r="B154" s="163"/>
       <c r="C154" s="65" t="s">
         <v>439</v>
       </c>
@@ -14344,8 +14328,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="162"/>
-      <c r="B155" s="165"/>
+      <c r="A155" s="182"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="65" t="s">
         <v>323</v>
       </c>
@@ -14387,8 +14371,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="162"/>
-      <c r="B156" s="165"/>
+      <c r="A156" s="182"/>
+      <c r="B156" s="163"/>
       <c r="C156" s="65" t="s">
         <v>370</v>
       </c>
@@ -14428,8 +14412,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="163"/>
-      <c r="B157" s="165"/>
+      <c r="A157" s="183"/>
+      <c r="B157" s="163"/>
       <c r="C157" s="65" t="s">
         <v>215</v>
       </c>
@@ -14469,10 +14453,10 @@
       <c r="S157" s="31"/>
     </row>
     <row r="158" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="183" t="s">
+      <c r="A158" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="B158" s="178" t="s">
+      <c r="B158" s="162" t="s">
         <v>197</v>
       </c>
       <c r="C158" s="62" t="s">
@@ -14516,8 +14500,8 @@
       <c r="S158" s="36"/>
     </row>
     <row r="159" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="183"/>
-      <c r="B159" s="165"/>
+      <c r="A159" s="171"/>
+      <c r="B159" s="163"/>
       <c r="C159" s="60" t="s">
         <v>366</v>
       </c>
@@ -14559,8 +14543,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="183"/>
-      <c r="B160" s="165"/>
+      <c r="A160" s="171"/>
+      <c r="B160" s="163"/>
       <c r="C160" s="60" t="s">
         <v>385</v>
       </c>
@@ -14602,8 +14586,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="183"/>
-      <c r="B161" s="165"/>
+      <c r="A161" s="171"/>
+      <c r="B161" s="163"/>
       <c r="C161" s="60" t="s">
         <v>396</v>
       </c>
@@ -14645,8 +14629,8 @@
       <c r="S161" s="26"/>
     </row>
     <row r="162" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="183"/>
-      <c r="B162" s="165"/>
+      <c r="A162" s="171"/>
+      <c r="B162" s="163"/>
       <c r="C162" s="60" t="s">
         <v>254</v>
       </c>
@@ -14686,8 +14670,8 @@
       <c r="S162" s="26"/>
     </row>
     <row r="163" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="183"/>
-      <c r="B163" s="165"/>
+      <c r="A163" s="171"/>
+      <c r="B163" s="163"/>
       <c r="C163" s="61" t="s">
         <v>405</v>
       </c>
@@ -14729,8 +14713,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="183"/>
-      <c r="B164" s="165"/>
+      <c r="A164" s="171"/>
+      <c r="B164" s="163"/>
       <c r="C164" s="60" t="s">
         <v>376</v>
       </c>
@@ -14770,8 +14754,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="183"/>
-      <c r="B165" s="170"/>
+      <c r="A165" s="171"/>
+      <c r="B165" s="164"/>
       <c r="C165" s="60" t="s">
         <v>406</v>
       </c>
@@ -14811,7 +14795,7 @@
       <c r="S165" s="31"/>
     </row>
     <row r="166" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="184" t="s">
+      <c r="A166" s="172" t="s">
         <v>539</v>
       </c>
       <c r="B166" s="72" t="s">
@@ -14854,8 +14838,8 @@
       <c r="S166" s="71"/>
     </row>
     <row r="167" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="184"/>
-      <c r="B167" s="164" t="s">
+      <c r="A167" s="172"/>
+      <c r="B167" s="173" t="s">
         <v>197</v>
       </c>
       <c r="C167" s="60" t="s">
@@ -14893,8 +14877,8 @@
       <c r="S167" s="57"/>
     </row>
     <row r="168" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="184"/>
-      <c r="B168" s="165"/>
+      <c r="A168" s="172"/>
+      <c r="B168" s="163"/>
       <c r="C168" s="60" t="s">
         <v>199</v>
       </c>
@@ -14929,8 +14913,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="184"/>
-      <c r="B169" s="165"/>
+      <c r="A169" s="172"/>
+      <c r="B169" s="163"/>
       <c r="C169" s="60" t="s">
         <v>263</v>
       </c>
@@ -14968,8 +14952,8 @@
       <c r="S169" s="26"/>
     </row>
     <row r="170" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="184"/>
-      <c r="B170" s="165"/>
+      <c r="A170" s="172"/>
+      <c r="B170" s="163"/>
       <c r="C170" s="60" t="s">
         <v>421</v>
       </c>
@@ -15006,8 +14990,8 @@
       <c r="S170" s="26"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="184"/>
-      <c r="B171" s="185"/>
+      <c r="A171" s="172"/>
+      <c r="B171" s="174"/>
       <c r="C171" s="60" t="s">
         <v>422</v>
       </c>
@@ -15045,10 +15029,10 @@
       <c r="S171" s="26"/>
     </row>
     <row r="172" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="177" t="s">
+      <c r="A172" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="B172" s="181" t="s">
+      <c r="B172" s="167" t="s">
         <v>55</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -15088,8 +15072,8 @@
       <c r="S172" s="36"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="177"/>
-      <c r="B173" s="158"/>
+      <c r="A173" s="161"/>
+      <c r="B173" s="168"/>
       <c r="C173" s="60" t="s">
         <v>188</v>
       </c>
@@ -15127,8 +15111,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="177"/>
-      <c r="B174" s="158"/>
+      <c r="A174" s="161"/>
+      <c r="B174" s="168"/>
       <c r="C174" s="60" t="s">
         <v>187</v>
       </c>
@@ -15166,8 +15150,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="177"/>
-      <c r="B175" s="158"/>
+      <c r="A175" s="161"/>
+      <c r="B175" s="168"/>
       <c r="C175" s="61" t="s">
         <v>189</v>
       </c>
@@ -15205,8 +15189,8 @@
       <c r="S175" s="31"/>
     </row>
     <row r="176" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="177"/>
-      <c r="B176" s="175" t="s">
+      <c r="A176" s="161"/>
+      <c r="B176" s="159" t="s">
         <v>197</v>
       </c>
       <c r="C176" s="63" t="s">
@@ -15240,8 +15224,8 @@
       <c r="S176" s="57"/>
     </row>
     <row r="177" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="177"/>
-      <c r="B177" s="176"/>
+      <c r="A177" s="161"/>
+      <c r="B177" s="160"/>
       <c r="C177" s="64"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
@@ -15970,6 +15954,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="A133:A157"/>
+    <mergeCell ref="B138:B157"/>
+    <mergeCell ref="A116:A132"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B81:B115"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="A70:A115"/>
+    <mergeCell ref="B133:B137"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="A172:A177"/>
     <mergeCell ref="B158:B165"/>
@@ -15985,18 +15981,6 @@
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="A37:A50"/>
     <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="A133:A157"/>
-    <mergeCell ref="B138:B157"/>
-    <mergeCell ref="A116:A132"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B81:B115"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="A70:A115"/>
-    <mergeCell ref="B133:B137"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC2DBFC-F364-4765-9F20-F378ED969598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721A806F-4CCC-4F54-8DD8-81E9909B5750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCDE0E-98FF-41C1-8B0D-23FAE28D0332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D074B-4FAA-462D-97D5-6DCD399123CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -3518,7 +3518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3882,65 +3882,15 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3957,6 +3907,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3967,6 +3923,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3981,7 +3940,50 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4772,9 +4774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B301-FC9E-4F7D-A454-62A8C1115EDF}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4897,55 +4899,55 @@
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" s="160">
-        <v>2545327648</v>
+        <v>1630943713</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>659</v>
+      </c>
       <c r="F4" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K4" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="160">
-        <v>2572331007</v>
+        <v>68</v>
+      </c>
+      <c r="B5" s="161">
+        <v>1710977250</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>34</v>
+        <v>631</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="89" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F5" s="87" t="s">
         <v>8</v>
@@ -4953,74 +4955,66 @@
       <c r="G5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B6" s="161">
-        <v>2116157322</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>25</v>
+        <v>1797720064</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>601</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="89"/>
+      <c r="E6" s="89" t="s">
+        <v>56</v>
+      </c>
       <c r="F6" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K6" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L6" s="5"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B7" s="161">
-        <v>2793893086</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>35</v>
+        <v>1828439124</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>609</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="89" t="s">
+        <v>663</v>
+      </c>
       <c r="F7" s="87" t="s">
         <v>8</v>
       </c>
@@ -5047,60 +5041,50 @@
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="160">
-        <v>3200745813</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>553</v>
+        <v>64</v>
+      </c>
+      <c r="B8" s="161">
+        <v>1832448183</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>628</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>654</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E8" s="89"/>
       <c r="F8" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="38"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="160">
-        <v>2208230845</v>
+        <v>1866298408</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="89" t="s">
-        <v>551</v>
-      </c>
+      <c r="E9" s="89"/>
       <c r="F9" s="87" t="s">
         <v>8</v>
       </c>
@@ -5108,7 +5092,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I9" s="38" t="s">
         <v>33</v>
@@ -5127,69 +5111,65 @@
     </row>
     <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="160">
-        <v>1866298408</v>
+        <v>1870481515</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J10" s="91" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K10" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="160">
-        <v>2166325582</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="161">
+        <v>1895432270</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>629</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>665</v>
+      </c>
       <c r="F11" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H11" s="38"/>
       <c r="I11" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="91" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J11" s="91"/>
       <c r="K11" s="96" t="s">
         <v>33</v>
       </c>
@@ -5199,20 +5179,22 @@
     </row>
     <row r="12" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="160">
-        <v>2550932214</v>
+        <v>34</v>
+      </c>
+      <c r="B12" s="161">
+        <v>1982919196</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>14</v>
+        <v>565</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>652</v>
+      </c>
       <c r="F12" s="87" t="s">
-        <v>8</v>
+        <v>614</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>33</v>
@@ -5235,13 +5217,13 @@
     </row>
     <row r="13" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="160">
-        <v>2521460498</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="161">
+        <v>1991570984</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>610</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>9</v>
@@ -5250,39 +5232,35 @@
       <c r="F13" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>33</v>
+      <c r="G13" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="I13" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="160">
-        <v>2903112334</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>656</v>
+        <v>61</v>
+      </c>
+      <c r="B14" s="161">
+        <v>2111523728</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>612</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>664</v>
+      </c>
       <c r="F14" s="87" t="s">
         <v>8</v>
       </c>
@@ -5307,13 +5285,13 @@
     </row>
     <row r="15" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="160">
-        <v>2833363308</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>657</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="161">
+        <v>2116157322</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>9</v>
@@ -5343,13 +5321,13 @@
     </row>
     <row r="16" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="161">
-        <v>2895460678</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="160">
+        <v>2155726353</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>658</v>
+        <v>6</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>9</v>
@@ -5359,171 +5337,167 @@
         <v>8</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I16" s="91" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K16" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B17" s="160">
-        <v>2937138060</v>
+        <v>2166325582</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>652</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E17" s="89"/>
       <c r="F17" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J17" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K17" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="160" t="s">
-        <v>597</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="160">
+        <v>2208230845</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>596</v>
+        <v>24</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="89"/>
+      <c r="E18" s="89" t="s">
+        <v>551</v>
+      </c>
       <c r="F18" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J18" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K18" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="160">
-        <v>1870481515</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="B19" s="161">
+        <v>2224593910</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>627</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="89"/>
       <c r="F19" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J19" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K19" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="160">
-        <v>2789302074</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="B20" s="161">
+        <v>2307297070</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>636</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="89"/>
+      <c r="E20" s="89" t="s">
+        <v>652</v>
+      </c>
       <c r="F20" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="5"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="160">
-        <v>2851504507</v>
+        <v>46</v>
+      </c>
+      <c r="B21" s="161">
+        <v>2469448088</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>23</v>
+        <v>580</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>9</v>
@@ -5553,34 +5527,34 @@
     </row>
     <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="160">
-        <v>2793619401</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="161">
+        <v>2471347750</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="89" t="s">
-        <v>31</v>
+        <v>660</v>
       </c>
       <c r="F22" s="87" t="s">
-        <v>8</v>
+        <v>650</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="91" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J22" s="91" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K22" s="96" t="s">
         <v>33</v>
@@ -5591,13 +5565,13 @@
     </row>
     <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="160">
-        <v>2931560672</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="B23" s="161">
+        <v>2472500243</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>626</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>9</v>
@@ -5607,67 +5581,69 @@
         <v>8</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J23" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K23" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="160">
-        <v>1630943713</v>
+        <v>48</v>
+      </c>
+      <c r="B24" s="161">
+        <v>2507204412</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>10</v>
+        <v>582</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>659</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E24" s="89"/>
       <c r="F24" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J24" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K24" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B25" s="160">
-        <v>2155726353</v>
+        <v>2521460498</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>9</v>
@@ -5677,31 +5653,33 @@
         <v>8</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K25" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" s="161">
-        <v>2723807644</v>
+        <v>2521678241</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>9</v>
@@ -5711,31 +5689,33 @@
         <v>8</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J26" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K26" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" s="161">
-        <v>2780914191</v>
+        <v>3</v>
+      </c>
+      <c r="B27" s="160">
+        <v>2545327648</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>383</v>
+        <v>26</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>9</v>
@@ -5745,31 +5725,33 @@
         <v>8</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J27" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K27" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" s="161">
-        <v>2741271183</v>
+        <v>11</v>
+      </c>
+      <c r="B28" s="160">
+        <v>2550932214</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>384</v>
+        <v>14</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>9</v>
@@ -5779,46 +5761,48 @@
         <v>8</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J28" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K28" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" s="161">
-        <v>2471347750</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="160">
+        <v>2572331007</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>34</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="89" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F29" s="87" t="s">
-        <v>650</v>
+        <v>8</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="91" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I29" s="91" t="s">
         <v>8</v>
@@ -5827,21 +5811,21 @@
         <v>8</v>
       </c>
       <c r="K29" s="96" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B30" s="161">
-        <v>2521678241</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>268</v>
+        <v>2579252958</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>587</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>9</v>
@@ -5851,35 +5835,35 @@
         <v>8</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K30" s="96" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B31" s="161">
-        <v>3114410963</v>
+        <v>2614334381</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>9</v>
@@ -5889,13 +5873,13 @@
         <v>8</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>33</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J31" s="38" t="s">
         <v>33</v>
@@ -5903,37 +5887,39 @@
       <c r="K31" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B32" s="161">
-        <v>3043440124</v>
-      </c>
-      <c r="C32" s="84" t="s">
-        <v>563</v>
+        <v>2651195301</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>633</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>649</v>
+      </c>
       <c r="F32" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>33</v>
+        <v>650</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>33</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J32" s="38"/>
       <c r="K32" s="96" t="s">
         <v>33</v>
       </c>
@@ -5943,20 +5929,18 @@
     </row>
     <row r="33" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B33" s="161">
-        <v>1797720064</v>
+        <v>2723807644</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>601</v>
+        <v>37</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="89" t="s">
-        <v>56</v>
-      </c>
+      <c r="E33" s="89"/>
       <c r="F33" s="87" t="s">
         <v>8</v>
       </c>
@@ -5979,51 +5963,47 @@
     </row>
     <row r="34" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B34" s="161">
-        <v>1982919196</v>
+        <v>2741271183</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>565</v>
+        <v>384</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="89" t="s">
-        <v>652</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E34" s="89"/>
       <c r="F34" s="87" t="s">
-        <v>614</v>
+        <v>8</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J34" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B35" s="161">
-        <v>2977703357</v>
+        <v>2780914191</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>566</v>
+        <v>383</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>9</v>
@@ -6033,33 +6013,31 @@
         <v>8</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J35" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" s="161">
-        <v>2980235854</v>
+        <v>20</v>
+      </c>
+      <c r="B36" s="160">
+        <v>2789302074</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>567</v>
+        <v>29</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>8</v>
@@ -6069,38 +6047,38 @@
         <v>8</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J36" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" s="161">
-        <v>2924719512</v>
+        <v>22</v>
+      </c>
+      <c r="B37" s="160">
+        <v>2793619401</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E37" s="89" t="s">
+        <v>31</v>
+      </c>
       <c r="F37" s="87" t="s">
         <v>8</v>
       </c>
@@ -6125,13 +6103,13 @@
     </row>
     <row r="38" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B38" s="161">
-        <v>2822531337</v>
+        <v>2793893086</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>571</v>
+        <v>35</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>9</v>
@@ -6141,22 +6119,22 @@
         <v>8</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J38" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K38" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L38" s="91" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,13 +6175,13 @@
     </row>
     <row r="40" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40" s="161">
-        <v>2877877368</v>
+        <v>2817606510</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>9</v>
@@ -6233,13 +6211,13 @@
     </row>
     <row r="41" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" s="161">
-        <v>2857994912</v>
+        <v>2822531337</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>9</v>
@@ -6264,7 +6242,7 @@
         <v>8</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6305,13 +6283,13 @@
     </row>
     <row r="43" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" s="161">
-        <v>2817606510</v>
+        <v>14</v>
+      </c>
+      <c r="B43" s="160">
+        <v>2833363308</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>9</v>
@@ -6341,59 +6319,59 @@
     </row>
     <row r="44" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B44" s="161">
-        <v>2985895498</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>576</v>
+        <v>2851058261</v>
+      </c>
+      <c r="C44" s="85" t="s">
+        <v>588</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="89"/>
+      <c r="E44" s="89" t="s">
+        <v>564</v>
+      </c>
       <c r="F44" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J44" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K44" s="91" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K44" s="91"/>
       <c r="L44" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" s="161">
-        <v>2884638645</v>
+        <v>21</v>
+      </c>
+      <c r="B45" s="160">
+        <v>2851504507</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>578</v>
+        <v>23</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="89"/>
       <c r="F45" s="87" t="s">
-        <v>614</v>
+        <v>8</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>33</v>
@@ -6402,20 +6380,24 @@
         <v>33</v>
       </c>
       <c r="J45" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="91"/>
-      <c r="L45" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="K45" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B46" s="161">
-        <v>2469448088</v>
+        <v>2857994912</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>9</v>
@@ -6425,19 +6407,19 @@
         <v>8</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J46" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K46" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L46" s="38" t="s">
         <v>33</v>
@@ -6445,24 +6427,24 @@
     </row>
     <row r="47" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B47" s="161">
-        <v>2614334381</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>581</v>
+        <v>2874589934</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>634</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E47" s="89" t="s">
+        <v>648</v>
+      </c>
       <c r="F47" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="G47" s="38"/>
       <c r="H47" s="38" t="s">
         <v>33</v>
       </c>
@@ -6481,13 +6463,13 @@
     </row>
     <row r="48" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B48" s="161">
-        <v>2507204412</v>
+        <v>2877877368</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>9</v>
@@ -6517,25 +6499,23 @@
     </row>
     <row r="49" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B49" s="161">
-        <v>3031784065</v>
+        <v>2884638645</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="89" t="s">
-        <v>653</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E49" s="89"/>
       <c r="F49" s="87" t="s">
-        <v>8</v>
+        <v>614</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>33</v>
@@ -6544,60 +6524,46 @@
         <v>33</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L49" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K49" s="38"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B50" s="161">
-        <v>3034460305</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>584</v>
+        <v>2895049000</v>
+      </c>
+      <c r="C50" s="85" t="s">
+        <v>632</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E50" s="89" t="s">
+        <v>651</v>
+      </c>
       <c r="F50" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
     </row>
     <row r="51" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B51" s="161">
-        <v>2926289548</v>
+        <v>2895460678</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>9</v>
@@ -6607,67 +6573,69 @@
         <v>8</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J51" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K51" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="38"/>
+      <c r="L51" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" s="161">
-        <v>3170285574</v>
-      </c>
-      <c r="C52" s="85" t="s">
-        <v>613</v>
+        <v>13</v>
+      </c>
+      <c r="B52" s="160">
+        <v>2903112334</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>656</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="89" t="s">
-        <v>661</v>
-      </c>
+      <c r="E52" s="89"/>
       <c r="F52" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>614</v>
+        <v>33</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J52" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K52" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="38"/>
+      <c r="L52" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B53" s="161">
-        <v>2579252958</v>
+        <v>2912241382</v>
       </c>
       <c r="C53" s="85" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>9</v>
@@ -6685,68 +6653,64 @@
       <c r="I53" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="J53" s="38"/>
       <c r="K53" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B54" s="161">
-        <v>2851058261</v>
-      </c>
-      <c r="C54" s="85" t="s">
-        <v>588</v>
+        <v>2924719512</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>568</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="89" t="s">
-        <v>564</v>
-      </c>
+      <c r="E54" s="89"/>
       <c r="F54" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J54" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="38"/>
+        <v>33</v>
+      </c>
+      <c r="K54" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="L54" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B55" s="161">
-        <v>3279662973</v>
-      </c>
-      <c r="C55" s="85" t="s">
-        <v>625</v>
+        <v>2926289548</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>585</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="89" t="s">
-        <v>662</v>
-      </c>
+      <c r="E55" s="89"/>
       <c r="F55" s="87" t="s">
         <v>8</v>
       </c>
@@ -6763,63 +6727,59 @@
         <v>8</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" s="161">
-        <v>2990236173</v>
-      </c>
-      <c r="C56" s="85" t="s">
-        <v>590</v>
+        <v>23</v>
+      </c>
+      <c r="B56" s="160">
+        <v>2931560672</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>36</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="89" t="s">
-        <v>593</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E56" s="89"/>
       <c r="F56" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J56" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L56" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" s="161">
-        <v>3108865421</v>
-      </c>
-      <c r="C57" s="85" t="s">
-        <v>607</v>
+        <v>17</v>
+      </c>
+      <c r="B57" s="160">
+        <v>2937138060</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>32</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" s="89" t="s">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="F57" s="87" t="s">
         <v>8</v>
@@ -6836,25 +6796,25 @@
       <c r="J57" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
+      <c r="K57" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B58" s="161">
-        <v>1828439124</v>
-      </c>
-      <c r="C58" s="85" t="s">
-        <v>609</v>
+        <v>2977703357</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>566</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="89" t="s">
-        <v>663</v>
-      </c>
+      <c r="E58" s="89"/>
       <c r="F58" s="87" t="s">
         <v>8</v>
       </c>
@@ -6879,43 +6839,49 @@
     </row>
     <row r="59" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B59" s="161">
-        <v>1991570984</v>
-      </c>
-      <c r="C59" s="85" t="s">
-        <v>610</v>
+        <v>2980235854</v>
+      </c>
+      <c r="C59" s="84" t="s">
+        <v>567</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="89"/>
       <c r="F59" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="87" t="s">
-        <v>8</v>
+      <c r="G59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B60" s="161">
-        <v>3171576913</v>
-      </c>
-      <c r="C60" s="85" t="s">
-        <v>611</v>
+        <v>2985895498</v>
+      </c>
+      <c r="C60" s="84" t="s">
+        <v>576</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>9</v>
@@ -6945,19 +6911,19 @@
     </row>
     <row r="61" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B61" s="161">
-        <v>2111523728</v>
+        <v>2990236173</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="89" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="F61" s="87" t="s">
         <v>8</v>
@@ -6983,18 +6949,20 @@
     </row>
     <row r="62" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B62" s="161">
-        <v>2472500243</v>
-      </c>
-      <c r="C62" s="85" t="s">
-        <v>626</v>
+        <v>3031784065</v>
+      </c>
+      <c r="C62" s="84" t="s">
+        <v>583</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="E62" s="89" t="s">
+        <v>653</v>
+      </c>
       <c r="F62" s="87" t="s">
         <v>8</v>
       </c>
@@ -7019,13 +6987,13 @@
     </row>
     <row r="63" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B63" s="161">
-        <v>2224593910</v>
-      </c>
-      <c r="C63" s="85" t="s">
-        <v>627</v>
+        <v>3034460305</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>584</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>9</v>
@@ -7035,33 +7003,33 @@
         <v>8</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J63" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K63" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L63" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B64" s="161">
-        <v>1832448183</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>628</v>
+        <v>3043440124</v>
+      </c>
+      <c r="C64" s="84" t="s">
+        <v>563</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>9</v>
@@ -7071,33 +7039,39 @@
         <v>8</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
+        <v>33</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="65" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B65" s="161">
-        <v>1895432270</v>
+        <v>3108865421</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" s="89" t="s">
-        <v>665</v>
+        <v>608</v>
       </c>
       <c r="F65" s="87" t="s">
         <v>8</v>
@@ -7105,27 +7079,27 @@
       <c r="G65" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="38"/>
+      <c r="H65" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="I65" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L65" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="J65" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
     </row>
     <row r="66" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B66" s="161">
-        <v>2912241382</v>
-      </c>
-      <c r="C66" s="85" t="s">
-        <v>630</v>
+        <v>3114410963</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>562</v>
       </c>
       <c r="D66" s="38" t="s">
         <v>9</v>
@@ -7138,60 +7112,70 @@
         <v>8</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I66" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J66" s="38"/>
+      <c r="J66" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="K66" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L66" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67" s="161">
-        <v>2307297070</v>
+        <v>3119592638</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D67" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="89" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F67" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
+      <c r="H67" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B68" s="161">
-        <v>1710977250</v>
+        <v>3170285574</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="89" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="F68" s="87" t="s">
         <v>8</v>
@@ -7199,69 +7183,89 @@
       <c r="G68" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
+      <c r="H68" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="L68" s="38"/>
     </row>
     <row r="69" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B69" s="161">
-        <v>2895049000</v>
+        <v>3171576913</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="89" t="s">
-        <v>651</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E69" s="89"/>
       <c r="F69" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
+      <c r="G69" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="70" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70" s="161">
-        <v>2651195301</v>
-      </c>
-      <c r="C70" s="85" t="s">
-        <v>633</v>
+        <v>7</v>
+      </c>
+      <c r="B70" s="160">
+        <v>3200745813</v>
+      </c>
+      <c r="C70" s="84" t="s">
+        <v>553</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="89" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="F70" s="87" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>650</v>
+        <v>33</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J70" s="38"/>
+        <v>33</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="K70" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L70" s="38" t="s">
         <v>33</v>
@@ -7269,60 +7273,60 @@
     </row>
     <row r="71" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B71" s="161">
-        <v>2874589934</v>
+        <v>3279662973</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71" s="89" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="F71" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="38"/>
+      <c r="G71" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="H71" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J71" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K71" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L71" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L71" s="38"/>
     </row>
     <row r="72" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" s="161">
-        <v>3119592638</v>
+        <v>3321340470</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="89" t="s">
-        <v>666</v>
-      </c>
-      <c r="F72" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="38"/>
+        <v>647</v>
+      </c>
+      <c r="F72" s="87"/>
+      <c r="G72" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="H72" s="38" t="s">
         <v>33</v>
       </c>
@@ -7341,39 +7345,37 @@
     </row>
     <row r="73" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73" s="161">
-        <v>3321340470</v>
-      </c>
-      <c r="C73" s="85" t="s">
-        <v>646</v>
+        <v>18</v>
+      </c>
+      <c r="B73" s="160" t="s">
+        <v>597</v>
+      </c>
+      <c r="C73" s="84" t="s">
+        <v>596</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="89" t="s">
-        <v>647</v>
-      </c>
-      <c r="F73" s="87"/>
+        <v>9</v>
+      </c>
+      <c r="E73" s="89"/>
+      <c r="F73" s="87" t="s">
+        <v>8</v>
+      </c>
       <c r="G73" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J73" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L73" s="38" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="155"/>
@@ -7815,6 +7817,9 @@
       <c r="L90" s="111"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L73">
+    <sortCondition ref="B1:B73"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7824,7 +7829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -7857,25 +7862,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -7890,19 +7895,19 @@
       <c r="F4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -7953,10 +7958,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="189" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8018,8 +8023,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="169"/>
-      <c r="B7" s="172"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="60" t="s">
         <v>42</v>
       </c>
@@ -8070,8 +8075,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="169"/>
-      <c r="B8" s="172"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
@@ -8120,8 +8125,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="169"/>
-      <c r="B9" s="172"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="60" t="s">
         <v>283</v>
       </c>
@@ -8172,8 +8177,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169"/>
-      <c r="B10" s="172"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8222,8 +8227,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="169"/>
-      <c r="B11" s="172"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8269,13 +8274,13 @@
       <c r="S11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="196" t="s">
+      <c r="V11" s="163" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
-      <c r="B12" s="172"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="60" t="s">
         <v>44</v>
       </c>
@@ -8321,8 +8326,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="169"/>
-      <c r="B13" s="172"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="60" t="s">
         <v>637</v>
       </c>
@@ -8356,8 +8361,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="169"/>
-      <c r="B14" s="172"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
@@ -8403,8 +8408,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="169"/>
-      <c r="B15" s="172"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="60" t="s">
         <v>74</v>
       </c>
@@ -8450,8 +8455,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="169"/>
-      <c r="B16" s="172"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="60" t="s">
         <v>46</v>
       </c>
@@ -8495,8 +8500,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="169"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="60" t="s">
         <v>47</v>
       </c>
@@ -8540,8 +8545,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
-      <c r="B18" s="172"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="60" t="s">
         <v>48</v>
       </c>
@@ -8585,8 +8590,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="169"/>
-      <c r="B19" s="172"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="60" t="s">
         <v>346</v>
       </c>
@@ -8632,8 +8637,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="169"/>
-      <c r="B20" s="173"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="190"/>
       <c r="C20" s="61" t="s">
         <v>50</v>
       </c>
@@ -8675,8 +8680,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="169"/>
-      <c r="B21" s="166" t="s">
+      <c r="A21" s="187"/>
+      <c r="B21" s="186" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -8727,8 +8732,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="169"/>
-      <c r="B22" s="167"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="61" t="s">
         <v>233</v>
       </c>
@@ -8772,8 +8777,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="169"/>
-      <c r="B23" s="167"/>
+      <c r="A23" s="187"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="60" t="s">
         <v>45</v>
       </c>
@@ -8817,8 +8822,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="169"/>
-      <c r="B24" s="167"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="173"/>
       <c r="C24" s="60" t="s">
         <v>120</v>
       </c>
@@ -8864,8 +8869,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="169"/>
-      <c r="B25" s="167"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="173"/>
       <c r="C25" s="60" t="s">
         <v>235</v>
       </c>
@@ -8913,8 +8918,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="169"/>
-      <c r="B26" s="167"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="60" t="s">
         <v>350</v>
       </c>
@@ -8958,8 +8963,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="169"/>
-      <c r="B27" s="167"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="173"/>
       <c r="C27" s="60" t="s">
         <v>119</v>
       </c>
@@ -9003,8 +9008,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="169"/>
-      <c r="B28" s="167"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="173"/>
       <c r="C28" s="60" t="s">
         <v>465</v>
       </c>
@@ -9048,8 +9053,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="169"/>
-      <c r="B29" s="167"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="60" t="s">
         <v>385</v>
       </c>
@@ -9095,8 +9100,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="169"/>
-      <c r="B30" s="167"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="173"/>
       <c r="C30" s="60" t="s">
         <v>238</v>
       </c>
@@ -9143,8 +9148,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="169"/>
-      <c r="B31" s="167"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="60" t="s">
         <v>351</v>
       </c>
@@ -9190,8 +9195,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="169"/>
-      <c r="B32" s="167"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="173"/>
       <c r="C32" s="60" t="s">
         <v>216</v>
       </c>
@@ -9238,8 +9243,8 @@
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="169"/>
-      <c r="B33" s="167"/>
+      <c r="A33" s="187"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="60" t="s">
         <v>242</v>
       </c>
@@ -9285,8 +9290,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="169"/>
-      <c r="B34" s="167"/>
+      <c r="A34" s="187"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="60" t="s">
         <v>375</v>
       </c>
@@ -9330,8 +9335,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="169"/>
-      <c r="B35" s="167"/>
+      <c r="A35" s="187"/>
+      <c r="B35" s="173"/>
       <c r="C35" s="60" t="s">
         <v>388</v>
       </c>
@@ -9375,8 +9380,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="169"/>
-      <c r="B36" s="168"/>
+      <c r="A36" s="187"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="65" t="s">
         <v>234</v>
       </c>
@@ -9420,10 +9425,10 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="165" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="62" t="s">
@@ -9468,8 +9473,8 @@
       <c r="T37" s="33"/>
     </row>
     <row r="38" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="180"/>
-      <c r="B38" s="172"/>
+      <c r="A38" s="195"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="60" t="s">
         <v>107</v>
       </c>
@@ -9511,8 +9516,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="180"/>
-      <c r="B39" s="172"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="60" t="s">
         <v>108</v>
       </c>
@@ -9555,8 +9560,8 @@
       <c r="T39" s="23"/>
     </row>
     <row r="40" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="180"/>
-      <c r="B40" s="172"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="166"/>
       <c r="C40" s="61" t="s">
         <v>109</v>
       </c>
@@ -9604,8 +9609,8 @@
       <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="180"/>
-      <c r="B41" s="177" t="s">
+      <c r="A41" s="195"/>
+      <c r="B41" s="172" t="s">
         <v>193</v>
       </c>
       <c r="C41" s="63" t="s">
@@ -9651,8 +9656,8 @@
       <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="180"/>
-      <c r="B42" s="167"/>
+      <c r="A42" s="195"/>
+      <c r="B42" s="173"/>
       <c r="C42" s="60" t="s">
         <v>218</v>
       </c>
@@ -9694,8 +9699,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="180"/>
-      <c r="B43" s="167"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="60" t="s">
         <v>258</v>
       </c>
@@ -9737,8 +9742,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="180"/>
-      <c r="B44" s="167"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="60" t="s">
         <v>219</v>
       </c>
@@ -9780,8 +9785,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="180"/>
-      <c r="B45" s="167"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="173"/>
       <c r="C45" s="60" t="s">
         <v>490</v>
       </c>
@@ -9826,8 +9831,8 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="180"/>
-      <c r="B46" s="167"/>
+      <c r="A46" s="195"/>
+      <c r="B46" s="173"/>
       <c r="C46" s="60" t="s">
         <v>413</v>
       </c>
@@ -9869,8 +9874,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="180"/>
-      <c r="B47" s="167"/>
+      <c r="A47" s="195"/>
+      <c r="B47" s="173"/>
       <c r="C47" s="60" t="s">
         <v>410</v>
       </c>
@@ -9912,8 +9917,8 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="180"/>
-      <c r="B48" s="167"/>
+      <c r="A48" s="195"/>
+      <c r="B48" s="173"/>
       <c r="C48" s="60" t="s">
         <v>408</v>
       </c>
@@ -9959,8 +9964,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="180"/>
-      <c r="B49" s="167"/>
+      <c r="A49" s="195"/>
+      <c r="B49" s="173"/>
       <c r="C49" s="60" t="s">
         <v>257</v>
       </c>
@@ -10004,8 +10009,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="181"/>
-      <c r="B50" s="168"/>
+      <c r="A50" s="196"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="65" t="s">
         <v>531</v>
       </c>
@@ -10049,10 +10054,10 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="183" t="s">
+      <c r="A51" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="174" t="s">
+      <c r="B51" s="165" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -10099,8 +10104,8 @@
       <c r="T51" s="33"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="184"/>
-      <c r="B52" s="172"/>
+      <c r="A52" s="168"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="60" t="s">
         <v>66</v>
       </c>
@@ -10146,8 +10151,8 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="184"/>
-      <c r="B53" s="172"/>
+      <c r="A53" s="168"/>
+      <c r="B53" s="166"/>
       <c r="C53" s="60" t="s">
         <v>67</v>
       </c>
@@ -10193,8 +10198,8 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="184"/>
-      <c r="B54" s="172"/>
+      <c r="A54" s="168"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="61" t="s">
         <v>68</v>
       </c>
@@ -10240,8 +10245,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="184"/>
-      <c r="B55" s="172"/>
+      <c r="A55" s="168"/>
+      <c r="B55" s="166"/>
       <c r="C55" s="65" t="s">
         <v>604</v>
       </c>
@@ -10285,8 +10290,8 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="184"/>
-      <c r="B56" s="177" t="s">
+      <c r="A56" s="168"/>
+      <c r="B56" s="172" t="s">
         <v>193</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -10332,8 +10337,8 @@
       <c r="S56" s="57"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="184"/>
-      <c r="B57" s="167"/>
+      <c r="A57" s="168"/>
+      <c r="B57" s="173"/>
       <c r="C57" s="60" t="s">
         <v>209</v>
       </c>
@@ -10379,8 +10384,8 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="184"/>
-      <c r="B58" s="167"/>
+      <c r="A58" s="168"/>
+      <c r="B58" s="173"/>
       <c r="C58" s="60" t="s">
         <v>202</v>
       </c>
@@ -10424,8 +10429,8 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
-      <c r="B59" s="167"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="173"/>
       <c r="C59" s="60" t="s">
         <v>197</v>
       </c>
@@ -10471,8 +10476,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="184"/>
-      <c r="B60" s="167"/>
+      <c r="A60" s="168"/>
+      <c r="B60" s="173"/>
       <c r="C60" s="60" t="s">
         <v>198</v>
       </c>
@@ -10518,8 +10523,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="184"/>
-      <c r="B61" s="167"/>
+      <c r="A61" s="168"/>
+      <c r="B61" s="173"/>
       <c r="C61" s="60" t="s">
         <v>91</v>
       </c>
@@ -10563,8 +10568,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="184"/>
-      <c r="B62" s="167"/>
+      <c r="A62" s="168"/>
+      <c r="B62" s="173"/>
       <c r="C62" s="60" t="s">
         <v>415</v>
       </c>
@@ -10608,8 +10613,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
-      <c r="B63" s="167"/>
+      <c r="A63" s="168"/>
+      <c r="B63" s="173"/>
       <c r="C63" s="60" t="s">
         <v>199</v>
       </c>
@@ -10655,8 +10660,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="184"/>
-      <c r="B64" s="167"/>
+      <c r="A64" s="168"/>
+      <c r="B64" s="173"/>
       <c r="C64" s="60" t="s">
         <v>429</v>
       </c>
@@ -10702,8 +10707,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="184"/>
-      <c r="B65" s="167"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="173"/>
       <c r="C65" s="60" t="s">
         <v>377</v>
       </c>
@@ -10748,8 +10753,8 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="184"/>
-      <c r="B66" s="167"/>
+      <c r="A66" s="168"/>
+      <c r="B66" s="173"/>
       <c r="C66" s="60" t="s">
         <v>394</v>
       </c>
@@ -10795,8 +10800,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
-      <c r="B67" s="167"/>
+      <c r="A67" s="168"/>
+      <c r="B67" s="173"/>
       <c r="C67" s="60" t="s">
         <v>254</v>
       </c>
@@ -10843,8 +10848,8 @@
       <c r="T67" s="23"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="184"/>
-      <c r="B68" s="167"/>
+      <c r="A68" s="168"/>
+      <c r="B68" s="173"/>
       <c r="C68" s="60" t="s">
         <v>432</v>
       </c>
@@ -10888,8 +10893,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="184"/>
-      <c r="B69" s="167"/>
+      <c r="A69" s="168"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="61" t="s">
         <v>203</v>
       </c>
@@ -10934,10 +10939,10 @@
       <c r="T69" s="28"/>
     </row>
     <row r="70" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="193" t="s">
+      <c r="A70" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="192"/>
+      <c r="B70" s="179"/>
       <c r="C70" s="62" t="s">
         <v>79</v>
       </c>
@@ -10984,8 +10989,8 @@
       <c r="T70" s="33"/>
     </row>
     <row r="71" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="194"/>
-      <c r="B71" s="172"/>
+      <c r="A71" s="181"/>
+      <c r="B71" s="166"/>
       <c r="C71" s="60" t="s">
         <v>80</v>
       </c>
@@ -11031,8 +11036,8 @@
       <c r="S71" s="26"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="194"/>
-      <c r="B72" s="172"/>
+      <c r="A72" s="181"/>
+      <c r="B72" s="166"/>
       <c r="C72" s="60" t="s">
         <v>81</v>
       </c>
@@ -11080,8 +11085,8 @@
       <c r="S72" s="26"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="194"/>
-      <c r="B73" s="172"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="166"/>
       <c r="C73" s="60" t="s">
         <v>82</v>
       </c>
@@ -11127,8 +11132,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="194"/>
-      <c r="B74" s="172"/>
+      <c r="A74" s="181"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="60" t="s">
         <v>83</v>
       </c>
@@ -11176,8 +11181,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="194"/>
-      <c r="B75" s="172"/>
+      <c r="A75" s="181"/>
+      <c r="B75" s="166"/>
       <c r="C75" s="60" t="s">
         <v>84</v>
       </c>
@@ -11223,8 +11228,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="194"/>
-      <c r="B76" s="172"/>
+      <c r="A76" s="181"/>
+      <c r="B76" s="166"/>
       <c r="C76" s="60" t="s">
         <v>85</v>
       </c>
@@ -11268,8 +11273,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="194"/>
-      <c r="B77" s="172"/>
+      <c r="A77" s="181"/>
+      <c r="B77" s="166"/>
       <c r="C77" s="60" t="s">
         <v>86</v>
       </c>
@@ -11315,8 +11320,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="194"/>
-      <c r="B78" s="172"/>
+      <c r="A78" s="181"/>
+      <c r="B78" s="166"/>
       <c r="C78" s="60" t="s">
         <v>87</v>
       </c>
@@ -11364,8 +11369,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="194"/>
-      <c r="B79" s="172"/>
+      <c r="A79" s="181"/>
+      <c r="B79" s="166"/>
       <c r="C79" s="60" t="s">
         <v>225</v>
       </c>
@@ -11411,8 +11416,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="194"/>
-      <c r="B80" s="191"/>
+      <c r="A80" s="181"/>
+      <c r="B80" s="177"/>
       <c r="C80" s="61" t="s">
         <v>90</v>
       </c>
@@ -11458,8 +11463,8 @@
       <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="194"/>
-      <c r="B81" s="167" t="s">
+      <c r="A81" s="181"/>
+      <c r="B81" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C81" s="63" t="s">
@@ -11503,8 +11508,8 @@
       <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="194"/>
-      <c r="B82" s="167"/>
+      <c r="A82" s="181"/>
+      <c r="B82" s="173"/>
       <c r="C82" s="60" t="s">
         <v>213</v>
       </c>
@@ -11550,8 +11555,8 @@
       <c r="S82" s="26"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="194"/>
-      <c r="B83" s="167"/>
+      <c r="A83" s="181"/>
+      <c r="B83" s="173"/>
       <c r="C83" s="60" t="s">
         <v>427</v>
       </c>
@@ -11595,8 +11600,8 @@
       <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="194"/>
-      <c r="B84" s="167"/>
+      <c r="A84" s="181"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="60" t="s">
         <v>295</v>
       </c>
@@ -11640,8 +11645,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="194"/>
-      <c r="B85" s="167"/>
+      <c r="A85" s="181"/>
+      <c r="B85" s="173"/>
       <c r="C85" s="60" t="s">
         <v>368</v>
       </c>
@@ -11685,8 +11690,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="194"/>
-      <c r="B86" s="167"/>
+      <c r="A86" s="181"/>
+      <c r="B86" s="173"/>
       <c r="C86" s="60" t="s">
         <v>221</v>
       </c>
@@ -11730,8 +11735,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="194"/>
-      <c r="B87" s="167"/>
+      <c r="A87" s="181"/>
+      <c r="B87" s="173"/>
       <c r="C87" s="60" t="s">
         <v>322</v>
       </c>
@@ -11777,8 +11782,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="194"/>
-      <c r="B88" s="167"/>
+      <c r="A88" s="181"/>
+      <c r="B88" s="173"/>
       <c r="C88" s="61" t="s">
         <v>249</v>
       </c>
@@ -11822,8 +11827,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="194"/>
-      <c r="B89" s="167"/>
+      <c r="A89" s="181"/>
+      <c r="B89" s="173"/>
       <c r="C89" s="60" t="s">
         <v>404</v>
       </c>
@@ -11864,8 +11869,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="194"/>
-      <c r="B90" s="167"/>
+      <c r="A90" s="181"/>
+      <c r="B90" s="173"/>
       <c r="C90" s="60" t="s">
         <v>370</v>
       </c>
@@ -11907,8 +11912,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="194"/>
-      <c r="B91" s="167"/>
+      <c r="A91" s="181"/>
+      <c r="B91" s="173"/>
       <c r="C91" s="60" t="s">
         <v>357</v>
       </c>
@@ -11954,8 +11959,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="194"/>
-      <c r="B92" s="167"/>
+      <c r="A92" s="181"/>
+      <c r="B92" s="173"/>
       <c r="C92" s="60" t="s">
         <v>353</v>
       </c>
@@ -12001,8 +12006,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="194"/>
-      <c r="B93" s="167"/>
+      <c r="A93" s="181"/>
+      <c r="B93" s="173"/>
       <c r="C93" s="60" t="s">
         <v>212</v>
       </c>
@@ -12045,8 +12050,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="194"/>
-      <c r="B94" s="167"/>
+      <c r="A94" s="181"/>
+      <c r="B94" s="173"/>
       <c r="C94" s="60" t="s">
         <v>373</v>
       </c>
@@ -12090,8 +12095,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="194"/>
-      <c r="B95" s="167"/>
+      <c r="A95" s="181"/>
+      <c r="B95" s="173"/>
       <c r="C95" s="60" t="s">
         <v>222</v>
       </c>
@@ -12135,8 +12140,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="194"/>
-      <c r="B96" s="167"/>
+      <c r="A96" s="181"/>
+      <c r="B96" s="173"/>
       <c r="C96" s="60" t="s">
         <v>247</v>
       </c>
@@ -12180,8 +12185,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="194"/>
-      <c r="B97" s="167"/>
+      <c r="A97" s="181"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="60" t="s">
         <v>294</v>
       </c>
@@ -12225,8 +12230,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="194"/>
-      <c r="B98" s="167"/>
+      <c r="A98" s="181"/>
+      <c r="B98" s="173"/>
       <c r="C98" s="60" t="s">
         <v>224</v>
       </c>
@@ -12270,8 +12275,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="194"/>
-      <c r="B99" s="167"/>
+      <c r="A99" s="181"/>
+      <c r="B99" s="173"/>
       <c r="C99" s="60" t="s">
         <v>232</v>
       </c>
@@ -12310,8 +12315,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="194"/>
-      <c r="B100" s="167"/>
+      <c r="A100" s="181"/>
+      <c r="B100" s="173"/>
       <c r="C100" s="60" t="s">
         <v>223</v>
       </c>
@@ -12352,8 +12357,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="194"/>
-      <c r="B101" s="167"/>
+      <c r="A101" s="181"/>
+      <c r="B101" s="173"/>
       <c r="C101" s="65" t="s">
         <v>217</v>
       </c>
@@ -12399,8 +12404,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="194"/>
-      <c r="B102" s="167"/>
+      <c r="A102" s="181"/>
+      <c r="B102" s="173"/>
       <c r="C102" s="60" t="s">
         <v>214</v>
       </c>
@@ -12442,8 +12447,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="194"/>
-      <c r="B103" s="167"/>
+      <c r="A103" s="181"/>
+      <c r="B103" s="173"/>
       <c r="C103" s="60" t="s">
         <v>215</v>
       </c>
@@ -12487,8 +12492,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="194"/>
-      <c r="B104" s="167"/>
+      <c r="A104" s="181"/>
+      <c r="B104" s="173"/>
       <c r="C104" s="60" t="s">
         <v>359</v>
       </c>
@@ -12529,8 +12534,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="194"/>
-      <c r="B105" s="167"/>
+      <c r="A105" s="181"/>
+      <c r="B105" s="173"/>
       <c r="C105" s="60" t="s">
         <v>231</v>
       </c>
@@ -12571,8 +12576,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="194"/>
-      <c r="B106" s="167"/>
+      <c r="A106" s="181"/>
+      <c r="B106" s="173"/>
       <c r="C106" s="60" t="s">
         <v>206</v>
       </c>
@@ -12614,8 +12619,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="194"/>
-      <c r="B107" s="167"/>
+      <c r="A107" s="181"/>
+      <c r="B107" s="173"/>
       <c r="C107" s="60" t="s">
         <v>207</v>
       </c>
@@ -12657,8 +12662,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="194"/>
-      <c r="B108" s="167"/>
+      <c r="A108" s="181"/>
+      <c r="B108" s="173"/>
       <c r="C108" s="60" t="s">
         <v>502</v>
       </c>
@@ -12699,8 +12704,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="194"/>
-      <c r="B109" s="167"/>
+      <c r="A109" s="181"/>
+      <c r="B109" s="173"/>
       <c r="C109" s="60" t="s">
         <v>248</v>
       </c>
@@ -12741,8 +12746,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="194"/>
-      <c r="B110" s="167"/>
+      <c r="A110" s="181"/>
+      <c r="B110" s="173"/>
       <c r="C110" s="60" t="s">
         <v>251</v>
       </c>
@@ -12786,8 +12791,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="194"/>
-      <c r="B111" s="167"/>
+      <c r="A111" s="181"/>
+      <c r="B111" s="173"/>
       <c r="C111" s="60" t="s">
         <v>228</v>
       </c>
@@ -12833,8 +12838,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="194"/>
-      <c r="B112" s="167"/>
+      <c r="A112" s="181"/>
+      <c r="B112" s="173"/>
       <c r="C112" s="60" t="s">
         <v>229</v>
       </c>
@@ -12880,8 +12885,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="194"/>
-      <c r="B113" s="167"/>
+      <c r="A113" s="181"/>
+      <c r="B113" s="173"/>
       <c r="C113" s="65" t="s">
         <v>598</v>
       </c>
@@ -12908,8 +12913,8 @@
       <c r="T113" s="23"/>
     </row>
     <row r="114" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="194"/>
-      <c r="B114" s="167"/>
+      <c r="A114" s="181"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="60" t="s">
         <v>325</v>
       </c>
@@ -12954,8 +12959,8 @@
       <c r="T114" s="23"/>
     </row>
     <row r="115" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="195"/>
-      <c r="B115" s="168"/>
+      <c r="A115" s="182"/>
+      <c r="B115" s="178"/>
       <c r="C115" s="61" t="s">
         <v>318</v>
       </c>
@@ -13008,10 +13013,10 @@
       <c r="T115" s="28"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="188" t="s">
+      <c r="A116" s="174" t="s">
         <v>500</v>
       </c>
-      <c r="B116" s="174" t="s">
+      <c r="B116" s="165" t="s">
         <v>51</v>
       </c>
       <c r="C116" s="62" t="s">
@@ -13056,8 +13061,8 @@
       <c r="T116" s="33"/>
     </row>
     <row r="117" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="189"/>
-      <c r="B117" s="172"/>
+      <c r="A117" s="175"/>
+      <c r="B117" s="166"/>
       <c r="C117" s="60" t="s">
         <v>92</v>
       </c>
@@ -13103,8 +13108,8 @@
       <c r="S117" s="26"/>
     </row>
     <row r="118" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="189"/>
-      <c r="B118" s="172"/>
+      <c r="A118" s="175"/>
+      <c r="B118" s="166"/>
       <c r="C118" s="60" t="s">
         <v>93</v>
       </c>
@@ -13150,8 +13155,8 @@
       <c r="S118" s="26"/>
     </row>
     <row r="119" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="189"/>
-      <c r="B119" s="172"/>
+      <c r="A119" s="175"/>
+      <c r="B119" s="166"/>
       <c r="C119" s="60" t="s">
         <v>104</v>
       </c>
@@ -13193,8 +13198,8 @@
       <c r="S119" s="26"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="189"/>
-      <c r="B120" s="172"/>
+      <c r="A120" s="175"/>
+      <c r="B120" s="166"/>
       <c r="C120" s="61" t="s">
         <v>94</v>
       </c>
@@ -13237,8 +13242,8 @@
       <c r="T120" s="28"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="189"/>
-      <c r="B121" s="172"/>
+      <c r="A121" s="175"/>
+      <c r="B121" s="166"/>
       <c r="C121" s="60" t="s">
         <v>179</v>
       </c>
@@ -13281,8 +13286,8 @@
       <c r="T121" s="28"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="189"/>
-      <c r="B122" s="172"/>
+      <c r="A122" s="175"/>
+      <c r="B122" s="166"/>
       <c r="C122" s="61" t="s">
         <v>116</v>
       </c>
@@ -13325,8 +13330,8 @@
       <c r="T122" s="28"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="189"/>
-      <c r="B123" s="172"/>
+      <c r="A123" s="175"/>
+      <c r="B123" s="166"/>
       <c r="C123" s="60" t="s">
         <v>96</v>
       </c>
@@ -13370,8 +13375,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="189"/>
-      <c r="B124" s="172"/>
+      <c r="A124" s="175"/>
+      <c r="B124" s="166"/>
       <c r="C124" s="60" t="s">
         <v>501</v>
       </c>
@@ -13415,8 +13420,8 @@
       <c r="S124" s="26"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="189"/>
-      <c r="B125" s="191"/>
+      <c r="A125" s="175"/>
+      <c r="B125" s="177"/>
       <c r="C125" s="60" t="s">
         <v>176</v>
       </c>
@@ -13458,8 +13463,8 @@
       <c r="S125" s="26"/>
     </row>
     <row r="126" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="189"/>
-      <c r="B126" s="177" t="s">
+      <c r="A126" s="175"/>
+      <c r="B126" s="172" t="s">
         <v>193</v>
       </c>
       <c r="C126" s="63" t="s">
@@ -13504,8 +13509,8 @@
       <c r="T126" s="23"/>
     </row>
     <row r="127" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="189"/>
-      <c r="B127" s="167"/>
+      <c r="A127" s="175"/>
+      <c r="B127" s="173"/>
       <c r="C127" s="60" t="s">
         <v>448</v>
       </c>
@@ -13546,8 +13551,8 @@
       <c r="T127" s="23"/>
     </row>
     <row r="128" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="189"/>
-      <c r="B128" s="167"/>
+      <c r="A128" s="175"/>
+      <c r="B128" s="173"/>
       <c r="C128" s="60" t="s">
         <v>451</v>
       </c>
@@ -13588,8 +13593,8 @@
       <c r="T128" s="23"/>
     </row>
     <row r="129" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="189"/>
-      <c r="B129" s="167"/>
+      <c r="A129" s="175"/>
+      <c r="B129" s="173"/>
       <c r="C129" s="61" t="s">
         <v>425</v>
       </c>
@@ -13632,8 +13637,8 @@
       <c r="T129" s="23"/>
     </row>
     <row r="130" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="189"/>
-      <c r="B130" s="167"/>
+      <c r="A130" s="175"/>
+      <c r="B130" s="173"/>
       <c r="C130" s="60" t="s">
         <v>230</v>
       </c>
@@ -13674,8 +13679,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="189"/>
-      <c r="B131" s="167"/>
+      <c r="A131" s="175"/>
+      <c r="B131" s="173"/>
       <c r="C131" s="60" t="s">
         <v>208</v>
       </c>
@@ -13716,8 +13721,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="190"/>
-      <c r="B132" s="167"/>
+      <c r="A132" s="176"/>
+      <c r="B132" s="173"/>
       <c r="C132" s="65" t="s">
         <v>624</v>
       </c>
@@ -13740,10 +13745,10 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="185" t="s">
+      <c r="A133" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="174" t="s">
+      <c r="B133" s="165" t="s">
         <v>51</v>
       </c>
       <c r="C133" s="62" t="s">
@@ -13786,8 +13791,8 @@
       <c r="T133" s="33"/>
     </row>
     <row r="134" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="186"/>
-      <c r="B134" s="172"/>
+      <c r="A134" s="170"/>
+      <c r="B134" s="166"/>
       <c r="C134" s="61" t="s">
         <v>95</v>
       </c>
@@ -13827,8 +13832,8 @@
       <c r="S134" s="31"/>
     </row>
     <row r="135" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="186"/>
-      <c r="B135" s="172"/>
+      <c r="A135" s="170"/>
+      <c r="B135" s="166"/>
       <c r="C135" s="65" t="s">
         <v>602</v>
       </c>
@@ -13871,8 +13876,8 @@
       <c r="T135" s="19"/>
     </row>
     <row r="136" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="186"/>
-      <c r="B136" s="172"/>
+      <c r="A136" s="170"/>
+      <c r="B136" s="166"/>
       <c r="C136" s="60" t="s">
         <v>115</v>
       </c>
@@ -13914,8 +13919,8 @@
       <c r="T136" s="19"/>
     </row>
     <row r="137" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="186"/>
-      <c r="B137" s="172"/>
+      <c r="A137" s="170"/>
+      <c r="B137" s="166"/>
       <c r="C137" s="60" t="s">
         <v>114</v>
       </c>
@@ -13957,8 +13962,8 @@
       <c r="T137" s="19"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="186"/>
-      <c r="B138" s="177" t="s">
+      <c r="A138" s="170"/>
+      <c r="B138" s="172" t="s">
         <v>193</v>
       </c>
       <c r="C138" s="63" t="s">
@@ -14000,8 +14005,8 @@
       <c r="S138" s="57"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="186"/>
-      <c r="B139" s="167"/>
+      <c r="A139" s="170"/>
+      <c r="B139" s="173"/>
       <c r="C139" s="60" t="s">
         <v>399</v>
       </c>
@@ -14040,8 +14045,8 @@
       <c r="S139" s="26"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="186"/>
-      <c r="B140" s="167"/>
+      <c r="A140" s="170"/>
+      <c r="B140" s="173"/>
       <c r="C140" s="60" t="s">
         <v>255</v>
       </c>
@@ -14081,8 +14086,8 @@
       <c r="S140" s="26"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="186"/>
-      <c r="B141" s="167"/>
+      <c r="A141" s="170"/>
+      <c r="B141" s="173"/>
       <c r="C141" s="65" t="s">
         <v>618</v>
       </c>
@@ -14116,8 +14121,8 @@
       <c r="S141" s="26"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="186"/>
-      <c r="B142" s="167"/>
+      <c r="A142" s="170"/>
+      <c r="B142" s="173"/>
       <c r="C142" s="60" t="s">
         <v>422</v>
       </c>
@@ -14157,8 +14162,8 @@
       <c r="S142" s="26"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="186"/>
-      <c r="B143" s="167"/>
+      <c r="A143" s="170"/>
+      <c r="B143" s="173"/>
       <c r="C143" s="60" t="s">
         <v>380</v>
       </c>
@@ -14198,8 +14203,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="186"/>
-      <c r="B144" s="167"/>
+      <c r="A144" s="170"/>
+      <c r="B144" s="173"/>
       <c r="C144" s="60" t="s">
         <v>439</v>
       </c>
@@ -14239,8 +14244,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="186"/>
-      <c r="B145" s="167"/>
+      <c r="A145" s="170"/>
+      <c r="B145" s="173"/>
       <c r="C145" s="60" t="s">
         <v>358</v>
       </c>
@@ -14280,8 +14285,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="186"/>
-      <c r="B146" s="167"/>
+      <c r="A146" s="170"/>
+      <c r="B146" s="173"/>
       <c r="C146" s="60" t="s">
         <v>226</v>
       </c>
@@ -14321,8 +14326,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="186"/>
-      <c r="B147" s="167"/>
+      <c r="A147" s="170"/>
+      <c r="B147" s="173"/>
       <c r="C147" s="60" t="s">
         <v>421</v>
       </c>
@@ -14362,8 +14367,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="186"/>
-      <c r="B148" s="167"/>
+      <c r="A148" s="170"/>
+      <c r="B148" s="173"/>
       <c r="C148" s="60" t="s">
         <v>396</v>
       </c>
@@ -14403,8 +14408,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="186"/>
-      <c r="B149" s="167"/>
+      <c r="A149" s="170"/>
+      <c r="B149" s="173"/>
       <c r="C149" s="60" t="s">
         <v>433</v>
       </c>
@@ -14444,8 +14449,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="186"/>
-      <c r="B150" s="167"/>
+      <c r="A150" s="170"/>
+      <c r="B150" s="173"/>
       <c r="C150" s="60" t="s">
         <v>406</v>
       </c>
@@ -14485,8 +14490,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="186"/>
-      <c r="B151" s="167"/>
+      <c r="A151" s="170"/>
+      <c r="B151" s="173"/>
       <c r="C151" s="65" t="s">
         <v>521</v>
       </c>
@@ -14526,8 +14531,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="186"/>
-      <c r="B152" s="167"/>
+      <c r="A152" s="170"/>
+      <c r="B152" s="173"/>
       <c r="C152" s="65" t="s">
         <v>256</v>
       </c>
@@ -14567,8 +14572,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="186"/>
-      <c r="B153" s="167"/>
+      <c r="A153" s="170"/>
+      <c r="B153" s="173"/>
       <c r="C153" s="65" t="s">
         <v>446</v>
       </c>
@@ -14608,8 +14613,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="186"/>
-      <c r="B154" s="167"/>
+      <c r="A154" s="170"/>
+      <c r="B154" s="173"/>
       <c r="C154" s="65" t="s">
         <v>435</v>
       </c>
@@ -14649,8 +14654,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="186"/>
-      <c r="B155" s="167"/>
+      <c r="A155" s="170"/>
+      <c r="B155" s="173"/>
       <c r="C155" s="65" t="s">
         <v>319</v>
       </c>
@@ -14692,8 +14697,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="186"/>
-      <c r="B156" s="167"/>
+      <c r="A156" s="170"/>
+      <c r="B156" s="173"/>
       <c r="C156" s="65" t="s">
         <v>366</v>
       </c>
@@ -14733,8 +14738,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="187"/>
-      <c r="B157" s="167"/>
+      <c r="A157" s="171"/>
+      <c r="B157" s="173"/>
       <c r="C157" s="65" t="s">
         <v>211</v>
       </c>
@@ -14774,10 +14779,10 @@
       <c r="S157" s="31"/>
     </row>
     <row r="158" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="175" t="s">
+      <c r="A158" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="B158" s="166" t="s">
+      <c r="B158" s="186" t="s">
         <v>193</v>
       </c>
       <c r="C158" s="62" t="s">
@@ -14821,8 +14826,8 @@
       <c r="S158" s="36"/>
     </row>
     <row r="159" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="175"/>
-      <c r="B159" s="167"/>
+      <c r="A159" s="191"/>
+      <c r="B159" s="173"/>
       <c r="C159" s="60" t="s">
         <v>362</v>
       </c>
@@ -14864,8 +14869,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="175"/>
-      <c r="B160" s="167"/>
+      <c r="A160" s="191"/>
+      <c r="B160" s="173"/>
       <c r="C160" s="60" t="s">
         <v>381</v>
       </c>
@@ -14907,8 +14912,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="175"/>
-      <c r="B161" s="167"/>
+      <c r="A161" s="191"/>
+      <c r="B161" s="173"/>
       <c r="C161" s="60" t="s">
         <v>392</v>
       </c>
@@ -14950,8 +14955,8 @@
       <c r="S161" s="26"/>
     </row>
     <row r="162" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="175"/>
-      <c r="B162" s="167"/>
+      <c r="A162" s="191"/>
+      <c r="B162" s="173"/>
       <c r="C162" s="60" t="s">
         <v>250</v>
       </c>
@@ -14991,8 +14996,8 @@
       <c r="S162" s="26"/>
     </row>
     <row r="163" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="175"/>
-      <c r="B163" s="167"/>
+      <c r="A163" s="191"/>
+      <c r="B163" s="173"/>
       <c r="C163" s="61" t="s">
         <v>401</v>
       </c>
@@ -15034,8 +15039,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="175"/>
-      <c r="B164" s="167"/>
+      <c r="A164" s="191"/>
+      <c r="B164" s="173"/>
       <c r="C164" s="60" t="s">
         <v>372</v>
       </c>
@@ -15075,8 +15080,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="175"/>
-      <c r="B165" s="168"/>
+      <c r="A165" s="191"/>
+      <c r="B165" s="178"/>
       <c r="C165" s="60" t="s">
         <v>402</v>
       </c>
@@ -15116,7 +15121,7 @@
       <c r="S165" s="31"/>
     </row>
     <row r="166" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="176" t="s">
+      <c r="A166" s="192" t="s">
         <v>535</v>
       </c>
       <c r="B166" s="72" t="s">
@@ -15159,8 +15164,8 @@
       <c r="S166" s="71"/>
     </row>
     <row r="167" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="176"/>
-      <c r="B167" s="177" t="s">
+      <c r="A167" s="192"/>
+      <c r="B167" s="172" t="s">
         <v>193</v>
       </c>
       <c r="C167" s="60" t="s">
@@ -15198,8 +15203,8 @@
       <c r="S167" s="57"/>
     </row>
     <row r="168" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="176"/>
-      <c r="B168" s="167"/>
+      <c r="A168" s="192"/>
+      <c r="B168" s="173"/>
       <c r="C168" s="60" t="s">
         <v>195</v>
       </c>
@@ -15234,8 +15239,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="176"/>
-      <c r="B169" s="167"/>
+      <c r="A169" s="192"/>
+      <c r="B169" s="173"/>
       <c r="C169" s="60" t="s">
         <v>259</v>
       </c>
@@ -15273,8 +15278,8 @@
       <c r="S169" s="26"/>
     </row>
     <row r="170" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="176"/>
-      <c r="B170" s="167"/>
+      <c r="A170" s="192"/>
+      <c r="B170" s="173"/>
       <c r="C170" s="60" t="s">
         <v>417</v>
       </c>
@@ -15311,8 +15316,8 @@
       <c r="S170" s="26"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="176"/>
-      <c r="B171" s="178"/>
+      <c r="A171" s="192"/>
+      <c r="B171" s="193"/>
       <c r="C171" s="60" t="s">
         <v>418</v>
       </c>
@@ -15350,10 +15355,10 @@
       <c r="S171" s="26"/>
     </row>
     <row r="172" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="165" t="s">
+      <c r="A172" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="B172" s="171" t="s">
+      <c r="B172" s="189" t="s">
         <v>51</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -15393,8 +15398,8 @@
       <c r="S172" s="36"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="165"/>
-      <c r="B173" s="172"/>
+      <c r="A173" s="185"/>
+      <c r="B173" s="166"/>
       <c r="C173" s="60" t="s">
         <v>184</v>
       </c>
@@ -15432,8 +15437,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="165"/>
-      <c r="B174" s="172"/>
+      <c r="A174" s="185"/>
+      <c r="B174" s="166"/>
       <c r="C174" s="60" t="s">
         <v>183</v>
       </c>
@@ -15471,8 +15476,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="165"/>
-      <c r="B175" s="172"/>
+      <c r="A175" s="185"/>
+      <c r="B175" s="166"/>
       <c r="C175" s="61" t="s">
         <v>185</v>
       </c>
@@ -15510,8 +15515,8 @@
       <c r="S175" s="31"/>
     </row>
     <row r="176" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="165"/>
-      <c r="B176" s="163" t="s">
+      <c r="A176" s="185"/>
+      <c r="B176" s="183" t="s">
         <v>193</v>
       </c>
       <c r="C176" s="63" t="s">
@@ -15545,8 +15550,8 @@
       <c r="S176" s="57"/>
     </row>
     <row r="177" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="165"/>
-      <c r="B177" s="164"/>
+      <c r="A177" s="185"/>
+      <c r="B177" s="184"/>
       <c r="C177" s="64"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
@@ -16275,18 +16280,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="A133:A157"/>
-    <mergeCell ref="B138:B157"/>
-    <mergeCell ref="A116:A132"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B81:B115"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="A70:A115"/>
-    <mergeCell ref="B133:B137"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="A172:A177"/>
     <mergeCell ref="B158:B165"/>
@@ -16302,6 +16295,18 @@
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="A37:A50"/>
     <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="A133:A157"/>
+    <mergeCell ref="B138:B157"/>
+    <mergeCell ref="A116:A132"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B81:B115"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="A70:A115"/>
+    <mergeCell ref="B133:B137"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D074B-4FAA-462D-97D5-6DCD399123CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C374F52-60F6-4108-9C02-29C91F24A5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="669">
   <si>
     <t>Community Frameworks</t>
   </si>
@@ -2672,6 +2672,9 @@
   <si>
     <t>Historical</t>
   </si>
+  <si>
+    <t>Repack erlaubt?</t>
+  </si>
 </sst>
 </file>
 
@@ -2680,7 +2683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$₽-444]"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2804,8 +2807,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2924,6 +2934,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3514,11 +3529,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3883,14 +3899,67 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3907,12 +3976,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3923,9 +3986,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3940,52 +4000,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4772,11 +4792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B301-FC9E-4F7D-A454-62A8C1115EDF}">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,48 +4804,52 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="90" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="88" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" style="90" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="88" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="97" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="98" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="F1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="G1" s="99" t="s">
         <v>549</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="H1" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="I1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="J1" s="100" t="s">
         <v>547</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="K1" s="101" t="s">
         <v>548</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="L1" s="109" t="s">
         <v>564</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="M1" s="102" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4835,15 +4859,13 @@
       <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="93" t="s">
-        <v>33</v>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95" t="s">
+        <v>8</v>
       </c>
       <c r="H2" s="93" t="s">
         <v>33</v>
@@ -4851,17 +4873,20 @@
       <c r="I2" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="93" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="93" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4871,15 +4896,13 @@
       <c r="C3" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>33</v>
+      <c r="F3" s="89"/>
+      <c r="G3" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>33</v>
@@ -4887,17 +4910,20 @@
       <c r="I3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24</v>
       </c>
@@ -4907,16 +4933,14 @@
       <c r="C4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="89" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="89" t="s">
         <v>659</v>
       </c>
-      <c r="F4" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="38" t="s">
@@ -4925,15 +4949,18 @@
       <c r="I4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>68</v>
       </c>
@@ -4943,25 +4970,26 @@
       <c r="C5" s="85" t="s">
         <v>631</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="89" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="89" t="s">
         <v>652</v>
       </c>
-      <c r="F5" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="38"/>
+      <c r="G5" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="I5" s="38"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="38"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>33</v>
       </c>
@@ -4971,16 +4999,14 @@
       <c r="C6" s="84" t="s">
         <v>601</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="F6" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="38" t="s">
@@ -4989,17 +5015,20 @@
       <c r="I6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="P6" s="1"/>
+      <c r="J6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="5"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>58</v>
       </c>
@@ -5009,17 +5038,15 @@
       <c r="C7" s="85" t="s">
         <v>609</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="F7" s="89" t="s">
         <v>663</v>
       </c>
-      <c r="F7" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>33</v>
+      <c r="G7" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>33</v>
@@ -5027,19 +5054,22 @@
       <c r="I7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="1"/>
+      <c r="J7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
@@ -5049,14 +5079,12 @@
       <c r="C8" s="85" t="s">
         <v>628</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="85"/>
+      <c r="E8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="38" t="s">
@@ -5065,13 +5093,16 @@
       <c r="I8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="91"/>
+      <c r="J8" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="K8" s="91"/>
-      <c r="L8" s="38"/>
-      <c r="P8" s="1"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="38"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5081,15 +5112,13 @@
       <c r="C9" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="84"/>
+      <c r="E9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>33</v>
+      <c r="F9" s="89"/>
+      <c r="G9" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>33</v>
@@ -5097,19 +5126,22 @@
       <c r="I9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="1"/>
+      <c r="J9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19</v>
       </c>
@@ -5119,14 +5151,12 @@
       <c r="C10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="38" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="38" t="s">
@@ -5135,15 +5165,18 @@
       <c r="I10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>65</v>
       </c>
@@ -5153,31 +5186,32 @@
       <c r="C11" s="85" t="s">
         <v>629</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="89" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="89" t="s">
         <v>665</v>
       </c>
-      <c r="F11" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="91"/>
+      <c r="L11" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -5187,35 +5221,36 @@
       <c r="C12" s="84" t="s">
         <v>565</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="89" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="89" t="s">
         <v>652</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="G12" s="87" t="s">
         <v>614</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>33</v>
-      </c>
       <c r="H12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="91" t="s">
+      <c r="I12" s="38" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>59</v>
       </c>
@@ -5225,27 +5260,28 @@
       <c r="C13" s="85" t="s">
         <v>610</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="87" t="s">
-        <v>8</v>
-      </c>
+      <c r="F13" s="89"/>
       <c r="G13" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="164"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>61</v>
       </c>
@@ -5255,35 +5291,36 @@
       <c r="C14" s="85" t="s">
         <v>612</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="89" t="s">
+      <c r="D14" s="85"/>
+      <c r="E14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="89" t="s">
         <v>664</v>
       </c>
-      <c r="F14" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>33</v>
+      <c r="G14" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="91" t="s">
+      <c r="I14" s="38" t="s">
         <v>33</v>
       </c>
       <c r="J14" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -5293,33 +5330,34 @@
       <c r="C15" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="85"/>
+      <c r="E15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>33</v>
+      <c r="F15" s="89"/>
+      <c r="G15" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="91" t="s">
+      <c r="I15" s="38" t="s">
         <v>33</v>
       </c>
       <c r="J15" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
@@ -5329,31 +5367,32 @@
       <c r="C16" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="38" t="s">
+      <c r="F16" s="89"/>
+      <c r="G16" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="38" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -5363,33 +5402,34 @@
       <c r="C17" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="84"/>
+      <c r="E17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>33</v>
+      <c r="F17" s="89"/>
+      <c r="G17" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K17" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -5399,35 +5439,36 @@
       <c r="C18" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="84"/>
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="F18" s="89" t="s">
         <v>551</v>
       </c>
-      <c r="F18" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>33</v>
+      <c r="G18" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>63</v>
       </c>
@@ -5437,15 +5478,13 @@
       <c r="C19" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="85"/>
+      <c r="E19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>33</v>
+      <c r="F19" s="89"/>
+      <c r="G19" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>33</v>
@@ -5453,17 +5492,20 @@
       <c r="I19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="91" t="s">
+      <c r="J19" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K19" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>67</v>
       </c>
@@ -5473,23 +5515,24 @@
       <c r="C20" s="85" t="s">
         <v>636</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="89" t="s">
+      <c r="D20" s="85"/>
+      <c r="E20" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="89" t="s">
         <v>652</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="87" t="s">
+        <v>8</v>
+      </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="91"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="91"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="91"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>46</v>
       </c>
@@ -5499,33 +5542,34 @@
       <c r="C21" s="84" t="s">
         <v>580</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="84"/>
+      <c r="E21" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>33</v>
+      <c r="F21" s="89"/>
+      <c r="G21" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="91" t="s">
+      <c r="I21" s="38" t="s">
         <v>33</v>
       </c>
       <c r="J21" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>29</v>
       </c>
@@ -5535,35 +5579,36 @@
       <c r="C22" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="89" t="s">
+      <c r="D22" s="84"/>
+      <c r="E22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="89" t="s">
         <v>660</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="G22" s="87" t="s">
         <v>650</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="91" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="J22" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>62</v>
       </c>
@@ -5573,15 +5618,13 @@
       <c r="C23" s="85" t="s">
         <v>626</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="85"/>
+      <c r="E23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>33</v>
+      <c r="F23" s="89"/>
+      <c r="G23" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>33</v>
@@ -5589,17 +5632,20 @@
       <c r="I23" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="91" t="s">
+      <c r="J23" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>48</v>
       </c>
@@ -5609,15 +5655,13 @@
       <c r="C24" s="84" t="s">
         <v>582</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="84"/>
+      <c r="E24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>33</v>
+      <c r="F24" s="89"/>
+      <c r="G24" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>33</v>
@@ -5625,17 +5669,20 @@
       <c r="I24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="91" t="s">
+      <c r="J24" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K24" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -5645,15 +5692,13 @@
       <c r="C25" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="84"/>
+      <c r="E25" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>33</v>
+      <c r="F25" s="89"/>
+      <c r="G25" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>33</v>
@@ -5661,17 +5706,20 @@
       <c r="I25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="91" t="s">
+      <c r="J25" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
@@ -5681,15 +5729,13 @@
       <c r="C26" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="84"/>
+      <c r="E26" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>33</v>
+      <c r="F26" s="89"/>
+      <c r="G26" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>33</v>
@@ -5697,17 +5743,20 @@
       <c r="I26" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="91" t="s">
+      <c r="J26" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K26" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5717,15 +5766,13 @@
       <c r="C27" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="84"/>
+      <c r="E27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>33</v>
+      <c r="F27" s="89"/>
+      <c r="G27" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>33</v>
@@ -5733,17 +5780,20 @@
       <c r="I27" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="91" t="s">
+      <c r="J27" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K27" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -5753,15 +5803,13 @@
       <c r="C28" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="84"/>
+      <c r="E28" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>33</v>
+      <c r="F28" s="89"/>
+      <c r="G28" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>33</v>
@@ -5769,17 +5817,20 @@
       <c r="I28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="91" t="s">
+      <c r="J28" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K28" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5789,19 +5840,17 @@
       <c r="C29" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="89" t="s">
+      <c r="D29" s="85"/>
+      <c r="E29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="89" t="s">
         <v>655</v>
       </c>
-      <c r="F29" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="91" t="s">
+      <c r="G29" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="38" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="91" t="s">
@@ -5810,14 +5859,17 @@
       <c r="J29" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>53</v>
       </c>
@@ -5827,14 +5879,12 @@
       <c r="C30" s="85" t="s">
         <v>587</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="85"/>
+      <c r="E30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="38" t="s">
+      <c r="F30" s="89"/>
+      <c r="G30" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="38" t="s">
@@ -5846,16 +5896,19 @@
       <c r="J30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P30" s="1"/>
+      <c r="K30" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>47</v>
       </c>
@@ -5865,15 +5918,13 @@
       <c r="C31" s="84" t="s">
         <v>581</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="84"/>
+      <c r="E31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="89"/>
-      <c r="F31" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>33</v>
+      <c r="F31" s="89"/>
+      <c r="G31" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>33</v>
@@ -5884,14 +5935,17 @@
       <c r="J31" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>70</v>
       </c>
@@ -5901,33 +5955,34 @@
       <c r="C32" s="85" t="s">
         <v>633</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="89" t="s">
+      <c r="D32" s="85"/>
+      <c r="E32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="89" t="s">
         <v>649</v>
       </c>
-      <c r="F32" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="38" t="s">
         <v>650</v>
       </c>
-      <c r="H32" s="38" t="s">
-        <v>33</v>
-      </c>
       <c r="I32" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="L32" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
@@ -5937,14 +5992,12 @@
       <c r="C33" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="84"/>
+      <c r="E33" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="89"/>
-      <c r="F33" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="38" t="s">
+      <c r="F33" s="89"/>
+      <c r="G33" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="38" t="s">
@@ -5953,15 +6006,18 @@
       <c r="I33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="91" t="s">
+      <c r="J33" s="38" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -5971,14 +6027,12 @@
       <c r="C34" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="84"/>
+      <c r="E34" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="38" t="s">
+      <c r="F34" s="89"/>
+      <c r="G34" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="38" t="s">
@@ -5993,9 +6047,12 @@
       <c r="K34" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -6005,14 +6062,12 @@
       <c r="C35" s="84" t="s">
         <v>383</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="84"/>
+      <c r="E35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="38" t="s">
+      <c r="F35" s="89"/>
+      <c r="G35" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="38" t="s">
@@ -6027,9 +6082,12 @@
       <c r="K35" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -6039,14 +6097,12 @@
       <c r="C36" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="38" t="s">
+      <c r="D36" s="84"/>
+      <c r="E36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="89"/>
+      <c r="G36" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="38" t="s">
@@ -6061,9 +6117,12 @@
       <c r="K36" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22</v>
       </c>
@@ -6073,17 +6132,15 @@
       <c r="C37" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="89" t="s">
+      <c r="D37" s="84"/>
+      <c r="E37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>33</v>
+      <c r="G37" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>33</v>
@@ -6100,8 +6157,11 @@
       <c r="L37" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -6111,15 +6171,13 @@
       <c r="C38" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="84"/>
+      <c r="E38" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>33</v>
+      <c r="F38" s="89"/>
+      <c r="G38" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>33</v>
@@ -6127,7 +6185,7 @@
       <c r="I38" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J38" s="91" t="s">
+      <c r="J38" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K38" s="91" t="s">
@@ -6136,8 +6194,11 @@
       <c r="L38" s="91" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -6147,15 +6208,13 @@
       <c r="C39" s="84" t="s">
         <v>572</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="84"/>
+      <c r="E39" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="89"/>
-      <c r="F39" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>33</v>
+      <c r="F39" s="89"/>
+      <c r="G39" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>33</v>
@@ -6172,8 +6231,11 @@
       <c r="L39" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>43</v>
       </c>
@@ -6183,15 +6245,13 @@
       <c r="C40" s="84" t="s">
         <v>577</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="84"/>
+      <c r="E40" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>33</v>
+      <c r="F40" s="89"/>
+      <c r="G40" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>33</v>
@@ -6208,8 +6268,11 @@
       <c r="L40" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -6219,14 +6282,12 @@
       <c r="C41" s="84" t="s">
         <v>571</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="84"/>
+      <c r="E41" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="38" t="s">
+      <c r="F41" s="89"/>
+      <c r="G41" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="38" t="s">
@@ -6235,17 +6296,20 @@
       <c r="I41" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="91" t="s">
+      <c r="J41" s="38" t="s">
         <v>8</v>
       </c>
       <c r="K41" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -6255,15 +6319,13 @@
       <c r="C42" s="84" t="s">
         <v>575</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="84"/>
+      <c r="E42" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="89"/>
-      <c r="F42" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>33</v>
+      <c r="F42" s="89"/>
+      <c r="G42" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>33</v>
@@ -6280,8 +6342,11 @@
       <c r="L42" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -6291,15 +6356,13 @@
       <c r="C43" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="84"/>
+      <c r="E43" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>33</v>
+      <c r="F43" s="89"/>
+      <c r="G43" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>33</v>
@@ -6316,8 +6379,11 @@
       <c r="L43" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>54</v>
       </c>
@@ -6327,16 +6393,14 @@
       <c r="C44" s="85" t="s">
         <v>588</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="85"/>
+      <c r="E44" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="89" t="s">
+      <c r="F44" s="89" t="s">
         <v>564</v>
       </c>
-      <c r="F44" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="38" t="s">
@@ -6345,15 +6409,18 @@
       <c r="I44" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="91"/>
-      <c r="L44" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="91"/>
+      <c r="M44" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21</v>
       </c>
@@ -6363,15 +6430,13 @@
       <c r="C45" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="84"/>
+      <c r="E45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="89"/>
-      <c r="F45" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>33</v>
+      <c r="F45" s="89"/>
+      <c r="G45" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>33</v>
@@ -6379,17 +6444,20 @@
       <c r="I45" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="91" t="s">
+      <c r="J45" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K45" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -6399,14 +6467,12 @@
       <c r="C46" s="84" t="s">
         <v>574</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="84"/>
+      <c r="E46" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="89"/>
-      <c r="F46" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="38" t="s">
+      <c r="F46" s="89"/>
+      <c r="G46" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="38" t="s">
@@ -6422,10 +6488,13 @@
         <v>8</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>71</v>
       </c>
@@ -6435,19 +6504,17 @@
       <c r="C47" s="85" t="s">
         <v>634</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="89" t="s">
+      <c r="D47" s="85"/>
+      <c r="E47" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="89" t="s">
         <v>648</v>
       </c>
-      <c r="F47" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="G47" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="38"/>
       <c r="I47" s="38" t="s">
         <v>33</v>
       </c>
@@ -6460,8 +6527,11 @@
       <c r="L47" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -6471,15 +6541,13 @@
       <c r="C48" s="84" t="s">
         <v>573</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="84"/>
+      <c r="E48" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="89"/>
-      <c r="F48" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>33</v>
+      <c r="F48" s="89"/>
+      <c r="G48" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>33</v>
@@ -6496,8 +6564,11 @@
       <c r="L48" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -6507,29 +6578,30 @@
       <c r="C49" s="84" t="s">
         <v>578</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="84"/>
+      <c r="E49" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="89"/>
-      <c r="F49" s="87" t="s">
+      <c r="F49" s="89"/>
+      <c r="G49" s="87" t="s">
         <v>614</v>
       </c>
-      <c r="G49" s="38" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I49" s="38" t="s">
         <v>33</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="38"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>69</v>
       </c>
@@ -6539,23 +6611,24 @@
       <c r="C50" s="85" t="s">
         <v>632</v>
       </c>
-      <c r="D50" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="89" t="s">
+      <c r="D50" s="85"/>
+      <c r="E50" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="89" t="s">
         <v>651</v>
       </c>
-      <c r="F50" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="38"/>
+      <c r="G50" s="87" t="s">
+        <v>8</v>
+      </c>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
-    </row>
-    <row r="51" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="38"/>
+    </row>
+    <row r="51" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -6565,15 +6638,13 @@
       <c r="C51" s="84" t="s">
         <v>658</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="84"/>
+      <c r="E51" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>33</v>
+      <c r="F51" s="89"/>
+      <c r="G51" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H51" s="38" t="s">
         <v>33</v>
@@ -6590,8 +6661,11 @@
       <c r="L51" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>13</v>
       </c>
@@ -6601,15 +6675,15 @@
       <c r="C52" s="84" t="s">
         <v>656</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="89"/>
-      <c r="F52" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>33</v>
+      <c r="F52" s="89"/>
+      <c r="G52" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>33</v>
@@ -6626,8 +6700,11 @@
       <c r="L52" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>66</v>
       </c>
@@ -6637,14 +6714,12 @@
       <c r="C53" s="85" t="s">
         <v>630</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="85"/>
+      <c r="E53" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="89"/>
-      <c r="F53" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="38" t="s">
+      <c r="F53" s="89"/>
+      <c r="G53" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H53" s="38" t="s">
@@ -6653,15 +6728,18 @@
       <c r="I53" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="J53" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="38"/>
       <c r="L53" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>37</v>
       </c>
@@ -6671,15 +6749,13 @@
       <c r="C54" s="84" t="s">
         <v>568</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="84"/>
+      <c r="E54" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="89"/>
-      <c r="F54" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>33</v>
+      <c r="F54" s="89"/>
+      <c r="G54" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>33</v>
@@ -6696,8 +6772,11 @@
       <c r="L54" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -6707,14 +6786,12 @@
       <c r="C55" s="84" t="s">
         <v>585</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="84"/>
+      <c r="E55" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="89"/>
-      <c r="F55" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="38" t="s">
+      <c r="F55" s="89"/>
+      <c r="G55" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H55" s="38" t="s">
@@ -6727,11 +6804,14 @@
         <v>8</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L55" s="38"/>
-    </row>
-    <row r="56" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L55" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="38"/>
+    </row>
+    <row r="56" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>23</v>
       </c>
@@ -6741,14 +6821,12 @@
       <c r="C56" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="84"/>
+      <c r="E56" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="89"/>
-      <c r="F56" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="38" t="s">
+      <c r="F56" s="89"/>
+      <c r="G56" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H56" s="38" t="s">
@@ -6763,9 +6841,12 @@
       <c r="K56" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>17</v>
       </c>
@@ -6775,16 +6856,14 @@
       <c r="C57" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="89" t="s">
+      <c r="D57" s="84"/>
+      <c r="E57" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="89" t="s">
         <v>652</v>
       </c>
-      <c r="F57" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H57" s="38" t="s">
@@ -6799,9 +6878,12 @@
       <c r="K57" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>35</v>
       </c>
@@ -6811,15 +6893,13 @@
       <c r="C58" s="84" t="s">
         <v>566</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="84"/>
+      <c r="E58" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="89"/>
-      <c r="F58" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>33</v>
+      <c r="F58" s="89"/>
+      <c r="G58" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>33</v>
@@ -6836,8 +6916,11 @@
       <c r="L58" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>36</v>
       </c>
@@ -6847,15 +6930,13 @@
       <c r="C59" s="84" t="s">
         <v>567</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="89"/>
-      <c r="F59" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="38" t="s">
-        <v>33</v>
+      <c r="D59" s="84"/>
+      <c r="E59" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="89"/>
+      <c r="G59" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>33</v>
@@ -6872,8 +6953,11 @@
       <c r="L59" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44</v>
       </c>
@@ -6883,15 +6967,13 @@
       <c r="C60" s="84" t="s">
         <v>576</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="84"/>
+      <c r="E60" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="89"/>
-      <c r="F60" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="38" t="s">
-        <v>33</v>
+      <c r="F60" s="89"/>
+      <c r="G60" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>33</v>
@@ -6908,8 +6990,11 @@
       <c r="L60" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>56</v>
       </c>
@@ -6919,17 +7004,15 @@
       <c r="C61" s="85" t="s">
         <v>590</v>
       </c>
-      <c r="D61" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="89" t="s">
+      <c r="D61" s="85"/>
+      <c r="E61" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="89" t="s">
         <v>593</v>
       </c>
-      <c r="F61" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="38" t="s">
-        <v>33</v>
+      <c r="G61" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>33</v>
@@ -6946,8 +7029,11 @@
       <c r="L61" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>49</v>
       </c>
@@ -6957,17 +7043,15 @@
       <c r="C62" s="84" t="s">
         <v>583</v>
       </c>
-      <c r="D62" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="89" t="s">
+      <c r="D62" s="84"/>
+      <c r="E62" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="89" t="s">
         <v>653</v>
       </c>
-      <c r="F62" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="38" t="s">
-        <v>33</v>
+      <c r="G62" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>33</v>
@@ -6984,8 +7068,11 @@
       <c r="L62" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50</v>
       </c>
@@ -6995,14 +7082,12 @@
       <c r="C63" s="84" t="s">
         <v>584</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="84"/>
+      <c r="E63" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="89"/>
-      <c r="F63" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="38" t="s">
+      <c r="F63" s="89"/>
+      <c r="G63" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H63" s="38" t="s">
@@ -7020,8 +7105,11 @@
       <c r="L63" s="38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>32</v>
       </c>
@@ -7031,15 +7119,13 @@
       <c r="C64" s="84" t="s">
         <v>563</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="84"/>
+      <c r="E64" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="89"/>
-      <c r="F64" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="38" t="s">
-        <v>33</v>
+      <c r="F64" s="89"/>
+      <c r="G64" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>33</v>
@@ -7056,8 +7142,11 @@
       <c r="L64" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>57</v>
       </c>
@@ -7067,16 +7156,14 @@
       <c r="C65" s="85" t="s">
         <v>607</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="85"/>
+      <c r="E65" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="89" t="s">
+      <c r="F65" s="89" t="s">
         <v>608</v>
       </c>
-      <c r="F65" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="38" t="s">
@@ -7088,10 +7175,13 @@
       <c r="J65" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="38"/>
+      <c r="K65" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="L65" s="38"/>
-    </row>
-    <row r="66" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="38"/>
+    </row>
+    <row r="66" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>31</v>
       </c>
@@ -7101,31 +7191,32 @@
       <c r="C66" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="84"/>
+      <c r="E66" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="89"/>
-      <c r="F66" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="38" t="s">
+      <c r="F66" s="89"/>
+      <c r="G66" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J66" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K66" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>72</v>
       </c>
@@ -7135,19 +7226,17 @@
       <c r="C67" s="85" t="s">
         <v>635</v>
       </c>
-      <c r="D67" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="89" t="s">
+      <c r="D67" s="85"/>
+      <c r="E67" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="89" t="s">
         <v>666</v>
       </c>
-      <c r="F67" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="G67" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="38"/>
       <c r="I67" s="38" t="s">
         <v>33</v>
       </c>
@@ -7160,8 +7249,11 @@
       <c r="L67" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>52</v>
       </c>
@@ -7171,33 +7263,34 @@
       <c r="C68" s="85" t="s">
         <v>613</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="85"/>
+      <c r="E68" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="89" t="s">
+      <c r="F68" s="89" t="s">
         <v>661</v>
       </c>
-      <c r="F68" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="I68" s="38" t="s">
-        <v>8</v>
-      </c>
       <c r="J68" s="38" t="s">
         <v>8</v>
       </c>
       <c r="K68" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L68" s="38"/>
-    </row>
-    <row r="69" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L68" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M68" s="38"/>
+    </row>
+    <row r="69" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>60</v>
       </c>
@@ -7207,15 +7300,13 @@
       <c r="C69" s="85" t="s">
         <v>611</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="85"/>
+      <c r="E69" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="89"/>
-      <c r="F69" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="38" t="s">
-        <v>33</v>
+      <c r="F69" s="89"/>
+      <c r="G69" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>33</v>
@@ -7232,8 +7323,11 @@
       <c r="L69" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -7243,35 +7337,36 @@
       <c r="C70" s="84" t="s">
         <v>553</v>
       </c>
-      <c r="D70" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="89" t="s">
+      <c r="D70" s="84"/>
+      <c r="E70" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="89" t="s">
         <v>654</v>
       </c>
-      <c r="F70" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="38" t="s">
-        <v>33</v>
+      <c r="G70" s="87" t="s">
+        <v>8</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>33</v>
       </c>
       <c r="K70" s="38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L70" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M70" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>55</v>
       </c>
@@ -7281,16 +7376,14 @@
       <c r="C71" s="85" t="s">
         <v>625</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="85"/>
+      <c r="E71" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="89" t="s">
+      <c r="F71" s="89" t="s">
         <v>662</v>
       </c>
-      <c r="F71" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H71" s="38" t="s">
@@ -7305,9 +7398,12 @@
       <c r="K71" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L71" s="38"/>
-    </row>
-    <row r="72" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M71" s="38"/>
+    </row>
+    <row r="72" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>73</v>
       </c>
@@ -7317,16 +7413,14 @@
       <c r="C72" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="D72" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="89" t="s">
+      <c r="D72" s="85"/>
+      <c r="E72" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="89" t="s">
         <v>647</v>
       </c>
-      <c r="F72" s="87"/>
-      <c r="G72" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="G72" s="87"/>
       <c r="H72" s="38" t="s">
         <v>33</v>
       </c>
@@ -7342,8 +7436,11 @@
       <c r="L72" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -7353,14 +7450,12 @@
       <c r="C73" s="84" t="s">
         <v>596</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="84"/>
+      <c r="E73" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="89"/>
-      <c r="F73" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="38" t="s">
+      <c r="F73" s="89"/>
+      <c r="G73" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H73" s="38" t="s">
@@ -7375,75 +7470,80 @@
       <c r="K73" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L73" s="5"/>
-    </row>
-    <row r="74" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="155"/>
       <c r="C74" s="156"/>
-      <c r="D74" s="155"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="158"/>
-      <c r="G74" s="155"/>
+      <c r="D74" s="156"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="157"/>
+      <c r="G74" s="158"/>
       <c r="H74" s="155"/>
       <c r="I74" s="155"/>
       <c r="J74" s="155"/>
       <c r="K74" s="155"/>
       <c r="L74" s="155"/>
-    </row>
-    <row r="75" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="155"/>
+    </row>
+    <row r="75" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="155"/>
       <c r="C75" s="156"/>
-      <c r="D75" s="155"/>
-      <c r="E75" s="157"/>
-      <c r="F75" s="158"/>
-      <c r="G75" s="155"/>
+      <c r="D75" s="156"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="157"/>
+      <c r="G75" s="158"/>
       <c r="H75" s="155"/>
       <c r="I75" s="155"/>
       <c r="J75" s="155"/>
       <c r="K75" s="155"/>
       <c r="L75" s="155"/>
-    </row>
-    <row r="76" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="155"/>
+    </row>
+    <row r="76" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="155"/>
       <c r="C76" s="156"/>
-      <c r="D76" s="155"/>
-      <c r="E76" s="157"/>
-      <c r="F76" s="158"/>
-      <c r="G76" s="155"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="157"/>
+      <c r="G76" s="158"/>
       <c r="H76" s="155"/>
       <c r="I76" s="155"/>
       <c r="J76" s="155"/>
       <c r="K76" s="155"/>
       <c r="L76" s="155"/>
-    </row>
-    <row r="77" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="155"/>
+    </row>
+    <row r="77" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="155"/>
       <c r="C77" s="156"/>
-      <c r="D77" s="155"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="158"/>
-      <c r="G77" s="155"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="157"/>
+      <c r="G77" s="158"/>
       <c r="H77" s="155"/>
       <c r="I77" s="155"/>
       <c r="J77" s="155"/>
       <c r="K77" s="155"/>
       <c r="L77" s="155"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="155"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="114">
         <v>2932234007</v>
       </c>
       <c r="C78" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="111" t="s">
+      <c r="D78" s="110"/>
+      <c r="E78" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="112"/>
-      <c r="F78" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="111" t="s">
+      <c r="F78" s="112"/>
+      <c r="G78" s="113" t="s">
         <v>8</v>
       </c>
       <c r="H78" s="111" t="s">
@@ -7452,58 +7552,60 @@
       <c r="I78" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J78" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="K78" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="L78" s="116"/>
-    </row>
-    <row r="79" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="L78" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="M78" s="116"/>
+    </row>
+    <row r="79" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="114">
         <v>2856976851</v>
       </c>
       <c r="C79" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="111" t="s">
+      <c r="D79" s="110"/>
+      <c r="E79" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="112"/>
-      <c r="F79" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="111" t="s">
+      <c r="F79" s="112"/>
+      <c r="G79" s="113" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="111"/>
-      <c r="J79" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="K79" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="L79" s="116"/>
-    </row>
-    <row r="80" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="111"/>
+      <c r="K79" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="L79" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="M79" s="116"/>
+    </row>
+    <row r="80" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="114">
         <v>2785458437</v>
       </c>
       <c r="C80" s="110" t="s">
         <v>589</v>
       </c>
-      <c r="D80" s="111" t="s">
+      <c r="D80" s="110"/>
+      <c r="E80" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="112"/>
-      <c r="F80" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="111" t="s">
+      <c r="F80" s="112"/>
+      <c r="G80" s="113" t="s">
         <v>8</v>
       </c>
       <c r="H80" s="111" t="s">
@@ -7512,27 +7614,28 @@
       <c r="I80" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J80" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="K80" s="111"/>
-      <c r="L80" s="116"/>
-    </row>
-    <row r="81" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80" s="111"/>
+      <c r="M80" s="116"/>
+    </row>
+    <row r="81" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="114">
         <v>2138156626</v>
       </c>
       <c r="C81" s="110" t="s">
         <v>550</v>
       </c>
-      <c r="D81" s="111" t="s">
+      <c r="D81" s="110"/>
+      <c r="E81" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="112"/>
-      <c r="F81" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="111" t="s">
+      <c r="F81" s="112"/>
+      <c r="G81" s="113" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="111" t="s">
@@ -7541,53 +7644,55 @@
       <c r="I81" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J81" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="L81" s="116"/>
-    </row>
-    <row r="82" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="M81" s="116"/>
+    </row>
+    <row r="82" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="114">
         <v>2848676009</v>
       </c>
       <c r="C82" s="125" t="s">
         <v>592</v>
       </c>
-      <c r="D82" s="111"/>
-      <c r="E82" s="112" t="s">
+      <c r="D82" s="125"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="112" t="s">
         <v>595</v>
       </c>
-      <c r="F82" s="113"/>
-      <c r="G82" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="111"/>
+      <c r="G82" s="113"/>
+      <c r="H82" s="111" t="s">
+        <v>8</v>
+      </c>
       <c r="I82" s="111"/>
       <c r="J82" s="111"/>
       <c r="K82" s="111"/>
       <c r="L82" s="111"/>
-    </row>
-    <row r="83" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="111"/>
+    </row>
+    <row r="83" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="114">
         <v>2918418331</v>
       </c>
       <c r="C83" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="111" t="s">
+      <c r="D83" s="125"/>
+      <c r="E83" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="112" t="s">
+      <c r="F83" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="111" t="s">
-        <v>33</v>
+      <c r="G83" s="113" t="s">
+        <v>8</v>
       </c>
       <c r="H83" s="111" t="s">
         <v>33</v>
@@ -7604,82 +7709,85 @@
       <c r="L83" s="111" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="114">
         <v>2799531123</v>
       </c>
       <c r="C84" s="110" t="s">
         <v>569</v>
       </c>
-      <c r="D84" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="112" t="s">
+      <c r="D84" s="110"/>
+      <c r="E84" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="112" t="s">
         <v>570</v>
       </c>
-      <c r="F84" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="111"/>
+      <c r="G84" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="111" t="s">
+        <v>8</v>
+      </c>
       <c r="I84" s="111"/>
-      <c r="J84" s="115" t="s">
-        <v>8</v>
-      </c>
+      <c r="J84" s="111"/>
       <c r="K84" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L84" s="116"/>
-    </row>
-    <row r="85" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="M84" s="116"/>
+    </row>
+    <row r="85" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="114">
         <v>2960002014</v>
       </c>
       <c r="C85" s="110" t="s">
         <v>579</v>
       </c>
-      <c r="D85" s="111"/>
-      <c r="E85" s="112"/>
-      <c r="F85" s="113" t="s">
+      <c r="D85" s="110"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="111"/>
+      <c r="H85" s="111" t="s">
+        <v>8</v>
+      </c>
       <c r="I85" s="111"/>
-      <c r="J85" s="115" t="s">
-        <v>8</v>
-      </c>
+      <c r="J85" s="111"/>
       <c r="K85" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L85" s="116"/>
-    </row>
-    <row r="86" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="M85" s="116"/>
+    </row>
+    <row r="86" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="114">
         <v>2293429999</v>
       </c>
       <c r="C86" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="112"/>
-      <c r="F86" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="111"/>
-      <c r="I86" s="111" t="s">
-        <v>33</v>
-      </c>
+      <c r="D86" s="110"/>
+      <c r="E86" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="112"/>
+      <c r="G86" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="111"/>
       <c r="J86" s="111" t="s">
         <v>33</v>
       </c>
@@ -7689,30 +7797,31 @@
       <c r="L86" s="111" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="114">
         <v>2265389602</v>
       </c>
       <c r="C87" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="112" t="s">
+      <c r="D87" s="110"/>
+      <c r="E87" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" s="111"/>
-      <c r="I87" s="111" t="s">
-        <v>33</v>
-      </c>
+      <c r="G87" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="111"/>
       <c r="J87" s="111" t="s">
         <v>33</v>
       </c>
@@ -7722,23 +7831,24 @@
       <c r="L87" s="111" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="88" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="114">
         <v>2346714856</v>
       </c>
       <c r="C88" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="111" t="s">
+      <c r="D88" s="110"/>
+      <c r="E88" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="112"/>
-      <c r="F88" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88" s="111" t="s">
-        <v>33</v>
+      <c r="F88" s="112"/>
+      <c r="G88" s="113" t="s">
+        <v>8</v>
       </c>
       <c r="H88" s="111" t="s">
         <v>33</v>
@@ -7755,25 +7865,26 @@
       <c r="L88" s="111" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="89" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M88" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="114">
         <v>2932842394</v>
       </c>
       <c r="C89" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="111" t="s">
+      <c r="D89" s="110"/>
+      <c r="E89" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="112" t="s">
+      <c r="F89" s="112" t="s">
         <v>591</v>
       </c>
-      <c r="F89" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="111" t="s">
-        <v>33</v>
+      <c r="G89" s="113" t="s">
+        <v>8</v>
       </c>
       <c r="H89" s="111" t="s">
         <v>33</v>
@@ -7790,34 +7901,38 @@
       <c r="L89" s="111" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="90" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="114">
         <v>3226146640</v>
       </c>
       <c r="C90" s="110" t="s">
         <v>586</v>
       </c>
-      <c r="D90" s="111" t="s">
+      <c r="D90" s="110"/>
+      <c r="E90" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="112"/>
-      <c r="F90" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="111"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="111" t="s">
+        <v>8</v>
+      </c>
       <c r="I90" s="111"/>
-      <c r="J90" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="K90" s="111"/>
+      <c r="J90" s="111"/>
+      <c r="K90" s="111" t="s">
+        <v>8</v>
+      </c>
       <c r="L90" s="111"/>
+      <c r="M90" s="111"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M73">
     <sortCondition ref="B1:B73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7862,25 +7977,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -7895,19 +8010,19 @@
       <c r="F4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="188"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="188"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -7958,10 +8073,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="174" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8023,8 +8138,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="187"/>
-      <c r="B7" s="166"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="60" t="s">
         <v>42</v>
       </c>
@@ -8075,8 +8190,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="187"/>
-      <c r="B8" s="166"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
@@ -8125,8 +8240,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
-      <c r="B9" s="166"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="60" t="s">
         <v>283</v>
       </c>
@@ -8177,8 +8292,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
-      <c r="B10" s="166"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8227,8 +8342,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187"/>
-      <c r="B11" s="166"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8279,8 +8394,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="187"/>
-      <c r="B12" s="166"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="60" t="s">
         <v>44</v>
       </c>
@@ -8326,8 +8441,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="187"/>
-      <c r="B13" s="166"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="60" t="s">
         <v>637</v>
       </c>
@@ -8361,8 +8476,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
-      <c r="B14" s="166"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="175"/>
       <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
@@ -8408,8 +8523,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="187"/>
-      <c r="B15" s="166"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="60" t="s">
         <v>74</v>
       </c>
@@ -8455,8 +8570,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="166"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="175"/>
       <c r="C16" s="60" t="s">
         <v>46</v>
       </c>
@@ -8500,8 +8615,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="60" t="s">
         <v>47</v>
       </c>
@@ -8545,8 +8660,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="187"/>
-      <c r="B18" s="166"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="175"/>
       <c r="C18" s="60" t="s">
         <v>48</v>
       </c>
@@ -8590,8 +8705,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="187"/>
-      <c r="B19" s="166"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="60" t="s">
         <v>346</v>
       </c>
@@ -8637,8 +8752,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="187"/>
-      <c r="B20" s="190"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="61" t="s">
         <v>50</v>
       </c>
@@ -8680,8 +8795,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="187"/>
-      <c r="B21" s="186" t="s">
+      <c r="A21" s="172"/>
+      <c r="B21" s="169" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -8732,8 +8847,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="187"/>
-      <c r="B22" s="173"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="61" t="s">
         <v>233</v>
       </c>
@@ -8777,8 +8892,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="187"/>
-      <c r="B23" s="173"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="60" t="s">
         <v>45</v>
       </c>
@@ -8822,8 +8937,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="187"/>
-      <c r="B24" s="173"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="60" t="s">
         <v>120</v>
       </c>
@@ -8869,8 +8984,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="187"/>
-      <c r="B25" s="173"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="60" t="s">
         <v>235</v>
       </c>
@@ -8918,8 +9033,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="187"/>
-      <c r="B26" s="173"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="60" t="s">
         <v>350</v>
       </c>
@@ -8963,8 +9078,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="187"/>
-      <c r="B27" s="173"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="60" t="s">
         <v>119</v>
       </c>
@@ -9008,8 +9123,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="187"/>
-      <c r="B28" s="173"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="60" t="s">
         <v>465</v>
       </c>
@@ -9053,8 +9168,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="187"/>
-      <c r="B29" s="173"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="60" t="s">
         <v>385</v>
       </c>
@@ -9100,8 +9215,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="187"/>
-      <c r="B30" s="173"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="60" t="s">
         <v>238</v>
       </c>
@@ -9148,8 +9263,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="187"/>
-      <c r="B31" s="173"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="60" t="s">
         <v>351</v>
       </c>
@@ -9195,8 +9310,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="187"/>
-      <c r="B32" s="173"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="60" t="s">
         <v>216</v>
       </c>
@@ -9243,8 +9358,8 @@
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="187"/>
-      <c r="B33" s="173"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="60" t="s">
         <v>242</v>
       </c>
@@ -9290,8 +9405,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="187"/>
-      <c r="B34" s="173"/>
+      <c r="A34" s="172"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="60" t="s">
         <v>375</v>
       </c>
@@ -9335,8 +9450,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="187"/>
-      <c r="B35" s="173"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="60" t="s">
         <v>388</v>
       </c>
@@ -9380,8 +9495,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="187"/>
-      <c r="B36" s="178"/>
+      <c r="A36" s="172"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="65" t="s">
         <v>234</v>
       </c>
@@ -9425,10 +9540,10 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="194" t="s">
+      <c r="A37" s="182" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="177" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="62" t="s">
@@ -9473,8 +9588,8 @@
       <c r="T37" s="33"/>
     </row>
     <row r="38" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="195"/>
-      <c r="B38" s="166"/>
+      <c r="A38" s="183"/>
+      <c r="B38" s="175"/>
       <c r="C38" s="60" t="s">
         <v>107</v>
       </c>
@@ -9516,8 +9631,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="195"/>
-      <c r="B39" s="166"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="175"/>
       <c r="C39" s="60" t="s">
         <v>108</v>
       </c>
@@ -9560,8 +9675,8 @@
       <c r="T39" s="23"/>
     </row>
     <row r="40" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="195"/>
-      <c r="B40" s="166"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="61" t="s">
         <v>109</v>
       </c>
@@ -9609,8 +9724,8 @@
       <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="195"/>
-      <c r="B41" s="172" t="s">
+      <c r="A41" s="183"/>
+      <c r="B41" s="180" t="s">
         <v>193</v>
       </c>
       <c r="C41" s="63" t="s">
@@ -9656,8 +9771,8 @@
       <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="195"/>
-      <c r="B42" s="173"/>
+      <c r="A42" s="183"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="60" t="s">
         <v>218</v>
       </c>
@@ -9699,8 +9814,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="195"/>
-      <c r="B43" s="173"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="60" t="s">
         <v>258</v>
       </c>
@@ -9742,8 +9857,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="195"/>
-      <c r="B44" s="173"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="60" t="s">
         <v>219</v>
       </c>
@@ -9785,8 +9900,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="195"/>
-      <c r="B45" s="173"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="60" t="s">
         <v>490</v>
       </c>
@@ -9831,8 +9946,8 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="195"/>
-      <c r="B46" s="173"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="60" t="s">
         <v>413</v>
       </c>
@@ -9874,8 +9989,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="195"/>
-      <c r="B47" s="173"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="60" t="s">
         <v>410</v>
       </c>
@@ -9917,8 +10032,8 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="195"/>
-      <c r="B48" s="173"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="60" t="s">
         <v>408</v>
       </c>
@@ -9964,8 +10079,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="195"/>
-      <c r="B49" s="173"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="170"/>
       <c r="C49" s="60" t="s">
         <v>257</v>
       </c>
@@ -10009,8 +10124,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="196"/>
-      <c r="B50" s="178"/>
+      <c r="A50" s="184"/>
+      <c r="B50" s="171"/>
       <c r="C50" s="65" t="s">
         <v>531</v>
       </c>
@@ -10054,10 +10169,10 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="167" t="s">
+      <c r="A51" s="186" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="165" t="s">
+      <c r="B51" s="177" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -10104,8 +10219,8 @@
       <c r="T51" s="33"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="168"/>
-      <c r="B52" s="166"/>
+      <c r="A52" s="187"/>
+      <c r="B52" s="175"/>
       <c r="C52" s="60" t="s">
         <v>66</v>
       </c>
@@ -10151,8 +10266,8 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="168"/>
-      <c r="B53" s="166"/>
+      <c r="A53" s="187"/>
+      <c r="B53" s="175"/>
       <c r="C53" s="60" t="s">
         <v>67</v>
       </c>
@@ -10198,8 +10313,8 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="168"/>
-      <c r="B54" s="166"/>
+      <c r="A54" s="187"/>
+      <c r="B54" s="175"/>
       <c r="C54" s="61" t="s">
         <v>68</v>
       </c>
@@ -10245,8 +10360,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="168"/>
-      <c r="B55" s="166"/>
+      <c r="A55" s="187"/>
+      <c r="B55" s="175"/>
       <c r="C55" s="65" t="s">
         <v>604</v>
       </c>
@@ -10290,8 +10405,8 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="168"/>
-      <c r="B56" s="172" t="s">
+      <c r="A56" s="187"/>
+      <c r="B56" s="180" t="s">
         <v>193</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -10337,8 +10452,8 @@
       <c r="S56" s="57"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
-      <c r="B57" s="173"/>
+      <c r="A57" s="187"/>
+      <c r="B57" s="170"/>
       <c r="C57" s="60" t="s">
         <v>209</v>
       </c>
@@ -10384,8 +10499,8 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="168"/>
-      <c r="B58" s="173"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="60" t="s">
         <v>202</v>
       </c>
@@ -10429,8 +10544,8 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="168"/>
-      <c r="B59" s="173"/>
+      <c r="A59" s="187"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="60" t="s">
         <v>197</v>
       </c>
@@ -10476,8 +10591,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="168"/>
-      <c r="B60" s="173"/>
+      <c r="A60" s="187"/>
+      <c r="B60" s="170"/>
       <c r="C60" s="60" t="s">
         <v>198</v>
       </c>
@@ -10523,8 +10638,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="168"/>
-      <c r="B61" s="173"/>
+      <c r="A61" s="187"/>
+      <c r="B61" s="170"/>
       <c r="C61" s="60" t="s">
         <v>91</v>
       </c>
@@ -10568,8 +10683,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="168"/>
-      <c r="B62" s="173"/>
+      <c r="A62" s="187"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="60" t="s">
         <v>415</v>
       </c>
@@ -10613,8 +10728,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="168"/>
-      <c r="B63" s="173"/>
+      <c r="A63" s="187"/>
+      <c r="B63" s="170"/>
       <c r="C63" s="60" t="s">
         <v>199</v>
       </c>
@@ -10660,8 +10775,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="168"/>
-      <c r="B64" s="173"/>
+      <c r="A64" s="187"/>
+      <c r="B64" s="170"/>
       <c r="C64" s="60" t="s">
         <v>429</v>
       </c>
@@ -10707,8 +10822,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="168"/>
-      <c r="B65" s="173"/>
+      <c r="A65" s="187"/>
+      <c r="B65" s="170"/>
       <c r="C65" s="60" t="s">
         <v>377</v>
       </c>
@@ -10753,8 +10868,8 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="168"/>
-      <c r="B66" s="173"/>
+      <c r="A66" s="187"/>
+      <c r="B66" s="170"/>
       <c r="C66" s="60" t="s">
         <v>394</v>
       </c>
@@ -10800,8 +10915,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="168"/>
-      <c r="B67" s="173"/>
+      <c r="A67" s="187"/>
+      <c r="B67" s="170"/>
       <c r="C67" s="60" t="s">
         <v>254</v>
       </c>
@@ -10848,8 +10963,8 @@
       <c r="T67" s="23"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="168"/>
-      <c r="B68" s="173"/>
+      <c r="A68" s="187"/>
+      <c r="B68" s="170"/>
       <c r="C68" s="60" t="s">
         <v>432</v>
       </c>
@@ -10893,8 +11008,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="168"/>
-      <c r="B69" s="173"/>
+      <c r="A69" s="187"/>
+      <c r="B69" s="170"/>
       <c r="C69" s="61" t="s">
         <v>203</v>
       </c>
@@ -10939,10 +11054,10 @@
       <c r="T69" s="28"/>
     </row>
     <row r="70" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="180" t="s">
+      <c r="A70" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="179"/>
+      <c r="B70" s="195"/>
       <c r="C70" s="62" t="s">
         <v>79</v>
       </c>
@@ -10989,8 +11104,8 @@
       <c r="T70" s="33"/>
     </row>
     <row r="71" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="181"/>
-      <c r="B71" s="166"/>
+      <c r="A71" s="197"/>
+      <c r="B71" s="175"/>
       <c r="C71" s="60" t="s">
         <v>80</v>
       </c>
@@ -11036,8 +11151,8 @@
       <c r="S71" s="26"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="181"/>
-      <c r="B72" s="166"/>
+      <c r="A72" s="197"/>
+      <c r="B72" s="175"/>
       <c r="C72" s="60" t="s">
         <v>81</v>
       </c>
@@ -11085,8 +11200,8 @@
       <c r="S72" s="26"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="181"/>
-      <c r="B73" s="166"/>
+      <c r="A73" s="197"/>
+      <c r="B73" s="175"/>
       <c r="C73" s="60" t="s">
         <v>82</v>
       </c>
@@ -11132,8 +11247,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="181"/>
-      <c r="B74" s="166"/>
+      <c r="A74" s="197"/>
+      <c r="B74" s="175"/>
       <c r="C74" s="60" t="s">
         <v>83</v>
       </c>
@@ -11181,8 +11296,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="181"/>
-      <c r="B75" s="166"/>
+      <c r="A75" s="197"/>
+      <c r="B75" s="175"/>
       <c r="C75" s="60" t="s">
         <v>84</v>
       </c>
@@ -11228,8 +11343,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="181"/>
-      <c r="B76" s="166"/>
+      <c r="A76" s="197"/>
+      <c r="B76" s="175"/>
       <c r="C76" s="60" t="s">
         <v>85</v>
       </c>
@@ -11273,8 +11388,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="181"/>
-      <c r="B77" s="166"/>
+      <c r="A77" s="197"/>
+      <c r="B77" s="175"/>
       <c r="C77" s="60" t="s">
         <v>86</v>
       </c>
@@ -11320,8 +11435,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="181"/>
-      <c r="B78" s="166"/>
+      <c r="A78" s="197"/>
+      <c r="B78" s="175"/>
       <c r="C78" s="60" t="s">
         <v>87</v>
       </c>
@@ -11369,8 +11484,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="181"/>
-      <c r="B79" s="166"/>
+      <c r="A79" s="197"/>
+      <c r="B79" s="175"/>
       <c r="C79" s="60" t="s">
         <v>225</v>
       </c>
@@ -11416,8 +11531,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="181"/>
-      <c r="B80" s="177"/>
+      <c r="A80" s="197"/>
+      <c r="B80" s="194"/>
       <c r="C80" s="61" t="s">
         <v>90</v>
       </c>
@@ -11463,8 +11578,8 @@
       <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="181"/>
-      <c r="B81" s="173" t="s">
+      <c r="A81" s="197"/>
+      <c r="B81" s="170" t="s">
         <v>193</v>
       </c>
       <c r="C81" s="63" t="s">
@@ -11508,8 +11623,8 @@
       <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="181"/>
-      <c r="B82" s="173"/>
+      <c r="A82" s="197"/>
+      <c r="B82" s="170"/>
       <c r="C82" s="60" t="s">
         <v>213</v>
       </c>
@@ -11555,8 +11670,8 @@
       <c r="S82" s="26"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="181"/>
-      <c r="B83" s="173"/>
+      <c r="A83" s="197"/>
+      <c r="B83" s="170"/>
       <c r="C83" s="60" t="s">
         <v>427</v>
       </c>
@@ -11600,8 +11715,8 @@
       <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="181"/>
-      <c r="B84" s="173"/>
+      <c r="A84" s="197"/>
+      <c r="B84" s="170"/>
       <c r="C84" s="60" t="s">
         <v>295</v>
       </c>
@@ -11645,8 +11760,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="181"/>
-      <c r="B85" s="173"/>
+      <c r="A85" s="197"/>
+      <c r="B85" s="170"/>
       <c r="C85" s="60" t="s">
         <v>368</v>
       </c>
@@ -11690,8 +11805,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="181"/>
-      <c r="B86" s="173"/>
+      <c r="A86" s="197"/>
+      <c r="B86" s="170"/>
       <c r="C86" s="60" t="s">
         <v>221</v>
       </c>
@@ -11735,8 +11850,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="181"/>
-      <c r="B87" s="173"/>
+      <c r="A87" s="197"/>
+      <c r="B87" s="170"/>
       <c r="C87" s="60" t="s">
         <v>322</v>
       </c>
@@ -11782,8 +11897,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="181"/>
-      <c r="B88" s="173"/>
+      <c r="A88" s="197"/>
+      <c r="B88" s="170"/>
       <c r="C88" s="61" t="s">
         <v>249</v>
       </c>
@@ -11827,8 +11942,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="181"/>
-      <c r="B89" s="173"/>
+      <c r="A89" s="197"/>
+      <c r="B89" s="170"/>
       <c r="C89" s="60" t="s">
         <v>404</v>
       </c>
@@ -11869,8 +11984,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="181"/>
-      <c r="B90" s="173"/>
+      <c r="A90" s="197"/>
+      <c r="B90" s="170"/>
       <c r="C90" s="60" t="s">
         <v>370</v>
       </c>
@@ -11912,8 +12027,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="181"/>
-      <c r="B91" s="173"/>
+      <c r="A91" s="197"/>
+      <c r="B91" s="170"/>
       <c r="C91" s="60" t="s">
         <v>357</v>
       </c>
@@ -11959,8 +12074,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="181"/>
-      <c r="B92" s="173"/>
+      <c r="A92" s="197"/>
+      <c r="B92" s="170"/>
       <c r="C92" s="60" t="s">
         <v>353</v>
       </c>
@@ -12006,8 +12121,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="181"/>
-      <c r="B93" s="173"/>
+      <c r="A93" s="197"/>
+      <c r="B93" s="170"/>
       <c r="C93" s="60" t="s">
         <v>212</v>
       </c>
@@ -12050,8 +12165,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="181"/>
-      <c r="B94" s="173"/>
+      <c r="A94" s="197"/>
+      <c r="B94" s="170"/>
       <c r="C94" s="60" t="s">
         <v>373</v>
       </c>
@@ -12095,8 +12210,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="181"/>
-      <c r="B95" s="173"/>
+      <c r="A95" s="197"/>
+      <c r="B95" s="170"/>
       <c r="C95" s="60" t="s">
         <v>222</v>
       </c>
@@ -12140,8 +12255,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="181"/>
-      <c r="B96" s="173"/>
+      <c r="A96" s="197"/>
+      <c r="B96" s="170"/>
       <c r="C96" s="60" t="s">
         <v>247</v>
       </c>
@@ -12185,8 +12300,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="181"/>
-      <c r="B97" s="173"/>
+      <c r="A97" s="197"/>
+      <c r="B97" s="170"/>
       <c r="C97" s="60" t="s">
         <v>294</v>
       </c>
@@ -12230,8 +12345,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="181"/>
-      <c r="B98" s="173"/>
+      <c r="A98" s="197"/>
+      <c r="B98" s="170"/>
       <c r="C98" s="60" t="s">
         <v>224</v>
       </c>
@@ -12275,8 +12390,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="181"/>
-      <c r="B99" s="173"/>
+      <c r="A99" s="197"/>
+      <c r="B99" s="170"/>
       <c r="C99" s="60" t="s">
         <v>232</v>
       </c>
@@ -12315,8 +12430,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="181"/>
-      <c r="B100" s="173"/>
+      <c r="A100" s="197"/>
+      <c r="B100" s="170"/>
       <c r="C100" s="60" t="s">
         <v>223</v>
       </c>
@@ -12357,8 +12472,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="181"/>
-      <c r="B101" s="173"/>
+      <c r="A101" s="197"/>
+      <c r="B101" s="170"/>
       <c r="C101" s="65" t="s">
         <v>217</v>
       </c>
@@ -12404,8 +12519,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="181"/>
-      <c r="B102" s="173"/>
+      <c r="A102" s="197"/>
+      <c r="B102" s="170"/>
       <c r="C102" s="60" t="s">
         <v>214</v>
       </c>
@@ -12447,8 +12562,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="181"/>
-      <c r="B103" s="173"/>
+      <c r="A103" s="197"/>
+      <c r="B103" s="170"/>
       <c r="C103" s="60" t="s">
         <v>215</v>
       </c>
@@ -12492,8 +12607,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="181"/>
-      <c r="B104" s="173"/>
+      <c r="A104" s="197"/>
+      <c r="B104" s="170"/>
       <c r="C104" s="60" t="s">
         <v>359</v>
       </c>
@@ -12534,8 +12649,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="181"/>
-      <c r="B105" s="173"/>
+      <c r="A105" s="197"/>
+      <c r="B105" s="170"/>
       <c r="C105" s="60" t="s">
         <v>231</v>
       </c>
@@ -12576,8 +12691,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="181"/>
-      <c r="B106" s="173"/>
+      <c r="A106" s="197"/>
+      <c r="B106" s="170"/>
       <c r="C106" s="60" t="s">
         <v>206</v>
       </c>
@@ -12619,8 +12734,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="181"/>
-      <c r="B107" s="173"/>
+      <c r="A107" s="197"/>
+      <c r="B107" s="170"/>
       <c r="C107" s="60" t="s">
         <v>207</v>
       </c>
@@ -12662,8 +12777,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="181"/>
-      <c r="B108" s="173"/>
+      <c r="A108" s="197"/>
+      <c r="B108" s="170"/>
       <c r="C108" s="60" t="s">
         <v>502</v>
       </c>
@@ -12704,8 +12819,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="181"/>
-      <c r="B109" s="173"/>
+      <c r="A109" s="197"/>
+      <c r="B109" s="170"/>
       <c r="C109" s="60" t="s">
         <v>248</v>
       </c>
@@ -12746,8 +12861,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="181"/>
-      <c r="B110" s="173"/>
+      <c r="A110" s="197"/>
+      <c r="B110" s="170"/>
       <c r="C110" s="60" t="s">
         <v>251</v>
       </c>
@@ -12791,8 +12906,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="181"/>
-      <c r="B111" s="173"/>
+      <c r="A111" s="197"/>
+      <c r="B111" s="170"/>
       <c r="C111" s="60" t="s">
         <v>228</v>
       </c>
@@ -12838,8 +12953,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="181"/>
-      <c r="B112" s="173"/>
+      <c r="A112" s="197"/>
+      <c r="B112" s="170"/>
       <c r="C112" s="60" t="s">
         <v>229</v>
       </c>
@@ -12885,8 +13000,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="181"/>
-      <c r="B113" s="173"/>
+      <c r="A113" s="197"/>
+      <c r="B113" s="170"/>
       <c r="C113" s="65" t="s">
         <v>598</v>
       </c>
@@ -12913,8 +13028,8 @@
       <c r="T113" s="23"/>
     </row>
     <row r="114" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="181"/>
-      <c r="B114" s="173"/>
+      <c r="A114" s="197"/>
+      <c r="B114" s="170"/>
       <c r="C114" s="60" t="s">
         <v>325</v>
       </c>
@@ -12959,8 +13074,8 @@
       <c r="T114" s="23"/>
     </row>
     <row r="115" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="182"/>
-      <c r="B115" s="178"/>
+      <c r="A115" s="198"/>
+      <c r="B115" s="171"/>
       <c r="C115" s="61" t="s">
         <v>318</v>
       </c>
@@ -13013,10 +13128,10 @@
       <c r="T115" s="28"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="174" t="s">
+      <c r="A116" s="191" t="s">
         <v>500</v>
       </c>
-      <c r="B116" s="165" t="s">
+      <c r="B116" s="177" t="s">
         <v>51</v>
       </c>
       <c r="C116" s="62" t="s">
@@ -13061,8 +13176,8 @@
       <c r="T116" s="33"/>
     </row>
     <row r="117" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="175"/>
-      <c r="B117" s="166"/>
+      <c r="A117" s="192"/>
+      <c r="B117" s="175"/>
       <c r="C117" s="60" t="s">
         <v>92</v>
       </c>
@@ -13108,8 +13223,8 @@
       <c r="S117" s="26"/>
     </row>
     <row r="118" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="175"/>
-      <c r="B118" s="166"/>
+      <c r="A118" s="192"/>
+      <c r="B118" s="175"/>
       <c r="C118" s="60" t="s">
         <v>93</v>
       </c>
@@ -13155,8 +13270,8 @@
       <c r="S118" s="26"/>
     </row>
     <row r="119" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="175"/>
-      <c r="B119" s="166"/>
+      <c r="A119" s="192"/>
+      <c r="B119" s="175"/>
       <c r="C119" s="60" t="s">
         <v>104</v>
       </c>
@@ -13198,8 +13313,8 @@
       <c r="S119" s="26"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="175"/>
-      <c r="B120" s="166"/>
+      <c r="A120" s="192"/>
+      <c r="B120" s="175"/>
       <c r="C120" s="61" t="s">
         <v>94</v>
       </c>
@@ -13242,8 +13357,8 @@
       <c r="T120" s="28"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="175"/>
-      <c r="B121" s="166"/>
+      <c r="A121" s="192"/>
+      <c r="B121" s="175"/>
       <c r="C121" s="60" t="s">
         <v>179</v>
       </c>
@@ -13286,8 +13401,8 @@
       <c r="T121" s="28"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="175"/>
-      <c r="B122" s="166"/>
+      <c r="A122" s="192"/>
+      <c r="B122" s="175"/>
       <c r="C122" s="61" t="s">
         <v>116</v>
       </c>
@@ -13330,8 +13445,8 @@
       <c r="T122" s="28"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="175"/>
-      <c r="B123" s="166"/>
+      <c r="A123" s="192"/>
+      <c r="B123" s="175"/>
       <c r="C123" s="60" t="s">
         <v>96</v>
       </c>
@@ -13375,8 +13490,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="175"/>
-      <c r="B124" s="166"/>
+      <c r="A124" s="192"/>
+      <c r="B124" s="175"/>
       <c r="C124" s="60" t="s">
         <v>501</v>
       </c>
@@ -13420,8 +13535,8 @@
       <c r="S124" s="26"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="175"/>
-      <c r="B125" s="177"/>
+      <c r="A125" s="192"/>
+      <c r="B125" s="194"/>
       <c r="C125" s="60" t="s">
         <v>176</v>
       </c>
@@ -13463,8 +13578,8 @@
       <c r="S125" s="26"/>
     </row>
     <row r="126" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="175"/>
-      <c r="B126" s="172" t="s">
+      <c r="A126" s="192"/>
+      <c r="B126" s="180" t="s">
         <v>193</v>
       </c>
       <c r="C126" s="63" t="s">
@@ -13509,8 +13624,8 @@
       <c r="T126" s="23"/>
     </row>
     <row r="127" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="175"/>
-      <c r="B127" s="173"/>
+      <c r="A127" s="192"/>
+      <c r="B127" s="170"/>
       <c r="C127" s="60" t="s">
         <v>448</v>
       </c>
@@ -13551,8 +13666,8 @@
       <c r="T127" s="23"/>
     </row>
     <row r="128" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="175"/>
-      <c r="B128" s="173"/>
+      <c r="A128" s="192"/>
+      <c r="B128" s="170"/>
       <c r="C128" s="60" t="s">
         <v>451</v>
       </c>
@@ -13593,8 +13708,8 @@
       <c r="T128" s="23"/>
     </row>
     <row r="129" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="175"/>
-      <c r="B129" s="173"/>
+      <c r="A129" s="192"/>
+      <c r="B129" s="170"/>
       <c r="C129" s="61" t="s">
         <v>425</v>
       </c>
@@ -13637,8 +13752,8 @@
       <c r="T129" s="23"/>
     </row>
     <row r="130" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="175"/>
-      <c r="B130" s="173"/>
+      <c r="A130" s="192"/>
+      <c r="B130" s="170"/>
       <c r="C130" s="60" t="s">
         <v>230</v>
       </c>
@@ -13679,8 +13794,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="175"/>
-      <c r="B131" s="173"/>
+      <c r="A131" s="192"/>
+      <c r="B131" s="170"/>
       <c r="C131" s="60" t="s">
         <v>208</v>
       </c>
@@ -13721,8 +13836,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="176"/>
-      <c r="B132" s="173"/>
+      <c r="A132" s="193"/>
+      <c r="B132" s="170"/>
       <c r="C132" s="65" t="s">
         <v>624</v>
       </c>
@@ -13745,10 +13860,10 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="169" t="s">
+      <c r="A133" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="165" t="s">
+      <c r="B133" s="177" t="s">
         <v>51</v>
       </c>
       <c r="C133" s="62" t="s">
@@ -13791,8 +13906,8 @@
       <c r="T133" s="33"/>
     </row>
     <row r="134" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="170"/>
-      <c r="B134" s="166"/>
+      <c r="A134" s="189"/>
+      <c r="B134" s="175"/>
       <c r="C134" s="61" t="s">
         <v>95</v>
       </c>
@@ -13832,8 +13947,8 @@
       <c r="S134" s="31"/>
     </row>
     <row r="135" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="170"/>
-      <c r="B135" s="166"/>
+      <c r="A135" s="189"/>
+      <c r="B135" s="175"/>
       <c r="C135" s="65" t="s">
         <v>602</v>
       </c>
@@ -13876,8 +13991,8 @@
       <c r="T135" s="19"/>
     </row>
     <row r="136" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="170"/>
-      <c r="B136" s="166"/>
+      <c r="A136" s="189"/>
+      <c r="B136" s="175"/>
       <c r="C136" s="60" t="s">
         <v>115</v>
       </c>
@@ -13919,8 +14034,8 @@
       <c r="T136" s="19"/>
     </row>
     <row r="137" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="170"/>
-      <c r="B137" s="166"/>
+      <c r="A137" s="189"/>
+      <c r="B137" s="175"/>
       <c r="C137" s="60" t="s">
         <v>114</v>
       </c>
@@ -13962,8 +14077,8 @@
       <c r="T137" s="19"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="170"/>
-      <c r="B138" s="172" t="s">
+      <c r="A138" s="189"/>
+      <c r="B138" s="180" t="s">
         <v>193</v>
       </c>
       <c r="C138" s="63" t="s">
@@ -14005,8 +14120,8 @@
       <c r="S138" s="57"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="170"/>
-      <c r="B139" s="173"/>
+      <c r="A139" s="189"/>
+      <c r="B139" s="170"/>
       <c r="C139" s="60" t="s">
         <v>399</v>
       </c>
@@ -14045,8 +14160,8 @@
       <c r="S139" s="26"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="170"/>
-      <c r="B140" s="173"/>
+      <c r="A140" s="189"/>
+      <c r="B140" s="170"/>
       <c r="C140" s="60" t="s">
         <v>255</v>
       </c>
@@ -14086,8 +14201,8 @@
       <c r="S140" s="26"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="170"/>
-      <c r="B141" s="173"/>
+      <c r="A141" s="189"/>
+      <c r="B141" s="170"/>
       <c r="C141" s="65" t="s">
         <v>618</v>
       </c>
@@ -14121,8 +14236,8 @@
       <c r="S141" s="26"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="170"/>
-      <c r="B142" s="173"/>
+      <c r="A142" s="189"/>
+      <c r="B142" s="170"/>
       <c r="C142" s="60" t="s">
         <v>422</v>
       </c>
@@ -14162,8 +14277,8 @@
       <c r="S142" s="26"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="170"/>
-      <c r="B143" s="173"/>
+      <c r="A143" s="189"/>
+      <c r="B143" s="170"/>
       <c r="C143" s="60" t="s">
         <v>380</v>
       </c>
@@ -14203,8 +14318,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="170"/>
-      <c r="B144" s="173"/>
+      <c r="A144" s="189"/>
+      <c r="B144" s="170"/>
       <c r="C144" s="60" t="s">
         <v>439</v>
       </c>
@@ -14244,8 +14359,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="170"/>
-      <c r="B145" s="173"/>
+      <c r="A145" s="189"/>
+      <c r="B145" s="170"/>
       <c r="C145" s="60" t="s">
         <v>358</v>
       </c>
@@ -14285,8 +14400,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="170"/>
-      <c r="B146" s="173"/>
+      <c r="A146" s="189"/>
+      <c r="B146" s="170"/>
       <c r="C146" s="60" t="s">
         <v>226</v>
       </c>
@@ -14326,8 +14441,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="170"/>
-      <c r="B147" s="173"/>
+      <c r="A147" s="189"/>
+      <c r="B147" s="170"/>
       <c r="C147" s="60" t="s">
         <v>421</v>
       </c>
@@ -14367,8 +14482,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="170"/>
-      <c r="B148" s="173"/>
+      <c r="A148" s="189"/>
+      <c r="B148" s="170"/>
       <c r="C148" s="60" t="s">
         <v>396</v>
       </c>
@@ -14408,8 +14523,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="170"/>
-      <c r="B149" s="173"/>
+      <c r="A149" s="189"/>
+      <c r="B149" s="170"/>
       <c r="C149" s="60" t="s">
         <v>433</v>
       </c>
@@ -14449,8 +14564,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="170"/>
-      <c r="B150" s="173"/>
+      <c r="A150" s="189"/>
+      <c r="B150" s="170"/>
       <c r="C150" s="60" t="s">
         <v>406</v>
       </c>
@@ -14490,8 +14605,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="170"/>
-      <c r="B151" s="173"/>
+      <c r="A151" s="189"/>
+      <c r="B151" s="170"/>
       <c r="C151" s="65" t="s">
         <v>521</v>
       </c>
@@ -14531,8 +14646,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="170"/>
-      <c r="B152" s="173"/>
+      <c r="A152" s="189"/>
+      <c r="B152" s="170"/>
       <c r="C152" s="65" t="s">
         <v>256</v>
       </c>
@@ -14572,8 +14687,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="170"/>
-      <c r="B153" s="173"/>
+      <c r="A153" s="189"/>
+      <c r="B153" s="170"/>
       <c r="C153" s="65" t="s">
         <v>446</v>
       </c>
@@ -14613,8 +14728,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="170"/>
-      <c r="B154" s="173"/>
+      <c r="A154" s="189"/>
+      <c r="B154" s="170"/>
       <c r="C154" s="65" t="s">
         <v>435</v>
       </c>
@@ -14654,8 +14769,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="170"/>
-      <c r="B155" s="173"/>
+      <c r="A155" s="189"/>
+      <c r="B155" s="170"/>
       <c r="C155" s="65" t="s">
         <v>319</v>
       </c>
@@ -14697,8 +14812,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="170"/>
-      <c r="B156" s="173"/>
+      <c r="A156" s="189"/>
+      <c r="B156" s="170"/>
       <c r="C156" s="65" t="s">
         <v>366</v>
       </c>
@@ -14738,8 +14853,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="171"/>
-      <c r="B157" s="173"/>
+      <c r="A157" s="190"/>
+      <c r="B157" s="170"/>
       <c r="C157" s="65" t="s">
         <v>211</v>
       </c>
@@ -14779,10 +14894,10 @@
       <c r="S157" s="31"/>
     </row>
     <row r="158" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="191" t="s">
+      <c r="A158" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="B158" s="186" t="s">
+      <c r="B158" s="169" t="s">
         <v>193</v>
       </c>
       <c r="C158" s="62" t="s">
@@ -14826,8 +14941,8 @@
       <c r="S158" s="36"/>
     </row>
     <row r="159" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="191"/>
-      <c r="B159" s="173"/>
+      <c r="A159" s="178"/>
+      <c r="B159" s="170"/>
       <c r="C159" s="60" t="s">
         <v>362</v>
       </c>
@@ -14869,8 +14984,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="191"/>
-      <c r="B160" s="173"/>
+      <c r="A160" s="178"/>
+      <c r="B160" s="170"/>
       <c r="C160" s="60" t="s">
         <v>381</v>
       </c>
@@ -14912,8 +15027,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="191"/>
-      <c r="B161" s="173"/>
+      <c r="A161" s="178"/>
+      <c r="B161" s="170"/>
       <c r="C161" s="60" t="s">
         <v>392</v>
       </c>
@@ -14955,8 +15070,8 @@
       <c r="S161" s="26"/>
     </row>
     <row r="162" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="191"/>
-      <c r="B162" s="173"/>
+      <c r="A162" s="178"/>
+      <c r="B162" s="170"/>
       <c r="C162" s="60" t="s">
         <v>250</v>
       </c>
@@ -14996,8 +15111,8 @@
       <c r="S162" s="26"/>
     </row>
     <row r="163" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="191"/>
-      <c r="B163" s="173"/>
+      <c r="A163" s="178"/>
+      <c r="B163" s="170"/>
       <c r="C163" s="61" t="s">
         <v>401</v>
       </c>
@@ -15039,8 +15154,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="191"/>
-      <c r="B164" s="173"/>
+      <c r="A164" s="178"/>
+      <c r="B164" s="170"/>
       <c r="C164" s="60" t="s">
         <v>372</v>
       </c>
@@ -15080,8 +15195,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="191"/>
-      <c r="B165" s="178"/>
+      <c r="A165" s="178"/>
+      <c r="B165" s="171"/>
       <c r="C165" s="60" t="s">
         <v>402</v>
       </c>
@@ -15121,7 +15236,7 @@
       <c r="S165" s="31"/>
     </row>
     <row r="166" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="192" t="s">
+      <c r="A166" s="179" t="s">
         <v>535</v>
       </c>
       <c r="B166" s="72" t="s">
@@ -15164,8 +15279,8 @@
       <c r="S166" s="71"/>
     </row>
     <row r="167" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="192"/>
-      <c r="B167" s="172" t="s">
+      <c r="A167" s="179"/>
+      <c r="B167" s="180" t="s">
         <v>193</v>
       </c>
       <c r="C167" s="60" t="s">
@@ -15203,8 +15318,8 @@
       <c r="S167" s="57"/>
     </row>
     <row r="168" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="192"/>
-      <c r="B168" s="173"/>
+      <c r="A168" s="179"/>
+      <c r="B168" s="170"/>
       <c r="C168" s="60" t="s">
         <v>195</v>
       </c>
@@ -15239,8 +15354,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="192"/>
-      <c r="B169" s="173"/>
+      <c r="A169" s="179"/>
+      <c r="B169" s="170"/>
       <c r="C169" s="60" t="s">
         <v>259</v>
       </c>
@@ -15278,8 +15393,8 @@
       <c r="S169" s="26"/>
     </row>
     <row r="170" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="192"/>
-      <c r="B170" s="173"/>
+      <c r="A170" s="179"/>
+      <c r="B170" s="170"/>
       <c r="C170" s="60" t="s">
         <v>417</v>
       </c>
@@ -15316,8 +15431,8 @@
       <c r="S170" s="26"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="192"/>
-      <c r="B171" s="193"/>
+      <c r="A171" s="179"/>
+      <c r="B171" s="181"/>
       <c r="C171" s="60" t="s">
         <v>418</v>
       </c>
@@ -15355,10 +15470,10 @@
       <c r="S171" s="26"/>
     </row>
     <row r="172" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="185" t="s">
+      <c r="A172" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="B172" s="189" t="s">
+      <c r="B172" s="174" t="s">
         <v>51</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -15398,8 +15513,8 @@
       <c r="S172" s="36"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="185"/>
-      <c r="B173" s="166"/>
+      <c r="A173" s="168"/>
+      <c r="B173" s="175"/>
       <c r="C173" s="60" t="s">
         <v>184</v>
       </c>
@@ -15437,8 +15552,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="185"/>
-      <c r="B174" s="166"/>
+      <c r="A174" s="168"/>
+      <c r="B174" s="175"/>
       <c r="C174" s="60" t="s">
         <v>183</v>
       </c>
@@ -15476,8 +15591,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="185"/>
-      <c r="B175" s="166"/>
+      <c r="A175" s="168"/>
+      <c r="B175" s="175"/>
       <c r="C175" s="61" t="s">
         <v>185</v>
       </c>
@@ -15515,8 +15630,8 @@
       <c r="S175" s="31"/>
     </row>
     <row r="176" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="185"/>
-      <c r="B176" s="183" t="s">
+      <c r="A176" s="168"/>
+      <c r="B176" s="166" t="s">
         <v>193</v>
       </c>
       <c r="C176" s="63" t="s">
@@ -15550,8 +15665,8 @@
       <c r="S176" s="57"/>
     </row>
     <row r="177" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="185"/>
-      <c r="B177" s="184"/>
+      <c r="A177" s="168"/>
+      <c r="B177" s="167"/>
       <c r="C177" s="64"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
@@ -16280,6 +16395,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="A133:A157"/>
+    <mergeCell ref="B138:B157"/>
+    <mergeCell ref="A116:A132"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B81:B115"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="A70:A115"/>
+    <mergeCell ref="B133:B137"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="A172:A177"/>
     <mergeCell ref="B158:B165"/>
@@ -16295,18 +16422,6 @@
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="A37:A50"/>
     <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="A133:A157"/>
-    <mergeCell ref="B138:B157"/>
-    <mergeCell ref="A116:A132"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B81:B115"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="A70:A115"/>
-    <mergeCell ref="B133:B137"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C374F52-60F6-4108-9C02-29C91F24A5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBB29C1-448D-44A3-9E2F-43F4F331166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="680">
   <si>
     <t>Community Frameworks</t>
   </si>
@@ -2640,9 +2640,6 @@
     <t>Give and Take</t>
   </si>
   <si>
-    <t>View Inventory</t>
-  </si>
-  <si>
     <t>NBC Overcloth</t>
   </si>
   <si>
@@ -2674,6 +2671,42 @@
   </si>
   <si>
     <t>Repack erlaubt?</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Admin Tool</t>
+  </si>
+  <si>
+    <t>HUD + Camera</t>
+  </si>
+  <si>
+    <t>Overhauls</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Items and Skins</t>
+  </si>
+  <si>
+    <t>Mini Mods</t>
+  </si>
+  <si>
+    <t>Add-Ons</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Basebuilding</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>View Inventory Animation</t>
   </si>
 </sst>
 </file>
@@ -2683,7 +2716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$₽-444]"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2814,8 +2847,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2941,8 +2981,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -3528,13 +3574,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3899,67 +3955,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3976,6 +3982,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3986,6 +3998,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4000,11 +4015,69 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="36" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="60 % - Akzent3" xfId="3" builtinId="40"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4792,3149 +4865,3048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B301-FC9E-4F7D-A454-62A8C1115EDF}">
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" style="90" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="88" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="86" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="90" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="88" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="97" t="s">
+    <row r="1" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="D1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="98" t="s">
-        <v>668</v>
-      </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
+        <v>667</v>
+      </c>
+      <c r="F1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="G1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="H1" s="99" t="s">
         <v>549</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="I1" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="J1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="K1" s="100" t="s">
         <v>547</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="L1" s="101" t="s">
         <v>548</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="M1" s="109" t="s">
         <v>564</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="N1" s="102" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="159">
+    <row r="2" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="202" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" s="159">
         <v>1559212036</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="D2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="93" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="160">
+      <c r="G2" s="94"/>
+      <c r="H2" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="198" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="202"/>
+      <c r="C3" s="160">
         <v>1564026768</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3" s="89"/>
+      <c r="H3" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="202" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" s="161">
+        <v>2469448088</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>580</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="202"/>
+      <c r="C5" s="161">
+        <v>2614334381</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" s="84"/>
+      <c r="F5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="202"/>
+      <c r="C6" s="161">
+        <v>2507204412</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>582</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="202" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="160">
+        <v>2545327648</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="89"/>
+      <c r="H7" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="202"/>
+      <c r="C8" s="160">
+        <v>2572331007</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>655</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="202"/>
+      <c r="C9" s="161">
+        <v>2116157322</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="202"/>
+      <c r="C10" s="161">
+        <v>2793893086</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="89"/>
+      <c r="H10" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="202" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" s="161">
+        <v>2990236173</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>590</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="202"/>
+      <c r="C12" s="161">
+        <v>3031784065</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>583</v>
+      </c>
+      <c r="E12" s="84"/>
+      <c r="F12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="89" t="s">
+        <v>653</v>
+      </c>
+      <c r="H12" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="202"/>
+      <c r="C13" s="161">
+        <v>2977703357</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>566</v>
+      </c>
+      <c r="E13" s="84"/>
+      <c r="F13" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="202"/>
+      <c r="C14" s="161">
+        <v>2980235854</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>567</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="89"/>
+      <c r="H14" s="87" t="s">
+        <v>614</v>
+      </c>
+      <c r="I14" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="202"/>
+      <c r="C15" s="161">
+        <v>2111523728</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>612</v>
+      </c>
+      <c r="E15" s="85"/>
+      <c r="F15" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>663</v>
+      </c>
+      <c r="H15" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="202" t="s">
+        <v>675</v>
+      </c>
+      <c r="C16" s="161">
+        <v>1982919196</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>565</v>
+      </c>
+      <c r="E16" s="84"/>
+      <c r="F16" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>652</v>
+      </c>
+      <c r="H16" s="87" t="s">
+        <v>614</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="202"/>
+      <c r="C17" s="161">
+        <v>2822531337</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="E17" s="84"/>
+      <c r="F17" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="89"/>
+      <c r="H17" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="202" t="s">
+        <v>672</v>
+      </c>
+      <c r="C18" s="160">
+        <v>3200745813</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>553</v>
+      </c>
+      <c r="E18" s="84"/>
+      <c r="F18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>654</v>
+      </c>
+      <c r="H18" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="202"/>
+      <c r="C19" s="160">
+        <v>2166325582</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="F19" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="202"/>
+      <c r="C20" s="160">
+        <v>2208230845</v>
+      </c>
+      <c r="D20" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="160">
+      <c r="E20" s="84"/>
+      <c r="F20" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="H20" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="202" t="s">
+        <v>673</v>
+      </c>
+      <c r="B21" s="203"/>
+      <c r="C21" s="160">
+        <v>1870481515</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="84"/>
+      <c r="F21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="89"/>
+      <c r="H21" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="202"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="160">
+        <v>2789302074</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="89"/>
+      <c r="H22" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="202"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="161">
+        <v>1991570984</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>610</v>
+      </c>
+      <c r="E23" s="85"/>
+      <c r="F23" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="202"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="161">
+        <v>3171576913</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>611</v>
+      </c>
+      <c r="E24" s="85"/>
+      <c r="F24" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="89"/>
+      <c r="H24" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="202"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="160" t="s">
+        <v>597</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="E25" s="84"/>
+      <c r="F25" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="H25" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="202"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="160">
+        <v>2931560672</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="84"/>
+      <c r="F26" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="89"/>
+      <c r="H26" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="202"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="161">
+        <v>3108865421</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="E27" s="85"/>
+      <c r="F27" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="H27" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+    </row>
+    <row r="28" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="202"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="160">
         <v>1630943713</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="D28" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="89" t="s">
+      <c r="E28" s="84"/>
+      <c r="F28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="89" t="s">
+        <v>658</v>
+      </c>
+      <c r="H28" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="202"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="161">
+        <v>1797720064</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>601</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="202"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="160">
+        <v>2155726353</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="84"/>
+      <c r="F30" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="89"/>
+      <c r="H30" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="202"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="161">
+        <v>2723807644</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="89"/>
+      <c r="H31" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="202"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="161">
+        <v>2780914191</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" s="84"/>
+      <c r="F32" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="89"/>
+      <c r="H32" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="202"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="161">
+        <v>2741271183</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>384</v>
+      </c>
+      <c r="E33" s="84"/>
+      <c r="F33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="89"/>
+      <c r="H33" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="202"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="161">
+        <v>2579252958</v>
+      </c>
+      <c r="D34" s="85" t="s">
+        <v>587</v>
+      </c>
+      <c r="E34" s="85"/>
+      <c r="F34" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="89"/>
+      <c r="H34" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="202"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="161">
+        <v>3034460305</v>
+      </c>
+      <c r="D35" s="84" t="s">
+        <v>584</v>
+      </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="89"/>
+      <c r="H35" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="202"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="161">
+        <v>2851058261</v>
+      </c>
+      <c r="D36" s="85" t="s">
+        <v>588</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="89" t="s">
+        <v>564</v>
+      </c>
+      <c r="H36" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="202"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="161">
+        <v>2926289548</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>585</v>
+      </c>
+      <c r="E37" s="84"/>
+      <c r="F37" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="89"/>
+      <c r="H37" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="38"/>
+    </row>
+    <row r="38" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="202"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="161">
+        <v>3170285574</v>
+      </c>
+      <c r="D38" s="85" t="s">
+        <v>613</v>
+      </c>
+      <c r="E38" s="85"/>
+      <c r="F38" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="89" t="s">
+        <v>660</v>
+      </c>
+      <c r="H38" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="38"/>
+    </row>
+    <row r="39" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="202"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="161">
+        <v>3279662973</v>
+      </c>
+      <c r="D39" s="85" t="s">
+        <v>625</v>
+      </c>
+      <c r="E39" s="85"/>
+      <c r="F39" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="89" t="s">
+        <v>661</v>
+      </c>
+      <c r="H39" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" s="38"/>
+    </row>
+    <row r="40" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="202"/>
+      <c r="B40" s="203"/>
+      <c r="C40" s="160">
+        <v>2937138060</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="84"/>
+      <c r="F40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="89" t="s">
+        <v>652</v>
+      </c>
+      <c r="H40" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="202" t="s">
+        <v>676</v>
+      </c>
+      <c r="C41" s="161">
+        <v>2471347750</v>
+      </c>
+      <c r="D41" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="84"/>
+      <c r="F41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="89" t="s">
         <v>659</v>
       </c>
-      <c r="G4" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>68</v>
-      </c>
-      <c r="B5" s="161">
+      <c r="H41" s="87" t="s">
+        <v>650</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="202"/>
+      <c r="C42" s="161">
+        <v>3114410963</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>562</v>
+      </c>
+      <c r="E42" s="84"/>
+      <c r="F42" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="89"/>
+      <c r="H42" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="202"/>
+      <c r="C43" s="160">
+        <v>1866298408</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="84"/>
+      <c r="F43" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="89"/>
+      <c r="H43" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="202"/>
+      <c r="C44" s="161">
+        <v>2874589934</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>634</v>
+      </c>
+      <c r="E44" s="85"/>
+      <c r="F44" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="89" t="s">
+        <v>648</v>
+      </c>
+      <c r="H44" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="202" t="s">
+        <v>677</v>
+      </c>
+      <c r="C45" s="161">
+        <v>2307297070</v>
+      </c>
+      <c r="D45" s="85" t="s">
+        <v>636</v>
+      </c>
+      <c r="E45" s="85"/>
+      <c r="F45" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="89"/>
+      <c r="H45" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+    </row>
+    <row r="46" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="202"/>
+      <c r="C46" s="161">
         <v>1710977250</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="D46" s="85" t="s">
         <v>631</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="89" t="s">
-        <v>652</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>33</v>
-      </c>
-      <c r="B6" s="161">
-        <v>1797720064</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>601</v>
-      </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="38" t="s">
+      <c r="E46" s="85"/>
+      <c r="F46" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="89"/>
+      <c r="H46" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+    </row>
+    <row r="47" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="202"/>
+      <c r="C47" s="161">
+        <v>2895049000</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>632</v>
+      </c>
+      <c r="E47" s="85"/>
+      <c r="F47" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="89" t="s">
+        <v>651</v>
+      </c>
+      <c r="H47" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+    </row>
+    <row r="48" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="202" t="s">
+        <v>678</v>
+      </c>
+      <c r="C48" s="161">
+        <v>2651195301</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>633</v>
+      </c>
+      <c r="E48" s="85"/>
+      <c r="F48" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="89" t="s">
+        <v>649</v>
+      </c>
+      <c r="H48" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>650</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="202"/>
+      <c r="C49" s="161">
+        <v>2472500243</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>626</v>
+      </c>
+      <c r="E49" s="85"/>
+      <c r="F49" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>58</v>
-      </c>
-      <c r="B7" s="161">
-        <v>1828439124</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>609</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="38" t="s">
+      <c r="G49" s="89"/>
+      <c r="H49" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N49" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="202"/>
+      <c r="C50" s="161">
+        <v>1832448183</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>628</v>
+      </c>
+      <c r="E50" s="85"/>
+      <c r="F50" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="89" t="s">
-        <v>663</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8" s="161">
-        <v>1832448183</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>628</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="38"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="160">
-        <v>1866298408</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>19</v>
-      </c>
-      <c r="B10" s="160">
-        <v>1870481515</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>65</v>
-      </c>
-      <c r="B11" s="161">
-        <v>1895432270</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>629</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>665</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="91"/>
-      <c r="L11" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12" s="161">
-        <v>1982919196</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>565</v>
-      </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>652</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>614</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>59</v>
-      </c>
-      <c r="B13" s="161">
-        <v>1991570984</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>610</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="164"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>61</v>
-      </c>
-      <c r="B14" s="161">
-        <v>2111523728</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>612</v>
-      </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="89" t="s">
-        <v>664</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="161">
-        <v>2116157322</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>25</v>
-      </c>
-      <c r="B16" s="160">
-        <v>2155726353</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" s="160">
-        <v>2166325582</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" s="160">
-        <v>2208230845</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="89" t="s">
-        <v>551</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>63</v>
-      </c>
-      <c r="B19" s="161">
-        <v>2224593910</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>627</v>
-      </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>67</v>
-      </c>
-      <c r="B20" s="161">
-        <v>2307297070</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>636</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="89" t="s">
-        <v>652</v>
-      </c>
-      <c r="G20" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>46</v>
-      </c>
-      <c r="B21" s="161">
-        <v>2469448088</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>580</v>
-      </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22" s="161">
-        <v>2471347750</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="89" t="s">
-        <v>660</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>650</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>62</v>
-      </c>
-      <c r="B23" s="161">
-        <v>2472500243</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>626</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="89"/>
-      <c r="G23" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>48</v>
-      </c>
-      <c r="B24" s="161">
-        <v>2507204412</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>582</v>
-      </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" s="160">
-        <v>2521460498</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>30</v>
-      </c>
-      <c r="B26" s="161">
-        <v>2521678241</v>
-      </c>
-      <c r="C26" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" s="160">
-        <v>2545327648</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" s="160">
-        <v>2550932214</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="89"/>
-      <c r="G28" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" s="160">
-        <v>2572331007</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="89" t="s">
-        <v>655</v>
-      </c>
-      <c r="G29" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>53</v>
-      </c>
-      <c r="B30" s="161">
-        <v>2579252958</v>
-      </c>
-      <c r="C30" s="85" t="s">
-        <v>587</v>
-      </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="89"/>
-      <c r="G30" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>47</v>
-      </c>
-      <c r="B31" s="161">
-        <v>2614334381</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>581</v>
-      </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="89"/>
-      <c r="G31" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>70</v>
-      </c>
-      <c r="B32" s="161">
-        <v>2651195301</v>
-      </c>
-      <c r="C32" s="85" t="s">
-        <v>633</v>
-      </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="89" t="s">
-        <v>649</v>
-      </c>
-      <c r="G32" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>650</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="B33" s="161">
-        <v>2723807644</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>28</v>
-      </c>
-      <c r="B34" s="161">
-        <v>2741271183</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>384</v>
-      </c>
-      <c r="D34" s="84"/>
-      <c r="E34" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="89"/>
-      <c r="G34" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>27</v>
-      </c>
-      <c r="B35" s="161">
-        <v>2780914191</v>
-      </c>
-      <c r="C35" s="84" t="s">
-        <v>383</v>
-      </c>
-      <c r="D35" s="84"/>
-      <c r="E35" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>20</v>
-      </c>
-      <c r="B36" s="160">
-        <v>2789302074</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="84"/>
-      <c r="E36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="89"/>
-      <c r="G36" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>22</v>
-      </c>
-      <c r="B37" s="160">
-        <v>2793619401</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="84"/>
-      <c r="E37" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L37" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M37" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38" s="161">
-        <v>2793893086</v>
-      </c>
-      <c r="C38" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="89"/>
-      <c r="G38" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" s="91" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" s="161">
-        <v>2810260908</v>
-      </c>
-      <c r="C39" s="84" t="s">
-        <v>572</v>
-      </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="89"/>
-      <c r="G39" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>43</v>
-      </c>
-      <c r="B40" s="161">
-        <v>2817606510</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>577</v>
-      </c>
-      <c r="D40" s="84"/>
-      <c r="E40" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="89"/>
-      <c r="G40" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K40" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M40" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" s="161">
-        <v>2822531337</v>
-      </c>
-      <c r="C41" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="D41" s="84"/>
-      <c r="E41" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="89"/>
-      <c r="G41" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" s="161">
-        <v>2832627966</v>
-      </c>
-      <c r="C42" s="84" t="s">
-        <v>575</v>
-      </c>
-      <c r="D42" s="84"/>
-      <c r="E42" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="89"/>
-      <c r="G42" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K42" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L42" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M42" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>14</v>
-      </c>
-      <c r="B43" s="160">
-        <v>2833363308</v>
-      </c>
-      <c r="C43" s="84" t="s">
-        <v>657</v>
-      </c>
-      <c r="D43" s="84"/>
-      <c r="E43" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="89"/>
-      <c r="G43" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>54</v>
-      </c>
-      <c r="B44" s="161">
-        <v>2851058261</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>588</v>
-      </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="89" t="s">
-        <v>564</v>
-      </c>
-      <c r="G44" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="91"/>
-      <c r="M44" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>21</v>
-      </c>
-      <c r="B45" s="160">
-        <v>2851504507</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M45" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>41</v>
-      </c>
-      <c r="B46" s="161">
-        <v>2857994912</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>574</v>
-      </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="89"/>
-      <c r="G46" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>71</v>
-      </c>
-      <c r="B47" s="161">
-        <v>2874589934</v>
-      </c>
-      <c r="C47" s="85" t="s">
-        <v>634</v>
-      </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="89" t="s">
-        <v>648</v>
-      </c>
-      <c r="G47" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M47" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>40</v>
-      </c>
-      <c r="B48" s="161">
-        <v>2877877368</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>573</v>
-      </c>
-      <c r="D48" s="84"/>
-      <c r="E48" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="89"/>
-      <c r="G48" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M48" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>45</v>
-      </c>
-      <c r="B49" s="161">
-        <v>2884638645</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>578</v>
-      </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="89"/>
-      <c r="G49" s="87" t="s">
-        <v>614</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J49" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="38"/>
-      <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>69</v>
-      </c>
-      <c r="B50" s="161">
-        <v>2895049000</v>
-      </c>
-      <c r="C50" s="85" t="s">
-        <v>632</v>
-      </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="89" t="s">
-        <v>651</v>
-      </c>
-      <c r="G50" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
-    </row>
-    <row r="51" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="N50" s="38"/>
+    </row>
+    <row r="51" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="202"/>
+      <c r="C51" s="161">
+        <v>1895432270</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>629</v>
+      </c>
+      <c r="E51" s="85"/>
+      <c r="F51" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="89" t="s">
+        <v>664</v>
+      </c>
+      <c r="H51" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="202"/>
+      <c r="C52" s="161">
+        <v>2912241382</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>630</v>
+      </c>
+      <c r="E52" s="85"/>
+      <c r="F52" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="89"/>
+      <c r="H52" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="202" t="s">
+        <v>668</v>
+      </c>
+      <c r="C53" s="161">
+        <v>2832627966</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>575</v>
+      </c>
+      <c r="E53" s="84"/>
+      <c r="F53" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="89"/>
+      <c r="H53" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="202"/>
+      <c r="C54" s="161">
+        <v>3043440124</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>563</v>
+      </c>
+      <c r="E54" s="84"/>
+      <c r="F54" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="89"/>
+      <c r="H54" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="202"/>
+      <c r="C55" s="160">
+        <v>2550932214</v>
+      </c>
+      <c r="D55" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="84"/>
+      <c r="F55" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="89"/>
+      <c r="H55" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="202"/>
+      <c r="C56" s="161">
+        <v>3321340470</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>646</v>
+      </c>
+      <c r="E56" s="85"/>
+      <c r="F56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="89" t="s">
+        <v>647</v>
+      </c>
+      <c r="H56" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N56" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="202" t="s">
+        <v>674</v>
+      </c>
+      <c r="C57" s="160">
+        <v>2851504507</v>
+      </c>
+      <c r="D57" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="84"/>
+      <c r="F57" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="89"/>
+      <c r="H57" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M57" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="N57" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="202"/>
+      <c r="C58" s="160">
+        <v>2793619401</v>
+      </c>
+      <c r="D58" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="84"/>
+      <c r="F58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="N58" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="202"/>
+      <c r="C59" s="161">
+        <v>2924719512</v>
+      </c>
+      <c r="D59" s="84" t="s">
+        <v>568</v>
+      </c>
+      <c r="E59" s="84"/>
+      <c r="F59" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="89"/>
+      <c r="H59" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N59" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="202"/>
+      <c r="C60" s="161">
+        <v>2810260908</v>
+      </c>
+      <c r="D60" s="84" t="s">
+        <v>572</v>
+      </c>
+      <c r="E60" s="84"/>
+      <c r="F60" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="89"/>
+      <c r="H60" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N60" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="202"/>
+      <c r="C61" s="161">
+        <v>2877877368</v>
+      </c>
+      <c r="D61" s="84" t="s">
+        <v>573</v>
+      </c>
+      <c r="E61" s="84"/>
+      <c r="F61" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="89"/>
+      <c r="H61" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N61" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="202"/>
+      <c r="C62" s="161">
+        <v>2857994912</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="E62" s="84"/>
+      <c r="F62" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="89"/>
+      <c r="H62" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="202"/>
+      <c r="C63" s="161">
+        <v>2817606510</v>
+      </c>
+      <c r="D63" s="84" t="s">
+        <v>577</v>
+      </c>
+      <c r="E63" s="84"/>
+      <c r="F63" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="89"/>
+      <c r="H63" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N63" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="202"/>
+      <c r="C64" s="161">
+        <v>2884638645</v>
+      </c>
+      <c r="D64" s="84" t="s">
+        <v>578</v>
+      </c>
+      <c r="E64" s="84"/>
+      <c r="F64" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="89"/>
+      <c r="H64" s="87" t="s">
+        <v>614</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M64" s="91"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="202"/>
+      <c r="C65" s="160">
+        <v>2521460498</v>
+      </c>
+      <c r="D65" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="161">
+      <c r="E65" s="84"/>
+      <c r="F65" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="89"/>
+      <c r="H65" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N65" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="202"/>
+      <c r="C66" s="160">
+        <v>2903112334</v>
+      </c>
+      <c r="D66" s="84" t="s">
+        <v>656</v>
+      </c>
+      <c r="E66" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="89"/>
+      <c r="H66" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N66" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="202"/>
+      <c r="C67" s="160">
+        <v>2833363308</v>
+      </c>
+      <c r="D67" s="84" t="s">
+        <v>679</v>
+      </c>
+      <c r="E67" s="84"/>
+      <c r="F67" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="89"/>
+      <c r="H67" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="202"/>
+      <c r="C68" s="161">
+        <v>2521678241</v>
+      </c>
+      <c r="D68" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="84"/>
+      <c r="F68" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="89"/>
+      <c r="H68" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="M68" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N68" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="202"/>
+      <c r="C69" s="161">
         <v>2895460678</v>
       </c>
-      <c r="C51" s="84" t="s">
-        <v>658</v>
-      </c>
-      <c r="D51" s="84"/>
-      <c r="E51" s="38" t="s">
+      <c r="D69" s="84" t="s">
+        <v>657</v>
+      </c>
+      <c r="E69" s="84"/>
+      <c r="F69" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="89"/>
-      <c r="G51" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J51" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M51" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>13</v>
-      </c>
-      <c r="B52" s="160">
-        <v>2903112334</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>656</v>
-      </c>
-      <c r="D52" s="199" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="38" t="s">
+      <c r="G69" s="89"/>
+      <c r="H69" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" s="200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="202"/>
+      <c r="C70" s="161">
+        <v>2985895498</v>
+      </c>
+      <c r="D70" s="84" t="s">
+        <v>576</v>
+      </c>
+      <c r="E70" s="84"/>
+      <c r="F70" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="89"/>
-      <c r="G52" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K52" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L52" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M52" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>66</v>
-      </c>
-      <c r="B53" s="161">
-        <v>2912241382</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>630</v>
-      </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="38" t="s">
+      <c r="G70" s="89"/>
+      <c r="H70" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M70" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="N70" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="202"/>
+      <c r="C71" s="161">
+        <v>2224593910</v>
+      </c>
+      <c r="D71" s="85" t="s">
+        <v>627</v>
+      </c>
+      <c r="E71" s="85"/>
+      <c r="F71" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="89"/>
-      <c r="G53" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M53" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>37</v>
-      </c>
-      <c r="B54" s="161">
-        <v>2924719512</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>568</v>
-      </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="38" t="s">
+      <c r="G71" s="89"/>
+      <c r="H71" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M71" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="161">
+        <v>3119592638</v>
+      </c>
+      <c r="D97" s="85" t="s">
+        <v>635</v>
+      </c>
+      <c r="E97" s="85"/>
+      <c r="F97" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="89" t="s">
+        <v>665</v>
+      </c>
+      <c r="H97" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L97" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M97" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N97" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="155"/>
+      <c r="D99" s="156"/>
+      <c r="E99" s="156"/>
+      <c r="F99" s="155"/>
+      <c r="G99" s="157"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="155"/>
+      <c r="J99" s="155"/>
+      <c r="K99" s="155"/>
+      <c r="L99" s="155"/>
+      <c r="M99" s="155"/>
+      <c r="N99" s="155"/>
+    </row>
+    <row r="100" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="155"/>
+      <c r="D100" s="156"/>
+      <c r="E100" s="156"/>
+      <c r="F100" s="155"/>
+      <c r="G100" s="157"/>
+      <c r="H100" s="158"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="155"/>
+      <c r="M100" s="155"/>
+      <c r="N100" s="155"/>
+    </row>
+    <row r="101" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="155"/>
+      <c r="D101" s="156"/>
+      <c r="E101" s="156"/>
+      <c r="F101" s="155"/>
+      <c r="G101" s="157"/>
+      <c r="H101" s="158"/>
+      <c r="I101" s="155"/>
+      <c r="J101" s="155"/>
+      <c r="K101" s="155"/>
+      <c r="L101" s="155"/>
+      <c r="M101" s="155"/>
+      <c r="N101" s="155"/>
+    </row>
+    <row r="102" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="161">
+        <v>1828439124</v>
+      </c>
+      <c r="D102" s="85" t="s">
+        <v>609</v>
+      </c>
+      <c r="E102" s="85"/>
+      <c r="F102" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="89"/>
-      <c r="G54" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J54" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L54" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M54" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>51</v>
-      </c>
-      <c r="B55" s="161">
-        <v>2926289548</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>585</v>
-      </c>
-      <c r="D55" s="84"/>
-      <c r="E55" s="38" t="s">
+      <c r="G102" s="89" t="s">
+        <v>662</v>
+      </c>
+      <c r="H102" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K102" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L102" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M102" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N102" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C103" s="114">
+        <v>2932234007</v>
+      </c>
+      <c r="D103" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="110"/>
+      <c r="F103" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="89"/>
-      <c r="G55" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K55" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M55" s="38"/>
-    </row>
-    <row r="56" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>23</v>
-      </c>
-      <c r="B56" s="160">
-        <v>2931560672</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="38" t="s">
+      <c r="G103" s="112"/>
+      <c r="H103" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K103" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="M103" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="N103" s="116"/>
+    </row>
+    <row r="104" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="114">
+        <v>2856976851</v>
+      </c>
+      <c r="D104" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="110"/>
+      <c r="F104" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="89"/>
-      <c r="G56" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M56" s="5"/>
-    </row>
-    <row r="57" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="G104" s="112"/>
+      <c r="H104" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" s="111"/>
+      <c r="L104" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="M104" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="N104" s="116"/>
+    </row>
+    <row r="105" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="114">
+        <v>2785458437</v>
+      </c>
+      <c r="D105" s="110" t="s">
+        <v>589</v>
+      </c>
+      <c r="E105" s="110"/>
+      <c r="F105" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="112"/>
+      <c r="H105" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K105" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="L105" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="M105" s="111"/>
+      <c r="N105" s="116"/>
+    </row>
+    <row r="106" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="114">
+        <v>2138156626</v>
+      </c>
+      <c r="D106" s="110" t="s">
+        <v>550</v>
+      </c>
+      <c r="E106" s="110"/>
+      <c r="F106" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="112"/>
+      <c r="H106" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K106" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="L106" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="M106" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N106" s="116"/>
+    </row>
+    <row r="107" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="114">
+        <v>2848676009</v>
+      </c>
+      <c r="D107" s="125" t="s">
+        <v>592</v>
+      </c>
+      <c r="E107" s="125"/>
+      <c r="F107" s="111"/>
+      <c r="G107" s="112" t="s">
+        <v>595</v>
+      </c>
+      <c r="H107" s="113"/>
+      <c r="I107" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="111"/>
+      <c r="K107" s="111"/>
+      <c r="L107" s="111"/>
+      <c r="M107" s="111"/>
+      <c r="N107" s="111"/>
+    </row>
+    <row r="108" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="114">
+        <v>2918418331</v>
+      </c>
+      <c r="D108" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="125"/>
+      <c r="F108" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="K108" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L108" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="M108" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N108" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="114">
+        <v>2799531123</v>
+      </c>
+      <c r="D109" s="110" t="s">
+        <v>569</v>
+      </c>
+      <c r="E109" s="110"/>
+      <c r="F109" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="112" t="s">
+        <v>570</v>
+      </c>
+      <c r="H109" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="111"/>
+      <c r="K109" s="111"/>
+      <c r="L109" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="M109" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="N109" s="116"/>
+    </row>
+    <row r="110" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="114">
+        <v>2960002014</v>
+      </c>
+      <c r="D110" s="110" t="s">
+        <v>579</v>
+      </c>
+      <c r="E110" s="110"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="112"/>
+      <c r="H110" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
+      <c r="L110" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="M110" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="N110" s="116"/>
+    </row>
+    <row r="111" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="114">
+        <v>2293429999</v>
+      </c>
+      <c r="D111" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="110"/>
+      <c r="F111" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="112"/>
+      <c r="H111" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" s="111"/>
+      <c r="K111" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L111" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="M111" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N111" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="114">
+        <v>2265389602</v>
+      </c>
+      <c r="D112" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="110"/>
+      <c r="F112" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" s="111"/>
+      <c r="K112" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L112" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="M112" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N112" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="114">
+        <v>2346714856</v>
+      </c>
+      <c r="D113" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="160">
-        <v>2937138060</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="84"/>
-      <c r="E57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="89" t="s">
-        <v>652</v>
-      </c>
-      <c r="G57" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="5"/>
-    </row>
-    <row r="58" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>35</v>
-      </c>
-      <c r="B58" s="161">
-        <v>2977703357</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>566</v>
-      </c>
-      <c r="D58" s="84"/>
-      <c r="E58" s="38" t="s">
+      <c r="E113" s="110"/>
+      <c r="F113" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="89"/>
-      <c r="G58" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J58" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K58" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L58" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M58" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>36</v>
-      </c>
-      <c r="B59" s="161">
-        <v>2980235854</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>567</v>
-      </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="89"/>
-      <c r="G59" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J59" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K59" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L59" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M59" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>44</v>
-      </c>
-      <c r="B60" s="161">
-        <v>2985895498</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>576</v>
-      </c>
-      <c r="D60" s="84"/>
-      <c r="E60" s="38" t="s">
+      <c r="G113" s="112"/>
+      <c r="H113" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="K113" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L113" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="M113" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N113" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="114">
+        <v>2932842394</v>
+      </c>
+      <c r="D114" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="110"/>
+      <c r="F114" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="89"/>
-      <c r="G60" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J60" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K60" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L60" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M60" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>56</v>
-      </c>
-      <c r="B61" s="161">
-        <v>2990236173</v>
-      </c>
-      <c r="C61" s="85" t="s">
-        <v>590</v>
-      </c>
-      <c r="D61" s="85"/>
-      <c r="E61" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="89" t="s">
-        <v>593</v>
-      </c>
-      <c r="G61" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J61" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K61" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L61" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M61" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>49</v>
-      </c>
-      <c r="B62" s="161">
-        <v>3031784065</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>583</v>
-      </c>
-      <c r="D62" s="84"/>
-      <c r="E62" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="89" t="s">
-        <v>653</v>
-      </c>
-      <c r="G62" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K62" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L62" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M62" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>50</v>
-      </c>
-      <c r="B63" s="161">
-        <v>3034460305</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>584</v>
-      </c>
-      <c r="D63" s="84"/>
-      <c r="E63" s="38" t="s">
+      <c r="G114" s="112" t="s">
+        <v>591</v>
+      </c>
+      <c r="H114" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L114" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="M114" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N114" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="3:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="114">
+        <v>3226146640</v>
+      </c>
+      <c r="D115" s="110" t="s">
+        <v>586</v>
+      </c>
+      <c r="E115" s="110"/>
+      <c r="F115" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="89"/>
-      <c r="G63" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J63" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M63" s="38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>32</v>
-      </c>
-      <c r="B64" s="161">
-        <v>3043440124</v>
-      </c>
-      <c r="C64" s="84" t="s">
-        <v>563</v>
-      </c>
-      <c r="D64" s="84"/>
-      <c r="E64" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="89"/>
-      <c r="G64" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K64" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L64" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M64" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>57</v>
-      </c>
-      <c r="B65" s="161">
-        <v>3108865421</v>
-      </c>
-      <c r="C65" s="85" t="s">
-        <v>607</v>
-      </c>
-      <c r="D65" s="85"/>
-      <c r="E65" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="89" t="s">
-        <v>608</v>
-      </c>
-      <c r="G65" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K65" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-    </row>
-    <row r="66" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>31</v>
-      </c>
-      <c r="B66" s="161">
-        <v>3114410963</v>
-      </c>
-      <c r="C66" s="84" t="s">
-        <v>562</v>
-      </c>
-      <c r="D66" s="84"/>
-      <c r="E66" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="89"/>
-      <c r="G66" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J66" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L66" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M66" s="5"/>
-    </row>
-    <row r="67" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>72</v>
-      </c>
-      <c r="B67" s="161">
-        <v>3119592638</v>
-      </c>
-      <c r="C67" s="85" t="s">
-        <v>635</v>
-      </c>
-      <c r="D67" s="85"/>
-      <c r="E67" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="89" t="s">
-        <v>666</v>
-      </c>
-      <c r="G67" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J67" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K67" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L67" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M67" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>52</v>
-      </c>
-      <c r="B68" s="161">
-        <v>3170285574</v>
-      </c>
-      <c r="C68" s="85" t="s">
-        <v>613</v>
-      </c>
-      <c r="D68" s="85"/>
-      <c r="E68" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="89" t="s">
-        <v>661</v>
-      </c>
-      <c r="G68" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I68" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="J68" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K68" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L68" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M68" s="38"/>
-    </row>
-    <row r="69" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>60</v>
-      </c>
-      <c r="B69" s="161">
-        <v>3171576913</v>
-      </c>
-      <c r="C69" s="85" t="s">
-        <v>611</v>
-      </c>
-      <c r="D69" s="85"/>
-      <c r="E69" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="89"/>
-      <c r="G69" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J69" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K69" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L69" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M69" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>7</v>
-      </c>
-      <c r="B70" s="160">
-        <v>3200745813</v>
-      </c>
-      <c r="C70" s="84" t="s">
-        <v>553</v>
-      </c>
-      <c r="D70" s="84"/>
-      <c r="E70" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="89" t="s">
-        <v>654</v>
-      </c>
-      <c r="G70" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J70" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K70" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L70" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M70" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>55</v>
-      </c>
-      <c r="B71" s="161">
-        <v>3279662973</v>
-      </c>
-      <c r="C71" s="85" t="s">
-        <v>625</v>
-      </c>
-      <c r="D71" s="85"/>
-      <c r="E71" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="89" t="s">
-        <v>662</v>
-      </c>
-      <c r="G71" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J71" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K71" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L71" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M71" s="38"/>
-    </row>
-    <row r="72" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>73</v>
-      </c>
-      <c r="B72" s="161">
-        <v>3321340470</v>
-      </c>
-      <c r="C72" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="D72" s="85"/>
-      <c r="E72" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="89" t="s">
-        <v>647</v>
-      </c>
-      <c r="G72" s="87"/>
-      <c r="H72" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I72" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J72" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K72" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L72" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M72" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>18</v>
-      </c>
-      <c r="B73" s="160" t="s">
-        <v>597</v>
-      </c>
-      <c r="C73" s="84" t="s">
-        <v>596</v>
-      </c>
-      <c r="D73" s="84"/>
-      <c r="E73" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="89"/>
-      <c r="G73" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J73" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K73" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L73" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="155"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="158"/>
-      <c r="H74" s="155"/>
-      <c r="I74" s="155"/>
-      <c r="J74" s="155"/>
-      <c r="K74" s="155"/>
-      <c r="L74" s="155"/>
-      <c r="M74" s="155"/>
-    </row>
-    <row r="75" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="155"/>
-      <c r="C75" s="156"/>
-      <c r="D75" s="156"/>
-      <c r="E75" s="155"/>
-      <c r="F75" s="157"/>
-      <c r="G75" s="158"/>
-      <c r="H75" s="155"/>
-      <c r="I75" s="155"/>
-      <c r="J75" s="155"/>
-      <c r="K75" s="155"/>
-      <c r="L75" s="155"/>
-      <c r="M75" s="155"/>
-    </row>
-    <row r="76" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="155"/>
-      <c r="C76" s="156"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="155"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="158"/>
-      <c r="H76" s="155"/>
-      <c r="I76" s="155"/>
-      <c r="J76" s="155"/>
-      <c r="K76" s="155"/>
-      <c r="L76" s="155"/>
-      <c r="M76" s="155"/>
-    </row>
-    <row r="77" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="155"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="155"/>
-      <c r="F77" s="157"/>
-      <c r="G77" s="158"/>
-      <c r="H77" s="155"/>
-      <c r="I77" s="155"/>
-      <c r="J77" s="155"/>
-      <c r="K77" s="155"/>
-      <c r="L77" s="155"/>
-      <c r="M77" s="155"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="114">
-        <v>2932234007</v>
-      </c>
-      <c r="C78" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="110"/>
-      <c r="E78" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="112"/>
-      <c r="G78" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="J78" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="K78" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="L78" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="M78" s="116"/>
-    </row>
-    <row r="79" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="114">
-        <v>2856976851</v>
-      </c>
-      <c r="C79" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="110"/>
-      <c r="E79" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="112"/>
-      <c r="G79" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="J79" s="111"/>
-      <c r="K79" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="L79" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="M79" s="116"/>
-    </row>
-    <row r="80" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="114">
-        <v>2785458437</v>
-      </c>
-      <c r="C80" s="110" t="s">
-        <v>589</v>
-      </c>
-      <c r="D80" s="110"/>
-      <c r="E80" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="112"/>
-      <c r="G80" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="J80" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="K80" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="L80" s="111"/>
-      <c r="M80" s="116"/>
-    </row>
-    <row r="81" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="114">
-        <v>2138156626</v>
-      </c>
-      <c r="C81" s="110" t="s">
-        <v>550</v>
-      </c>
-      <c r="D81" s="110"/>
-      <c r="E81" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="112"/>
-      <c r="G81" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="M81" s="116"/>
-    </row>
-    <row r="82" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="114">
-        <v>2848676009</v>
-      </c>
-      <c r="C82" s="125" t="s">
-        <v>592</v>
-      </c>
-      <c r="D82" s="125"/>
-      <c r="E82" s="111"/>
-      <c r="F82" s="112" t="s">
-        <v>595</v>
-      </c>
-      <c r="G82" s="113"/>
-      <c r="H82" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="111"/>
-      <c r="J82" s="111"/>
-      <c r="K82" s="111"/>
-      <c r="L82" s="111"/>
-      <c r="M82" s="111"/>
-    </row>
-    <row r="83" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="114">
-        <v>2918418331</v>
-      </c>
-      <c r="C83" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="125"/>
-      <c r="E83" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="I83" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="J83" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="K83" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="L83" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="M83" s="111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="114">
-        <v>2799531123</v>
-      </c>
-      <c r="C84" s="110" t="s">
-        <v>569</v>
-      </c>
-      <c r="D84" s="110"/>
-      <c r="E84" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="112" t="s">
-        <v>570</v>
-      </c>
-      <c r="G84" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" s="111"/>
-      <c r="J84" s="111"/>
-      <c r="K84" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="L84" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="M84" s="116"/>
-    </row>
-    <row r="85" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="114">
-        <v>2960002014</v>
-      </c>
-      <c r="C85" s="110" t="s">
-        <v>579</v>
-      </c>
-      <c r="D85" s="110"/>
-      <c r="E85" s="111"/>
-      <c r="F85" s="112"/>
-      <c r="G85" s="113" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="111"/>
-      <c r="J85" s="111"/>
-      <c r="K85" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="L85" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="M85" s="116"/>
-    </row>
-    <row r="86" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="114">
-        <v>2293429999</v>
-      </c>
-      <c r="C86" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="110"/>
-      <c r="E86" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="112"/>
-      <c r="G86" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="111"/>
-      <c r="J86" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="K86" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="L86" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="M86" s="111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="114">
-        <v>2265389602</v>
-      </c>
-      <c r="C87" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="110"/>
-      <c r="E87" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="I87" s="111"/>
-      <c r="J87" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="K87" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="L87" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="M87" s="111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="114">
-        <v>2346714856</v>
-      </c>
-      <c r="C88" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="110"/>
-      <c r="E88" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="112"/>
-      <c r="G88" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="I88" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="J88" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="K88" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="L88" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="M88" s="111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="114">
-        <v>2932842394</v>
-      </c>
-      <c r="C89" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="110"/>
-      <c r="E89" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="112" t="s">
-        <v>591</v>
-      </c>
-      <c r="G89" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="J89" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="K89" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="L89" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="M89" s="111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="114">
-        <v>3226146640</v>
-      </c>
-      <c r="C90" s="110" t="s">
-        <v>586</v>
-      </c>
-      <c r="D90" s="110"/>
-      <c r="E90" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="112"/>
-      <c r="G90" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="111"/>
-      <c r="J90" s="111"/>
-      <c r="K90" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="L90" s="111"/>
-      <c r="M90" s="111"/>
+      <c r="G115" s="112"/>
+      <c r="H115" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="111"/>
+      <c r="K115" s="111"/>
+      <c r="L115" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="M115" s="111"/>
+      <c r="N115" s="111"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M73">
-    <sortCondition ref="B1:B73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N98">
+    <sortCondition ref="B2:B98"/>
   </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A21:A40"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A41:A44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7977,25 +7949,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -8010,19 +7982,19 @@
       <c r="F4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -8073,10 +8045,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="190" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8138,8 +8110,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="60" t="s">
         <v>42</v>
       </c>
@@ -8190,8 +8162,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="172"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
@@ -8240,8 +8212,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="172"/>
-      <c r="B9" s="175"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="60" t="s">
         <v>283</v>
       </c>
@@ -8292,8 +8264,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172"/>
-      <c r="B10" s="175"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8342,8 +8314,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="172"/>
-      <c r="B11" s="175"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8390,12 +8362,12 @@
         <v>8</v>
       </c>
       <c r="V11" s="163" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="172"/>
-      <c r="B12" s="175"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="60" t="s">
         <v>44</v>
       </c>
@@ -8441,8 +8413,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="172"/>
-      <c r="B13" s="175"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="60" t="s">
         <v>637</v>
       </c>
@@ -8476,8 +8448,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="172"/>
-      <c r="B14" s="175"/>
+      <c r="A14" s="188"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
@@ -8523,8 +8495,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="172"/>
-      <c r="B15" s="175"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="60" t="s">
         <v>74</v>
       </c>
@@ -8570,8 +8542,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="172"/>
-      <c r="B16" s="175"/>
+      <c r="A16" s="188"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="60" t="s">
         <v>46</v>
       </c>
@@ -8615,8 +8587,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="172"/>
-      <c r="B17" s="175"/>
+      <c r="A17" s="188"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="60" t="s">
         <v>47</v>
       </c>
@@ -8660,8 +8632,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
-      <c r="B18" s="175"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="60" t="s">
         <v>48</v>
       </c>
@@ -8705,8 +8677,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
-      <c r="B19" s="175"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="60" t="s">
         <v>346</v>
       </c>
@@ -8752,8 +8724,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
-      <c r="B20" s="176"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="61" t="s">
         <v>50</v>
       </c>
@@ -8795,8 +8767,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="172"/>
-      <c r="B21" s="169" t="s">
+      <c r="A21" s="188"/>
+      <c r="B21" s="187" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -8847,8 +8819,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="172"/>
-      <c r="B22" s="170"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="61" t="s">
         <v>233</v>
       </c>
@@ -8892,8 +8864,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="172"/>
-      <c r="B23" s="170"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="60" t="s">
         <v>45</v>
       </c>
@@ -8937,8 +8909,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="172"/>
-      <c r="B24" s="170"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="60" t="s">
         <v>120</v>
       </c>
@@ -8984,8 +8956,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="172"/>
-      <c r="B25" s="170"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="60" t="s">
         <v>235</v>
       </c>
@@ -9033,8 +9005,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="172"/>
-      <c r="B26" s="170"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="60" t="s">
         <v>350</v>
       </c>
@@ -9078,8 +9050,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="172"/>
-      <c r="B27" s="170"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="60" t="s">
         <v>119</v>
       </c>
@@ -9123,8 +9095,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="172"/>
-      <c r="B28" s="170"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="60" t="s">
         <v>465</v>
       </c>
@@ -9168,8 +9140,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="172"/>
-      <c r="B29" s="170"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="60" t="s">
         <v>385</v>
       </c>
@@ -9215,8 +9187,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="172"/>
-      <c r="B30" s="170"/>
+      <c r="A30" s="188"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="60" t="s">
         <v>238</v>
       </c>
@@ -9263,8 +9235,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="172"/>
-      <c r="B31" s="170"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="60" t="s">
         <v>351</v>
       </c>
@@ -9310,8 +9282,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="172"/>
-      <c r="B32" s="170"/>
+      <c r="A32" s="188"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="60" t="s">
         <v>216</v>
       </c>
@@ -9358,8 +9330,8 @@
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="172"/>
-      <c r="B33" s="170"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="60" t="s">
         <v>242</v>
       </c>
@@ -9405,8 +9377,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="172"/>
-      <c r="B34" s="170"/>
+      <c r="A34" s="188"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="60" t="s">
         <v>375</v>
       </c>
@@ -9450,8 +9422,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="172"/>
-      <c r="B35" s="170"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="174"/>
       <c r="C35" s="60" t="s">
         <v>388</v>
       </c>
@@ -9495,8 +9467,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="172"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="65" t="s">
         <v>234</v>
       </c>
@@ -9540,10 +9512,10 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="195" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="177" t="s">
+      <c r="B37" s="166" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="62" t="s">
@@ -9588,8 +9560,8 @@
       <c r="T37" s="33"/>
     </row>
     <row r="38" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="183"/>
-      <c r="B38" s="175"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="60" t="s">
         <v>107</v>
       </c>
@@ -9631,8 +9603,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="183"/>
-      <c r="B39" s="175"/>
+      <c r="A39" s="196"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="60" t="s">
         <v>108</v>
       </c>
@@ -9675,8 +9647,8 @@
       <c r="T39" s="23"/>
     </row>
     <row r="40" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="183"/>
-      <c r="B40" s="175"/>
+      <c r="A40" s="196"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="61" t="s">
         <v>109</v>
       </c>
@@ -9724,8 +9696,8 @@
       <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="183"/>
-      <c r="B41" s="180" t="s">
+      <c r="A41" s="196"/>
+      <c r="B41" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C41" s="63" t="s">
@@ -9771,8 +9743,8 @@
       <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="183"/>
-      <c r="B42" s="170"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="174"/>
       <c r="C42" s="60" t="s">
         <v>218</v>
       </c>
@@ -9814,8 +9786,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="183"/>
-      <c r="B43" s="170"/>
+      <c r="A43" s="196"/>
+      <c r="B43" s="174"/>
       <c r="C43" s="60" t="s">
         <v>258</v>
       </c>
@@ -9857,8 +9829,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183"/>
-      <c r="B44" s="170"/>
+      <c r="A44" s="196"/>
+      <c r="B44" s="174"/>
       <c r="C44" s="60" t="s">
         <v>219</v>
       </c>
@@ -9900,8 +9872,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="183"/>
-      <c r="B45" s="170"/>
+      <c r="A45" s="196"/>
+      <c r="B45" s="174"/>
       <c r="C45" s="60" t="s">
         <v>490</v>
       </c>
@@ -9946,8 +9918,8 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="183"/>
-      <c r="B46" s="170"/>
+      <c r="A46" s="196"/>
+      <c r="B46" s="174"/>
       <c r="C46" s="60" t="s">
         <v>413</v>
       </c>
@@ -9989,8 +9961,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="183"/>
-      <c r="B47" s="170"/>
+      <c r="A47" s="196"/>
+      <c r="B47" s="174"/>
       <c r="C47" s="60" t="s">
         <v>410</v>
       </c>
@@ -10032,8 +10004,8 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183"/>
-      <c r="B48" s="170"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="174"/>
       <c r="C48" s="60" t="s">
         <v>408</v>
       </c>
@@ -10079,8 +10051,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="183"/>
-      <c r="B49" s="170"/>
+      <c r="A49" s="196"/>
+      <c r="B49" s="174"/>
       <c r="C49" s="60" t="s">
         <v>257</v>
       </c>
@@ -10124,8 +10096,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="184"/>
-      <c r="B50" s="171"/>
+      <c r="A50" s="197"/>
+      <c r="B50" s="179"/>
       <c r="C50" s="65" t="s">
         <v>531</v>
       </c>
@@ -10169,10 +10141,10 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="186" t="s">
+      <c r="A51" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="177" t="s">
+      <c r="B51" s="166" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -10219,8 +10191,8 @@
       <c r="T51" s="33"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="187"/>
-      <c r="B52" s="175"/>
+      <c r="A52" s="169"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="60" t="s">
         <v>66</v>
       </c>
@@ -10266,8 +10238,8 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="187"/>
-      <c r="B53" s="175"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="167"/>
       <c r="C53" s="60" t="s">
         <v>67</v>
       </c>
@@ -10313,8 +10285,8 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="187"/>
-      <c r="B54" s="175"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="167"/>
       <c r="C54" s="61" t="s">
         <v>68</v>
       </c>
@@ -10360,8 +10332,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="187"/>
-      <c r="B55" s="175"/>
+      <c r="A55" s="169"/>
+      <c r="B55" s="167"/>
       <c r="C55" s="65" t="s">
         <v>604</v>
       </c>
@@ -10405,8 +10377,8 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="187"/>
-      <c r="B56" s="180" t="s">
+      <c r="A56" s="169"/>
+      <c r="B56" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -10452,8 +10424,8 @@
       <c r="S56" s="57"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="187"/>
-      <c r="B57" s="170"/>
+      <c r="A57" s="169"/>
+      <c r="B57" s="174"/>
       <c r="C57" s="60" t="s">
         <v>209</v>
       </c>
@@ -10499,8 +10471,8 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="187"/>
-      <c r="B58" s="170"/>
+      <c r="A58" s="169"/>
+      <c r="B58" s="174"/>
       <c r="C58" s="60" t="s">
         <v>202</v>
       </c>
@@ -10544,8 +10516,8 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="187"/>
-      <c r="B59" s="170"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="60" t="s">
         <v>197</v>
       </c>
@@ -10591,8 +10563,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="187"/>
-      <c r="B60" s="170"/>
+      <c r="A60" s="169"/>
+      <c r="B60" s="174"/>
       <c r="C60" s="60" t="s">
         <v>198</v>
       </c>
@@ -10638,8 +10610,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="187"/>
-      <c r="B61" s="170"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="174"/>
       <c r="C61" s="60" t="s">
         <v>91</v>
       </c>
@@ -10683,8 +10655,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="187"/>
-      <c r="B62" s="170"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="174"/>
       <c r="C62" s="60" t="s">
         <v>415</v>
       </c>
@@ -10728,8 +10700,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="187"/>
-      <c r="B63" s="170"/>
+      <c r="A63" s="169"/>
+      <c r="B63" s="174"/>
       <c r="C63" s="60" t="s">
         <v>199</v>
       </c>
@@ -10775,8 +10747,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="187"/>
-      <c r="B64" s="170"/>
+      <c r="A64" s="169"/>
+      <c r="B64" s="174"/>
       <c r="C64" s="60" t="s">
         <v>429</v>
       </c>
@@ -10822,8 +10794,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="187"/>
-      <c r="B65" s="170"/>
+      <c r="A65" s="169"/>
+      <c r="B65" s="174"/>
       <c r="C65" s="60" t="s">
         <v>377</v>
       </c>
@@ -10868,8 +10840,8 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="187"/>
-      <c r="B66" s="170"/>
+      <c r="A66" s="169"/>
+      <c r="B66" s="174"/>
       <c r="C66" s="60" t="s">
         <v>394</v>
       </c>
@@ -10915,8 +10887,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="187"/>
-      <c r="B67" s="170"/>
+      <c r="A67" s="169"/>
+      <c r="B67" s="174"/>
       <c r="C67" s="60" t="s">
         <v>254</v>
       </c>
@@ -10963,8 +10935,8 @@
       <c r="T67" s="23"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="187"/>
-      <c r="B68" s="170"/>
+      <c r="A68" s="169"/>
+      <c r="B68" s="174"/>
       <c r="C68" s="60" t="s">
         <v>432</v>
       </c>
@@ -11008,8 +10980,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="187"/>
-      <c r="B69" s="170"/>
+      <c r="A69" s="169"/>
+      <c r="B69" s="174"/>
       <c r="C69" s="61" t="s">
         <v>203</v>
       </c>
@@ -11054,10 +11026,10 @@
       <c r="T69" s="28"/>
     </row>
     <row r="70" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="195"/>
+      <c r="B70" s="180"/>
       <c r="C70" s="62" t="s">
         <v>79</v>
       </c>
@@ -11104,8 +11076,8 @@
       <c r="T70" s="33"/>
     </row>
     <row r="71" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="197"/>
-      <c r="B71" s="175"/>
+      <c r="A71" s="182"/>
+      <c r="B71" s="167"/>
       <c r="C71" s="60" t="s">
         <v>80</v>
       </c>
@@ -11151,8 +11123,8 @@
       <c r="S71" s="26"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="197"/>
-      <c r="B72" s="175"/>
+      <c r="A72" s="182"/>
+      <c r="B72" s="167"/>
       <c r="C72" s="60" t="s">
         <v>81</v>
       </c>
@@ -11200,8 +11172,8 @@
       <c r="S72" s="26"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="197"/>
-      <c r="B73" s="175"/>
+      <c r="A73" s="182"/>
+      <c r="B73" s="167"/>
       <c r="C73" s="60" t="s">
         <v>82</v>
       </c>
@@ -11247,8 +11219,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="197"/>
-      <c r="B74" s="175"/>
+      <c r="A74" s="182"/>
+      <c r="B74" s="167"/>
       <c r="C74" s="60" t="s">
         <v>83</v>
       </c>
@@ -11296,8 +11268,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="197"/>
-      <c r="B75" s="175"/>
+      <c r="A75" s="182"/>
+      <c r="B75" s="167"/>
       <c r="C75" s="60" t="s">
         <v>84</v>
       </c>
@@ -11343,8 +11315,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="197"/>
-      <c r="B76" s="175"/>
+      <c r="A76" s="182"/>
+      <c r="B76" s="167"/>
       <c r="C76" s="60" t="s">
         <v>85</v>
       </c>
@@ -11388,8 +11360,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="197"/>
-      <c r="B77" s="175"/>
+      <c r="A77" s="182"/>
+      <c r="B77" s="167"/>
       <c r="C77" s="60" t="s">
         <v>86</v>
       </c>
@@ -11435,8 +11407,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="197"/>
-      <c r="B78" s="175"/>
+      <c r="A78" s="182"/>
+      <c r="B78" s="167"/>
       <c r="C78" s="60" t="s">
         <v>87</v>
       </c>
@@ -11484,8 +11456,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="197"/>
-      <c r="B79" s="175"/>
+      <c r="A79" s="182"/>
+      <c r="B79" s="167"/>
       <c r="C79" s="60" t="s">
         <v>225</v>
       </c>
@@ -11531,8 +11503,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="197"/>
-      <c r="B80" s="194"/>
+      <c r="A80" s="182"/>
+      <c r="B80" s="178"/>
       <c r="C80" s="61" t="s">
         <v>90</v>
       </c>
@@ -11578,8 +11550,8 @@
       <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="197"/>
-      <c r="B81" s="170" t="s">
+      <c r="A81" s="182"/>
+      <c r="B81" s="174" t="s">
         <v>193</v>
       </c>
       <c r="C81" s="63" t="s">
@@ -11623,8 +11595,8 @@
       <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="197"/>
-      <c r="B82" s="170"/>
+      <c r="A82" s="182"/>
+      <c r="B82" s="174"/>
       <c r="C82" s="60" t="s">
         <v>213</v>
       </c>
@@ -11670,8 +11642,8 @@
       <c r="S82" s="26"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="197"/>
-      <c r="B83" s="170"/>
+      <c r="A83" s="182"/>
+      <c r="B83" s="174"/>
       <c r="C83" s="60" t="s">
         <v>427</v>
       </c>
@@ -11715,8 +11687,8 @@
       <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="197"/>
-      <c r="B84" s="170"/>
+      <c r="A84" s="182"/>
+      <c r="B84" s="174"/>
       <c r="C84" s="60" t="s">
         <v>295</v>
       </c>
@@ -11760,8 +11732,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="197"/>
-      <c r="B85" s="170"/>
+      <c r="A85" s="182"/>
+      <c r="B85" s="174"/>
       <c r="C85" s="60" t="s">
         <v>368</v>
       </c>
@@ -11805,8 +11777,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="197"/>
-      <c r="B86" s="170"/>
+      <c r="A86" s="182"/>
+      <c r="B86" s="174"/>
       <c r="C86" s="60" t="s">
         <v>221</v>
       </c>
@@ -11850,8 +11822,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="197"/>
-      <c r="B87" s="170"/>
+      <c r="A87" s="182"/>
+      <c r="B87" s="174"/>
       <c r="C87" s="60" t="s">
         <v>322</v>
       </c>
@@ -11897,8 +11869,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="197"/>
-      <c r="B88" s="170"/>
+      <c r="A88" s="182"/>
+      <c r="B88" s="174"/>
       <c r="C88" s="61" t="s">
         <v>249</v>
       </c>
@@ -11942,8 +11914,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="197"/>
-      <c r="B89" s="170"/>
+      <c r="A89" s="182"/>
+      <c r="B89" s="174"/>
       <c r="C89" s="60" t="s">
         <v>404</v>
       </c>
@@ -11984,8 +11956,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="197"/>
-      <c r="B90" s="170"/>
+      <c r="A90" s="182"/>
+      <c r="B90" s="174"/>
       <c r="C90" s="60" t="s">
         <v>370</v>
       </c>
@@ -12027,8 +11999,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="197"/>
-      <c r="B91" s="170"/>
+      <c r="A91" s="182"/>
+      <c r="B91" s="174"/>
       <c r="C91" s="60" t="s">
         <v>357</v>
       </c>
@@ -12074,8 +12046,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="197"/>
-      <c r="B92" s="170"/>
+      <c r="A92" s="182"/>
+      <c r="B92" s="174"/>
       <c r="C92" s="60" t="s">
         <v>353</v>
       </c>
@@ -12121,8 +12093,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="197"/>
-      <c r="B93" s="170"/>
+      <c r="A93" s="182"/>
+      <c r="B93" s="174"/>
       <c r="C93" s="60" t="s">
         <v>212</v>
       </c>
@@ -12165,8 +12137,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="197"/>
-      <c r="B94" s="170"/>
+      <c r="A94" s="182"/>
+      <c r="B94" s="174"/>
       <c r="C94" s="60" t="s">
         <v>373</v>
       </c>
@@ -12210,8 +12182,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="197"/>
-      <c r="B95" s="170"/>
+      <c r="A95" s="182"/>
+      <c r="B95" s="174"/>
       <c r="C95" s="60" t="s">
         <v>222</v>
       </c>
@@ -12255,8 +12227,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="197"/>
-      <c r="B96" s="170"/>
+      <c r="A96" s="182"/>
+      <c r="B96" s="174"/>
       <c r="C96" s="60" t="s">
         <v>247</v>
       </c>
@@ -12300,8 +12272,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="197"/>
-      <c r="B97" s="170"/>
+      <c r="A97" s="182"/>
+      <c r="B97" s="174"/>
       <c r="C97" s="60" t="s">
         <v>294</v>
       </c>
@@ -12345,8 +12317,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="197"/>
-      <c r="B98" s="170"/>
+      <c r="A98" s="182"/>
+      <c r="B98" s="174"/>
       <c r="C98" s="60" t="s">
         <v>224</v>
       </c>
@@ -12390,8 +12362,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="197"/>
-      <c r="B99" s="170"/>
+      <c r="A99" s="182"/>
+      <c r="B99" s="174"/>
       <c r="C99" s="60" t="s">
         <v>232</v>
       </c>
@@ -12430,8 +12402,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="197"/>
-      <c r="B100" s="170"/>
+      <c r="A100" s="182"/>
+      <c r="B100" s="174"/>
       <c r="C100" s="60" t="s">
         <v>223</v>
       </c>
@@ -12472,8 +12444,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="197"/>
-      <c r="B101" s="170"/>
+      <c r="A101" s="182"/>
+      <c r="B101" s="174"/>
       <c r="C101" s="65" t="s">
         <v>217</v>
       </c>
@@ -12519,8 +12491,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="197"/>
-      <c r="B102" s="170"/>
+      <c r="A102" s="182"/>
+      <c r="B102" s="174"/>
       <c r="C102" s="60" t="s">
         <v>214</v>
       </c>
@@ -12562,8 +12534,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="197"/>
-      <c r="B103" s="170"/>
+      <c r="A103" s="182"/>
+      <c r="B103" s="174"/>
       <c r="C103" s="60" t="s">
         <v>215</v>
       </c>
@@ -12607,8 +12579,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="197"/>
-      <c r="B104" s="170"/>
+      <c r="A104" s="182"/>
+      <c r="B104" s="174"/>
       <c r="C104" s="60" t="s">
         <v>359</v>
       </c>
@@ -12649,8 +12621,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="197"/>
-      <c r="B105" s="170"/>
+      <c r="A105" s="182"/>
+      <c r="B105" s="174"/>
       <c r="C105" s="60" t="s">
         <v>231</v>
       </c>
@@ -12691,8 +12663,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="197"/>
-      <c r="B106" s="170"/>
+      <c r="A106" s="182"/>
+      <c r="B106" s="174"/>
       <c r="C106" s="60" t="s">
         <v>206</v>
       </c>
@@ -12734,8 +12706,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="197"/>
-      <c r="B107" s="170"/>
+      <c r="A107" s="182"/>
+      <c r="B107" s="174"/>
       <c r="C107" s="60" t="s">
         <v>207</v>
       </c>
@@ -12777,8 +12749,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="197"/>
-      <c r="B108" s="170"/>
+      <c r="A108" s="182"/>
+      <c r="B108" s="174"/>
       <c r="C108" s="60" t="s">
         <v>502</v>
       </c>
@@ -12819,8 +12791,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="197"/>
-      <c r="B109" s="170"/>
+      <c r="A109" s="182"/>
+      <c r="B109" s="174"/>
       <c r="C109" s="60" t="s">
         <v>248</v>
       </c>
@@ -12861,8 +12833,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="197"/>
-      <c r="B110" s="170"/>
+      <c r="A110" s="182"/>
+      <c r="B110" s="174"/>
       <c r="C110" s="60" t="s">
         <v>251</v>
       </c>
@@ -12906,8 +12878,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="197"/>
-      <c r="B111" s="170"/>
+      <c r="A111" s="182"/>
+      <c r="B111" s="174"/>
       <c r="C111" s="60" t="s">
         <v>228</v>
       </c>
@@ -12953,8 +12925,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="197"/>
-      <c r="B112" s="170"/>
+      <c r="A112" s="182"/>
+      <c r="B112" s="174"/>
       <c r="C112" s="60" t="s">
         <v>229</v>
       </c>
@@ -13000,8 +12972,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="197"/>
-      <c r="B113" s="170"/>
+      <c r="A113" s="182"/>
+      <c r="B113" s="174"/>
       <c r="C113" s="65" t="s">
         <v>598</v>
       </c>
@@ -13028,8 +13000,8 @@
       <c r="T113" s="23"/>
     </row>
     <row r="114" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="197"/>
-      <c r="B114" s="170"/>
+      <c r="A114" s="182"/>
+      <c r="B114" s="174"/>
       <c r="C114" s="60" t="s">
         <v>325</v>
       </c>
@@ -13074,8 +13046,8 @@
       <c r="T114" s="23"/>
     </row>
     <row r="115" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="198"/>
-      <c r="B115" s="171"/>
+      <c r="A115" s="183"/>
+      <c r="B115" s="179"/>
       <c r="C115" s="61" t="s">
         <v>318</v>
       </c>
@@ -13128,10 +13100,10 @@
       <c r="T115" s="28"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="191" t="s">
+      <c r="A116" s="175" t="s">
         <v>500</v>
       </c>
-      <c r="B116" s="177" t="s">
+      <c r="B116" s="166" t="s">
         <v>51</v>
       </c>
       <c r="C116" s="62" t="s">
@@ -13176,8 +13148,8 @@
       <c r="T116" s="33"/>
     </row>
     <row r="117" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="192"/>
-      <c r="B117" s="175"/>
+      <c r="A117" s="176"/>
+      <c r="B117" s="167"/>
       <c r="C117" s="60" t="s">
         <v>92</v>
       </c>
@@ -13223,8 +13195,8 @@
       <c r="S117" s="26"/>
     </row>
     <row r="118" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="192"/>
-      <c r="B118" s="175"/>
+      <c r="A118" s="176"/>
+      <c r="B118" s="167"/>
       <c r="C118" s="60" t="s">
         <v>93</v>
       </c>
@@ -13270,8 +13242,8 @@
       <c r="S118" s="26"/>
     </row>
     <row r="119" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="192"/>
-      <c r="B119" s="175"/>
+      <c r="A119" s="176"/>
+      <c r="B119" s="167"/>
       <c r="C119" s="60" t="s">
         <v>104</v>
       </c>
@@ -13313,8 +13285,8 @@
       <c r="S119" s="26"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="192"/>
-      <c r="B120" s="175"/>
+      <c r="A120" s="176"/>
+      <c r="B120" s="167"/>
       <c r="C120" s="61" t="s">
         <v>94</v>
       </c>
@@ -13357,8 +13329,8 @@
       <c r="T120" s="28"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="192"/>
-      <c r="B121" s="175"/>
+      <c r="A121" s="176"/>
+      <c r="B121" s="167"/>
       <c r="C121" s="60" t="s">
         <v>179</v>
       </c>
@@ -13401,8 +13373,8 @@
       <c r="T121" s="28"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="192"/>
-      <c r="B122" s="175"/>
+      <c r="A122" s="176"/>
+      <c r="B122" s="167"/>
       <c r="C122" s="61" t="s">
         <v>116</v>
       </c>
@@ -13445,8 +13417,8 @@
       <c r="T122" s="28"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="192"/>
-      <c r="B123" s="175"/>
+      <c r="A123" s="176"/>
+      <c r="B123" s="167"/>
       <c r="C123" s="60" t="s">
         <v>96</v>
       </c>
@@ -13490,8 +13462,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="192"/>
-      <c r="B124" s="175"/>
+      <c r="A124" s="176"/>
+      <c r="B124" s="167"/>
       <c r="C124" s="60" t="s">
         <v>501</v>
       </c>
@@ -13535,8 +13507,8 @@
       <c r="S124" s="26"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="192"/>
-      <c r="B125" s="194"/>
+      <c r="A125" s="176"/>
+      <c r="B125" s="178"/>
       <c r="C125" s="60" t="s">
         <v>176</v>
       </c>
@@ -13578,8 +13550,8 @@
       <c r="S125" s="26"/>
     </row>
     <row r="126" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="192"/>
-      <c r="B126" s="180" t="s">
+      <c r="A126" s="176"/>
+      <c r="B126" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C126" s="63" t="s">
@@ -13624,8 +13596,8 @@
       <c r="T126" s="23"/>
     </row>
     <row r="127" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="192"/>
-      <c r="B127" s="170"/>
+      <c r="A127" s="176"/>
+      <c r="B127" s="174"/>
       <c r="C127" s="60" t="s">
         <v>448</v>
       </c>
@@ -13666,8 +13638,8 @@
       <c r="T127" s="23"/>
     </row>
     <row r="128" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="192"/>
-      <c r="B128" s="170"/>
+      <c r="A128" s="176"/>
+      <c r="B128" s="174"/>
       <c r="C128" s="60" t="s">
         <v>451</v>
       </c>
@@ -13708,8 +13680,8 @@
       <c r="T128" s="23"/>
     </row>
     <row r="129" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="192"/>
-      <c r="B129" s="170"/>
+      <c r="A129" s="176"/>
+      <c r="B129" s="174"/>
       <c r="C129" s="61" t="s">
         <v>425</v>
       </c>
@@ -13752,8 +13724,8 @@
       <c r="T129" s="23"/>
     </row>
     <row r="130" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="192"/>
-      <c r="B130" s="170"/>
+      <c r="A130" s="176"/>
+      <c r="B130" s="174"/>
       <c r="C130" s="60" t="s">
         <v>230</v>
       </c>
@@ -13794,8 +13766,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="192"/>
-      <c r="B131" s="170"/>
+      <c r="A131" s="176"/>
+      <c r="B131" s="174"/>
       <c r="C131" s="60" t="s">
         <v>208</v>
       </c>
@@ -13836,8 +13808,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="193"/>
-      <c r="B132" s="170"/>
+      <c r="A132" s="177"/>
+      <c r="B132" s="174"/>
       <c r="C132" s="65" t="s">
         <v>624</v>
       </c>
@@ -13860,10 +13832,10 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="188" t="s">
+      <c r="A133" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="177" t="s">
+      <c r="B133" s="166" t="s">
         <v>51</v>
       </c>
       <c r="C133" s="62" t="s">
@@ -13906,8 +13878,8 @@
       <c r="T133" s="33"/>
     </row>
     <row r="134" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="189"/>
-      <c r="B134" s="175"/>
+      <c r="A134" s="171"/>
+      <c r="B134" s="167"/>
       <c r="C134" s="61" t="s">
         <v>95</v>
       </c>
@@ -13947,8 +13919,8 @@
       <c r="S134" s="31"/>
     </row>
     <row r="135" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="189"/>
-      <c r="B135" s="175"/>
+      <c r="A135" s="171"/>
+      <c r="B135" s="167"/>
       <c r="C135" s="65" t="s">
         <v>602</v>
       </c>
@@ -13991,8 +13963,8 @@
       <c r="T135" s="19"/>
     </row>
     <row r="136" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="189"/>
-      <c r="B136" s="175"/>
+      <c r="A136" s="171"/>
+      <c r="B136" s="167"/>
       <c r="C136" s="60" t="s">
         <v>115</v>
       </c>
@@ -14034,8 +14006,8 @@
       <c r="T136" s="19"/>
     </row>
     <row r="137" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="189"/>
-      <c r="B137" s="175"/>
+      <c r="A137" s="171"/>
+      <c r="B137" s="167"/>
       <c r="C137" s="60" t="s">
         <v>114</v>
       </c>
@@ -14077,8 +14049,8 @@
       <c r="T137" s="19"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="189"/>
-      <c r="B138" s="180" t="s">
+      <c r="A138" s="171"/>
+      <c r="B138" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C138" s="63" t="s">
@@ -14120,8 +14092,8 @@
       <c r="S138" s="57"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="189"/>
-      <c r="B139" s="170"/>
+      <c r="A139" s="171"/>
+      <c r="B139" s="174"/>
       <c r="C139" s="60" t="s">
         <v>399</v>
       </c>
@@ -14160,8 +14132,8 @@
       <c r="S139" s="26"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="189"/>
-      <c r="B140" s="170"/>
+      <c r="A140" s="171"/>
+      <c r="B140" s="174"/>
       <c r="C140" s="60" t="s">
         <v>255</v>
       </c>
@@ -14201,8 +14173,8 @@
       <c r="S140" s="26"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="189"/>
-      <c r="B141" s="170"/>
+      <c r="A141" s="171"/>
+      <c r="B141" s="174"/>
       <c r="C141" s="65" t="s">
         <v>618</v>
       </c>
@@ -14236,8 +14208,8 @@
       <c r="S141" s="26"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="189"/>
-      <c r="B142" s="170"/>
+      <c r="A142" s="171"/>
+      <c r="B142" s="174"/>
       <c r="C142" s="60" t="s">
         <v>422</v>
       </c>
@@ -14277,8 +14249,8 @@
       <c r="S142" s="26"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="189"/>
-      <c r="B143" s="170"/>
+      <c r="A143" s="171"/>
+      <c r="B143" s="174"/>
       <c r="C143" s="60" t="s">
         <v>380</v>
       </c>
@@ -14318,8 +14290,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="189"/>
-      <c r="B144" s="170"/>
+      <c r="A144" s="171"/>
+      <c r="B144" s="174"/>
       <c r="C144" s="60" t="s">
         <v>439</v>
       </c>
@@ -14359,8 +14331,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="189"/>
-      <c r="B145" s="170"/>
+      <c r="A145" s="171"/>
+      <c r="B145" s="174"/>
       <c r="C145" s="60" t="s">
         <v>358</v>
       </c>
@@ -14400,8 +14372,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="189"/>
-      <c r="B146" s="170"/>
+      <c r="A146" s="171"/>
+      <c r="B146" s="174"/>
       <c r="C146" s="60" t="s">
         <v>226</v>
       </c>
@@ -14441,8 +14413,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="189"/>
-      <c r="B147" s="170"/>
+      <c r="A147" s="171"/>
+      <c r="B147" s="174"/>
       <c r="C147" s="60" t="s">
         <v>421</v>
       </c>
@@ -14482,8 +14454,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="189"/>
-      <c r="B148" s="170"/>
+      <c r="A148" s="171"/>
+      <c r="B148" s="174"/>
       <c r="C148" s="60" t="s">
         <v>396</v>
       </c>
@@ -14523,8 +14495,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="189"/>
-      <c r="B149" s="170"/>
+      <c r="A149" s="171"/>
+      <c r="B149" s="174"/>
       <c r="C149" s="60" t="s">
         <v>433</v>
       </c>
@@ -14564,8 +14536,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="189"/>
-      <c r="B150" s="170"/>
+      <c r="A150" s="171"/>
+      <c r="B150" s="174"/>
       <c r="C150" s="60" t="s">
         <v>406</v>
       </c>
@@ -14605,8 +14577,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="189"/>
-      <c r="B151" s="170"/>
+      <c r="A151" s="171"/>
+      <c r="B151" s="174"/>
       <c r="C151" s="65" t="s">
         <v>521</v>
       </c>
@@ -14646,8 +14618,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="189"/>
-      <c r="B152" s="170"/>
+      <c r="A152" s="171"/>
+      <c r="B152" s="174"/>
       <c r="C152" s="65" t="s">
         <v>256</v>
       </c>
@@ -14687,8 +14659,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="189"/>
-      <c r="B153" s="170"/>
+      <c r="A153" s="171"/>
+      <c r="B153" s="174"/>
       <c r="C153" s="65" t="s">
         <v>446</v>
       </c>
@@ -14728,8 +14700,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="189"/>
-      <c r="B154" s="170"/>
+      <c r="A154" s="171"/>
+      <c r="B154" s="174"/>
       <c r="C154" s="65" t="s">
         <v>435</v>
       </c>
@@ -14769,8 +14741,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="189"/>
-      <c r="B155" s="170"/>
+      <c r="A155" s="171"/>
+      <c r="B155" s="174"/>
       <c r="C155" s="65" t="s">
         <v>319</v>
       </c>
@@ -14812,8 +14784,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="189"/>
-      <c r="B156" s="170"/>
+      <c r="A156" s="171"/>
+      <c r="B156" s="174"/>
       <c r="C156" s="65" t="s">
         <v>366</v>
       </c>
@@ -14853,8 +14825,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="190"/>
-      <c r="B157" s="170"/>
+      <c r="A157" s="172"/>
+      <c r="B157" s="174"/>
       <c r="C157" s="65" t="s">
         <v>211</v>
       </c>
@@ -14894,10 +14866,10 @@
       <c r="S157" s="31"/>
     </row>
     <row r="158" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="178" t="s">
+      <c r="A158" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="B158" s="169" t="s">
+      <c r="B158" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C158" s="62" t="s">
@@ -14941,8 +14913,8 @@
       <c r="S158" s="36"/>
     </row>
     <row r="159" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="178"/>
-      <c r="B159" s="170"/>
+      <c r="A159" s="192"/>
+      <c r="B159" s="174"/>
       <c r="C159" s="60" t="s">
         <v>362</v>
       </c>
@@ -14984,8 +14956,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="178"/>
-      <c r="B160" s="170"/>
+      <c r="A160" s="192"/>
+      <c r="B160" s="174"/>
       <c r="C160" s="60" t="s">
         <v>381</v>
       </c>
@@ -15027,8 +14999,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="178"/>
-      <c r="B161" s="170"/>
+      <c r="A161" s="192"/>
+      <c r="B161" s="174"/>
       <c r="C161" s="60" t="s">
         <v>392</v>
       </c>
@@ -15070,8 +15042,8 @@
       <c r="S161" s="26"/>
     </row>
     <row r="162" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="178"/>
-      <c r="B162" s="170"/>
+      <c r="A162" s="192"/>
+      <c r="B162" s="174"/>
       <c r="C162" s="60" t="s">
         <v>250</v>
       </c>
@@ -15111,8 +15083,8 @@
       <c r="S162" s="26"/>
     </row>
     <row r="163" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="178"/>
-      <c r="B163" s="170"/>
+      <c r="A163" s="192"/>
+      <c r="B163" s="174"/>
       <c r="C163" s="61" t="s">
         <v>401</v>
       </c>
@@ -15154,8 +15126,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="178"/>
-      <c r="B164" s="170"/>
+      <c r="A164" s="192"/>
+      <c r="B164" s="174"/>
       <c r="C164" s="60" t="s">
         <v>372</v>
       </c>
@@ -15195,8 +15167,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="178"/>
-      <c r="B165" s="171"/>
+      <c r="A165" s="192"/>
+      <c r="B165" s="179"/>
       <c r="C165" s="60" t="s">
         <v>402</v>
       </c>
@@ -15236,7 +15208,7 @@
       <c r="S165" s="31"/>
     </row>
     <row r="166" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="179" t="s">
+      <c r="A166" s="193" t="s">
         <v>535</v>
       </c>
       <c r="B166" s="72" t="s">
@@ -15279,8 +15251,8 @@
       <c r="S166" s="71"/>
     </row>
     <row r="167" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="179"/>
-      <c r="B167" s="180" t="s">
+      <c r="A167" s="193"/>
+      <c r="B167" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C167" s="60" t="s">
@@ -15318,8 +15290,8 @@
       <c r="S167" s="57"/>
     </row>
     <row r="168" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="179"/>
-      <c r="B168" s="170"/>
+      <c r="A168" s="193"/>
+      <c r="B168" s="174"/>
       <c r="C168" s="60" t="s">
         <v>195</v>
       </c>
@@ -15354,8 +15326,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="179"/>
-      <c r="B169" s="170"/>
+      <c r="A169" s="193"/>
+      <c r="B169" s="174"/>
       <c r="C169" s="60" t="s">
         <v>259</v>
       </c>
@@ -15393,8 +15365,8 @@
       <c r="S169" s="26"/>
     </row>
     <row r="170" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="179"/>
-      <c r="B170" s="170"/>
+      <c r="A170" s="193"/>
+      <c r="B170" s="174"/>
       <c r="C170" s="60" t="s">
         <v>417</v>
       </c>
@@ -15431,8 +15403,8 @@
       <c r="S170" s="26"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="179"/>
-      <c r="B171" s="181"/>
+      <c r="A171" s="193"/>
+      <c r="B171" s="194"/>
       <c r="C171" s="60" t="s">
         <v>418</v>
       </c>
@@ -15470,10 +15442,10 @@
       <c r="S171" s="26"/>
     </row>
     <row r="172" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="168" t="s">
+      <c r="A172" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="B172" s="174" t="s">
+      <c r="B172" s="190" t="s">
         <v>51</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -15513,8 +15485,8 @@
       <c r="S172" s="36"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="168"/>
-      <c r="B173" s="175"/>
+      <c r="A173" s="186"/>
+      <c r="B173" s="167"/>
       <c r="C173" s="60" t="s">
         <v>184</v>
       </c>
@@ -15552,8 +15524,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="168"/>
-      <c r="B174" s="175"/>
+      <c r="A174" s="186"/>
+      <c r="B174" s="167"/>
       <c r="C174" s="60" t="s">
         <v>183</v>
       </c>
@@ -15591,8 +15563,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="168"/>
-      <c r="B175" s="175"/>
+      <c r="A175" s="186"/>
+      <c r="B175" s="167"/>
       <c r="C175" s="61" t="s">
         <v>185</v>
       </c>
@@ -15630,8 +15602,8 @@
       <c r="S175" s="31"/>
     </row>
     <row r="176" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="168"/>
-      <c r="B176" s="166" t="s">
+      <c r="A176" s="186"/>
+      <c r="B176" s="184" t="s">
         <v>193</v>
       </c>
       <c r="C176" s="63" t="s">
@@ -15665,8 +15637,8 @@
       <c r="S176" s="57"/>
     </row>
     <row r="177" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="168"/>
-      <c r="B177" s="167"/>
+      <c r="A177" s="186"/>
+      <c r="B177" s="185"/>
       <c r="C177" s="64"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
@@ -16395,18 +16367,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="A133:A157"/>
-    <mergeCell ref="B138:B157"/>
-    <mergeCell ref="A116:A132"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B81:B115"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="A70:A115"/>
-    <mergeCell ref="B133:B137"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="A172:A177"/>
     <mergeCell ref="B158:B165"/>
@@ -16422,6 +16382,18 @@
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="A37:A50"/>
     <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="A133:A157"/>
+    <mergeCell ref="B138:B157"/>
+    <mergeCell ref="A116:A132"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B81:B115"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="A70:A115"/>
+    <mergeCell ref="B133:B137"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBB29C1-448D-44A3-9E2F-43F4F331166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C90447-4F4A-48A8-A10B-4C06CB926B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="690">
   <si>
     <t>Community Frameworks</t>
   </si>
@@ -2707,6 +2707,36 @@
   </si>
   <si>
     <t>View Inventory Animation</t>
+  </si>
+  <si>
+    <t>Kommentar Ali</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>Keep (aber wurde seit 3 Jahren nicht geupdated)</t>
+  </si>
+  <si>
+    <t>Drop (sehe keinen Mehrwert)</t>
+  </si>
+  <si>
+    <t>Maybe keep</t>
+  </si>
+  <si>
+    <t>Benötigt?</t>
+  </si>
+  <si>
+    <t>Meinetwegen :D</t>
+  </si>
+  <si>
+    <t>Keep (aber dann auch einarbeiten, nicht nur beim Trader)</t>
+  </si>
+  <si>
+    <t>Notwendig?</t>
+  </si>
+  <si>
+    <t>Inaktiv?</t>
   </si>
 </sst>
 </file>
@@ -2988,7 +3018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3583,6 +3613,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3590,7 +3629,7 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3958,14 +3997,83 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="36" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3982,12 +4090,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3998,9 +4100,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4015,65 +4114,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="36" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4569,9 +4617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4609,7 +4657,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4715,7 +4763,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4857,7 +4905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4867,9 +4915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B301-FC9E-4F7D-A454-62A8C1115EDF}">
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,6 +4931,8 @@
     <col min="7" max="7" width="39.28515625" style="90" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="88" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" style="206" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4922,9 +4972,12 @@
       <c r="N1" s="102" t="s">
         <v>56</v>
       </c>
+      <c r="O1" s="204" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="170" t="s">
         <v>669</v>
       </c>
       <c r="C2" s="159">
@@ -4941,27 +4994,30 @@
       <c r="H2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="198" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="198" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="198" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="198" t="s">
-        <v>33</v>
+      <c r="I2" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
+      <c r="A3" s="170"/>
       <c r="C3" s="160">
         <v>1564026768</v>
       </c>
@@ -4976,27 +5032,30 @@
       <c r="H3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="200" t="s">
-        <v>33</v>
+      <c r="I3" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="170" t="s">
         <v>670</v>
       </c>
       <c r="C4" s="161">
@@ -5013,27 +5072,30 @@
       <c r="H4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="200" t="s">
-        <v>33</v>
+      <c r="I4" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
+      <c r="A5" s="170"/>
       <c r="C5" s="161">
         <v>2614334381</v>
       </c>
@@ -5048,27 +5110,30 @@
       <c r="H5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="200" t="s">
-        <v>33</v>
+      <c r="I5" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="202"/>
+      <c r="A6" s="170"/>
       <c r="C6" s="161">
         <v>2507204412</v>
       </c>
@@ -5083,27 +5148,30 @@
       <c r="H6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="200" t="s">
-        <v>33</v>
+      <c r="I6" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
+      <c r="A7" s="170" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="160">
@@ -5120,27 +5188,30 @@
       <c r="H7" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="200" t="s">
-        <v>33</v>
+      <c r="I7" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="202"/>
+      <c r="A8" s="170"/>
       <c r="C8" s="160">
         <v>2572331007</v>
       </c>
@@ -5175,9 +5246,12 @@
       <c r="N8" s="38" t="s">
         <v>8</v>
       </c>
+      <c r="O8" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="202"/>
+      <c r="A9" s="170"/>
       <c r="C9" s="161">
         <v>2116157322</v>
       </c>
@@ -5192,29 +5266,32 @@
       <c r="H9" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="200" t="s">
-        <v>33</v>
+      <c r="I9" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="205" t="s">
+        <v>681</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="202"/>
+      <c r="A10" s="170"/>
       <c r="C10" s="161">
         <v>2793893086</v>
       </c>
@@ -5229,29 +5306,32 @@
       <c r="H10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="200" t="s">
-        <v>33</v>
+      <c r="I10" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="205" t="s">
+        <v>681</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="170" t="s">
         <v>671</v>
       </c>
       <c r="C11" s="161">
@@ -5270,27 +5350,30 @@
       <c r="H11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="200" t="s">
-        <v>33</v>
+      <c r="I11" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="202"/>
+      <c r="A12" s="170"/>
       <c r="C12" s="161">
         <v>3031784065</v>
       </c>
@@ -5307,27 +5390,30 @@
       <c r="H12" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="200" t="s">
-        <v>33</v>
+      <c r="I12" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="202"/>
+      <c r="A13" s="170"/>
       <c r="C13" s="161">
         <v>2977703357</v>
       </c>
@@ -5342,27 +5428,30 @@
       <c r="H13" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="200" t="s">
-        <v>33</v>
+      <c r="I13" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="205" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="202"/>
+      <c r="A14" s="170"/>
       <c r="C14" s="161">
         <v>2980235854</v>
       </c>
@@ -5377,27 +5466,30 @@
       <c r="H14" s="87" t="s">
         <v>614</v>
       </c>
-      <c r="I14" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="200" t="s">
-        <v>33</v>
+      <c r="I14" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="205" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="202"/>
+      <c r="A15" s="170"/>
       <c r="C15" s="161">
         <v>2111523728</v>
       </c>
@@ -5432,9 +5524,12 @@
       <c r="N15" s="38" t="s">
         <v>33</v>
       </c>
+      <c r="O15" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="170" t="s">
         <v>675</v>
       </c>
       <c r="C16" s="161">
@@ -5471,9 +5566,12 @@
       <c r="N16" s="38" t="s">
         <v>33</v>
       </c>
+      <c r="O16" s="205" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="202"/>
+      <c r="A17" s="170"/>
       <c r="C17" s="161">
         <v>2822531337</v>
       </c>
@@ -5506,9 +5604,12 @@
       <c r="N17" s="91" t="s">
         <v>8</v>
       </c>
+      <c r="O17" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="170" t="s">
         <v>672</v>
       </c>
       <c r="C18" s="160">
@@ -5527,29 +5628,32 @@
       <c r="H18" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="200" t="s">
+      <c r="I18" s="167" t="s">
         <v>33</v>
       </c>
       <c r="J18" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="200" t="s">
-        <v>33</v>
+      <c r="K18" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="205" t="s">
+        <v>681</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="202"/>
+      <c r="A19" s="170"/>
       <c r="C19" s="160">
         <v>2166325582</v>
       </c>
@@ -5564,27 +5668,30 @@
       <c r="H19" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="200" t="s">
+      <c r="I19" s="167" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="200" t="s">
-        <v>33</v>
+      <c r="K19" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="202"/>
+      <c r="A20" s="170"/>
       <c r="C20" s="160">
         <v>2208230845</v>
       </c>
@@ -5601,32 +5708,35 @@
       <c r="H20" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="200" t="s">
+      <c r="I20" s="167" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="200" t="s">
-        <v>33</v>
+      <c r="K20" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="205" t="s">
+        <v>684</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="202" t="s">
+      <c r="A21" s="170" t="s">
         <v>673</v>
       </c>
-      <c r="B21" s="203"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="160">
         <v>1870481515</v>
       </c>
@@ -5657,10 +5767,13 @@
         <v>8</v>
       </c>
       <c r="N21" s="5"/>
+      <c r="O21" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="202"/>
-      <c r="B22" s="203"/>
+      <c r="A22" s="170"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="160">
         <v>2789302074</v>
       </c>
@@ -5691,10 +5804,13 @@
         <v>8</v>
       </c>
       <c r="N22" s="5"/>
+      <c r="O22" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="202"/>
-      <c r="B23" s="203"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="161">
         <v>1991570984</v>
       </c>
@@ -5721,10 +5837,13 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
+      <c r="O23" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="202"/>
-      <c r="B24" s="203"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="161">
         <v>3171576913</v>
       </c>
@@ -5757,10 +5876,13 @@
       <c r="N24" s="38" t="s">
         <v>33</v>
       </c>
+      <c r="O24" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="202"/>
-      <c r="B25" s="203"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="160" t="s">
         <v>597</v>
       </c>
@@ -5791,10 +5913,13 @@
         <v>8</v>
       </c>
       <c r="N25" s="5"/>
+      <c r="O25" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="202"/>
-      <c r="B26" s="203"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="160">
         <v>2931560672</v>
       </c>
@@ -5825,10 +5950,13 @@
         <v>8</v>
       </c>
       <c r="N26" s="5"/>
+      <c r="O26" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="202"/>
-      <c r="B27" s="203"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="161">
         <v>3108865421</v>
       </c>
@@ -5859,10 +5987,13 @@
       </c>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
+      <c r="O27" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="202"/>
-      <c r="B28" s="203"/>
+      <c r="A28" s="170"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="160">
         <v>1630943713</v>
       </c>
@@ -5895,10 +6026,13 @@
         <v>8</v>
       </c>
       <c r="N28" s="5"/>
+      <c r="O28" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="202"/>
-      <c r="B29" s="203"/>
+      <c r="A29" s="170"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="161">
         <v>1797720064</v>
       </c>
@@ -5931,10 +6065,13 @@
         <v>8</v>
       </c>
       <c r="N29" s="5"/>
+      <c r="O29" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="202"/>
-      <c r="B30" s="203"/>
+      <c r="A30" s="170"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="160">
         <v>2155726353</v>
       </c>
@@ -5965,10 +6102,13 @@
         <v>8</v>
       </c>
       <c r="N30" s="5"/>
+      <c r="O30" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="202"/>
-      <c r="B31" s="203"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="161">
         <v>2723807644</v>
       </c>
@@ -5999,10 +6139,13 @@
         <v>8</v>
       </c>
       <c r="N31" s="5"/>
+      <c r="O31" s="205" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="202"/>
-      <c r="B32" s="203"/>
+      <c r="A32" s="170"/>
+      <c r="B32" s="169"/>
       <c r="C32" s="161">
         <v>2780914191</v>
       </c>
@@ -6033,10 +6176,13 @@
         <v>8</v>
       </c>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="202"/>
-      <c r="B33" s="203"/>
+      <c r="O32" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="170"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="161">
         <v>2741271183</v>
       </c>
@@ -6067,10 +6213,13 @@
         <v>8</v>
       </c>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="202"/>
-      <c r="B34" s="203"/>
+      <c r="O33" s="205" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="170"/>
+      <c r="B34" s="169"/>
       <c r="C34" s="161">
         <v>2579252958</v>
       </c>
@@ -6103,10 +6252,13 @@
       <c r="N34" s="38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="202"/>
-      <c r="B35" s="203"/>
+      <c r="O34" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="170"/>
+      <c r="B35" s="169"/>
       <c r="C35" s="161">
         <v>3034460305</v>
       </c>
@@ -6139,10 +6291,13 @@
       <c r="N35" s="38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="202"/>
-      <c r="B36" s="203"/>
+      <c r="O35" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="170"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="161">
         <v>2851058261</v>
       </c>
@@ -6175,10 +6330,13 @@
       <c r="N36" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="202"/>
-      <c r="B37" s="203"/>
+      <c r="O36" s="205" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="170"/>
+      <c r="B37" s="169"/>
       <c r="C37" s="161">
         <v>2926289548</v>
       </c>
@@ -6209,10 +6367,13 @@
         <v>33</v>
       </c>
       <c r="N37" s="38"/>
-    </row>
-    <row r="38" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="202"/>
-      <c r="B38" s="203"/>
+      <c r="O37" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="170"/>
+      <c r="B38" s="169"/>
       <c r="C38" s="161">
         <v>3170285574</v>
       </c>
@@ -6245,10 +6406,13 @@
         <v>33</v>
       </c>
       <c r="N38" s="38"/>
-    </row>
-    <row r="39" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="202"/>
-      <c r="B39" s="203"/>
+      <c r="O38" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="170"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="161">
         <v>3279662973</v>
       </c>
@@ -6281,10 +6445,13 @@
         <v>8</v>
       </c>
       <c r="N39" s="38"/>
-    </row>
-    <row r="40" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="202"/>
-      <c r="B40" s="203"/>
+      <c r="O39" s="205" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="170"/>
+      <c r="B40" s="169"/>
       <c r="C40" s="160">
         <v>2937138060</v>
       </c>
@@ -6317,9 +6484,12 @@
         <v>8</v>
       </c>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="202" t="s">
+      <c r="O40" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="170" t="s">
         <v>676</v>
       </c>
       <c r="C41" s="161">
@@ -6356,9 +6526,12 @@
       <c r="N41" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="202"/>
+      <c r="O41" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="170"/>
       <c r="C42" s="161">
         <v>3114410963</v>
       </c>
@@ -6389,9 +6562,12 @@
         <v>33</v>
       </c>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="202"/>
+      <c r="O42" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="170"/>
       <c r="C43" s="160">
         <v>1866298408</v>
       </c>
@@ -6406,27 +6582,30 @@
       <c r="H43" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N43" s="200" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="202"/>
+      <c r="I43" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="170"/>
       <c r="C44" s="161">
         <v>2874589934</v>
       </c>
@@ -6459,9 +6638,12 @@
       <c r="N44" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="202" t="s">
+      <c r="O44" s="205" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="170" t="s">
         <v>677</v>
       </c>
       <c r="C45" s="161">
@@ -6484,9 +6666,12 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-    </row>
-    <row r="46" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="202"/>
+      <c r="O45" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="170"/>
       <c r="C46" s="161">
         <v>1710977250</v>
       </c>
@@ -6509,9 +6694,12 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-    </row>
-    <row r="47" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="202"/>
+      <c r="O46" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="170"/>
       <c r="C47" s="161">
         <v>2895049000</v>
       </c>
@@ -6534,9 +6722,12 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-    </row>
-    <row r="48" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="202" t="s">
+      <c r="O47" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="170" t="s">
         <v>678</v>
       </c>
       <c r="C48" s="161">
@@ -6571,9 +6762,12 @@
       <c r="N48" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="202"/>
+      <c r="O48" s="205" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="170"/>
       <c r="C49" s="161">
         <v>2472500243</v>
       </c>
@@ -6606,9 +6800,12 @@
       <c r="N49" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="202"/>
+      <c r="O49" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="170"/>
       <c r="C50" s="161">
         <v>1832448183</v>
       </c>
@@ -6635,9 +6832,12 @@
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
-    </row>
-    <row r="51" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="202"/>
+      <c r="O50" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="170"/>
       <c r="C51" s="161">
         <v>1895432270</v>
       </c>
@@ -6668,9 +6868,12 @@
       <c r="N51" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="202"/>
+      <c r="O51" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="170"/>
       <c r="C52" s="161">
         <v>2912241382</v>
       </c>
@@ -6701,9 +6904,12 @@
       <c r="N52" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="202" t="s">
+      <c r="O52" s="205" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="170" t="s">
         <v>668</v>
       </c>
       <c r="C53" s="161">
@@ -6738,9 +6944,12 @@
       <c r="N53" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="202"/>
+      <c r="O53" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="170"/>
       <c r="C54" s="161">
         <v>3043440124</v>
       </c>
@@ -6773,9 +6982,12 @@
       <c r="N54" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="202"/>
+      <c r="O54" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="170"/>
       <c r="C55" s="160">
         <v>2550932214</v>
       </c>
@@ -6790,27 +7002,30 @@
       <c r="H55" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J55" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="L55" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M55" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N55" s="200" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="202"/>
+      <c r="I55" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="170"/>
       <c r="C56" s="161">
         <v>3321340470</v>
       </c>
@@ -6845,9 +7060,12 @@
       <c r="N56" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="202" t="s">
+      <c r="O56" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="170" t="s">
         <v>674</v>
       </c>
       <c r="C57" s="160">
@@ -6882,9 +7100,12 @@
       <c r="N57" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="202"/>
+      <c r="O57" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="170"/>
       <c r="C58" s="160">
         <v>2793619401</v>
       </c>
@@ -6919,9 +7140,12 @@
       <c r="N58" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="202"/>
+      <c r="O58" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="170"/>
       <c r="C59" s="161">
         <v>2924719512</v>
       </c>
@@ -6954,9 +7178,12 @@
       <c r="N59" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="202"/>
+      <c r="O59" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="170"/>
       <c r="C60" s="161">
         <v>2810260908</v>
       </c>
@@ -6989,9 +7216,12 @@
       <c r="N60" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="202"/>
+      <c r="O60" s="205" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="170"/>
       <c r="C61" s="161">
         <v>2877877368</v>
       </c>
@@ -7024,9 +7254,12 @@
       <c r="N61" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="202"/>
+      <c r="O61" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="170"/>
       <c r="C62" s="161">
         <v>2857994912</v>
       </c>
@@ -7059,9 +7292,12 @@
       <c r="N62" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="202"/>
+      <c r="O62" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="170"/>
       <c r="C63" s="161">
         <v>2817606510</v>
       </c>
@@ -7094,9 +7330,12 @@
       <c r="N63" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="202"/>
+      <c r="O63" s="205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="170"/>
       <c r="C64" s="161">
         <v>2884638645</v>
       </c>
@@ -7125,9 +7364,12 @@
       </c>
       <c r="M64" s="91"/>
       <c r="N64" s="5"/>
+      <c r="O64" s="205" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="202"/>
+      <c r="A65" s="170"/>
       <c r="C65" s="160">
         <v>2521460498</v>
       </c>
@@ -7142,27 +7384,30 @@
       <c r="H65" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J65" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K65" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="L65" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M65" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N65" s="200" t="s">
-        <v>33</v>
+      <c r="I65" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N65" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O65" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="202"/>
+      <c r="A66" s="170"/>
       <c r="C66" s="160">
         <v>2903112334</v>
       </c>
@@ -7179,27 +7424,30 @@
       <c r="H66" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J66" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K66" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="L66" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M66" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N66" s="200" t="s">
-        <v>33</v>
+      <c r="I66" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N66" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O66" s="205" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="202"/>
+      <c r="A67" s="170"/>
       <c r="C67" s="160">
         <v>2833363308</v>
       </c>
@@ -7214,27 +7462,30 @@
       <c r="H67" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I67" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J67" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K67" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="L67" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M67" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N67" s="200" t="s">
-        <v>33</v>
+      <c r="I67" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O67" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="202"/>
+      <c r="A68" s="170"/>
       <c r="C68" s="161">
         <v>2521678241</v>
       </c>
@@ -7249,29 +7500,32 @@
       <c r="H68" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J68" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K68" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="L68" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="M68" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N68" s="200" t="s">
-        <v>33</v>
+      <c r="I68" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M68" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N68" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" s="205" t="s">
+        <v>681</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="202"/>
+      <c r="A69" s="170"/>
       <c r="C69" s="161">
         <v>2895460678</v>
       </c>
@@ -7286,27 +7540,30 @@
       <c r="H69" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I69" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="J69" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="K69" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="L69" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="M69" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N69" s="200" t="s">
-        <v>33</v>
+      <c r="I69" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="O69" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="202"/>
+      <c r="A70" s="170"/>
       <c r="C70" s="161">
         <v>2985895498</v>
       </c>
@@ -7339,9 +7596,12 @@
       <c r="N70" s="38" t="s">
         <v>33</v>
       </c>
+      <c r="O70" s="205" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="202"/>
+      <c r="A71" s="170"/>
       <c r="C71" s="161">
         <v>2224593910</v>
       </c>
@@ -7373,6 +7633,9 @@
       </c>
       <c r="N71" s="38" t="s">
         <v>33</v>
+      </c>
+      <c r="O71" s="205" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7894,6 +8157,11 @@
     <sortCondition ref="B2:B98"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A57:A71"/>
@@ -7901,11 +8169,6 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A21:A40"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7916,8 +8179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:V225"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7949,25 +8212,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -7982,19 +8245,19 @@
       <c r="F4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="189"/>
-      <c r="S4" s="189"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -8045,10 +8308,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="190" t="s">
+      <c r="B6" s="179" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8110,8 +8373,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="188"/>
-      <c r="B7" s="167"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="60" t="s">
         <v>42</v>
       </c>
@@ -8162,8 +8425,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188"/>
-      <c r="B8" s="167"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
@@ -8212,8 +8475,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="188"/>
-      <c r="B9" s="167"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="60" t="s">
         <v>283</v>
       </c>
@@ -8264,8 +8527,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="188"/>
-      <c r="B10" s="167"/>
+      <c r="A10" s="177"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8314,8 +8577,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="188"/>
-      <c r="B11" s="167"/>
+      <c r="A11" s="177"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8366,8 +8629,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="188"/>
-      <c r="B12" s="167"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="60" t="s">
         <v>44</v>
       </c>
@@ -8413,8 +8676,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188"/>
-      <c r="B13" s="167"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="60" t="s">
         <v>637</v>
       </c>
@@ -8448,8 +8711,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="188"/>
-      <c r="B14" s="167"/>
+      <c r="A14" s="177"/>
+      <c r="B14" s="180"/>
       <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
@@ -8495,8 +8758,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="188"/>
-      <c r="B15" s="167"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="60" t="s">
         <v>74</v>
       </c>
@@ -8542,8 +8805,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="188"/>
-      <c r="B16" s="167"/>
+      <c r="A16" s="177"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="60" t="s">
         <v>46</v>
       </c>
@@ -8587,8 +8850,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="188"/>
-      <c r="B17" s="167"/>
+      <c r="A17" s="177"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="60" t="s">
         <v>47</v>
       </c>
@@ -8632,8 +8895,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="188"/>
-      <c r="B18" s="167"/>
+      <c r="A18" s="177"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="60" t="s">
         <v>48</v>
       </c>
@@ -8677,8 +8940,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="188"/>
-      <c r="B19" s="167"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="60" t="s">
         <v>346</v>
       </c>
@@ -8724,8 +8987,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
-      <c r="B20" s="191"/>
+      <c r="A20" s="177"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="61" t="s">
         <v>50</v>
       </c>
@@ -8767,8 +9030,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="188"/>
-      <c r="B21" s="187" t="s">
+      <c r="A21" s="177"/>
+      <c r="B21" s="174" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -8819,8 +9082,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="188"/>
-      <c r="B22" s="174"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="175"/>
       <c r="C22" s="61" t="s">
         <v>233</v>
       </c>
@@ -8864,8 +9127,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="188"/>
-      <c r="B23" s="174"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="60" t="s">
         <v>45</v>
       </c>
@@ -8909,8 +9172,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
-      <c r="B24" s="174"/>
+      <c r="A24" s="177"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="60" t="s">
         <v>120</v>
       </c>
@@ -8956,8 +9219,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="188"/>
-      <c r="B25" s="174"/>
+      <c r="A25" s="177"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="60" t="s">
         <v>235</v>
       </c>
@@ -9005,8 +9268,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="188"/>
-      <c r="B26" s="174"/>
+      <c r="A26" s="177"/>
+      <c r="B26" s="175"/>
       <c r="C26" s="60" t="s">
         <v>350</v>
       </c>
@@ -9050,8 +9313,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="188"/>
-      <c r="B27" s="174"/>
+      <c r="A27" s="177"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="60" t="s">
         <v>119</v>
       </c>
@@ -9095,8 +9358,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="188"/>
-      <c r="B28" s="174"/>
+      <c r="A28" s="177"/>
+      <c r="B28" s="175"/>
       <c r="C28" s="60" t="s">
         <v>465</v>
       </c>
@@ -9140,8 +9403,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="188"/>
-      <c r="B29" s="174"/>
+      <c r="A29" s="177"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="60" t="s">
         <v>385</v>
       </c>
@@ -9187,8 +9450,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="188"/>
-      <c r="B30" s="174"/>
+      <c r="A30" s="177"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="60" t="s">
         <v>238</v>
       </c>
@@ -9235,8 +9498,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="188"/>
-      <c r="B31" s="174"/>
+      <c r="A31" s="177"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="60" t="s">
         <v>351</v>
       </c>
@@ -9282,8 +9545,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="188"/>
-      <c r="B32" s="174"/>
+      <c r="A32" s="177"/>
+      <c r="B32" s="175"/>
       <c r="C32" s="60" t="s">
         <v>216</v>
       </c>
@@ -9330,8 +9593,8 @@
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="188"/>
-      <c r="B33" s="174"/>
+      <c r="A33" s="177"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="60" t="s">
         <v>242</v>
       </c>
@@ -9377,8 +9640,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="188"/>
-      <c r="B34" s="174"/>
+      <c r="A34" s="177"/>
+      <c r="B34" s="175"/>
       <c r="C34" s="60" t="s">
         <v>375</v>
       </c>
@@ -9422,8 +9685,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="188"/>
-      <c r="B35" s="174"/>
+      <c r="A35" s="177"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="60" t="s">
         <v>388</v>
       </c>
@@ -9467,8 +9730,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="188"/>
-      <c r="B36" s="179"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="176"/>
       <c r="C36" s="65" t="s">
         <v>234</v>
       </c>
@@ -9512,10 +9775,10 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="195" t="s">
+      <c r="A37" s="187" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="182" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="62" t="s">
@@ -9560,8 +9823,8 @@
       <c r="T37" s="33"/>
     </row>
     <row r="38" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="196"/>
-      <c r="B38" s="167"/>
+      <c r="A38" s="188"/>
+      <c r="B38" s="180"/>
       <c r="C38" s="60" t="s">
         <v>107</v>
       </c>
@@ -9603,8 +9866,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="196"/>
-      <c r="B39" s="167"/>
+      <c r="A39" s="188"/>
+      <c r="B39" s="180"/>
       <c r="C39" s="60" t="s">
         <v>108</v>
       </c>
@@ -9647,8 +9910,8 @@
       <c r="T39" s="23"/>
     </row>
     <row r="40" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="196"/>
-      <c r="B40" s="167"/>
+      <c r="A40" s="188"/>
+      <c r="B40" s="180"/>
       <c r="C40" s="61" t="s">
         <v>109</v>
       </c>
@@ -9696,8 +9959,8 @@
       <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="196"/>
-      <c r="B41" s="173" t="s">
+      <c r="A41" s="188"/>
+      <c r="B41" s="185" t="s">
         <v>193</v>
       </c>
       <c r="C41" s="63" t="s">
@@ -9743,8 +10006,8 @@
       <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="196"/>
-      <c r="B42" s="174"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="175"/>
       <c r="C42" s="60" t="s">
         <v>218</v>
       </c>
@@ -9786,8 +10049,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="196"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="175"/>
       <c r="C43" s="60" t="s">
         <v>258</v>
       </c>
@@ -9829,8 +10092,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="196"/>
-      <c r="B44" s="174"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="60" t="s">
         <v>219</v>
       </c>
@@ -9872,8 +10135,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="196"/>
-      <c r="B45" s="174"/>
+      <c r="A45" s="188"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="60" t="s">
         <v>490</v>
       </c>
@@ -9918,8 +10181,8 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="196"/>
-      <c r="B46" s="174"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="175"/>
       <c r="C46" s="60" t="s">
         <v>413</v>
       </c>
@@ -9961,8 +10224,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="196"/>
-      <c r="B47" s="174"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="175"/>
       <c r="C47" s="60" t="s">
         <v>410</v>
       </c>
@@ -10004,8 +10267,8 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="196"/>
-      <c r="B48" s="174"/>
+      <c r="A48" s="188"/>
+      <c r="B48" s="175"/>
       <c r="C48" s="60" t="s">
         <v>408</v>
       </c>
@@ -10051,8 +10314,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
-      <c r="B49" s="174"/>
+      <c r="A49" s="188"/>
+      <c r="B49" s="175"/>
       <c r="C49" s="60" t="s">
         <v>257</v>
       </c>
@@ -10096,8 +10359,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="197"/>
-      <c r="B50" s="179"/>
+      <c r="A50" s="189"/>
+      <c r="B50" s="176"/>
       <c r="C50" s="65" t="s">
         <v>531</v>
       </c>
@@ -10141,10 +10404,10 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="168" t="s">
+      <c r="A51" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="166" t="s">
+      <c r="B51" s="182" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -10191,8 +10454,8 @@
       <c r="T51" s="33"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="169"/>
-      <c r="B52" s="167"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="60" t="s">
         <v>66</v>
       </c>
@@ -10238,8 +10501,8 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="169"/>
-      <c r="B53" s="167"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="180"/>
       <c r="C53" s="60" t="s">
         <v>67</v>
       </c>
@@ -10285,8 +10548,8 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="169"/>
-      <c r="B54" s="167"/>
+      <c r="A54" s="192"/>
+      <c r="B54" s="180"/>
       <c r="C54" s="61" t="s">
         <v>68</v>
       </c>
@@ -10332,8 +10595,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="169"/>
-      <c r="B55" s="167"/>
+      <c r="A55" s="192"/>
+      <c r="B55" s="180"/>
       <c r="C55" s="65" t="s">
         <v>604</v>
       </c>
@@ -10377,8 +10640,8 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="169"/>
-      <c r="B56" s="173" t="s">
+      <c r="A56" s="192"/>
+      <c r="B56" s="185" t="s">
         <v>193</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -10424,8 +10687,8 @@
       <c r="S56" s="57"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="169"/>
-      <c r="B57" s="174"/>
+      <c r="A57" s="192"/>
+      <c r="B57" s="175"/>
       <c r="C57" s="60" t="s">
         <v>209</v>
       </c>
@@ -10471,8 +10734,8 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="174"/>
+      <c r="A58" s="192"/>
+      <c r="B58" s="175"/>
       <c r="C58" s="60" t="s">
         <v>202</v>
       </c>
@@ -10516,8 +10779,8 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="169"/>
-      <c r="B59" s="174"/>
+      <c r="A59" s="192"/>
+      <c r="B59" s="175"/>
       <c r="C59" s="60" t="s">
         <v>197</v>
       </c>
@@ -10563,8 +10826,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="169"/>
-      <c r="B60" s="174"/>
+      <c r="A60" s="192"/>
+      <c r="B60" s="175"/>
       <c r="C60" s="60" t="s">
         <v>198</v>
       </c>
@@ -10610,8 +10873,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="169"/>
-      <c r="B61" s="174"/>
+      <c r="A61" s="192"/>
+      <c r="B61" s="175"/>
       <c r="C61" s="60" t="s">
         <v>91</v>
       </c>
@@ -10655,8 +10918,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="169"/>
-      <c r="B62" s="174"/>
+      <c r="A62" s="192"/>
+      <c r="B62" s="175"/>
       <c r="C62" s="60" t="s">
         <v>415</v>
       </c>
@@ -10700,8 +10963,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="169"/>
-      <c r="B63" s="174"/>
+      <c r="A63" s="192"/>
+      <c r="B63" s="175"/>
       <c r="C63" s="60" t="s">
         <v>199</v>
       </c>
@@ -10747,8 +11010,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="169"/>
-      <c r="B64" s="174"/>
+      <c r="A64" s="192"/>
+      <c r="B64" s="175"/>
       <c r="C64" s="60" t="s">
         <v>429</v>
       </c>
@@ -10794,8 +11057,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="169"/>
-      <c r="B65" s="174"/>
+      <c r="A65" s="192"/>
+      <c r="B65" s="175"/>
       <c r="C65" s="60" t="s">
         <v>377</v>
       </c>
@@ -10840,8 +11103,8 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="169"/>
-      <c r="B66" s="174"/>
+      <c r="A66" s="192"/>
+      <c r="B66" s="175"/>
       <c r="C66" s="60" t="s">
         <v>394</v>
       </c>
@@ -10887,8 +11150,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="169"/>
-      <c r="B67" s="174"/>
+      <c r="A67" s="192"/>
+      <c r="B67" s="175"/>
       <c r="C67" s="60" t="s">
         <v>254</v>
       </c>
@@ -10935,8 +11198,8 @@
       <c r="T67" s="23"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="169"/>
-      <c r="B68" s="174"/>
+      <c r="A68" s="192"/>
+      <c r="B68" s="175"/>
       <c r="C68" s="60" t="s">
         <v>432</v>
       </c>
@@ -10980,8 +11243,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="169"/>
-      <c r="B69" s="174"/>
+      <c r="A69" s="192"/>
+      <c r="B69" s="175"/>
       <c r="C69" s="61" t="s">
         <v>203</v>
       </c>
@@ -11026,10 +11289,10 @@
       <c r="T69" s="28"/>
     </row>
     <row r="70" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="181" t="s">
+      <c r="A70" s="201" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="180"/>
+      <c r="B70" s="200"/>
       <c r="C70" s="62" t="s">
         <v>79</v>
       </c>
@@ -11076,8 +11339,8 @@
       <c r="T70" s="33"/>
     </row>
     <row r="71" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="182"/>
-      <c r="B71" s="167"/>
+      <c r="A71" s="202"/>
+      <c r="B71" s="180"/>
       <c r="C71" s="60" t="s">
         <v>80</v>
       </c>
@@ -11123,8 +11386,8 @@
       <c r="S71" s="26"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182"/>
-      <c r="B72" s="167"/>
+      <c r="A72" s="202"/>
+      <c r="B72" s="180"/>
       <c r="C72" s="60" t="s">
         <v>81</v>
       </c>
@@ -11172,8 +11435,8 @@
       <c r="S72" s="26"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="182"/>
-      <c r="B73" s="167"/>
+      <c r="A73" s="202"/>
+      <c r="B73" s="180"/>
       <c r="C73" s="60" t="s">
         <v>82</v>
       </c>
@@ -11219,8 +11482,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="182"/>
-      <c r="B74" s="167"/>
+      <c r="A74" s="202"/>
+      <c r="B74" s="180"/>
       <c r="C74" s="60" t="s">
         <v>83</v>
       </c>
@@ -11268,8 +11531,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="182"/>
-      <c r="B75" s="167"/>
+      <c r="A75" s="202"/>
+      <c r="B75" s="180"/>
       <c r="C75" s="60" t="s">
         <v>84</v>
       </c>
@@ -11315,8 +11578,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182"/>
-      <c r="B76" s="167"/>
+      <c r="A76" s="202"/>
+      <c r="B76" s="180"/>
       <c r="C76" s="60" t="s">
         <v>85</v>
       </c>
@@ -11360,8 +11623,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="182"/>
-      <c r="B77" s="167"/>
+      <c r="A77" s="202"/>
+      <c r="B77" s="180"/>
       <c r="C77" s="60" t="s">
         <v>86</v>
       </c>
@@ -11407,8 +11670,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="182"/>
-      <c r="B78" s="167"/>
+      <c r="A78" s="202"/>
+      <c r="B78" s="180"/>
       <c r="C78" s="60" t="s">
         <v>87</v>
       </c>
@@ -11456,8 +11719,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="182"/>
-      <c r="B79" s="167"/>
+      <c r="A79" s="202"/>
+      <c r="B79" s="180"/>
       <c r="C79" s="60" t="s">
         <v>225</v>
       </c>
@@ -11503,8 +11766,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="182"/>
-      <c r="B80" s="178"/>
+      <c r="A80" s="202"/>
+      <c r="B80" s="199"/>
       <c r="C80" s="61" t="s">
         <v>90</v>
       </c>
@@ -11550,8 +11813,8 @@
       <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="182"/>
-      <c r="B81" s="174" t="s">
+      <c r="A81" s="202"/>
+      <c r="B81" s="175" t="s">
         <v>193</v>
       </c>
       <c r="C81" s="63" t="s">
@@ -11595,8 +11858,8 @@
       <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="182"/>
-      <c r="B82" s="174"/>
+      <c r="A82" s="202"/>
+      <c r="B82" s="175"/>
       <c r="C82" s="60" t="s">
         <v>213</v>
       </c>
@@ -11642,8 +11905,8 @@
       <c r="S82" s="26"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="182"/>
-      <c r="B83" s="174"/>
+      <c r="A83" s="202"/>
+      <c r="B83" s="175"/>
       <c r="C83" s="60" t="s">
         <v>427</v>
       </c>
@@ -11687,8 +11950,8 @@
       <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182"/>
-      <c r="B84" s="174"/>
+      <c r="A84" s="202"/>
+      <c r="B84" s="175"/>
       <c r="C84" s="60" t="s">
         <v>295</v>
       </c>
@@ -11732,8 +11995,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="182"/>
-      <c r="B85" s="174"/>
+      <c r="A85" s="202"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="60" t="s">
         <v>368</v>
       </c>
@@ -11777,8 +12040,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="182"/>
-      <c r="B86" s="174"/>
+      <c r="A86" s="202"/>
+      <c r="B86" s="175"/>
       <c r="C86" s="60" t="s">
         <v>221</v>
       </c>
@@ -11822,8 +12085,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="182"/>
-      <c r="B87" s="174"/>
+      <c r="A87" s="202"/>
+      <c r="B87" s="175"/>
       <c r="C87" s="60" t="s">
         <v>322</v>
       </c>
@@ -11869,8 +12132,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182"/>
-      <c r="B88" s="174"/>
+      <c r="A88" s="202"/>
+      <c r="B88" s="175"/>
       <c r="C88" s="61" t="s">
         <v>249</v>
       </c>
@@ -11914,8 +12177,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="182"/>
-      <c r="B89" s="174"/>
+      <c r="A89" s="202"/>
+      <c r="B89" s="175"/>
       <c r="C89" s="60" t="s">
         <v>404</v>
       </c>
@@ -11956,8 +12219,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="182"/>
-      <c r="B90" s="174"/>
+      <c r="A90" s="202"/>
+      <c r="B90" s="175"/>
       <c r="C90" s="60" t="s">
         <v>370</v>
       </c>
@@ -11999,8 +12262,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="182"/>
-      <c r="B91" s="174"/>
+      <c r="A91" s="202"/>
+      <c r="B91" s="175"/>
       <c r="C91" s="60" t="s">
         <v>357</v>
       </c>
@@ -12046,8 +12309,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182"/>
-      <c r="B92" s="174"/>
+      <c r="A92" s="202"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="60" t="s">
         <v>353</v>
       </c>
@@ -12093,8 +12356,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="182"/>
-      <c r="B93" s="174"/>
+      <c r="A93" s="202"/>
+      <c r="B93" s="175"/>
       <c r="C93" s="60" t="s">
         <v>212</v>
       </c>
@@ -12137,8 +12400,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="182"/>
-      <c r="B94" s="174"/>
+      <c r="A94" s="202"/>
+      <c r="B94" s="175"/>
       <c r="C94" s="60" t="s">
         <v>373</v>
       </c>
@@ -12182,8 +12445,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="182"/>
-      <c r="B95" s="174"/>
+      <c r="A95" s="202"/>
+      <c r="B95" s="175"/>
       <c r="C95" s="60" t="s">
         <v>222</v>
       </c>
@@ -12227,8 +12490,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182"/>
-      <c r="B96" s="174"/>
+      <c r="A96" s="202"/>
+      <c r="B96" s="175"/>
       <c r="C96" s="60" t="s">
         <v>247</v>
       </c>
@@ -12272,8 +12535,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="182"/>
-      <c r="B97" s="174"/>
+      <c r="A97" s="202"/>
+      <c r="B97" s="175"/>
       <c r="C97" s="60" t="s">
         <v>294</v>
       </c>
@@ -12317,8 +12580,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="182"/>
-      <c r="B98" s="174"/>
+      <c r="A98" s="202"/>
+      <c r="B98" s="175"/>
       <c r="C98" s="60" t="s">
         <v>224</v>
       </c>
@@ -12362,8 +12625,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="182"/>
-      <c r="B99" s="174"/>
+      <c r="A99" s="202"/>
+      <c r="B99" s="175"/>
       <c r="C99" s="60" t="s">
         <v>232</v>
       </c>
@@ -12402,8 +12665,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="182"/>
-      <c r="B100" s="174"/>
+      <c r="A100" s="202"/>
+      <c r="B100" s="175"/>
       <c r="C100" s="60" t="s">
         <v>223</v>
       </c>
@@ -12444,8 +12707,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="182"/>
-      <c r="B101" s="174"/>
+      <c r="A101" s="202"/>
+      <c r="B101" s="175"/>
       <c r="C101" s="65" t="s">
         <v>217</v>
       </c>
@@ -12491,8 +12754,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="182"/>
-      <c r="B102" s="174"/>
+      <c r="A102" s="202"/>
+      <c r="B102" s="175"/>
       <c r="C102" s="60" t="s">
         <v>214</v>
       </c>
@@ -12534,8 +12797,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="182"/>
-      <c r="B103" s="174"/>
+      <c r="A103" s="202"/>
+      <c r="B103" s="175"/>
       <c r="C103" s="60" t="s">
         <v>215</v>
       </c>
@@ -12579,8 +12842,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182"/>
-      <c r="B104" s="174"/>
+      <c r="A104" s="202"/>
+      <c r="B104" s="175"/>
       <c r="C104" s="60" t="s">
         <v>359</v>
       </c>
@@ -12621,8 +12884,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="182"/>
-      <c r="B105" s="174"/>
+      <c r="A105" s="202"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="60" t="s">
         <v>231</v>
       </c>
@@ -12663,8 +12926,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="182"/>
-      <c r="B106" s="174"/>
+      <c r="A106" s="202"/>
+      <c r="B106" s="175"/>
       <c r="C106" s="60" t="s">
         <v>206</v>
       </c>
@@ -12706,8 +12969,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="182"/>
-      <c r="B107" s="174"/>
+      <c r="A107" s="202"/>
+      <c r="B107" s="175"/>
       <c r="C107" s="60" t="s">
         <v>207</v>
       </c>
@@ -12749,8 +13012,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182"/>
-      <c r="B108" s="174"/>
+      <c r="A108" s="202"/>
+      <c r="B108" s="175"/>
       <c r="C108" s="60" t="s">
         <v>502</v>
       </c>
@@ -12791,8 +13054,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="182"/>
-      <c r="B109" s="174"/>
+      <c r="A109" s="202"/>
+      <c r="B109" s="175"/>
       <c r="C109" s="60" t="s">
         <v>248</v>
       </c>
@@ -12833,8 +13096,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="182"/>
-      <c r="B110" s="174"/>
+      <c r="A110" s="202"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="60" t="s">
         <v>251</v>
       </c>
@@ -12878,8 +13141,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="182"/>
-      <c r="B111" s="174"/>
+      <c r="A111" s="202"/>
+      <c r="B111" s="175"/>
       <c r="C111" s="60" t="s">
         <v>228</v>
       </c>
@@ -12925,8 +13188,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="182"/>
-      <c r="B112" s="174"/>
+      <c r="A112" s="202"/>
+      <c r="B112" s="175"/>
       <c r="C112" s="60" t="s">
         <v>229</v>
       </c>
@@ -12972,8 +13235,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="182"/>
-      <c r="B113" s="174"/>
+      <c r="A113" s="202"/>
+      <c r="B113" s="175"/>
       <c r="C113" s="65" t="s">
         <v>598</v>
       </c>
@@ -13000,8 +13263,8 @@
       <c r="T113" s="23"/>
     </row>
     <row r="114" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="182"/>
-      <c r="B114" s="174"/>
+      <c r="A114" s="202"/>
+      <c r="B114" s="175"/>
       <c r="C114" s="60" t="s">
         <v>325</v>
       </c>
@@ -13046,8 +13309,8 @@
       <c r="T114" s="23"/>
     </row>
     <row r="115" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="183"/>
-      <c r="B115" s="179"/>
+      <c r="A115" s="203"/>
+      <c r="B115" s="176"/>
       <c r="C115" s="61" t="s">
         <v>318</v>
       </c>
@@ -13100,10 +13363,10 @@
       <c r="T115" s="28"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="175" t="s">
+      <c r="A116" s="196" t="s">
         <v>500</v>
       </c>
-      <c r="B116" s="166" t="s">
+      <c r="B116" s="182" t="s">
         <v>51</v>
       </c>
       <c r="C116" s="62" t="s">
@@ -13148,8 +13411,8 @@
       <c r="T116" s="33"/>
     </row>
     <row r="117" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="176"/>
-      <c r="B117" s="167"/>
+      <c r="A117" s="197"/>
+      <c r="B117" s="180"/>
       <c r="C117" s="60" t="s">
         <v>92</v>
       </c>
@@ -13195,8 +13458,8 @@
       <c r="S117" s="26"/>
     </row>
     <row r="118" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="176"/>
-      <c r="B118" s="167"/>
+      <c r="A118" s="197"/>
+      <c r="B118" s="180"/>
       <c r="C118" s="60" t="s">
         <v>93</v>
       </c>
@@ -13242,8 +13505,8 @@
       <c r="S118" s="26"/>
     </row>
     <row r="119" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="176"/>
-      <c r="B119" s="167"/>
+      <c r="A119" s="197"/>
+      <c r="B119" s="180"/>
       <c r="C119" s="60" t="s">
         <v>104</v>
       </c>
@@ -13285,8 +13548,8 @@
       <c r="S119" s="26"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="176"/>
-      <c r="B120" s="167"/>
+      <c r="A120" s="197"/>
+      <c r="B120" s="180"/>
       <c r="C120" s="61" t="s">
         <v>94</v>
       </c>
@@ -13329,8 +13592,8 @@
       <c r="T120" s="28"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="176"/>
-      <c r="B121" s="167"/>
+      <c r="A121" s="197"/>
+      <c r="B121" s="180"/>
       <c r="C121" s="60" t="s">
         <v>179</v>
       </c>
@@ -13373,8 +13636,8 @@
       <c r="T121" s="28"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="176"/>
-      <c r="B122" s="167"/>
+      <c r="A122" s="197"/>
+      <c r="B122" s="180"/>
       <c r="C122" s="61" t="s">
         <v>116</v>
       </c>
@@ -13417,8 +13680,8 @@
       <c r="T122" s="28"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="176"/>
-      <c r="B123" s="167"/>
+      <c r="A123" s="197"/>
+      <c r="B123" s="180"/>
       <c r="C123" s="60" t="s">
         <v>96</v>
       </c>
@@ -13462,8 +13725,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="176"/>
-      <c r="B124" s="167"/>
+      <c r="A124" s="197"/>
+      <c r="B124" s="180"/>
       <c r="C124" s="60" t="s">
         <v>501</v>
       </c>
@@ -13507,8 +13770,8 @@
       <c r="S124" s="26"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="176"/>
-      <c r="B125" s="178"/>
+      <c r="A125" s="197"/>
+      <c r="B125" s="199"/>
       <c r="C125" s="60" t="s">
         <v>176</v>
       </c>
@@ -13550,8 +13813,8 @@
       <c r="S125" s="26"/>
     </row>
     <row r="126" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="176"/>
-      <c r="B126" s="173" t="s">
+      <c r="A126" s="197"/>
+      <c r="B126" s="185" t="s">
         <v>193</v>
       </c>
       <c r="C126" s="63" t="s">
@@ -13596,8 +13859,8 @@
       <c r="T126" s="23"/>
     </row>
     <row r="127" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="176"/>
-      <c r="B127" s="174"/>
+      <c r="A127" s="197"/>
+      <c r="B127" s="175"/>
       <c r="C127" s="60" t="s">
         <v>448</v>
       </c>
@@ -13638,8 +13901,8 @@
       <c r="T127" s="23"/>
     </row>
     <row r="128" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="176"/>
-      <c r="B128" s="174"/>
+      <c r="A128" s="197"/>
+      <c r="B128" s="175"/>
       <c r="C128" s="60" t="s">
         <v>451</v>
       </c>
@@ -13680,8 +13943,8 @@
       <c r="T128" s="23"/>
     </row>
     <row r="129" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="176"/>
-      <c r="B129" s="174"/>
+      <c r="A129" s="197"/>
+      <c r="B129" s="175"/>
       <c r="C129" s="61" t="s">
         <v>425</v>
       </c>
@@ -13724,8 +13987,8 @@
       <c r="T129" s="23"/>
     </row>
     <row r="130" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="176"/>
-      <c r="B130" s="174"/>
+      <c r="A130" s="197"/>
+      <c r="B130" s="175"/>
       <c r="C130" s="60" t="s">
         <v>230</v>
       </c>
@@ -13766,8 +14029,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="176"/>
-      <c r="B131" s="174"/>
+      <c r="A131" s="197"/>
+      <c r="B131" s="175"/>
       <c r="C131" s="60" t="s">
         <v>208</v>
       </c>
@@ -13808,8 +14071,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="177"/>
-      <c r="B132" s="174"/>
+      <c r="A132" s="198"/>
+      <c r="B132" s="175"/>
       <c r="C132" s="65" t="s">
         <v>624</v>
       </c>
@@ -13832,10 +14095,10 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="170" t="s">
+      <c r="A133" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="166" t="s">
+      <c r="B133" s="182" t="s">
         <v>51</v>
       </c>
       <c r="C133" s="62" t="s">
@@ -13878,8 +14141,8 @@
       <c r="T133" s="33"/>
     </row>
     <row r="134" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="171"/>
-      <c r="B134" s="167"/>
+      <c r="A134" s="194"/>
+      <c r="B134" s="180"/>
       <c r="C134" s="61" t="s">
         <v>95</v>
       </c>
@@ -13919,8 +14182,8 @@
       <c r="S134" s="31"/>
     </row>
     <row r="135" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="171"/>
-      <c r="B135" s="167"/>
+      <c r="A135" s="194"/>
+      <c r="B135" s="180"/>
       <c r="C135" s="65" t="s">
         <v>602</v>
       </c>
@@ -13963,8 +14226,8 @@
       <c r="T135" s="19"/>
     </row>
     <row r="136" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="171"/>
-      <c r="B136" s="167"/>
+      <c r="A136" s="194"/>
+      <c r="B136" s="180"/>
       <c r="C136" s="60" t="s">
         <v>115</v>
       </c>
@@ -14006,8 +14269,8 @@
       <c r="T136" s="19"/>
     </row>
     <row r="137" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="171"/>
-      <c r="B137" s="167"/>
+      <c r="A137" s="194"/>
+      <c r="B137" s="180"/>
       <c r="C137" s="60" t="s">
         <v>114</v>
       </c>
@@ -14049,8 +14312,8 @@
       <c r="T137" s="19"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="171"/>
-      <c r="B138" s="173" t="s">
+      <c r="A138" s="194"/>
+      <c r="B138" s="185" t="s">
         <v>193</v>
       </c>
       <c r="C138" s="63" t="s">
@@ -14092,8 +14355,8 @@
       <c r="S138" s="57"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="171"/>
-      <c r="B139" s="174"/>
+      <c r="A139" s="194"/>
+      <c r="B139" s="175"/>
       <c r="C139" s="60" t="s">
         <v>399</v>
       </c>
@@ -14132,8 +14395,8 @@
       <c r="S139" s="26"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="171"/>
-      <c r="B140" s="174"/>
+      <c r="A140" s="194"/>
+      <c r="B140" s="175"/>
       <c r="C140" s="60" t="s">
         <v>255</v>
       </c>
@@ -14173,8 +14436,8 @@
       <c r="S140" s="26"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="171"/>
-      <c r="B141" s="174"/>
+      <c r="A141" s="194"/>
+      <c r="B141" s="175"/>
       <c r="C141" s="65" t="s">
         <v>618</v>
       </c>
@@ -14208,8 +14471,8 @@
       <c r="S141" s="26"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="171"/>
-      <c r="B142" s="174"/>
+      <c r="A142" s="194"/>
+      <c r="B142" s="175"/>
       <c r="C142" s="60" t="s">
         <v>422</v>
       </c>
@@ -14249,8 +14512,8 @@
       <c r="S142" s="26"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="171"/>
-      <c r="B143" s="174"/>
+      <c r="A143" s="194"/>
+      <c r="B143" s="175"/>
       <c r="C143" s="60" t="s">
         <v>380</v>
       </c>
@@ -14290,8 +14553,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="171"/>
-      <c r="B144" s="174"/>
+      <c r="A144" s="194"/>
+      <c r="B144" s="175"/>
       <c r="C144" s="60" t="s">
         <v>439</v>
       </c>
@@ -14331,8 +14594,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="171"/>
-      <c r="B145" s="174"/>
+      <c r="A145" s="194"/>
+      <c r="B145" s="175"/>
       <c r="C145" s="60" t="s">
         <v>358</v>
       </c>
@@ -14372,8 +14635,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="171"/>
-      <c r="B146" s="174"/>
+      <c r="A146" s="194"/>
+      <c r="B146" s="175"/>
       <c r="C146" s="60" t="s">
         <v>226</v>
       </c>
@@ -14413,8 +14676,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="171"/>
-      <c r="B147" s="174"/>
+      <c r="A147" s="194"/>
+      <c r="B147" s="175"/>
       <c r="C147" s="60" t="s">
         <v>421</v>
       </c>
@@ -14454,8 +14717,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="171"/>
-      <c r="B148" s="174"/>
+      <c r="A148" s="194"/>
+      <c r="B148" s="175"/>
       <c r="C148" s="60" t="s">
         <v>396</v>
       </c>
@@ -14495,8 +14758,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="171"/>
-      <c r="B149" s="174"/>
+      <c r="A149" s="194"/>
+      <c r="B149" s="175"/>
       <c r="C149" s="60" t="s">
         <v>433</v>
       </c>
@@ -14536,8 +14799,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="171"/>
-      <c r="B150" s="174"/>
+      <c r="A150" s="194"/>
+      <c r="B150" s="175"/>
       <c r="C150" s="60" t="s">
         <v>406</v>
       </c>
@@ -14577,8 +14840,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="171"/>
-      <c r="B151" s="174"/>
+      <c r="A151" s="194"/>
+      <c r="B151" s="175"/>
       <c r="C151" s="65" t="s">
         <v>521</v>
       </c>
@@ -14618,8 +14881,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="171"/>
-      <c r="B152" s="174"/>
+      <c r="A152" s="194"/>
+      <c r="B152" s="175"/>
       <c r="C152" s="65" t="s">
         <v>256</v>
       </c>
@@ -14659,8 +14922,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="171"/>
-      <c r="B153" s="174"/>
+      <c r="A153" s="194"/>
+      <c r="B153" s="175"/>
       <c r="C153" s="65" t="s">
         <v>446</v>
       </c>
@@ -14700,8 +14963,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="171"/>
-      <c r="B154" s="174"/>
+      <c r="A154" s="194"/>
+      <c r="B154" s="175"/>
       <c r="C154" s="65" t="s">
         <v>435</v>
       </c>
@@ -14741,8 +15004,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="171"/>
-      <c r="B155" s="174"/>
+      <c r="A155" s="194"/>
+      <c r="B155" s="175"/>
       <c r="C155" s="65" t="s">
         <v>319</v>
       </c>
@@ -14784,8 +15047,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="171"/>
-      <c r="B156" s="174"/>
+      <c r="A156" s="194"/>
+      <c r="B156" s="175"/>
       <c r="C156" s="65" t="s">
         <v>366</v>
       </c>
@@ -14825,8 +15088,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="172"/>
-      <c r="B157" s="174"/>
+      <c r="A157" s="195"/>
+      <c r="B157" s="175"/>
       <c r="C157" s="65" t="s">
         <v>211</v>
       </c>
@@ -14866,10 +15129,10 @@
       <c r="S157" s="31"/>
     </row>
     <row r="158" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="192" t="s">
+      <c r="A158" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="B158" s="187" t="s">
+      <c r="B158" s="174" t="s">
         <v>193</v>
       </c>
       <c r="C158" s="62" t="s">
@@ -14913,8 +15176,8 @@
       <c r="S158" s="36"/>
     </row>
     <row r="159" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="192"/>
-      <c r="B159" s="174"/>
+      <c r="A159" s="183"/>
+      <c r="B159" s="175"/>
       <c r="C159" s="60" t="s">
         <v>362</v>
       </c>
@@ -14956,8 +15219,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="192"/>
-      <c r="B160" s="174"/>
+      <c r="A160" s="183"/>
+      <c r="B160" s="175"/>
       <c r="C160" s="60" t="s">
         <v>381</v>
       </c>
@@ -14999,8 +15262,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="192"/>
-      <c r="B161" s="174"/>
+      <c r="A161" s="183"/>
+      <c r="B161" s="175"/>
       <c r="C161" s="60" t="s">
         <v>392</v>
       </c>
@@ -15042,8 +15305,8 @@
       <c r="S161" s="26"/>
     </row>
     <row r="162" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="192"/>
-      <c r="B162" s="174"/>
+      <c r="A162" s="183"/>
+      <c r="B162" s="175"/>
       <c r="C162" s="60" t="s">
         <v>250</v>
       </c>
@@ -15083,8 +15346,8 @@
       <c r="S162" s="26"/>
     </row>
     <row r="163" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="192"/>
-      <c r="B163" s="174"/>
+      <c r="A163" s="183"/>
+      <c r="B163" s="175"/>
       <c r="C163" s="61" t="s">
         <v>401</v>
       </c>
@@ -15126,8 +15389,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="192"/>
-      <c r="B164" s="174"/>
+      <c r="A164" s="183"/>
+      <c r="B164" s="175"/>
       <c r="C164" s="60" t="s">
         <v>372</v>
       </c>
@@ -15167,8 +15430,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="192"/>
-      <c r="B165" s="179"/>
+      <c r="A165" s="183"/>
+      <c r="B165" s="176"/>
       <c r="C165" s="60" t="s">
         <v>402</v>
       </c>
@@ -15208,7 +15471,7 @@
       <c r="S165" s="31"/>
     </row>
     <row r="166" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="193" t="s">
+      <c r="A166" s="184" t="s">
         <v>535</v>
       </c>
       <c r="B166" s="72" t="s">
@@ -15251,8 +15514,8 @@
       <c r="S166" s="71"/>
     </row>
     <row r="167" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="193"/>
-      <c r="B167" s="173" t="s">
+      <c r="A167" s="184"/>
+      <c r="B167" s="185" t="s">
         <v>193</v>
       </c>
       <c r="C167" s="60" t="s">
@@ -15290,8 +15553,8 @@
       <c r="S167" s="57"/>
     </row>
     <row r="168" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="193"/>
-      <c r="B168" s="174"/>
+      <c r="A168" s="184"/>
+      <c r="B168" s="175"/>
       <c r="C168" s="60" t="s">
         <v>195</v>
       </c>
@@ -15326,8 +15589,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="193"/>
-      <c r="B169" s="174"/>
+      <c r="A169" s="184"/>
+      <c r="B169" s="175"/>
       <c r="C169" s="60" t="s">
         <v>259</v>
       </c>
@@ -15365,8 +15628,8 @@
       <c r="S169" s="26"/>
     </row>
     <row r="170" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="193"/>
-      <c r="B170" s="174"/>
+      <c r="A170" s="184"/>
+      <c r="B170" s="175"/>
       <c r="C170" s="60" t="s">
         <v>417</v>
       </c>
@@ -15403,8 +15666,8 @@
       <c r="S170" s="26"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="193"/>
-      <c r="B171" s="194"/>
+      <c r="A171" s="184"/>
+      <c r="B171" s="186"/>
       <c r="C171" s="60" t="s">
         <v>418</v>
       </c>
@@ -15442,10 +15705,10 @@
       <c r="S171" s="26"/>
     </row>
     <row r="172" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="186" t="s">
+      <c r="A172" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="B172" s="190" t="s">
+      <c r="B172" s="179" t="s">
         <v>51</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -15485,8 +15748,8 @@
       <c r="S172" s="36"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="186"/>
-      <c r="B173" s="167"/>
+      <c r="A173" s="173"/>
+      <c r="B173" s="180"/>
       <c r="C173" s="60" t="s">
         <v>184</v>
       </c>
@@ -15524,8 +15787,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="186"/>
-      <c r="B174" s="167"/>
+      <c r="A174" s="173"/>
+      <c r="B174" s="180"/>
       <c r="C174" s="60" t="s">
         <v>183</v>
       </c>
@@ -15563,8 +15826,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="186"/>
-      <c r="B175" s="167"/>
+      <c r="A175" s="173"/>
+      <c r="B175" s="180"/>
       <c r="C175" s="61" t="s">
         <v>185</v>
       </c>
@@ -15602,8 +15865,8 @@
       <c r="S175" s="31"/>
     </row>
     <row r="176" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="186"/>
-      <c r="B176" s="184" t="s">
+      <c r="A176" s="173"/>
+      <c r="B176" s="171" t="s">
         <v>193</v>
       </c>
       <c r="C176" s="63" t="s">
@@ -15637,8 +15900,8 @@
       <c r="S176" s="57"/>
     </row>
     <row r="177" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="186"/>
-      <c r="B177" s="185"/>
+      <c r="A177" s="173"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="64"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
@@ -16367,6 +16630,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="A133:A157"/>
+    <mergeCell ref="B138:B157"/>
+    <mergeCell ref="A116:A132"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B81:B115"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="A70:A115"/>
+    <mergeCell ref="B133:B137"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="A172:A177"/>
     <mergeCell ref="B158:B165"/>
@@ -16382,18 +16657,6 @@
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="A37:A50"/>
     <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="A133:A157"/>
-    <mergeCell ref="B138:B157"/>
-    <mergeCell ref="A116:A132"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B81:B115"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="A70:A115"/>
-    <mergeCell ref="B133:B137"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -16589,8 +16852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C657BEEB-4F2E-48F9-B8CF-BB37A76584AA}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C90447-4F4A-48A8-A10B-4C06CB926B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692D90FF-6DD1-460E-8E75-39B5F8C26C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="260" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -4012,68 +4012,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -4090,6 +4048,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4100,6 +4064,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4114,14 +4081,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4617,9 +4617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4657,7 +4657,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4763,7 +4763,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4905,7 +4905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4915,9 +4915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B301-FC9E-4F7D-A454-62A8C1115EDF}">
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,7 +4932,7 @@
     <col min="8" max="8" width="12.85546875" style="88" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="42.42578125" style="206" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" style="172" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4972,12 +4972,12 @@
       <c r="N1" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="204" t="s">
+      <c r="O1" s="170" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="173" t="s">
         <v>669</v>
       </c>
       <c r="C2" s="159">
@@ -5012,12 +5012,12 @@
       <c r="N2" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="205" t="s">
+      <c r="O2" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
+      <c r="A3" s="173"/>
       <c r="C3" s="160">
         <v>1564026768</v>
       </c>
@@ -5050,12 +5050,12 @@
       <c r="N3" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="205" t="s">
+      <c r="O3" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="173" t="s">
         <v>670</v>
       </c>
       <c r="C4" s="161">
@@ -5090,12 +5090,12 @@
       <c r="N4" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
+      <c r="A5" s="173"/>
       <c r="C5" s="161">
         <v>2614334381</v>
       </c>
@@ -5128,12 +5128,12 @@
       <c r="N5" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="205" t="s">
+      <c r="O5" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
+      <c r="A6" s="173"/>
       <c r="C6" s="161">
         <v>2507204412</v>
       </c>
@@ -5166,12 +5166,12 @@
       <c r="N6" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="205" t="s">
+      <c r="O6" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="173" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="160">
@@ -5206,12 +5206,12 @@
       <c r="N7" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="205" t="s">
+      <c r="O7" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
+      <c r="A8" s="173"/>
       <c r="C8" s="160">
         <v>2572331007</v>
       </c>
@@ -5246,12 +5246,12 @@
       <c r="N8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="205" t="s">
+      <c r="O8" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
+      <c r="A9" s="173"/>
       <c r="C9" s="161">
         <v>2116157322</v>
       </c>
@@ -5284,14 +5284,14 @@
       <c r="N9" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="205" t="s">
+      <c r="O9" s="171" t="s">
         <v>681</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
+      <c r="A10" s="173"/>
       <c r="C10" s="161">
         <v>2793893086</v>
       </c>
@@ -5324,14 +5324,14 @@
       <c r="N10" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="205" t="s">
+      <c r="O10" s="171" t="s">
         <v>681</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="173" t="s">
         <v>671</v>
       </c>
       <c r="C11" s="161">
@@ -5368,12 +5368,12 @@
       <c r="N11" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="205" t="s">
+      <c r="O11" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
+      <c r="A12" s="173"/>
       <c r="C12" s="161">
         <v>3031784065</v>
       </c>
@@ -5390,17 +5390,17 @@
       <c r="H12" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="167" t="s">
-        <v>33</v>
+      <c r="I12" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="167" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="167" t="s">
-        <v>33</v>
+      <c r="K12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="M12" s="167" t="s">
         <v>33</v>
@@ -5408,12 +5408,12 @@
       <c r="N12" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="205" t="s">
+      <c r="O12" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
+      <c r="A13" s="173"/>
       <c r="C13" s="161">
         <v>2977703357</v>
       </c>
@@ -5446,12 +5446,12 @@
       <c r="N13" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="205" t="s">
+      <c r="O13" s="171" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
+      <c r="A14" s="173"/>
       <c r="C14" s="161">
         <v>2980235854</v>
       </c>
@@ -5484,12 +5484,12 @@
       <c r="N14" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="205" t="s">
+      <c r="O14" s="171" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
+      <c r="A15" s="173"/>
       <c r="C15" s="161">
         <v>2111523728</v>
       </c>
@@ -5524,12 +5524,12 @@
       <c r="N15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="205" t="s">
+      <c r="O15" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="173" t="s">
         <v>675</v>
       </c>
       <c r="C16" s="161">
@@ -5566,12 +5566,12 @@
       <c r="N16" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="205" t="s">
+      <c r="O16" s="171" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="170"/>
+      <c r="A17" s="173"/>
       <c r="C17" s="161">
         <v>2822531337</v>
       </c>
@@ -5604,12 +5604,12 @@
       <c r="N17" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="205" t="s">
+      <c r="O17" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="173" t="s">
         <v>672</v>
       </c>
       <c r="C18" s="160">
@@ -5646,14 +5646,14 @@
       <c r="N18" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="205" t="s">
+      <c r="O18" s="171" t="s">
         <v>681</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170"/>
+      <c r="A19" s="173"/>
       <c r="C19" s="160">
         <v>2166325582</v>
       </c>
@@ -5686,12 +5686,12 @@
       <c r="N19" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="205" t="s">
+      <c r="O19" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
+      <c r="A20" s="173"/>
       <c r="C20" s="160">
         <v>2208230845</v>
       </c>
@@ -5726,14 +5726,14 @@
       <c r="N20" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="205" t="s">
+      <c r="O20" s="171" t="s">
         <v>684</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="170" t="s">
+      <c r="A21" s="173" t="s">
         <v>673</v>
       </c>
       <c r="B21" s="169"/>
@@ -5767,12 +5767,12 @@
         <v>8</v>
       </c>
       <c r="N21" s="5"/>
-      <c r="O21" s="205" t="s">
+      <c r="O21" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="169"/>
       <c r="C22" s="160">
         <v>2789302074</v>
@@ -5804,12 +5804,12 @@
         <v>8</v>
       </c>
       <c r="N22" s="5"/>
-      <c r="O22" s="205" t="s">
+      <c r="O22" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="169"/>
       <c r="C23" s="161">
         <v>1991570984</v>
@@ -5837,12 +5837,12 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="205" t="s">
+      <c r="O23" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="170"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="169"/>
       <c r="C24" s="161">
         <v>3171576913</v>
@@ -5876,12 +5876,12 @@
       <c r="N24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="205" t="s">
+      <c r="O24" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="169"/>
       <c r="C25" s="160" t="s">
         <v>597</v>
@@ -5913,12 +5913,12 @@
         <v>8</v>
       </c>
       <c r="N25" s="5"/>
-      <c r="O25" s="205" t="s">
+      <c r="O25" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="169"/>
       <c r="C26" s="160">
         <v>2931560672</v>
@@ -5950,12 +5950,12 @@
         <v>8</v>
       </c>
       <c r="N26" s="5"/>
-      <c r="O26" s="205" t="s">
+      <c r="O26" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="170"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="169"/>
       <c r="C27" s="161">
         <v>3108865421</v>
@@ -5987,12 +5987,12 @@
       </c>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
-      <c r="O27" s="205" t="s">
+      <c r="O27" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="170"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="169"/>
       <c r="C28" s="160">
         <v>1630943713</v>
@@ -6026,12 +6026,12 @@
         <v>8</v>
       </c>
       <c r="N28" s="5"/>
-      <c r="O28" s="205" t="s">
+      <c r="O28" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="170"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="169"/>
       <c r="C29" s="161">
         <v>1797720064</v>
@@ -6065,12 +6065,12 @@
         <v>8</v>
       </c>
       <c r="N29" s="5"/>
-      <c r="O29" s="205" t="s">
+      <c r="O29" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="170"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="169"/>
       <c r="C30" s="160">
         <v>2155726353</v>
@@ -6102,12 +6102,12 @@
         <v>8</v>
       </c>
       <c r="N30" s="5"/>
-      <c r="O30" s="205" t="s">
+      <c r="O30" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="170"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="169"/>
       <c r="C31" s="161">
         <v>2723807644</v>
@@ -6139,12 +6139,12 @@
         <v>8</v>
       </c>
       <c r="N31" s="5"/>
-      <c r="O31" s="205" t="s">
+      <c r="O31" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="170"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="169"/>
       <c r="C32" s="161">
         <v>2780914191</v>
@@ -6176,12 +6176,12 @@
         <v>8</v>
       </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="205" t="s">
+      <c r="O32" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="170"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="169"/>
       <c r="C33" s="161">
         <v>2741271183</v>
@@ -6213,12 +6213,12 @@
         <v>8</v>
       </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="205" t="s">
+      <c r="O33" s="171" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="170"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="169"/>
       <c r="C34" s="161">
         <v>2579252958</v>
@@ -6252,12 +6252,12 @@
       <c r="N34" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O34" s="205" t="s">
+      <c r="O34" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="170"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="169"/>
       <c r="C35" s="161">
         <v>3034460305</v>
@@ -6291,12 +6291,12 @@
       <c r="N35" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="205" t="s">
+      <c r="O35" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="170"/>
+      <c r="A36" s="173"/>
       <c r="B36" s="169"/>
       <c r="C36" s="161">
         <v>2851058261</v>
@@ -6330,12 +6330,12 @@
       <c r="N36" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="205" t="s">
+      <c r="O36" s="171" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="170"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="169"/>
       <c r="C37" s="161">
         <v>2926289548</v>
@@ -6367,12 +6367,12 @@
         <v>33</v>
       </c>
       <c r="N37" s="38"/>
-      <c r="O37" s="205" t="s">
+      <c r="O37" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="170"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="169"/>
       <c r="C38" s="161">
         <v>3170285574</v>
@@ -6406,12 +6406,12 @@
         <v>33</v>
       </c>
       <c r="N38" s="38"/>
-      <c r="O38" s="205" t="s">
+      <c r="O38" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="170"/>
+      <c r="A39" s="173"/>
       <c r="B39" s="169"/>
       <c r="C39" s="161">
         <v>3279662973</v>
@@ -6445,12 +6445,12 @@
         <v>8</v>
       </c>
       <c r="N39" s="38"/>
-      <c r="O39" s="205" t="s">
+      <c r="O39" s="171" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="170"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="169"/>
       <c r="C40" s="160">
         <v>2937138060</v>
@@ -6484,12 +6484,12 @@
         <v>8</v>
       </c>
       <c r="N40" s="5"/>
-      <c r="O40" s="205" t="s">
+      <c r="O40" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="170" t="s">
+      <c r="A41" s="173" t="s">
         <v>676</v>
       </c>
       <c r="C41" s="161">
@@ -6526,12 +6526,12 @@
       <c r="N41" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="205" t="s">
+      <c r="O41" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="170"/>
+      <c r="A42" s="173"/>
       <c r="C42" s="161">
         <v>3114410963</v>
       </c>
@@ -6562,12 +6562,12 @@
         <v>33</v>
       </c>
       <c r="N42" s="5"/>
-      <c r="O42" s="205" t="s">
+      <c r="O42" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="170"/>
+      <c r="A43" s="173"/>
       <c r="C43" s="160">
         <v>1866298408</v>
       </c>
@@ -6600,12 +6600,12 @@
       <c r="N43" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O43" s="205" t="s">
+      <c r="O43" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="170"/>
+      <c r="A44" s="173"/>
       <c r="C44" s="161">
         <v>2874589934</v>
       </c>
@@ -6638,12 +6638,12 @@
       <c r="N44" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="205" t="s">
+      <c r="O44" s="171" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="173" t="s">
         <v>677</v>
       </c>
       <c r="C45" s="161">
@@ -6666,12 +6666,12 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
-      <c r="O45" s="205" t="s">
+      <c r="O45" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="170"/>
+      <c r="A46" s="173"/>
       <c r="C46" s="161">
         <v>1710977250</v>
       </c>
@@ -6694,12 +6694,12 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
-      <c r="O46" s="205" t="s">
+      <c r="O46" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="170"/>
+      <c r="A47" s="173"/>
       <c r="C47" s="161">
         <v>2895049000</v>
       </c>
@@ -6722,12 +6722,12 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
-      <c r="O47" s="205" t="s">
+      <c r="O47" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="170" t="s">
+      <c r="A48" s="173" t="s">
         <v>678</v>
       </c>
       <c r="C48" s="161">
@@ -6762,12 +6762,12 @@
       <c r="N48" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O48" s="205" t="s">
+      <c r="O48" s="171" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="170"/>
+      <c r="A49" s="173"/>
       <c r="C49" s="161">
         <v>2472500243</v>
       </c>
@@ -6800,12 +6800,12 @@
       <c r="N49" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="205" t="s">
+      <c r="O49" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="170"/>
+      <c r="A50" s="173"/>
       <c r="C50" s="161">
         <v>1832448183</v>
       </c>
@@ -6832,12 +6832,12 @@
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
-      <c r="O50" s="205" t="s">
+      <c r="O50" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="170"/>
+      <c r="A51" s="173"/>
       <c r="C51" s="161">
         <v>1895432270</v>
       </c>
@@ -6868,12 +6868,12 @@
       <c r="N51" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O51" s="205" t="s">
+      <c r="O51" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="170"/>
+      <c r="A52" s="173"/>
       <c r="C52" s="161">
         <v>2912241382</v>
       </c>
@@ -6904,12 +6904,12 @@
       <c r="N52" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="205" t="s">
+      <c r="O52" s="171" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="170" t="s">
+      <c r="A53" s="173" t="s">
         <v>668</v>
       </c>
       <c r="C53" s="161">
@@ -6944,12 +6944,12 @@
       <c r="N53" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O53" s="205" t="s">
+      <c r="O53" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="170"/>
+      <c r="A54" s="173"/>
       <c r="C54" s="161">
         <v>3043440124</v>
       </c>
@@ -6982,12 +6982,12 @@
       <c r="N54" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O54" s="205" t="s">
+      <c r="O54" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="170"/>
+      <c r="A55" s="173"/>
       <c r="C55" s="160">
         <v>2550932214</v>
       </c>
@@ -7020,12 +7020,12 @@
       <c r="N55" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O55" s="205" t="s">
+      <c r="O55" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="170"/>
+      <c r="A56" s="173"/>
       <c r="C56" s="161">
         <v>3321340470</v>
       </c>
@@ -7060,12 +7060,12 @@
       <c r="N56" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O56" s="205" t="s">
+      <c r="O56" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="170" t="s">
+      <c r="A57" s="173" t="s">
         <v>674</v>
       </c>
       <c r="C57" s="160">
@@ -7100,12 +7100,12 @@
       <c r="N57" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="205" t="s">
+      <c r="O57" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="170"/>
+      <c r="A58" s="173"/>
       <c r="C58" s="160">
         <v>2793619401</v>
       </c>
@@ -7140,12 +7140,12 @@
       <c r="N58" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O58" s="205" t="s">
+      <c r="O58" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="170"/>
+      <c r="A59" s="173"/>
       <c r="C59" s="161">
         <v>2924719512</v>
       </c>
@@ -7178,12 +7178,12 @@
       <c r="N59" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O59" s="205" t="s">
+      <c r="O59" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="170"/>
+      <c r="A60" s="173"/>
       <c r="C60" s="161">
         <v>2810260908</v>
       </c>
@@ -7216,12 +7216,12 @@
       <c r="N60" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O60" s="205" t="s">
+      <c r="O60" s="171" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="170"/>
+      <c r="A61" s="173"/>
       <c r="C61" s="161">
         <v>2877877368</v>
       </c>
@@ -7254,12 +7254,12 @@
       <c r="N61" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O61" s="205" t="s">
+      <c r="O61" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="170"/>
+      <c r="A62" s="173"/>
       <c r="C62" s="161">
         <v>2857994912</v>
       </c>
@@ -7292,12 +7292,12 @@
       <c r="N62" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O62" s="205" t="s">
+      <c r="O62" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="170"/>
+      <c r="A63" s="173"/>
       <c r="C63" s="161">
         <v>2817606510</v>
       </c>
@@ -7330,12 +7330,12 @@
       <c r="N63" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O63" s="205" t="s">
+      <c r="O63" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="170"/>
+      <c r="A64" s="173"/>
       <c r="C64" s="161">
         <v>2884638645</v>
       </c>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="M64" s="91"/>
       <c r="N64" s="5"/>
-      <c r="O64" s="205" t="s">
+      <c r="O64" s="171" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="170"/>
+      <c r="A65" s="173"/>
       <c r="C65" s="160">
         <v>2521460498</v>
       </c>
@@ -7402,12 +7402,12 @@
       <c r="N65" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O65" s="205" t="s">
+      <c r="O65" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="170"/>
+      <c r="A66" s="173"/>
       <c r="C66" s="160">
         <v>2903112334</v>
       </c>
@@ -7442,12 +7442,12 @@
       <c r="N66" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O66" s="205" t="s">
+      <c r="O66" s="171" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="170"/>
+      <c r="A67" s="173"/>
       <c r="C67" s="160">
         <v>2833363308</v>
       </c>
@@ -7480,12 +7480,12 @@
       <c r="N67" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O67" s="205" t="s">
+      <c r="O67" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="170"/>
+      <c r="A68" s="173"/>
       <c r="C68" s="161">
         <v>2521678241</v>
       </c>
@@ -7518,14 +7518,14 @@
       <c r="N68" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O68" s="205" t="s">
+      <c r="O68" s="171" t="s">
         <v>681</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="170"/>
+      <c r="A69" s="173"/>
       <c r="C69" s="161">
         <v>2895460678</v>
       </c>
@@ -7558,12 +7558,12 @@
       <c r="N69" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="O69" s="205" t="s">
+      <c r="O69" s="171" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="170"/>
+      <c r="A70" s="173"/>
       <c r="C70" s="161">
         <v>2985895498</v>
       </c>
@@ -7596,12 +7596,12 @@
       <c r="N70" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O70" s="205" t="s">
+      <c r="O70" s="171" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="170"/>
+      <c r="A71" s="173"/>
       <c r="C71" s="161">
         <v>2224593910</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="N71" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O71" s="205" t="s">
+      <c r="O71" s="171" t="s">
         <v>681</v>
       </c>
     </row>
@@ -8157,18 +8157,18 @@
     <sortCondition ref="B2:B98"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A21:A40"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A21:A40"/>
-    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8212,25 +8212,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -8245,19 +8245,19 @@
       <c r="F4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -8308,10 +8308,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="199" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8373,8 +8373,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="177"/>
-      <c r="B7" s="180"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="60" t="s">
         <v>42</v>
       </c>
@@ -8425,8 +8425,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177"/>
-      <c r="B8" s="180"/>
+      <c r="A8" s="197"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
@@ -8475,8 +8475,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177"/>
-      <c r="B9" s="180"/>
+      <c r="A9" s="197"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="60" t="s">
         <v>283</v>
       </c>
@@ -8527,8 +8527,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
-      <c r="B10" s="180"/>
+      <c r="A10" s="197"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8577,8 +8577,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
-      <c r="B11" s="180"/>
+      <c r="A11" s="197"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8629,8 +8629,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="177"/>
-      <c r="B12" s="180"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="60" t="s">
         <v>44</v>
       </c>
@@ -8676,8 +8676,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="177"/>
-      <c r="B13" s="180"/>
+      <c r="A13" s="197"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="60" t="s">
         <v>637</v>
       </c>
@@ -8711,8 +8711,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="177"/>
-      <c r="B14" s="180"/>
+      <c r="A14" s="197"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
@@ -8758,8 +8758,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="177"/>
-      <c r="B15" s="180"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="60" t="s">
         <v>74</v>
       </c>
@@ -8805,8 +8805,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
-      <c r="B16" s="180"/>
+      <c r="A16" s="197"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="60" t="s">
         <v>46</v>
       </c>
@@ -8850,8 +8850,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="177"/>
-      <c r="B17" s="180"/>
+      <c r="A17" s="197"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="60" t="s">
         <v>47</v>
       </c>
@@ -8895,8 +8895,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="177"/>
-      <c r="B18" s="180"/>
+      <c r="A18" s="197"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="60" t="s">
         <v>48</v>
       </c>
@@ -8940,8 +8940,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
-      <c r="B19" s="180"/>
+      <c r="A19" s="197"/>
+      <c r="B19" s="176"/>
       <c r="C19" s="60" t="s">
         <v>346</v>
       </c>
@@ -8987,8 +8987,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
-      <c r="B20" s="181"/>
+      <c r="A20" s="197"/>
+      <c r="B20" s="200"/>
       <c r="C20" s="61" t="s">
         <v>50</v>
       </c>
@@ -9030,8 +9030,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
-      <c r="B21" s="174" t="s">
+      <c r="A21" s="197"/>
+      <c r="B21" s="196" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -9082,8 +9082,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
-      <c r="B22" s="175"/>
+      <c r="A22" s="197"/>
+      <c r="B22" s="183"/>
       <c r="C22" s="61" t="s">
         <v>233</v>
       </c>
@@ -9127,8 +9127,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="177"/>
-      <c r="B23" s="175"/>
+      <c r="A23" s="197"/>
+      <c r="B23" s="183"/>
       <c r="C23" s="60" t="s">
         <v>45</v>
       </c>
@@ -9172,8 +9172,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
-      <c r="B24" s="175"/>
+      <c r="A24" s="197"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="60" t="s">
         <v>120</v>
       </c>
@@ -9219,8 +9219,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="175"/>
+      <c r="A25" s="197"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="60" t="s">
         <v>235</v>
       </c>
@@ -9268,8 +9268,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
-      <c r="B26" s="175"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="183"/>
       <c r="C26" s="60" t="s">
         <v>350</v>
       </c>
@@ -9313,8 +9313,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="177"/>
-      <c r="B27" s="175"/>
+      <c r="A27" s="197"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="60" t="s">
         <v>119</v>
       </c>
@@ -9358,8 +9358,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
-      <c r="B28" s="175"/>
+      <c r="A28" s="197"/>
+      <c r="B28" s="183"/>
       <c r="C28" s="60" t="s">
         <v>465</v>
       </c>
@@ -9403,8 +9403,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="177"/>
-      <c r="B29" s="175"/>
+      <c r="A29" s="197"/>
+      <c r="B29" s="183"/>
       <c r="C29" s="60" t="s">
         <v>385</v>
       </c>
@@ -9450,8 +9450,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="177"/>
-      <c r="B30" s="175"/>
+      <c r="A30" s="197"/>
+      <c r="B30" s="183"/>
       <c r="C30" s="60" t="s">
         <v>238</v>
       </c>
@@ -9498,8 +9498,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="177"/>
-      <c r="B31" s="175"/>
+      <c r="A31" s="197"/>
+      <c r="B31" s="183"/>
       <c r="C31" s="60" t="s">
         <v>351</v>
       </c>
@@ -9545,8 +9545,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177"/>
-      <c r="B32" s="175"/>
+      <c r="A32" s="197"/>
+      <c r="B32" s="183"/>
       <c r="C32" s="60" t="s">
         <v>216</v>
       </c>
@@ -9593,8 +9593,8 @@
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="177"/>
-      <c r="B33" s="175"/>
+      <c r="A33" s="197"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="60" t="s">
         <v>242</v>
       </c>
@@ -9640,8 +9640,8 @@
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="177"/>
-      <c r="B34" s="175"/>
+      <c r="A34" s="197"/>
+      <c r="B34" s="183"/>
       <c r="C34" s="60" t="s">
         <v>375</v>
       </c>
@@ -9685,8 +9685,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="177"/>
-      <c r="B35" s="175"/>
+      <c r="A35" s="197"/>
+      <c r="B35" s="183"/>
       <c r="C35" s="60" t="s">
         <v>388</v>
       </c>
@@ -9730,8 +9730,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="177"/>
-      <c r="B36" s="176"/>
+      <c r="A36" s="197"/>
+      <c r="B36" s="188"/>
       <c r="C36" s="65" t="s">
         <v>234</v>
       </c>
@@ -9775,10 +9775,10 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="187" t="s">
+      <c r="A37" s="204" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="182" t="s">
+      <c r="B37" s="175" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="62" t="s">
@@ -9823,8 +9823,8 @@
       <c r="T37" s="33"/>
     </row>
     <row r="38" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="188"/>
-      <c r="B38" s="180"/>
+      <c r="A38" s="205"/>
+      <c r="B38" s="176"/>
       <c r="C38" s="60" t="s">
         <v>107</v>
       </c>
@@ -9866,8 +9866,8 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="188"/>
-      <c r="B39" s="180"/>
+      <c r="A39" s="205"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="60" t="s">
         <v>108</v>
       </c>
@@ -9910,8 +9910,8 @@
       <c r="T39" s="23"/>
     </row>
     <row r="40" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="188"/>
-      <c r="B40" s="180"/>
+      <c r="A40" s="205"/>
+      <c r="B40" s="176"/>
       <c r="C40" s="61" t="s">
         <v>109</v>
       </c>
@@ -9959,8 +9959,8 @@
       <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="188"/>
-      <c r="B41" s="185" t="s">
+      <c r="A41" s="205"/>
+      <c r="B41" s="182" t="s">
         <v>193</v>
       </c>
       <c r="C41" s="63" t="s">
@@ -10006,8 +10006,8 @@
       <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="188"/>
-      <c r="B42" s="175"/>
+      <c r="A42" s="205"/>
+      <c r="B42" s="183"/>
       <c r="C42" s="60" t="s">
         <v>218</v>
       </c>
@@ -10049,8 +10049,8 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="188"/>
-      <c r="B43" s="175"/>
+      <c r="A43" s="205"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="60" t="s">
         <v>258</v>
       </c>
@@ -10092,8 +10092,8 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="188"/>
-      <c r="B44" s="175"/>
+      <c r="A44" s="205"/>
+      <c r="B44" s="183"/>
       <c r="C44" s="60" t="s">
         <v>219</v>
       </c>
@@ -10135,8 +10135,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="188"/>
-      <c r="B45" s="175"/>
+      <c r="A45" s="205"/>
+      <c r="B45" s="183"/>
       <c r="C45" s="60" t="s">
         <v>490</v>
       </c>
@@ -10181,8 +10181,8 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="188"/>
-      <c r="B46" s="175"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="183"/>
       <c r="C46" s="60" t="s">
         <v>413</v>
       </c>
@@ -10224,8 +10224,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="188"/>
-      <c r="B47" s="175"/>
+      <c r="A47" s="205"/>
+      <c r="B47" s="183"/>
       <c r="C47" s="60" t="s">
         <v>410</v>
       </c>
@@ -10267,8 +10267,8 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="188"/>
-      <c r="B48" s="175"/>
+      <c r="A48" s="205"/>
+      <c r="B48" s="183"/>
       <c r="C48" s="60" t="s">
         <v>408</v>
       </c>
@@ -10314,8 +10314,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="188"/>
-      <c r="B49" s="175"/>
+      <c r="A49" s="205"/>
+      <c r="B49" s="183"/>
       <c r="C49" s="60" t="s">
         <v>257</v>
       </c>
@@ -10359,8 +10359,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="189"/>
-      <c r="B50" s="176"/>
+      <c r="A50" s="206"/>
+      <c r="B50" s="188"/>
       <c r="C50" s="65" t="s">
         <v>531</v>
       </c>
@@ -10404,10 +10404,10 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="191" t="s">
+      <c r="A51" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="182" t="s">
+      <c r="B51" s="175" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -10454,8 +10454,8 @@
       <c r="T51" s="33"/>
     </row>
     <row r="52" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="192"/>
-      <c r="B52" s="180"/>
+      <c r="A52" s="178"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="60" t="s">
         <v>66</v>
       </c>
@@ -10501,8 +10501,8 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="192"/>
-      <c r="B53" s="180"/>
+      <c r="A53" s="178"/>
+      <c r="B53" s="176"/>
       <c r="C53" s="60" t="s">
         <v>67</v>
       </c>
@@ -10548,8 +10548,8 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="192"/>
-      <c r="B54" s="180"/>
+      <c r="A54" s="178"/>
+      <c r="B54" s="176"/>
       <c r="C54" s="61" t="s">
         <v>68</v>
       </c>
@@ -10595,8 +10595,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="192"/>
-      <c r="B55" s="180"/>
+      <c r="A55" s="178"/>
+      <c r="B55" s="176"/>
       <c r="C55" s="65" t="s">
         <v>604</v>
       </c>
@@ -10640,8 +10640,8 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="192"/>
-      <c r="B56" s="185" t="s">
+      <c r="A56" s="178"/>
+      <c r="B56" s="182" t="s">
         <v>193</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -10687,8 +10687,8 @@
       <c r="S56" s="57"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="192"/>
-      <c r="B57" s="175"/>
+      <c r="A57" s="178"/>
+      <c r="B57" s="183"/>
       <c r="C57" s="60" t="s">
         <v>209</v>
       </c>
@@ -10734,8 +10734,8 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="192"/>
-      <c r="B58" s="175"/>
+      <c r="A58" s="178"/>
+      <c r="B58" s="183"/>
       <c r="C58" s="60" t="s">
         <v>202</v>
       </c>
@@ -10779,8 +10779,8 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="192"/>
-      <c r="B59" s="175"/>
+      <c r="A59" s="178"/>
+      <c r="B59" s="183"/>
       <c r="C59" s="60" t="s">
         <v>197</v>
       </c>
@@ -10826,8 +10826,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="192"/>
-      <c r="B60" s="175"/>
+      <c r="A60" s="178"/>
+      <c r="B60" s="183"/>
       <c r="C60" s="60" t="s">
         <v>198</v>
       </c>
@@ -10873,8 +10873,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="192"/>
-      <c r="B61" s="175"/>
+      <c r="A61" s="178"/>
+      <c r="B61" s="183"/>
       <c r="C61" s="60" t="s">
         <v>91</v>
       </c>
@@ -10918,8 +10918,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="192"/>
-      <c r="B62" s="175"/>
+      <c r="A62" s="178"/>
+      <c r="B62" s="183"/>
       <c r="C62" s="60" t="s">
         <v>415</v>
       </c>
@@ -10963,8 +10963,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="192"/>
-      <c r="B63" s="175"/>
+      <c r="A63" s="178"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="60" t="s">
         <v>199</v>
       </c>
@@ -11010,8 +11010,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="192"/>
-      <c r="B64" s="175"/>
+      <c r="A64" s="178"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="60" t="s">
         <v>429</v>
       </c>
@@ -11057,8 +11057,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="192"/>
-      <c r="B65" s="175"/>
+      <c r="A65" s="178"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="60" t="s">
         <v>377</v>
       </c>
@@ -11103,8 +11103,8 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="192"/>
-      <c r="B66" s="175"/>
+      <c r="A66" s="178"/>
+      <c r="B66" s="183"/>
       <c r="C66" s="60" t="s">
         <v>394</v>
       </c>
@@ -11150,8 +11150,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="192"/>
-      <c r="B67" s="175"/>
+      <c r="A67" s="178"/>
+      <c r="B67" s="183"/>
       <c r="C67" s="60" t="s">
         <v>254</v>
       </c>
@@ -11198,8 +11198,8 @@
       <c r="T67" s="23"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="192"/>
-      <c r="B68" s="175"/>
+      <c r="A68" s="178"/>
+      <c r="B68" s="183"/>
       <c r="C68" s="60" t="s">
         <v>432</v>
       </c>
@@ -11243,8 +11243,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="192"/>
-      <c r="B69" s="175"/>
+      <c r="A69" s="178"/>
+      <c r="B69" s="183"/>
       <c r="C69" s="61" t="s">
         <v>203</v>
       </c>
@@ -11289,10 +11289,10 @@
       <c r="T69" s="28"/>
     </row>
     <row r="70" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="201" t="s">
+      <c r="A70" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="200"/>
+      <c r="B70" s="189"/>
       <c r="C70" s="62" t="s">
         <v>79</v>
       </c>
@@ -11339,8 +11339,8 @@
       <c r="T70" s="33"/>
     </row>
     <row r="71" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="202"/>
-      <c r="B71" s="180"/>
+      <c r="A71" s="191"/>
+      <c r="B71" s="176"/>
       <c r="C71" s="60" t="s">
         <v>80</v>
       </c>
@@ -11386,8 +11386,8 @@
       <c r="S71" s="26"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="202"/>
-      <c r="B72" s="180"/>
+      <c r="A72" s="191"/>
+      <c r="B72" s="176"/>
       <c r="C72" s="60" t="s">
         <v>81</v>
       </c>
@@ -11435,8 +11435,8 @@
       <c r="S72" s="26"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="202"/>
-      <c r="B73" s="180"/>
+      <c r="A73" s="191"/>
+      <c r="B73" s="176"/>
       <c r="C73" s="60" t="s">
         <v>82</v>
       </c>
@@ -11482,8 +11482,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="202"/>
-      <c r="B74" s="180"/>
+      <c r="A74" s="191"/>
+      <c r="B74" s="176"/>
       <c r="C74" s="60" t="s">
         <v>83</v>
       </c>
@@ -11531,8 +11531,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="202"/>
-      <c r="B75" s="180"/>
+      <c r="A75" s="191"/>
+      <c r="B75" s="176"/>
       <c r="C75" s="60" t="s">
         <v>84</v>
       </c>
@@ -11578,8 +11578,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="202"/>
-      <c r="B76" s="180"/>
+      <c r="A76" s="191"/>
+      <c r="B76" s="176"/>
       <c r="C76" s="60" t="s">
         <v>85</v>
       </c>
@@ -11623,8 +11623,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="202"/>
-      <c r="B77" s="180"/>
+      <c r="A77" s="191"/>
+      <c r="B77" s="176"/>
       <c r="C77" s="60" t="s">
         <v>86</v>
       </c>
@@ -11670,8 +11670,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="202"/>
-      <c r="B78" s="180"/>
+      <c r="A78" s="191"/>
+      <c r="B78" s="176"/>
       <c r="C78" s="60" t="s">
         <v>87</v>
       </c>
@@ -11719,8 +11719,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="202"/>
-      <c r="B79" s="180"/>
+      <c r="A79" s="191"/>
+      <c r="B79" s="176"/>
       <c r="C79" s="60" t="s">
         <v>225</v>
       </c>
@@ -11766,8 +11766,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="202"/>
-      <c r="B80" s="199"/>
+      <c r="A80" s="191"/>
+      <c r="B80" s="187"/>
       <c r="C80" s="61" t="s">
         <v>90</v>
       </c>
@@ -11813,8 +11813,8 @@
       <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="202"/>
-      <c r="B81" s="175" t="s">
+      <c r="A81" s="191"/>
+      <c r="B81" s="183" t="s">
         <v>193</v>
       </c>
       <c r="C81" s="63" t="s">
@@ -11858,8 +11858,8 @@
       <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="202"/>
-      <c r="B82" s="175"/>
+      <c r="A82" s="191"/>
+      <c r="B82" s="183"/>
       <c r="C82" s="60" t="s">
         <v>213</v>
       </c>
@@ -11905,8 +11905,8 @@
       <c r="S82" s="26"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="202"/>
-      <c r="B83" s="175"/>
+      <c r="A83" s="191"/>
+      <c r="B83" s="183"/>
       <c r="C83" s="60" t="s">
         <v>427</v>
       </c>
@@ -11950,8 +11950,8 @@
       <c r="S83" s="26"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="202"/>
-      <c r="B84" s="175"/>
+      <c r="A84" s="191"/>
+      <c r="B84" s="183"/>
       <c r="C84" s="60" t="s">
         <v>295</v>
       </c>
@@ -11995,8 +11995,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="202"/>
-      <c r="B85" s="175"/>
+      <c r="A85" s="191"/>
+      <c r="B85" s="183"/>
       <c r="C85" s="60" t="s">
         <v>368</v>
       </c>
@@ -12040,8 +12040,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="202"/>
-      <c r="B86" s="175"/>
+      <c r="A86" s="191"/>
+      <c r="B86" s="183"/>
       <c r="C86" s="60" t="s">
         <v>221</v>
       </c>
@@ -12085,8 +12085,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="202"/>
-      <c r="B87" s="175"/>
+      <c r="A87" s="191"/>
+      <c r="B87" s="183"/>
       <c r="C87" s="60" t="s">
         <v>322</v>
       </c>
@@ -12132,8 +12132,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="202"/>
-      <c r="B88" s="175"/>
+      <c r="A88" s="191"/>
+      <c r="B88" s="183"/>
       <c r="C88" s="61" t="s">
         <v>249</v>
       </c>
@@ -12177,8 +12177,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="202"/>
-      <c r="B89" s="175"/>
+      <c r="A89" s="191"/>
+      <c r="B89" s="183"/>
       <c r="C89" s="60" t="s">
         <v>404</v>
       </c>
@@ -12219,8 +12219,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="202"/>
-      <c r="B90" s="175"/>
+      <c r="A90" s="191"/>
+      <c r="B90" s="183"/>
       <c r="C90" s="60" t="s">
         <v>370</v>
       </c>
@@ -12262,8 +12262,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="202"/>
-      <c r="B91" s="175"/>
+      <c r="A91" s="191"/>
+      <c r="B91" s="183"/>
       <c r="C91" s="60" t="s">
         <v>357</v>
       </c>
@@ -12309,8 +12309,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="202"/>
-      <c r="B92" s="175"/>
+      <c r="A92" s="191"/>
+      <c r="B92" s="183"/>
       <c r="C92" s="60" t="s">
         <v>353</v>
       </c>
@@ -12356,8 +12356,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="202"/>
-      <c r="B93" s="175"/>
+      <c r="A93" s="191"/>
+      <c r="B93" s="183"/>
       <c r="C93" s="60" t="s">
         <v>212</v>
       </c>
@@ -12400,8 +12400,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="202"/>
-      <c r="B94" s="175"/>
+      <c r="A94" s="191"/>
+      <c r="B94" s="183"/>
       <c r="C94" s="60" t="s">
         <v>373</v>
       </c>
@@ -12445,8 +12445,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="202"/>
-      <c r="B95" s="175"/>
+      <c r="A95" s="191"/>
+      <c r="B95" s="183"/>
       <c r="C95" s="60" t="s">
         <v>222</v>
       </c>
@@ -12490,8 +12490,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="202"/>
-      <c r="B96" s="175"/>
+      <c r="A96" s="191"/>
+      <c r="B96" s="183"/>
       <c r="C96" s="60" t="s">
         <v>247</v>
       </c>
@@ -12535,8 +12535,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="202"/>
-      <c r="B97" s="175"/>
+      <c r="A97" s="191"/>
+      <c r="B97" s="183"/>
       <c r="C97" s="60" t="s">
         <v>294</v>
       </c>
@@ -12580,8 +12580,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="202"/>
-      <c r="B98" s="175"/>
+      <c r="A98" s="191"/>
+      <c r="B98" s="183"/>
       <c r="C98" s="60" t="s">
         <v>224</v>
       </c>
@@ -12625,8 +12625,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="202"/>
-      <c r="B99" s="175"/>
+      <c r="A99" s="191"/>
+      <c r="B99" s="183"/>
       <c r="C99" s="60" t="s">
         <v>232</v>
       </c>
@@ -12665,8 +12665,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="202"/>
-      <c r="B100" s="175"/>
+      <c r="A100" s="191"/>
+      <c r="B100" s="183"/>
       <c r="C100" s="60" t="s">
         <v>223</v>
       </c>
@@ -12707,8 +12707,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="202"/>
-      <c r="B101" s="175"/>
+      <c r="A101" s="191"/>
+      <c r="B101" s="183"/>
       <c r="C101" s="65" t="s">
         <v>217</v>
       </c>
@@ -12754,8 +12754,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="202"/>
-      <c r="B102" s="175"/>
+      <c r="A102" s="191"/>
+      <c r="B102" s="183"/>
       <c r="C102" s="60" t="s">
         <v>214</v>
       </c>
@@ -12797,8 +12797,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="202"/>
-      <c r="B103" s="175"/>
+      <c r="A103" s="191"/>
+      <c r="B103" s="183"/>
       <c r="C103" s="60" t="s">
         <v>215</v>
       </c>
@@ -12842,8 +12842,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="202"/>
-      <c r="B104" s="175"/>
+      <c r="A104" s="191"/>
+      <c r="B104" s="183"/>
       <c r="C104" s="60" t="s">
         <v>359</v>
       </c>
@@ -12884,8 +12884,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="202"/>
-      <c r="B105" s="175"/>
+      <c r="A105" s="191"/>
+      <c r="B105" s="183"/>
       <c r="C105" s="60" t="s">
         <v>231</v>
       </c>
@@ -12926,8 +12926,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="202"/>
-      <c r="B106" s="175"/>
+      <c r="A106" s="191"/>
+      <c r="B106" s="183"/>
       <c r="C106" s="60" t="s">
         <v>206</v>
       </c>
@@ -12969,8 +12969,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="202"/>
-      <c r="B107" s="175"/>
+      <c r="A107" s="191"/>
+      <c r="B107" s="183"/>
       <c r="C107" s="60" t="s">
         <v>207</v>
       </c>
@@ -13012,8 +13012,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="202"/>
-      <c r="B108" s="175"/>
+      <c r="A108" s="191"/>
+      <c r="B108" s="183"/>
       <c r="C108" s="60" t="s">
         <v>502</v>
       </c>
@@ -13054,8 +13054,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="202"/>
-      <c r="B109" s="175"/>
+      <c r="A109" s="191"/>
+      <c r="B109" s="183"/>
       <c r="C109" s="60" t="s">
         <v>248</v>
       </c>
@@ -13096,8 +13096,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="202"/>
-      <c r="B110" s="175"/>
+      <c r="A110" s="191"/>
+      <c r="B110" s="183"/>
       <c r="C110" s="60" t="s">
         <v>251</v>
       </c>
@@ -13141,8 +13141,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="202"/>
-      <c r="B111" s="175"/>
+      <c r="A111" s="191"/>
+      <c r="B111" s="183"/>
       <c r="C111" s="60" t="s">
         <v>228</v>
       </c>
@@ -13188,8 +13188,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="202"/>
-      <c r="B112" s="175"/>
+      <c r="A112" s="191"/>
+      <c r="B112" s="183"/>
       <c r="C112" s="60" t="s">
         <v>229</v>
       </c>
@@ -13235,8 +13235,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="202"/>
-      <c r="B113" s="175"/>
+      <c r="A113" s="191"/>
+      <c r="B113" s="183"/>
       <c r="C113" s="65" t="s">
         <v>598</v>
       </c>
@@ -13263,8 +13263,8 @@
       <c r="T113" s="23"/>
     </row>
     <row r="114" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="202"/>
-      <c r="B114" s="175"/>
+      <c r="A114" s="191"/>
+      <c r="B114" s="183"/>
       <c r="C114" s="60" t="s">
         <v>325</v>
       </c>
@@ -13309,8 +13309,8 @@
       <c r="T114" s="23"/>
     </row>
     <row r="115" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="203"/>
-      <c r="B115" s="176"/>
+      <c r="A115" s="192"/>
+      <c r="B115" s="188"/>
       <c r="C115" s="61" t="s">
         <v>318</v>
       </c>
@@ -13363,10 +13363,10 @@
       <c r="T115" s="28"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="196" t="s">
+      <c r="A116" s="184" t="s">
         <v>500</v>
       </c>
-      <c r="B116" s="182" t="s">
+      <c r="B116" s="175" t="s">
         <v>51</v>
       </c>
       <c r="C116" s="62" t="s">
@@ -13411,8 +13411,8 @@
       <c r="T116" s="33"/>
     </row>
     <row r="117" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="197"/>
-      <c r="B117" s="180"/>
+      <c r="A117" s="185"/>
+      <c r="B117" s="176"/>
       <c r="C117" s="60" t="s">
         <v>92</v>
       </c>
@@ -13458,8 +13458,8 @@
       <c r="S117" s="26"/>
     </row>
     <row r="118" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="197"/>
-      <c r="B118" s="180"/>
+      <c r="A118" s="185"/>
+      <c r="B118" s="176"/>
       <c r="C118" s="60" t="s">
         <v>93</v>
       </c>
@@ -13505,8 +13505,8 @@
       <c r="S118" s="26"/>
     </row>
     <row r="119" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="197"/>
-      <c r="B119" s="180"/>
+      <c r="A119" s="185"/>
+      <c r="B119" s="176"/>
       <c r="C119" s="60" t="s">
         <v>104</v>
       </c>
@@ -13548,8 +13548,8 @@
       <c r="S119" s="26"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="197"/>
-      <c r="B120" s="180"/>
+      <c r="A120" s="185"/>
+      <c r="B120" s="176"/>
       <c r="C120" s="61" t="s">
         <v>94</v>
       </c>
@@ -13592,8 +13592,8 @@
       <c r="T120" s="28"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="197"/>
-      <c r="B121" s="180"/>
+      <c r="A121" s="185"/>
+      <c r="B121" s="176"/>
       <c r="C121" s="60" t="s">
         <v>179</v>
       </c>
@@ -13636,8 +13636,8 @@
       <c r="T121" s="28"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="197"/>
-      <c r="B122" s="180"/>
+      <c r="A122" s="185"/>
+      <c r="B122" s="176"/>
       <c r="C122" s="61" t="s">
         <v>116</v>
       </c>
@@ -13680,8 +13680,8 @@
       <c r="T122" s="28"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="197"/>
-      <c r="B123" s="180"/>
+      <c r="A123" s="185"/>
+      <c r="B123" s="176"/>
       <c r="C123" s="60" t="s">
         <v>96</v>
       </c>
@@ -13725,8 +13725,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="197"/>
-      <c r="B124" s="180"/>
+      <c r="A124" s="185"/>
+      <c r="B124" s="176"/>
       <c r="C124" s="60" t="s">
         <v>501</v>
       </c>
@@ -13770,8 +13770,8 @@
       <c r="S124" s="26"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="197"/>
-      <c r="B125" s="199"/>
+      <c r="A125" s="185"/>
+      <c r="B125" s="187"/>
       <c r="C125" s="60" t="s">
         <v>176</v>
       </c>
@@ -13813,8 +13813,8 @@
       <c r="S125" s="26"/>
     </row>
     <row r="126" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="197"/>
-      <c r="B126" s="185" t="s">
+      <c r="A126" s="185"/>
+      <c r="B126" s="182" t="s">
         <v>193</v>
       </c>
       <c r="C126" s="63" t="s">
@@ -13859,8 +13859,8 @@
       <c r="T126" s="23"/>
     </row>
     <row r="127" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="197"/>
-      <c r="B127" s="175"/>
+      <c r="A127" s="185"/>
+      <c r="B127" s="183"/>
       <c r="C127" s="60" t="s">
         <v>448</v>
       </c>
@@ -13901,8 +13901,8 @@
       <c r="T127" s="23"/>
     </row>
     <row r="128" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="197"/>
-      <c r="B128" s="175"/>
+      <c r="A128" s="185"/>
+      <c r="B128" s="183"/>
       <c r="C128" s="60" t="s">
         <v>451</v>
       </c>
@@ -13943,8 +13943,8 @@
       <c r="T128" s="23"/>
     </row>
     <row r="129" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="197"/>
-      <c r="B129" s="175"/>
+      <c r="A129" s="185"/>
+      <c r="B129" s="183"/>
       <c r="C129" s="61" t="s">
         <v>425</v>
       </c>
@@ -13987,8 +13987,8 @@
       <c r="T129" s="23"/>
     </row>
     <row r="130" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="197"/>
-      <c r="B130" s="175"/>
+      <c r="A130" s="185"/>
+      <c r="B130" s="183"/>
       <c r="C130" s="60" t="s">
         <v>230</v>
       </c>
@@ -14029,8 +14029,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="197"/>
-      <c r="B131" s="175"/>
+      <c r="A131" s="185"/>
+      <c r="B131" s="183"/>
       <c r="C131" s="60" t="s">
         <v>208</v>
       </c>
@@ -14071,8 +14071,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="198"/>
-      <c r="B132" s="175"/>
+      <c r="A132" s="186"/>
+      <c r="B132" s="183"/>
       <c r="C132" s="65" t="s">
         <v>624</v>
       </c>
@@ -14095,10 +14095,10 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="193" t="s">
+      <c r="A133" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="182" t="s">
+      <c r="B133" s="175" t="s">
         <v>51</v>
       </c>
       <c r="C133" s="62" t="s">
@@ -14141,8 +14141,8 @@
       <c r="T133" s="33"/>
     </row>
     <row r="134" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="194"/>
-      <c r="B134" s="180"/>
+      <c r="A134" s="180"/>
+      <c r="B134" s="176"/>
       <c r="C134" s="61" t="s">
         <v>95</v>
       </c>
@@ -14182,8 +14182,8 @@
       <c r="S134" s="31"/>
     </row>
     <row r="135" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="194"/>
-      <c r="B135" s="180"/>
+      <c r="A135" s="180"/>
+      <c r="B135" s="176"/>
       <c r="C135" s="65" t="s">
         <v>602</v>
       </c>
@@ -14226,8 +14226,8 @@
       <c r="T135" s="19"/>
     </row>
     <row r="136" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="194"/>
-      <c r="B136" s="180"/>
+      <c r="A136" s="180"/>
+      <c r="B136" s="176"/>
       <c r="C136" s="60" t="s">
         <v>115</v>
       </c>
@@ -14269,8 +14269,8 @@
       <c r="T136" s="19"/>
     </row>
     <row r="137" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="194"/>
-      <c r="B137" s="180"/>
+      <c r="A137" s="180"/>
+      <c r="B137" s="176"/>
       <c r="C137" s="60" t="s">
         <v>114</v>
       </c>
@@ -14312,8 +14312,8 @@
       <c r="T137" s="19"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="194"/>
-      <c r="B138" s="185" t="s">
+      <c r="A138" s="180"/>
+      <c r="B138" s="182" t="s">
         <v>193</v>
       </c>
       <c r="C138" s="63" t="s">
@@ -14355,8 +14355,8 @@
       <c r="S138" s="57"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="194"/>
-      <c r="B139" s="175"/>
+      <c r="A139" s="180"/>
+      <c r="B139" s="183"/>
       <c r="C139" s="60" t="s">
         <v>399</v>
       </c>
@@ -14395,8 +14395,8 @@
       <c r="S139" s="26"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="194"/>
-      <c r="B140" s="175"/>
+      <c r="A140" s="180"/>
+      <c r="B140" s="183"/>
       <c r="C140" s="60" t="s">
         <v>255</v>
       </c>
@@ -14436,8 +14436,8 @@
       <c r="S140" s="26"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="194"/>
-      <c r="B141" s="175"/>
+      <c r="A141" s="180"/>
+      <c r="B141" s="183"/>
       <c r="C141" s="65" t="s">
         <v>618</v>
       </c>
@@ -14471,8 +14471,8 @@
       <c r="S141" s="26"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="194"/>
-      <c r="B142" s="175"/>
+      <c r="A142" s="180"/>
+      <c r="B142" s="183"/>
       <c r="C142" s="60" t="s">
         <v>422</v>
       </c>
@@ -14512,8 +14512,8 @@
       <c r="S142" s="26"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="194"/>
-      <c r="B143" s="175"/>
+      <c r="A143" s="180"/>
+      <c r="B143" s="183"/>
       <c r="C143" s="60" t="s">
         <v>380</v>
       </c>
@@ -14553,8 +14553,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="194"/>
-      <c r="B144" s="175"/>
+      <c r="A144" s="180"/>
+      <c r="B144" s="183"/>
       <c r="C144" s="60" t="s">
         <v>439</v>
       </c>
@@ -14594,8 +14594,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="194"/>
-      <c r="B145" s="175"/>
+      <c r="A145" s="180"/>
+      <c r="B145" s="183"/>
       <c r="C145" s="60" t="s">
         <v>358</v>
       </c>
@@ -14635,8 +14635,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="194"/>
-      <c r="B146" s="175"/>
+      <c r="A146" s="180"/>
+      <c r="B146" s="183"/>
       <c r="C146" s="60" t="s">
         <v>226</v>
       </c>
@@ -14676,8 +14676,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="194"/>
-      <c r="B147" s="175"/>
+      <c r="A147" s="180"/>
+      <c r="B147" s="183"/>
       <c r="C147" s="60" t="s">
         <v>421</v>
       </c>
@@ -14717,8 +14717,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="194"/>
-      <c r="B148" s="175"/>
+      <c r="A148" s="180"/>
+      <c r="B148" s="183"/>
       <c r="C148" s="60" t="s">
         <v>396</v>
       </c>
@@ -14758,8 +14758,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="194"/>
-      <c r="B149" s="175"/>
+      <c r="A149" s="180"/>
+      <c r="B149" s="183"/>
       <c r="C149" s="60" t="s">
         <v>433</v>
       </c>
@@ -14799,8 +14799,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="194"/>
-      <c r="B150" s="175"/>
+      <c r="A150" s="180"/>
+      <c r="B150" s="183"/>
       <c r="C150" s="60" t="s">
         <v>406</v>
       </c>
@@ -14840,8 +14840,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="194"/>
-      <c r="B151" s="175"/>
+      <c r="A151" s="180"/>
+      <c r="B151" s="183"/>
       <c r="C151" s="65" t="s">
         <v>521</v>
       </c>
@@ -14881,8 +14881,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="194"/>
-      <c r="B152" s="175"/>
+      <c r="A152" s="180"/>
+      <c r="B152" s="183"/>
       <c r="C152" s="65" t="s">
         <v>256</v>
       </c>
@@ -14922,8 +14922,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="194"/>
-      <c r="B153" s="175"/>
+      <c r="A153" s="180"/>
+      <c r="B153" s="183"/>
       <c r="C153" s="65" t="s">
         <v>446</v>
       </c>
@@ -14963,8 +14963,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="194"/>
-      <c r="B154" s="175"/>
+      <c r="A154" s="180"/>
+      <c r="B154" s="183"/>
       <c r="C154" s="65" t="s">
         <v>435</v>
       </c>
@@ -15004,8 +15004,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="194"/>
-      <c r="B155" s="175"/>
+      <c r="A155" s="180"/>
+      <c r="B155" s="183"/>
       <c r="C155" s="65" t="s">
         <v>319</v>
       </c>
@@ -15047,8 +15047,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="194"/>
-      <c r="B156" s="175"/>
+      <c r="A156" s="180"/>
+      <c r="B156" s="183"/>
       <c r="C156" s="65" t="s">
         <v>366</v>
       </c>
@@ -15088,8 +15088,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="195"/>
-      <c r="B157" s="175"/>
+      <c r="A157" s="181"/>
+      <c r="B157" s="183"/>
       <c r="C157" s="65" t="s">
         <v>211</v>
       </c>
@@ -15129,10 +15129,10 @@
       <c r="S157" s="31"/>
     </row>
     <row r="158" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="183" t="s">
+      <c r="A158" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="B158" s="174" t="s">
+      <c r="B158" s="196" t="s">
         <v>193</v>
       </c>
       <c r="C158" s="62" t="s">
@@ -15176,8 +15176,8 @@
       <c r="S158" s="36"/>
     </row>
     <row r="159" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="183"/>
-      <c r="B159" s="175"/>
+      <c r="A159" s="201"/>
+      <c r="B159" s="183"/>
       <c r="C159" s="60" t="s">
         <v>362</v>
       </c>
@@ -15219,8 +15219,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="183"/>
-      <c r="B160" s="175"/>
+      <c r="A160" s="201"/>
+      <c r="B160" s="183"/>
       <c r="C160" s="60" t="s">
         <v>381</v>
       </c>
@@ -15262,8 +15262,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="183"/>
-      <c r="B161" s="175"/>
+      <c r="A161" s="201"/>
+      <c r="B161" s="183"/>
       <c r="C161" s="60" t="s">
         <v>392</v>
       </c>
@@ -15305,8 +15305,8 @@
       <c r="S161" s="26"/>
     </row>
     <row r="162" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="183"/>
-      <c r="B162" s="175"/>
+      <c r="A162" s="201"/>
+      <c r="B162" s="183"/>
       <c r="C162" s="60" t="s">
         <v>250</v>
       </c>
@@ -15346,8 +15346,8 @@
       <c r="S162" s="26"/>
     </row>
     <row r="163" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="183"/>
-      <c r="B163" s="175"/>
+      <c r="A163" s="201"/>
+      <c r="B163" s="183"/>
       <c r="C163" s="61" t="s">
         <v>401</v>
       </c>
@@ -15389,8 +15389,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="183"/>
-      <c r="B164" s="175"/>
+      <c r="A164" s="201"/>
+      <c r="B164" s="183"/>
       <c r="C164" s="60" t="s">
         <v>372</v>
       </c>
@@ -15430,8 +15430,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="183"/>
-      <c r="B165" s="176"/>
+      <c r="A165" s="201"/>
+      <c r="B165" s="188"/>
       <c r="C165" s="60" t="s">
         <v>402</v>
       </c>
@@ -15471,7 +15471,7 @@
       <c r="S165" s="31"/>
     </row>
     <row r="166" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="184" t="s">
+      <c r="A166" s="202" t="s">
         <v>535</v>
       </c>
       <c r="B166" s="72" t="s">
@@ -15514,8 +15514,8 @@
       <c r="S166" s="71"/>
     </row>
     <row r="167" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="184"/>
-      <c r="B167" s="185" t="s">
+      <c r="A167" s="202"/>
+      <c r="B167" s="182" t="s">
         <v>193</v>
       </c>
       <c r="C167" s="60" t="s">
@@ -15553,8 +15553,8 @@
       <c r="S167" s="57"/>
     </row>
     <row r="168" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="184"/>
-      <c r="B168" s="175"/>
+      <c r="A168" s="202"/>
+      <c r="B168" s="183"/>
       <c r="C168" s="60" t="s">
         <v>195</v>
       </c>
@@ -15589,8 +15589,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="184"/>
-      <c r="B169" s="175"/>
+      <c r="A169" s="202"/>
+      <c r="B169" s="183"/>
       <c r="C169" s="60" t="s">
         <v>259</v>
       </c>
@@ -15628,8 +15628,8 @@
       <c r="S169" s="26"/>
     </row>
     <row r="170" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="184"/>
-      <c r="B170" s="175"/>
+      <c r="A170" s="202"/>
+      <c r="B170" s="183"/>
       <c r="C170" s="60" t="s">
         <v>417</v>
       </c>
@@ -15666,8 +15666,8 @@
       <c r="S170" s="26"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="184"/>
-      <c r="B171" s="186"/>
+      <c r="A171" s="202"/>
+      <c r="B171" s="203"/>
       <c r="C171" s="60" t="s">
         <v>418</v>
       </c>
@@ -15705,10 +15705,10 @@
       <c r="S171" s="26"/>
     </row>
     <row r="172" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="173" t="s">
+      <c r="A172" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="B172" s="179" t="s">
+      <c r="B172" s="199" t="s">
         <v>51</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -15748,8 +15748,8 @@
       <c r="S172" s="36"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="173"/>
-      <c r="B173" s="180"/>
+      <c r="A173" s="195"/>
+      <c r="B173" s="176"/>
       <c r="C173" s="60" t="s">
         <v>184</v>
       </c>
@@ -15787,8 +15787,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="173"/>
-      <c r="B174" s="180"/>
+      <c r="A174" s="195"/>
+      <c r="B174" s="176"/>
       <c r="C174" s="60" t="s">
         <v>183</v>
       </c>
@@ -15826,8 +15826,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="173"/>
-      <c r="B175" s="180"/>
+      <c r="A175" s="195"/>
+      <c r="B175" s="176"/>
       <c r="C175" s="61" t="s">
         <v>185</v>
       </c>
@@ -15865,8 +15865,8 @@
       <c r="S175" s="31"/>
     </row>
     <row r="176" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="173"/>
-      <c r="B176" s="171" t="s">
+      <c r="A176" s="195"/>
+      <c r="B176" s="193" t="s">
         <v>193</v>
       </c>
       <c r="C176" s="63" t="s">
@@ -15900,8 +15900,8 @@
       <c r="S176" s="57"/>
     </row>
     <row r="177" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="173"/>
-      <c r="B177" s="172"/>
+      <c r="A177" s="195"/>
+      <c r="B177" s="194"/>
       <c r="C177" s="64"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
@@ -16630,18 +16630,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A69"/>
-    <mergeCell ref="A133:A157"/>
-    <mergeCell ref="B138:B157"/>
-    <mergeCell ref="A116:A132"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B81:B115"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="A70:A115"/>
-    <mergeCell ref="B133:B137"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="A172:A177"/>
     <mergeCell ref="B158:B165"/>
@@ -16657,6 +16645,18 @@
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="A37:A50"/>
     <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A69"/>
+    <mergeCell ref="A133:A157"/>
+    <mergeCell ref="B138:B157"/>
+    <mergeCell ref="A116:A132"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B81:B115"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="A70:A115"/>
+    <mergeCell ref="B133:B137"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E60990-D99C-48E0-A64C-036ADD52425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0883FA1-159E-4A59-89F0-3B7AF0A8E242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="15720" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -4104,14 +4104,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -4128,12 +4179,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4146,9 +4191,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4159,48 +4201,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -8237,18 +8237,18 @@
     <sortCondition ref="B2:B98"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A11:A15"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A57:A71"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A21:A40"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8259,8 +8259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8292,25 +8292,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -8325,19 +8325,19 @@
       <c r="F4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -8388,10 +8388,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="181" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8453,8 +8453,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="60" t="s">
         <v>42</v>
       </c>
@@ -8505,8 +8505,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
@@ -8555,8 +8555,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
-      <c r="B9" s="175"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="60" t="s">
         <v>281</v>
       </c>
@@ -8607,8 +8607,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
-      <c r="B10" s="175"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8657,8 +8657,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
-      <c r="B11" s="175"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8709,8 +8709,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
-      <c r="B12" s="175"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="182"/>
       <c r="C12" s="60" t="s">
         <v>44</v>
       </c>
@@ -8756,8 +8756,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="196"/>
-      <c r="B13" s="175"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="182"/>
       <c r="C13" s="60" t="s">
         <v>634</v>
       </c>
@@ -8791,8 +8791,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="196"/>
-      <c r="B14" s="175"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="182"/>
       <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
@@ -8838,8 +8838,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
-      <c r="B15" s="175"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="60" t="s">
         <v>74</v>
       </c>
@@ -8885,8 +8885,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
-      <c r="B16" s="175"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="60" t="s">
         <v>46</v>
       </c>
@@ -8930,8 +8930,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="175"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="60" t="s">
         <v>47</v>
       </c>
@@ -8975,8 +8975,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="175"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="182"/>
       <c r="C18" s="60" t="s">
         <v>48</v>
       </c>
@@ -9020,8 +9020,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196"/>
-      <c r="B19" s="175"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="60" t="s">
         <v>344</v>
       </c>
@@ -9067,8 +9067,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
-      <c r="B20" s="199"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="61" t="s">
         <v>50</v>
       </c>
@@ -9110,8 +9110,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
-      <c r="B21" s="195" t="s">
+      <c r="A21" s="179"/>
+      <c r="B21" s="176" t="s">
         <v>244</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -9162,8 +9162,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
-      <c r="B22" s="182"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="61" t="s">
         <v>231</v>
       </c>
@@ -9209,8 +9209,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
-      <c r="B23" s="182"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="60" t="s">
         <v>45</v>
       </c>
@@ -9254,8 +9254,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
-      <c r="B24" s="182"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="60" t="s">
         <v>120</v>
       </c>
@@ -9303,8 +9303,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
-      <c r="B25" s="182"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="60" t="s">
         <v>233</v>
       </c>
@@ -9354,8 +9354,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
-      <c r="B26" s="182"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="177"/>
       <c r="C26" s="60" t="s">
         <v>348</v>
       </c>
@@ -9401,8 +9401,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
-      <c r="B27" s="182"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="60" t="s">
         <v>119</v>
       </c>
@@ -9448,8 +9448,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
-      <c r="B28" s="182"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="177"/>
       <c r="C28" s="60" t="s">
         <v>462</v>
       </c>
@@ -9495,8 +9495,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
-      <c r="B29" s="182"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="60" t="s">
         <v>383</v>
       </c>
@@ -9542,8 +9542,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="196"/>
-      <c r="B30" s="182"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="177"/>
       <c r="C30" s="60" t="s">
         <v>236</v>
       </c>
@@ -9590,8 +9590,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="196"/>
-      <c r="B31" s="182"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="60" t="s">
         <v>349</v>
       </c>
@@ -9637,8 +9637,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
-      <c r="B32" s="182"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="60" t="s">
         <v>349</v>
       </c>
@@ -9684,8 +9684,8 @@
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="182"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="60" t="s">
         <v>215</v>
       </c>
@@ -9732,8 +9732,8 @@
       <c r="T33" s="23"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="196"/>
-      <c r="B34" s="182"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="60" t="s">
         <v>240</v>
       </c>
@@ -9779,8 +9779,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="196"/>
-      <c r="B35" s="182"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="60" t="s">
         <v>373</v>
       </c>
@@ -9824,8 +9824,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="196"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="60" t="s">
         <v>688</v>
       </c>
@@ -9857,8 +9857,8 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
-      <c r="B37" s="182"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="60" t="s">
         <v>385</v>
       </c>
@@ -9904,8 +9904,8 @@
       <c r="S37" s="26"/>
     </row>
     <row r="38" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="196"/>
-      <c r="B38" s="187"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="65" t="s">
         <v>232</v>
       </c>
@@ -9951,10 +9951,10 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="203" t="s">
+      <c r="A39" s="189" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="184" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="62" t="s">
@@ -9999,8 +9999,8 @@
       <c r="T39" s="33"/>
     </row>
     <row r="40" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="204"/>
-      <c r="B40" s="175"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="182"/>
       <c r="C40" s="60" t="s">
         <v>107</v>
       </c>
@@ -10042,8 +10042,8 @@
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="204"/>
-      <c r="B41" s="175"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="60" t="s">
         <v>108</v>
       </c>
@@ -10086,8 +10086,8 @@
       <c r="T41" s="23"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="204"/>
-      <c r="B42" s="175"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="182"/>
       <c r="C42" s="61" t="s">
         <v>109</v>
       </c>
@@ -10135,8 +10135,8 @@
       <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="204"/>
-      <c r="B43" s="181" t="s">
+      <c r="A43" s="190"/>
+      <c r="B43" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C43" s="63" t="s">
@@ -10184,8 +10184,8 @@
       <c r="S43" s="57"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="204"/>
-      <c r="B44" s="182"/>
+      <c r="A44" s="190"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="60" t="s">
         <v>217</v>
       </c>
@@ -10227,8 +10227,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="204"/>
-      <c r="B45" s="182"/>
+      <c r="A45" s="190"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="60" t="s">
         <v>256</v>
       </c>
@@ -10270,8 +10270,8 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="204"/>
-      <c r="B46" s="182"/>
+      <c r="A46" s="190"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="60" t="s">
         <v>218</v>
       </c>
@@ -10313,8 +10313,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="204"/>
-      <c r="B47" s="182"/>
+      <c r="A47" s="190"/>
+      <c r="B47" s="177"/>
       <c r="C47" s="60" t="s">
         <v>487</v>
       </c>
@@ -10361,8 +10361,8 @@
       <c r="T47" s="28"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="204"/>
-      <c r="B48" s="182"/>
+      <c r="A48" s="190"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="60" t="s">
         <v>410</v>
       </c>
@@ -10406,8 +10406,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="204"/>
-      <c r="B49" s="182"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="177"/>
       <c r="C49" s="60" t="s">
         <v>407</v>
       </c>
@@ -10451,8 +10451,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="204"/>
-      <c r="B50" s="182"/>
+      <c r="A50" s="190"/>
+      <c r="B50" s="177"/>
       <c r="C50" s="60" t="s">
         <v>405</v>
       </c>
@@ -10500,8 +10500,8 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="204"/>
-      <c r="B51" s="182"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="177"/>
       <c r="C51" s="60" t="s">
         <v>255</v>
       </c>
@@ -10547,8 +10547,8 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="205"/>
-      <c r="B52" s="187"/>
+      <c r="A52" s="191"/>
+      <c r="B52" s="178"/>
       <c r="C52" s="65" t="s">
         <v>528</v>
       </c>
@@ -10592,10 +10592,10 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="176" t="s">
+      <c r="A53" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="174" t="s">
+      <c r="B53" s="184" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="62" t="s">
@@ -10642,8 +10642,8 @@
       <c r="T53" s="33"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="177"/>
-      <c r="B54" s="175"/>
+      <c r="A54" s="194"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="60" t="s">
         <v>66</v>
       </c>
@@ -10689,8 +10689,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="177"/>
-      <c r="B55" s="175"/>
+      <c r="A55" s="194"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="60" t="s">
         <v>67</v>
       </c>
@@ -10736,8 +10736,8 @@
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="177"/>
-      <c r="B56" s="175"/>
+      <c r="A56" s="194"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="61" t="s">
         <v>68</v>
       </c>
@@ -10783,8 +10783,8 @@
       <c r="S56" s="26"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="177"/>
-      <c r="B57" s="175"/>
+      <c r="A57" s="194"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="65" t="s">
         <v>601</v>
       </c>
@@ -10828,8 +10828,8 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="177"/>
-      <c r="B58" s="181" t="s">
+      <c r="A58" s="194"/>
+      <c r="B58" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C58" s="63" t="s">
@@ -10877,8 +10877,8 @@
       <c r="S58" s="57"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="177"/>
-      <c r="B59" s="182"/>
+      <c r="A59" s="194"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="60" t="s">
         <v>208</v>
       </c>
@@ -10926,8 +10926,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="177"/>
-      <c r="B60" s="182"/>
+      <c r="A60" s="194"/>
+      <c r="B60" s="177"/>
       <c r="C60" s="60" t="s">
         <v>202</v>
       </c>
@@ -10971,8 +10971,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="177"/>
-      <c r="B61" s="182"/>
+      <c r="A61" s="194"/>
+      <c r="B61" s="177"/>
       <c r="C61" s="60" t="s">
         <v>197</v>
       </c>
@@ -11018,8 +11018,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="177"/>
-      <c r="B62" s="182"/>
+      <c r="A62" s="194"/>
+      <c r="B62" s="177"/>
       <c r="C62" s="60" t="s">
         <v>198</v>
       </c>
@@ -11065,8 +11065,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="177"/>
-      <c r="B63" s="182"/>
+      <c r="A63" s="194"/>
+      <c r="B63" s="177"/>
       <c r="C63" s="60" t="s">
         <v>91</v>
       </c>
@@ -11112,8 +11112,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="177"/>
-      <c r="B64" s="182"/>
+      <c r="A64" s="194"/>
+      <c r="B64" s="177"/>
       <c r="C64" s="60" t="s">
         <v>412</v>
       </c>
@@ -11159,8 +11159,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="177"/>
-      <c r="B65" s="182"/>
+      <c r="A65" s="194"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="60" t="s">
         <v>199</v>
       </c>
@@ -11208,8 +11208,8 @@
       <c r="S65" s="26"/>
     </row>
     <row r="66" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="177"/>
-      <c r="B66" s="182"/>
+      <c r="A66" s="194"/>
+      <c r="B66" s="177"/>
       <c r="C66" s="60" t="s">
         <v>426</v>
       </c>
@@ -11255,8 +11255,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="177"/>
-      <c r="B67" s="182"/>
+      <c r="A67" s="194"/>
+      <c r="B67" s="177"/>
       <c r="C67" s="60" t="s">
         <v>375</v>
       </c>
@@ -11303,8 +11303,8 @@
       <c r="T67" s="28"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="177"/>
-      <c r="B68" s="182"/>
+      <c r="A68" s="194"/>
+      <c r="B68" s="177"/>
       <c r="C68" s="60" t="s">
         <v>391</v>
       </c>
@@ -11352,8 +11352,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="177"/>
-      <c r="B69" s="182"/>
+      <c r="A69" s="194"/>
+      <c r="B69" s="177"/>
       <c r="C69" s="60" t="s">
         <v>252</v>
       </c>
@@ -11402,8 +11402,8 @@
       <c r="T69" s="23"/>
     </row>
     <row r="70" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="177"/>
-      <c r="B70" s="182"/>
+      <c r="A70" s="194"/>
+      <c r="B70" s="177"/>
       <c r="C70" s="60" t="s">
         <v>429</v>
       </c>
@@ -11449,8 +11449,8 @@
       <c r="S70" s="26"/>
     </row>
     <row r="71" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="177"/>
-      <c r="B71" s="182"/>
+      <c r="A71" s="194"/>
+      <c r="B71" s="177"/>
       <c r="C71" s="61" t="s">
         <v>203</v>
       </c>
@@ -11495,10 +11495,10 @@
       <c r="T71" s="28"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="189" t="s">
+      <c r="A72" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="188"/>
+      <c r="B72" s="202"/>
       <c r="C72" s="62" t="s">
         <v>79</v>
       </c>
@@ -11545,8 +11545,8 @@
       <c r="T72" s="33"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="190"/>
-      <c r="B73" s="175"/>
+      <c r="A73" s="204"/>
+      <c r="B73" s="182"/>
       <c r="C73" s="60" t="s">
         <v>80</v>
       </c>
@@ -11592,8 +11592,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="190"/>
-      <c r="B74" s="175"/>
+      <c r="A74" s="204"/>
+      <c r="B74" s="182"/>
       <c r="C74" s="60" t="s">
         <v>81</v>
       </c>
@@ -11641,8 +11641,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="190"/>
-      <c r="B75" s="175"/>
+      <c r="A75" s="204"/>
+      <c r="B75" s="182"/>
       <c r="C75" s="60" t="s">
         <v>82</v>
       </c>
@@ -11688,8 +11688,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="190"/>
-      <c r="B76" s="175"/>
+      <c r="A76" s="204"/>
+      <c r="B76" s="182"/>
       <c r="C76" s="60" t="s">
         <v>83</v>
       </c>
@@ -11737,8 +11737,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="190"/>
-      <c r="B77" s="175"/>
+      <c r="A77" s="204"/>
+      <c r="B77" s="182"/>
       <c r="C77" s="60" t="s">
         <v>84</v>
       </c>
@@ -11784,8 +11784,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="190"/>
-      <c r="B78" s="175"/>
+      <c r="A78" s="204"/>
+      <c r="B78" s="182"/>
       <c r="C78" s="60" t="s">
         <v>85</v>
       </c>
@@ -11829,8 +11829,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="190"/>
-      <c r="B79" s="175"/>
+      <c r="A79" s="204"/>
+      <c r="B79" s="182"/>
       <c r="C79" s="60" t="s">
         <v>86</v>
       </c>
@@ -11876,8 +11876,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="190"/>
-      <c r="B80" s="175"/>
+      <c r="A80" s="204"/>
+      <c r="B80" s="182"/>
       <c r="C80" s="60" t="s">
         <v>87</v>
       </c>
@@ -11925,8 +11925,8 @@
       <c r="S80" s="26"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="190"/>
-      <c r="B81" s="175"/>
+      <c r="A81" s="204"/>
+      <c r="B81" s="182"/>
       <c r="C81" s="60" t="s">
         <v>223</v>
       </c>
@@ -11972,8 +11972,8 @@
       <c r="S81" s="26"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="190"/>
-      <c r="B82" s="186"/>
+      <c r="A82" s="204"/>
+      <c r="B82" s="201"/>
       <c r="C82" s="61" t="s">
         <v>90</v>
       </c>
@@ -12019,8 +12019,8 @@
       <c r="S82" s="31"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="190"/>
-      <c r="B83" s="182" t="s">
+      <c r="A83" s="204"/>
+      <c r="B83" s="177" t="s">
         <v>193</v>
       </c>
       <c r="C83" s="63" t="s">
@@ -12068,8 +12068,8 @@
       <c r="S83" s="57"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="190"/>
-      <c r="B84" s="182"/>
+      <c r="A84" s="204"/>
+      <c r="B84" s="177"/>
       <c r="C84" s="60" t="s">
         <v>212</v>
       </c>
@@ -12115,8 +12115,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="190"/>
-      <c r="B85" s="182"/>
+      <c r="A85" s="204"/>
+      <c r="B85" s="177"/>
       <c r="C85" s="60" t="s">
         <v>424</v>
       </c>
@@ -12160,8 +12160,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="190"/>
-      <c r="B86" s="182"/>
+      <c r="A86" s="204"/>
+      <c r="B86" s="177"/>
       <c r="C86" s="60" t="s">
         <v>293</v>
       </c>
@@ -12207,8 +12207,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="190"/>
-      <c r="B87" s="182"/>
+      <c r="A87" s="204"/>
+      <c r="B87" s="177"/>
       <c r="C87" s="60" t="s">
         <v>366</v>
       </c>
@@ -12254,8 +12254,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="190"/>
-      <c r="B88" s="182"/>
+      <c r="A88" s="204"/>
+      <c r="B88" s="177"/>
       <c r="C88" s="60" t="s">
         <v>219</v>
       </c>
@@ -12299,8 +12299,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="190"/>
-      <c r="B89" s="182"/>
+      <c r="A89" s="204"/>
+      <c r="B89" s="177"/>
       <c r="C89" s="60" t="s">
         <v>320</v>
       </c>
@@ -12346,8 +12346,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="190"/>
-      <c r="B90" s="182"/>
+      <c r="A90" s="204"/>
+      <c r="B90" s="177"/>
       <c r="C90" s="61" t="s">
         <v>247</v>
       </c>
@@ -12393,8 +12393,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="190"/>
-      <c r="B91" s="182"/>
+      <c r="A91" s="204"/>
+      <c r="B91" s="177"/>
       <c r="C91" s="60" t="s">
         <v>401</v>
       </c>
@@ -12440,8 +12440,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="190"/>
-      <c r="B92" s="182"/>
+      <c r="A92" s="204"/>
+      <c r="B92" s="177"/>
       <c r="C92" s="65" t="s">
         <v>692</v>
       </c>
@@ -12473,8 +12473,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="190"/>
-      <c r="B93" s="182"/>
+      <c r="A93" s="204"/>
+      <c r="B93" s="177"/>
       <c r="C93" s="60" t="s">
         <v>368</v>
       </c>
@@ -12518,8 +12518,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="190"/>
-      <c r="B94" s="182"/>
+      <c r="A94" s="204"/>
+      <c r="B94" s="177"/>
       <c r="C94" s="60" t="s">
         <v>355</v>
       </c>
@@ -12565,8 +12565,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="190"/>
-      <c r="B95" s="182"/>
+      <c r="A95" s="204"/>
+      <c r="B95" s="177"/>
       <c r="C95" s="60" t="s">
         <v>351</v>
       </c>
@@ -12612,8 +12612,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="190"/>
-      <c r="B96" s="182"/>
+      <c r="A96" s="204"/>
+      <c r="B96" s="177"/>
       <c r="C96" s="60" t="s">
         <v>211</v>
       </c>
@@ -12661,8 +12661,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="190"/>
-      <c r="B97" s="182"/>
+      <c r="A97" s="204"/>
+      <c r="B97" s="177"/>
       <c r="C97" s="60" t="s">
         <v>371</v>
       </c>
@@ -12708,8 +12708,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="190"/>
-      <c r="B98" s="182"/>
+      <c r="A98" s="204"/>
+      <c r="B98" s="177"/>
       <c r="C98" s="60" t="s">
         <v>220</v>
       </c>
@@ -12755,8 +12755,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="190"/>
-      <c r="B99" s="182"/>
+      <c r="A99" s="204"/>
+      <c r="B99" s="177"/>
       <c r="C99" s="60" t="s">
         <v>245</v>
       </c>
@@ -12800,8 +12800,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="190"/>
-      <c r="B100" s="182"/>
+      <c r="A100" s="204"/>
+      <c r="B100" s="177"/>
       <c r="C100" s="60" t="s">
         <v>292</v>
       </c>
@@ -12845,8 +12845,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="190"/>
-      <c r="B101" s="182"/>
+      <c r="A101" s="204"/>
+      <c r="B101" s="177"/>
       <c r="C101" s="60" t="s">
         <v>222</v>
       </c>
@@ -12892,8 +12892,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="190"/>
-      <c r="B102" s="182"/>
+      <c r="A102" s="204"/>
+      <c r="B102" s="177"/>
       <c r="C102" s="60" t="s">
         <v>697</v>
       </c>
@@ -12937,8 +12937,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="190"/>
-      <c r="B103" s="182"/>
+      <c r="A103" s="204"/>
+      <c r="B103" s="177"/>
       <c r="C103" s="60" t="s">
         <v>230</v>
       </c>
@@ -12980,8 +12980,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="190"/>
-      <c r="B104" s="182"/>
+      <c r="A104" s="204"/>
+      <c r="B104" s="177"/>
       <c r="C104" s="60" t="s">
         <v>221</v>
       </c>
@@ -13027,8 +13027,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="190"/>
-      <c r="B105" s="182"/>
+      <c r="A105" s="204"/>
+      <c r="B105" s="177"/>
       <c r="C105" s="65" t="s">
         <v>216</v>
       </c>
@@ -13074,8 +13074,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="190"/>
-      <c r="B106" s="182"/>
+      <c r="A106" s="204"/>
+      <c r="B106" s="177"/>
       <c r="C106" s="60" t="s">
         <v>213</v>
       </c>
@@ -13121,8 +13121,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="190"/>
-      <c r="B107" s="182"/>
+      <c r="A107" s="204"/>
+      <c r="B107" s="177"/>
       <c r="C107" s="60" t="s">
         <v>214</v>
       </c>
@@ -13168,8 +13168,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="190"/>
-      <c r="B108" s="182"/>
+      <c r="A108" s="204"/>
+      <c r="B108" s="177"/>
       <c r="C108" s="60" t="s">
         <v>357</v>
       </c>
@@ -13215,8 +13215,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="190"/>
-      <c r="B109" s="182"/>
+      <c r="A109" s="204"/>
+      <c r="B109" s="177"/>
       <c r="C109" s="60" t="s">
         <v>229</v>
       </c>
@@ -13262,8 +13262,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="190"/>
-      <c r="B110" s="182"/>
+      <c r="A110" s="204"/>
+      <c r="B110" s="177"/>
       <c r="C110" s="60" t="s">
         <v>205</v>
       </c>
@@ -13309,8 +13309,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="190"/>
-      <c r="B111" s="182"/>
+      <c r="A111" s="204"/>
+      <c r="B111" s="177"/>
       <c r="C111" s="60" t="s">
         <v>206</v>
       </c>
@@ -13356,8 +13356,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="190"/>
-      <c r="B112" s="182"/>
+      <c r="A112" s="204"/>
+      <c r="B112" s="177"/>
       <c r="C112" s="60" t="s">
         <v>499</v>
       </c>
@@ -13403,8 +13403,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="190"/>
-      <c r="B113" s="182"/>
+      <c r="A113" s="204"/>
+      <c r="B113" s="177"/>
       <c r="C113" s="60" t="s">
         <v>246</v>
       </c>
@@ -13450,8 +13450,8 @@
       <c r="S113" s="26"/>
     </row>
     <row r="114" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="190"/>
-      <c r="B114" s="182"/>
+      <c r="A114" s="204"/>
+      <c r="B114" s="177"/>
       <c r="C114" s="60" t="s">
         <v>249</v>
       </c>
@@ -13495,8 +13495,8 @@
       <c r="S114" s="26"/>
     </row>
     <row r="115" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="190"/>
-      <c r="B115" s="182"/>
+      <c r="A115" s="204"/>
+      <c r="B115" s="177"/>
       <c r="C115" s="60" t="s">
         <v>226</v>
       </c>
@@ -13544,8 +13544,8 @@
       <c r="S115" s="26"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="190"/>
-      <c r="B116" s="182"/>
+      <c r="A116" s="204"/>
+      <c r="B116" s="177"/>
       <c r="C116" s="60" t="s">
         <v>227</v>
       </c>
@@ -13593,8 +13593,8 @@
       <c r="S116" s="26"/>
     </row>
     <row r="117" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="190"/>
-      <c r="B117" s="182"/>
+      <c r="A117" s="204"/>
+      <c r="B117" s="177"/>
       <c r="C117" s="65" t="s">
         <v>595</v>
       </c>
@@ -13621,8 +13621,8 @@
       <c r="T117" s="23"/>
     </row>
     <row r="118" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="190"/>
-      <c r="B118" s="182"/>
+      <c r="A118" s="204"/>
+      <c r="B118" s="177"/>
       <c r="C118" s="60" t="s">
         <v>323</v>
       </c>
@@ -13669,8 +13669,8 @@
       <c r="T118" s="23"/>
     </row>
     <row r="119" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="191"/>
-      <c r="B119" s="187"/>
+      <c r="A119" s="205"/>
+      <c r="B119" s="178"/>
       <c r="C119" s="61" t="s">
         <v>316</v>
       </c>
@@ -13723,10 +13723,10 @@
       <c r="T119" s="28"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183" t="s">
+      <c r="A120" s="198" t="s">
         <v>497</v>
       </c>
-      <c r="B120" s="174" t="s">
+      <c r="B120" s="184" t="s">
         <v>51</v>
       </c>
       <c r="C120" s="62" t="s">
@@ -13771,8 +13771,8 @@
       <c r="T120" s="33"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="184"/>
-      <c r="B121" s="175"/>
+      <c r="A121" s="199"/>
+      <c r="B121" s="182"/>
       <c r="C121" s="60" t="s">
         <v>92</v>
       </c>
@@ -13818,8 +13818,8 @@
       <c r="S121" s="26"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="184"/>
-      <c r="B122" s="175"/>
+      <c r="A122" s="199"/>
+      <c r="B122" s="182"/>
       <c r="C122" s="60" t="s">
         <v>93</v>
       </c>
@@ -13865,8 +13865,8 @@
       <c r="S122" s="26"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
-      <c r="B123" s="175"/>
+      <c r="A123" s="199"/>
+      <c r="B123" s="182"/>
       <c r="C123" s="60" t="s">
         <v>104</v>
       </c>
@@ -13908,8 +13908,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="184"/>
-      <c r="B124" s="175"/>
+      <c r="A124" s="199"/>
+      <c r="B124" s="182"/>
       <c r="C124" s="61" t="s">
         <v>94</v>
       </c>
@@ -13952,8 +13952,8 @@
       <c r="T124" s="28"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="184"/>
-      <c r="B125" s="175"/>
+      <c r="A125" s="199"/>
+      <c r="B125" s="182"/>
       <c r="C125" s="60" t="s">
         <v>179</v>
       </c>
@@ -13996,8 +13996,8 @@
       <c r="T125" s="28"/>
     </row>
     <row r="126" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="184"/>
-      <c r="B126" s="175"/>
+      <c r="A126" s="199"/>
+      <c r="B126" s="182"/>
       <c r="C126" s="61" t="s">
         <v>116</v>
       </c>
@@ -14040,8 +14040,8 @@
       <c r="T126" s="28"/>
     </row>
     <row r="127" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
-      <c r="B127" s="175"/>
+      <c r="A127" s="199"/>
+      <c r="B127" s="182"/>
       <c r="C127" s="60" t="s">
         <v>96</v>
       </c>
@@ -14085,8 +14085,8 @@
       <c r="S127" s="26"/>
     </row>
     <row r="128" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="184"/>
-      <c r="B128" s="175"/>
+      <c r="A128" s="199"/>
+      <c r="B128" s="182"/>
       <c r="C128" s="60" t="s">
         <v>498</v>
       </c>
@@ -14130,8 +14130,8 @@
       <c r="S128" s="26"/>
     </row>
     <row r="129" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="184"/>
-      <c r="B129" s="186"/>
+      <c r="A129" s="199"/>
+      <c r="B129" s="201"/>
       <c r="C129" s="60" t="s">
         <v>176</v>
       </c>
@@ -14173,8 +14173,8 @@
       <c r="S129" s="26"/>
     </row>
     <row r="130" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="184"/>
-      <c r="B130" s="181" t="s">
+      <c r="A130" s="199"/>
+      <c r="B130" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C130" s="63" t="s">
@@ -14221,8 +14221,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="184"/>
-      <c r="B131" s="182"/>
+      <c r="A131" s="199"/>
+      <c r="B131" s="177"/>
       <c r="C131" s="60" t="s">
         <v>445</v>
       </c>
@@ -14265,8 +14265,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="184"/>
-      <c r="B132" s="182"/>
+      <c r="A132" s="199"/>
+      <c r="B132" s="177"/>
       <c r="C132" s="60" t="s">
         <v>448</v>
       </c>
@@ -14309,8 +14309,8 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="184"/>
-      <c r="B133" s="182"/>
+      <c r="A133" s="199"/>
+      <c r="B133" s="177"/>
       <c r="C133" s="61" t="s">
         <v>422</v>
       </c>
@@ -14355,8 +14355,8 @@
       <c r="T133" s="23"/>
     </row>
     <row r="134" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="184"/>
-      <c r="B134" s="182"/>
+      <c r="A134" s="199"/>
+      <c r="B134" s="177"/>
       <c r="C134" s="60" t="s">
         <v>228</v>
       </c>
@@ -14399,8 +14399,8 @@
       <c r="T134" s="23"/>
     </row>
     <row r="135" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="184"/>
-      <c r="B135" s="182"/>
+      <c r="A135" s="199"/>
+      <c r="B135" s="177"/>
       <c r="C135" s="60" t="s">
         <v>207</v>
       </c>
@@ -14443,8 +14443,8 @@
       <c r="T135" s="23"/>
     </row>
     <row r="136" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="185"/>
-      <c r="B136" s="182"/>
+      <c r="A136" s="200"/>
+      <c r="B136" s="177"/>
       <c r="C136" s="65" t="s">
         <v>621</v>
       </c>
@@ -14467,10 +14467,10 @@
       <c r="T136" s="23"/>
     </row>
     <row r="137" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="178" t="s">
+      <c r="A137" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="174" t="s">
+      <c r="B137" s="184" t="s">
         <v>51</v>
       </c>
       <c r="C137" s="62" t="s">
@@ -14513,8 +14513,8 @@
       <c r="T137" s="33"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="179"/>
-      <c r="B138" s="175"/>
+      <c r="A138" s="196"/>
+      <c r="B138" s="182"/>
       <c r="C138" s="61" t="s">
         <v>95</v>
       </c>
@@ -14554,8 +14554,8 @@
       <c r="S138" s="31"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="179"/>
-      <c r="B139" s="175"/>
+      <c r="A139" s="196"/>
+      <c r="B139" s="182"/>
       <c r="C139" s="65" t="s">
         <v>599</v>
       </c>
@@ -14598,8 +14598,8 @@
       <c r="T139" s="19"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="179"/>
-      <c r="B140" s="175"/>
+      <c r="A140" s="196"/>
+      <c r="B140" s="182"/>
       <c r="C140" s="60" t="s">
         <v>115</v>
       </c>
@@ -14641,8 +14641,8 @@
       <c r="T140" s="19"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="179"/>
-      <c r="B141" s="175"/>
+      <c r="A141" s="196"/>
+      <c r="B141" s="182"/>
       <c r="C141" s="60" t="s">
         <v>114</v>
       </c>
@@ -14684,8 +14684,8 @@
       <c r="T141" s="19"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="179"/>
-      <c r="B142" s="181" t="s">
+      <c r="A142" s="196"/>
+      <c r="B142" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C142" s="63" t="s">
@@ -14727,8 +14727,8 @@
       <c r="S142" s="57"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="179"/>
-      <c r="B143" s="182"/>
+      <c r="A143" s="196"/>
+      <c r="B143" s="177"/>
       <c r="C143" s="60" t="s">
         <v>396</v>
       </c>
@@ -14767,8 +14767,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="179"/>
-      <c r="B144" s="182"/>
+      <c r="A144" s="196"/>
+      <c r="B144" s="177"/>
       <c r="C144" s="60" t="s">
         <v>253</v>
       </c>
@@ -14808,8 +14808,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="179"/>
-      <c r="B145" s="182"/>
+      <c r="A145" s="196"/>
+      <c r="B145" s="177"/>
       <c r="C145" s="65" t="s">
         <v>615</v>
       </c>
@@ -14843,8 +14843,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="179"/>
-      <c r="B146" s="182"/>
+      <c r="A146" s="196"/>
+      <c r="B146" s="177"/>
       <c r="C146" s="60" t="s">
         <v>419</v>
       </c>
@@ -14884,8 +14884,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="179"/>
-      <c r="B147" s="182"/>
+      <c r="A147" s="196"/>
+      <c r="B147" s="177"/>
       <c r="C147" s="60" t="s">
         <v>378</v>
       </c>
@@ -14923,8 +14923,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="179"/>
-      <c r="B148" s="182"/>
+      <c r="A148" s="196"/>
+      <c r="B148" s="177"/>
       <c r="C148" s="60" t="s">
         <v>436</v>
       </c>
@@ -14964,8 +14964,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="179"/>
-      <c r="B149" s="182"/>
+      <c r="A149" s="196"/>
+      <c r="B149" s="177"/>
       <c r="C149" s="60" t="s">
         <v>356</v>
       </c>
@@ -15005,8 +15005,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="179"/>
-      <c r="B150" s="182"/>
+      <c r="A150" s="196"/>
+      <c r="B150" s="177"/>
       <c r="C150" s="60" t="s">
         <v>224</v>
       </c>
@@ -15048,8 +15048,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="179"/>
-      <c r="B151" s="182"/>
+      <c r="A151" s="196"/>
+      <c r="B151" s="177"/>
       <c r="C151" s="60" t="s">
         <v>418</v>
       </c>
@@ -15089,8 +15089,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="179"/>
-      <c r="B152" s="182"/>
+      <c r="A152" s="196"/>
+      <c r="B152" s="177"/>
       <c r="C152" s="60" t="s">
         <v>393</v>
       </c>
@@ -15130,8 +15130,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="179"/>
-      <c r="B153" s="182"/>
+      <c r="A153" s="196"/>
+      <c r="B153" s="177"/>
       <c r="C153" s="60" t="s">
         <v>430</v>
       </c>
@@ -15171,8 +15171,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="179"/>
-      <c r="B154" s="182"/>
+      <c r="A154" s="196"/>
+      <c r="B154" s="177"/>
       <c r="C154" s="60" t="s">
         <v>403</v>
       </c>
@@ -15212,8 +15212,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="179"/>
-      <c r="B155" s="182"/>
+      <c r="A155" s="196"/>
+      <c r="B155" s="177"/>
       <c r="C155" s="65" t="s">
         <v>518</v>
       </c>
@@ -15255,8 +15255,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="179"/>
-      <c r="B156" s="182"/>
+      <c r="A156" s="196"/>
+      <c r="B156" s="177"/>
       <c r="C156" s="65" t="s">
         <v>254</v>
       </c>
@@ -15296,8 +15296,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="179"/>
-      <c r="B157" s="182"/>
+      <c r="A157" s="196"/>
+      <c r="B157" s="177"/>
       <c r="C157" s="65" t="s">
         <v>443</v>
       </c>
@@ -15337,8 +15337,8 @@
       <c r="S157" s="26"/>
     </row>
     <row r="158" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="179"/>
-      <c r="B158" s="182"/>
+      <c r="A158" s="196"/>
+      <c r="B158" s="177"/>
       <c r="C158" s="65" t="s">
         <v>432</v>
       </c>
@@ -15378,8 +15378,8 @@
       <c r="S158" s="26"/>
     </row>
     <row r="159" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="179"/>
-      <c r="B159" s="182"/>
+      <c r="A159" s="196"/>
+      <c r="B159" s="177"/>
       <c r="C159" s="65" t="s">
         <v>317</v>
       </c>
@@ -15421,8 +15421,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="179"/>
-      <c r="B160" s="182"/>
+      <c r="A160" s="196"/>
+      <c r="B160" s="177"/>
       <c r="C160" s="65" t="s">
         <v>364</v>
       </c>
@@ -15464,8 +15464,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="180"/>
-      <c r="B161" s="182"/>
+      <c r="A161" s="197"/>
+      <c r="B161" s="177"/>
       <c r="C161" s="65" t="s">
         <v>210</v>
       </c>
@@ -15505,10 +15505,10 @@
       <c r="S161" s="31"/>
     </row>
     <row r="162" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="200" t="s">
+      <c r="A162" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="B162" s="195" t="s">
+      <c r="B162" s="176" t="s">
         <v>193</v>
       </c>
       <c r="C162" s="62" t="s">
@@ -15554,8 +15554,8 @@
       <c r="S162" s="36"/>
     </row>
     <row r="163" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="200"/>
-      <c r="B163" s="182"/>
+      <c r="A163" s="185"/>
+      <c r="B163" s="177"/>
       <c r="C163" s="60" t="s">
         <v>360</v>
       </c>
@@ -15597,8 +15597,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="200"/>
-      <c r="B164" s="182"/>
+      <c r="A164" s="185"/>
+      <c r="B164" s="177"/>
       <c r="C164" s="60" t="s">
         <v>379</v>
       </c>
@@ -15642,8 +15642,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="200"/>
-      <c r="B165" s="182"/>
+      <c r="A165" s="185"/>
+      <c r="B165" s="177"/>
       <c r="C165" s="60" t="s">
         <v>389</v>
       </c>
@@ -15687,8 +15687,8 @@
       <c r="S165" s="26"/>
     </row>
     <row r="166" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="200"/>
-      <c r="B166" s="182"/>
+      <c r="A166" s="185"/>
+      <c r="B166" s="177"/>
       <c r="C166" s="60" t="s">
         <v>248</v>
       </c>
@@ -15730,8 +15730,8 @@
       <c r="S166" s="26"/>
     </row>
     <row r="167" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="200"/>
-      <c r="B167" s="182"/>
+      <c r="A167" s="185"/>
+      <c r="B167" s="177"/>
       <c r="C167" s="61" t="s">
         <v>398</v>
       </c>
@@ -15775,8 +15775,8 @@
       <c r="S167" s="26"/>
     </row>
     <row r="168" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="200"/>
-      <c r="B168" s="182"/>
+      <c r="A168" s="185"/>
+      <c r="B168" s="177"/>
       <c r="C168" s="60" t="s">
         <v>370</v>
       </c>
@@ -15818,8 +15818,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="200"/>
-      <c r="B169" s="187"/>
+      <c r="A169" s="185"/>
+      <c r="B169" s="178"/>
       <c r="C169" s="60" t="s">
         <v>399</v>
       </c>
@@ -15861,7 +15861,7 @@
       <c r="S169" s="31"/>
     </row>
     <row r="170" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="201" t="s">
+      <c r="A170" s="186" t="s">
         <v>532</v>
       </c>
       <c r="B170" s="72" t="s">
@@ -15904,8 +15904,8 @@
       <c r="S170" s="71"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="201"/>
-      <c r="B171" s="181" t="s">
+      <c r="A171" s="186"/>
+      <c r="B171" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C171" s="60" t="s">
@@ -15943,8 +15943,8 @@
       <c r="S171" s="57"/>
     </row>
     <row r="172" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="201"/>
-      <c r="B172" s="182"/>
+      <c r="A172" s="186"/>
+      <c r="B172" s="177"/>
       <c r="C172" s="60" t="s">
         <v>195</v>
       </c>
@@ -15979,8 +15979,8 @@
       <c r="S172" s="26"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="201"/>
-      <c r="B173" s="182"/>
+      <c r="A173" s="186"/>
+      <c r="B173" s="177"/>
       <c r="C173" s="60" t="s">
         <v>257</v>
       </c>
@@ -16020,8 +16020,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="201"/>
-      <c r="B174" s="182"/>
+      <c r="A174" s="186"/>
+      <c r="B174" s="177"/>
       <c r="C174" s="60" t="s">
         <v>414</v>
       </c>
@@ -16058,8 +16058,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="201"/>
-      <c r="B175" s="202"/>
+      <c r="A175" s="186"/>
+      <c r="B175" s="188"/>
       <c r="C175" s="60" t="s">
         <v>415</v>
       </c>
@@ -16097,10 +16097,10 @@
       <c r="S175" s="26"/>
     </row>
     <row r="176" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="194" t="s">
+      <c r="A176" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="B176" s="198" t="s">
+      <c r="B176" s="181" t="s">
         <v>51</v>
       </c>
       <c r="C176" s="62" t="s">
@@ -16140,8 +16140,8 @@
       <c r="S176" s="36"/>
     </row>
     <row r="177" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="194"/>
-      <c r="B177" s="175"/>
+      <c r="A177" s="175"/>
+      <c r="B177" s="182"/>
       <c r="C177" s="60" t="s">
         <v>184</v>
       </c>
@@ -16179,8 +16179,8 @@
       <c r="S177" s="26"/>
     </row>
     <row r="178" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="194"/>
-      <c r="B178" s="175"/>
+      <c r="A178" s="175"/>
+      <c r="B178" s="182"/>
       <c r="C178" s="60" t="s">
         <v>183</v>
       </c>
@@ -16218,8 +16218,8 @@
       <c r="S178" s="26"/>
     </row>
     <row r="179" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="194"/>
-      <c r="B179" s="175"/>
+      <c r="A179" s="175"/>
+      <c r="B179" s="182"/>
       <c r="C179" s="61" t="s">
         <v>185</v>
       </c>
@@ -16257,8 +16257,8 @@
       <c r="S179" s="31"/>
     </row>
     <row r="180" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="194"/>
-      <c r="B180" s="192" t="s">
+      <c r="A180" s="175"/>
+      <c r="B180" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C180" s="63" t="s">
@@ -16292,8 +16292,8 @@
       <c r="S180" s="57"/>
     </row>
     <row r="181" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="194"/>
-      <c r="B181" s="193"/>
+      <c r="A181" s="175"/>
+      <c r="B181" s="174"/>
       <c r="C181" s="64"/>
       <c r="E181" s="49"/>
       <c r="F181" s="49"/>
@@ -17022,6 +17022,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A53:A71"/>
+    <mergeCell ref="A137:A161"/>
+    <mergeCell ref="B142:B161"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="B83:B119"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="A72:A119"/>
+    <mergeCell ref="B137:B141"/>
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="A176:A181"/>
     <mergeCell ref="B162:B169"/>
@@ -17037,18 +17049,6 @@
     <mergeCell ref="B130:B136"/>
     <mergeCell ref="A39:A52"/>
     <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A53:A71"/>
-    <mergeCell ref="A137:A161"/>
-    <mergeCell ref="B142:B161"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="B83:B119"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="A72:A119"/>
-    <mergeCell ref="B137:B141"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\projects\Immersive-DayZ-Experience\ressources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\DayZ_Server\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0883FA1-159E-4A59-89F0-3B7AF0A8E242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F61D11D-8D2D-4539-A441-2418C5CD1DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="15720" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -4104,65 +4104,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -4179,6 +4128,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4191,6 +4146,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4201,6 +4159,48 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -8237,18 +8237,18 @@
     <sortCondition ref="B2:B98"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A21:A40"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A21:A40"/>
-    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8259,8 +8259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M80" activeCellId="1" sqref="I83 M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8292,25 +8292,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -8325,19 +8325,19 @@
       <c r="F4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -8388,10 +8388,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="198" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8453,8 +8453,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
-      <c r="B7" s="182"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="60" t="s">
         <v>42</v>
       </c>
@@ -8505,8 +8505,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
-      <c r="B8" s="182"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
@@ -8555,8 +8555,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179"/>
-      <c r="B9" s="182"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="60" t="s">
         <v>281</v>
       </c>
@@ -8607,8 +8607,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
-      <c r="B10" s="182"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8657,8 +8657,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="179"/>
-      <c r="B11" s="182"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8709,8 +8709,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="182"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="60" t="s">
         <v>44</v>
       </c>
@@ -8756,8 +8756,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
-      <c r="B13" s="182"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="60" t="s">
         <v>634</v>
       </c>
@@ -8791,8 +8791,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="179"/>
-      <c r="B14" s="182"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="175"/>
       <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
@@ -8838,8 +8838,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="179"/>
-      <c r="B15" s="182"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="60" t="s">
         <v>74</v>
       </c>
@@ -8885,8 +8885,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="182"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="175"/>
       <c r="C16" s="60" t="s">
         <v>46</v>
       </c>
@@ -8930,8 +8930,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="179"/>
-      <c r="B17" s="182"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="60" t="s">
         <v>47</v>
       </c>
@@ -8975,8 +8975,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="179"/>
-      <c r="B18" s="182"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="175"/>
       <c r="C18" s="60" t="s">
         <v>48</v>
       </c>
@@ -9020,8 +9020,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="179"/>
-      <c r="B19" s="182"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="60" t="s">
         <v>344</v>
       </c>
@@ -9067,8 +9067,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179"/>
-      <c r="B20" s="183"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="61" t="s">
         <v>50</v>
       </c>
@@ -9110,8 +9110,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="179"/>
-      <c r="B21" s="176" t="s">
+      <c r="A21" s="196"/>
+      <c r="B21" s="195" t="s">
         <v>244</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -9162,8 +9162,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="179"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="61" t="s">
         <v>231</v>
       </c>
@@ -9209,8 +9209,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="179"/>
-      <c r="B23" s="177"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="60" t="s">
         <v>45</v>
       </c>
@@ -9254,8 +9254,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="182"/>
       <c r="C24" s="60" t="s">
         <v>120</v>
       </c>
@@ -9303,8 +9303,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
-      <c r="B25" s="177"/>
+      <c r="A25" s="196"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="60" t="s">
         <v>233</v>
       </c>
@@ -9354,8 +9354,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="196"/>
+      <c r="B26" s="182"/>
       <c r="C26" s="60" t="s">
         <v>348</v>
       </c>
@@ -9401,8 +9401,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="60" t="s">
         <v>119</v>
       </c>
@@ -9448,8 +9448,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179"/>
-      <c r="B28" s="177"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="182"/>
       <c r="C28" s="60" t="s">
         <v>462</v>
       </c>
@@ -9495,8 +9495,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="179"/>
-      <c r="B29" s="177"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="60" t="s">
         <v>383</v>
       </c>
@@ -9542,8 +9542,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="179"/>
-      <c r="B30" s="177"/>
+      <c r="A30" s="196"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="60" t="s">
         <v>236</v>
       </c>
@@ -9590,8 +9590,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
-      <c r="B31" s="177"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="60" t="s">
         <v>349</v>
       </c>
@@ -9637,8 +9637,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="179"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="196"/>
+      <c r="B32" s="182"/>
       <c r="C32" s="60" t="s">
         <v>349</v>
       </c>
@@ -9684,8 +9684,8 @@
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="179"/>
-      <c r="B33" s="177"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="182"/>
       <c r="C33" s="60" t="s">
         <v>215</v>
       </c>
@@ -9732,8 +9732,8 @@
       <c r="T33" s="23"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="179"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="182"/>
       <c r="C34" s="60" t="s">
         <v>240</v>
       </c>
@@ -9779,8 +9779,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="179"/>
-      <c r="B35" s="177"/>
+      <c r="A35" s="196"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="60" t="s">
         <v>373</v>
       </c>
@@ -9824,8 +9824,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
-      <c r="B36" s="177"/>
+      <c r="A36" s="196"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="60" t="s">
         <v>688</v>
       </c>
@@ -9857,8 +9857,8 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="179"/>
-      <c r="B37" s="177"/>
+      <c r="A37" s="196"/>
+      <c r="B37" s="182"/>
       <c r="C37" s="60" t="s">
         <v>385</v>
       </c>
@@ -9904,8 +9904,8 @@
       <c r="S37" s="26"/>
     </row>
     <row r="38" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="179"/>
-      <c r="B38" s="178"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="187"/>
       <c r="C38" s="65" t="s">
         <v>232</v>
       </c>
@@ -9951,10 +9951,10 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="189" t="s">
+      <c r="A39" s="203" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="174" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="62" t="s">
@@ -9999,8 +9999,8 @@
       <c r="T39" s="33"/>
     </row>
     <row r="40" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="190"/>
-      <c r="B40" s="182"/>
+      <c r="A40" s="204"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="60" t="s">
         <v>107</v>
       </c>
@@ -10042,8 +10042,8 @@
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="190"/>
-      <c r="B41" s="182"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="175"/>
       <c r="C41" s="60" t="s">
         <v>108</v>
       </c>
@@ -10086,8 +10086,8 @@
       <c r="T41" s="23"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="190"/>
-      <c r="B42" s="182"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="175"/>
       <c r="C42" s="61" t="s">
         <v>109</v>
       </c>
@@ -10135,8 +10135,8 @@
       <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="190"/>
-      <c r="B43" s="187" t="s">
+      <c r="A43" s="204"/>
+      <c r="B43" s="181" t="s">
         <v>193</v>
       </c>
       <c r="C43" s="63" t="s">
@@ -10184,8 +10184,8 @@
       <c r="S43" s="57"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="190"/>
-      <c r="B44" s="177"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="60" t="s">
         <v>217</v>
       </c>
@@ -10227,8 +10227,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="190"/>
-      <c r="B45" s="177"/>
+      <c r="A45" s="204"/>
+      <c r="B45" s="182"/>
       <c r="C45" s="60" t="s">
         <v>256</v>
       </c>
@@ -10270,8 +10270,8 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="190"/>
-      <c r="B46" s="177"/>
+      <c r="A46" s="204"/>
+      <c r="B46" s="182"/>
       <c r="C46" s="60" t="s">
         <v>218</v>
       </c>
@@ -10313,8 +10313,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="190"/>
-      <c r="B47" s="177"/>
+      <c r="A47" s="204"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="60" t="s">
         <v>487</v>
       </c>
@@ -10361,8 +10361,8 @@
       <c r="T47" s="28"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="190"/>
-      <c r="B48" s="177"/>
+      <c r="A48" s="204"/>
+      <c r="B48" s="182"/>
       <c r="C48" s="60" t="s">
         <v>410</v>
       </c>
@@ -10406,8 +10406,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="190"/>
-      <c r="B49" s="177"/>
+      <c r="A49" s="204"/>
+      <c r="B49" s="182"/>
       <c r="C49" s="60" t="s">
         <v>407</v>
       </c>
@@ -10451,8 +10451,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="190"/>
-      <c r="B50" s="177"/>
+      <c r="A50" s="204"/>
+      <c r="B50" s="182"/>
       <c r="C50" s="60" t="s">
         <v>405</v>
       </c>
@@ -10500,8 +10500,8 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="190"/>
-      <c r="B51" s="177"/>
+      <c r="A51" s="204"/>
+      <c r="B51" s="182"/>
       <c r="C51" s="60" t="s">
         <v>255</v>
       </c>
@@ -10547,8 +10547,8 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="191"/>
-      <c r="B52" s="178"/>
+      <c r="A52" s="205"/>
+      <c r="B52" s="187"/>
       <c r="C52" s="65" t="s">
         <v>528</v>
       </c>
@@ -10592,10 +10592,10 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="193" t="s">
+      <c r="A53" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="184" t="s">
+      <c r="B53" s="174" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="62" t="s">
@@ -10642,8 +10642,8 @@
       <c r="T53" s="33"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="194"/>
-      <c r="B54" s="182"/>
+      <c r="A54" s="177"/>
+      <c r="B54" s="175"/>
       <c r="C54" s="60" t="s">
         <v>66</v>
       </c>
@@ -10689,8 +10689,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="194"/>
-      <c r="B55" s="182"/>
+      <c r="A55" s="177"/>
+      <c r="B55" s="175"/>
       <c r="C55" s="60" t="s">
         <v>67</v>
       </c>
@@ -10736,8 +10736,8 @@
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="194"/>
-      <c r="B56" s="182"/>
+      <c r="A56" s="177"/>
+      <c r="B56" s="175"/>
       <c r="C56" s="61" t="s">
         <v>68</v>
       </c>
@@ -10783,8 +10783,8 @@
       <c r="S56" s="26"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="194"/>
-      <c r="B57" s="182"/>
+      <c r="A57" s="177"/>
+      <c r="B57" s="175"/>
       <c r="C57" s="65" t="s">
         <v>601</v>
       </c>
@@ -10828,8 +10828,8 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="194"/>
-      <c r="B58" s="187" t="s">
+      <c r="A58" s="177"/>
+      <c r="B58" s="181" t="s">
         <v>193</v>
       </c>
       <c r="C58" s="63" t="s">
@@ -10877,8 +10877,8 @@
       <c r="S58" s="57"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="194"/>
-      <c r="B59" s="177"/>
+      <c r="A59" s="177"/>
+      <c r="B59" s="182"/>
       <c r="C59" s="60" t="s">
         <v>208</v>
       </c>
@@ -10926,8 +10926,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="194"/>
-      <c r="B60" s="177"/>
+      <c r="A60" s="177"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="60" t="s">
         <v>202</v>
       </c>
@@ -10971,8 +10971,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="194"/>
-      <c r="B61" s="177"/>
+      <c r="A61" s="177"/>
+      <c r="B61" s="182"/>
       <c r="C61" s="60" t="s">
         <v>197</v>
       </c>
@@ -11018,8 +11018,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="194"/>
-      <c r="B62" s="177"/>
+      <c r="A62" s="177"/>
+      <c r="B62" s="182"/>
       <c r="C62" s="60" t="s">
         <v>198</v>
       </c>
@@ -11065,8 +11065,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="194"/>
-      <c r="B63" s="177"/>
+      <c r="A63" s="177"/>
+      <c r="B63" s="182"/>
       <c r="C63" s="60" t="s">
         <v>91</v>
       </c>
@@ -11112,8 +11112,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="194"/>
-      <c r="B64" s="177"/>
+      <c r="A64" s="177"/>
+      <c r="B64" s="182"/>
       <c r="C64" s="60" t="s">
         <v>412</v>
       </c>
@@ -11159,8 +11159,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="194"/>
-      <c r="B65" s="177"/>
+      <c r="A65" s="177"/>
+      <c r="B65" s="182"/>
       <c r="C65" s="60" t="s">
         <v>199</v>
       </c>
@@ -11208,8 +11208,8 @@
       <c r="S65" s="26"/>
     </row>
     <row r="66" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="194"/>
-      <c r="B66" s="177"/>
+      <c r="A66" s="177"/>
+      <c r="B66" s="182"/>
       <c r="C66" s="60" t="s">
         <v>426</v>
       </c>
@@ -11255,8 +11255,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="194"/>
-      <c r="B67" s="177"/>
+      <c r="A67" s="177"/>
+      <c r="B67" s="182"/>
       <c r="C67" s="60" t="s">
         <v>375</v>
       </c>
@@ -11303,8 +11303,8 @@
       <c r="T67" s="28"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="194"/>
-      <c r="B68" s="177"/>
+      <c r="A68" s="177"/>
+      <c r="B68" s="182"/>
       <c r="C68" s="60" t="s">
         <v>391</v>
       </c>
@@ -11352,8 +11352,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="194"/>
-      <c r="B69" s="177"/>
+      <c r="A69" s="177"/>
+      <c r="B69" s="182"/>
       <c r="C69" s="60" t="s">
         <v>252</v>
       </c>
@@ -11402,8 +11402,8 @@
       <c r="T69" s="23"/>
     </row>
     <row r="70" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="194"/>
-      <c r="B70" s="177"/>
+      <c r="A70" s="177"/>
+      <c r="B70" s="182"/>
       <c r="C70" s="60" t="s">
         <v>429</v>
       </c>
@@ -11449,8 +11449,8 @@
       <c r="S70" s="26"/>
     </row>
     <row r="71" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="194"/>
-      <c r="B71" s="177"/>
+      <c r="A71" s="177"/>
+      <c r="B71" s="182"/>
       <c r="C71" s="61" t="s">
         <v>203</v>
       </c>
@@ -11495,10 +11495,10 @@
       <c r="T71" s="28"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="203" t="s">
+      <c r="A72" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="202"/>
+      <c r="B72" s="188"/>
       <c r="C72" s="62" t="s">
         <v>79</v>
       </c>
@@ -11545,8 +11545,8 @@
       <c r="T72" s="33"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="204"/>
-      <c r="B73" s="182"/>
+      <c r="A73" s="190"/>
+      <c r="B73" s="175"/>
       <c r="C73" s="60" t="s">
         <v>80</v>
       </c>
@@ -11592,8 +11592,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="204"/>
-      <c r="B74" s="182"/>
+      <c r="A74" s="190"/>
+      <c r="B74" s="175"/>
       <c r="C74" s="60" t="s">
         <v>81</v>
       </c>
@@ -11641,8 +11641,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="204"/>
-      <c r="B75" s="182"/>
+      <c r="A75" s="190"/>
+      <c r="B75" s="175"/>
       <c r="C75" s="60" t="s">
         <v>82</v>
       </c>
@@ -11688,8 +11688,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="204"/>
-      <c r="B76" s="182"/>
+      <c r="A76" s="190"/>
+      <c r="B76" s="175"/>
       <c r="C76" s="60" t="s">
         <v>83</v>
       </c>
@@ -11737,8 +11737,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="204"/>
-      <c r="B77" s="182"/>
+      <c r="A77" s="190"/>
+      <c r="B77" s="175"/>
       <c r="C77" s="60" t="s">
         <v>84</v>
       </c>
@@ -11784,8 +11784,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="204"/>
-      <c r="B78" s="182"/>
+      <c r="A78" s="190"/>
+      <c r="B78" s="175"/>
       <c r="C78" s="60" t="s">
         <v>85</v>
       </c>
@@ -11829,8 +11829,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="204"/>
-      <c r="B79" s="182"/>
+      <c r="A79" s="190"/>
+      <c r="B79" s="175"/>
       <c r="C79" s="60" t="s">
         <v>86</v>
       </c>
@@ -11876,8 +11876,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="204"/>
-      <c r="B80" s="182"/>
+      <c r="A80" s="190"/>
+      <c r="B80" s="175"/>
       <c r="C80" s="60" t="s">
         <v>87</v>
       </c>
@@ -11925,8 +11925,8 @@
       <c r="S80" s="26"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="204"/>
-      <c r="B81" s="182"/>
+      <c r="A81" s="190"/>
+      <c r="B81" s="175"/>
       <c r="C81" s="60" t="s">
         <v>223</v>
       </c>
@@ -11972,8 +11972,8 @@
       <c r="S81" s="26"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="204"/>
-      <c r="B82" s="201"/>
+      <c r="A82" s="190"/>
+      <c r="B82" s="186"/>
       <c r="C82" s="61" t="s">
         <v>90</v>
       </c>
@@ -12019,8 +12019,8 @@
       <c r="S82" s="31"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="204"/>
-      <c r="B83" s="177" t="s">
+      <c r="A83" s="190"/>
+      <c r="B83" s="182" t="s">
         <v>193</v>
       </c>
       <c r="C83" s="63" t="s">
@@ -12042,7 +12042,7 @@
         <v>99</v>
       </c>
       <c r="I83" s="55" t="s">
-        <v>694</v>
+        <v>98</v>
       </c>
       <c r="J83" s="77">
         <v>5</v>
@@ -12068,8 +12068,8 @@
       <c r="S83" s="57"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="204"/>
-      <c r="B84" s="177"/>
+      <c r="A84" s="190"/>
+      <c r="B84" s="182"/>
       <c r="C84" s="60" t="s">
         <v>212</v>
       </c>
@@ -12115,8 +12115,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="204"/>
-      <c r="B85" s="177"/>
+      <c r="A85" s="190"/>
+      <c r="B85" s="182"/>
       <c r="C85" s="60" t="s">
         <v>424</v>
       </c>
@@ -12160,8 +12160,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="204"/>
-      <c r="B86" s="177"/>
+      <c r="A86" s="190"/>
+      <c r="B86" s="182"/>
       <c r="C86" s="60" t="s">
         <v>293</v>
       </c>
@@ -12207,8 +12207,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="204"/>
-      <c r="B87" s="177"/>
+      <c r="A87" s="190"/>
+      <c r="B87" s="182"/>
       <c r="C87" s="60" t="s">
         <v>366</v>
       </c>
@@ -12254,8 +12254,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="204"/>
-      <c r="B88" s="177"/>
+      <c r="A88" s="190"/>
+      <c r="B88" s="182"/>
       <c r="C88" s="60" t="s">
         <v>219</v>
       </c>
@@ -12299,8 +12299,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="204"/>
-      <c r="B89" s="177"/>
+      <c r="A89" s="190"/>
+      <c r="B89" s="182"/>
       <c r="C89" s="60" t="s">
         <v>320</v>
       </c>
@@ -12346,8 +12346,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="204"/>
-      <c r="B90" s="177"/>
+      <c r="A90" s="190"/>
+      <c r="B90" s="182"/>
       <c r="C90" s="61" t="s">
         <v>247</v>
       </c>
@@ -12393,8 +12393,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="204"/>
-      <c r="B91" s="177"/>
+      <c r="A91" s="190"/>
+      <c r="B91" s="182"/>
       <c r="C91" s="60" t="s">
         <v>401</v>
       </c>
@@ -12440,8 +12440,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="204"/>
-      <c r="B92" s="177"/>
+      <c r="A92" s="190"/>
+      <c r="B92" s="182"/>
       <c r="C92" s="65" t="s">
         <v>692</v>
       </c>
@@ -12473,8 +12473,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="204"/>
-      <c r="B93" s="177"/>
+      <c r="A93" s="190"/>
+      <c r="B93" s="182"/>
       <c r="C93" s="60" t="s">
         <v>368</v>
       </c>
@@ -12518,8 +12518,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="204"/>
-      <c r="B94" s="177"/>
+      <c r="A94" s="190"/>
+      <c r="B94" s="182"/>
       <c r="C94" s="60" t="s">
         <v>355</v>
       </c>
@@ -12565,8 +12565,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="204"/>
-      <c r="B95" s="177"/>
+      <c r="A95" s="190"/>
+      <c r="B95" s="182"/>
       <c r="C95" s="60" t="s">
         <v>351</v>
       </c>
@@ -12612,8 +12612,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="204"/>
-      <c r="B96" s="177"/>
+      <c r="A96" s="190"/>
+      <c r="B96" s="182"/>
       <c r="C96" s="60" t="s">
         <v>211</v>
       </c>
@@ -12661,8 +12661,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="204"/>
-      <c r="B97" s="177"/>
+      <c r="A97" s="190"/>
+      <c r="B97" s="182"/>
       <c r="C97" s="60" t="s">
         <v>371</v>
       </c>
@@ -12708,8 +12708,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="204"/>
-      <c r="B98" s="177"/>
+      <c r="A98" s="190"/>
+      <c r="B98" s="182"/>
       <c r="C98" s="60" t="s">
         <v>220</v>
       </c>
@@ -12755,8 +12755,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="204"/>
-      <c r="B99" s="177"/>
+      <c r="A99" s="190"/>
+      <c r="B99" s="182"/>
       <c r="C99" s="60" t="s">
         <v>245</v>
       </c>
@@ -12800,8 +12800,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="204"/>
-      <c r="B100" s="177"/>
+      <c r="A100" s="190"/>
+      <c r="B100" s="182"/>
       <c r="C100" s="60" t="s">
         <v>292</v>
       </c>
@@ -12845,8 +12845,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="204"/>
-      <c r="B101" s="177"/>
+      <c r="A101" s="190"/>
+      <c r="B101" s="182"/>
       <c r="C101" s="60" t="s">
         <v>222</v>
       </c>
@@ -12892,8 +12892,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="204"/>
-      <c r="B102" s="177"/>
+      <c r="A102" s="190"/>
+      <c r="B102" s="182"/>
       <c r="C102" s="60" t="s">
         <v>697</v>
       </c>
@@ -12937,8 +12937,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="204"/>
-      <c r="B103" s="177"/>
+      <c r="A103" s="190"/>
+      <c r="B103" s="182"/>
       <c r="C103" s="60" t="s">
         <v>230</v>
       </c>
@@ -12980,8 +12980,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="204"/>
-      <c r="B104" s="177"/>
+      <c r="A104" s="190"/>
+      <c r="B104" s="182"/>
       <c r="C104" s="60" t="s">
         <v>221</v>
       </c>
@@ -13027,8 +13027,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="204"/>
-      <c r="B105" s="177"/>
+      <c r="A105" s="190"/>
+      <c r="B105" s="182"/>
       <c r="C105" s="65" t="s">
         <v>216</v>
       </c>
@@ -13074,8 +13074,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="204"/>
-      <c r="B106" s="177"/>
+      <c r="A106" s="190"/>
+      <c r="B106" s="182"/>
       <c r="C106" s="60" t="s">
         <v>213</v>
       </c>
@@ -13121,8 +13121,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="204"/>
-      <c r="B107" s="177"/>
+      <c r="A107" s="190"/>
+      <c r="B107" s="182"/>
       <c r="C107" s="60" t="s">
         <v>214</v>
       </c>
@@ -13168,8 +13168,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="204"/>
-      <c r="B108" s="177"/>
+      <c r="A108" s="190"/>
+      <c r="B108" s="182"/>
       <c r="C108" s="60" t="s">
         <v>357</v>
       </c>
@@ -13215,8 +13215,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="204"/>
-      <c r="B109" s="177"/>
+      <c r="A109" s="190"/>
+      <c r="B109" s="182"/>
       <c r="C109" s="60" t="s">
         <v>229</v>
       </c>
@@ -13262,8 +13262,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="204"/>
-      <c r="B110" s="177"/>
+      <c r="A110" s="190"/>
+      <c r="B110" s="182"/>
       <c r="C110" s="60" t="s">
         <v>205</v>
       </c>
@@ -13309,8 +13309,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="204"/>
-      <c r="B111" s="177"/>
+      <c r="A111" s="190"/>
+      <c r="B111" s="182"/>
       <c r="C111" s="60" t="s">
         <v>206</v>
       </c>
@@ -13356,8 +13356,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="204"/>
-      <c r="B112" s="177"/>
+      <c r="A112" s="190"/>
+      <c r="B112" s="182"/>
       <c r="C112" s="60" t="s">
         <v>499</v>
       </c>
@@ -13403,8 +13403,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="204"/>
-      <c r="B113" s="177"/>
+      <c r="A113" s="190"/>
+      <c r="B113" s="182"/>
       <c r="C113" s="60" t="s">
         <v>246</v>
       </c>
@@ -13450,8 +13450,8 @@
       <c r="S113" s="26"/>
     </row>
     <row r="114" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="204"/>
-      <c r="B114" s="177"/>
+      <c r="A114" s="190"/>
+      <c r="B114" s="182"/>
       <c r="C114" s="60" t="s">
         <v>249</v>
       </c>
@@ -13495,8 +13495,8 @@
       <c r="S114" s="26"/>
     </row>
     <row r="115" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="204"/>
-      <c r="B115" s="177"/>
+      <c r="A115" s="190"/>
+      <c r="B115" s="182"/>
       <c r="C115" s="60" t="s">
         <v>226</v>
       </c>
@@ -13544,8 +13544,8 @@
       <c r="S115" s="26"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="204"/>
-      <c r="B116" s="177"/>
+      <c r="A116" s="190"/>
+      <c r="B116" s="182"/>
       <c r="C116" s="60" t="s">
         <v>227</v>
       </c>
@@ -13593,8 +13593,8 @@
       <c r="S116" s="26"/>
     </row>
     <row r="117" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="204"/>
-      <c r="B117" s="177"/>
+      <c r="A117" s="190"/>
+      <c r="B117" s="182"/>
       <c r="C117" s="65" t="s">
         <v>595</v>
       </c>
@@ -13621,8 +13621,8 @@
       <c r="T117" s="23"/>
     </row>
     <row r="118" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="204"/>
-      <c r="B118" s="177"/>
+      <c r="A118" s="190"/>
+      <c r="B118" s="182"/>
       <c r="C118" s="60" t="s">
         <v>323</v>
       </c>
@@ -13669,8 +13669,8 @@
       <c r="T118" s="23"/>
     </row>
     <row r="119" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="205"/>
-      <c r="B119" s="178"/>
+      <c r="A119" s="191"/>
+      <c r="B119" s="187"/>
       <c r="C119" s="61" t="s">
         <v>316</v>
       </c>
@@ -13723,10 +13723,10 @@
       <c r="T119" s="28"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="198" t="s">
+      <c r="A120" s="183" t="s">
         <v>497</v>
       </c>
-      <c r="B120" s="184" t="s">
+      <c r="B120" s="174" t="s">
         <v>51</v>
       </c>
       <c r="C120" s="62" t="s">
@@ -13771,8 +13771,8 @@
       <c r="T120" s="33"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="199"/>
-      <c r="B121" s="182"/>
+      <c r="A121" s="184"/>
+      <c r="B121" s="175"/>
       <c r="C121" s="60" t="s">
         <v>92</v>
       </c>
@@ -13818,8 +13818,8 @@
       <c r="S121" s="26"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="199"/>
-      <c r="B122" s="182"/>
+      <c r="A122" s="184"/>
+      <c r="B122" s="175"/>
       <c r="C122" s="60" t="s">
         <v>93</v>
       </c>
@@ -13865,8 +13865,8 @@
       <c r="S122" s="26"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="199"/>
-      <c r="B123" s="182"/>
+      <c r="A123" s="184"/>
+      <c r="B123" s="175"/>
       <c r="C123" s="60" t="s">
         <v>104</v>
       </c>
@@ -13908,8 +13908,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="199"/>
-      <c r="B124" s="182"/>
+      <c r="A124" s="184"/>
+      <c r="B124" s="175"/>
       <c r="C124" s="61" t="s">
         <v>94</v>
       </c>
@@ -13952,8 +13952,8 @@
       <c r="T124" s="28"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="199"/>
-      <c r="B125" s="182"/>
+      <c r="A125" s="184"/>
+      <c r="B125" s="175"/>
       <c r="C125" s="60" t="s">
         <v>179</v>
       </c>
@@ -13996,8 +13996,8 @@
       <c r="T125" s="28"/>
     </row>
     <row r="126" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="199"/>
-      <c r="B126" s="182"/>
+      <c r="A126" s="184"/>
+      <c r="B126" s="175"/>
       <c r="C126" s="61" t="s">
         <v>116</v>
       </c>
@@ -14040,8 +14040,8 @@
       <c r="T126" s="28"/>
     </row>
     <row r="127" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="199"/>
-      <c r="B127" s="182"/>
+      <c r="A127" s="184"/>
+      <c r="B127" s="175"/>
       <c r="C127" s="60" t="s">
         <v>96</v>
       </c>
@@ -14085,8 +14085,8 @@
       <c r="S127" s="26"/>
     </row>
     <row r="128" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="199"/>
-      <c r="B128" s="182"/>
+      <c r="A128" s="184"/>
+      <c r="B128" s="175"/>
       <c r="C128" s="60" t="s">
         <v>498</v>
       </c>
@@ -14130,8 +14130,8 @@
       <c r="S128" s="26"/>
     </row>
     <row r="129" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="199"/>
-      <c r="B129" s="201"/>
+      <c r="A129" s="184"/>
+      <c r="B129" s="186"/>
       <c r="C129" s="60" t="s">
         <v>176</v>
       </c>
@@ -14173,8 +14173,8 @@
       <c r="S129" s="26"/>
     </row>
     <row r="130" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="199"/>
-      <c r="B130" s="187" t="s">
+      <c r="A130" s="184"/>
+      <c r="B130" s="181" t="s">
         <v>193</v>
       </c>
       <c r="C130" s="63" t="s">
@@ -14221,8 +14221,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="199"/>
-      <c r="B131" s="177"/>
+      <c r="A131" s="184"/>
+      <c r="B131" s="182"/>
       <c r="C131" s="60" t="s">
         <v>445</v>
       </c>
@@ -14265,8 +14265,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="199"/>
-      <c r="B132" s="177"/>
+      <c r="A132" s="184"/>
+      <c r="B132" s="182"/>
       <c r="C132" s="60" t="s">
         <v>448</v>
       </c>
@@ -14309,8 +14309,8 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="199"/>
-      <c r="B133" s="177"/>
+      <c r="A133" s="184"/>
+      <c r="B133" s="182"/>
       <c r="C133" s="61" t="s">
         <v>422</v>
       </c>
@@ -14355,8 +14355,8 @@
       <c r="T133" s="23"/>
     </row>
     <row r="134" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="199"/>
-      <c r="B134" s="177"/>
+      <c r="A134" s="184"/>
+      <c r="B134" s="182"/>
       <c r="C134" s="60" t="s">
         <v>228</v>
       </c>
@@ -14399,8 +14399,8 @@
       <c r="T134" s="23"/>
     </row>
     <row r="135" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="199"/>
-      <c r="B135" s="177"/>
+      <c r="A135" s="184"/>
+      <c r="B135" s="182"/>
       <c r="C135" s="60" t="s">
         <v>207</v>
       </c>
@@ -14443,8 +14443,8 @@
       <c r="T135" s="23"/>
     </row>
     <row r="136" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="200"/>
-      <c r="B136" s="177"/>
+      <c r="A136" s="185"/>
+      <c r="B136" s="182"/>
       <c r="C136" s="65" t="s">
         <v>621</v>
       </c>
@@ -14467,10 +14467,10 @@
       <c r="T136" s="23"/>
     </row>
     <row r="137" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="195" t="s">
+      <c r="A137" s="178" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="184" t="s">
+      <c r="B137" s="174" t="s">
         <v>51</v>
       </c>
       <c r="C137" s="62" t="s">
@@ -14513,8 +14513,8 @@
       <c r="T137" s="33"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="196"/>
-      <c r="B138" s="182"/>
+      <c r="A138" s="179"/>
+      <c r="B138" s="175"/>
       <c r="C138" s="61" t="s">
         <v>95</v>
       </c>
@@ -14554,8 +14554,8 @@
       <c r="S138" s="31"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="196"/>
-      <c r="B139" s="182"/>
+      <c r="A139" s="179"/>
+      <c r="B139" s="175"/>
       <c r="C139" s="65" t="s">
         <v>599</v>
       </c>
@@ -14598,8 +14598,8 @@
       <c r="T139" s="19"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="196"/>
-      <c r="B140" s="182"/>
+      <c r="A140" s="179"/>
+      <c r="B140" s="175"/>
       <c r="C140" s="60" t="s">
         <v>115</v>
       </c>
@@ -14641,8 +14641,8 @@
       <c r="T140" s="19"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="196"/>
-      <c r="B141" s="182"/>
+      <c r="A141" s="179"/>
+      <c r="B141" s="175"/>
       <c r="C141" s="60" t="s">
         <v>114</v>
       </c>
@@ -14684,8 +14684,8 @@
       <c r="T141" s="19"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="196"/>
-      <c r="B142" s="187" t="s">
+      <c r="A142" s="179"/>
+      <c r="B142" s="181" t="s">
         <v>193</v>
       </c>
       <c r="C142" s="63" t="s">
@@ -14727,8 +14727,8 @@
       <c r="S142" s="57"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="196"/>
-      <c r="B143" s="177"/>
+      <c r="A143" s="179"/>
+      <c r="B143" s="182"/>
       <c r="C143" s="60" t="s">
         <v>396</v>
       </c>
@@ -14767,8 +14767,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="196"/>
-      <c r="B144" s="177"/>
+      <c r="A144" s="179"/>
+      <c r="B144" s="182"/>
       <c r="C144" s="60" t="s">
         <v>253</v>
       </c>
@@ -14808,8 +14808,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="196"/>
-      <c r="B145" s="177"/>
+      <c r="A145" s="179"/>
+      <c r="B145" s="182"/>
       <c r="C145" s="65" t="s">
         <v>615</v>
       </c>
@@ -14843,8 +14843,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="196"/>
-      <c r="B146" s="177"/>
+      <c r="A146" s="179"/>
+      <c r="B146" s="182"/>
       <c r="C146" s="60" t="s">
         <v>419</v>
       </c>
@@ -14884,8 +14884,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="196"/>
-      <c r="B147" s="177"/>
+      <c r="A147" s="179"/>
+      <c r="B147" s="182"/>
       <c r="C147" s="60" t="s">
         <v>378</v>
       </c>
@@ -14923,8 +14923,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="196"/>
-      <c r="B148" s="177"/>
+      <c r="A148" s="179"/>
+      <c r="B148" s="182"/>
       <c r="C148" s="60" t="s">
         <v>436</v>
       </c>
@@ -14964,8 +14964,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="196"/>
-      <c r="B149" s="177"/>
+      <c r="A149" s="179"/>
+      <c r="B149" s="182"/>
       <c r="C149" s="60" t="s">
         <v>356</v>
       </c>
@@ -15005,8 +15005,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="196"/>
-      <c r="B150" s="177"/>
+      <c r="A150" s="179"/>
+      <c r="B150" s="182"/>
       <c r="C150" s="60" t="s">
         <v>224</v>
       </c>
@@ -15048,8 +15048,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="196"/>
-      <c r="B151" s="177"/>
+      <c r="A151" s="179"/>
+      <c r="B151" s="182"/>
       <c r="C151" s="60" t="s">
         <v>418</v>
       </c>
@@ -15089,8 +15089,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="196"/>
-      <c r="B152" s="177"/>
+      <c r="A152" s="179"/>
+      <c r="B152" s="182"/>
       <c r="C152" s="60" t="s">
         <v>393</v>
       </c>
@@ -15130,8 +15130,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="196"/>
-      <c r="B153" s="177"/>
+      <c r="A153" s="179"/>
+      <c r="B153" s="182"/>
       <c r="C153" s="60" t="s">
         <v>430</v>
       </c>
@@ -15171,8 +15171,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="196"/>
-      <c r="B154" s="177"/>
+      <c r="A154" s="179"/>
+      <c r="B154" s="182"/>
       <c r="C154" s="60" t="s">
         <v>403</v>
       </c>
@@ -15212,8 +15212,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="196"/>
-      <c r="B155" s="177"/>
+      <c r="A155" s="179"/>
+      <c r="B155" s="182"/>
       <c r="C155" s="65" t="s">
         <v>518</v>
       </c>
@@ -15255,8 +15255,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="196"/>
-      <c r="B156" s="177"/>
+      <c r="A156" s="179"/>
+      <c r="B156" s="182"/>
       <c r="C156" s="65" t="s">
         <v>254</v>
       </c>
@@ -15296,8 +15296,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="196"/>
-      <c r="B157" s="177"/>
+      <c r="A157" s="179"/>
+      <c r="B157" s="182"/>
       <c r="C157" s="65" t="s">
         <v>443</v>
       </c>
@@ -15337,8 +15337,8 @@
       <c r="S157" s="26"/>
     </row>
     <row r="158" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="196"/>
-      <c r="B158" s="177"/>
+      <c r="A158" s="179"/>
+      <c r="B158" s="182"/>
       <c r="C158" s="65" t="s">
         <v>432</v>
       </c>
@@ -15378,8 +15378,8 @@
       <c r="S158" s="26"/>
     </row>
     <row r="159" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="196"/>
-      <c r="B159" s="177"/>
+      <c r="A159" s="179"/>
+      <c r="B159" s="182"/>
       <c r="C159" s="65" t="s">
         <v>317</v>
       </c>
@@ -15421,8 +15421,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="196"/>
-      <c r="B160" s="177"/>
+      <c r="A160" s="179"/>
+      <c r="B160" s="182"/>
       <c r="C160" s="65" t="s">
         <v>364</v>
       </c>
@@ -15464,8 +15464,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="197"/>
-      <c r="B161" s="177"/>
+      <c r="A161" s="180"/>
+      <c r="B161" s="182"/>
       <c r="C161" s="65" t="s">
         <v>210</v>
       </c>
@@ -15505,10 +15505,10 @@
       <c r="S161" s="31"/>
     </row>
     <row r="162" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="185" t="s">
+      <c r="A162" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="B162" s="176" t="s">
+      <c r="B162" s="195" t="s">
         <v>193</v>
       </c>
       <c r="C162" s="62" t="s">
@@ -15554,8 +15554,8 @@
       <c r="S162" s="36"/>
     </row>
     <row r="163" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="185"/>
-      <c r="B163" s="177"/>
+      <c r="A163" s="200"/>
+      <c r="B163" s="182"/>
       <c r="C163" s="60" t="s">
         <v>360</v>
       </c>
@@ -15597,8 +15597,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="185"/>
-      <c r="B164" s="177"/>
+      <c r="A164" s="200"/>
+      <c r="B164" s="182"/>
       <c r="C164" s="60" t="s">
         <v>379</v>
       </c>
@@ -15642,8 +15642,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="185"/>
-      <c r="B165" s="177"/>
+      <c r="A165" s="200"/>
+      <c r="B165" s="182"/>
       <c r="C165" s="60" t="s">
         <v>389</v>
       </c>
@@ -15687,8 +15687,8 @@
       <c r="S165" s="26"/>
     </row>
     <row r="166" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="185"/>
-      <c r="B166" s="177"/>
+      <c r="A166" s="200"/>
+      <c r="B166" s="182"/>
       <c r="C166" s="60" t="s">
         <v>248</v>
       </c>
@@ -15730,8 +15730,8 @@
       <c r="S166" s="26"/>
     </row>
     <row r="167" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="185"/>
-      <c r="B167" s="177"/>
+      <c r="A167" s="200"/>
+      <c r="B167" s="182"/>
       <c r="C167" s="61" t="s">
         <v>398</v>
       </c>
@@ -15775,8 +15775,8 @@
       <c r="S167" s="26"/>
     </row>
     <row r="168" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="185"/>
-      <c r="B168" s="177"/>
+      <c r="A168" s="200"/>
+      <c r="B168" s="182"/>
       <c r="C168" s="60" t="s">
         <v>370</v>
       </c>
@@ -15818,8 +15818,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="185"/>
-      <c r="B169" s="178"/>
+      <c r="A169" s="200"/>
+      <c r="B169" s="187"/>
       <c r="C169" s="60" t="s">
         <v>399</v>
       </c>
@@ -15861,7 +15861,7 @@
       <c r="S169" s="31"/>
     </row>
     <row r="170" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="186" t="s">
+      <c r="A170" s="201" t="s">
         <v>532</v>
       </c>
       <c r="B170" s="72" t="s">
@@ -15904,8 +15904,8 @@
       <c r="S170" s="71"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="186"/>
-      <c r="B171" s="187" t="s">
+      <c r="A171" s="201"/>
+      <c r="B171" s="181" t="s">
         <v>193</v>
       </c>
       <c r="C171" s="60" t="s">
@@ -15943,8 +15943,8 @@
       <c r="S171" s="57"/>
     </row>
     <row r="172" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="186"/>
-      <c r="B172" s="177"/>
+      <c r="A172" s="201"/>
+      <c r="B172" s="182"/>
       <c r="C172" s="60" t="s">
         <v>195</v>
       </c>
@@ -15979,8 +15979,8 @@
       <c r="S172" s="26"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="186"/>
-      <c r="B173" s="177"/>
+      <c r="A173" s="201"/>
+      <c r="B173" s="182"/>
       <c r="C173" s="60" t="s">
         <v>257</v>
       </c>
@@ -16020,8 +16020,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="186"/>
-      <c r="B174" s="177"/>
+      <c r="A174" s="201"/>
+      <c r="B174" s="182"/>
       <c r="C174" s="60" t="s">
         <v>414</v>
       </c>
@@ -16058,8 +16058,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="186"/>
-      <c r="B175" s="188"/>
+      <c r="A175" s="201"/>
+      <c r="B175" s="202"/>
       <c r="C175" s="60" t="s">
         <v>415</v>
       </c>
@@ -16097,10 +16097,10 @@
       <c r="S175" s="26"/>
     </row>
     <row r="176" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="175" t="s">
+      <c r="A176" s="194" t="s">
         <v>113</v>
       </c>
-      <c r="B176" s="181" t="s">
+      <c r="B176" s="198" t="s">
         <v>51</v>
       </c>
       <c r="C176" s="62" t="s">
@@ -16140,8 +16140,8 @@
       <c r="S176" s="36"/>
     </row>
     <row r="177" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="175"/>
-      <c r="B177" s="182"/>
+      <c r="A177" s="194"/>
+      <c r="B177" s="175"/>
       <c r="C177" s="60" t="s">
         <v>184</v>
       </c>
@@ -16179,8 +16179,8 @@
       <c r="S177" s="26"/>
     </row>
     <row r="178" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="175"/>
-      <c r="B178" s="182"/>
+      <c r="A178" s="194"/>
+      <c r="B178" s="175"/>
       <c r="C178" s="60" t="s">
         <v>183</v>
       </c>
@@ -16218,8 +16218,8 @@
       <c r="S178" s="26"/>
     </row>
     <row r="179" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="175"/>
-      <c r="B179" s="182"/>
+      <c r="A179" s="194"/>
+      <c r="B179" s="175"/>
       <c r="C179" s="61" t="s">
         <v>185</v>
       </c>
@@ -16257,8 +16257,8 @@
       <c r="S179" s="31"/>
     </row>
     <row r="180" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="175"/>
-      <c r="B180" s="173" t="s">
+      <c r="A180" s="194"/>
+      <c r="B180" s="192" t="s">
         <v>193</v>
       </c>
       <c r="C180" s="63" t="s">
@@ -16292,8 +16292,8 @@
       <c r="S180" s="57"/>
     </row>
     <row r="181" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="175"/>
-      <c r="B181" s="174"/>
+      <c r="A181" s="194"/>
+      <c r="B181" s="193"/>
       <c r="C181" s="64"/>
       <c r="E181" s="49"/>
       <c r="F181" s="49"/>
@@ -17022,18 +17022,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A53:A71"/>
-    <mergeCell ref="A137:A161"/>
-    <mergeCell ref="B142:B161"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="B83:B119"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="A72:A119"/>
-    <mergeCell ref="B137:B141"/>
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="A176:A181"/>
     <mergeCell ref="B162:B169"/>
@@ -17049,6 +17037,18 @@
     <mergeCell ref="B130:B136"/>
     <mergeCell ref="A39:A52"/>
     <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A53:A71"/>
+    <mergeCell ref="A137:A161"/>
+    <mergeCell ref="B142:B161"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="B83:B119"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="A72:A119"/>
+    <mergeCell ref="B137:B141"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\DayZ_Server\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F61D11D-8D2D-4539-A441-2418C5CD1DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93DED9-4A20-42A3-AE0E-1F7A1229CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -4104,14 +4104,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -4128,12 +4179,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4146,9 +4191,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4159,48 +4201,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -8237,18 +8237,18 @@
     <sortCondition ref="B2:B98"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A11:A15"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A57:A71"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A21:A40"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8259,8 +8259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M80" activeCellId="1" sqref="I83 M80"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8292,25 +8292,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -8325,19 +8325,19 @@
       <c r="F4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -8388,10 +8388,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="181" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8453,8 +8453,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="60" t="s">
         <v>42</v>
       </c>
@@ -8505,8 +8505,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="60" t="s">
         <v>49</v>
       </c>
@@ -8555,8 +8555,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
-      <c r="B9" s="175"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="60" t="s">
         <v>281</v>
       </c>
@@ -8607,8 +8607,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
-      <c r="B10" s="175"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8657,8 +8657,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
-      <c r="B11" s="175"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
@@ -8709,8 +8709,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
-      <c r="B12" s="175"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="182"/>
       <c r="C12" s="60" t="s">
         <v>44</v>
       </c>
@@ -8756,8 +8756,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="196"/>
-      <c r="B13" s="175"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="182"/>
       <c r="C13" s="60" t="s">
         <v>634</v>
       </c>
@@ -8791,8 +8791,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="196"/>
-      <c r="B14" s="175"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="182"/>
       <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
@@ -8838,8 +8838,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
-      <c r="B15" s="175"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="60" t="s">
         <v>74</v>
       </c>
@@ -8885,8 +8885,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
-      <c r="B16" s="175"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="60" t="s">
         <v>46</v>
       </c>
@@ -8930,8 +8930,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="175"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="60" t="s">
         <v>47</v>
       </c>
@@ -8975,8 +8975,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="175"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="182"/>
       <c r="C18" s="60" t="s">
         <v>48</v>
       </c>
@@ -9020,8 +9020,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196"/>
-      <c r="B19" s="175"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="60" t="s">
         <v>344</v>
       </c>
@@ -9067,8 +9067,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
-      <c r="B20" s="199"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="61" t="s">
         <v>50</v>
       </c>
@@ -9110,8 +9110,8 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
-      <c r="B21" s="195" t="s">
+      <c r="A21" s="179"/>
+      <c r="B21" s="176" t="s">
         <v>244</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -9162,8 +9162,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
-      <c r="B22" s="182"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="61" t="s">
         <v>231</v>
       </c>
@@ -9209,8 +9209,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
-      <c r="B23" s="182"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="60" t="s">
         <v>45</v>
       </c>
@@ -9254,8 +9254,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
-      <c r="B24" s="182"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="60" t="s">
         <v>120</v>
       </c>
@@ -9303,8 +9303,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
-      <c r="B25" s="182"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="60" t="s">
         <v>233</v>
       </c>
@@ -9354,8 +9354,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
-      <c r="B26" s="182"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="177"/>
       <c r="C26" s="60" t="s">
         <v>348</v>
       </c>
@@ -9401,8 +9401,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
-      <c r="B27" s="182"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="60" t="s">
         <v>119</v>
       </c>
@@ -9448,8 +9448,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
-      <c r="B28" s="182"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="177"/>
       <c r="C28" s="60" t="s">
         <v>462</v>
       </c>
@@ -9495,8 +9495,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
-      <c r="B29" s="182"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="60" t="s">
         <v>383</v>
       </c>
@@ -9542,8 +9542,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="196"/>
-      <c r="B30" s="182"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="177"/>
       <c r="C30" s="60" t="s">
         <v>236</v>
       </c>
@@ -9590,8 +9590,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="196"/>
-      <c r="B31" s="182"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="60" t="s">
         <v>349</v>
       </c>
@@ -9637,8 +9637,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
-      <c r="B32" s="182"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="60" t="s">
         <v>349</v>
       </c>
@@ -9684,8 +9684,8 @@
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="182"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="60" t="s">
         <v>215</v>
       </c>
@@ -9732,8 +9732,8 @@
       <c r="T33" s="23"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="196"/>
-      <c r="B34" s="182"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="60" t="s">
         <v>240</v>
       </c>
@@ -9779,8 +9779,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="196"/>
-      <c r="B35" s="182"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="60" t="s">
         <v>373</v>
       </c>
@@ -9824,8 +9824,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="196"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="60" t="s">
         <v>688</v>
       </c>
@@ -9857,8 +9857,8 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
-      <c r="B37" s="182"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="60" t="s">
         <v>385</v>
       </c>
@@ -9904,8 +9904,8 @@
       <c r="S37" s="26"/>
     </row>
     <row r="38" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="196"/>
-      <c r="B38" s="187"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="65" t="s">
         <v>232</v>
       </c>
@@ -9951,10 +9951,10 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="203" t="s">
+      <c r="A39" s="189" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="184" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="62" t="s">
@@ -9999,8 +9999,8 @@
       <c r="T39" s="33"/>
     </row>
     <row r="40" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="204"/>
-      <c r="B40" s="175"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="182"/>
       <c r="C40" s="60" t="s">
         <v>107</v>
       </c>
@@ -10042,8 +10042,8 @@
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="204"/>
-      <c r="B41" s="175"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="60" t="s">
         <v>108</v>
       </c>
@@ -10086,8 +10086,8 @@
       <c r="T41" s="23"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="204"/>
-      <c r="B42" s="175"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="182"/>
       <c r="C42" s="61" t="s">
         <v>109</v>
       </c>
@@ -10135,8 +10135,8 @@
       <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="204"/>
-      <c r="B43" s="181" t="s">
+      <c r="A43" s="190"/>
+      <c r="B43" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C43" s="63" t="s">
@@ -10184,8 +10184,8 @@
       <c r="S43" s="57"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="204"/>
-      <c r="B44" s="182"/>
+      <c r="A44" s="190"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="60" t="s">
         <v>217</v>
       </c>
@@ -10227,8 +10227,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="204"/>
-      <c r="B45" s="182"/>
+      <c r="A45" s="190"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="60" t="s">
         <v>256</v>
       </c>
@@ -10270,8 +10270,8 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="204"/>
-      <c r="B46" s="182"/>
+      <c r="A46" s="190"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="60" t="s">
         <v>218</v>
       </c>
@@ -10313,8 +10313,8 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="204"/>
-      <c r="B47" s="182"/>
+      <c r="A47" s="190"/>
+      <c r="B47" s="177"/>
       <c r="C47" s="60" t="s">
         <v>487</v>
       </c>
@@ -10361,8 +10361,8 @@
       <c r="T47" s="28"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="204"/>
-      <c r="B48" s="182"/>
+      <c r="A48" s="190"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="60" t="s">
         <v>410</v>
       </c>
@@ -10406,8 +10406,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="204"/>
-      <c r="B49" s="182"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="177"/>
       <c r="C49" s="60" t="s">
         <v>407</v>
       </c>
@@ -10451,8 +10451,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="204"/>
-      <c r="B50" s="182"/>
+      <c r="A50" s="190"/>
+      <c r="B50" s="177"/>
       <c r="C50" s="60" t="s">
         <v>405</v>
       </c>
@@ -10500,8 +10500,8 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="204"/>
-      <c r="B51" s="182"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="177"/>
       <c r="C51" s="60" t="s">
         <v>255</v>
       </c>
@@ -10547,8 +10547,8 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="205"/>
-      <c r="B52" s="187"/>
+      <c r="A52" s="191"/>
+      <c r="B52" s="178"/>
       <c r="C52" s="65" t="s">
         <v>528</v>
       </c>
@@ -10592,10 +10592,10 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="176" t="s">
+      <c r="A53" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="174" t="s">
+      <c r="B53" s="184" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="62" t="s">
@@ -10642,8 +10642,8 @@
       <c r="T53" s="33"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="177"/>
-      <c r="B54" s="175"/>
+      <c r="A54" s="194"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="60" t="s">
         <v>66</v>
       </c>
@@ -10689,8 +10689,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="177"/>
-      <c r="B55" s="175"/>
+      <c r="A55" s="194"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="60" t="s">
         <v>67</v>
       </c>
@@ -10736,8 +10736,8 @@
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="177"/>
-      <c r="B56" s="175"/>
+      <c r="A56" s="194"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="61" t="s">
         <v>68</v>
       </c>
@@ -10783,8 +10783,8 @@
       <c r="S56" s="26"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="177"/>
-      <c r="B57" s="175"/>
+      <c r="A57" s="194"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="65" t="s">
         <v>601</v>
       </c>
@@ -10828,8 +10828,8 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="177"/>
-      <c r="B58" s="181" t="s">
+      <c r="A58" s="194"/>
+      <c r="B58" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C58" s="63" t="s">
@@ -10877,8 +10877,8 @@
       <c r="S58" s="57"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="177"/>
-      <c r="B59" s="182"/>
+      <c r="A59" s="194"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="60" t="s">
         <v>208</v>
       </c>
@@ -10926,8 +10926,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="177"/>
-      <c r="B60" s="182"/>
+      <c r="A60" s="194"/>
+      <c r="B60" s="177"/>
       <c r="C60" s="60" t="s">
         <v>202</v>
       </c>
@@ -10971,8 +10971,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="177"/>
-      <c r="B61" s="182"/>
+      <c r="A61" s="194"/>
+      <c r="B61" s="177"/>
       <c r="C61" s="60" t="s">
         <v>197</v>
       </c>
@@ -11018,8 +11018,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="177"/>
-      <c r="B62" s="182"/>
+      <c r="A62" s="194"/>
+      <c r="B62" s="177"/>
       <c r="C62" s="60" t="s">
         <v>198</v>
       </c>
@@ -11065,8 +11065,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="177"/>
-      <c r="B63" s="182"/>
+      <c r="A63" s="194"/>
+      <c r="B63" s="177"/>
       <c r="C63" s="60" t="s">
         <v>91</v>
       </c>
@@ -11112,8 +11112,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="177"/>
-      <c r="B64" s="182"/>
+      <c r="A64" s="194"/>
+      <c r="B64" s="177"/>
       <c r="C64" s="60" t="s">
         <v>412</v>
       </c>
@@ -11159,8 +11159,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="177"/>
-      <c r="B65" s="182"/>
+      <c r="A65" s="194"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="60" t="s">
         <v>199</v>
       </c>
@@ -11208,8 +11208,8 @@
       <c r="S65" s="26"/>
     </row>
     <row r="66" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="177"/>
-      <c r="B66" s="182"/>
+      <c r="A66" s="194"/>
+      <c r="B66" s="177"/>
       <c r="C66" s="60" t="s">
         <v>426</v>
       </c>
@@ -11255,8 +11255,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="177"/>
-      <c r="B67" s="182"/>
+      <c r="A67" s="194"/>
+      <c r="B67" s="177"/>
       <c r="C67" s="60" t="s">
         <v>375</v>
       </c>
@@ -11303,8 +11303,8 @@
       <c r="T67" s="28"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="177"/>
-      <c r="B68" s="182"/>
+      <c r="A68" s="194"/>
+      <c r="B68" s="177"/>
       <c r="C68" s="60" t="s">
         <v>391</v>
       </c>
@@ -11352,8 +11352,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="177"/>
-      <c r="B69" s="182"/>
+      <c r="A69" s="194"/>
+      <c r="B69" s="177"/>
       <c r="C69" s="60" t="s">
         <v>252</v>
       </c>
@@ -11402,8 +11402,8 @@
       <c r="T69" s="23"/>
     </row>
     <row r="70" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="177"/>
-      <c r="B70" s="182"/>
+      <c r="A70" s="194"/>
+      <c r="B70" s="177"/>
       <c r="C70" s="60" t="s">
         <v>429</v>
       </c>
@@ -11449,8 +11449,8 @@
       <c r="S70" s="26"/>
     </row>
     <row r="71" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="177"/>
-      <c r="B71" s="182"/>
+      <c r="A71" s="194"/>
+      <c r="B71" s="177"/>
       <c r="C71" s="61" t="s">
         <v>203</v>
       </c>
@@ -11495,10 +11495,10 @@
       <c r="T71" s="28"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="189" t="s">
+      <c r="A72" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="188"/>
+      <c r="B72" s="202"/>
       <c r="C72" s="62" t="s">
         <v>79</v>
       </c>
@@ -11545,8 +11545,8 @@
       <c r="T72" s="33"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="190"/>
-      <c r="B73" s="175"/>
+      <c r="A73" s="204"/>
+      <c r="B73" s="182"/>
       <c r="C73" s="60" t="s">
         <v>80</v>
       </c>
@@ -11592,8 +11592,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="190"/>
-      <c r="B74" s="175"/>
+      <c r="A74" s="204"/>
+      <c r="B74" s="182"/>
       <c r="C74" s="60" t="s">
         <v>81</v>
       </c>
@@ -11641,8 +11641,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="190"/>
-      <c r="B75" s="175"/>
+      <c r="A75" s="204"/>
+      <c r="B75" s="182"/>
       <c r="C75" s="60" t="s">
         <v>82</v>
       </c>
@@ -11688,8 +11688,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="190"/>
-      <c r="B76" s="175"/>
+      <c r="A76" s="204"/>
+      <c r="B76" s="182"/>
       <c r="C76" s="60" t="s">
         <v>83</v>
       </c>
@@ -11737,8 +11737,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="190"/>
-      <c r="B77" s="175"/>
+      <c r="A77" s="204"/>
+      <c r="B77" s="182"/>
       <c r="C77" s="60" t="s">
         <v>84</v>
       </c>
@@ -11784,8 +11784,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="190"/>
-      <c r="B78" s="175"/>
+      <c r="A78" s="204"/>
+      <c r="B78" s="182"/>
       <c r="C78" s="60" t="s">
         <v>85</v>
       </c>
@@ -11829,8 +11829,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="190"/>
-      <c r="B79" s="175"/>
+      <c r="A79" s="204"/>
+      <c r="B79" s="182"/>
       <c r="C79" s="60" t="s">
         <v>86</v>
       </c>
@@ -11876,8 +11876,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="190"/>
-      <c r="B80" s="175"/>
+      <c r="A80" s="204"/>
+      <c r="B80" s="182"/>
       <c r="C80" s="60" t="s">
         <v>87</v>
       </c>
@@ -11925,8 +11925,8 @@
       <c r="S80" s="26"/>
     </row>
     <row r="81" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="190"/>
-      <c r="B81" s="175"/>
+      <c r="A81" s="204"/>
+      <c r="B81" s="182"/>
       <c r="C81" s="60" t="s">
         <v>223</v>
       </c>
@@ -11972,8 +11972,8 @@
       <c r="S81" s="26"/>
     </row>
     <row r="82" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="190"/>
-      <c r="B82" s="186"/>
+      <c r="A82" s="204"/>
+      <c r="B82" s="201"/>
       <c r="C82" s="61" t="s">
         <v>90</v>
       </c>
@@ -12019,8 +12019,8 @@
       <c r="S82" s="31"/>
     </row>
     <row r="83" spans="1:19" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="190"/>
-      <c r="B83" s="182" t="s">
+      <c r="A83" s="204"/>
+      <c r="B83" s="177" t="s">
         <v>193</v>
       </c>
       <c r="C83" s="63" t="s">
@@ -12068,8 +12068,8 @@
       <c r="S83" s="57"/>
     </row>
     <row r="84" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="190"/>
-      <c r="B84" s="182"/>
+      <c r="A84" s="204"/>
+      <c r="B84" s="177"/>
       <c r="C84" s="60" t="s">
         <v>212</v>
       </c>
@@ -12115,8 +12115,8 @@
       <c r="S84" s="26"/>
     </row>
     <row r="85" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="190"/>
-      <c r="B85" s="182"/>
+      <c r="A85" s="204"/>
+      <c r="B85" s="177"/>
       <c r="C85" s="60" t="s">
         <v>424</v>
       </c>
@@ -12160,8 +12160,8 @@
       <c r="S85" s="26"/>
     </row>
     <row r="86" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="190"/>
-      <c r="B86" s="182"/>
+      <c r="A86" s="204"/>
+      <c r="B86" s="177"/>
       <c r="C86" s="60" t="s">
         <v>293</v>
       </c>
@@ -12207,8 +12207,8 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="190"/>
-      <c r="B87" s="182"/>
+      <c r="A87" s="204"/>
+      <c r="B87" s="177"/>
       <c r="C87" s="60" t="s">
         <v>366</v>
       </c>
@@ -12254,8 +12254,8 @@
       <c r="S87" s="26"/>
     </row>
     <row r="88" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="190"/>
-      <c r="B88" s="182"/>
+      <c r="A88" s="204"/>
+      <c r="B88" s="177"/>
       <c r="C88" s="60" t="s">
         <v>219</v>
       </c>
@@ -12299,8 +12299,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="190"/>
-      <c r="B89" s="182"/>
+      <c r="A89" s="204"/>
+      <c r="B89" s="177"/>
       <c r="C89" s="60" t="s">
         <v>320</v>
       </c>
@@ -12346,8 +12346,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="190"/>
-      <c r="B90" s="182"/>
+      <c r="A90" s="204"/>
+      <c r="B90" s="177"/>
       <c r="C90" s="61" t="s">
         <v>247</v>
       </c>
@@ -12393,8 +12393,8 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="190"/>
-      <c r="B91" s="182"/>
+      <c r="A91" s="204"/>
+      <c r="B91" s="177"/>
       <c r="C91" s="60" t="s">
         <v>401</v>
       </c>
@@ -12440,8 +12440,8 @@
       <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="190"/>
-      <c r="B92" s="182"/>
+      <c r="A92" s="204"/>
+      <c r="B92" s="177"/>
       <c r="C92" s="65" t="s">
         <v>692</v>
       </c>
@@ -12473,8 +12473,8 @@
       <c r="S92" s="26"/>
     </row>
     <row r="93" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="190"/>
-      <c r="B93" s="182"/>
+      <c r="A93" s="204"/>
+      <c r="B93" s="177"/>
       <c r="C93" s="60" t="s">
         <v>368</v>
       </c>
@@ -12518,8 +12518,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="190"/>
-      <c r="B94" s="182"/>
+      <c r="A94" s="204"/>
+      <c r="B94" s="177"/>
       <c r="C94" s="60" t="s">
         <v>355</v>
       </c>
@@ -12565,8 +12565,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="190"/>
-      <c r="B95" s="182"/>
+      <c r="A95" s="204"/>
+      <c r="B95" s="177"/>
       <c r="C95" s="60" t="s">
         <v>351</v>
       </c>
@@ -12612,8 +12612,8 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="190"/>
-      <c r="B96" s="182"/>
+      <c r="A96" s="204"/>
+      <c r="B96" s="177"/>
       <c r="C96" s="60" t="s">
         <v>211</v>
       </c>
@@ -12661,8 +12661,8 @@
       <c r="S96" s="26"/>
     </row>
     <row r="97" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="190"/>
-      <c r="B97" s="182"/>
+      <c r="A97" s="204"/>
+      <c r="B97" s="177"/>
       <c r="C97" s="60" t="s">
         <v>371</v>
       </c>
@@ -12708,8 +12708,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="190"/>
-      <c r="B98" s="182"/>
+      <c r="A98" s="204"/>
+      <c r="B98" s="177"/>
       <c r="C98" s="60" t="s">
         <v>220</v>
       </c>
@@ -12755,8 +12755,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="190"/>
-      <c r="B99" s="182"/>
+      <c r="A99" s="204"/>
+      <c r="B99" s="177"/>
       <c r="C99" s="60" t="s">
         <v>245</v>
       </c>
@@ -12800,8 +12800,8 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="190"/>
-      <c r="B100" s="182"/>
+      <c r="A100" s="204"/>
+      <c r="B100" s="177"/>
       <c r="C100" s="60" t="s">
         <v>292</v>
       </c>
@@ -12845,8 +12845,8 @@
       <c r="S100" s="26"/>
     </row>
     <row r="101" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="190"/>
-      <c r="B101" s="182"/>
+      <c r="A101" s="204"/>
+      <c r="B101" s="177"/>
       <c r="C101" s="60" t="s">
         <v>222</v>
       </c>
@@ -12892,8 +12892,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="190"/>
-      <c r="B102" s="182"/>
+      <c r="A102" s="204"/>
+      <c r="B102" s="177"/>
       <c r="C102" s="60" t="s">
         <v>697</v>
       </c>
@@ -12937,8 +12937,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="190"/>
-      <c r="B103" s="182"/>
+      <c r="A103" s="204"/>
+      <c r="B103" s="177"/>
       <c r="C103" s="60" t="s">
         <v>230</v>
       </c>
@@ -12980,8 +12980,8 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="190"/>
-      <c r="B104" s="182"/>
+      <c r="A104" s="204"/>
+      <c r="B104" s="177"/>
       <c r="C104" s="60" t="s">
         <v>221</v>
       </c>
@@ -13027,8 +13027,8 @@
       <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="190"/>
-      <c r="B105" s="182"/>
+      <c r="A105" s="204"/>
+      <c r="B105" s="177"/>
       <c r="C105" s="65" t="s">
         <v>216</v>
       </c>
@@ -13074,8 +13074,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="190"/>
-      <c r="B106" s="182"/>
+      <c r="A106" s="204"/>
+      <c r="B106" s="177"/>
       <c r="C106" s="60" t="s">
         <v>213</v>
       </c>
@@ -13121,8 +13121,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="190"/>
-      <c r="B107" s="182"/>
+      <c r="A107" s="204"/>
+      <c r="B107" s="177"/>
       <c r="C107" s="60" t="s">
         <v>214</v>
       </c>
@@ -13168,8 +13168,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="190"/>
-      <c r="B108" s="182"/>
+      <c r="A108" s="204"/>
+      <c r="B108" s="177"/>
       <c r="C108" s="60" t="s">
         <v>357</v>
       </c>
@@ -13215,8 +13215,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="190"/>
-      <c r="B109" s="182"/>
+      <c r="A109" s="204"/>
+      <c r="B109" s="177"/>
       <c r="C109" s="60" t="s">
         <v>229</v>
       </c>
@@ -13262,8 +13262,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="190"/>
-      <c r="B110" s="182"/>
+      <c r="A110" s="204"/>
+      <c r="B110" s="177"/>
       <c r="C110" s="60" t="s">
         <v>205</v>
       </c>
@@ -13309,8 +13309,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="190"/>
-      <c r="B111" s="182"/>
+      <c r="A111" s="204"/>
+      <c r="B111" s="177"/>
       <c r="C111" s="60" t="s">
         <v>206</v>
       </c>
@@ -13356,8 +13356,8 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="190"/>
-      <c r="B112" s="182"/>
+      <c r="A112" s="204"/>
+      <c r="B112" s="177"/>
       <c r="C112" s="60" t="s">
         <v>499</v>
       </c>
@@ -13403,8 +13403,8 @@
       <c r="S112" s="26"/>
     </row>
     <row r="113" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="190"/>
-      <c r="B113" s="182"/>
+      <c r="A113" s="204"/>
+      <c r="B113" s="177"/>
       <c r="C113" s="60" t="s">
         <v>246</v>
       </c>
@@ -13450,8 +13450,8 @@
       <c r="S113" s="26"/>
     </row>
     <row r="114" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="190"/>
-      <c r="B114" s="182"/>
+      <c r="A114" s="204"/>
+      <c r="B114" s="177"/>
       <c r="C114" s="60" t="s">
         <v>249</v>
       </c>
@@ -13495,8 +13495,8 @@
       <c r="S114" s="26"/>
     </row>
     <row r="115" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="190"/>
-      <c r="B115" s="182"/>
+      <c r="A115" s="204"/>
+      <c r="B115" s="177"/>
       <c r="C115" s="60" t="s">
         <v>226</v>
       </c>
@@ -13544,8 +13544,8 @@
       <c r="S115" s="26"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="190"/>
-      <c r="B116" s="182"/>
+      <c r="A116" s="204"/>
+      <c r="B116" s="177"/>
       <c r="C116" s="60" t="s">
         <v>227</v>
       </c>
@@ -13593,8 +13593,8 @@
       <c r="S116" s="26"/>
     </row>
     <row r="117" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="190"/>
-      <c r="B117" s="182"/>
+      <c r="A117" s="204"/>
+      <c r="B117" s="177"/>
       <c r="C117" s="65" t="s">
         <v>595</v>
       </c>
@@ -13621,8 +13621,8 @@
       <c r="T117" s="23"/>
     </row>
     <row r="118" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="190"/>
-      <c r="B118" s="182"/>
+      <c r="A118" s="204"/>
+      <c r="B118" s="177"/>
       <c r="C118" s="60" t="s">
         <v>323</v>
       </c>
@@ -13669,8 +13669,8 @@
       <c r="T118" s="23"/>
     </row>
     <row r="119" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="191"/>
-      <c r="B119" s="187"/>
+      <c r="A119" s="205"/>
+      <c r="B119" s="178"/>
       <c r="C119" s="61" t="s">
         <v>316</v>
       </c>
@@ -13723,10 +13723,10 @@
       <c r="T119" s="28"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183" t="s">
+      <c r="A120" s="198" t="s">
         <v>497</v>
       </c>
-      <c r="B120" s="174" t="s">
+      <c r="B120" s="184" t="s">
         <v>51</v>
       </c>
       <c r="C120" s="62" t="s">
@@ -13771,8 +13771,8 @@
       <c r="T120" s="33"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="184"/>
-      <c r="B121" s="175"/>
+      <c r="A121" s="199"/>
+      <c r="B121" s="182"/>
       <c r="C121" s="60" t="s">
         <v>92</v>
       </c>
@@ -13818,8 +13818,8 @@
       <c r="S121" s="26"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="184"/>
-      <c r="B122" s="175"/>
+      <c r="A122" s="199"/>
+      <c r="B122" s="182"/>
       <c r="C122" s="60" t="s">
         <v>93</v>
       </c>
@@ -13865,8 +13865,8 @@
       <c r="S122" s="26"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
-      <c r="B123" s="175"/>
+      <c r="A123" s="199"/>
+      <c r="B123" s="182"/>
       <c r="C123" s="60" t="s">
         <v>104</v>
       </c>
@@ -13908,8 +13908,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="184"/>
-      <c r="B124" s="175"/>
+      <c r="A124" s="199"/>
+      <c r="B124" s="182"/>
       <c r="C124" s="61" t="s">
         <v>94</v>
       </c>
@@ -13952,8 +13952,8 @@
       <c r="T124" s="28"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="184"/>
-      <c r="B125" s="175"/>
+      <c r="A125" s="199"/>
+      <c r="B125" s="182"/>
       <c r="C125" s="60" t="s">
         <v>179</v>
       </c>
@@ -13996,8 +13996,8 @@
       <c r="T125" s="28"/>
     </row>
     <row r="126" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="184"/>
-      <c r="B126" s="175"/>
+      <c r="A126" s="199"/>
+      <c r="B126" s="182"/>
       <c r="C126" s="61" t="s">
         <v>116</v>
       </c>
@@ -14040,8 +14040,8 @@
       <c r="T126" s="28"/>
     </row>
     <row r="127" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
-      <c r="B127" s="175"/>
+      <c r="A127" s="199"/>
+      <c r="B127" s="182"/>
       <c r="C127" s="60" t="s">
         <v>96</v>
       </c>
@@ -14085,8 +14085,8 @@
       <c r="S127" s="26"/>
     </row>
     <row r="128" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="184"/>
-      <c r="B128" s="175"/>
+      <c r="A128" s="199"/>
+      <c r="B128" s="182"/>
       <c r="C128" s="60" t="s">
         <v>498</v>
       </c>
@@ -14130,8 +14130,8 @@
       <c r="S128" s="26"/>
     </row>
     <row r="129" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="184"/>
-      <c r="B129" s="186"/>
+      <c r="A129" s="199"/>
+      <c r="B129" s="201"/>
       <c r="C129" s="60" t="s">
         <v>176</v>
       </c>
@@ -14173,8 +14173,8 @@
       <c r="S129" s="26"/>
     </row>
     <row r="130" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="184"/>
-      <c r="B130" s="181" t="s">
+      <c r="A130" s="199"/>
+      <c r="B130" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C130" s="63" t="s">
@@ -14221,8 +14221,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="184"/>
-      <c r="B131" s="182"/>
+      <c r="A131" s="199"/>
+      <c r="B131" s="177"/>
       <c r="C131" s="60" t="s">
         <v>445</v>
       </c>
@@ -14265,8 +14265,8 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="184"/>
-      <c r="B132" s="182"/>
+      <c r="A132" s="199"/>
+      <c r="B132" s="177"/>
       <c r="C132" s="60" t="s">
         <v>448</v>
       </c>
@@ -14309,8 +14309,8 @@
       <c r="T132" s="23"/>
     </row>
     <row r="133" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="184"/>
-      <c r="B133" s="182"/>
+      <c r="A133" s="199"/>
+      <c r="B133" s="177"/>
       <c r="C133" s="61" t="s">
         <v>422</v>
       </c>
@@ -14355,8 +14355,8 @@
       <c r="T133" s="23"/>
     </row>
     <row r="134" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="184"/>
-      <c r="B134" s="182"/>
+      <c r="A134" s="199"/>
+      <c r="B134" s="177"/>
       <c r="C134" s="60" t="s">
         <v>228</v>
       </c>
@@ -14399,8 +14399,8 @@
       <c r="T134" s="23"/>
     </row>
     <row r="135" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="184"/>
-      <c r="B135" s="182"/>
+      <c r="A135" s="199"/>
+      <c r="B135" s="177"/>
       <c r="C135" s="60" t="s">
         <v>207</v>
       </c>
@@ -14443,8 +14443,8 @@
       <c r="T135" s="23"/>
     </row>
     <row r="136" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="185"/>
-      <c r="B136" s="182"/>
+      <c r="A136" s="200"/>
+      <c r="B136" s="177"/>
       <c r="C136" s="65" t="s">
         <v>621</v>
       </c>
@@ -14467,10 +14467,10 @@
       <c r="T136" s="23"/>
     </row>
     <row r="137" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="178" t="s">
+      <c r="A137" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="174" t="s">
+      <c r="B137" s="184" t="s">
         <v>51</v>
       </c>
       <c r="C137" s="62" t="s">
@@ -14513,8 +14513,8 @@
       <c r="T137" s="33"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="179"/>
-      <c r="B138" s="175"/>
+      <c r="A138" s="196"/>
+      <c r="B138" s="182"/>
       <c r="C138" s="61" t="s">
         <v>95</v>
       </c>
@@ -14554,8 +14554,8 @@
       <c r="S138" s="31"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="179"/>
-      <c r="B139" s="175"/>
+      <c r="A139" s="196"/>
+      <c r="B139" s="182"/>
       <c r="C139" s="65" t="s">
         <v>599</v>
       </c>
@@ -14598,8 +14598,8 @@
       <c r="T139" s="19"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="179"/>
-      <c r="B140" s="175"/>
+      <c r="A140" s="196"/>
+      <c r="B140" s="182"/>
       <c r="C140" s="60" t="s">
         <v>115</v>
       </c>
@@ -14641,8 +14641,8 @@
       <c r="T140" s="19"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="179"/>
-      <c r="B141" s="175"/>
+      <c r="A141" s="196"/>
+      <c r="B141" s="182"/>
       <c r="C141" s="60" t="s">
         <v>114</v>
       </c>
@@ -14684,8 +14684,8 @@
       <c r="T141" s="19"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="179"/>
-      <c r="B142" s="181" t="s">
+      <c r="A142" s="196"/>
+      <c r="B142" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C142" s="63" t="s">
@@ -14727,8 +14727,8 @@
       <c r="S142" s="57"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="179"/>
-      <c r="B143" s="182"/>
+      <c r="A143" s="196"/>
+      <c r="B143" s="177"/>
       <c r="C143" s="60" t="s">
         <v>396</v>
       </c>
@@ -14767,8 +14767,8 @@
       <c r="S143" s="26"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="179"/>
-      <c r="B144" s="182"/>
+      <c r="A144" s="196"/>
+      <c r="B144" s="177"/>
       <c r="C144" s="60" t="s">
         <v>253</v>
       </c>
@@ -14808,8 +14808,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="179"/>
-      <c r="B145" s="182"/>
+      <c r="A145" s="196"/>
+      <c r="B145" s="177"/>
       <c r="C145" s="65" t="s">
         <v>615</v>
       </c>
@@ -14843,8 +14843,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="179"/>
-      <c r="B146" s="182"/>
+      <c r="A146" s="196"/>
+      <c r="B146" s="177"/>
       <c r="C146" s="60" t="s">
         <v>419</v>
       </c>
@@ -14884,8 +14884,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="179"/>
-      <c r="B147" s="182"/>
+      <c r="A147" s="196"/>
+      <c r="B147" s="177"/>
       <c r="C147" s="60" t="s">
         <v>378</v>
       </c>
@@ -14923,8 +14923,8 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="179"/>
-      <c r="B148" s="182"/>
+      <c r="A148" s="196"/>
+      <c r="B148" s="177"/>
       <c r="C148" s="60" t="s">
         <v>436</v>
       </c>
@@ -14964,8 +14964,8 @@
       <c r="S148" s="26"/>
     </row>
     <row r="149" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="179"/>
-      <c r="B149" s="182"/>
+      <c r="A149" s="196"/>
+      <c r="B149" s="177"/>
       <c r="C149" s="60" t="s">
         <v>356</v>
       </c>
@@ -15005,8 +15005,8 @@
       <c r="S149" s="26"/>
     </row>
     <row r="150" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="179"/>
-      <c r="B150" s="182"/>
+      <c r="A150" s="196"/>
+      <c r="B150" s="177"/>
       <c r="C150" s="60" t="s">
         <v>224</v>
       </c>
@@ -15048,8 +15048,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="179"/>
-      <c r="B151" s="182"/>
+      <c r="A151" s="196"/>
+      <c r="B151" s="177"/>
       <c r="C151" s="60" t="s">
         <v>418</v>
       </c>
@@ -15089,8 +15089,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="179"/>
-      <c r="B152" s="182"/>
+      <c r="A152" s="196"/>
+      <c r="B152" s="177"/>
       <c r="C152" s="60" t="s">
         <v>393</v>
       </c>
@@ -15130,8 +15130,8 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="179"/>
-      <c r="B153" s="182"/>
+      <c r="A153" s="196"/>
+      <c r="B153" s="177"/>
       <c r="C153" s="60" t="s">
         <v>430</v>
       </c>
@@ -15171,8 +15171,8 @@
       <c r="S153" s="26"/>
     </row>
     <row r="154" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="179"/>
-      <c r="B154" s="182"/>
+      <c r="A154" s="196"/>
+      <c r="B154" s="177"/>
       <c r="C154" s="60" t="s">
         <v>403</v>
       </c>
@@ -15212,8 +15212,8 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="179"/>
-      <c r="B155" s="182"/>
+      <c r="A155" s="196"/>
+      <c r="B155" s="177"/>
       <c r="C155" s="65" t="s">
         <v>518</v>
       </c>
@@ -15255,8 +15255,8 @@
       <c r="S155" s="26"/>
     </row>
     <row r="156" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="179"/>
-      <c r="B156" s="182"/>
+      <c r="A156" s="196"/>
+      <c r="B156" s="177"/>
       <c r="C156" s="65" t="s">
         <v>254</v>
       </c>
@@ -15296,8 +15296,8 @@
       <c r="S156" s="26"/>
     </row>
     <row r="157" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="179"/>
-      <c r="B157" s="182"/>
+      <c r="A157" s="196"/>
+      <c r="B157" s="177"/>
       <c r="C157" s="65" t="s">
         <v>443</v>
       </c>
@@ -15337,8 +15337,8 @@
       <c r="S157" s="26"/>
     </row>
     <row r="158" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="179"/>
-      <c r="B158" s="182"/>
+      <c r="A158" s="196"/>
+      <c r="B158" s="177"/>
       <c r="C158" s="65" t="s">
         <v>432</v>
       </c>
@@ -15378,8 +15378,8 @@
       <c r="S158" s="26"/>
     </row>
     <row r="159" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="179"/>
-      <c r="B159" s="182"/>
+      <c r="A159" s="196"/>
+      <c r="B159" s="177"/>
       <c r="C159" s="65" t="s">
         <v>317</v>
       </c>
@@ -15421,8 +15421,8 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="179"/>
-      <c r="B160" s="182"/>
+      <c r="A160" s="196"/>
+      <c r="B160" s="177"/>
       <c r="C160" s="65" t="s">
         <v>364</v>
       </c>
@@ -15464,8 +15464,8 @@
       <c r="S160" s="26"/>
     </row>
     <row r="161" spans="1:19" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="180"/>
-      <c r="B161" s="182"/>
+      <c r="A161" s="197"/>
+      <c r="B161" s="177"/>
       <c r="C161" s="65" t="s">
         <v>210</v>
       </c>
@@ -15505,10 +15505,10 @@
       <c r="S161" s="31"/>
     </row>
     <row r="162" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="200" t="s">
+      <c r="A162" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="B162" s="195" t="s">
+      <c r="B162" s="176" t="s">
         <v>193</v>
       </c>
       <c r="C162" s="62" t="s">
@@ -15554,8 +15554,8 @@
       <c r="S162" s="36"/>
     </row>
     <row r="163" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="200"/>
-      <c r="B163" s="182"/>
+      <c r="A163" s="185"/>
+      <c r="B163" s="177"/>
       <c r="C163" s="60" t="s">
         <v>360</v>
       </c>
@@ -15597,8 +15597,8 @@
       <c r="S163" s="26"/>
     </row>
     <row r="164" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="200"/>
-      <c r="B164" s="182"/>
+      <c r="A164" s="185"/>
+      <c r="B164" s="177"/>
       <c r="C164" s="60" t="s">
         <v>379</v>
       </c>
@@ -15642,8 +15642,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="200"/>
-      <c r="B165" s="182"/>
+      <c r="A165" s="185"/>
+      <c r="B165" s="177"/>
       <c r="C165" s="60" t="s">
         <v>389</v>
       </c>
@@ -15687,8 +15687,8 @@
       <c r="S165" s="26"/>
     </row>
     <row r="166" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="200"/>
-      <c r="B166" s="182"/>
+      <c r="A166" s="185"/>
+      <c r="B166" s="177"/>
       <c r="C166" s="60" t="s">
         <v>248</v>
       </c>
@@ -15730,8 +15730,8 @@
       <c r="S166" s="26"/>
     </row>
     <row r="167" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="200"/>
-      <c r="B167" s="182"/>
+      <c r="A167" s="185"/>
+      <c r="B167" s="177"/>
       <c r="C167" s="61" t="s">
         <v>398</v>
       </c>
@@ -15775,8 +15775,8 @@
       <c r="S167" s="26"/>
     </row>
     <row r="168" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="200"/>
-      <c r="B168" s="182"/>
+      <c r="A168" s="185"/>
+      <c r="B168" s="177"/>
       <c r="C168" s="60" t="s">
         <v>370</v>
       </c>
@@ -15818,8 +15818,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="200"/>
-      <c r="B169" s="187"/>
+      <c r="A169" s="185"/>
+      <c r="B169" s="178"/>
       <c r="C169" s="60" t="s">
         <v>399</v>
       </c>
@@ -15861,7 +15861,7 @@
       <c r="S169" s="31"/>
     </row>
     <row r="170" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="201" t="s">
+      <c r="A170" s="186" t="s">
         <v>532</v>
       </c>
       <c r="B170" s="72" t="s">
@@ -15904,8 +15904,8 @@
       <c r="S170" s="71"/>
     </row>
     <row r="171" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="201"/>
-      <c r="B171" s="181" t="s">
+      <c r="A171" s="186"/>
+      <c r="B171" s="187" t="s">
         <v>193</v>
       </c>
       <c r="C171" s="60" t="s">
@@ -15943,8 +15943,8 @@
       <c r="S171" s="57"/>
     </row>
     <row r="172" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="201"/>
-      <c r="B172" s="182"/>
+      <c r="A172" s="186"/>
+      <c r="B172" s="177"/>
       <c r="C172" s="60" t="s">
         <v>195</v>
       </c>
@@ -15979,8 +15979,8 @@
       <c r="S172" s="26"/>
     </row>
     <row r="173" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="201"/>
-      <c r="B173" s="182"/>
+      <c r="A173" s="186"/>
+      <c r="B173" s="177"/>
       <c r="C173" s="60" t="s">
         <v>257</v>
       </c>
@@ -16020,8 +16020,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="201"/>
-      <c r="B174" s="182"/>
+      <c r="A174" s="186"/>
+      <c r="B174" s="177"/>
       <c r="C174" s="60" t="s">
         <v>414</v>
       </c>
@@ -16058,8 +16058,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="201"/>
-      <c r="B175" s="202"/>
+      <c r="A175" s="186"/>
+      <c r="B175" s="188"/>
       <c r="C175" s="60" t="s">
         <v>415</v>
       </c>
@@ -16097,10 +16097,10 @@
       <c r="S175" s="26"/>
     </row>
     <row r="176" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="194" t="s">
+      <c r="A176" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="B176" s="198" t="s">
+      <c r="B176" s="181" t="s">
         <v>51</v>
       </c>
       <c r="C176" s="62" t="s">
@@ -16140,8 +16140,8 @@
       <c r="S176" s="36"/>
     </row>
     <row r="177" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="194"/>
-      <c r="B177" s="175"/>
+      <c r="A177" s="175"/>
+      <c r="B177" s="182"/>
       <c r="C177" s="60" t="s">
         <v>184</v>
       </c>
@@ -16179,8 +16179,8 @@
       <c r="S177" s="26"/>
     </row>
     <row r="178" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="194"/>
-      <c r="B178" s="175"/>
+      <c r="A178" s="175"/>
+      <c r="B178" s="182"/>
       <c r="C178" s="60" t="s">
         <v>183</v>
       </c>
@@ -16218,8 +16218,8 @@
       <c r="S178" s="26"/>
     </row>
     <row r="179" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="194"/>
-      <c r="B179" s="175"/>
+      <c r="A179" s="175"/>
+      <c r="B179" s="182"/>
       <c r="C179" s="61" t="s">
         <v>185</v>
       </c>
@@ -16257,8 +16257,8 @@
       <c r="S179" s="31"/>
     </row>
     <row r="180" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="194"/>
-      <c r="B180" s="192" t="s">
+      <c r="A180" s="175"/>
+      <c r="B180" s="173" t="s">
         <v>193</v>
       </c>
       <c r="C180" s="63" t="s">
@@ -16292,8 +16292,8 @@
       <c r="S180" s="57"/>
     </row>
     <row r="181" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="194"/>
-      <c r="B181" s="193"/>
+      <c r="A181" s="175"/>
+      <c r="B181" s="174"/>
       <c r="C181" s="64"/>
       <c r="E181" s="49"/>
       <c r="F181" s="49"/>
@@ -17022,6 +17022,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A53:A71"/>
+    <mergeCell ref="A137:A161"/>
+    <mergeCell ref="B142:B161"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="B83:B119"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="A72:A119"/>
+    <mergeCell ref="B137:B141"/>
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="A176:A181"/>
     <mergeCell ref="B162:B169"/>
@@ -17037,18 +17049,6 @@
     <mergeCell ref="B130:B136"/>
     <mergeCell ref="A39:A52"/>
     <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A53:A71"/>
-    <mergeCell ref="A137:A161"/>
-    <mergeCell ref="B142:B161"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="B83:B119"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="A72:A119"/>
-    <mergeCell ref="B137:B141"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\DayZ_Server\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60A75F1-2852-4904-A273-02C9188690FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3905EAA-6AC5-4137-ACDA-B82EC9F165E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15720" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -4092,108 +4092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="20" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
@@ -4279,6 +4177,108 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60 % - Akzent3" xfId="3" builtinId="40"/>
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="203" t="s">
         <v>666</v>
       </c>
       <c r="C2" s="148">
@@ -5174,7 +5174,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="162"/>
+      <c r="A3" s="203"/>
       <c r="C3" s="149">
         <v>1564026768</v>
       </c>
@@ -5212,7 +5212,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="203" t="s">
         <v>667</v>
       </c>
       <c r="C4" s="150">
@@ -5252,7 +5252,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
+      <c r="A5" s="203"/>
       <c r="C5" s="150">
         <v>2614334381</v>
       </c>
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="162"/>
+      <c r="A6" s="203"/>
       <c r="C6" s="150">
         <v>2507204412</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="203" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="149">
@@ -5368,7 +5368,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
+      <c r="A8" s="203"/>
       <c r="C8" s="149">
         <v>2572331007</v>
       </c>
@@ -5408,7 +5408,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
+      <c r="A9" s="203"/>
       <c r="C9" s="150">
         <v>2116157322</v>
       </c>
@@ -5448,7 +5448,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
+      <c r="A10" s="203"/>
       <c r="C10" s="150">
         <v>2793893086</v>
       </c>
@@ -5488,7 +5488,7 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="203" t="s">
         <v>668</v>
       </c>
       <c r="C11" s="150">
@@ -5530,7 +5530,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
+      <c r="A12" s="203"/>
       <c r="C12" s="150">
         <v>3031784065</v>
       </c>
@@ -5570,7 +5570,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
+      <c r="A13" s="203"/>
       <c r="C13" s="150">
         <v>2977703357</v>
       </c>
@@ -5608,7 +5608,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
+      <c r="A14" s="203"/>
       <c r="C14" s="150">
         <v>2980235854</v>
       </c>
@@ -5646,7 +5646,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
+      <c r="A15" s="203"/>
       <c r="C15" s="150">
         <v>2111523728</v>
       </c>
@@ -5686,7 +5686,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="203" t="s">
         <v>672</v>
       </c>
       <c r="C16" s="150">
@@ -5728,7 +5728,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
+      <c r="A17" s="203"/>
       <c r="C17" s="150">
         <v>2822531337</v>
       </c>
@@ -5766,7 +5766,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="203" t="s">
         <v>669</v>
       </c>
       <c r="C18" s="149">
@@ -5810,7 +5810,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="203"/>
       <c r="C19" s="149">
         <v>2166325582</v>
       </c>
@@ -5848,7 +5848,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+      <c r="A20" s="203"/>
       <c r="C20" s="149">
         <v>2208230845</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="203" t="s">
         <v>670</v>
       </c>
       <c r="B21" s="158"/>
@@ -5929,7 +5929,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="158"/>
       <c r="C22" s="149">
         <v>2789302074</v>
@@ -5966,7 +5966,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
+      <c r="A23" s="203"/>
       <c r="B23" s="158"/>
       <c r="C23" s="150">
         <v>1991570984</v>
@@ -5999,7 +5999,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="158"/>
       <c r="C24" s="150">
         <v>3171576913</v>
@@ -6038,7 +6038,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="162"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="158"/>
       <c r="C25" s="149" t="s">
         <v>594</v>
@@ -6075,7 +6075,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="162"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="158"/>
       <c r="C26" s="149">
         <v>2931560672</v>
@@ -6112,7 +6112,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="158"/>
       <c r="C27" s="150">
         <v>3108865421</v>
@@ -6149,7 +6149,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="162"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="158"/>
       <c r="C28" s="149">
         <v>1630943713</v>
@@ -6188,7 +6188,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="162"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="158"/>
       <c r="C29" s="150">
         <v>1797720064</v>
@@ -6227,7 +6227,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="158"/>
       <c r="C30" s="149">
         <v>2155726353</v>
@@ -6264,7 +6264,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="203"/>
       <c r="B31" s="158"/>
       <c r="C31" s="150">
         <v>2723807644</v>
@@ -6301,7 +6301,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
+      <c r="A32" s="203"/>
       <c r="B32" s="158"/>
       <c r="C32" s="150">
         <v>2780914191</v>
@@ -6338,7 +6338,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
+      <c r="A33" s="203"/>
       <c r="B33" s="158"/>
       <c r="C33" s="150">
         <v>2741271183</v>
@@ -6375,7 +6375,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="203"/>
       <c r="B34" s="158"/>
       <c r="C34" s="150">
         <v>2579252958</v>
@@ -6414,7 +6414,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162"/>
+      <c r="A35" s="203"/>
       <c r="B35" s="158"/>
       <c r="C35" s="150">
         <v>3034460305</v>
@@ -6453,7 +6453,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="162"/>
+      <c r="A36" s="203"/>
       <c r="B36" s="158"/>
       <c r="C36" s="150">
         <v>2851058261</v>
@@ -6492,7 +6492,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="162"/>
+      <c r="A37" s="203"/>
       <c r="B37" s="158"/>
       <c r="C37" s="150">
         <v>2926289548</v>
@@ -6529,7 +6529,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="162"/>
+      <c r="A38" s="203"/>
       <c r="B38" s="158"/>
       <c r="C38" s="150">
         <v>3170285574</v>
@@ -6568,7 +6568,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
+      <c r="A39" s="203"/>
       <c r="B39" s="158"/>
       <c r="C39" s="150">
         <v>3279662973</v>
@@ -6607,7 +6607,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
+      <c r="A40" s="203"/>
       <c r="B40" s="158"/>
       <c r="C40" s="149">
         <v>2937138060</v>
@@ -6646,7 +6646,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="203" t="s">
         <v>673</v>
       </c>
       <c r="C41" s="150">
@@ -6688,7 +6688,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="162"/>
+      <c r="A42" s="203"/>
       <c r="C42" s="150">
         <v>3114410963</v>
       </c>
@@ -6724,7 +6724,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="162"/>
+      <c r="A43" s="203"/>
       <c r="C43" s="149">
         <v>1866298408</v>
       </c>
@@ -6762,7 +6762,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="162"/>
+      <c r="A44" s="203"/>
       <c r="C44" s="150">
         <v>2874589934</v>
       </c>
@@ -6800,7 +6800,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="203" t="s">
         <v>674</v>
       </c>
       <c r="C45" s="150">
@@ -6828,7 +6828,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+      <c r="A46" s="203"/>
       <c r="C46" s="150">
         <v>1710977250</v>
       </c>
@@ -6856,7 +6856,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="162"/>
+      <c r="A47" s="203"/>
       <c r="C47" s="150">
         <v>2895049000</v>
       </c>
@@ -6884,7 +6884,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="162" t="s">
+      <c r="A48" s="203" t="s">
         <v>675</v>
       </c>
       <c r="C48" s="150">
@@ -6924,7 +6924,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
+      <c r="A49" s="203"/>
       <c r="C49" s="150">
         <v>2472500243</v>
       </c>
@@ -6962,7 +6962,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
+      <c r="A50" s="203"/>
       <c r="C50" s="150">
         <v>1832448183</v>
       </c>
@@ -6994,7 +6994,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
+      <c r="A51" s="203"/>
       <c r="C51" s="150">
         <v>1895432270</v>
       </c>
@@ -7030,7 +7030,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
+      <c r="A52" s="203"/>
       <c r="C52" s="150">
         <v>2912241382</v>
       </c>
@@ -7066,7 +7066,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="162" t="s">
+      <c r="A53" s="203" t="s">
         <v>665</v>
       </c>
       <c r="C53" s="150">
@@ -7106,7 +7106,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
+      <c r="A54" s="203"/>
       <c r="C54" s="150">
         <v>3043440124</v>
       </c>
@@ -7144,7 +7144,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
+      <c r="A55" s="203"/>
       <c r="C55" s="149">
         <v>2550932214</v>
       </c>
@@ -7182,7 +7182,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
+      <c r="A56" s="203"/>
       <c r="C56" s="150">
         <v>3321340470</v>
       </c>
@@ -7222,7 +7222,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="162" t="s">
+      <c r="A57" s="203" t="s">
         <v>671</v>
       </c>
       <c r="C57" s="149">
@@ -7262,7 +7262,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="162"/>
+      <c r="A58" s="203"/>
       <c r="C58" s="149">
         <v>2793619401</v>
       </c>
@@ -7302,7 +7302,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="162"/>
+      <c r="A59" s="203"/>
       <c r="C59" s="150">
         <v>2924719512</v>
       </c>
@@ -7340,7 +7340,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="162"/>
+      <c r="A60" s="203"/>
       <c r="C60" s="150">
         <v>2810260908</v>
       </c>
@@ -7378,7 +7378,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="162"/>
+      <c r="A61" s="203"/>
       <c r="C61" s="150">
         <v>2877877368</v>
       </c>
@@ -7416,7 +7416,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="162"/>
+      <c r="A62" s="203"/>
       <c r="C62" s="150">
         <v>2857994912</v>
       </c>
@@ -7454,7 +7454,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="162"/>
+      <c r="A63" s="203"/>
       <c r="C63" s="150">
         <v>2817606510</v>
       </c>
@@ -7492,7 +7492,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="162"/>
+      <c r="A64" s="203"/>
       <c r="C64" s="150">
         <v>2884638645</v>
       </c>
@@ -7526,7 +7526,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="162"/>
+      <c r="A65" s="203"/>
       <c r="C65" s="149">
         <v>2521460498</v>
       </c>
@@ -7564,7 +7564,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="162"/>
+      <c r="A66" s="203"/>
       <c r="C66" s="149">
         <v>2903112334</v>
       </c>
@@ -7604,7 +7604,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162"/>
+      <c r="A67" s="203"/>
       <c r="C67" s="149">
         <v>2833363308</v>
       </c>
@@ -7642,7 +7642,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="162"/>
+      <c r="A68" s="203"/>
       <c r="C68" s="150">
         <v>2521678241</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="162"/>
+      <c r="A69" s="203"/>
       <c r="C69" s="150">
         <v>2895460678</v>
       </c>
@@ -7720,7 +7720,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="162"/>
+      <c r="A70" s="203"/>
       <c r="C70" s="150">
         <v>2985895498</v>
       </c>
@@ -7758,7 +7758,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="162"/>
+      <c r="A71" s="203"/>
       <c r="C71" s="150">
         <v>2224593910</v>
       </c>
@@ -8314,18 +8314,18 @@
     <sortCondition ref="B2:B98"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A11:A15"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A57:A71"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A21:A40"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8336,8 +8336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8369,25 +8369,25 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="223"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -8402,19 +8402,19 @@
       <c r="F4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="187"/>
-      <c r="Q4" s="187"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="211"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -8465,10 +8465,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="212" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8530,8 +8530,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="186"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="210"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="59" t="s">
         <v>42</v>
       </c>
@@ -8582,8 +8582,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="59" t="s">
         <v>49</v>
       </c>
@@ -8632,8 +8632,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
-      <c r="B9" s="165"/>
+      <c r="A9" s="210"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="59" t="s">
         <v>281</v>
       </c>
@@ -8684,8 +8684,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="165"/>
+      <c r="A10" s="210"/>
+      <c r="B10" s="213"/>
       <c r="C10" s="59" t="s">
         <v>43</v>
       </c>
@@ -8734,8 +8734,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
-      <c r="B11" s="165"/>
+      <c r="A11" s="210"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="59" t="s">
         <v>59</v>
       </c>
@@ -8786,8 +8786,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="165"/>
+      <c r="A12" s="210"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="59" t="s">
         <v>44</v>
       </c>
@@ -8833,8 +8833,8 @@
       <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
-      <c r="B13" s="165"/>
+      <c r="A13" s="210"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="59" t="s">
         <v>634</v>
       </c>
@@ -8868,8 +8868,8 @@
       <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="186"/>
-      <c r="B14" s="165"/>
+      <c r="A14" s="210"/>
+      <c r="B14" s="213"/>
       <c r="C14" s="59" t="s">
         <v>45</v>
       </c>
@@ -8915,8 +8915,8 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="186"/>
-      <c r="B15" s="165"/>
+      <c r="A15" s="210"/>
+      <c r="B15" s="213"/>
       <c r="C15" s="59" t="s">
         <v>74</v>
       </c>
@@ -8962,8 +8962,8 @@
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="186"/>
-      <c r="B16" s="165"/>
+      <c r="A16" s="210"/>
+      <c r="B16" s="213"/>
       <c r="C16" s="59" t="s">
         <v>46</v>
       </c>
@@ -9007,8 +9007,8 @@
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="186"/>
-      <c r="B17" s="165"/>
+      <c r="A17" s="210"/>
+      <c r="B17" s="213"/>
       <c r="C17" s="59" t="s">
         <v>47</v>
       </c>
@@ -9052,8 +9052,8 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="186"/>
-      <c r="B18" s="165"/>
+      <c r="A18" s="210"/>
+      <c r="B18" s="213"/>
       <c r="C18" s="59" t="s">
         <v>48</v>
       </c>
@@ -9097,8 +9097,8 @@
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="186"/>
-      <c r="B19" s="165"/>
+      <c r="A19" s="210"/>
+      <c r="B19" s="213"/>
       <c r="C19" s="59" t="s">
         <v>344</v>
       </c>
@@ -9144,8 +9144,8 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="186"/>
-      <c r="B20" s="189"/>
+      <c r="A20" s="210"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="60" t="s">
         <v>50</v>
       </c>
@@ -9187,60 +9187,60 @@
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="186"/>
-      <c r="B21" s="185" t="s">
+      <c r="A21" s="210"/>
+      <c r="B21" s="207" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="199" t="s">
+      <c r="C21" s="165" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="200" t="s">
+      <c r="D21" s="166" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="200" t="s">
+      <c r="E21" s="166" t="s">
         <v>277</v>
       </c>
-      <c r="F21" s="200" t="s">
+      <c r="F21" s="166" t="s">
         <v>641</v>
       </c>
-      <c r="G21" s="201" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="202" t="s">
+      <c r="G21" s="167" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="202" t="s">
+      <c r="I21" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="203">
+      <c r="J21" s="169">
         <v>4</v>
       </c>
-      <c r="K21" s="202" t="s">
+      <c r="K21" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="202" t="s">
+      <c r="L21" s="168" t="s">
         <v>470</v>
       </c>
-      <c r="M21" s="202" t="s">
+      <c r="M21" s="168" t="s">
         <v>475</v>
       </c>
-      <c r="N21" s="204">
+      <c r="N21" s="170">
         <v>400</v>
       </c>
-      <c r="O21" s="204">
+      <c r="O21" s="170">
         <v>70</v>
       </c>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="206"/>
-      <c r="T21" s="200" t="s">
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="166" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="186"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="210"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="60" t="s">
         <v>231</v>
       </c>
@@ -9286,8 +9286,8 @@
       <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="186"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="210"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="59" t="s">
         <v>45</v>
       </c>
@@ -9331,8 +9331,8 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="186"/>
-      <c r="B24" s="172"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="59" t="s">
         <v>120</v>
       </c>
@@ -9380,8 +9380,8 @@
       <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="186"/>
-      <c r="B25" s="172"/>
+      <c r="A25" s="210"/>
+      <c r="B25" s="208"/>
       <c r="C25" s="59" t="s">
         <v>233</v>
       </c>
@@ -9431,8 +9431,8 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="186"/>
-      <c r="B26" s="172"/>
+      <c r="A26" s="210"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="59" t="s">
         <v>348</v>
       </c>
@@ -9478,8 +9478,8 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="186"/>
-      <c r="B27" s="172"/>
+      <c r="A27" s="210"/>
+      <c r="B27" s="208"/>
       <c r="C27" s="59" t="s">
         <v>119</v>
       </c>
@@ -9525,8 +9525,8 @@
       <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="186"/>
-      <c r="B28" s="172"/>
+      <c r="A28" s="210"/>
+      <c r="B28" s="208"/>
       <c r="C28" s="59" t="s">
         <v>462</v>
       </c>
@@ -9572,8 +9572,8 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="186"/>
-      <c r="B29" s="172"/>
+      <c r="A29" s="210"/>
+      <c r="B29" s="208"/>
       <c r="C29" s="59" t="s">
         <v>383</v>
       </c>
@@ -9619,8 +9619,8 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186"/>
-      <c r="B30" s="172"/>
+      <c r="A30" s="210"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="59" t="s">
         <v>236</v>
       </c>
@@ -9667,8 +9667,8 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="186"/>
-      <c r="B31" s="172"/>
+      <c r="A31" s="210"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="59" t="s">
         <v>349</v>
       </c>
@@ -9714,8 +9714,8 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="186"/>
-      <c r="B32" s="172"/>
+      <c r="A32" s="210"/>
+      <c r="B32" s="208"/>
       <c r="C32" s="59" t="s">
         <v>349</v>
       </c>
@@ -9761,8 +9761,8 @@
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="186"/>
-      <c r="B33" s="172"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="208"/>
       <c r="C33" s="59" t="s">
         <v>215</v>
       </c>
@@ -9809,8 +9809,8 @@
       <c r="T33" s="23"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="186"/>
-      <c r="B34" s="172"/>
+      <c r="A34" s="210"/>
+      <c r="B34" s="208"/>
       <c r="C34" s="59" t="s">
         <v>240</v>
       </c>
@@ -9856,8 +9856,8 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="186"/>
-      <c r="B35" s="172"/>
+      <c r="A35" s="210"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="59" t="s">
         <v>373</v>
       </c>
@@ -9901,8 +9901,8 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="186"/>
-      <c r="B36" s="172"/>
+      <c r="A36" s="210"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="59" t="s">
         <v>688</v>
       </c>
@@ -9934,8 +9934,8 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="186"/>
-      <c r="B37" s="172"/>
+      <c r="A37" s="210"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="59" t="s">
         <v>385</v>
       </c>
@@ -9981,8 +9981,8 @@
       <c r="S37" s="26"/>
     </row>
     <row r="38" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="186"/>
-      <c r="B38" s="177"/>
+      <c r="A38" s="210"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="64" t="s">
         <v>232</v>
       </c>
@@ -10028,10 +10028,10 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="193" t="s">
+      <c r="A39" s="220" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="164" t="s">
+      <c r="B39" s="215" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="61" t="s">
@@ -10076,8 +10076,8 @@
       <c r="T39" s="33"/>
     </row>
     <row r="40" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="194"/>
-      <c r="B40" s="165"/>
+      <c r="A40" s="221"/>
+      <c r="B40" s="213"/>
       <c r="C40" s="59" t="s">
         <v>107</v>
       </c>
@@ -10119,8 +10119,8 @@
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="194"/>
-      <c r="B41" s="165"/>
+      <c r="A41" s="221"/>
+      <c r="B41" s="213"/>
       <c r="C41" s="59" t="s">
         <v>108</v>
       </c>
@@ -10163,8 +10163,8 @@
       <c r="T41" s="23"/>
     </row>
     <row r="42" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="194"/>
-      <c r="B42" s="165"/>
+      <c r="A42" s="221"/>
+      <c r="B42" s="213"/>
       <c r="C42" s="60" t="s">
         <v>109</v>
       </c>
@@ -10212,8 +10212,8 @@
       <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:20" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="194"/>
-      <c r="B43" s="171" t="s">
+      <c r="A43" s="221"/>
+      <c r="B43" s="218" t="s">
         <v>193</v>
       </c>
       <c r="C43" s="62" t="s">
@@ -10261,8 +10261,8 @@
       <c r="S43" s="56"/>
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="194"/>
-      <c r="B44" s="172"/>
+      <c r="A44" s="221"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="59" t="s">
         <v>217</v>
       </c>
@@ -10304,8 +10304,8 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="194"/>
-      <c r="B45" s="172"/>
+      <c r="A45" s="221"/>
+      <c r="B45" s="208"/>
       <c r="C45" s="59" t="s">
         <v>256</v>
       </c>
@@ -10349,8 +10349,8 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:20" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="194"/>
-      <c r="B46" s="172"/>
+      <c r="A46" s="221"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="59" t="s">
         <v>218</v>
       </c>
@@ -10392,56 +10392,56 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="194"/>
-      <c r="B47" s="172"/>
-      <c r="C47" s="196" t="s">
+      <c r="A47" s="221"/>
+      <c r="B47" s="208"/>
+      <c r="C47" s="162" t="s">
         <v>487</v>
       </c>
-      <c r="D47" s="216" t="s">
+      <c r="D47" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="198" t="s">
+      <c r="E47" s="164" t="s">
         <v>488</v>
       </c>
-      <c r="F47" s="216" t="s">
+      <c r="F47" s="182" t="s">
         <v>640</v>
       </c>
-      <c r="G47" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="209" t="s">
+      <c r="G47" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I47" s="209" t="s">
+      <c r="I47" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J47" s="210">
+      <c r="J47" s="176">
         <v>6</v>
       </c>
-      <c r="K47" s="209" t="s">
+      <c r="K47" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="L47" s="217" t="s">
+      <c r="L47" s="183" t="s">
         <v>490</v>
       </c>
-      <c r="M47" s="217" t="s">
+      <c r="M47" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="N47" s="211">
+      <c r="N47" s="177">
         <v>5500</v>
       </c>
-      <c r="O47" s="212">
+      <c r="O47" s="178">
         <v>2000</v>
       </c>
-      <c r="P47" s="212"/>
-      <c r="Q47" s="218"/>
-      <c r="R47" s="219"/>
-      <c r="S47" s="220"/>
-      <c r="T47" s="197"/>
+      <c r="P47" s="178"/>
+      <c r="Q47" s="184"/>
+      <c r="R47" s="185"/>
+      <c r="S47" s="186"/>
+      <c r="T47" s="163"/>
     </row>
     <row r="48" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="194"/>
-      <c r="B48" s="172"/>
+      <c r="A48" s="221"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="59" t="s">
         <v>410</v>
       </c>
@@ -10485,8 +10485,8 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="194"/>
-      <c r="B49" s="172"/>
+      <c r="A49" s="221"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="59" t="s">
         <v>407</v>
       </c>
@@ -10530,8 +10530,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="194"/>
-      <c r="B50" s="172"/>
+      <c r="A50" s="221"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="59" t="s">
         <v>405</v>
       </c>
@@ -10579,56 +10579,56 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="194"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="196" t="s">
+      <c r="A51" s="221"/>
+      <c r="B51" s="208"/>
+      <c r="C51" s="162" t="s">
         <v>255</v>
       </c>
-      <c r="D51" s="197" t="s">
+      <c r="D51" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="198" t="s">
+      <c r="E51" s="164" t="s">
         <v>342</v>
       </c>
-      <c r="F51" s="207" t="s">
+      <c r="F51" s="173" t="s">
         <v>641</v>
       </c>
-      <c r="G51" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="209" t="s">
+      <c r="G51" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="209" t="s">
+      <c r="I51" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J51" s="210">
+      <c r="J51" s="176">
         <v>5</v>
       </c>
-      <c r="K51" s="209" t="s">
+      <c r="K51" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="L51" s="209" t="s">
+      <c r="L51" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M51" s="209" t="s">
+      <c r="M51" s="175" t="s">
         <v>474</v>
       </c>
-      <c r="N51" s="211">
+      <c r="N51" s="177">
         <v>4200</v>
       </c>
-      <c r="O51" s="211">
+      <c r="O51" s="177">
         <v>700</v>
       </c>
-      <c r="P51" s="212"/>
-      <c r="Q51" s="212"/>
-      <c r="R51" s="213"/>
-      <c r="S51" s="214"/>
-      <c r="T51" s="215"/>
+      <c r="P51" s="178"/>
+      <c r="Q51" s="178"/>
+      <c r="R51" s="179"/>
+      <c r="S51" s="180"/>
+      <c r="T51" s="181"/>
     </row>
     <row r="52" spans="1:20" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="195"/>
-      <c r="B52" s="177"/>
+      <c r="A52" s="222"/>
+      <c r="B52" s="209"/>
       <c r="C52" s="64" t="s">
         <v>528</v>
       </c>
@@ -10672,10 +10672,10 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="164" t="s">
+      <c r="B53" s="215" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="61" t="s">
@@ -10722,8 +10722,8 @@
       <c r="T53" s="33"/>
     </row>
     <row r="54" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="167"/>
-      <c r="B54" s="165"/>
+      <c r="A54" s="225"/>
+      <c r="B54" s="213"/>
       <c r="C54" s="59" t="s">
         <v>66</v>
       </c>
@@ -10769,8 +10769,8 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="167"/>
-      <c r="B55" s="165"/>
+      <c r="A55" s="225"/>
+      <c r="B55" s="213"/>
       <c r="C55" s="59" t="s">
         <v>67</v>
       </c>
@@ -10816,8 +10816,8 @@
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167"/>
-      <c r="B56" s="165"/>
+      <c r="A56" s="225"/>
+      <c r="B56" s="213"/>
       <c r="C56" s="60" t="s">
         <v>68</v>
       </c>
@@ -10863,8 +10863,8 @@
       <c r="S56" s="26"/>
     </row>
     <row r="57" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="167"/>
-      <c r="B57" s="165"/>
+      <c r="A57" s="225"/>
+      <c r="B57" s="213"/>
       <c r="C57" s="64" t="s">
         <v>601</v>
       </c>
@@ -10908,8 +10908,8 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="167"/>
-      <c r="B58" s="171" t="s">
+      <c r="A58" s="225"/>
+      <c r="B58" s="218" t="s">
         <v>193</v>
       </c>
       <c r="C58" s="62" t="s">
@@ -10957,8 +10957,8 @@
       <c r="S58" s="56"/>
     </row>
     <row r="59" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="167"/>
-      <c r="B59" s="172"/>
+      <c r="A59" s="225"/>
+      <c r="B59" s="208"/>
       <c r="C59" s="59" t="s">
         <v>208</v>
       </c>
@@ -11006,8 +11006,8 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="167"/>
-      <c r="B60" s="172"/>
+      <c r="A60" s="225"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="59" t="s">
         <v>202</v>
       </c>
@@ -11051,8 +11051,8 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="167"/>
-      <c r="B61" s="172"/>
+      <c r="A61" s="225"/>
+      <c r="B61" s="208"/>
       <c r="C61" s="59" t="s">
         <v>197</v>
       </c>
@@ -11098,8 +11098,8 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167"/>
-      <c r="B62" s="172"/>
+      <c r="A62" s="225"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="59" t="s">
         <v>198</v>
       </c>
@@ -11145,8 +11145,8 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="167"/>
-      <c r="B63" s="172"/>
+      <c r="A63" s="225"/>
+      <c r="B63" s="208"/>
       <c r="C63" s="59" t="s">
         <v>91</v>
       </c>
@@ -11192,8 +11192,8 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="167"/>
-      <c r="B64" s="172"/>
+      <c r="A64" s="225"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="59" t="s">
         <v>412</v>
       </c>
@@ -11239,8 +11239,8 @@
       <c r="S64" s="26"/>
     </row>
     <row r="65" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="167"/>
-      <c r="B65" s="172"/>
+      <c r="A65" s="225"/>
+      <c r="B65" s="208"/>
       <c r="C65" s="59" t="s">
         <v>199</v>
       </c>
@@ -11288,8 +11288,8 @@
       <c r="S65" s="26"/>
     </row>
     <row r="66" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="167"/>
-      <c r="B66" s="172"/>
+      <c r="A66" s="225"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="59" t="s">
         <v>426</v>
       </c>
@@ -11335,8 +11335,8 @@
       <c r="S66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="167"/>
-      <c r="B67" s="172"/>
+      <c r="A67" s="225"/>
+      <c r="B67" s="208"/>
       <c r="C67" s="59" t="s">
         <v>375</v>
       </c>
@@ -11383,8 +11383,8 @@
       <c r="T67" s="28"/>
     </row>
     <row r="68" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="167"/>
-      <c r="B68" s="172"/>
+      <c r="A68" s="225"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="59" t="s">
         <v>391</v>
       </c>
@@ -11432,8 +11432,8 @@
       <c r="S68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="167"/>
-      <c r="B69" s="172"/>
+      <c r="A69" s="225"/>
+      <c r="B69" s="208"/>
       <c r="C69" s="59" t="s">
         <v>252</v>
       </c>
@@ -11482,8 +11482,8 @@
       <c r="T69" s="23"/>
     </row>
     <row r="70" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="167"/>
-      <c r="B70" s="172"/>
+      <c r="A70" s="225"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="59" t="s">
         <v>429</v>
       </c>
@@ -11529,8 +11529,8 @@
       <c r="S70" s="26"/>
     </row>
     <row r="71" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="167"/>
-      <c r="B71" s="172"/>
+      <c r="A71" s="225"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="60" t="s">
         <v>203</v>
       </c>
@@ -11575,10 +11575,10 @@
       <c r="T71" s="28"/>
     </row>
     <row r="72" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="179" t="s">
+      <c r="A72" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="178"/>
+      <c r="B72" s="233"/>
       <c r="C72" s="61" t="s">
         <v>79</v>
       </c>
@@ -11625,8 +11625,8 @@
       <c r="T72" s="33"/>
     </row>
     <row r="73" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="180"/>
-      <c r="B73" s="165"/>
+      <c r="A73" s="235"/>
+      <c r="B73" s="213"/>
       <c r="C73" s="59" t="s">
         <v>80</v>
       </c>
@@ -11672,8 +11672,8 @@
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="180"/>
-      <c r="B74" s="165"/>
+      <c r="A74" s="235"/>
+      <c r="B74" s="213"/>
       <c r="C74" s="59" t="s">
         <v>81</v>
       </c>
@@ -11721,8 +11721,8 @@
       <c r="S74" s="26"/>
     </row>
     <row r="75" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="180"/>
-      <c r="B75" s="165"/>
+      <c r="A75" s="235"/>
+      <c r="B75" s="213"/>
       <c r="C75" s="59" t="s">
         <v>82</v>
       </c>
@@ -11768,8 +11768,8 @@
       <c r="S75" s="26"/>
     </row>
     <row r="76" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="180"/>
-      <c r="B76" s="165"/>
+      <c r="A76" s="235"/>
+      <c r="B76" s="213"/>
       <c r="C76" s="59" t="s">
         <v>83</v>
       </c>
@@ -11817,8 +11817,8 @@
       <c r="S76" s="26"/>
     </row>
     <row r="77" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="180"/>
-      <c r="B77" s="165"/>
+      <c r="A77" s="235"/>
+      <c r="B77" s="213"/>
       <c r="C77" s="59" t="s">
         <v>84</v>
       </c>
@@ -11864,8 +11864,8 @@
       <c r="S77" s="26"/>
     </row>
     <row r="78" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="180"/>
-      <c r="B78" s="165"/>
+      <c r="A78" s="235"/>
+      <c r="B78" s="213"/>
       <c r="C78" s="59" t="s">
         <v>85</v>
       </c>
@@ -11909,8 +11909,8 @@
       <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="180"/>
-      <c r="B79" s="165"/>
+      <c r="A79" s="235"/>
+      <c r="B79" s="213"/>
       <c r="C79" s="59" t="s">
         <v>86</v>
       </c>
@@ -11956,8 +11956,8 @@
       <c r="S79" s="26"/>
     </row>
     <row r="80" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="180"/>
-      <c r="B80" s="165"/>
+      <c r="A80" s="235"/>
+      <c r="B80" s="213"/>
       <c r="C80" s="59" t="s">
         <v>87</v>
       </c>
@@ -12005,8 +12005,8 @@
       <c r="S80" s="26"/>
     </row>
     <row r="81" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="180"/>
-      <c r="B81" s="165"/>
+      <c r="A81" s="235"/>
+      <c r="B81" s="213"/>
       <c r="C81" s="59" t="s">
         <v>223</v>
       </c>
@@ -12052,8 +12052,8 @@
       <c r="S81" s="26"/>
     </row>
     <row r="82" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="180"/>
-      <c r="B82" s="176"/>
+      <c r="A82" s="235"/>
+      <c r="B82" s="232"/>
       <c r="C82" s="60" t="s">
         <v>90</v>
       </c>
@@ -12099,156 +12099,156 @@
       <c r="S82" s="31"/>
     </row>
     <row r="83" spans="1:20" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="180"/>
-      <c r="B83" s="172" t="s">
+      <c r="A83" s="235"/>
+      <c r="B83" s="208" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="221" t="s">
+      <c r="C83" s="187" t="s">
         <v>441</v>
       </c>
-      <c r="D83" s="222" t="s">
+      <c r="D83" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="222" t="s">
+      <c r="E83" s="188" t="s">
         <v>442</v>
       </c>
-      <c r="F83" s="198" t="s">
+      <c r="F83" s="164" t="s">
         <v>636</v>
       </c>
-      <c r="G83" s="223" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="224" t="s">
+      <c r="G83" s="189" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="I83" s="224" t="s">
+      <c r="I83" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="J83" s="225">
+      <c r="J83" s="191">
         <v>5</v>
       </c>
-      <c r="K83" s="224" t="s">
+      <c r="K83" s="190" t="s">
         <v>350</v>
       </c>
-      <c r="L83" s="224" t="s">
+      <c r="L83" s="190" t="s">
         <v>469</v>
       </c>
-      <c r="M83" s="224" t="s">
+      <c r="M83" s="190" t="s">
         <v>474</v>
       </c>
-      <c r="N83" s="226">
+      <c r="N83" s="192">
         <v>5800</v>
       </c>
-      <c r="O83" s="226">
+      <c r="O83" s="192">
         <v>800</v>
       </c>
-      <c r="P83" s="226"/>
-      <c r="Q83" s="226"/>
-      <c r="R83" s="227"/>
-      <c r="S83" s="228"/>
-      <c r="T83" s="216"/>
+      <c r="P83" s="192"/>
+      <c r="Q83" s="192"/>
+      <c r="R83" s="193"/>
+      <c r="S83" s="194"/>
+      <c r="T83" s="182"/>
     </row>
     <row r="84" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="180"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="196" t="s">
+      <c r="A84" s="235"/>
+      <c r="B84" s="208"/>
+      <c r="C84" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="D84" s="216" t="s">
+      <c r="D84" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="216" t="s">
+      <c r="E84" s="182" t="s">
         <v>308</v>
       </c>
-      <c r="F84" s="198" t="s">
+      <c r="F84" s="164" t="s">
         <v>638</v>
       </c>
-      <c r="G84" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="209" t="s">
+      <c r="G84" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="I84" s="209" t="s">
+      <c r="I84" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J84" s="210">
+      <c r="J84" s="176">
         <v>5</v>
       </c>
-      <c r="K84" s="209" t="s">
+      <c r="K84" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="L84" s="209" t="s">
+      <c r="L84" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M84" s="209" t="s">
+      <c r="M84" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="N84" s="211">
+      <c r="N84" s="177">
         <v>4500</v>
       </c>
-      <c r="O84" s="211">
+      <c r="O84" s="177">
         <v>600</v>
       </c>
-      <c r="P84" s="211">
+      <c r="P84" s="177">
         <v>1000</v>
       </c>
-      <c r="Q84" s="211"/>
-      <c r="R84" s="229"/>
-      <c r="S84" s="214"/>
-      <c r="T84" s="216"/>
+      <c r="Q84" s="177"/>
+      <c r="R84" s="195"/>
+      <c r="S84" s="180"/>
+      <c r="T84" s="182"/>
     </row>
     <row r="85" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="180"/>
-      <c r="B85" s="172"/>
-      <c r="C85" s="196" t="s">
+      <c r="A85" s="235"/>
+      <c r="B85" s="208"/>
+      <c r="C85" s="162" t="s">
         <v>424</v>
       </c>
-      <c r="D85" s="216" t="s">
+      <c r="D85" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="E85" s="216" t="s">
+      <c r="E85" s="182" t="s">
         <v>425</v>
       </c>
-      <c r="F85" s="198" t="s">
+      <c r="F85" s="164" t="s">
         <v>641</v>
       </c>
-      <c r="G85" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="209" t="s">
+      <c r="G85" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="I85" s="209" t="s">
+      <c r="I85" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J85" s="210">
+      <c r="J85" s="176">
         <v>5</v>
       </c>
-      <c r="K85" s="209" t="s">
+      <c r="K85" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L85" s="209" t="s">
+      <c r="L85" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M85" s="209" t="s">
+      <c r="M85" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="N85" s="211">
+      <c r="N85" s="177">
         <v>4000</v>
       </c>
-      <c r="O85" s="212">
+      <c r="O85" s="178">
         <v>440</v>
       </c>
-      <c r="P85" s="212"/>
-      <c r="Q85" s="212"/>
-      <c r="R85" s="213"/>
-      <c r="S85" s="214"/>
-      <c r="T85" s="216"/>
+      <c r="P85" s="178"/>
+      <c r="Q85" s="178"/>
+      <c r="R85" s="179"/>
+      <c r="S85" s="180"/>
+      <c r="T85" s="182"/>
     </row>
     <row r="86" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="180"/>
-      <c r="B86" s="172"/>
+      <c r="A86" s="235"/>
+      <c r="B86" s="208"/>
       <c r="C86" s="59" t="s">
         <v>293</v>
       </c>
@@ -12294,56 +12294,56 @@
       <c r="S86" s="26"/>
     </row>
     <row r="87" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="180"/>
-      <c r="B87" s="172"/>
-      <c r="C87" s="196" t="s">
+      <c r="A87" s="235"/>
+      <c r="B87" s="208"/>
+      <c r="C87" s="162" t="s">
         <v>366</v>
       </c>
-      <c r="D87" s="216" t="s">
+      <c r="D87" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="E87" s="216" t="s">
+      <c r="E87" s="182" t="s">
         <v>367</v>
       </c>
-      <c r="F87" s="198" t="s">
+      <c r="F87" s="164" t="s">
         <v>638</v>
       </c>
-      <c r="G87" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="209" t="s">
+      <c r="G87" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="I87" s="209" t="s">
+      <c r="I87" s="175" t="s">
         <v>694</v>
       </c>
-      <c r="J87" s="210">
+      <c r="J87" s="176">
         <v>5</v>
       </c>
-      <c r="K87" s="209" t="s">
+      <c r="K87" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L87" s="209" t="s">
+      <c r="L87" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M87" s="209" t="s">
+      <c r="M87" s="175" t="s">
         <v>474</v>
       </c>
-      <c r="N87" s="211">
+      <c r="N87" s="177">
         <v>4500</v>
       </c>
-      <c r="O87" s="212">
+      <c r="O87" s="178">
         <v>500</v>
       </c>
-      <c r="P87" s="212"/>
-      <c r="Q87" s="212"/>
-      <c r="R87" s="213"/>
-      <c r="S87" s="214"/>
-      <c r="T87" s="216"/>
+      <c r="P87" s="178"/>
+      <c r="Q87" s="178"/>
+      <c r="R87" s="179"/>
+      <c r="S87" s="180"/>
+      <c r="T87" s="182"/>
     </row>
     <row r="88" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="180"/>
-      <c r="B88" s="172"/>
+      <c r="A88" s="235"/>
+      <c r="B88" s="208"/>
       <c r="C88" s="59" t="s">
         <v>219</v>
       </c>
@@ -12387,8 +12387,8 @@
       <c r="S88" s="26"/>
     </row>
     <row r="89" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="180"/>
-      <c r="B89" s="172"/>
+      <c r="A89" s="235"/>
+      <c r="B89" s="208"/>
       <c r="C89" s="59" t="s">
         <v>320</v>
       </c>
@@ -12434,8 +12434,8 @@
       <c r="S89" s="26"/>
     </row>
     <row r="90" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="180"/>
-      <c r="B90" s="172"/>
+      <c r="A90" s="235"/>
+      <c r="B90" s="208"/>
       <c r="C90" s="60" t="s">
         <v>247</v>
       </c>
@@ -12481,90 +12481,90 @@
       <c r="S90" s="26"/>
     </row>
     <row r="91" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="180"/>
-      <c r="B91" s="172"/>
-      <c r="C91" s="196" t="s">
+      <c r="A91" s="235"/>
+      <c r="B91" s="208"/>
+      <c r="C91" s="162" t="s">
         <v>401</v>
       </c>
-      <c r="D91" s="197" t="s">
+      <c r="D91" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="E91" s="216" t="s">
+      <c r="E91" s="182" t="s">
         <v>402</v>
       </c>
-      <c r="F91" s="216" t="s">
+      <c r="F91" s="182" t="s">
         <v>640</v>
       </c>
-      <c r="G91" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="209" t="s">
+      <c r="G91" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="I91" s="209" t="s">
+      <c r="I91" s="175" t="s">
         <v>694</v>
       </c>
-      <c r="J91" s="210">
+      <c r="J91" s="176">
         <v>5</v>
       </c>
-      <c r="K91" s="209" t="s">
+      <c r="K91" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L91" s="209" t="s">
+      <c r="L91" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M91" s="209" t="s">
+      <c r="M91" s="175" t="s">
         <v>474</v>
       </c>
-      <c r="N91" s="212">
+      <c r="N91" s="178">
         <v>5500</v>
       </c>
-      <c r="O91" s="212">
+      <c r="O91" s="178">
         <v>700</v>
       </c>
-      <c r="P91" s="212"/>
-      <c r="Q91" s="212"/>
-      <c r="R91" s="213"/>
-      <c r="S91" s="214"/>
-      <c r="T91" s="216"/>
+      <c r="P91" s="178"/>
+      <c r="Q91" s="178"/>
+      <c r="R91" s="179"/>
+      <c r="S91" s="180"/>
+      <c r="T91" s="182"/>
     </row>
     <row r="92" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="180"/>
-      <c r="B92" s="172"/>
-      <c r="C92" s="230" t="s">
+      <c r="A92" s="235"/>
+      <c r="B92" s="208"/>
+      <c r="C92" s="196" t="s">
         <v>692</v>
       </c>
-      <c r="D92" s="216" t="s">
+      <c r="D92" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="E92" s="216" t="s">
+      <c r="E92" s="182" t="s">
         <v>693</v>
       </c>
-      <c r="F92" s="216" t="s">
+      <c r="F92" s="182" t="s">
         <v>640</v>
       </c>
-      <c r="G92" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="209"/>
-      <c r="I92" s="209" t="s">
+      <c r="G92" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="175"/>
+      <c r="I92" s="175" t="s">
         <v>694</v>
       </c>
-      <c r="J92" s="231"/>
-      <c r="K92" s="209"/>
-      <c r="L92" s="217"/>
-      <c r="M92" s="217"/>
-      <c r="N92" s="211"/>
-      <c r="O92" s="212"/>
-      <c r="P92" s="212"/>
-      <c r="Q92" s="212"/>
-      <c r="R92" s="213"/>
-      <c r="S92" s="214"/>
-      <c r="T92" s="216"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="175"/>
+      <c r="L92" s="183"/>
+      <c r="M92" s="183"/>
+      <c r="N92" s="177"/>
+      <c r="O92" s="178"/>
+      <c r="P92" s="178"/>
+      <c r="Q92" s="178"/>
+      <c r="R92" s="179"/>
+      <c r="S92" s="180"/>
+      <c r="T92" s="182"/>
     </row>
     <row r="93" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="180"/>
-      <c r="B93" s="172"/>
+      <c r="A93" s="235"/>
+      <c r="B93" s="208"/>
       <c r="C93" s="59" t="s">
         <v>368</v>
       </c>
@@ -12608,8 +12608,8 @@
       <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="180"/>
-      <c r="B94" s="172"/>
+      <c r="A94" s="235"/>
+      <c r="B94" s="208"/>
       <c r="C94" s="59" t="s">
         <v>355</v>
       </c>
@@ -12625,11 +12625,11 @@
       <c r="G94" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="25" t="s">
-        <v>161</v>
+      <c r="H94" s="116" t="s">
+        <v>78</v>
       </c>
       <c r="I94" s="116" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="J94" s="73">
         <v>5</v>
@@ -12655,8 +12655,8 @@
       <c r="S94" s="26"/>
     </row>
     <row r="95" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="180"/>
-      <c r="B95" s="172"/>
+      <c r="A95" s="235"/>
+      <c r="B95" s="208"/>
       <c r="C95" s="59" t="s">
         <v>351</v>
       </c>
@@ -12672,11 +12672,11 @@
       <c r="G95" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="25" t="s">
-        <v>161</v>
+      <c r="H95" s="116" t="s">
+        <v>78</v>
       </c>
       <c r="I95" s="116" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="J95" s="73">
         <v>5</v>
@@ -12702,58 +12702,58 @@
       <c r="S95" s="26"/>
     </row>
     <row r="96" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="180"/>
-      <c r="B96" s="172"/>
-      <c r="C96" s="196" t="s">
+      <c r="A96" s="235"/>
+      <c r="B96" s="208"/>
+      <c r="C96" s="162" t="s">
         <v>211</v>
       </c>
-      <c r="D96" s="216" t="s">
+      <c r="D96" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E96" s="216" t="s">
+      <c r="E96" s="182" t="s">
         <v>306</v>
       </c>
-      <c r="F96" s="216" t="s">
+      <c r="F96" s="182" t="s">
         <v>640</v>
       </c>
-      <c r="G96" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="209" t="s">
+      <c r="G96" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="I96" s="209" t="s">
+      <c r="I96" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J96" s="210">
+      <c r="J96" s="176">
         <v>5</v>
       </c>
-      <c r="K96" s="209" t="s">
+      <c r="K96" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="L96" s="217" t="s">
+      <c r="L96" s="183" t="s">
         <v>469</v>
       </c>
-      <c r="M96" s="209" t="s">
+      <c r="M96" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="N96" s="211">
+      <c r="N96" s="177">
         <v>4000</v>
       </c>
-      <c r="O96" s="211">
+      <c r="O96" s="177">
         <v>600</v>
       </c>
-      <c r="P96" s="211">
+      <c r="P96" s="177">
         <v>1000</v>
       </c>
-      <c r="Q96" s="211"/>
-      <c r="R96" s="229"/>
-      <c r="S96" s="214"/>
-      <c r="T96" s="216"/>
+      <c r="Q96" s="177"/>
+      <c r="R96" s="195"/>
+      <c r="S96" s="180"/>
+      <c r="T96" s="182"/>
     </row>
     <row r="97" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="180"/>
-      <c r="B97" s="172"/>
+      <c r="A97" s="235"/>
+      <c r="B97" s="208"/>
       <c r="C97" s="59" t="s">
         <v>371</v>
       </c>
@@ -12799,8 +12799,8 @@
       <c r="S97" s="26"/>
     </row>
     <row r="98" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="180"/>
-      <c r="B98" s="172"/>
+      <c r="A98" s="235"/>
+      <c r="B98" s="208"/>
       <c r="C98" s="59" t="s">
         <v>220</v>
       </c>
@@ -12846,8 +12846,8 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="180"/>
-      <c r="B99" s="172"/>
+      <c r="A99" s="235"/>
+      <c r="B99" s="208"/>
       <c r="C99" s="59" t="s">
         <v>245</v>
       </c>
@@ -12891,56 +12891,56 @@
       <c r="S99" s="26"/>
     </row>
     <row r="100" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="180"/>
-      <c r="B100" s="172"/>
-      <c r="C100" s="196" t="s">
+      <c r="A100" s="235"/>
+      <c r="B100" s="208"/>
+      <c r="C100" s="162" t="s">
         <v>292</v>
       </c>
-      <c r="D100" s="216" t="s">
+      <c r="D100" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E100" s="216" t="s">
+      <c r="E100" s="182" t="s">
         <v>313</v>
       </c>
-      <c r="F100" s="216" t="s">
+      <c r="F100" s="182" t="s">
         <v>640</v>
       </c>
-      <c r="G100" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="209" t="s">
+      <c r="G100" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I100" s="209" t="s">
+      <c r="I100" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J100" s="210">
+      <c r="J100" s="176">
         <v>5</v>
       </c>
-      <c r="K100" s="209" t="s">
+      <c r="K100" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="L100" s="217" t="s">
+      <c r="L100" s="183" t="s">
         <v>469</v>
       </c>
-      <c r="M100" s="209" t="s">
+      <c r="M100" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="N100" s="211">
+      <c r="N100" s="177">
         <v>6500</v>
       </c>
-      <c r="O100" s="211">
+      <c r="O100" s="177">
         <v>700</v>
       </c>
-      <c r="P100" s="211"/>
-      <c r="Q100" s="211"/>
-      <c r="R100" s="229"/>
-      <c r="S100" s="214"/>
-      <c r="T100" s="216"/>
+      <c r="P100" s="177"/>
+      <c r="Q100" s="177"/>
+      <c r="R100" s="195"/>
+      <c r="S100" s="180"/>
+      <c r="T100" s="182"/>
     </row>
     <row r="101" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="180"/>
-      <c r="B101" s="172"/>
+      <c r="A101" s="235"/>
+      <c r="B101" s="208"/>
       <c r="C101" s="59" t="s">
         <v>222</v>
       </c>
@@ -12986,8 +12986,8 @@
       <c r="S101" s="26"/>
     </row>
     <row r="102" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="180"/>
-      <c r="B102" s="172"/>
+      <c r="A102" s="235"/>
+      <c r="B102" s="208"/>
       <c r="C102" s="59" t="s">
         <v>697</v>
       </c>
@@ -13031,8 +13031,8 @@
       <c r="S102" s="26"/>
     </row>
     <row r="103" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="180"/>
-      <c r="B103" s="172"/>
+      <c r="A103" s="235"/>
+      <c r="B103" s="208"/>
       <c r="C103" s="59" t="s">
         <v>230</v>
       </c>
@@ -13074,56 +13074,56 @@
       <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="180"/>
-      <c r="B104" s="172"/>
-      <c r="C104" s="196" t="s">
+      <c r="A104" s="235"/>
+      <c r="B104" s="208"/>
+      <c r="C104" s="162" t="s">
         <v>221</v>
       </c>
-      <c r="D104" s="216" t="s">
+      <c r="D104" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="216" t="s">
+      <c r="E104" s="182" t="s">
         <v>307</v>
       </c>
-      <c r="F104" s="216" t="s">
+      <c r="F104" s="182" t="s">
         <v>640</v>
       </c>
-      <c r="G104" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="209" t="s">
+      <c r="G104" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="I104" s="209" t="s">
+      <c r="I104" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J104" s="210">
+      <c r="J104" s="176">
         <v>5</v>
       </c>
-      <c r="K104" s="209" t="s">
+      <c r="K104" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="L104" s="217" t="s">
+      <c r="L104" s="183" t="s">
         <v>469</v>
       </c>
-      <c r="M104" s="217" t="s">
+      <c r="M104" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="N104" s="211">
+      <c r="N104" s="177">
         <v>4000</v>
       </c>
-      <c r="O104" s="212">
+      <c r="O104" s="178">
         <v>600</v>
       </c>
-      <c r="P104" s="212"/>
-      <c r="Q104" s="212"/>
-      <c r="R104" s="213"/>
-      <c r="S104" s="214"/>
-      <c r="T104" s="216"/>
+      <c r="P104" s="178"/>
+      <c r="Q104" s="178"/>
+      <c r="R104" s="179"/>
+      <c r="S104" s="180"/>
+      <c r="T104" s="182"/>
     </row>
     <row r="105" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="180"/>
-      <c r="B105" s="172"/>
+      <c r="A105" s="235"/>
+      <c r="B105" s="208"/>
       <c r="C105" s="64" t="s">
         <v>216</v>
       </c>
@@ -13169,8 +13169,8 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="180"/>
-      <c r="B106" s="172"/>
+      <c r="A106" s="235"/>
+      <c r="B106" s="208"/>
       <c r="C106" s="59" t="s">
         <v>213</v>
       </c>
@@ -13216,8 +13216,8 @@
       <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="180"/>
-      <c r="B107" s="172"/>
+      <c r="A107" s="235"/>
+      <c r="B107" s="208"/>
       <c r="C107" s="59" t="s">
         <v>214</v>
       </c>
@@ -13263,8 +13263,8 @@
       <c r="S107" s="26"/>
     </row>
     <row r="108" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="180"/>
-      <c r="B108" s="172"/>
+      <c r="A108" s="235"/>
+      <c r="B108" s="208"/>
       <c r="C108" s="59" t="s">
         <v>357</v>
       </c>
@@ -13310,8 +13310,8 @@
       <c r="S108" s="26"/>
     </row>
     <row r="109" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="180"/>
-      <c r="B109" s="172"/>
+      <c r="A109" s="235"/>
+      <c r="B109" s="208"/>
       <c r="C109" s="59" t="s">
         <v>229</v>
       </c>
@@ -13357,8 +13357,8 @@
       <c r="S109" s="26"/>
     </row>
     <row r="110" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="180"/>
-      <c r="B110" s="172"/>
+      <c r="A110" s="235"/>
+      <c r="B110" s="208"/>
       <c r="C110" s="59" t="s">
         <v>205</v>
       </c>
@@ -13404,8 +13404,8 @@
       <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="180"/>
-      <c r="B111" s="172"/>
+      <c r="A111" s="235"/>
+      <c r="B111" s="208"/>
       <c r="C111" s="59" t="s">
         <v>206</v>
       </c>
@@ -13451,104 +13451,104 @@
       <c r="S111" s="26"/>
     </row>
     <row r="112" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="180"/>
-      <c r="B112" s="172"/>
-      <c r="C112" s="196" t="s">
+      <c r="A112" s="235"/>
+      <c r="B112" s="208"/>
+      <c r="C112" s="162" t="s">
         <v>499</v>
       </c>
-      <c r="D112" s="216" t="s">
+      <c r="D112" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="E112" s="232" t="s">
+      <c r="E112" s="198" t="s">
         <v>345</v>
       </c>
-      <c r="F112" s="198" t="s">
+      <c r="F112" s="164" t="s">
         <v>636</v>
       </c>
-      <c r="G112" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="209" t="s">
+      <c r="G112" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I112" s="209" t="s">
+      <c r="I112" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J112" s="210">
+      <c r="J112" s="176">
         <v>5</v>
       </c>
-      <c r="K112" s="209" t="s">
+      <c r="K112" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="L112" s="209" t="s">
+      <c r="L112" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M112" s="209" t="s">
+      <c r="M112" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="N112" s="211">
+      <c r="N112" s="177">
         <v>5500</v>
       </c>
-      <c r="O112" s="211">
+      <c r="O112" s="177">
         <v>440</v>
       </c>
-      <c r="P112" s="211"/>
-      <c r="Q112" s="211"/>
-      <c r="R112" s="229"/>
-      <c r="S112" s="214"/>
-      <c r="T112" s="216"/>
+      <c r="P112" s="177"/>
+      <c r="Q112" s="177"/>
+      <c r="R112" s="195"/>
+      <c r="S112" s="180"/>
+      <c r="T112" s="182"/>
     </row>
     <row r="113" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="180"/>
-      <c r="B113" s="172"/>
-      <c r="C113" s="196" t="s">
+      <c r="A113" s="235"/>
+      <c r="B113" s="208"/>
+      <c r="C113" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="D113" s="216" t="s">
+      <c r="D113" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="E113" s="232" t="s">
+      <c r="E113" s="198" t="s">
         <v>315</v>
       </c>
-      <c r="F113" s="198" t="s">
+      <c r="F113" s="164" t="s">
         <v>641</v>
       </c>
-      <c r="G113" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="209" t="s">
+      <c r="G113" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I113" s="209" t="s">
+      <c r="I113" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J113" s="210">
+      <c r="J113" s="176">
         <v>6</v>
       </c>
-      <c r="K113" s="209" t="s">
+      <c r="K113" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="L113" s="209" t="s">
+      <c r="L113" s="175" t="s">
         <v>490</v>
       </c>
-      <c r="M113" s="209" t="s">
+      <c r="M113" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="N113" s="211">
+      <c r="N113" s="177">
         <v>2800</v>
       </c>
-      <c r="O113" s="212">
+      <c r="O113" s="178">
         <v>440</v>
       </c>
-      <c r="P113" s="212"/>
-      <c r="Q113" s="212"/>
-      <c r="R113" s="213"/>
-      <c r="S113" s="214"/>
-      <c r="T113" s="216"/>
+      <c r="P113" s="178"/>
+      <c r="Q113" s="178"/>
+      <c r="R113" s="179"/>
+      <c r="S113" s="180"/>
+      <c r="T113" s="182"/>
     </row>
     <row r="114" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="180"/>
-      <c r="B114" s="172"/>
+      <c r="A114" s="235"/>
+      <c r="B114" s="208"/>
       <c r="C114" s="59" t="s">
         <v>249</v>
       </c>
@@ -13592,8 +13592,8 @@
       <c r="S114" s="26"/>
     </row>
     <row r="115" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="180"/>
-      <c r="B115" s="172"/>
+      <c r="A115" s="235"/>
+      <c r="B115" s="208"/>
       <c r="C115" s="59" t="s">
         <v>226</v>
       </c>
@@ -13641,8 +13641,8 @@
       <c r="S115" s="26"/>
     </row>
     <row r="116" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="180"/>
-      <c r="B116" s="172"/>
+      <c r="A116" s="235"/>
+      <c r="B116" s="208"/>
       <c r="C116" s="59" t="s">
         <v>227</v>
       </c>
@@ -13690,8 +13690,8 @@
       <c r="S116" s="26"/>
     </row>
     <row r="117" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="180"/>
-      <c r="B117" s="172"/>
+      <c r="A117" s="235"/>
+      <c r="B117" s="208"/>
       <c r="C117" s="64" t="s">
         <v>595</v>
       </c>
@@ -13718,56 +13718,56 @@
       <c r="T117" s="23"/>
     </row>
     <row r="118" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="180"/>
-      <c r="B118" s="172"/>
-      <c r="C118" s="196" t="s">
+      <c r="A118" s="235"/>
+      <c r="B118" s="208"/>
+      <c r="C118" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="D118" s="216" t="s">
+      <c r="D118" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="E118" s="216" t="s">
+      <c r="E118" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="F118" s="198" t="s">
+      <c r="F118" s="164" t="s">
         <v>638</v>
       </c>
-      <c r="G118" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" s="209" t="s">
+      <c r="G118" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I118" s="209" t="s">
+      <c r="I118" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J118" s="210">
+      <c r="J118" s="176">
         <v>5</v>
       </c>
-      <c r="K118" s="209" t="s">
+      <c r="K118" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="L118" s="209" t="s">
+      <c r="L118" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M118" s="209" t="s">
+      <c r="M118" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="N118" s="211">
+      <c r="N118" s="177">
         <v>5000</v>
       </c>
-      <c r="O118" s="211">
+      <c r="O118" s="177">
         <v>700</v>
       </c>
-      <c r="P118" s="211"/>
-      <c r="Q118" s="211"/>
-      <c r="R118" s="229"/>
-      <c r="S118" s="214"/>
-      <c r="T118" s="216"/>
+      <c r="P118" s="177"/>
+      <c r="Q118" s="177"/>
+      <c r="R118" s="195"/>
+      <c r="S118" s="180"/>
+      <c r="T118" s="182"/>
     </row>
     <row r="119" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="181"/>
-      <c r="B119" s="177"/>
+      <c r="A119" s="236"/>
+      <c r="B119" s="209"/>
       <c r="C119" s="60" t="s">
         <v>316</v>
       </c>
@@ -13820,10 +13820,10 @@
       <c r="T119" s="28"/>
     </row>
     <row r="120" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="173" t="s">
+      <c r="A120" s="229" t="s">
         <v>497</v>
       </c>
-      <c r="B120" s="164" t="s">
+      <c r="B120" s="215" t="s">
         <v>51</v>
       </c>
       <c r="C120" s="61" t="s">
@@ -13868,8 +13868,8 @@
       <c r="T120" s="33"/>
     </row>
     <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="174"/>
-      <c r="B121" s="165"/>
+      <c r="A121" s="230"/>
+      <c r="B121" s="213"/>
       <c r="C121" s="59" t="s">
         <v>92</v>
       </c>
@@ -13915,8 +13915,8 @@
       <c r="S121" s="26"/>
     </row>
     <row r="122" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="174"/>
-      <c r="B122" s="165"/>
+      <c r="A122" s="230"/>
+      <c r="B122" s="213"/>
       <c r="C122" s="59" t="s">
         <v>93</v>
       </c>
@@ -13962,8 +13962,8 @@
       <c r="S122" s="26"/>
     </row>
     <row r="123" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="174"/>
-      <c r="B123" s="165"/>
+      <c r="A123" s="230"/>
+      <c r="B123" s="213"/>
       <c r="C123" s="59" t="s">
         <v>104</v>
       </c>
@@ -14005,8 +14005,8 @@
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="174"/>
-      <c r="B124" s="165"/>
+      <c r="A124" s="230"/>
+      <c r="B124" s="213"/>
       <c r="C124" s="60" t="s">
         <v>94</v>
       </c>
@@ -14049,8 +14049,8 @@
       <c r="T124" s="28"/>
     </row>
     <row r="125" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="174"/>
-      <c r="B125" s="165"/>
+      <c r="A125" s="230"/>
+      <c r="B125" s="213"/>
       <c r="C125" s="59" t="s">
         <v>179</v>
       </c>
@@ -14093,8 +14093,8 @@
       <c r="T125" s="28"/>
     </row>
     <row r="126" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="174"/>
-      <c r="B126" s="165"/>
+      <c r="A126" s="230"/>
+      <c r="B126" s="213"/>
       <c r="C126" s="60" t="s">
         <v>116</v>
       </c>
@@ -14137,8 +14137,8 @@
       <c r="T126" s="28"/>
     </row>
     <row r="127" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="174"/>
-      <c r="B127" s="165"/>
+      <c r="A127" s="230"/>
+      <c r="B127" s="213"/>
       <c r="C127" s="59" t="s">
         <v>96</v>
       </c>
@@ -14182,8 +14182,8 @@
       <c r="S127" s="26"/>
     </row>
     <row r="128" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="174"/>
-      <c r="B128" s="165"/>
+      <c r="A128" s="230"/>
+      <c r="B128" s="213"/>
       <c r="C128" s="59" t="s">
         <v>498</v>
       </c>
@@ -14227,8 +14227,8 @@
       <c r="S128" s="26"/>
     </row>
     <row r="129" spans="1:20" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="174"/>
-      <c r="B129" s="176"/>
+      <c r="A129" s="230"/>
+      <c r="B129" s="232"/>
       <c r="C129" s="59" t="s">
         <v>176</v>
       </c>
@@ -14270,8 +14270,8 @@
       <c r="S129" s="26"/>
     </row>
     <row r="130" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="174"/>
-      <c r="B130" s="171" t="s">
+      <c r="A130" s="230"/>
+      <c r="B130" s="218" t="s">
         <v>193</v>
       </c>
       <c r="C130" s="62" t="s">
@@ -14318,8 +14318,8 @@
       <c r="T130" s="23"/>
     </row>
     <row r="131" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="174"/>
-      <c r="B131" s="172"/>
+      <c r="A131" s="230"/>
+      <c r="B131" s="208"/>
       <c r="C131" s="59" t="s">
         <v>445</v>
       </c>
@@ -14362,52 +14362,52 @@
       <c r="T131" s="23"/>
     </row>
     <row r="132" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="174"/>
-      <c r="B132" s="172"/>
-      <c r="C132" s="196" t="s">
+      <c r="A132" s="230"/>
+      <c r="B132" s="208"/>
+      <c r="C132" s="162" t="s">
         <v>448</v>
       </c>
-      <c r="D132" s="216" t="s">
+      <c r="D132" s="182" t="s">
         <v>361</v>
       </c>
-      <c r="E132" s="198" t="s">
+      <c r="E132" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="F132" s="198"/>
-      <c r="G132" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" s="209" t="s">
+      <c r="F132" s="164"/>
+      <c r="G132" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="I132" s="209" t="s">
+      <c r="I132" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="J132" s="210">
+      <c r="J132" s="176">
         <v>5</v>
       </c>
-      <c r="K132" s="209" t="s">
+      <c r="K132" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L132" s="209" t="s">
+      <c r="L132" s="175" t="s">
         <v>509</v>
       </c>
-      <c r="M132" s="209" t="s">
+      <c r="M132" s="175" t="s">
         <v>474</v>
       </c>
-      <c r="N132" s="211">
+      <c r="N132" s="177">
         <v>2500</v>
       </c>
-      <c r="O132" s="211"/>
-      <c r="P132" s="212"/>
-      <c r="Q132" s="212"/>
-      <c r="R132" s="213"/>
-      <c r="S132" s="214"/>
-      <c r="T132" s="216"/>
+      <c r="O132" s="177"/>
+      <c r="P132" s="178"/>
+      <c r="Q132" s="178"/>
+      <c r="R132" s="179"/>
+      <c r="S132" s="180"/>
+      <c r="T132" s="182"/>
     </row>
     <row r="133" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="174"/>
-      <c r="B133" s="172"/>
+      <c r="A133" s="230"/>
+      <c r="B133" s="208"/>
       <c r="C133" s="60" t="s">
         <v>422</v>
       </c>
@@ -14452,8 +14452,8 @@
       <c r="T133" s="23"/>
     </row>
     <row r="134" spans="1:20" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="174"/>
-      <c r="B134" s="172"/>
+      <c r="A134" s="230"/>
+      <c r="B134" s="208"/>
       <c r="C134" s="59" t="s">
         <v>228</v>
       </c>
@@ -14496,8 +14496,8 @@
       <c r="T134" s="23"/>
     </row>
     <row r="135" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="174"/>
-      <c r="B135" s="172"/>
+      <c r="A135" s="230"/>
+      <c r="B135" s="208"/>
       <c r="C135" s="59" t="s">
         <v>207</v>
       </c>
@@ -14540,8 +14540,8 @@
       <c r="T135" s="23"/>
     </row>
     <row r="136" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="175"/>
-      <c r="B136" s="172"/>
+      <c r="A136" s="231"/>
+      <c r="B136" s="208"/>
       <c r="C136" s="64" t="s">
         <v>621</v>
       </c>
@@ -14564,10 +14564,10 @@
       <c r="T136" s="23"/>
     </row>
     <row r="137" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="168" t="s">
+      <c r="A137" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="164" t="s">
+      <c r="B137" s="215" t="s">
         <v>51</v>
       </c>
       <c r="C137" s="61" t="s">
@@ -14610,8 +14610,8 @@
       <c r="T137" s="33"/>
     </row>
     <row r="138" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="169"/>
-      <c r="B138" s="165"/>
+      <c r="A138" s="227"/>
+      <c r="B138" s="213"/>
       <c r="C138" s="60" t="s">
         <v>95</v>
       </c>
@@ -14651,8 +14651,8 @@
       <c r="S138" s="31"/>
     </row>
     <row r="139" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="169"/>
-      <c r="B139" s="165"/>
+      <c r="A139" s="227"/>
+      <c r="B139" s="213"/>
       <c r="C139" s="64" t="s">
         <v>599</v>
       </c>
@@ -14695,8 +14695,8 @@
       <c r="T139" s="19"/>
     </row>
     <row r="140" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="169"/>
-      <c r="B140" s="165"/>
+      <c r="A140" s="227"/>
+      <c r="B140" s="213"/>
       <c r="C140" s="59" t="s">
         <v>115</v>
       </c>
@@ -14738,8 +14738,8 @@
       <c r="T140" s="19"/>
     </row>
     <row r="141" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="169"/>
-      <c r="B141" s="165"/>
+      <c r="A141" s="227"/>
+      <c r="B141" s="213"/>
       <c r="C141" s="59" t="s">
         <v>114</v>
       </c>
@@ -14781,94 +14781,94 @@
       <c r="T141" s="19"/>
     </row>
     <row r="142" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="169"/>
-      <c r="B142" s="171" t="s">
+      <c r="A142" s="227"/>
+      <c r="B142" s="218" t="s">
         <v>193</v>
       </c>
-      <c r="C142" s="221" t="s">
+      <c r="C142" s="187" t="s">
         <v>395</v>
       </c>
-      <c r="D142" s="222" t="s">
+      <c r="D142" s="188" t="s">
         <v>394</v>
       </c>
-      <c r="E142" s="222" t="s">
+      <c r="E142" s="188" t="s">
         <v>417</v>
       </c>
-      <c r="F142" s="222"/>
-      <c r="G142" s="223" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" s="224" t="s">
+      <c r="F142" s="188"/>
+      <c r="G142" s="189" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="I142" s="224"/>
-      <c r="J142" s="225"/>
-      <c r="K142" s="224" t="s">
+      <c r="I142" s="190"/>
+      <c r="J142" s="191"/>
+      <c r="K142" s="190" t="s">
         <v>350</v>
       </c>
-      <c r="L142" s="224" t="s">
+      <c r="L142" s="190" t="s">
         <v>490</v>
       </c>
-      <c r="M142" s="224" t="s">
+      <c r="M142" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="N142" s="226">
+      <c r="N142" s="192">
         <v>9500</v>
       </c>
-      <c r="O142" s="226">
+      <c r="O142" s="192">
         <v>1000</v>
       </c>
-      <c r="P142" s="226"/>
-      <c r="Q142" s="226"/>
-      <c r="R142" s="227"/>
-      <c r="S142" s="228"/>
-      <c r="T142" s="216"/>
+      <c r="P142" s="192"/>
+      <c r="Q142" s="192"/>
+      <c r="R142" s="193"/>
+      <c r="S142" s="194"/>
+      <c r="T142" s="182"/>
     </row>
     <row r="143" spans="1:20" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="169"/>
-      <c r="B143" s="172"/>
-      <c r="C143" s="196" t="s">
+      <c r="A143" s="227"/>
+      <c r="B143" s="208"/>
+      <c r="C143" s="162" t="s">
         <v>396</v>
       </c>
-      <c r="D143" s="216" t="s">
+      <c r="D143" s="182" t="s">
         <v>394</v>
       </c>
-      <c r="E143" s="216" t="s">
+      <c r="E143" s="182" t="s">
         <v>397</v>
       </c>
-      <c r="F143" s="216"/>
-      <c r="G143" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H143" s="209" t="s">
+      <c r="F143" s="182"/>
+      <c r="G143" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I143" s="209"/>
-      <c r="J143" s="210"/>
-      <c r="K143" s="209" t="s">
+      <c r="I143" s="175"/>
+      <c r="J143" s="176"/>
+      <c r="K143" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L143" s="209" t="s">
+      <c r="L143" s="175" t="s">
         <v>490</v>
       </c>
-      <c r="M143" s="209" t="s">
+      <c r="M143" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="N143" s="211">
+      <c r="N143" s="177">
         <v>8500</v>
       </c>
-      <c r="O143" s="212">
+      <c r="O143" s="178">
         <v>800</v>
       </c>
-      <c r="P143" s="212"/>
-      <c r="Q143" s="212"/>
-      <c r="R143" s="213"/>
-      <c r="S143" s="214"/>
-      <c r="T143" s="216"/>
+      <c r="P143" s="178"/>
+      <c r="Q143" s="178"/>
+      <c r="R143" s="179"/>
+      <c r="S143" s="180"/>
+      <c r="T143" s="182"/>
     </row>
     <row r="144" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="169"/>
-      <c r="B144" s="172"/>
+      <c r="A144" s="227"/>
+      <c r="B144" s="208"/>
       <c r="C144" s="59" t="s">
         <v>253</v>
       </c>
@@ -14908,8 +14908,8 @@
       <c r="S144" s="26"/>
     </row>
     <row r="145" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="169"/>
-      <c r="B145" s="172"/>
+      <c r="A145" s="227"/>
+      <c r="B145" s="208"/>
       <c r="C145" s="64" t="s">
         <v>615</v>
       </c>
@@ -14943,8 +14943,8 @@
       <c r="S145" s="26"/>
     </row>
     <row r="146" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="169"/>
-      <c r="B146" s="172"/>
+      <c r="A146" s="227"/>
+      <c r="B146" s="208"/>
       <c r="C146" s="59" t="s">
         <v>419</v>
       </c>
@@ -14984,8 +14984,8 @@
       <c r="S146" s="26"/>
     </row>
     <row r="147" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="169"/>
-      <c r="B147" s="172"/>
+      <c r="A147" s="227"/>
+      <c r="B147" s="208"/>
       <c r="C147" s="59" t="s">
         <v>378</v>
       </c>
@@ -15023,94 +15023,94 @@
       <c r="S147" s="26"/>
     </row>
     <row r="148" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="169"/>
-      <c r="B148" s="172"/>
-      <c r="C148" s="196" t="s">
+      <c r="A148" s="227"/>
+      <c r="B148" s="208"/>
+      <c r="C148" s="162" t="s">
         <v>436</v>
       </c>
-      <c r="D148" s="216" t="s">
+      <c r="D148" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="E148" s="198" t="s">
+      <c r="E148" s="164" t="s">
         <v>435</v>
       </c>
-      <c r="F148" s="198"/>
-      <c r="G148" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" s="209" t="s">
+      <c r="F148" s="164"/>
+      <c r="G148" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I148" s="209" t="s">
+      <c r="I148" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J148" s="210"/>
-      <c r="K148" s="209" t="s">
+      <c r="J148" s="176"/>
+      <c r="K148" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L148" s="209" t="s">
+      <c r="L148" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M148" s="209" t="s">
+      <c r="M148" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="N148" s="211">
+      <c r="N148" s="177">
         <v>5200</v>
       </c>
-      <c r="O148" s="211">
+      <c r="O148" s="177">
         <v>600</v>
       </c>
-      <c r="P148" s="211"/>
-      <c r="Q148" s="211"/>
-      <c r="R148" s="229"/>
-      <c r="S148" s="214"/>
-      <c r="T148" s="216"/>
+      <c r="P148" s="177"/>
+      <c r="Q148" s="177"/>
+      <c r="R148" s="195"/>
+      <c r="S148" s="180"/>
+      <c r="T148" s="182"/>
     </row>
     <row r="149" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="169"/>
-      <c r="B149" s="172"/>
-      <c r="C149" s="196" t="s">
+      <c r="A149" s="227"/>
+      <c r="B149" s="208"/>
+      <c r="C149" s="162" t="s">
         <v>356</v>
       </c>
-      <c r="D149" s="216" t="s">
+      <c r="D149" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E149" s="198" t="s">
+      <c r="E149" s="164" t="s">
         <v>388</v>
       </c>
-      <c r="F149" s="198"/>
-      <c r="G149" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="209" t="s">
+      <c r="F149" s="164"/>
+      <c r="G149" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I149" s="209"/>
-      <c r="J149" s="210"/>
-      <c r="K149" s="209" t="s">
+      <c r="I149" s="175"/>
+      <c r="J149" s="176"/>
+      <c r="K149" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L149" s="209" t="s">
+      <c r="L149" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M149" s="209" t="s">
+      <c r="M149" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="N149" s="211">
+      <c r="N149" s="177">
         <v>5500</v>
       </c>
-      <c r="O149" s="211">
+      <c r="O149" s="177">
         <v>500</v>
       </c>
-      <c r="P149" s="211"/>
-      <c r="Q149" s="211"/>
-      <c r="R149" s="229"/>
-      <c r="S149" s="214"/>
-      <c r="T149" s="216"/>
+      <c r="P149" s="177"/>
+      <c r="Q149" s="177"/>
+      <c r="R149" s="195"/>
+      <c r="S149" s="180"/>
+      <c r="T149" s="182"/>
     </row>
     <row r="150" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="169"/>
-      <c r="B150" s="172"/>
+      <c r="A150" s="227"/>
+      <c r="B150" s="208"/>
       <c r="C150" s="59" t="s">
         <v>224</v>
       </c>
@@ -15152,8 +15152,8 @@
       <c r="S150" s="26"/>
     </row>
     <row r="151" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="169"/>
-      <c r="B151" s="172"/>
+      <c r="A151" s="227"/>
+      <c r="B151" s="208"/>
       <c r="C151" s="59" t="s">
         <v>418</v>
       </c>
@@ -15193,8 +15193,8 @@
       <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="169"/>
-      <c r="B152" s="172"/>
+      <c r="A152" s="227"/>
+      <c r="B152" s="208"/>
       <c r="C152" s="59" t="s">
         <v>393</v>
       </c>
@@ -15234,50 +15234,50 @@
       <c r="S152" s="26"/>
     </row>
     <row r="153" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="169"/>
-      <c r="B153" s="172"/>
-      <c r="C153" s="196" t="s">
+      <c r="A153" s="227"/>
+      <c r="B153" s="208"/>
+      <c r="C153" s="162" t="s">
         <v>430</v>
       </c>
-      <c r="D153" s="216" t="s">
+      <c r="D153" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="E153" s="198" t="s">
+      <c r="E153" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="F153" s="198"/>
-      <c r="G153" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H153" s="209" t="s">
+      <c r="F153" s="164"/>
+      <c r="G153" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I153" s="209"/>
-      <c r="J153" s="210"/>
-      <c r="K153" s="209" t="s">
+      <c r="I153" s="175"/>
+      <c r="J153" s="176"/>
+      <c r="K153" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L153" s="209" t="s">
+      <c r="L153" s="175" t="s">
         <v>469</v>
       </c>
-      <c r="M153" s="209" t="s">
+      <c r="M153" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="N153" s="211">
+      <c r="N153" s="177">
         <v>6800</v>
       </c>
-      <c r="O153" s="212">
+      <c r="O153" s="178">
         <v>700</v>
       </c>
-      <c r="P153" s="212"/>
-      <c r="Q153" s="212"/>
-      <c r="R153" s="213"/>
-      <c r="S153" s="214"/>
-      <c r="T153" s="216"/>
+      <c r="P153" s="178"/>
+      <c r="Q153" s="178"/>
+      <c r="R153" s="179"/>
+      <c r="S153" s="180"/>
+      <c r="T153" s="182"/>
     </row>
     <row r="154" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="169"/>
-      <c r="B154" s="172"/>
+      <c r="A154" s="227"/>
+      <c r="B154" s="208"/>
       <c r="C154" s="59" t="s">
         <v>403</v>
       </c>
@@ -15317,94 +15317,94 @@
       <c r="S154" s="26"/>
     </row>
     <row r="155" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="169"/>
-      <c r="B155" s="172"/>
-      <c r="C155" s="230" t="s">
+      <c r="A155" s="227"/>
+      <c r="B155" s="208"/>
+      <c r="C155" s="196" t="s">
         <v>518</v>
       </c>
-      <c r="D155" s="216" t="s">
+      <c r="D155" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E155" s="216" t="s">
+      <c r="E155" s="182" t="s">
         <v>519</v>
       </c>
-      <c r="F155" s="216"/>
-      <c r="G155" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" s="209" t="s">
+      <c r="F155" s="182"/>
+      <c r="G155" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="I155" s="209" t="s">
+      <c r="I155" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J155" s="233"/>
-      <c r="K155" s="209" t="s">
+      <c r="J155" s="199"/>
+      <c r="K155" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="L155" s="217" t="s">
+      <c r="L155" s="183" t="s">
         <v>469</v>
       </c>
-      <c r="M155" s="217" t="s">
+      <c r="M155" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="N155" s="211">
+      <c r="N155" s="177">
         <v>5500</v>
       </c>
-      <c r="O155" s="212">
+      <c r="O155" s="178">
         <v>400</v>
       </c>
-      <c r="P155" s="212"/>
-      <c r="Q155" s="212"/>
-      <c r="R155" s="213"/>
-      <c r="S155" s="214"/>
-      <c r="T155" s="216"/>
+      <c r="P155" s="178"/>
+      <c r="Q155" s="178"/>
+      <c r="R155" s="179"/>
+      <c r="S155" s="180"/>
+      <c r="T155" s="182"/>
     </row>
     <row r="156" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="169"/>
-      <c r="B156" s="172"/>
-      <c r="C156" s="230" t="s">
+      <c r="A156" s="227"/>
+      <c r="B156" s="208"/>
+      <c r="C156" s="196" t="s">
         <v>254</v>
       </c>
-      <c r="D156" s="216" t="s">
+      <c r="D156" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="E156" s="207" t="s">
+      <c r="E156" s="173" t="s">
         <v>527</v>
       </c>
-      <c r="F156" s="207"/>
-      <c r="G156" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" s="209" t="s">
+      <c r="F156" s="173"/>
+      <c r="G156" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="I156" s="209"/>
-      <c r="J156" s="233"/>
-      <c r="K156" s="209" t="s">
+      <c r="I156" s="175"/>
+      <c r="J156" s="199"/>
+      <c r="K156" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="L156" s="209" t="s">
+      <c r="L156" s="175" t="s">
         <v>526</v>
       </c>
-      <c r="M156" s="209" t="s">
+      <c r="M156" s="175" t="s">
         <v>474</v>
       </c>
-      <c r="N156" s="211">
+      <c r="N156" s="177">
         <v>6000</v>
       </c>
-      <c r="O156" s="212">
+      <c r="O156" s="178">
         <v>400</v>
       </c>
-      <c r="P156" s="212"/>
-      <c r="Q156" s="212"/>
-      <c r="R156" s="213"/>
-      <c r="S156" s="214"/>
-      <c r="T156" s="216"/>
+      <c r="P156" s="178"/>
+      <c r="Q156" s="178"/>
+      <c r="R156" s="179"/>
+      <c r="S156" s="180"/>
+      <c r="T156" s="182"/>
     </row>
     <row r="157" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="169"/>
-      <c r="B157" s="172"/>
+      <c r="A157" s="227"/>
+      <c r="B157" s="208"/>
       <c r="C157" s="64" t="s">
         <v>443</v>
       </c>
@@ -15444,8 +15444,8 @@
       <c r="S157" s="26"/>
     </row>
     <row r="158" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="169"/>
-      <c r="B158" s="172"/>
+      <c r="A158" s="227"/>
+      <c r="B158" s="208"/>
       <c r="C158" s="64" t="s">
         <v>432</v>
       </c>
@@ -15485,8 +15485,8 @@
       <c r="S158" s="26"/>
     </row>
     <row r="159" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="169"/>
-      <c r="B159" s="172"/>
+      <c r="A159" s="227"/>
+      <c r="B159" s="208"/>
       <c r="C159" s="64" t="s">
         <v>317</v>
       </c>
@@ -15528,52 +15528,52 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="169"/>
-      <c r="B160" s="172"/>
-      <c r="C160" s="230" t="s">
+      <c r="A160" s="227"/>
+      <c r="B160" s="208"/>
+      <c r="C160" s="196" t="s">
         <v>364</v>
       </c>
-      <c r="D160" s="234" t="s">
+      <c r="D160" s="200" t="s">
         <v>543</v>
       </c>
-      <c r="E160" s="198" t="s">
+      <c r="E160" s="164" t="s">
         <v>365</v>
       </c>
-      <c r="F160" s="198"/>
-      <c r="G160" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="209" t="s">
+      <c r="F160" s="164"/>
+      <c r="G160" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="175" t="s">
         <v>695</v>
       </c>
-      <c r="I160" s="209" t="s">
+      <c r="I160" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J160" s="233"/>
-      <c r="K160" s="209" t="s">
+      <c r="J160" s="199"/>
+      <c r="K160" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L160" s="217" t="s">
+      <c r="L160" s="183" t="s">
         <v>469</v>
       </c>
-      <c r="M160" s="217" t="s">
+      <c r="M160" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="N160" s="211">
+      <c r="N160" s="177">
         <v>5600</v>
       </c>
-      <c r="O160" s="212">
+      <c r="O160" s="178">
         <v>600</v>
       </c>
-      <c r="P160" s="212"/>
-      <c r="Q160" s="212"/>
-      <c r="R160" s="213"/>
-      <c r="S160" s="214"/>
-      <c r="T160" s="216"/>
+      <c r="P160" s="178"/>
+      <c r="Q160" s="178"/>
+      <c r="R160" s="179"/>
+      <c r="S160" s="180"/>
+      <c r="T160" s="182"/>
     </row>
     <row r="161" spans="1:20" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="170"/>
-      <c r="B161" s="172"/>
+      <c r="A161" s="228"/>
+      <c r="B161" s="208"/>
       <c r="C161" s="64" t="s">
         <v>210</v>
       </c>
@@ -15613,104 +15613,104 @@
       <c r="S161" s="31"/>
     </row>
     <row r="162" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="190" t="s">
+      <c r="A162" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="B162" s="185" t="s">
+      <c r="B162" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="C162" s="199" t="s">
+      <c r="C162" s="165" t="s">
         <v>530</v>
       </c>
-      <c r="D162" s="200" t="s">
+      <c r="D162" s="166" t="s">
         <v>361</v>
       </c>
-      <c r="E162" s="235" t="s">
+      <c r="E162" s="201" t="s">
         <v>447</v>
       </c>
-      <c r="F162" s="235"/>
-      <c r="G162" s="201" t="s">
-        <v>8</v>
-      </c>
-      <c r="H162" s="202" t="s">
+      <c r="F162" s="201"/>
+      <c r="G162" s="167" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="I162" s="202" t="s">
+      <c r="I162" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="J162" s="203">
+      <c r="J162" s="169">
         <v>5</v>
       </c>
-      <c r="K162" s="202" t="s">
+      <c r="K162" s="168" t="s">
         <v>350</v>
       </c>
-      <c r="L162" s="202" t="s">
+      <c r="L162" s="168" t="s">
         <v>482</v>
       </c>
-      <c r="M162" s="202" t="s">
+      <c r="M162" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="N162" s="204">
+      <c r="N162" s="170">
         <v>3000</v>
       </c>
-      <c r="O162" s="204">
+      <c r="O162" s="170">
         <v>500</v>
       </c>
-      <c r="P162" s="204"/>
-      <c r="Q162" s="204"/>
-      <c r="R162" s="205"/>
-      <c r="S162" s="206"/>
-      <c r="T162" s="200"/>
+      <c r="P162" s="170"/>
+      <c r="Q162" s="170"/>
+      <c r="R162" s="171"/>
+      <c r="S162" s="172"/>
+      <c r="T162" s="166"/>
     </row>
     <row r="163" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="190"/>
-      <c r="B163" s="172"/>
-      <c r="C163" s="196" t="s">
+      <c r="A163" s="216"/>
+      <c r="B163" s="208"/>
+      <c r="C163" s="162" t="s">
         <v>360</v>
       </c>
-      <c r="D163" s="216" t="s">
+      <c r="D163" s="182" t="s">
         <v>361</v>
       </c>
-      <c r="E163" s="198" t="s">
+      <c r="E163" s="164" t="s">
         <v>362</v>
       </c>
-      <c r="F163" s="198"/>
-      <c r="G163" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="209" t="s">
+      <c r="F163" s="164"/>
+      <c r="G163" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="I163" s="209" t="s">
+      <c r="I163" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="J163" s="210">
+      <c r="J163" s="176">
         <v>4</v>
       </c>
-      <c r="K163" s="209" t="s">
+      <c r="K163" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="L163" s="209" t="s">
+      <c r="L163" s="175" t="s">
         <v>482</v>
       </c>
-      <c r="M163" s="209" t="s">
+      <c r="M163" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="N163" s="211">
+      <c r="N163" s="177">
         <v>3000</v>
       </c>
-      <c r="O163" s="212">
+      <c r="O163" s="178">
         <v>500</v>
       </c>
-      <c r="P163" s="212"/>
-      <c r="Q163" s="212"/>
-      <c r="R163" s="213"/>
-      <c r="S163" s="214"/>
-      <c r="T163" s="236"/>
+      <c r="P163" s="178"/>
+      <c r="Q163" s="178"/>
+      <c r="R163" s="179"/>
+      <c r="S163" s="180"/>
+      <c r="T163" s="202"/>
     </row>
     <row r="164" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="190"/>
-      <c r="B164" s="172"/>
+      <c r="A164" s="216"/>
+      <c r="B164" s="208"/>
       <c r="C164" s="59" t="s">
         <v>379</v>
       </c>
@@ -15754,8 +15754,8 @@
       <c r="S164" s="26"/>
     </row>
     <row r="165" spans="1:20" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="190"/>
-      <c r="B165" s="172"/>
+      <c r="A165" s="216"/>
+      <c r="B165" s="208"/>
       <c r="C165" s="59" t="s">
         <v>389</v>
       </c>
@@ -15799,8 +15799,8 @@
       <c r="S165" s="26"/>
     </row>
     <row r="166" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="190"/>
-      <c r="B166" s="172"/>
+      <c r="A166" s="216"/>
+      <c r="B166" s="208"/>
       <c r="C166" s="59" t="s">
         <v>248</v>
       </c>
@@ -15842,8 +15842,8 @@
       <c r="S166" s="26"/>
     </row>
     <row r="167" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="190"/>
-      <c r="B167" s="172"/>
+      <c r="A167" s="216"/>
+      <c r="B167" s="208"/>
       <c r="C167" s="60" t="s">
         <v>398</v>
       </c>
@@ -15887,8 +15887,8 @@
       <c r="S167" s="26"/>
     </row>
     <row r="168" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="190"/>
-      <c r="B168" s="172"/>
+      <c r="A168" s="216"/>
+      <c r="B168" s="208"/>
       <c r="C168" s="59" t="s">
         <v>370</v>
       </c>
@@ -15930,8 +15930,8 @@
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="190"/>
-      <c r="B169" s="177"/>
+      <c r="A169" s="216"/>
+      <c r="B169" s="209"/>
       <c r="C169" s="59" t="s">
         <v>399</v>
       </c>
@@ -15973,7 +15973,7 @@
       <c r="S169" s="31"/>
     </row>
     <row r="170" spans="1:20" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="191" t="s">
+      <c r="A170" s="217" t="s">
         <v>532</v>
       </c>
       <c r="B170" s="71" t="s">
@@ -16016,8 +16016,8 @@
       <c r="S170" s="70"/>
     </row>
     <row r="171" spans="1:20" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="191"/>
-      <c r="B171" s="171" t="s">
+      <c r="A171" s="217"/>
+      <c r="B171" s="218" t="s">
         <v>193</v>
       </c>
       <c r="C171" s="59" t="s">
@@ -16055,8 +16055,8 @@
       <c r="S171" s="56"/>
     </row>
     <row r="172" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="191"/>
-      <c r="B172" s="172"/>
+      <c r="A172" s="217"/>
+      <c r="B172" s="208"/>
       <c r="C172" s="59" t="s">
         <v>195</v>
       </c>
@@ -16091,8 +16091,8 @@
       <c r="S172" s="26"/>
     </row>
     <row r="173" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="191"/>
-      <c r="B173" s="172"/>
+      <c r="A173" s="217"/>
+      <c r="B173" s="208"/>
       <c r="C173" s="59" t="s">
         <v>257</v>
       </c>
@@ -16132,8 +16132,8 @@
       <c r="S173" s="26"/>
     </row>
     <row r="174" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="191"/>
-      <c r="B174" s="172"/>
+      <c r="A174" s="217"/>
+      <c r="B174" s="208"/>
       <c r="C174" s="59" t="s">
         <v>414</v>
       </c>
@@ -16170,8 +16170,8 @@
       <c r="S174" s="26"/>
     </row>
     <row r="175" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="191"/>
-      <c r="B175" s="192"/>
+      <c r="A175" s="217"/>
+      <c r="B175" s="219"/>
       <c r="C175" s="59" t="s">
         <v>415</v>
       </c>
@@ -16209,10 +16209,10 @@
       <c r="S175" s="26"/>
     </row>
     <row r="176" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="184" t="s">
+      <c r="A176" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="B176" s="188" t="s">
+      <c r="B176" s="212" t="s">
         <v>51</v>
       </c>
       <c r="C176" s="61" t="s">
@@ -16252,8 +16252,8 @@
       <c r="S176" s="36"/>
     </row>
     <row r="177" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="184"/>
-      <c r="B177" s="165"/>
+      <c r="A177" s="206"/>
+      <c r="B177" s="213"/>
       <c r="C177" s="59" t="s">
         <v>184</v>
       </c>
@@ -16291,8 +16291,8 @@
       <c r="S177" s="26"/>
     </row>
     <row r="178" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="184"/>
-      <c r="B178" s="165"/>
+      <c r="A178" s="206"/>
+      <c r="B178" s="213"/>
       <c r="C178" s="59" t="s">
         <v>183</v>
       </c>
@@ -16330,8 +16330,8 @@
       <c r="S178" s="26"/>
     </row>
     <row r="179" spans="1:19" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="184"/>
-      <c r="B179" s="165"/>
+      <c r="A179" s="206"/>
+      <c r="B179" s="213"/>
       <c r="C179" s="60" t="s">
         <v>185</v>
       </c>
@@ -16369,8 +16369,8 @@
       <c r="S179" s="31"/>
     </row>
     <row r="180" spans="1:19" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="184"/>
-      <c r="B180" s="182" t="s">
+      <c r="A180" s="206"/>
+      <c r="B180" s="204" t="s">
         <v>193</v>
       </c>
       <c r="C180" s="62" t="s">
@@ -16404,8 +16404,8 @@
       <c r="S180" s="56"/>
     </row>
     <row r="181" spans="1:19" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="184"/>
-      <c r="B181" s="183"/>
+      <c r="A181" s="206"/>
+      <c r="B181" s="205"/>
       <c r="C181" s="63"/>
       <c r="E181" s="49"/>
       <c r="F181" s="49"/>
@@ -17134,6 +17134,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A53:A71"/>
+    <mergeCell ref="A137:A161"/>
+    <mergeCell ref="B142:B161"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="B83:B119"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="A72:A119"/>
+    <mergeCell ref="B137:B141"/>
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="A176:A181"/>
     <mergeCell ref="B162:B169"/>
@@ -17149,18 +17161,6 @@
     <mergeCell ref="B130:B136"/>
     <mergeCell ref="A39:A52"/>
     <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A53:A71"/>
-    <mergeCell ref="A137:A161"/>
-    <mergeCell ref="B142:B161"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="B83:B119"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="A72:A119"/>
-    <mergeCell ref="B137:B141"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ressources/DayZ Mods.xlsx
+++ b/ressources/DayZ Mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\DayZ_Server\Immersive-DayZ-Experience\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E8EC6E-8BAE-47D4-BAA8-FD5CB14E16A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E8B35C-371E-4508-92A7-DEBE7ADB4BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
+    <workbookView minimized="1" xWindow="-28695" yWindow="5610" windowWidth="28800" windowHeight="15345" tabRatio="260" activeTab="1" xr2:uid="{FAEB3C3F-74B0-4C80-8C8B-4522341FA132}"/>
   </bookViews>
   <sheets>
     <sheet name="Mods" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="784">
   <si>
     <t>Community Frameworks</t>
   </si>
@@ -2927,9 +2927,6 @@
     <t>DIE</t>
   </si>
   <si>
-    <t>DIE_G28</t>
-  </si>
-  <si>
     <t>falsche Animation</t>
   </si>
   <si>
@@ -2948,9 +2945,6 @@
     <t>Recoil runter?</t>
   </si>
   <si>
-    <t>Hardline? Verfügbarkeit?</t>
-  </si>
-  <si>
     <t>Eventwaffe? Sound?</t>
   </si>
   <si>
@@ -3002,9 +2996,6 @@
     <t>Types</t>
   </si>
   <si>
-    <t>Variante?</t>
-  </si>
-  <si>
     <t>einfügen TTC</t>
   </si>
   <si>
@@ -3030,6 +3021,30 @@
   </si>
   <si>
     <t>Recoil anpassen</t>
+  </si>
+  <si>
+    <t>eventwaffe?</t>
+  </si>
+  <si>
+    <t>Hardline? Verfügbarkeit über Banditen</t>
+  </si>
+  <si>
+    <t>erstmal nominall auf 0</t>
+  </si>
+  <si>
+    <t>Event oder Quest?</t>
+  </si>
+  <si>
+    <t>nur über Söldner lootbar? Recoil verhalten? Sounds?</t>
+  </si>
+  <si>
+    <t>Variante? Event?</t>
+  </si>
+  <si>
+    <t>Silencer Sound?</t>
+  </si>
+  <si>
+    <t>IDE_G28</t>
   </si>
 </sst>
 </file>
@@ -3958,7 +3973,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4360,32 +4375,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="10" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="23" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="41" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="23" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="23" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="23" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="23" borderId="43" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="23" borderId="36" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4396,12 +4390,6 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="36" xfId="4" applyBorder="1"/>
     <xf numFmtId="1" fontId="19" fillId="23" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="6" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="5"/>
@@ -4474,12 +4462,6 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="36" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="23" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4487,10 +4469,163 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="36" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="20" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="24" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="24" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="41" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="41" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" xfId="6" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="24" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="36" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="36" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="41" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="46" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="18" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="24" borderId="17" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="24" borderId="17" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="17" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="43" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="16" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="31" xfId="6" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="24" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="36" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="35" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="23" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="24" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="19" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="24" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="24" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="42" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -4503,12 +4638,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4518,24 +4647,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4546,48 +4666,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -5468,7 +5546,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="282" t="s">
         <v>648</v>
       </c>
       <c r="C2" s="146">
@@ -5508,7 +5586,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251"/>
+      <c r="A3" s="282"/>
       <c r="C3" s="147">
         <v>1564026768</v>
       </c>
@@ -5546,7 +5624,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="282" t="s">
         <v>649</v>
       </c>
       <c r="C4" s="148">
@@ -5586,7 +5664,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="251"/>
+      <c r="A5" s="282"/>
       <c r="C5" s="148">
         <v>2614334381</v>
       </c>
@@ -5624,7 +5702,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="251"/>
+      <c r="A6" s="282"/>
       <c r="C6" s="148">
         <v>2507204412</v>
       </c>
@@ -5662,7 +5740,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="282" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="147">
@@ -5702,7 +5780,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="251"/>
+      <c r="A8" s="282"/>
       <c r="C8" s="147">
         <v>2572331007</v>
       </c>
@@ -5742,7 +5820,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="251"/>
+      <c r="A9" s="282"/>
       <c r="C9" s="148">
         <v>2116157322</v>
       </c>
@@ -5782,7 +5860,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="251"/>
+      <c r="A10" s="282"/>
       <c r="C10" s="148">
         <v>2793893086</v>
       </c>
@@ -5822,7 +5900,7 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="282" t="s">
         <v>650</v>
       </c>
       <c r="C11" s="148">
@@ -5864,7 +5942,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="251"/>
+      <c r="A12" s="282"/>
       <c r="C12" s="148">
         <v>3031784065</v>
       </c>
@@ -5904,7 +5982,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="251"/>
+      <c r="A13" s="282"/>
       <c r="C13" s="148">
         <v>2977703357</v>
       </c>
@@ -5942,7 +6020,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
+      <c r="A14" s="282"/>
       <c r="C14" s="148">
         <v>2980235854</v>
       </c>
@@ -5980,7 +6058,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
+      <c r="A15" s="282"/>
       <c r="C15" s="148">
         <v>2111523728</v>
       </c>
@@ -6020,7 +6098,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="251" t="s">
+      <c r="A16" s="282" t="s">
         <v>654</v>
       </c>
       <c r="C16" s="148">
@@ -6062,7 +6140,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="251"/>
+      <c r="A17" s="282"/>
       <c r="C17" s="148">
         <v>2822531337</v>
       </c>
@@ -6100,7 +6178,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="251" t="s">
+      <c r="A18" s="282" t="s">
         <v>651</v>
       </c>
       <c r="C18" s="147">
@@ -6144,7 +6222,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
+      <c r="A19" s="282"/>
       <c r="C19" s="147">
         <v>2166325582</v>
       </c>
@@ -6182,7 +6260,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="251"/>
+      <c r="A20" s="282"/>
       <c r="C20" s="147">
         <v>2208230845</v>
       </c>
@@ -6224,7 +6302,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="251" t="s">
+      <c r="A21" s="282" t="s">
         <v>652</v>
       </c>
       <c r="B21" s="156"/>
@@ -6263,7 +6341,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="251"/>
+      <c r="A22" s="282"/>
       <c r="B22" s="156"/>
       <c r="C22" s="147">
         <v>2789302074</v>
@@ -6300,7 +6378,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
+      <c r="A23" s="282"/>
       <c r="B23" s="156"/>
       <c r="C23" s="148">
         <v>1991570984</v>
@@ -6333,7 +6411,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="251"/>
+      <c r="A24" s="282"/>
       <c r="B24" s="156"/>
       <c r="C24" s="148">
         <v>3171576913</v>
@@ -6372,7 +6450,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="251"/>
+      <c r="A25" s="282"/>
       <c r="B25" s="156"/>
       <c r="C25" s="147" t="s">
         <v>577</v>
@@ -6409,7 +6487,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="251"/>
+      <c r="A26" s="282"/>
       <c r="B26" s="156"/>
       <c r="C26" s="147">
         <v>2931560672</v>
@@ -6446,7 +6524,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="251"/>
+      <c r="A27" s="282"/>
       <c r="B27" s="156"/>
       <c r="C27" s="148">
         <v>3108865421</v>
@@ -6483,7 +6561,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="251"/>
+      <c r="A28" s="282"/>
       <c r="B28" s="156"/>
       <c r="C28" s="147">
         <v>1630943713</v>
@@ -6522,7 +6600,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="251"/>
+      <c r="A29" s="282"/>
       <c r="B29" s="156"/>
       <c r="C29" s="148">
         <v>1797720064</v>
@@ -6561,7 +6639,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="251"/>
+      <c r="A30" s="282"/>
       <c r="B30" s="156"/>
       <c r="C30" s="147">
         <v>2155726353</v>
@@ -6598,7 +6676,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="251"/>
+      <c r="A31" s="282"/>
       <c r="B31" s="156"/>
       <c r="C31" s="148">
         <v>2723807644</v>
@@ -6635,7 +6713,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="251"/>
+      <c r="A32" s="282"/>
       <c r="B32" s="156"/>
       <c r="C32" s="148">
         <v>2780914191</v>
@@ -6672,7 +6750,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="251"/>
+      <c r="A33" s="282"/>
       <c r="B33" s="156"/>
       <c r="C33" s="148">
         <v>2741271183</v>
@@ -6709,7 +6787,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="251"/>
+      <c r="A34" s="282"/>
       <c r="B34" s="156"/>
       <c r="C34" s="148">
         <v>2579252958</v>
@@ -6748,7 +6826,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="251"/>
+      <c r="A35" s="282"/>
       <c r="B35" s="156"/>
       <c r="C35" s="148">
         <v>3034460305</v>
@@ -6787,7 +6865,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="251"/>
+      <c r="A36" s="282"/>
       <c r="B36" s="156"/>
       <c r="C36" s="148">
         <v>2851058261</v>
@@ -6826,7 +6904,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="251"/>
+      <c r="A37" s="282"/>
       <c r="B37" s="156"/>
       <c r="C37" s="148">
         <v>2926289548</v>
@@ -6863,7 +6941,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="251"/>
+      <c r="A38" s="282"/>
       <c r="B38" s="156"/>
       <c r="C38" s="148">
         <v>3170285574</v>
@@ -6902,7 +6980,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="251"/>
+      <c r="A39" s="282"/>
       <c r="B39" s="156"/>
       <c r="C39" s="148">
         <v>3279662973</v>
@@ -6941,7 +7019,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="251"/>
+      <c r="A40" s="282"/>
       <c r="B40" s="156"/>
       <c r="C40" s="147">
         <v>2937138060</v>
@@ -6980,7 +7058,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="251" t="s">
+      <c r="A41" s="282" t="s">
         <v>655</v>
       </c>
       <c r="C41" s="148">
@@ -7022,7 +7100,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="251"/>
+      <c r="A42" s="282"/>
       <c r="C42" s="148">
         <v>3114410963</v>
       </c>
@@ -7058,7 +7136,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="251"/>
+      <c r="A43" s="282"/>
       <c r="C43" s="147">
         <v>1866298408</v>
       </c>
@@ -7096,7 +7174,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="251"/>
+      <c r="A44" s="282"/>
       <c r="C44" s="148">
         <v>2874589934</v>
       </c>
@@ -7134,7 +7212,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="251" t="s">
+      <c r="A45" s="282" t="s">
         <v>656</v>
       </c>
       <c r="C45" s="148">
@@ -7162,7 +7240,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="251"/>
+      <c r="A46" s="282"/>
       <c r="C46" s="148">
         <v>1710977250</v>
       </c>
@@ -7190,7 +7268,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="251"/>
+      <c r="A47" s="282"/>
       <c r="C47" s="148">
         <v>2895049000</v>
       </c>
@@ -7218,7 +7296,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="251" t="s">
+      <c r="A48" s="282" t="s">
         <v>657</v>
       </c>
       <c r="C48" s="148">
@@ -7258,7 +7336,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="251"/>
+      <c r="A49" s="282"/>
       <c r="C49" s="148">
         <v>2472500243</v>
       </c>
@@ -7296,7 +7374,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="251"/>
+      <c r="A50" s="282"/>
       <c r="C50" s="148">
         <v>1832448183</v>
       </c>
@@ -7328,7 +7406,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="251"/>
+      <c r="A51" s="282"/>
       <c r="C51" s="148">
         <v>1895432270</v>
       </c>
@@ -7364,7 +7442,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="251"/>
+      <c r="A52" s="282"/>
       <c r="C52" s="148">
         <v>2912241382</v>
       </c>
@@ -7400,7 +7478,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="251" t="s">
+      <c r="A53" s="282" t="s">
         <v>647</v>
       </c>
       <c r="C53" s="148">
@@ -7440,7 +7518,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="251"/>
+      <c r="A54" s="282"/>
       <c r="C54" s="148">
         <v>3043440124</v>
       </c>
@@ -7478,7 +7556,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="251"/>
+      <c r="A55" s="282"/>
       <c r="C55" s="147">
         <v>2550932214</v>
       </c>
@@ -7516,7 +7594,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="251"/>
+      <c r="A56" s="282"/>
       <c r="C56" s="148">
         <v>3321340470</v>
       </c>
@@ -7556,7 +7634,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="251" t="s">
+      <c r="A57" s="282" t="s">
         <v>653</v>
       </c>
       <c r="C57" s="147">
@@ -7596,7 +7674,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="251"/>
+      <c r="A58" s="282"/>
       <c r="C58" s="147">
         <v>2793619401</v>
       </c>
@@ -7636,7 +7714,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="251"/>
+      <c r="A59" s="282"/>
       <c r="C59" s="148">
         <v>2924719512</v>
       </c>
@@ -7674,7 +7752,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="251"/>
+      <c r="A60" s="282"/>
       <c r="C60" s="148">
         <v>2810260908</v>
       </c>
@@ -7712,7 +7790,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="251"/>
+      <c r="A61" s="282"/>
       <c r="C61" s="148">
         <v>2877877368</v>
       </c>
@@ -7750,7 +7828,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="251"/>
+      <c r="A62" s="282"/>
       <c r="C62" s="148">
         <v>2857994912</v>
       </c>
@@ -7788,7 +7866,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="251"/>
+      <c r="A63" s="282"/>
       <c r="C63" s="148">
         <v>2817606510</v>
       </c>
@@ -7826,7 +7904,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="251"/>
+      <c r="A64" s="282"/>
       <c r="C64" s="148">
         <v>2884638645</v>
       </c>
@@ -7860,7 +7938,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="251"/>
+      <c r="A65" s="282"/>
       <c r="C65" s="147">
         <v>2521460498</v>
       </c>
@@ -7898,7 +7976,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="251"/>
+      <c r="A66" s="282"/>
       <c r="C66" s="147">
         <v>2903112334</v>
       </c>
@@ -7938,7 +8016,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="251"/>
+      <c r="A67" s="282"/>
       <c r="C67" s="147">
         <v>2833363308</v>
       </c>
@@ -7976,7 +8054,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="251"/>
+      <c r="A68" s="282"/>
       <c r="C68" s="148">
         <v>2521678241</v>
       </c>
@@ -8016,7 +8094,7 @@
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="251"/>
+      <c r="A69" s="282"/>
       <c r="C69" s="148">
         <v>2895460678</v>
       </c>
@@ -8054,7 +8132,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="251"/>
+      <c r="A70" s="282"/>
       <c r="C70" s="148">
         <v>2985895498</v>
       </c>
@@ -8092,7 +8170,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="251"/>
+      <c r="A71" s="282"/>
       <c r="C71" s="148">
         <v>2224593910</v>
       </c>
@@ -8648,18 +8726,18 @@
     <sortCondition ref="B2:B98"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A21:A40"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A21:A40"/>
-    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8670,8 +8748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4763-6B65-4CE2-BD87-511E98A2E639}">
   <dimension ref="A1:W229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8704,26 +8782,26 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="204"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="283"/>
+      <c r="Q3" s="283"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="283"/>
+      <c r="T3" s="191"/>
     </row>
     <row r="4" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -8738,19 +8816,19 @@
       <c r="F4" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="259"/>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="307"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="307"/>
+      <c r="K4" s="307"/>
+      <c r="L4" s="307"/>
+      <c r="M4" s="307"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8805,10 +8883,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="306" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="308" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -8862,7 +8940,7 @@
       <c r="S6" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="T6" s="206" t="s">
+      <c r="T6" s="193" t="s">
         <v>734</v>
       </c>
       <c r="U6" s="19" t="s">
@@ -8873,8 +8951,8 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="258"/>
-      <c r="B7" s="261"/>
+      <c r="A7" s="306"/>
+      <c r="B7" s="285"/>
       <c r="C7" s="58" t="s">
         <v>42</v>
       </c>
@@ -8920,14 +8998,14 @@
       <c r="S7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="218"/>
+      <c r="T7" s="205"/>
       <c r="W7" s="125" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="258"/>
-      <c r="B8" s="261"/>
+      <c r="A8" s="306"/>
+      <c r="B8" s="285"/>
       <c r="C8" s="58" t="s">
         <v>49</v>
       </c>
@@ -8971,14 +9049,14 @@
       <c r="Q8" s="40"/>
       <c r="R8" s="118"/>
       <c r="S8" s="26"/>
-      <c r="T8" s="218"/>
+      <c r="T8" s="205"/>
       <c r="W8" s="126" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="258"/>
-      <c r="B9" s="261"/>
+      <c r="A9" s="306"/>
+      <c r="B9" s="285"/>
       <c r="C9" s="58" t="s">
         <v>275</v>
       </c>
@@ -9024,14 +9102,14 @@
       <c r="S9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="218"/>
+      <c r="T9" s="205"/>
       <c r="W9" s="127" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="258"/>
-      <c r="B10" s="261"/>
+      <c r="A10" s="306"/>
+      <c r="B10" s="285"/>
       <c r="C10" s="58" t="s">
         <v>43</v>
       </c>
@@ -9075,14 +9153,14 @@
       <c r="Q10" s="40"/>
       <c r="R10" s="118"/>
       <c r="S10" s="26"/>
-      <c r="T10" s="218"/>
+      <c r="T10" s="205"/>
       <c r="W10" s="141" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="258"/>
-      <c r="B11" s="261"/>
+      <c r="A11" s="306"/>
+      <c r="B11" s="285"/>
       <c r="C11" s="58" t="s">
         <v>59</v>
       </c>
@@ -9128,14 +9206,14 @@
       <c r="S11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="218"/>
+      <c r="T11" s="205"/>
       <c r="W11" s="150" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="258"/>
-      <c r="B12" s="261"/>
+      <c r="A12" s="306"/>
+      <c r="B12" s="285"/>
       <c r="C12" s="58" t="s">
         <v>44</v>
       </c>
@@ -9179,11 +9257,11 @@
       <c r="Q12" s="40"/>
       <c r="R12" s="118"/>
       <c r="S12" s="26"/>
-      <c r="T12" s="218"/>
+      <c r="T12" s="205"/>
     </row>
     <row r="13" spans="1:23" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="258"/>
-      <c r="B13" s="261"/>
+      <c r="A13" s="306"/>
+      <c r="B13" s="285"/>
       <c r="C13" s="58" t="s">
         <v>616</v>
       </c>
@@ -9215,11 +9293,11 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="119"/>
       <c r="S13" s="26"/>
-      <c r="T13" s="202"/>
+      <c r="T13" s="189"/>
     </row>
     <row r="14" spans="1:23" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="258"/>
-      <c r="B14" s="261"/>
+      <c r="A14" s="306"/>
+      <c r="B14" s="285"/>
       <c r="C14" s="58" t="s">
         <v>45</v>
       </c>
@@ -9263,11 +9341,11 @@
       <c r="Q14" s="40"/>
       <c r="R14" s="118"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="218"/>
+      <c r="T14" s="205"/>
     </row>
     <row r="15" spans="1:23" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="258"/>
-      <c r="B15" s="261"/>
+      <c r="A15" s="306"/>
+      <c r="B15" s="285"/>
       <c r="C15" s="58" t="s">
         <v>74</v>
       </c>
@@ -9311,11 +9389,11 @@
       <c r="Q15" s="40"/>
       <c r="R15" s="118"/>
       <c r="S15" s="26"/>
-      <c r="T15" s="218"/>
+      <c r="T15" s="205"/>
     </row>
     <row r="16" spans="1:23" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="258"/>
-      <c r="B16" s="261"/>
+      <c r="A16" s="306"/>
+      <c r="B16" s="285"/>
       <c r="C16" s="58" t="s">
         <v>46</v>
       </c>
@@ -9357,11 +9435,11 @@
       <c r="Q16" s="40"/>
       <c r="R16" s="118"/>
       <c r="S16" s="26"/>
-      <c r="T16" s="218"/>
+      <c r="T16" s="205"/>
     </row>
     <row r="17" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="258"/>
-      <c r="B17" s="261"/>
+      <c r="A17" s="306"/>
+      <c r="B17" s="285"/>
       <c r="C17" s="58" t="s">
         <v>47</v>
       </c>
@@ -9403,11 +9481,11 @@
       <c r="Q17" s="40"/>
       <c r="R17" s="118"/>
       <c r="S17" s="26"/>
-      <c r="T17" s="218"/>
+      <c r="T17" s="205"/>
     </row>
     <row r="18" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="258"/>
-      <c r="B18" s="261"/>
+      <c r="A18" s="306"/>
+      <c r="B18" s="285"/>
       <c r="C18" s="58" t="s">
         <v>48</v>
       </c>
@@ -9449,11 +9527,11 @@
       <c r="Q18" s="40"/>
       <c r="R18" s="118"/>
       <c r="S18" s="26"/>
-      <c r="T18" s="218"/>
+      <c r="T18" s="205"/>
     </row>
     <row r="19" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="258"/>
-      <c r="B19" s="261"/>
+      <c r="A19" s="306"/>
+      <c r="B19" s="285"/>
       <c r="C19" s="58" t="s">
         <v>334</v>
       </c>
@@ -9497,11 +9575,11 @@
       <c r="Q19" s="40"/>
       <c r="R19" s="118"/>
       <c r="S19" s="26"/>
-      <c r="T19" s="219"/>
+      <c r="T19" s="206"/>
     </row>
     <row r="20" spans="1:21" s="39" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="258"/>
-      <c r="B20" s="262"/>
+      <c r="A20" s="306"/>
+      <c r="B20" s="309"/>
       <c r="C20" s="59" t="s">
         <v>50</v>
       </c>
@@ -9541,64 +9619,64 @@
       <c r="Q20" s="41"/>
       <c r="R20" s="119"/>
       <c r="S20" s="31"/>
-      <c r="T20" s="220"/>
+      <c r="T20" s="207"/>
     </row>
     <row r="21" spans="1:21" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="258"/>
-      <c r="B21" s="255" t="s">
+      <c r="A21" s="306"/>
+      <c r="B21" s="305" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="221" t="s">
+      <c r="C21" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="222" t="s">
+      <c r="D21" s="209" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="222" t="s">
+      <c r="E21" s="209" t="s">
         <v>739</v>
       </c>
       <c r="F21" s="129" t="s">
         <v>623</v>
       </c>
-      <c r="G21" s="223" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="224" t="s">
+      <c r="G21" s="210" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="211" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="224" t="s">
+      <c r="I21" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="225">
+      <c r="J21" s="212">
         <v>4</v>
       </c>
-      <c r="K21" s="224" t="s">
+      <c r="K21" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="224" t="s">
+      <c r="L21" s="211" t="s">
         <v>457</v>
       </c>
-      <c r="M21" s="224" t="s">
+      <c r="M21" s="211" t="s">
         <v>462</v>
       </c>
-      <c r="N21" s="226">
+      <c r="N21" s="213">
         <v>400</v>
       </c>
-      <c r="O21" s="226">
+      <c r="O21" s="213">
         <v>70</v>
       </c>
-      <c r="P21" s="226"/>
-      <c r="Q21" s="226"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="228"/>
-      <c r="T21" s="217"/>
-      <c r="U21" s="222" t="s">
+      <c r="P21" s="213"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="214"/>
+      <c r="S21" s="215"/>
+      <c r="T21" s="204"/>
+      <c r="U21" s="209" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="258"/>
-      <c r="B22" s="256"/>
+      <c r="A22" s="306"/>
+      <c r="B22" s="292"/>
       <c r="C22" s="59" t="s">
         <v>231</v>
       </c>
@@ -9642,11 +9720,11 @@
       <c r="Q22" s="40"/>
       <c r="R22" s="118"/>
       <c r="S22" s="26"/>
-      <c r="T22" s="218"/>
+      <c r="T22" s="205"/>
     </row>
     <row r="23" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="258"/>
-      <c r="B23" s="256"/>
+      <c r="A23" s="306"/>
+      <c r="B23" s="292"/>
       <c r="C23" s="58" t="s">
         <v>45</v>
       </c>
@@ -9688,11 +9766,11 @@
       <c r="Q23" s="40"/>
       <c r="R23" s="118"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="218"/>
+      <c r="T23" s="205"/>
     </row>
     <row r="24" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="258"/>
-      <c r="B24" s="256"/>
+      <c r="A24" s="306"/>
+      <c r="B24" s="292"/>
       <c r="C24" s="58" t="s">
         <v>120</v>
       </c>
@@ -9738,14 +9816,14 @@
       <c r="Q24" s="41"/>
       <c r="R24" s="119"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="218"/>
+      <c r="T24" s="205"/>
       <c r="U24" s="23" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="258"/>
-      <c r="B25" s="256"/>
+      <c r="A25" s="306"/>
+      <c r="B25" s="292"/>
       <c r="C25" s="58" t="s">
         <v>233</v>
       </c>
@@ -9793,11 +9871,11 @@
       </c>
       <c r="R25" s="119"/>
       <c r="S25" s="26"/>
-      <c r="T25" s="218"/>
+      <c r="T25" s="205"/>
     </row>
     <row r="26" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="258"/>
-      <c r="B26" s="256"/>
+      <c r="A26" s="306"/>
+      <c r="B26" s="292"/>
       <c r="C26" s="58" t="s">
         <v>119</v>
       </c>
@@ -9841,59 +9919,62 @@
       <c r="Q26" s="40"/>
       <c r="R26" s="118"/>
       <c r="S26" s="26"/>
-      <c r="T26" s="218"/>
+      <c r="T26" s="205"/>
     </row>
     <row r="27" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="258"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="58" t="s">
+      <c r="A27" s="306"/>
+      <c r="B27" s="292"/>
+      <c r="C27" s="235" t="s">
         <v>449</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="192" t="s">
         <v>266</v>
       </c>
-      <c r="F27" s="124" t="s">
+      <c r="F27" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="25" t="s">
+      <c r="G27" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="237" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="238">
         <v>5</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="245" t="s">
         <v>469</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="245" t="s">
         <v>473</v>
       </c>
-      <c r="N27" s="40">
+      <c r="N27" s="239">
         <v>2200</v>
       </c>
-      <c r="O27" s="40">
+      <c r="O27" s="239">
         <v>400</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="218"/>
+      <c r="P27" s="239"/>
+      <c r="Q27" s="239"/>
+      <c r="R27" s="246"/>
+      <c r="S27" s="242"/>
+      <c r="T27" s="247"/>
+      <c r="U27" s="192" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="28" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="258"/>
-      <c r="B28" s="256"/>
+      <c r="A28" s="306"/>
+      <c r="B28" s="292"/>
       <c r="C28" s="58" t="s">
         <v>370</v>
       </c>
@@ -9937,11 +10018,11 @@
       <c r="Q28" s="41"/>
       <c r="R28" s="119"/>
       <c r="S28" s="26"/>
-      <c r="T28" s="218"/>
+      <c r="T28" s="205"/>
     </row>
     <row r="29" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="258"/>
-      <c r="B29" s="256"/>
+      <c r="A29" s="306"/>
+      <c r="B29" s="292"/>
       <c r="C29" s="58" t="s">
         <v>236</v>
       </c>
@@ -9985,12 +10066,12 @@
       <c r="Q29" s="40"/>
       <c r="R29" s="118"/>
       <c r="S29" s="26"/>
-      <c r="T29" s="218"/>
+      <c r="T29" s="205"/>
       <c r="U29" s="23"/>
     </row>
     <row r="30" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="258"/>
-      <c r="B30" s="256"/>
+      <c r="A30" s="306"/>
+      <c r="B30" s="292"/>
       <c r="C30" s="58" t="s">
         <v>339</v>
       </c>
@@ -10034,11 +10115,11 @@
       <c r="Q30" s="41"/>
       <c r="R30" s="119"/>
       <c r="S30" s="26"/>
-      <c r="T30" s="219"/>
+      <c r="T30" s="206"/>
     </row>
     <row r="31" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="258"/>
-      <c r="B31" s="256"/>
+      <c r="A31" s="306"/>
+      <c r="B31" s="292"/>
       <c r="C31" s="58" t="s">
         <v>339</v>
       </c>
@@ -10082,111 +10163,113 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="119"/>
       <c r="S31" s="26"/>
-      <c r="T31" s="219"/>
+      <c r="T31" s="206"/>
     </row>
     <row r="32" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="258"/>
-      <c r="B32" s="256"/>
-      <c r="C32" s="58" t="s">
+      <c r="A32" s="306"/>
+      <c r="B32" s="292"/>
+      <c r="C32" s="235" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="281" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="F32" s="124" t="s">
+      <c r="F32" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="115" t="s">
+      <c r="G32" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="115" t="s">
+      <c r="I32" s="237" t="s">
         <v>682</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="238">
         <v>4</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="237" t="s">
         <v>466</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M32" s="237" t="s">
         <v>453</v>
       </c>
-      <c r="N32" s="40">
+      <c r="N32" s="239">
         <v>1900</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="239">
         <v>350</v>
       </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="218"/>
-      <c r="U32" s="23"/>
+      <c r="P32" s="239"/>
+      <c r="Q32" s="239"/>
+      <c r="R32" s="246"/>
+      <c r="S32" s="242"/>
+      <c r="T32" s="247"/>
+      <c r="U32" s="192" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="33" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="258"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="160" t="s">
+      <c r="A33" s="306"/>
+      <c r="B33" s="292"/>
+      <c r="C33" s="235" t="s">
         <v>240</v>
       </c>
-      <c r="D33" s="180" t="s">
+      <c r="D33" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="180" t="s">
+      <c r="E33" s="192" t="s">
         <v>269</v>
       </c>
-      <c r="F33" s="180" t="s">
+      <c r="F33" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G33" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="173" t="s">
+      <c r="G33" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="237" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="173" t="s">
+      <c r="I33" s="237" t="s">
         <v>669</v>
       </c>
-      <c r="J33" s="174">
+      <c r="J33" s="238">
         <v>4</v>
       </c>
-      <c r="K33" s="173" t="s">
+      <c r="K33" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="173" t="s">
+      <c r="L33" s="237" t="s">
         <v>459</v>
       </c>
-      <c r="M33" s="173" t="s">
+      <c r="M33" s="237" t="s">
         <v>453</v>
       </c>
-      <c r="N33" s="175">
+      <c r="N33" s="239">
         <v>1850</v>
       </c>
-      <c r="O33" s="176">
+      <c r="O33" s="240">
         <v>300</v>
       </c>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="177"/>
-      <c r="S33" s="178"/>
-      <c r="T33" s="211"/>
-      <c r="U33" s="161" t="s">
+      <c r="P33" s="240"/>
+      <c r="Q33" s="240"/>
+      <c r="R33" s="241"/>
+      <c r="S33" s="242"/>
+      <c r="T33" s="243"/>
+      <c r="U33" s="244" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="258"/>
-      <c r="B34" s="256"/>
+      <c r="A34" s="306"/>
+      <c r="B34" s="292"/>
       <c r="C34" s="58" t="s">
         <v>361</v>
       </c>
@@ -10228,11 +10311,11 @@
       <c r="Q34" s="41"/>
       <c r="R34" s="119"/>
       <c r="S34" s="26"/>
-      <c r="T34" s="219"/>
+      <c r="T34" s="206"/>
     </row>
     <row r="35" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="258"/>
-      <c r="B35" s="256"/>
+      <c r="A35" s="306"/>
+      <c r="B35" s="292"/>
       <c r="C35" s="58" t="s">
         <v>670</v>
       </c>
@@ -10262,11 +10345,11 @@
       <c r="Q35" s="41"/>
       <c r="R35" s="119"/>
       <c r="S35" s="26"/>
-      <c r="T35" s="219"/>
+      <c r="T35" s="206"/>
     </row>
     <row r="36" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="258"/>
-      <c r="B36" s="256"/>
+      <c r="A36" s="306"/>
+      <c r="B36" s="292"/>
       <c r="C36" s="58" t="s">
         <v>372</v>
       </c>
@@ -10310,11 +10393,11 @@
       <c r="Q36" s="41"/>
       <c r="R36" s="119"/>
       <c r="S36" s="26"/>
-      <c r="T36" s="219"/>
+      <c r="T36" s="206"/>
     </row>
     <row r="37" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="258"/>
-      <c r="B37" s="257"/>
+      <c r="A37" s="306"/>
+      <c r="B37" s="297"/>
       <c r="C37" s="63" t="s">
         <v>232</v>
       </c>
@@ -10358,13 +10441,13 @@
       <c r="Q37" s="41"/>
       <c r="R37" s="119"/>
       <c r="S37" s="26"/>
-      <c r="T37" s="219"/>
+      <c r="T37" s="206"/>
     </row>
     <row r="38" spans="1:21" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="268" t="s">
+      <c r="A38" s="313" t="s">
         <v>260</v>
       </c>
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="284" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="60" t="s">
@@ -10406,12 +10489,12 @@
       <c r="Q38" s="42"/>
       <c r="R38" s="121"/>
       <c r="S38" s="36"/>
-      <c r="T38" s="209"/>
+      <c r="T38" s="196"/>
       <c r="U38" s="33"/>
     </row>
     <row r="39" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="269"/>
-      <c r="B39" s="261"/>
+      <c r="A39" s="314"/>
+      <c r="B39" s="285"/>
       <c r="C39" s="58" t="s">
         <v>107</v>
       </c>
@@ -10451,11 +10534,11 @@
       <c r="Q39" s="40"/>
       <c r="R39" s="118"/>
       <c r="S39" s="26"/>
-      <c r="T39" s="196"/>
+      <c r="T39" s="185"/>
     </row>
     <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="269"/>
-      <c r="B40" s="261"/>
+      <c r="A40" s="314"/>
+      <c r="B40" s="285"/>
       <c r="C40" s="58" t="s">
         <v>108</v>
       </c>
@@ -10495,12 +10578,12 @@
       <c r="Q40" s="40"/>
       <c r="R40" s="118"/>
       <c r="S40" s="26"/>
-      <c r="T40" s="196"/>
+      <c r="T40" s="185"/>
       <c r="U40" s="23"/>
     </row>
     <row r="41" spans="1:21" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="269"/>
-      <c r="B41" s="261"/>
+      <c r="A41" s="314"/>
+      <c r="B41" s="285"/>
       <c r="C41" s="59" t="s">
         <v>109</v>
       </c>
@@ -10546,11 +10629,11 @@
       </c>
       <c r="R41" s="119"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="207"/>
+      <c r="T41" s="194"/>
     </row>
     <row r="42" spans="1:21" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="269"/>
-      <c r="B42" s="266" t="s">
+      <c r="A42" s="314"/>
+      <c r="B42" s="291" t="s">
         <v>193</v>
       </c>
       <c r="C42" s="61" t="s">
@@ -10596,11 +10679,11 @@
       <c r="Q42" s="54"/>
       <c r="R42" s="122"/>
       <c r="S42" s="55"/>
-      <c r="T42" s="208"/>
+      <c r="T42" s="195"/>
     </row>
     <row r="43" spans="1:21" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="269"/>
-      <c r="B43" s="256"/>
+      <c r="A43" s="314"/>
+      <c r="B43" s="292"/>
       <c r="C43" s="58" t="s">
         <v>217</v>
       </c>
@@ -10640,11 +10723,11 @@
       <c r="Q43" s="41"/>
       <c r="R43" s="119"/>
       <c r="S43" s="26"/>
-      <c r="T43" s="211"/>
+      <c r="T43" s="198"/>
     </row>
     <row r="44" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="269"/>
-      <c r="B44" s="256"/>
+      <c r="A44" s="314"/>
+      <c r="B44" s="292"/>
       <c r="C44" s="58" t="s">
         <v>256</v>
       </c>
@@ -10686,11 +10769,11 @@
       <c r="Q44" s="40"/>
       <c r="R44" s="118"/>
       <c r="S44" s="26"/>
-      <c r="T44" s="211"/>
+      <c r="T44" s="198"/>
     </row>
     <row r="45" spans="1:21" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="269"/>
-      <c r="B45" s="256"/>
+      <c r="A45" s="314"/>
+      <c r="B45" s="292"/>
       <c r="C45" s="58" t="s">
         <v>218</v>
       </c>
@@ -10730,60 +10813,60 @@
       <c r="Q45" s="40"/>
       <c r="R45" s="118"/>
       <c r="S45" s="26"/>
-      <c r="T45" s="211"/>
+      <c r="T45" s="198"/>
     </row>
     <row r="46" spans="1:21" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="269"/>
-      <c r="B46" s="256"/>
-      <c r="C46" s="160" t="s">
+      <c r="A46" s="314"/>
+      <c r="B46" s="292"/>
+      <c r="C46" s="235" t="s">
         <v>474</v>
       </c>
-      <c r="D46" s="180" t="s">
+      <c r="D46" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="162" t="s">
+      <c r="E46" s="248" t="s">
         <v>475</v>
       </c>
-      <c r="F46" s="180" t="s">
+      <c r="F46" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G46" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="173" t="s">
+      <c r="G46" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I46" s="173" t="s">
+      <c r="I46" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="174">
+      <c r="J46" s="238">
         <v>6</v>
       </c>
-      <c r="K46" s="173" t="s">
+      <c r="K46" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L46" s="181" t="s">
+      <c r="L46" s="245" t="s">
         <v>477</v>
       </c>
-      <c r="M46" s="181" t="s">
+      <c r="M46" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="175">
+      <c r="N46" s="239">
         <v>5500</v>
       </c>
-      <c r="O46" s="176">
+      <c r="O46" s="240">
         <v>2000</v>
       </c>
-      <c r="P46" s="176"/>
-      <c r="Q46" s="182"/>
-      <c r="R46" s="183"/>
-      <c r="S46" s="184"/>
-      <c r="T46"/>
-      <c r="U46" s="161"/>
+      <c r="P46" s="240"/>
+      <c r="Q46" s="249"/>
+      <c r="R46" s="250"/>
+      <c r="S46" s="251"/>
+      <c r="T46" s="190"/>
+      <c r="U46" s="244"/>
     </row>
     <row r="47" spans="1:21" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="269"/>
-      <c r="B47" s="256"/>
+      <c r="A47" s="314"/>
+      <c r="B47" s="292"/>
       <c r="C47" s="58" t="s">
         <v>397</v>
       </c>
@@ -10825,156 +10908,162 @@
       <c r="Q47" s="41"/>
       <c r="R47" s="119"/>
       <c r="S47" s="26"/>
-      <c r="T47" s="212"/>
+      <c r="T47" s="199"/>
     </row>
     <row r="48" spans="1:21" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="269"/>
-      <c r="B48" s="256"/>
-      <c r="C48" s="58" t="s">
+      <c r="A48" s="314"/>
+      <c r="B48" s="292"/>
+      <c r="C48" s="235" t="s">
         <v>394</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="248" t="s">
         <v>395</v>
       </c>
-      <c r="F48" s="139" t="s">
+      <c r="F48" s="248" t="s">
         <v>618</v>
       </c>
-      <c r="G48" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="25" t="s">
+      <c r="G48" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="237" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="25" t="s">
+      <c r="I48" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="72">
+      <c r="J48" s="238">
         <v>5</v>
       </c>
-      <c r="K48" s="25" t="s">
+      <c r="K48" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L48" s="25" t="s">
+      <c r="L48" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M48" s="25" t="s">
+      <c r="M48" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N48" s="40">
+      <c r="N48" s="239">
         <v>4000</v>
       </c>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="119"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="208"/>
+      <c r="O48" s="240"/>
+      <c r="P48" s="240"/>
+      <c r="Q48" s="240"/>
+      <c r="R48" s="241"/>
+      <c r="S48" s="242"/>
+      <c r="T48" s="252"/>
+      <c r="U48" s="253" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="49" spans="1:21" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="269"/>
-      <c r="B49" s="256"/>
-      <c r="C49" s="58" t="s">
+      <c r="A49" s="314"/>
+      <c r="B49" s="292"/>
+      <c r="C49" s="235" t="s">
         <v>392</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="248" t="s">
         <v>393</v>
       </c>
-      <c r="F49" s="139" t="s">
+      <c r="F49" s="248" t="s">
         <v>618</v>
       </c>
-      <c r="G49" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="25" t="s">
+      <c r="G49" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="25" t="s">
+      <c r="I49" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="J49" s="72">
+      <c r="J49" s="238">
         <v>5</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="K49" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L49" s="25" t="s">
+      <c r="L49" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M49" s="25" t="s">
+      <c r="M49" s="237" t="s">
         <v>678</v>
       </c>
-      <c r="N49" s="40">
+      <c r="N49" s="239">
         <v>3800</v>
       </c>
-      <c r="O49" s="41">
+      <c r="O49" s="240">
         <v>700</v>
       </c>
-      <c r="P49" s="41">
+      <c r="P49" s="240">
         <v>1400</v>
       </c>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="119"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="208"/>
+      <c r="Q49" s="240"/>
+      <c r="R49" s="241"/>
+      <c r="S49" s="242"/>
+      <c r="T49" s="252"/>
+      <c r="U49" s="253" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="50" spans="1:21" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="269"/>
-      <c r="B50" s="256"/>
-      <c r="C50" s="160" t="s">
+      <c r="A50" s="314"/>
+      <c r="B50" s="292"/>
+      <c r="C50" s="235" t="s">
         <v>255</v>
       </c>
-      <c r="D50" s="161" t="s">
+      <c r="D50" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="162" t="s">
+      <c r="E50" s="248" t="s">
         <v>332</v>
       </c>
-      <c r="F50" s="171" t="s">
+      <c r="F50" s="254" t="s">
         <v>623</v>
       </c>
-      <c r="G50" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="173" t="s">
+      <c r="G50" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I50" s="173" t="s">
+      <c r="I50" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="174">
+      <c r="J50" s="238">
         <v>5</v>
       </c>
-      <c r="K50" s="173" t="s">
+      <c r="K50" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="L50" s="173" t="s">
+      <c r="L50" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M50" s="173" t="s">
+      <c r="M50" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N50" s="175">
+      <c r="N50" s="239">
         <v>4200</v>
       </c>
-      <c r="O50" s="175">
+      <c r="O50" s="239">
         <v>700</v>
       </c>
-      <c r="P50" s="176"/>
-      <c r="Q50" s="176"/>
-      <c r="R50" s="177"/>
-      <c r="S50" s="178"/>
-      <c r="T50" s="212"/>
-      <c r="U50" s="179"/>
+      <c r="P50" s="240"/>
+      <c r="Q50" s="240"/>
+      <c r="R50" s="241"/>
+      <c r="S50" s="242"/>
+      <c r="T50" s="252"/>
+      <c r="U50" s="253"/>
     </row>
     <row r="51" spans="1:21" s="49" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="270"/>
-      <c r="B51" s="257"/>
+      <c r="A51" s="315"/>
+      <c r="B51" s="297"/>
       <c r="C51" s="63" t="s">
         <v>513</v>
       </c>
@@ -11016,13 +11105,13 @@
       <c r="Q51" s="41"/>
       <c r="R51" s="119"/>
       <c r="S51" s="26"/>
-      <c r="T51" s="208"/>
+      <c r="T51" s="195"/>
     </row>
     <row r="52" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="272" t="s">
+      <c r="A52" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="263" t="s">
+      <c r="B52" s="284" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -11066,12 +11155,12 @@
       <c r="Q52" s="42"/>
       <c r="R52" s="121"/>
       <c r="S52" s="36"/>
-      <c r="T52" s="209"/>
+      <c r="T52" s="196"/>
       <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="273"/>
-      <c r="B53" s="261"/>
+      <c r="A53" s="287"/>
+      <c r="B53" s="285"/>
       <c r="C53" s="58" t="s">
         <v>66</v>
       </c>
@@ -11115,11 +11204,11 @@
       <c r="Q53" s="40"/>
       <c r="R53" s="118"/>
       <c r="S53" s="26"/>
-      <c r="T53" s="196"/>
+      <c r="T53" s="185"/>
     </row>
     <row r="54" spans="1:21" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="273"/>
-      <c r="B54" s="261"/>
+      <c r="A54" s="287"/>
+      <c r="B54" s="285"/>
       <c r="C54" s="58" t="s">
         <v>67</v>
       </c>
@@ -11163,11 +11252,11 @@
       <c r="Q54" s="40"/>
       <c r="R54" s="118"/>
       <c r="S54" s="26"/>
-      <c r="T54" s="196"/>
+      <c r="T54" s="185"/>
     </row>
     <row r="55" spans="1:21" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="273"/>
-      <c r="B55" s="261"/>
+      <c r="A55" s="287"/>
+      <c r="B55" s="285"/>
       <c r="C55" s="59" t="s">
         <v>68</v>
       </c>
@@ -11211,11 +11300,11 @@
       <c r="Q55" s="41"/>
       <c r="R55" s="119"/>
       <c r="S55" s="26"/>
-      <c r="T55" s="196"/>
+      <c r="T55" s="185"/>
     </row>
     <row r="56" spans="1:21" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="273"/>
-      <c r="B56" s="261"/>
+      <c r="A56" s="287"/>
+      <c r="B56" s="285"/>
       <c r="C56" s="63" t="s">
         <v>584</v>
       </c>
@@ -11257,11 +11346,11 @@
       <c r="Q56" s="41"/>
       <c r="R56" s="119"/>
       <c r="S56" s="31"/>
-      <c r="T56" s="211"/>
+      <c r="T56" s="198"/>
     </row>
     <row r="57" spans="1:21" s="23" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="273"/>
-      <c r="B57" s="266" t="s">
+      <c r="A57" s="287"/>
+      <c r="B57" s="291" t="s">
         <v>193</v>
       </c>
       <c r="C57" s="61" t="s">
@@ -11307,64 +11396,64 @@
       <c r="Q57" s="54"/>
       <c r="R57" s="122"/>
       <c r="S57" s="55"/>
-      <c r="T57" s="206"/>
+      <c r="T57" s="193"/>
     </row>
     <row r="58" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="273"/>
-      <c r="B58" s="256"/>
-      <c r="C58" s="160" t="s">
+      <c r="A58" s="287"/>
+      <c r="B58" s="292"/>
+      <c r="C58" s="235" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="180" t="s">
+      <c r="D58" s="192" t="s">
         <v>209</v>
       </c>
-      <c r="E58" s="162" t="s">
+      <c r="E58" s="248" t="s">
         <v>326</v>
       </c>
-      <c r="F58" s="171" t="s">
+      <c r="F58" s="254" t="s">
         <v>618</v>
       </c>
-      <c r="G58" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="173" t="s">
+      <c r="G58" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="237" t="s">
         <v>127</v>
       </c>
-      <c r="I58" s="173" t="s">
+      <c r="I58" s="237" t="s">
         <v>177</v>
       </c>
-      <c r="J58" s="174">
+      <c r="J58" s="238">
         <v>5</v>
       </c>
-      <c r="K58" s="173" t="s">
+      <c r="K58" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L58" s="173" t="s">
+      <c r="L58" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M58" s="173" t="s">
+      <c r="M58" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N58" s="175">
+      <c r="N58" s="239">
         <v>4500</v>
       </c>
-      <c r="O58" s="175">
+      <c r="O58" s="239">
         <v>700</v>
       </c>
-      <c r="P58" s="175">
+      <c r="P58" s="239">
         <v>1400</v>
       </c>
-      <c r="Q58" s="175"/>
-      <c r="R58" s="193"/>
-      <c r="S58" s="178"/>
-      <c r="T58" s="196"/>
-      <c r="U58" s="180" t="s">
-        <v>767</v>
+      <c r="Q58" s="239"/>
+      <c r="R58" s="246"/>
+      <c r="S58" s="242"/>
+      <c r="T58" s="247"/>
+      <c r="U58" s="192" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="59" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="273"/>
-      <c r="B59" s="256"/>
+      <c r="A59" s="287"/>
+      <c r="B59" s="292"/>
       <c r="C59" s="58" t="s">
         <v>202</v>
       </c>
@@ -11409,8 +11498,8 @@
       <c r="T59" s="138"/>
     </row>
     <row r="60" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="273"/>
-      <c r="B60" s="256"/>
+      <c r="A60" s="287"/>
+      <c r="B60" s="292"/>
       <c r="C60" s="63" t="s">
         <v>338</v>
       </c>
@@ -11454,18 +11543,18 @@
       <c r="Q60" s="41"/>
       <c r="R60" s="119"/>
       <c r="S60" s="26"/>
-      <c r="T60" s="216"/>
+      <c r="T60" s="203"/>
     </row>
     <row r="61" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="273"/>
-      <c r="B61" s="256"/>
+      <c r="A61" s="287"/>
+      <c r="B61" s="292"/>
       <c r="C61" s="58" t="s">
         <v>197</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="205" t="s">
+      <c r="E61" s="192" t="s">
         <v>732</v>
       </c>
       <c r="F61" s="124" t="s">
@@ -11502,18 +11591,18 @@
       <c r="Q61" s="41"/>
       <c r="R61" s="119"/>
       <c r="S61" s="26"/>
-      <c r="T61" s="196"/>
+      <c r="T61" s="185"/>
     </row>
     <row r="62" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="273"/>
-      <c r="B62" s="256"/>
+      <c r="A62" s="287"/>
+      <c r="B62" s="292"/>
       <c r="C62" s="58" t="s">
         <v>198</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="205" t="s">
+      <c r="E62" s="192" t="s">
         <v>733</v>
       </c>
       <c r="F62" s="124" t="s">
@@ -11530,7 +11619,7 @@
         <v>5</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="L62" s="25" t="s">
         <v>456</v>
@@ -11550,120 +11639,120 @@
       <c r="Q62" s="41"/>
       <c r="R62" s="119"/>
       <c r="S62" s="26"/>
-      <c r="T62" s="196"/>
+      <c r="T62" s="185"/>
     </row>
     <row r="63" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="273"/>
-      <c r="B63" s="256"/>
-      <c r="C63" s="160" t="s">
+      <c r="A63" s="287"/>
+      <c r="B63" s="292"/>
+      <c r="C63" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="180" t="s">
+      <c r="D63" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="180" t="s">
+      <c r="E63" s="192" t="s">
         <v>320</v>
       </c>
-      <c r="F63" s="180" t="s">
+      <c r="F63" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G63" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="173" t="s">
+      <c r="G63" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="I63" s="173" t="s">
+      <c r="I63" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="J63" s="174">
+      <c r="J63" s="238">
         <v>5</v>
       </c>
-      <c r="K63" s="173" t="s">
+      <c r="K63" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L63" s="173" t="s">
+      <c r="L63" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M63" s="173" t="s">
+      <c r="M63" s="237" t="s">
         <v>465</v>
       </c>
-      <c r="N63" s="175">
+      <c r="N63" s="239">
         <v>4500</v>
       </c>
-      <c r="O63" s="175">
+      <c r="O63" s="239">
         <v>700</v>
       </c>
-      <c r="P63" s="176"/>
-      <c r="Q63" s="175"/>
-      <c r="R63" s="193"/>
-      <c r="S63" s="178"/>
-      <c r="T63" s="196"/>
-      <c r="U63" s="180" t="s">
-        <v>745</v>
+      <c r="P63" s="240"/>
+      <c r="Q63" s="239"/>
+      <c r="R63" s="246"/>
+      <c r="S63" s="242"/>
+      <c r="T63" s="247"/>
+      <c r="U63" s="192" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="273"/>
-      <c r="B64" s="256"/>
-      <c r="C64" s="160" t="s">
+      <c r="A64" s="287"/>
+      <c r="B64" s="292"/>
+      <c r="C64" s="235" t="s">
         <v>399</v>
       </c>
-      <c r="D64" s="180" t="s">
+      <c r="D64" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="180" t="s">
+      <c r="E64" s="192" t="s">
         <v>400</v>
       </c>
-      <c r="F64" s="180" t="s">
+      <c r="F64" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G64" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" s="173" t="s">
+      <c r="G64" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="I64" s="173" t="s">
+      <c r="I64" s="237" t="s">
         <v>673</v>
       </c>
-      <c r="J64" s="174">
+      <c r="J64" s="238">
         <v>4</v>
       </c>
-      <c r="K64" s="173" t="s">
+      <c r="K64" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L64" s="181" t="s">
+      <c r="L64" s="245" t="s">
         <v>466</v>
       </c>
-      <c r="M64" s="181" t="s">
+      <c r="M64" s="245" t="s">
         <v>453</v>
       </c>
-      <c r="N64" s="175">
+      <c r="N64" s="239">
         <v>2200</v>
       </c>
-      <c r="O64" s="176">
+      <c r="O64" s="240">
         <v>500</v>
       </c>
-      <c r="P64" s="176"/>
-      <c r="Q64" s="175"/>
-      <c r="R64" s="193"/>
-      <c r="S64" s="178"/>
-      <c r="T64" s="196"/>
-      <c r="U64" s="180" t="s">
-        <v>745</v>
+      <c r="P64" s="240"/>
+      <c r="Q64" s="239"/>
+      <c r="R64" s="246"/>
+      <c r="S64" s="242"/>
+      <c r="T64" s="247"/>
+      <c r="U64" s="192" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="273"/>
-      <c r="B65" s="256"/>
+      <c r="A65" s="287"/>
+      <c r="B65" s="292"/>
       <c r="C65" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="180" t="s">
+      <c r="D65" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="180" t="s">
+      <c r="E65" s="179" t="s">
         <v>322</v>
       </c>
       <c r="F65" s="171" t="s">
@@ -11700,71 +11789,71 @@
         <v>990</v>
       </c>
       <c r="Q65" s="175"/>
-      <c r="R65" s="193"/>
+      <c r="R65" s="182"/>
       <c r="S65" s="178"/>
-      <c r="T65" s="196"/>
-      <c r="U65" s="180" t="s">
-        <v>746</v>
+      <c r="T65" s="185"/>
+      <c r="U65" s="179" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="273"/>
-      <c r="B66" s="256"/>
-      <c r="C66" s="160" t="s">
+      <c r="A66" s="287"/>
+      <c r="B66" s="292"/>
+      <c r="C66" s="235" t="s">
         <v>413</v>
       </c>
-      <c r="D66" s="180" t="s">
+      <c r="D66" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="162" t="s">
+      <c r="E66" s="248" t="s">
         <v>414</v>
       </c>
-      <c r="F66" s="162" t="s">
+      <c r="F66" s="248" t="s">
         <v>623</v>
       </c>
-      <c r="G66" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="173" t="s">
+      <c r="G66" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="237" t="s">
         <v>673</v>
       </c>
-      <c r="I66" s="173"/>
-      <c r="J66" s="174">
+      <c r="I66" s="237"/>
+      <c r="J66" s="238">
         <v>4</v>
       </c>
-      <c r="K66" s="173" t="s">
+      <c r="K66" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L66" s="181" t="s">
+      <c r="L66" s="245" t="s">
         <v>466</v>
       </c>
-      <c r="M66" s="181" t="s">
+      <c r="M66" s="245" t="s">
         <v>453</v>
       </c>
-      <c r="N66" s="175">
+      <c r="N66" s="239">
         <v>2000</v>
       </c>
-      <c r="O66" s="176">
+      <c r="O66" s="240">
         <v>400</v>
       </c>
-      <c r="P66" s="176">
+      <c r="P66" s="240">
         <v>600</v>
       </c>
-      <c r="Q66" s="175"/>
-      <c r="R66" s="193"/>
-      <c r="S66" s="178"/>
-      <c r="T66" s="196"/>
-      <c r="U66" s="180" t="s">
-        <v>748</v>
+      <c r="Q66" s="239"/>
+      <c r="R66" s="246"/>
+      <c r="S66" s="242"/>
+      <c r="T66" s="247"/>
+      <c r="U66" s="192" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="273"/>
-      <c r="B67" s="256"/>
+      <c r="A67" s="287"/>
+      <c r="B67" s="292"/>
       <c r="C67" s="160" t="s">
         <v>363</v>
       </c>
-      <c r="D67" s="180" t="s">
+      <c r="D67" s="179" t="s">
         <v>69</v>
       </c>
       <c r="E67" s="162" t="s">
@@ -11804,14 +11893,14 @@
       <c r="Q67" s="176"/>
       <c r="R67" s="177"/>
       <c r="S67" s="178"/>
-      <c r="T67" s="211"/>
+      <c r="T67" s="198"/>
       <c r="U67" s="161" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="273"/>
-      <c r="B68" s="256"/>
+      <c r="A68" s="287"/>
+      <c r="B68" s="292"/>
       <c r="C68" s="58" t="s">
         <v>378</v>
       </c>
@@ -11857,24 +11946,24 @@
       <c r="Q68" s="41"/>
       <c r="R68" s="119"/>
       <c r="S68" s="26"/>
-      <c r="T68" s="211"/>
+      <c r="T68" s="198"/>
       <c r="U68" s="28" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="273"/>
-      <c r="B69" s="256"/>
+      <c r="A69" s="287"/>
+      <c r="B69" s="292"/>
       <c r="C69" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="D69" s="180" t="s">
+      <c r="D69" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="180" t="s">
+      <c r="E69" s="179" t="s">
         <v>321</v>
       </c>
-      <c r="F69" s="180" t="s">
+      <c r="F69" s="179" t="s">
         <v>623</v>
       </c>
       <c r="G69" s="172" t="s">
@@ -11908,16 +11997,16 @@
         <v>700</v>
       </c>
       <c r="Q69" s="175"/>
-      <c r="R69" s="193"/>
+      <c r="R69" s="182"/>
       <c r="S69" s="178"/>
-      <c r="T69" s="196"/>
-      <c r="U69" s="180" t="s">
-        <v>749</v>
+      <c r="T69" s="185"/>
+      <c r="U69" s="179" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="70" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="273"/>
-      <c r="B70" s="256"/>
+      <c r="A70" s="287"/>
+      <c r="B70" s="292"/>
       <c r="C70" s="58" t="s">
         <v>416</v>
       </c>
@@ -11961,11 +12050,11 @@
       <c r="Q70" s="41"/>
       <c r="R70" s="119"/>
       <c r="S70" s="26"/>
-      <c r="T70" s="207"/>
+      <c r="T70" s="194"/>
     </row>
     <row r="71" spans="1:21" s="33" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="273"/>
-      <c r="B71" s="256"/>
+      <c r="A71" s="287"/>
+      <c r="B71" s="292"/>
       <c r="C71" s="59" t="s">
         <v>203</v>
       </c>
@@ -12007,14 +12096,14 @@
       <c r="Q71" s="41"/>
       <c r="R71" s="119"/>
       <c r="S71" s="31"/>
-      <c r="T71" s="207"/>
+      <c r="T71" s="194"/>
       <c r="U71" s="28"/>
     </row>
     <row r="72" spans="1:21" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="282" t="s">
+      <c r="A72" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="281"/>
+      <c r="B72" s="298"/>
       <c r="C72" s="163" t="s">
         <v>79</v>
       </c>
@@ -12058,24 +12147,24 @@
       <c r="Q72" s="168"/>
       <c r="R72" s="169"/>
       <c r="S72" s="170"/>
-      <c r="T72" s="209"/>
+      <c r="T72" s="196"/>
       <c r="U72" s="164" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="283"/>
-      <c r="B73" s="261"/>
+      <c r="A73" s="300"/>
+      <c r="B73" s="285"/>
       <c r="C73" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="180" t="s">
+      <c r="D73" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="180" t="s">
+      <c r="E73" s="179" t="s">
         <v>296</v>
       </c>
-      <c r="F73" s="180" t="s">
+      <c r="F73" s="179" t="s">
         <v>622</v>
       </c>
       <c r="G73" s="172" t="s">
@@ -12107,16 +12196,16 @@
         <v>240</v>
       </c>
       <c r="Q73" s="175"/>
-      <c r="R73" s="193"/>
+      <c r="R73" s="182"/>
       <c r="S73" s="178"/>
-      <c r="T73" s="196"/>
-      <c r="U73" s="180" t="s">
-        <v>747</v>
+      <c r="T73" s="185"/>
+      <c r="U73" s="179" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="283"/>
-      <c r="B74" s="261"/>
+      <c r="A74" s="300"/>
+      <c r="B74" s="285"/>
       <c r="C74" s="58" t="s">
         <v>81</v>
       </c>
@@ -12162,11 +12251,11 @@
       <c r="Q74" s="40"/>
       <c r="R74" s="118"/>
       <c r="S74" s="26"/>
-      <c r="T74" s="196"/>
+      <c r="T74" s="185"/>
     </row>
     <row r="75" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="283"/>
-      <c r="B75" s="261"/>
+      <c r="A75" s="300"/>
+      <c r="B75" s="285"/>
       <c r="C75" s="58" t="s">
         <v>82</v>
       </c>
@@ -12210,11 +12299,11 @@
       <c r="Q75" s="40"/>
       <c r="R75" s="118"/>
       <c r="S75" s="26"/>
-      <c r="T75" s="196"/>
+      <c r="T75" s="185"/>
     </row>
     <row r="76" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="283"/>
-      <c r="B76" s="261"/>
+      <c r="A76" s="300"/>
+      <c r="B76" s="285"/>
       <c r="C76" s="58" t="s">
         <v>83</v>
       </c>
@@ -12260,11 +12349,11 @@
       </c>
       <c r="R76" s="118"/>
       <c r="S76" s="26"/>
-      <c r="T76" s="196"/>
+      <c r="T76" s="185"/>
     </row>
     <row r="77" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="283"/>
-      <c r="B77" s="261"/>
+      <c r="A77" s="300"/>
+      <c r="B77" s="285"/>
       <c r="C77" s="58" t="s">
         <v>84</v>
       </c>
@@ -12308,11 +12397,11 @@
       <c r="Q77" s="40"/>
       <c r="R77" s="118"/>
       <c r="S77" s="26"/>
-      <c r="T77" s="196"/>
+      <c r="T77" s="185"/>
     </row>
     <row r="78" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="283"/>
-      <c r="B78" s="261"/>
+      <c r="A78" s="300"/>
+      <c r="B78" s="285"/>
       <c r="C78" s="58" t="s">
         <v>85</v>
       </c>
@@ -12354,11 +12443,11 @@
       <c r="Q78" s="40"/>
       <c r="R78" s="118"/>
       <c r="S78" s="26"/>
-      <c r="T78" s="196"/>
+      <c r="T78" s="185"/>
     </row>
     <row r="79" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="283"/>
-      <c r="B79" s="261"/>
+      <c r="A79" s="300"/>
+      <c r="B79" s="285"/>
       <c r="C79" s="58" t="s">
         <v>86</v>
       </c>
@@ -12402,11 +12491,11 @@
       <c r="Q79" s="40"/>
       <c r="R79" s="118"/>
       <c r="S79" s="26"/>
-      <c r="T79" s="196"/>
+      <c r="T79" s="185"/>
     </row>
     <row r="80" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="283"/>
-      <c r="B80" s="261"/>
+      <c r="A80" s="300"/>
+      <c r="B80" s="285"/>
       <c r="C80" s="58" t="s">
         <v>87</v>
       </c>
@@ -12452,11 +12541,11 @@
       <c r="Q80" s="41"/>
       <c r="R80" s="118"/>
       <c r="S80" s="26"/>
-      <c r="T80" s="196"/>
+      <c r="T80" s="185"/>
     </row>
     <row r="81" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="283"/>
-      <c r="B81" s="261"/>
+      <c r="A81" s="300"/>
+      <c r="B81" s="285"/>
       <c r="C81" s="58" t="s">
         <v>223</v>
       </c>
@@ -12503,8 +12592,8 @@
       <c r="T81" s="138"/>
     </row>
     <row r="82" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="283"/>
-      <c r="B82" s="280"/>
+      <c r="A82" s="300"/>
+      <c r="B82" s="296"/>
       <c r="C82" s="59" t="s">
         <v>90</v>
       </c>
@@ -12548,162 +12637,162 @@
       <c r="Q82" s="41"/>
       <c r="R82" s="119"/>
       <c r="S82" s="31"/>
-      <c r="T82" s="211"/>
+      <c r="T82" s="198"/>
     </row>
     <row r="83" spans="1:21" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="283"/>
-      <c r="B83" s="256" t="s">
+      <c r="A83" s="300"/>
+      <c r="B83" s="292" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="185" t="s">
+      <c r="C83" s="255" t="s">
         <v>428</v>
       </c>
-      <c r="D83" s="186" t="s">
+      <c r="D83" s="256" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="186" t="s">
+      <c r="E83" s="256" t="s">
         <v>429</v>
       </c>
-      <c r="F83" s="162" t="s">
+      <c r="F83" s="248" t="s">
         <v>618</v>
       </c>
-      <c r="G83" s="187" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="188" t="s">
+      <c r="G83" s="257" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="I83" s="188" t="s">
+      <c r="I83" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="J83" s="189">
+      <c r="J83" s="259">
         <v>5</v>
       </c>
-      <c r="K83" s="188" t="s">
+      <c r="K83" s="258" t="s">
         <v>340</v>
       </c>
-      <c r="L83" s="188" t="s">
+      <c r="L83" s="258" t="s">
         <v>456</v>
       </c>
-      <c r="M83" s="188" t="s">
+      <c r="M83" s="258" t="s">
         <v>461</v>
       </c>
-      <c r="N83" s="190">
+      <c r="N83" s="260">
         <v>5800</v>
       </c>
-      <c r="O83" s="190">
+      <c r="O83" s="260">
         <v>800</v>
       </c>
-      <c r="P83" s="190"/>
-      <c r="Q83" s="190"/>
-      <c r="R83" s="191"/>
-      <c r="S83" s="192"/>
-      <c r="T83"/>
-      <c r="U83" s="180"/>
+      <c r="P83" s="260"/>
+      <c r="Q83" s="260"/>
+      <c r="R83" s="261"/>
+      <c r="S83" s="262"/>
+      <c r="T83" s="190"/>
+      <c r="U83" s="192"/>
     </row>
     <row r="84" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="283"/>
-      <c r="B84" s="256"/>
-      <c r="C84" s="160" t="s">
+      <c r="A84" s="300"/>
+      <c r="B84" s="292"/>
+      <c r="C84" s="235" t="s">
         <v>212</v>
       </c>
-      <c r="D84" s="180" t="s">
+      <c r="D84" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="180" t="s">
+      <c r="E84" s="192" t="s">
         <v>301</v>
       </c>
-      <c r="F84" s="162" t="s">
+      <c r="F84" s="248" t="s">
         <v>620</v>
       </c>
-      <c r="G84" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="173" t="s">
+      <c r="G84" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I84" s="173" t="s">
+      <c r="I84" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="J84" s="174">
+      <c r="J84" s="238">
         <v>5</v>
       </c>
-      <c r="K84" s="173" t="s">
+      <c r="K84" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L84" s="173" t="s">
+      <c r="L84" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M84" s="173" t="s">
+      <c r="M84" s="237" t="s">
         <v>473</v>
       </c>
-      <c r="N84" s="175">
+      <c r="N84" s="239">
         <v>4500</v>
       </c>
-      <c r="O84" s="175">
+      <c r="O84" s="239">
         <v>600</v>
       </c>
-      <c r="P84" s="175">
+      <c r="P84" s="239">
         <v>1000</v>
       </c>
-      <c r="Q84" s="175"/>
-      <c r="R84" s="193"/>
-      <c r="S84" s="178"/>
-      <c r="T84"/>
-      <c r="U84" s="180"/>
+      <c r="Q84" s="239"/>
+      <c r="R84" s="246"/>
+      <c r="S84" s="242"/>
+      <c r="T84" s="190"/>
+      <c r="U84" s="192"/>
     </row>
     <row r="85" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="283"/>
-      <c r="B85" s="256"/>
-      <c r="C85" s="160" t="s">
+      <c r="A85" s="300"/>
+      <c r="B85" s="292"/>
+      <c r="C85" s="235" t="s">
         <v>411</v>
       </c>
-      <c r="D85" s="180" t="s">
+      <c r="D85" s="192" t="s">
         <v>168</v>
       </c>
-      <c r="E85" s="180" t="s">
+      <c r="E85" s="192" t="s">
         <v>412</v>
       </c>
-      <c r="F85" s="162" t="s">
+      <c r="F85" s="248" t="s">
         <v>623</v>
       </c>
-      <c r="G85" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="173" t="s">
+      <c r="G85" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="I85" s="173" t="s">
+      <c r="I85" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="J85" s="174">
+      <c r="J85" s="238">
         <v>5</v>
       </c>
-      <c r="K85" s="173" t="s">
+      <c r="K85" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L85" s="173" t="s">
+      <c r="L85" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M85" s="173" t="s">
+      <c r="M85" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="N85" s="175">
+      <c r="N85" s="239">
         <v>4000</v>
       </c>
-      <c r="O85" s="176">
+      <c r="O85" s="240">
         <v>440</v>
       </c>
-      <c r="P85" s="176"/>
-      <c r="Q85" s="176"/>
-      <c r="R85" s="177"/>
-      <c r="S85" s="178"/>
-      <c r="T85"/>
-      <c r="U85" s="180"/>
+      <c r="P85" s="240"/>
+      <c r="Q85" s="240"/>
+      <c r="R85" s="241"/>
+      <c r="S85" s="242"/>
+      <c r="T85" s="190"/>
+      <c r="U85" s="192"/>
     </row>
     <row r="86" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="283"/>
-      <c r="B86" s="256"/>
+      <c r="A86" s="300"/>
+      <c r="B86" s="292"/>
       <c r="C86" s="58" t="s">
         <v>287</v>
       </c>
@@ -12750,57 +12839,57 @@
       <c r="T86" s="138"/>
     </row>
     <row r="87" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="283"/>
-      <c r="B87" s="256"/>
-      <c r="C87" s="160" t="s">
+      <c r="A87" s="300"/>
+      <c r="B87" s="292"/>
+      <c r="C87" s="235" t="s">
         <v>354</v>
       </c>
-      <c r="D87" s="180" t="s">
+      <c r="D87" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="E87" s="180" t="s">
+      <c r="E87" s="192" t="s">
         <v>355</v>
       </c>
-      <c r="F87" s="162" t="s">
+      <c r="F87" s="248" t="s">
         <v>620</v>
       </c>
-      <c r="G87" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="173" t="s">
+      <c r="G87" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="I87" s="173" t="s">
+      <c r="I87" s="237" t="s">
         <v>676</v>
       </c>
-      <c r="J87" s="174">
+      <c r="J87" s="238">
         <v>5</v>
       </c>
-      <c r="K87" s="173" t="s">
+      <c r="K87" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L87" s="173" t="s">
+      <c r="L87" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M87" s="173" t="s">
+      <c r="M87" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N87" s="175">
+      <c r="N87" s="239">
         <v>4500</v>
       </c>
-      <c r="O87" s="176">
+      <c r="O87" s="240">
         <v>500</v>
       </c>
-      <c r="P87" s="176"/>
-      <c r="Q87" s="176"/>
-      <c r="R87" s="177"/>
-      <c r="S87" s="178"/>
-      <c r="T87"/>
-      <c r="U87" s="180"/>
+      <c r="P87" s="240"/>
+      <c r="Q87" s="240"/>
+      <c r="R87" s="241"/>
+      <c r="S87" s="242"/>
+      <c r="T87" s="190"/>
+      <c r="U87" s="192"/>
     </row>
     <row r="88" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="283"/>
-      <c r="B88" s="256"/>
+      <c r="A88" s="300"/>
+      <c r="B88" s="292"/>
       <c r="C88" s="58" t="s">
         <v>219</v>
       </c>
@@ -12845,8 +12934,8 @@
       <c r="T88" s="138"/>
     </row>
     <row r="89" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="283"/>
-      <c r="B89" s="256"/>
+      <c r="A89" s="300"/>
+      <c r="B89" s="292"/>
       <c r="C89" s="58" t="s">
         <v>312</v>
       </c>
@@ -12893,8 +12982,8 @@
       <c r="T89" s="138"/>
     </row>
     <row r="90" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="283"/>
-      <c r="B90" s="256"/>
+      <c r="A90" s="300"/>
+      <c r="B90" s="292"/>
       <c r="C90" s="59" t="s">
         <v>247</v>
       </c>
@@ -12941,504 +13030,506 @@
       <c r="T90" s="138"/>
     </row>
     <row r="91" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="283"/>
-      <c r="B91" s="256"/>
-      <c r="C91" s="160" t="s">
+      <c r="A91" s="300"/>
+      <c r="B91" s="292"/>
+      <c r="C91" s="235" t="s">
         <v>388</v>
       </c>
-      <c r="D91" s="161" t="s">
+      <c r="D91" s="244" t="s">
         <v>175</v>
       </c>
-      <c r="E91" s="180" t="s">
+      <c r="E91" s="192" t="s">
         <v>389</v>
       </c>
-      <c r="F91" s="180" t="s">
+      <c r="F91" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G91" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="173" t="s">
+      <c r="G91" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="I91" s="173" t="s">
+      <c r="I91" s="237" t="s">
         <v>676</v>
       </c>
-      <c r="J91" s="174">
+      <c r="J91" s="238">
         <v>5</v>
       </c>
-      <c r="K91" s="173" t="s">
+      <c r="K91" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L91" s="173" t="s">
+      <c r="L91" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M91" s="173" t="s">
+      <c r="M91" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N91" s="176">
+      <c r="N91" s="240">
         <v>5500</v>
       </c>
-      <c r="O91" s="176">
+      <c r="O91" s="240">
         <v>700</v>
       </c>
-      <c r="P91" s="176"/>
-      <c r="Q91" s="176"/>
-      <c r="R91" s="177"/>
-      <c r="S91" s="178"/>
-      <c r="T91"/>
-      <c r="U91" s="180"/>
+      <c r="P91" s="240"/>
+      <c r="Q91" s="240"/>
+      <c r="R91" s="241"/>
+      <c r="S91" s="242"/>
+      <c r="T91" s="190"/>
+      <c r="U91" s="192"/>
     </row>
     <row r="92" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="283"/>
-      <c r="B92" s="256"/>
-      <c r="C92" s="194" t="s">
+      <c r="A92" s="300"/>
+      <c r="B92" s="292"/>
+      <c r="C92" s="263" t="s">
         <v>674</v>
       </c>
-      <c r="D92" s="180" t="s">
+      <c r="D92" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="E92" s="180" t="s">
+      <c r="E92" s="192" t="s">
         <v>675</v>
       </c>
-      <c r="F92" s="180" t="s">
+      <c r="F92" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G92" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="173"/>
-      <c r="I92" s="173" t="s">
+      <c r="G92" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="237"/>
+      <c r="I92" s="237" t="s">
         <v>676</v>
       </c>
-      <c r="J92" s="195"/>
-      <c r="K92" s="173"/>
-      <c r="L92" s="181"/>
-      <c r="M92" s="181"/>
-      <c r="N92" s="175"/>
-      <c r="O92" s="176"/>
-      <c r="P92" s="176"/>
-      <c r="Q92" s="176"/>
-      <c r="R92" s="177"/>
-      <c r="S92" s="178"/>
-      <c r="T92"/>
-      <c r="U92" s="180"/>
+      <c r="J92" s="264"/>
+      <c r="K92" s="237"/>
+      <c r="L92" s="245"/>
+      <c r="M92" s="245"/>
+      <c r="N92" s="239"/>
+      <c r="O92" s="240"/>
+      <c r="P92" s="240"/>
+      <c r="Q92" s="240"/>
+      <c r="R92" s="241"/>
+      <c r="S92" s="242"/>
+      <c r="T92" s="190"/>
+      <c r="U92" s="192" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="93" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="283"/>
-      <c r="B93" s="256"/>
-      <c r="C93" s="160" t="s">
+      <c r="A93" s="300"/>
+      <c r="B93" s="292"/>
+      <c r="C93" s="235" t="s">
         <v>356</v>
       </c>
-      <c r="D93" s="180" t="s">
+      <c r="D93" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="E93" s="162" t="s">
+      <c r="E93" s="248" t="s">
         <v>357</v>
       </c>
-      <c r="F93" s="162" t="s">
+      <c r="F93" s="248" t="s">
         <v>618</v>
       </c>
-      <c r="G93" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="173" t="s">
+      <c r="G93" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I93" s="173"/>
-      <c r="J93" s="174">
+      <c r="I93" s="237"/>
+      <c r="J93" s="238">
         <v>6</v>
       </c>
-      <c r="K93" s="173" t="s">
+      <c r="K93" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L93" s="173" t="s">
+      <c r="L93" s="237" t="s">
         <v>477</v>
       </c>
-      <c r="M93" s="173" t="s">
+      <c r="M93" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="N93" s="175">
+      <c r="N93" s="239">
         <v>7500</v>
       </c>
-      <c r="O93" s="176">
+      <c r="O93" s="240">
         <v>500</v>
       </c>
-      <c r="P93" s="176"/>
-      <c r="Q93" s="176"/>
-      <c r="R93" s="177"/>
-      <c r="S93" s="178"/>
-      <c r="T93" s="196"/>
-      <c r="U93" s="180" t="s">
+      <c r="P93" s="240"/>
+      <c r="Q93" s="240"/>
+      <c r="R93" s="241"/>
+      <c r="S93" s="242"/>
+      <c r="T93" s="247"/>
+      <c r="U93" s="192" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="300"/>
+      <c r="B94" s="292"/>
+      <c r="C94" s="216" t="s">
+        <v>343</v>
+      </c>
+      <c r="D94" s="217" t="s">
+        <v>167</v>
+      </c>
+      <c r="E94" s="218" t="s">
+        <v>751</v>
+      </c>
+      <c r="F94" s="217" t="s">
+        <v>622</v>
+      </c>
+      <c r="G94" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="219" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94" s="219" t="s">
+        <v>99</v>
+      </c>
+      <c r="J94" s="220">
+        <v>5</v>
+      </c>
+      <c r="K94" s="219" t="s">
+        <v>340</v>
+      </c>
+      <c r="L94" s="219" t="s">
+        <v>456</v>
+      </c>
+      <c r="M94" s="219" t="s">
+        <v>461</v>
+      </c>
+      <c r="N94" s="221">
+        <v>5500</v>
+      </c>
+      <c r="O94" s="222">
+        <v>500</v>
+      </c>
+      <c r="P94" s="222"/>
+      <c r="Q94" s="222"/>
+      <c r="R94" s="223"/>
+      <c r="S94" s="224"/>
+      <c r="T94" s="189"/>
+      <c r="U94" s="217"/>
+    </row>
+    <row r="95" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="300"/>
+      <c r="B95" s="292"/>
+      <c r="C95" s="216" t="s">
+        <v>341</v>
+      </c>
+      <c r="D95" s="217" t="s">
+        <v>167</v>
+      </c>
+      <c r="E95" s="218" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="283"/>
-      <c r="B94" s="256"/>
-      <c r="C94" s="229" t="s">
-        <v>343</v>
-      </c>
-      <c r="D94" s="230" t="s">
+      <c r="F95" s="217" t="s">
+        <v>622</v>
+      </c>
+      <c r="G95" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="219" t="s">
+        <v>78</v>
+      </c>
+      <c r="I95" s="219" t="s">
+        <v>99</v>
+      </c>
+      <c r="J95" s="220">
+        <v>5</v>
+      </c>
+      <c r="K95" s="219" t="s">
+        <v>340</v>
+      </c>
+      <c r="L95" s="229" t="s">
+        <v>456</v>
+      </c>
+      <c r="M95" s="219" t="s">
+        <v>461</v>
+      </c>
+      <c r="N95" s="221">
+        <v>4800</v>
+      </c>
+      <c r="O95" s="222">
+        <v>500</v>
+      </c>
+      <c r="P95" s="222"/>
+      <c r="Q95" s="222"/>
+      <c r="R95" s="223"/>
+      <c r="S95" s="224"/>
+      <c r="T95" s="189"/>
+      <c r="U95" s="217"/>
+    </row>
+    <row r="96" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="300"/>
+      <c r="B96" s="292"/>
+      <c r="C96" s="216" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" s="217" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" s="217" t="s">
+        <v>753</v>
+      </c>
+      <c r="F96" s="217" t="s">
+        <v>622</v>
+      </c>
+      <c r="G96" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="219" t="s">
+        <v>127</v>
+      </c>
+      <c r="I96" s="219" t="s">
+        <v>729</v>
+      </c>
+      <c r="J96" s="220">
+        <v>5</v>
+      </c>
+      <c r="K96" s="219" t="s">
+        <v>340</v>
+      </c>
+      <c r="L96" s="229" t="s">
+        <v>456</v>
+      </c>
+      <c r="M96" s="219" t="s">
+        <v>453</v>
+      </c>
+      <c r="N96" s="221">
+        <v>4000</v>
+      </c>
+      <c r="O96" s="221">
+        <v>600</v>
+      </c>
+      <c r="P96" s="221">
+        <v>1000</v>
+      </c>
+      <c r="Q96" s="221"/>
+      <c r="R96" s="230"/>
+      <c r="S96" s="224"/>
+      <c r="T96" s="205"/>
+      <c r="U96" s="217" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="300"/>
+      <c r="B97" s="292"/>
+      <c r="C97" s="235" t="s">
+        <v>359</v>
+      </c>
+      <c r="D97" s="192" t="s">
+        <v>170</v>
+      </c>
+      <c r="E97" s="248" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" s="248" t="s">
+        <v>623</v>
+      </c>
+      <c r="G97" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="237" t="s">
+        <v>177</v>
+      </c>
+      <c r="I97" s="237" t="s">
+        <v>78</v>
+      </c>
+      <c r="J97" s="238">
+        <v>5</v>
+      </c>
+      <c r="K97" s="237" t="s">
+        <v>340</v>
+      </c>
+      <c r="L97" s="245" t="s">
+        <v>456</v>
+      </c>
+      <c r="M97" s="245" t="s">
+        <v>461</v>
+      </c>
+      <c r="N97" s="239">
+        <v>4500</v>
+      </c>
+      <c r="O97" s="239">
+        <v>550</v>
+      </c>
+      <c r="P97" s="239"/>
+      <c r="Q97" s="239"/>
+      <c r="R97" s="246"/>
+      <c r="S97" s="242"/>
+      <c r="T97" s="247"/>
+      <c r="U97" s="192" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="300"/>
+      <c r="B98" s="292"/>
+      <c r="C98" s="235" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="E94" s="231" t="s">
-        <v>753</v>
-      </c>
-      <c r="F94" s="230" t="s">
+      <c r="E98" s="192" t="s">
+        <v>304</v>
+      </c>
+      <c r="F98" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G94" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="232" t="s">
+      <c r="G98" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I94" s="232" t="s">
+      <c r="I98" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="J94" s="233">
+      <c r="J98" s="238">
         <v>5</v>
       </c>
-      <c r="K94" s="232" t="s">
-        <v>340</v>
-      </c>
-      <c r="L94" s="232" t="s">
+      <c r="K98" s="237" t="s">
+        <v>241</v>
+      </c>
+      <c r="L98" s="245" t="s">
         <v>456</v>
       </c>
-      <c r="M94" s="232" t="s">
-        <v>461</v>
-      </c>
-      <c r="N94" s="234">
-        <v>5500</v>
-      </c>
-      <c r="O94" s="235">
-        <v>500</v>
-      </c>
-      <c r="P94" s="235"/>
-      <c r="Q94" s="235"/>
-      <c r="R94" s="236"/>
-      <c r="S94" s="237"/>
-      <c r="T94" s="202"/>
-      <c r="U94" s="230"/>
-    </row>
-    <row r="95" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="283"/>
-      <c r="B95" s="256"/>
-      <c r="C95" s="229" t="s">
-        <v>341</v>
-      </c>
-      <c r="D95" s="230" t="s">
+      <c r="M98" s="237" t="s">
+        <v>473</v>
+      </c>
+      <c r="N98" s="239">
+        <v>6000</v>
+      </c>
+      <c r="O98" s="240">
+        <v>440</v>
+      </c>
+      <c r="P98" s="240"/>
+      <c r="Q98" s="240"/>
+      <c r="R98" s="241"/>
+      <c r="S98" s="242"/>
+      <c r="T98" s="247"/>
+      <c r="U98" s="192" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="300"/>
+      <c r="B99" s="292"/>
+      <c r="C99" s="235" t="s">
+        <v>245</v>
+      </c>
+      <c r="D99" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="E95" s="231" t="s">
-        <v>754</v>
-      </c>
-      <c r="F95" s="230" t="s">
+      <c r="E99" s="192" t="s">
+        <v>303</v>
+      </c>
+      <c r="F99" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G95" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" s="232" t="s">
+      <c r="G99" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I95" s="232" t="s">
+      <c r="I99" s="237"/>
+      <c r="J99" s="238">
+        <v>5</v>
+      </c>
+      <c r="K99" s="237" t="s">
+        <v>52</v>
+      </c>
+      <c r="L99" s="245" t="s">
+        <v>456</v>
+      </c>
+      <c r="M99" s="237" t="s">
+        <v>473</v>
+      </c>
+      <c r="N99" s="239">
+        <v>6000</v>
+      </c>
+      <c r="O99" s="239">
+        <v>440</v>
+      </c>
+      <c r="P99" s="239"/>
+      <c r="Q99" s="239"/>
+      <c r="R99" s="246"/>
+      <c r="S99" s="242"/>
+      <c r="T99" s="247"/>
+      <c r="U99" s="192" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="300"/>
+      <c r="B100" s="292"/>
+      <c r="C100" s="235" t="s">
+        <v>286</v>
+      </c>
+      <c r="D100" s="192" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="192" t="s">
+        <v>305</v>
+      </c>
+      <c r="F100" s="192" t="s">
+        <v>622</v>
+      </c>
+      <c r="G100" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="J95" s="233">
+      <c r="I100" s="237" t="s">
+        <v>98</v>
+      </c>
+      <c r="J100" s="238">
         <v>5</v>
       </c>
-      <c r="K95" s="232" t="s">
-        <v>340</v>
-      </c>
-      <c r="L95" s="242" t="s">
+      <c r="K100" s="237" t="s">
+        <v>241</v>
+      </c>
+      <c r="L100" s="245" t="s">
         <v>456</v>
       </c>
-      <c r="M95" s="232" t="s">
-        <v>461</v>
-      </c>
-      <c r="N95" s="234">
-        <v>4800</v>
-      </c>
-      <c r="O95" s="235">
-        <v>500</v>
-      </c>
-      <c r="P95" s="235"/>
-      <c r="Q95" s="235"/>
-      <c r="R95" s="236"/>
-      <c r="S95" s="237"/>
-      <c r="T95" s="202"/>
-      <c r="U95" s="230"/>
-    </row>
-    <row r="96" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="283"/>
-      <c r="B96" s="256"/>
-      <c r="C96" s="229" t="s">
-        <v>211</v>
-      </c>
-      <c r="D96" s="230" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="230" t="s">
-        <v>755</v>
-      </c>
-      <c r="F96" s="230" t="s">
-        <v>622</v>
-      </c>
-      <c r="G96" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="232" t="s">
-        <v>127</v>
-      </c>
-      <c r="I96" s="232" t="s">
-        <v>729</v>
-      </c>
-      <c r="J96" s="233">
-        <v>5</v>
-      </c>
-      <c r="K96" s="232" t="s">
-        <v>340</v>
-      </c>
-      <c r="L96" s="242" t="s">
-        <v>456</v>
-      </c>
-      <c r="M96" s="232" t="s">
-        <v>453</v>
-      </c>
-      <c r="N96" s="234">
-        <v>4000</v>
-      </c>
-      <c r="O96" s="234">
-        <v>600</v>
-      </c>
-      <c r="P96" s="234">
-        <v>1000</v>
-      </c>
-      <c r="Q96" s="234"/>
-      <c r="R96" s="243"/>
-      <c r="S96" s="237"/>
-      <c r="T96" s="218"/>
-      <c r="U96" s="230" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" s="180" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="283"/>
-      <c r="B97" s="256"/>
-      <c r="C97" s="160" t="s">
-        <v>359</v>
-      </c>
-      <c r="D97" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" s="162" t="s">
-        <v>360</v>
-      </c>
-      <c r="F97" s="162" t="s">
-        <v>623</v>
-      </c>
-      <c r="G97" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="173" t="s">
-        <v>177</v>
-      </c>
-      <c r="I97" s="173" t="s">
-        <v>78</v>
-      </c>
-      <c r="J97" s="174">
-        <v>5</v>
-      </c>
-      <c r="K97" s="173" t="s">
-        <v>340</v>
-      </c>
-      <c r="L97" s="181" t="s">
-        <v>456</v>
-      </c>
-      <c r="M97" s="181" t="s">
-        <v>461</v>
-      </c>
-      <c r="N97" s="175">
-        <v>4500</v>
-      </c>
-      <c r="O97" s="175">
-        <v>550</v>
-      </c>
-      <c r="P97" s="175"/>
-      <c r="Q97" s="175"/>
-      <c r="R97" s="193"/>
-      <c r="S97" s="178"/>
-      <c r="T97" s="196"/>
-      <c r="U97" s="180" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="283"/>
-      <c r="B98" s="256"/>
-      <c r="C98" s="160" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E98" s="180" t="s">
-        <v>304</v>
-      </c>
-      <c r="F98" s="180" t="s">
-        <v>622</v>
-      </c>
-      <c r="G98" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="173" t="s">
-        <v>78</v>
-      </c>
-      <c r="I98" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="J98" s="174">
-        <v>5</v>
-      </c>
-      <c r="K98" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="L98" s="181" t="s">
-        <v>456</v>
-      </c>
-      <c r="M98" s="173" t="s">
+      <c r="M100" s="237" t="s">
         <v>473</v>
       </c>
-      <c r="N98" s="175">
-        <v>6000</v>
-      </c>
-      <c r="O98" s="176">
-        <v>440</v>
-      </c>
-      <c r="P98" s="176"/>
-      <c r="Q98" s="176"/>
-      <c r="R98" s="177"/>
-      <c r="S98" s="178"/>
-      <c r="T98" s="196"/>
-      <c r="U98" s="180" t="s">
+      <c r="N100" s="239">
+        <v>6500</v>
+      </c>
+      <c r="O100" s="239">
+        <v>700</v>
+      </c>
+      <c r="P100" s="239"/>
+      <c r="Q100" s="239"/>
+      <c r="R100" s="246"/>
+      <c r="S100" s="242"/>
+      <c r="T100" s="190"/>
+      <c r="U100" s="192" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="283"/>
-      <c r="B99" s="256"/>
-      <c r="C99" s="160" t="s">
-        <v>245</v>
-      </c>
-      <c r="D99" s="180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E99" s="180" t="s">
-        <v>303</v>
-      </c>
-      <c r="F99" s="180" t="s">
-        <v>622</v>
-      </c>
-      <c r="G99" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="173" t="s">
-        <v>78</v>
-      </c>
-      <c r="I99" s="173"/>
-      <c r="J99" s="174">
-        <v>5</v>
-      </c>
-      <c r="K99" s="173" t="s">
-        <v>52</v>
-      </c>
-      <c r="L99" s="181" t="s">
-        <v>456</v>
-      </c>
-      <c r="M99" s="173" t="s">
-        <v>473</v>
-      </c>
-      <c r="N99" s="175">
-        <v>6000</v>
-      </c>
-      <c r="O99" s="175">
-        <v>440</v>
-      </c>
-      <c r="P99" s="175"/>
-      <c r="Q99" s="175"/>
-      <c r="R99" s="193"/>
-      <c r="S99" s="178"/>
-      <c r="T99" s="196"/>
-      <c r="U99" s="180" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="283"/>
-      <c r="B100" s="256"/>
-      <c r="C100" s="160" t="s">
-        <v>286</v>
-      </c>
-      <c r="D100" s="180" t="s">
-        <v>71</v>
-      </c>
-      <c r="E100" s="180" t="s">
-        <v>305</v>
-      </c>
-      <c r="F100" s="180" t="s">
-        <v>622</v>
-      </c>
-      <c r="G100" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="I100" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="J100" s="174">
-        <v>5</v>
-      </c>
-      <c r="K100" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="L100" s="181" t="s">
-        <v>456</v>
-      </c>
-      <c r="M100" s="173" t="s">
-        <v>473</v>
-      </c>
-      <c r="N100" s="175">
-        <v>6500</v>
-      </c>
-      <c r="O100" s="175">
-        <v>700</v>
-      </c>
-      <c r="P100" s="175"/>
-      <c r="Q100" s="175"/>
-      <c r="R100" s="193"/>
-      <c r="S100" s="178"/>
-      <c r="T100"/>
-      <c r="U100" s="180" t="s">
-        <v>758</v>
-      </c>
-    </row>
     <row r="101" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="283"/>
-      <c r="B101" s="256"/>
+      <c r="A101" s="300"/>
+      <c r="B101" s="292"/>
       <c r="C101" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="180" t="s">
+      <c r="D101" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="E101" s="180" t="s">
+      <c r="E101" s="179" t="s">
         <v>482</v>
       </c>
-      <c r="F101" s="180" t="s">
+      <c r="F101" s="179" t="s">
         <v>622</v>
       </c>
       <c r="G101" s="172" t="s">
@@ -13472,24 +13563,24 @@
       <c r="Q101" s="176"/>
       <c r="R101" s="177"/>
       <c r="S101" s="178"/>
-      <c r="T101" s="196"/>
-      <c r="U101" s="180" t="s">
-        <v>759</v>
+      <c r="T101" s="185"/>
+      <c r="U101" s="179" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="102" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="283"/>
-      <c r="B102" s="256"/>
+      <c r="A102" s="300"/>
+      <c r="B102" s="292"/>
       <c r="C102" s="160" t="s">
         <v>679</v>
       </c>
-      <c r="D102" s="180" t="s">
+      <c r="D102" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="E102" s="180" t="s">
+      <c r="E102" s="179" t="s">
         <v>482</v>
       </c>
-      <c r="F102" s="180" t="s">
+      <c r="F102" s="179" t="s">
         <v>622</v>
       </c>
       <c r="G102" s="172" t="s">
@@ -13521,110 +13612,110 @@
       <c r="Q102" s="176"/>
       <c r="R102" s="177"/>
       <c r="S102" s="178"/>
-      <c r="T102" s="196"/>
-      <c r="U102" s="180" t="s">
-        <v>759</v>
+      <c r="T102" s="185"/>
+      <c r="U102" s="179" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="283"/>
-      <c r="B103" s="256"/>
-      <c r="C103" s="160" t="s">
+      <c r="A103" s="300"/>
+      <c r="B103" s="292"/>
+      <c r="C103" s="235" t="s">
         <v>230</v>
       </c>
-      <c r="D103" s="180" t="s">
+      <c r="D103" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E103" s="180" t="s">
+      <c r="E103" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="F103" s="180" t="s">
+      <c r="F103" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G103" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="173" t="s">
+      <c r="G103" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I103" s="173"/>
-      <c r="J103" s="174">
+      <c r="I103" s="237"/>
+      <c r="J103" s="238">
         <v>6</v>
       </c>
-      <c r="K103" s="173" t="s">
+      <c r="K103" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L103" s="173" t="s">
+      <c r="L103" s="237" t="s">
         <v>477</v>
       </c>
-      <c r="M103" s="173" t="s">
+      <c r="M103" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="N103" s="175">
+      <c r="N103" s="239">
         <v>4000</v>
       </c>
-      <c r="O103" s="176"/>
-      <c r="P103" s="176"/>
-      <c r="Q103" s="176"/>
-      <c r="R103" s="177"/>
-      <c r="S103" s="178"/>
-      <c r="T103" s="196"/>
-      <c r="U103" s="180" t="s">
-        <v>763</v>
+      <c r="O103" s="240"/>
+      <c r="P103" s="240"/>
+      <c r="Q103" s="240"/>
+      <c r="R103" s="241"/>
+      <c r="S103" s="242"/>
+      <c r="T103" s="247"/>
+      <c r="U103" s="192" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="283"/>
-      <c r="B104" s="256"/>
-      <c r="C104" s="160" t="s">
+      <c r="A104" s="300"/>
+      <c r="B104" s="292"/>
+      <c r="C104" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="D104" s="180" t="s">
+      <c r="D104" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="180" t="s">
+      <c r="E104" s="192" t="s">
         <v>300</v>
       </c>
-      <c r="F104" s="180" t="s">
+      <c r="F104" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="G104" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="173" t="s">
+      <c r="G104" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I104" s="173" t="s">
+      <c r="I104" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="J104" s="174">
+      <c r="J104" s="238">
         <v>5</v>
       </c>
-      <c r="K104" s="173" t="s">
+      <c r="K104" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L104" s="181" t="s">
+      <c r="L104" s="245" t="s">
         <v>456</v>
       </c>
-      <c r="M104" s="181" t="s">
+      <c r="M104" s="245" t="s">
         <v>461</v>
       </c>
-      <c r="N104" s="175">
+      <c r="N104" s="239">
         <v>4000</v>
       </c>
-      <c r="O104" s="176">
+      <c r="O104" s="240">
         <v>600</v>
       </c>
-      <c r="P104" s="176"/>
-      <c r="Q104" s="176"/>
-      <c r="R104" s="177"/>
-      <c r="S104" s="178"/>
-      <c r="T104"/>
-      <c r="U104" s="180"/>
+      <c r="P104" s="240"/>
+      <c r="Q104" s="240"/>
+      <c r="R104" s="241"/>
+      <c r="S104" s="242"/>
+      <c r="T104" s="190"/>
+      <c r="U104" s="192"/>
     </row>
     <row r="105" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="283"/>
-      <c r="B105" s="256"/>
+      <c r="A105" s="300"/>
+      <c r="B105" s="292"/>
       <c r="C105" s="63" t="s">
         <v>216</v>
       </c>
@@ -13668,59 +13759,62 @@
       <c r="Q105" s="41"/>
       <c r="R105" s="119"/>
       <c r="S105" s="26"/>
-      <c r="T105" s="196"/>
+      <c r="T105" s="185"/>
     </row>
     <row r="106" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="283"/>
-      <c r="B106" s="256"/>
-      <c r="C106" s="58" t="s">
+      <c r="A106" s="300"/>
+      <c r="B106" s="292"/>
+      <c r="C106" s="235" t="s">
         <v>213</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="E106" s="44" t="s">
+      <c r="E106" s="254" t="s">
         <v>284</v>
       </c>
-      <c r="F106" s="139" t="s">
+      <c r="F106" s="248" t="s">
         <v>618</v>
       </c>
-      <c r="G106" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H106" s="25" t="s">
+      <c r="G106" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I106" s="25" t="s">
+      <c r="I106" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="J106" s="72">
+      <c r="J106" s="238">
         <v>5</v>
       </c>
-      <c r="K106" s="25" t="s">
+      <c r="K106" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L106" s="30" t="s">
+      <c r="L106" s="245" t="s">
         <v>456</v>
       </c>
-      <c r="M106" s="30" t="s">
+      <c r="M106" s="245" t="s">
         <v>461</v>
       </c>
-      <c r="N106" s="40">
+      <c r="N106" s="239">
         <v>5500</v>
       </c>
-      <c r="O106" s="40">
+      <c r="O106" s="239">
         <v>440</v>
       </c>
-      <c r="P106" s="40"/>
-      <c r="Q106" s="40"/>
-      <c r="R106" s="118"/>
-      <c r="S106" s="26"/>
-      <c r="T106" s="138"/>
+      <c r="P106" s="239"/>
+      <c r="Q106" s="239"/>
+      <c r="R106" s="246"/>
+      <c r="S106" s="242"/>
+      <c r="T106" s="247"/>
+      <c r="U106" s="192" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="107" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="283"/>
-      <c r="B107" s="256"/>
+      <c r="A107" s="300"/>
+      <c r="B107" s="292"/>
       <c r="C107" s="58" t="s">
         <v>214</v>
       </c>
@@ -13765,541 +13859,546 @@
       <c r="R107" s="118"/>
       <c r="S107" s="26"/>
       <c r="T107" s="138"/>
-    </row>
-    <row r="108" spans="1:21" s="180" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="283"/>
-      <c r="B108" s="256"/>
-      <c r="C108" s="160" t="s">
+      <c r="U107" s="23" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="300"/>
+      <c r="B108" s="292"/>
+      <c r="C108" s="235" t="s">
         <v>345</v>
       </c>
-      <c r="D108" s="180" t="s">
+      <c r="D108" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="E108" s="196" t="s">
+      <c r="E108" s="247" t="s">
         <v>346</v>
       </c>
-      <c r="F108" s="162" t="s">
+      <c r="F108" s="248" t="s">
         <v>618</v>
       </c>
-      <c r="G108" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="173" t="s">
+      <c r="G108" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I108" s="173" t="s">
+      <c r="I108" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="J108" s="174">
+      <c r="J108" s="238">
         <v>5</v>
       </c>
-      <c r="K108" s="173" t="s">
+      <c r="K108" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L108" s="173" t="s">
+      <c r="L108" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M108" s="173" t="s">
+      <c r="M108" s="237" t="s">
         <v>473</v>
       </c>
-      <c r="N108" s="175">
+      <c r="N108" s="239">
         <v>5500</v>
       </c>
-      <c r="O108" s="175">
+      <c r="O108" s="239">
         <v>500</v>
       </c>
-      <c r="P108" s="175"/>
-      <c r="Q108" s="175"/>
-      <c r="R108" s="193"/>
-      <c r="S108" s="178"/>
-      <c r="T108" s="196"/>
-      <c r="U108" s="180" t="s">
+      <c r="P108" s="239"/>
+      <c r="Q108" s="239"/>
+      <c r="R108" s="246"/>
+      <c r="S108" s="242"/>
+      <c r="T108" s="247"/>
+      <c r="U108" s="192" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="300"/>
+      <c r="B109" s="292"/>
+      <c r="C109" s="235" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="192" t="s">
+        <v>71</v>
+      </c>
+      <c r="E109" s="247" t="s">
+        <v>580</v>
+      </c>
+      <c r="F109" s="248" t="s">
+        <v>618</v>
+      </c>
+      <c r="G109" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="I109" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="J109" s="238">
+        <v>5</v>
+      </c>
+      <c r="K109" s="237" t="s">
+        <v>340</v>
+      </c>
+      <c r="L109" s="237" t="s">
+        <v>456</v>
+      </c>
+      <c r="M109" s="237" t="s">
+        <v>473</v>
+      </c>
+      <c r="N109" s="239">
+        <v>5700</v>
+      </c>
+      <c r="O109" s="239">
+        <v>600</v>
+      </c>
+      <c r="P109" s="239"/>
+      <c r="Q109" s="239"/>
+      <c r="R109" s="246"/>
+      <c r="S109" s="242"/>
+      <c r="T109" s="247"/>
+      <c r="U109" s="192"/>
+    </row>
+    <row r="110" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="300"/>
+      <c r="B110" s="292"/>
+      <c r="C110" s="235" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" s="254" t="s">
+        <v>283</v>
+      </c>
+      <c r="F110" s="248" t="s">
+        <v>618</v>
+      </c>
+      <c r="G110" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="237" t="s">
+        <v>161</v>
+      </c>
+      <c r="I110" s="237" t="s">
+        <v>78</v>
+      </c>
+      <c r="J110" s="238">
+        <v>5</v>
+      </c>
+      <c r="K110" s="237" t="s">
+        <v>241</v>
+      </c>
+      <c r="L110" s="237" t="s">
+        <v>456</v>
+      </c>
+      <c r="M110" s="237" t="s">
+        <v>481</v>
+      </c>
+      <c r="N110" s="239">
+        <v>4500</v>
+      </c>
+      <c r="O110" s="239">
+        <v>700</v>
+      </c>
+      <c r="P110" s="239"/>
+      <c r="Q110" s="239"/>
+      <c r="R110" s="246"/>
+      <c r="S110" s="242"/>
+      <c r="T110" s="247"/>
+      <c r="U110" s="192" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="300"/>
+      <c r="B111" s="292"/>
+      <c r="C111" s="216" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="217" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" s="231" t="s">
+        <v>758</v>
+      </c>
+      <c r="F111" s="218" t="s">
+        <v>618</v>
+      </c>
+      <c r="G111" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="219" t="s">
+        <v>177</v>
+      </c>
+      <c r="I111" s="219" t="s">
+        <v>78</v>
+      </c>
+      <c r="J111" s="220">
+        <v>5</v>
+      </c>
+      <c r="K111" s="219" t="s">
+        <v>743</v>
+      </c>
+      <c r="L111" s="219" t="s">
+        <v>456</v>
+      </c>
+      <c r="M111" s="219" t="s">
+        <v>481</v>
+      </c>
+      <c r="N111" s="221">
+        <v>4500</v>
+      </c>
+      <c r="O111" s="221">
+        <v>700</v>
+      </c>
+      <c r="P111" s="221"/>
+      <c r="Q111" s="221"/>
+      <c r="R111" s="230"/>
+      <c r="S111" s="224"/>
+      <c r="T111" s="205"/>
+      <c r="U111" s="217"/>
+    </row>
+    <row r="112" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="300"/>
+      <c r="B112" s="292"/>
+      <c r="C112" s="235" t="s">
+        <v>486</v>
+      </c>
+      <c r="D112" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="E112" s="247" t="s">
+        <v>335</v>
+      </c>
+      <c r="F112" s="248" t="s">
+        <v>618</v>
+      </c>
+      <c r="G112" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="I112" s="237" t="s">
+        <v>98</v>
+      </c>
+      <c r="J112" s="238">
+        <v>5</v>
+      </c>
+      <c r="K112" s="237" t="s">
+        <v>241</v>
+      </c>
+      <c r="L112" s="237" t="s">
+        <v>456</v>
+      </c>
+      <c r="M112" s="237" t="s">
+        <v>473</v>
+      </c>
+      <c r="N112" s="239">
+        <v>5500</v>
+      </c>
+      <c r="O112" s="239">
+        <v>440</v>
+      </c>
+      <c r="P112" s="239"/>
+      <c r="Q112" s="239"/>
+      <c r="R112" s="246"/>
+      <c r="S112" s="242"/>
+      <c r="T112" s="190"/>
+      <c r="U112" s="192"/>
+    </row>
+    <row r="113" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="300"/>
+      <c r="B113" s="292"/>
+      <c r="C113" s="235" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="192" t="s">
+        <v>169</v>
+      </c>
+      <c r="E113" s="247" t="s">
+        <v>307</v>
+      </c>
+      <c r="F113" s="248" t="s">
+        <v>623</v>
+      </c>
+      <c r="G113" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="I113" s="237" t="s">
+        <v>98</v>
+      </c>
+      <c r="J113" s="238">
+        <v>6</v>
+      </c>
+      <c r="K113" s="237" t="s">
+        <v>52</v>
+      </c>
+      <c r="L113" s="237" t="s">
+        <v>477</v>
+      </c>
+      <c r="M113" s="237" t="s">
+        <v>57</v>
+      </c>
+      <c r="N113" s="239">
+        <v>2800</v>
+      </c>
+      <c r="O113" s="240">
+        <v>440</v>
+      </c>
+      <c r="P113" s="240"/>
+      <c r="Q113" s="240"/>
+      <c r="R113" s="241"/>
+      <c r="S113" s="242"/>
+      <c r="T113" s="190"/>
+      <c r="U113" s="192"/>
+    </row>
+    <row r="114" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="300"/>
+      <c r="B114" s="292"/>
+      <c r="C114" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="D114" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="247" t="s">
+        <v>306</v>
+      </c>
+      <c r="F114" s="192" t="s">
+        <v>619</v>
+      </c>
+      <c r="G114" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="237" t="s">
+        <v>78</v>
+      </c>
+      <c r="I114" s="237"/>
+      <c r="J114" s="238">
+        <v>6</v>
+      </c>
+      <c r="K114" s="237" t="s">
+        <v>52</v>
+      </c>
+      <c r="L114" s="237" t="s">
+        <v>464</v>
+      </c>
+      <c r="M114" s="237" t="s">
+        <v>57</v>
+      </c>
+      <c r="N114" s="239">
+        <v>5000</v>
+      </c>
+      <c r="O114" s="239">
+        <v>700</v>
+      </c>
+      <c r="P114" s="239"/>
+      <c r="Q114" s="239"/>
+      <c r="R114" s="246"/>
+      <c r="S114" s="242"/>
+      <c r="T114" s="247"/>
+      <c r="U114" s="192"/>
+    </row>
+    <row r="115" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="300"/>
+      <c r="B115" s="292"/>
+      <c r="C115" s="235" t="s">
+        <v>226</v>
+      </c>
+      <c r="D115" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="E115" s="254" t="s">
+        <v>281</v>
+      </c>
+      <c r="F115" s="248" t="s">
+        <v>618</v>
+      </c>
+      <c r="G115" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="237" t="s">
+        <v>161</v>
+      </c>
+      <c r="I115" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="J115" s="238">
+        <v>5</v>
+      </c>
+      <c r="K115" s="237" t="s">
+        <v>241</v>
+      </c>
+      <c r="L115" s="237" t="s">
+        <v>456</v>
+      </c>
+      <c r="M115" s="237" t="s">
+        <v>461</v>
+      </c>
+      <c r="N115" s="239">
+        <v>5500</v>
+      </c>
+      <c r="O115" s="240">
+        <v>700</v>
+      </c>
+      <c r="P115" s="240">
+        <v>1400</v>
+      </c>
+      <c r="Q115" s="240"/>
+      <c r="R115" s="241"/>
+      <c r="S115" s="242"/>
+      <c r="T115" s="247"/>
+      <c r="U115" s="192" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="300"/>
+      <c r="B116" s="292"/>
+      <c r="C116" s="235" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116" s="254" t="s">
+        <v>282</v>
+      </c>
+      <c r="F116" s="248" t="s">
+        <v>618</v>
+      </c>
+      <c r="G116" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="237" t="s">
+        <v>78</v>
+      </c>
+      <c r="I116" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="J116" s="238">
+        <v>5</v>
+      </c>
+      <c r="K116" s="237" t="s">
+        <v>241</v>
+      </c>
+      <c r="L116" s="237" t="s">
+        <v>456</v>
+      </c>
+      <c r="M116" s="237" t="s">
+        <v>473</v>
+      </c>
+      <c r="N116" s="239">
+        <v>6000</v>
+      </c>
+      <c r="O116" s="239">
+        <v>700</v>
+      </c>
+      <c r="P116" s="239">
+        <v>1400</v>
+      </c>
+      <c r="Q116" s="239"/>
+      <c r="R116" s="246"/>
+      <c r="S116" s="242"/>
+      <c r="T116" s="247"/>
+      <c r="U116" s="192" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="300"/>
+      <c r="B117" s="292"/>
+      <c r="C117" s="263" t="s">
+        <v>578</v>
+      </c>
+      <c r="D117" s="192"/>
+      <c r="E117" s="265" t="s">
+        <v>579</v>
+      </c>
+      <c r="F117" s="248" t="s">
+        <v>623</v>
+      </c>
+      <c r="G117" s="236"/>
+      <c r="H117" s="237"/>
+      <c r="I117" s="237"/>
+      <c r="J117" s="264"/>
+      <c r="K117" s="237"/>
+      <c r="L117" s="245"/>
+      <c r="M117" s="245"/>
+      <c r="N117" s="239"/>
+      <c r="O117" s="240"/>
+      <c r="P117" s="240"/>
+      <c r="Q117" s="240"/>
+      <c r="R117" s="241"/>
+      <c r="S117" s="242"/>
+      <c r="T117" s="247"/>
+      <c r="U117" s="192" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="283"/>
-      <c r="B109" s="256"/>
-      <c r="C109" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E109" s="138" t="s">
-        <v>580</v>
-      </c>
-      <c r="F109" s="139" t="s">
-        <v>618</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="25" t="s">
+    <row r="118" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="300"/>
+      <c r="B118" s="292"/>
+      <c r="C118" s="235" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" s="192" t="s">
+        <v>285</v>
+      </c>
+      <c r="F118" s="248" t="s">
+        <v>620</v>
+      </c>
+      <c r="G118" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I109" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="J109" s="72">
+      <c r="I118" s="237" t="s">
+        <v>98</v>
+      </c>
+      <c r="J118" s="238">
         <v>5</v>
       </c>
-      <c r="K109" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="L109" s="25" t="s">
+      <c r="K118" s="237" t="s">
+        <v>241</v>
+      </c>
+      <c r="L118" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M109" s="25" t="s">
+      <c r="M118" s="237" t="s">
         <v>473</v>
       </c>
-      <c r="N109" s="40">
-        <v>5700</v>
-      </c>
-      <c r="O109" s="40">
-        <v>600</v>
-      </c>
-      <c r="P109" s="40"/>
-      <c r="Q109" s="40"/>
-      <c r="R109" s="118"/>
-      <c r="S109" s="26"/>
-      <c r="T109" s="138"/>
-    </row>
-    <row r="110" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="283"/>
-      <c r="B110" s="256"/>
-      <c r="C110" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="D110" s="180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E110" s="171" t="s">
-        <v>283</v>
-      </c>
-      <c r="F110" s="162" t="s">
-        <v>618</v>
-      </c>
-      <c r="G110" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="173" t="s">
-        <v>161</v>
-      </c>
-      <c r="I110" s="173" t="s">
-        <v>78</v>
-      </c>
-      <c r="J110" s="174">
-        <v>5</v>
-      </c>
-      <c r="K110" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="L110" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="M110" s="173" t="s">
-        <v>481</v>
-      </c>
-      <c r="N110" s="175">
-        <v>4500</v>
-      </c>
-      <c r="O110" s="175">
+      <c r="N118" s="239">
+        <v>5000</v>
+      </c>
+      <c r="O118" s="239">
         <v>700</v>
       </c>
-      <c r="P110" s="175"/>
-      <c r="Q110" s="175"/>
-      <c r="R110" s="193"/>
-      <c r="S110" s="178"/>
-      <c r="T110" s="196"/>
-      <c r="U110" s="180" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="283"/>
-      <c r="B111" s="256"/>
-      <c r="C111" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="D111" s="230" t="s">
-        <v>167</v>
-      </c>
-      <c r="E111" s="244" t="s">
-        <v>760</v>
-      </c>
-      <c r="F111" s="231" t="s">
-        <v>618</v>
-      </c>
-      <c r="G111" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="232" t="s">
-        <v>177</v>
-      </c>
-      <c r="I111" s="232" t="s">
-        <v>78</v>
-      </c>
-      <c r="J111" s="233">
-        <v>5</v>
-      </c>
-      <c r="K111" s="232" t="s">
-        <v>241</v>
-      </c>
-      <c r="L111" s="232" t="s">
-        <v>456</v>
-      </c>
-      <c r="M111" s="232" t="s">
-        <v>481</v>
-      </c>
-      <c r="N111" s="234">
-        <v>4500</v>
-      </c>
-      <c r="O111" s="234">
-        <v>700</v>
-      </c>
-      <c r="P111" s="234"/>
-      <c r="Q111" s="234"/>
-      <c r="R111" s="243"/>
-      <c r="S111" s="237"/>
-      <c r="T111" s="218"/>
-      <c r="U111" s="230"/>
-    </row>
-    <row r="112" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="283"/>
-      <c r="B112" s="256"/>
-      <c r="C112" s="160" t="s">
-        <v>486</v>
-      </c>
-      <c r="D112" s="180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E112" s="196" t="s">
-        <v>335</v>
-      </c>
-      <c r="F112" s="162" t="s">
-        <v>618</v>
-      </c>
-      <c r="G112" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="I112" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="J112" s="174">
-        <v>5</v>
-      </c>
-      <c r="K112" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="L112" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="M112" s="173" t="s">
-        <v>473</v>
-      </c>
-      <c r="N112" s="175">
-        <v>5500</v>
-      </c>
-      <c r="O112" s="175">
-        <v>440</v>
-      </c>
-      <c r="P112" s="175"/>
-      <c r="Q112" s="175"/>
-      <c r="R112" s="193"/>
-      <c r="S112" s="178"/>
-      <c r="T112"/>
-      <c r="U112" s="180"/>
-    </row>
-    <row r="113" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="283"/>
-      <c r="B113" s="256"/>
-      <c r="C113" s="160" t="s">
-        <v>246</v>
-      </c>
-      <c r="D113" s="180" t="s">
-        <v>169</v>
-      </c>
-      <c r="E113" s="196" t="s">
-        <v>307</v>
-      </c>
-      <c r="F113" s="162" t="s">
-        <v>623</v>
-      </c>
-      <c r="G113" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="I113" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="J113" s="174">
-        <v>6</v>
-      </c>
-      <c r="K113" s="173" t="s">
-        <v>52</v>
-      </c>
-      <c r="L113" s="173" t="s">
-        <v>477</v>
-      </c>
-      <c r="M113" s="173" t="s">
-        <v>57</v>
-      </c>
-      <c r="N113" s="175">
-        <v>2800</v>
-      </c>
-      <c r="O113" s="176">
-        <v>440</v>
-      </c>
-      <c r="P113" s="176"/>
-      <c r="Q113" s="176"/>
-      <c r="R113" s="177"/>
-      <c r="S113" s="178"/>
-      <c r="T113"/>
-      <c r="U113" s="180"/>
-    </row>
-    <row r="114" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="283"/>
-      <c r="B114" s="256"/>
-      <c r="C114" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E114" s="138" t="s">
-        <v>306</v>
-      </c>
-      <c r="F114" s="141" t="s">
-        <v>619</v>
-      </c>
-      <c r="G114" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I114" s="25"/>
-      <c r="J114" s="72">
-        <v>6</v>
-      </c>
-      <c r="K114" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L114" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="M114" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="N114" s="40">
-        <v>5000</v>
-      </c>
-      <c r="O114" s="40">
-        <v>700</v>
-      </c>
-      <c r="P114" s="40"/>
-      <c r="Q114" s="40"/>
-      <c r="R114" s="118"/>
-      <c r="S114" s="26"/>
-      <c r="T114" s="138"/>
-    </row>
-    <row r="115" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="283"/>
-      <c r="B115" s="256"/>
-      <c r="C115" s="160" t="s">
-        <v>226</v>
-      </c>
-      <c r="D115" s="180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E115" s="171" t="s">
-        <v>281</v>
-      </c>
-      <c r="F115" s="162" t="s">
-        <v>618</v>
-      </c>
-      <c r="G115" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H115" s="173" t="s">
-        <v>161</v>
-      </c>
-      <c r="I115" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="J115" s="174">
-        <v>5</v>
-      </c>
-      <c r="K115" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="L115" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="M115" s="173" t="s">
-        <v>461</v>
-      </c>
-      <c r="N115" s="175">
-        <v>5500</v>
-      </c>
-      <c r="O115" s="176">
-        <v>700</v>
-      </c>
-      <c r="P115" s="176">
-        <v>1400</v>
-      </c>
-      <c r="Q115" s="176"/>
-      <c r="R115" s="177"/>
-      <c r="S115" s="178"/>
-      <c r="T115" s="196"/>
-      <c r="U115" s="180" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="283"/>
-      <c r="B116" s="256"/>
-      <c r="C116" s="160" t="s">
-        <v>227</v>
-      </c>
-      <c r="D116" s="180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E116" s="171" t="s">
-        <v>282</v>
-      </c>
-      <c r="F116" s="162" t="s">
-        <v>618</v>
-      </c>
-      <c r="G116" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H116" s="173" t="s">
-        <v>78</v>
-      </c>
-      <c r="I116" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="J116" s="174">
-        <v>5</v>
-      </c>
-      <c r="K116" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="L116" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="M116" s="173" t="s">
-        <v>473</v>
-      </c>
-      <c r="N116" s="175">
-        <v>6000</v>
-      </c>
-      <c r="O116" s="175">
-        <v>700</v>
-      </c>
-      <c r="P116" s="175">
-        <v>1400</v>
-      </c>
-      <c r="Q116" s="175"/>
-      <c r="R116" s="193"/>
-      <c r="S116" s="178"/>
-      <c r="T116" s="196"/>
-      <c r="U116" s="180" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="283"/>
-      <c r="B117" s="256"/>
-      <c r="C117" s="194" t="s">
-        <v>578</v>
-      </c>
-      <c r="D117" s="180"/>
-      <c r="E117" s="245" t="s">
-        <v>579</v>
-      </c>
-      <c r="F117" s="162" t="s">
-        <v>623</v>
-      </c>
-      <c r="G117" s="172"/>
-      <c r="H117" s="173"/>
-      <c r="I117" s="173"/>
-      <c r="J117" s="195"/>
-      <c r="K117" s="173"/>
-      <c r="L117" s="181"/>
-      <c r="M117" s="181"/>
-      <c r="N117" s="175"/>
-      <c r="O117" s="176"/>
-      <c r="P117" s="176"/>
-      <c r="Q117" s="176"/>
-      <c r="R117" s="177"/>
-      <c r="S117" s="178"/>
-      <c r="T117" s="196"/>
-      <c r="U117" s="180" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="283"/>
-      <c r="B118" s="256"/>
-      <c r="C118" s="160" t="s">
-        <v>315</v>
-      </c>
-      <c r="D118" s="180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E118" s="180" t="s">
-        <v>285</v>
-      </c>
-      <c r="F118" s="162" t="s">
-        <v>620</v>
-      </c>
-      <c r="G118" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="I118" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="J118" s="174">
-        <v>5</v>
-      </c>
-      <c r="K118" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="L118" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="M118" s="173" t="s">
-        <v>473</v>
-      </c>
-      <c r="N118" s="175">
-        <v>5000</v>
-      </c>
-      <c r="O118" s="175">
-        <v>700</v>
-      </c>
-      <c r="P118" s="175"/>
-      <c r="Q118" s="175"/>
-      <c r="R118" s="193"/>
-      <c r="S118" s="178"/>
-      <c r="T118"/>
-      <c r="U118" s="180" t="s">
-        <v>764</v>
+      <c r="P118" s="239"/>
+      <c r="Q118" s="239"/>
+      <c r="R118" s="246"/>
+      <c r="S118" s="242"/>
+      <c r="T118" s="190"/>
+      <c r="U118" s="192" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="119" spans="1:21" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="284"/>
-      <c r="B119" s="257"/>
+      <c r="A119" s="301"/>
+      <c r="B119" s="297"/>
       <c r="C119" s="59" t="s">
         <v>308</v>
       </c>
@@ -14349,14 +14448,14 @@
       <c r="S119" s="31">
         <v>2400</v>
       </c>
-      <c r="T119" s="207"/>
+      <c r="T119" s="194"/>
       <c r="U119" s="28"/>
     </row>
     <row r="120" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="277" t="s">
+      <c r="A120" s="293" t="s">
         <v>484</v>
       </c>
-      <c r="B120" s="263" t="s">
+      <c r="B120" s="284" t="s">
         <v>51</v>
       </c>
       <c r="C120" s="60" t="s">
@@ -14398,12 +14497,12 @@
       <c r="Q120" s="42"/>
       <c r="R120" s="121"/>
       <c r="S120" s="36"/>
-      <c r="T120" s="209"/>
+      <c r="T120" s="196"/>
       <c r="U120" s="33"/>
     </row>
     <row r="121" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="278"/>
-      <c r="B121" s="261"/>
+      <c r="A121" s="294"/>
+      <c r="B121" s="285"/>
       <c r="C121" s="58" t="s">
         <v>92</v>
       </c>
@@ -14447,11 +14546,11 @@
       <c r="Q121" s="40"/>
       <c r="R121" s="118"/>
       <c r="S121" s="26"/>
-      <c r="T121" s="196"/>
+      <c r="T121" s="185"/>
     </row>
     <row r="122" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="278"/>
-      <c r="B122" s="261"/>
+      <c r="A122" s="294"/>
+      <c r="B122" s="285"/>
       <c r="C122" s="58" t="s">
         <v>93</v>
       </c>
@@ -14495,11 +14594,11 @@
       <c r="Q122" s="40"/>
       <c r="R122" s="118"/>
       <c r="S122" s="26"/>
-      <c r="T122" s="196"/>
+      <c r="T122" s="185"/>
     </row>
     <row r="123" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="278"/>
-      <c r="B123" s="261"/>
+      <c r="A123" s="294"/>
+      <c r="B123" s="285"/>
       <c r="C123" s="58" t="s">
         <v>104</v>
       </c>
@@ -14539,11 +14638,11 @@
       <c r="Q123" s="40"/>
       <c r="R123" s="118"/>
       <c r="S123" s="26"/>
-      <c r="T123" s="196"/>
+      <c r="T123" s="185"/>
     </row>
     <row r="124" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="278"/>
-      <c r="B124" s="261"/>
+      <c r="A124" s="294"/>
+      <c r="B124" s="285"/>
       <c r="C124" s="59" t="s">
         <v>94</v>
       </c>
@@ -14583,12 +14682,12 @@
       <c r="Q124" s="41"/>
       <c r="R124" s="119"/>
       <c r="S124" s="31"/>
-      <c r="T124" s="211"/>
+      <c r="T124" s="198"/>
       <c r="U124" s="28"/>
     </row>
     <row r="125" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="278"/>
-      <c r="B125" s="261"/>
+      <c r="A125" s="294"/>
+      <c r="B125" s="285"/>
       <c r="C125" s="58" t="s">
         <v>179</v>
       </c>
@@ -14628,12 +14727,12 @@
       <c r="Q125" s="41"/>
       <c r="R125" s="119"/>
       <c r="S125" s="26"/>
-      <c r="T125" s="211"/>
+      <c r="T125" s="198"/>
       <c r="U125" s="28"/>
     </row>
     <row r="126" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="278"/>
-      <c r="B126" s="261"/>
+      <c r="A126" s="294"/>
+      <c r="B126" s="285"/>
       <c r="C126" s="59" t="s">
         <v>116</v>
       </c>
@@ -14673,12 +14772,12 @@
       <c r="Q126" s="41"/>
       <c r="R126" s="119"/>
       <c r="S126" s="26"/>
-      <c r="T126" s="211"/>
+      <c r="T126" s="198"/>
       <c r="U126" s="28"/>
     </row>
     <row r="127" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="278"/>
-      <c r="B127" s="261"/>
+      <c r="A127" s="294"/>
+      <c r="B127" s="285"/>
       <c r="C127" s="58" t="s">
         <v>96</v>
       </c>
@@ -14720,11 +14819,11 @@
       <c r="Q127" s="40"/>
       <c r="R127" s="118"/>
       <c r="S127" s="26"/>
-      <c r="T127" s="196"/>
+      <c r="T127" s="185"/>
     </row>
     <row r="128" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="278"/>
-      <c r="B128" s="261"/>
+      <c r="A128" s="294"/>
+      <c r="B128" s="285"/>
       <c r="C128" s="58" t="s">
         <v>485</v>
       </c>
@@ -14766,21 +14865,21 @@
       <c r="Q128" s="41"/>
       <c r="R128" s="119"/>
       <c r="S128" s="26"/>
-      <c r="T128" s="196"/>
+      <c r="T128" s="185"/>
     </row>
     <row r="129" spans="1:21" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="278"/>
-      <c r="B129" s="280"/>
+      <c r="A129" s="294"/>
+      <c r="B129" s="296"/>
       <c r="C129" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="D129" s="180" t="s">
+      <c r="D129" s="179" t="s">
         <v>71</v>
       </c>
       <c r="E129" s="162" t="s">
         <v>494</v>
       </c>
-      <c r="F129" s="180" t="s">
+      <c r="F129" s="179" t="s">
         <v>619</v>
       </c>
       <c r="G129" s="172" t="s">
@@ -14808,208 +14907,208 @@
       <c r="O129" s="175"/>
       <c r="P129" s="175"/>
       <c r="Q129" s="175"/>
-      <c r="R129" s="193"/>
+      <c r="R129" s="182"/>
       <c r="S129" s="178"/>
-      <c r="T129" s="196"/>
-      <c r="U129" s="180" t="s">
-        <v>768</v>
+      <c r="T129" s="185"/>
+      <c r="U129" s="179" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="130" spans="1:21" s="28" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="278"/>
-      <c r="B130" s="266" t="s">
+      <c r="A130" s="294"/>
+      <c r="B130" s="291" t="s">
         <v>193</v>
       </c>
-      <c r="C130" s="185" t="s">
+      <c r="C130" s="255" t="s">
         <v>433</v>
       </c>
-      <c r="D130" s="186" t="s">
+      <c r="D130" s="256" t="s">
         <v>367</v>
       </c>
-      <c r="E130" s="246" t="s">
+      <c r="E130" s="266" t="s">
         <v>437</v>
       </c>
-      <c r="F130" s="246"/>
-      <c r="G130" s="187" t="s">
-        <v>8</v>
-      </c>
-      <c r="H130" s="188" t="s">
+      <c r="F130" s="266"/>
+      <c r="G130" s="257" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="258" t="s">
         <v>398</v>
       </c>
-      <c r="I130" s="188" t="s">
+      <c r="I130" s="258" t="s">
         <v>177</v>
       </c>
-      <c r="J130" s="189">
+      <c r="J130" s="259">
         <v>5</v>
       </c>
-      <c r="K130" s="188" t="s">
+      <c r="K130" s="258" t="s">
         <v>340</v>
       </c>
-      <c r="L130" s="188" t="s">
+      <c r="L130" s="258" t="s">
         <v>497</v>
       </c>
-      <c r="M130" s="188" t="s">
+      <c r="M130" s="258" t="s">
         <v>453</v>
       </c>
-      <c r="N130" s="190">
+      <c r="N130" s="260">
         <v>3000</v>
       </c>
-      <c r="O130" s="190">
+      <c r="O130" s="260">
         <v>450</v>
       </c>
-      <c r="P130" s="190"/>
-      <c r="Q130" s="190"/>
-      <c r="R130" s="191"/>
-      <c r="S130" s="192"/>
-      <c r="T130" s="213"/>
-      <c r="U130" s="180" t="s">
-        <v>762</v>
+      <c r="P130" s="260"/>
+      <c r="Q130" s="260"/>
+      <c r="R130" s="261"/>
+      <c r="S130" s="262"/>
+      <c r="T130" s="267"/>
+      <c r="U130" s="192" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="131" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="278"/>
-      <c r="B131" s="256"/>
-      <c r="C131" s="160" t="s">
+      <c r="A131" s="294"/>
+      <c r="B131" s="292"/>
+      <c r="C131" s="235" t="s">
         <v>432</v>
       </c>
-      <c r="D131" s="180" t="s">
+      <c r="D131" s="192" t="s">
         <v>367</v>
       </c>
-      <c r="E131" s="171" t="s">
+      <c r="E131" s="254" t="s">
         <v>499</v>
       </c>
-      <c r="F131" s="171"/>
-      <c r="G131" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H131" s="173" t="s">
+      <c r="F131" s="254"/>
+      <c r="G131" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="237" t="s">
         <v>196</v>
       </c>
-      <c r="I131" s="173" t="s">
+      <c r="I131" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="J131" s="174">
+      <c r="J131" s="238">
         <v>6</v>
       </c>
-      <c r="K131" s="173" t="s">
+      <c r="K131" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L131" s="173" t="s">
+      <c r="L131" s="237" t="s">
         <v>464</v>
       </c>
-      <c r="M131" s="181" t="s">
+      <c r="M131" s="245" t="s">
         <v>453</v>
       </c>
-      <c r="N131" s="175">
+      <c r="N131" s="239">
         <v>3500</v>
       </c>
-      <c r="O131" s="176"/>
-      <c r="P131" s="176"/>
-      <c r="Q131" s="176"/>
-      <c r="R131" s="177"/>
-      <c r="S131" s="178"/>
-      <c r="T131" s="196"/>
-      <c r="U131" s="180" t="s">
-        <v>769</v>
+      <c r="O131" s="240"/>
+      <c r="P131" s="240"/>
+      <c r="Q131" s="240"/>
+      <c r="R131" s="241"/>
+      <c r="S131" s="242"/>
+      <c r="T131" s="247"/>
+      <c r="U131" s="192" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="132" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="278"/>
-      <c r="B132" s="256"/>
-      <c r="C132" s="160" t="s">
+      <c r="A132" s="294"/>
+      <c r="B132" s="292"/>
+      <c r="C132" s="235" t="s">
         <v>435</v>
       </c>
-      <c r="D132" s="180" t="s">
+      <c r="D132" s="192" t="s">
         <v>349</v>
       </c>
-      <c r="E132" s="162" t="s">
+      <c r="E132" s="248" t="s">
         <v>436</v>
       </c>
-      <c r="F132" s="162"/>
-      <c r="G132" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" s="173" t="s">
+      <c r="F132" s="248"/>
+      <c r="G132" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="237" t="s">
         <v>162</v>
       </c>
-      <c r="I132" s="173" t="s">
+      <c r="I132" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="J132" s="174">
+      <c r="J132" s="238">
         <v>5</v>
       </c>
-      <c r="K132" s="173" t="s">
+      <c r="K132" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L132" s="173" t="s">
+      <c r="L132" s="237" t="s">
         <v>496</v>
       </c>
-      <c r="M132" s="173" t="s">
+      <c r="M132" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N132" s="175">
+      <c r="N132" s="239">
         <v>2500</v>
       </c>
-      <c r="O132" s="175"/>
-      <c r="P132" s="176"/>
-      <c r="Q132" s="176"/>
-      <c r="R132" s="177"/>
-      <c r="S132" s="178"/>
-      <c r="T132"/>
-      <c r="U132" s="180"/>
+      <c r="O132" s="239"/>
+      <c r="P132" s="240"/>
+      <c r="Q132" s="240"/>
+      <c r="R132" s="241"/>
+      <c r="S132" s="242"/>
+      <c r="T132" s="190"/>
+      <c r="U132" s="192"/>
     </row>
     <row r="133" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="278"/>
-      <c r="B133" s="256"/>
-      <c r="C133" s="247" t="s">
+      <c r="A133" s="294"/>
+      <c r="B133" s="292"/>
+      <c r="C133" s="268" t="s">
         <v>409</v>
       </c>
-      <c r="D133" s="180" t="s">
+      <c r="D133" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="E133" s="248" t="s">
+      <c r="E133" s="269" t="s">
         <v>410</v>
       </c>
-      <c r="F133" s="248"/>
-      <c r="G133" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="H133" s="181" t="s">
+      <c r="F133" s="269"/>
+      <c r="G133" s="249" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="245" t="s">
         <v>100</v>
       </c>
-      <c r="I133" s="181" t="s">
+      <c r="I133" s="245" t="s">
         <v>196</v>
       </c>
-      <c r="J133" s="197">
+      <c r="J133" s="270">
         <v>5</v>
       </c>
-      <c r="K133" s="181" t="s">
+      <c r="K133" s="245" t="s">
         <v>340</v>
       </c>
-      <c r="L133" s="173" t="s">
+      <c r="L133" s="237" t="s">
         <v>496</v>
       </c>
-      <c r="M133" s="181" t="s">
+      <c r="M133" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="N133" s="175">
+      <c r="N133" s="239">
         <v>3000</v>
       </c>
-      <c r="O133" s="175">
+      <c r="O133" s="239">
         <v>600</v>
       </c>
-      <c r="P133" s="176"/>
-      <c r="Q133" s="176"/>
-      <c r="R133" s="177"/>
-      <c r="S133" s="178"/>
-      <c r="T133" s="196"/>
-      <c r="U133" s="180" t="s">
-        <v>758</v>
+      <c r="P133" s="240"/>
+      <c r="Q133" s="240"/>
+      <c r="R133" s="241"/>
+      <c r="S133" s="242"/>
+      <c r="T133" s="247"/>
+      <c r="U133" s="192" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="134" spans="1:21" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="278"/>
-      <c r="B134" s="256"/>
+      <c r="A134" s="294"/>
+      <c r="B134" s="292"/>
       <c r="C134" s="58" t="s">
         <v>228</v>
       </c>
@@ -15049,12 +15148,12 @@
       <c r="Q134" s="41"/>
       <c r="R134" s="119"/>
       <c r="S134" s="26"/>
-      <c r="T134" s="196"/>
+      <c r="T134" s="185"/>
       <c r="U134" s="23"/>
     </row>
     <row r="135" spans="1:21" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="278"/>
-      <c r="B135" s="256"/>
+      <c r="A135" s="294"/>
+      <c r="B135" s="292"/>
       <c r="C135" s="58" t="s">
         <v>207</v>
       </c>
@@ -15078,7 +15177,7 @@
         <v>5</v>
       </c>
       <c r="K135" s="25" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="L135" s="25" t="s">
         <v>463</v>
@@ -15094,41 +15193,41 @@
       <c r="Q135" s="41"/>
       <c r="R135" s="119"/>
       <c r="S135" s="26"/>
-      <c r="T135" s="196"/>
+      <c r="T135" s="185"/>
       <c r="U135" s="23"/>
     </row>
     <row r="136" spans="1:21" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="279"/>
-      <c r="B136" s="256"/>
-      <c r="C136" s="194" t="s">
+      <c r="A136" s="295"/>
+      <c r="B136" s="292"/>
+      <c r="C136" s="183" t="s">
         <v>603</v>
       </c>
-      <c r="D136" s="180"/>
-      <c r="E136" s="180"/>
-      <c r="F136" s="180"/>
+      <c r="D136" s="179"/>
+      <c r="E136" s="179"/>
+      <c r="F136" s="179"/>
       <c r="G136" s="172"/>
       <c r="H136" s="173"/>
       <c r="I136" s="173"/>
-      <c r="J136" s="195"/>
+      <c r="J136" s="184"/>
       <c r="K136" s="173"/>
-      <c r="L136" s="181"/>
-      <c r="M136" s="181"/>
+      <c r="L136" s="180"/>
+      <c r="M136" s="180"/>
       <c r="N136" s="172"/>
       <c r="O136" s="172"/>
       <c r="P136" s="172"/>
       <c r="Q136" s="172"/>
-      <c r="R136" s="249"/>
+      <c r="R136" s="234"/>
       <c r="S136" s="178"/>
-      <c r="T136" s="196"/>
-      <c r="U136" s="180" t="s">
-        <v>770</v>
+      <c r="T136" s="185"/>
+      <c r="U136" s="179" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="137" spans="1:21" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="274" t="s">
+      <c r="A137" s="288" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="263" t="s">
+      <c r="B137" s="284" t="s">
         <v>51</v>
       </c>
       <c r="C137" s="60" t="s">
@@ -15168,12 +15267,12 @@
       <c r="Q137" s="42"/>
       <c r="R137" s="121"/>
       <c r="S137" s="36"/>
-      <c r="T137" s="209"/>
+      <c r="T137" s="196"/>
       <c r="U137" s="33"/>
     </row>
     <row r="138" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="275"/>
-      <c r="B138" s="261"/>
+      <c r="A138" s="289"/>
+      <c r="B138" s="285"/>
       <c r="C138" s="59" t="s">
         <v>95</v>
       </c>
@@ -15211,11 +15310,11 @@
       <c r="Q138" s="41"/>
       <c r="R138" s="119"/>
       <c r="S138" s="31"/>
-      <c r="T138" s="211"/>
+      <c r="T138" s="198"/>
     </row>
     <row r="139" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="275"/>
-      <c r="B139" s="261"/>
+      <c r="A139" s="289"/>
+      <c r="B139" s="285"/>
       <c r="C139" s="63" t="s">
         <v>582</v>
       </c>
@@ -15255,12 +15354,12 @@
       <c r="Q139" s="41"/>
       <c r="R139" s="119"/>
       <c r="S139" s="26"/>
-      <c r="T139" s="213"/>
+      <c r="T139" s="200"/>
       <c r="U139" s="19"/>
     </row>
     <row r="140" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="275"/>
-      <c r="B140" s="261"/>
+      <c r="A140" s="289"/>
+      <c r="B140" s="285"/>
       <c r="C140" s="58" t="s">
         <v>115</v>
       </c>
@@ -15299,12 +15398,12 @@
       <c r="Q140" s="41"/>
       <c r="R140" s="119"/>
       <c r="S140" s="26"/>
-      <c r="T140" s="213"/>
+      <c r="T140" s="200"/>
       <c r="U140" s="19"/>
     </row>
     <row r="141" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="275"/>
-      <c r="B141" s="261"/>
+      <c r="A141" s="289"/>
+      <c r="B141" s="285"/>
       <c r="C141" s="58" t="s">
         <v>114</v>
       </c>
@@ -15343,366 +15442,366 @@
       <c r="Q141" s="41"/>
       <c r="R141" s="119"/>
       <c r="S141" s="26"/>
-      <c r="T141" s="213"/>
+      <c r="T141" s="200"/>
       <c r="U141" s="19"/>
     </row>
     <row r="142" spans="1:21" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="275"/>
-      <c r="B142" s="266" t="s">
+      <c r="A142" s="289"/>
+      <c r="B142" s="291" t="s">
         <v>193</v>
       </c>
-      <c r="C142" s="185" t="s">
+      <c r="C142" s="255" t="s">
         <v>382</v>
       </c>
-      <c r="D142" s="186" t="s">
+      <c r="D142" s="256" t="s">
         <v>381</v>
       </c>
-      <c r="E142" s="186" t="s">
+      <c r="E142" s="256" t="s">
         <v>404</v>
       </c>
-      <c r="F142" s="186"/>
-      <c r="G142" s="187" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" s="188" t="s">
+      <c r="F142" s="256"/>
+      <c r="G142" s="257" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="I142" s="188"/>
-      <c r="J142" s="189"/>
-      <c r="K142" s="188" t="s">
+      <c r="I142" s="258"/>
+      <c r="J142" s="259"/>
+      <c r="K142" s="258" t="s">
         <v>340</v>
       </c>
-      <c r="L142" s="188" t="s">
+      <c r="L142" s="258" t="s">
         <v>477</v>
       </c>
-      <c r="M142" s="188" t="s">
+      <c r="M142" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="N142" s="190">
+      <c r="N142" s="260">
         <v>9500</v>
       </c>
-      <c r="O142" s="190">
+      <c r="O142" s="260">
         <v>1000</v>
       </c>
-      <c r="P142" s="190"/>
-      <c r="Q142" s="190"/>
-      <c r="R142" s="191"/>
-      <c r="S142" s="192"/>
-      <c r="T142"/>
-      <c r="U142" s="180"/>
+      <c r="P142" s="260"/>
+      <c r="Q142" s="260"/>
+      <c r="R142" s="261"/>
+      <c r="S142" s="262"/>
+      <c r="T142" s="190"/>
+      <c r="U142" s="192"/>
     </row>
     <row r="143" spans="1:21" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="275"/>
-      <c r="B143" s="256"/>
-      <c r="C143" s="160" t="s">
+      <c r="A143" s="289"/>
+      <c r="B143" s="292"/>
+      <c r="C143" s="235" t="s">
         <v>383</v>
       </c>
-      <c r="D143" s="180" t="s">
+      <c r="D143" s="192" t="s">
         <v>381</v>
       </c>
-      <c r="E143" s="180" t="s">
+      <c r="E143" s="192" t="s">
         <v>384</v>
       </c>
-      <c r="F143" s="180"/>
-      <c r="G143" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H143" s="173" t="s">
+      <c r="F143" s="192"/>
+      <c r="G143" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I143" s="173"/>
-      <c r="J143" s="174"/>
-      <c r="K143" s="173" t="s">
+      <c r="I143" s="237"/>
+      <c r="J143" s="238"/>
+      <c r="K143" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L143" s="173" t="s">
+      <c r="L143" s="237" t="s">
         <v>477</v>
       </c>
-      <c r="M143" s="173" t="s">
+      <c r="M143" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="N143" s="175">
+      <c r="N143" s="239">
         <v>8500</v>
       </c>
-      <c r="O143" s="176">
+      <c r="O143" s="240">
         <v>800</v>
       </c>
-      <c r="P143" s="176"/>
-      <c r="Q143" s="176"/>
-      <c r="R143" s="177"/>
-      <c r="S143" s="178"/>
-      <c r="T143"/>
-      <c r="U143" s="180"/>
+      <c r="P143" s="240"/>
+      <c r="Q143" s="240"/>
+      <c r="R143" s="241"/>
+      <c r="S143" s="242"/>
+      <c r="T143" s="190"/>
+      <c r="U143" s="192"/>
     </row>
     <row r="144" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="275"/>
-      <c r="B144" s="256"/>
-      <c r="C144" s="160" t="s">
+      <c r="A144" s="289"/>
+      <c r="B144" s="292"/>
+      <c r="C144" s="235" t="s">
         <v>253</v>
       </c>
-      <c r="D144" s="180" t="s">
+      <c r="D144" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E144" s="162" t="s">
+      <c r="E144" s="248" t="s">
         <v>507</v>
       </c>
-      <c r="F144" s="162"/>
-      <c r="G144" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H144" s="173" t="s">
+      <c r="F144" s="248"/>
+      <c r="G144" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I144" s="173"/>
-      <c r="J144" s="174"/>
-      <c r="K144" s="173" t="s">
+      <c r="I144" s="237"/>
+      <c r="J144" s="238"/>
+      <c r="K144" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="L144" s="181" t="s">
+      <c r="L144" s="245" t="s">
         <v>456</v>
       </c>
-      <c r="M144" s="181" t="s">
+      <c r="M144" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="N144" s="175">
+      <c r="N144" s="239">
         <v>5000</v>
       </c>
-      <c r="O144" s="176">
+      <c r="O144" s="240">
         <v>550</v>
       </c>
-      <c r="P144" s="176"/>
-      <c r="Q144" s="176"/>
-      <c r="R144" s="177"/>
-      <c r="S144" s="178"/>
-      <c r="T144" s="196"/>
-      <c r="U144" s="180" t="s">
+      <c r="P144" s="240"/>
+      <c r="Q144" s="240"/>
+      <c r="R144" s="241"/>
+      <c r="S144" s="242"/>
+      <c r="T144" s="247"/>
+      <c r="U144" s="192" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="289"/>
+      <c r="B145" s="292"/>
+      <c r="C145" s="227" t="s">
+        <v>598</v>
+      </c>
+      <c r="D145" s="217" t="s">
+        <v>71</v>
+      </c>
+      <c r="E145" s="218" t="s">
+        <v>783</v>
+      </c>
+      <c r="F145" s="218"/>
+      <c r="G145" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="219"/>
+      <c r="I145" s="219"/>
+      <c r="J145" s="228"/>
+      <c r="K145" s="219" t="s">
+        <v>743</v>
+      </c>
+      <c r="L145" s="229" t="s">
+        <v>456</v>
+      </c>
+      <c r="M145" s="229"/>
+      <c r="N145" s="221">
+        <v>6800</v>
+      </c>
+      <c r="O145" s="222"/>
+      <c r="P145" s="222"/>
+      <c r="Q145" s="222"/>
+      <c r="R145" s="223"/>
+      <c r="S145" s="224"/>
+      <c r="T145" s="205"/>
+      <c r="U145" s="217"/>
+    </row>
+    <row r="146" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="289"/>
+      <c r="B146" s="292"/>
+      <c r="C146" s="235" t="s">
+        <v>406</v>
+      </c>
+      <c r="D146" s="192" t="s">
+        <v>225</v>
+      </c>
+      <c r="E146" s="248" t="s">
+        <v>407</v>
+      </c>
+      <c r="F146" s="248"/>
+      <c r="G146" s="236" t="s">
+        <v>408</v>
+      </c>
+      <c r="H146" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="I146" s="237"/>
+      <c r="J146" s="238"/>
+      <c r="K146" s="237" t="s">
+        <v>340</v>
+      </c>
+      <c r="L146" s="237" t="s">
+        <v>456</v>
+      </c>
+      <c r="M146" s="237" t="s">
+        <v>473</v>
+      </c>
+      <c r="N146" s="239">
+        <v>7000</v>
+      </c>
+      <c r="O146" s="239">
+        <v>900</v>
+      </c>
+      <c r="P146" s="239"/>
+      <c r="Q146" s="239"/>
+      <c r="R146" s="246"/>
+      <c r="S146" s="242"/>
+      <c r="T146" s="247"/>
+      <c r="U146" s="192" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="289"/>
+      <c r="B147" s="292"/>
+      <c r="C147" s="235" t="s">
+        <v>366</v>
+      </c>
+      <c r="D147" s="192" t="s">
+        <v>381</v>
+      </c>
+      <c r="E147" s="254" t="s">
+        <v>508</v>
+      </c>
+      <c r="F147" s="254"/>
+      <c r="G147" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="I147" s="237"/>
+      <c r="J147" s="238"/>
+      <c r="K147" s="237" t="s">
+        <v>340</v>
+      </c>
+      <c r="L147" s="237" t="s">
+        <v>477</v>
+      </c>
+      <c r="M147" s="237"/>
+      <c r="N147" s="239">
+        <v>8500</v>
+      </c>
+      <c r="O147" s="240">
+        <v>800</v>
+      </c>
+      <c r="P147" s="240"/>
+      <c r="Q147" s="240"/>
+      <c r="R147" s="241"/>
+      <c r="S147" s="242"/>
+      <c r="T147" s="247"/>
+      <c r="U147" s="192" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="289"/>
+      <c r="B148" s="292"/>
+      <c r="C148" s="235" t="s">
+        <v>423</v>
+      </c>
+      <c r="D148" s="192" t="s">
+        <v>225</v>
+      </c>
+      <c r="E148" s="248" t="s">
+        <v>422</v>
+      </c>
+      <c r="F148" s="248"/>
+      <c r="G148" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="I148" s="237" t="s">
+        <v>98</v>
+      </c>
+      <c r="J148" s="238"/>
+      <c r="K148" s="237" t="s">
+        <v>340</v>
+      </c>
+      <c r="L148" s="237" t="s">
+        <v>456</v>
+      </c>
+      <c r="M148" s="237" t="s">
+        <v>473</v>
+      </c>
+      <c r="N148" s="239">
+        <v>5200</v>
+      </c>
+      <c r="O148" s="239">
+        <v>600</v>
+      </c>
+      <c r="P148" s="239"/>
+      <c r="Q148" s="239"/>
+      <c r="R148" s="246"/>
+      <c r="S148" s="242"/>
+      <c r="T148" s="190"/>
+      <c r="U148" s="192" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="275"/>
-      <c r="B145" s="256"/>
-      <c r="C145" s="240" t="s">
-        <v>598</v>
-      </c>
-      <c r="D145" s="230" t="s">
+    <row r="149" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="289"/>
+      <c r="B149" s="292"/>
+      <c r="C149" s="235" t="s">
+        <v>344</v>
+      </c>
+      <c r="D149" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E145" s="231" t="s">
-        <v>744</v>
-      </c>
-      <c r="F145" s="231"/>
-      <c r="G145" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="H145" s="232"/>
-      <c r="I145" s="232"/>
-      <c r="J145" s="241"/>
-      <c r="K145" s="232" t="s">
-        <v>241</v>
-      </c>
-      <c r="L145" s="242" t="s">
+      <c r="E149" s="248" t="s">
+        <v>375</v>
+      </c>
+      <c r="F149" s="248"/>
+      <c r="G149" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="I149" s="237"/>
+      <c r="J149" s="238"/>
+      <c r="K149" s="237" t="s">
+        <v>340</v>
+      </c>
+      <c r="L149" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M145" s="242"/>
-      <c r="N145" s="234">
-        <v>6800</v>
-      </c>
-      <c r="O145" s="235"/>
-      <c r="P145" s="235"/>
-      <c r="Q145" s="235"/>
-      <c r="R145" s="236"/>
-      <c r="S145" s="237"/>
-      <c r="T145" s="218"/>
-      <c r="U145" s="230"/>
-    </row>
-    <row r="146" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="275"/>
-      <c r="B146" s="256"/>
-      <c r="C146" s="160" t="s">
-        <v>406</v>
-      </c>
-      <c r="D146" s="180" t="s">
-        <v>225</v>
-      </c>
-      <c r="E146" s="162" t="s">
-        <v>407</v>
-      </c>
-      <c r="F146" s="162"/>
-      <c r="G146" s="172" t="s">
-        <v>408</v>
-      </c>
-      <c r="H146" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="I146" s="173"/>
-      <c r="J146" s="174"/>
-      <c r="K146" s="173" t="s">
-        <v>340</v>
-      </c>
-      <c r="L146" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="M146" s="173" t="s">
+      <c r="M149" s="237" t="s">
         <v>473</v>
       </c>
-      <c r="N146" s="175">
-        <v>7000</v>
-      </c>
-      <c r="O146" s="175">
-        <v>900</v>
-      </c>
-      <c r="P146" s="175"/>
-      <c r="Q146" s="175"/>
-      <c r="R146" s="193"/>
-      <c r="S146" s="178"/>
-      <c r="T146" s="196"/>
-      <c r="U146" s="180" t="s">
+      <c r="N149" s="239">
+        <v>5500</v>
+      </c>
+      <c r="O149" s="239">
+        <v>500</v>
+      </c>
+      <c r="P149" s="239"/>
+      <c r="Q149" s="239"/>
+      <c r="R149" s="246"/>
+      <c r="S149" s="242"/>
+      <c r="T149" s="190"/>
+      <c r="U149" s="192" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="275"/>
-      <c r="B147" s="256"/>
-      <c r="C147" s="160" t="s">
-        <v>366</v>
-      </c>
-      <c r="D147" s="180" t="s">
-        <v>381</v>
-      </c>
-      <c r="E147" s="171" t="s">
-        <v>508</v>
-      </c>
-      <c r="F147" s="171"/>
-      <c r="G147" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H147" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="I147" s="173"/>
-      <c r="J147" s="174"/>
-      <c r="K147" s="173" t="s">
-        <v>340</v>
-      </c>
-      <c r="L147" s="173" t="s">
-        <v>477</v>
-      </c>
-      <c r="M147" s="173"/>
-      <c r="N147" s="175">
-        <v>8500</v>
-      </c>
-      <c r="O147" s="176">
-        <v>800</v>
-      </c>
-      <c r="P147" s="176"/>
-      <c r="Q147" s="176"/>
-      <c r="R147" s="177"/>
-      <c r="S147" s="178"/>
-      <c r="T147" s="196"/>
-      <c r="U147" s="180" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="275"/>
-      <c r="B148" s="256"/>
-      <c r="C148" s="160" t="s">
-        <v>423</v>
-      </c>
-      <c r="D148" s="180" t="s">
-        <v>225</v>
-      </c>
-      <c r="E148" s="162" t="s">
-        <v>422</v>
-      </c>
-      <c r="F148" s="162"/>
-      <c r="G148" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="I148" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="J148" s="174"/>
-      <c r="K148" s="173" t="s">
-        <v>340</v>
-      </c>
-      <c r="L148" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="M148" s="173" t="s">
-        <v>473</v>
-      </c>
-      <c r="N148" s="175">
-        <v>5200</v>
-      </c>
-      <c r="O148" s="175">
-        <v>600</v>
-      </c>
-      <c r="P148" s="175"/>
-      <c r="Q148" s="175"/>
-      <c r="R148" s="193"/>
-      <c r="S148" s="178"/>
-      <c r="T148"/>
-      <c r="U148" s="180" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="275"/>
-      <c r="B149" s="256"/>
-      <c r="C149" s="160" t="s">
-        <v>344</v>
-      </c>
-      <c r="D149" s="180" t="s">
-        <v>71</v>
-      </c>
-      <c r="E149" s="162" t="s">
-        <v>375</v>
-      </c>
-      <c r="F149" s="162"/>
-      <c r="G149" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="I149" s="173"/>
-      <c r="J149" s="174"/>
-      <c r="K149" s="173" t="s">
-        <v>340</v>
-      </c>
-      <c r="L149" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="M149" s="173" t="s">
-        <v>473</v>
-      </c>
-      <c r="N149" s="175">
-        <v>5500</v>
-      </c>
-      <c r="O149" s="175">
-        <v>500</v>
-      </c>
-      <c r="P149" s="175"/>
-      <c r="Q149" s="175"/>
-      <c r="R149" s="193"/>
-      <c r="S149" s="178"/>
-      <c r="T149"/>
-      <c r="U149" s="180" t="s">
-        <v>775</v>
-      </c>
-    </row>
     <row r="150" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="275"/>
-      <c r="B150" s="256"/>
+      <c r="A150" s="289"/>
+      <c r="B150" s="292"/>
       <c r="C150" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="D150" s="180" t="s">
+      <c r="D150" s="179" t="s">
         <v>225</v>
       </c>
       <c r="E150" s="162" t="s">
@@ -15736,63 +15835,63 @@
       </c>
       <c r="P150" s="175"/>
       <c r="Q150" s="175"/>
-      <c r="R150" s="193"/>
+      <c r="R150" s="182"/>
       <c r="S150" s="178"/>
-      <c r="T150" s="196"/>
-      <c r="U150" s="180" t="s">
-        <v>776</v>
+      <c r="T150" s="185"/>
+      <c r="U150" s="179" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="151" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="275"/>
-      <c r="B151" s="256"/>
-      <c r="C151" s="160" t="s">
+      <c r="A151" s="289"/>
+      <c r="B151" s="292"/>
+      <c r="C151" s="235" t="s">
         <v>405</v>
       </c>
-      <c r="D151" s="180" t="s">
+      <c r="D151" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E151" s="162" t="s">
+      <c r="E151" s="248" t="s">
         <v>509</v>
       </c>
-      <c r="F151" s="162"/>
-      <c r="G151" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" s="173" t="s">
+      <c r="F151" s="248"/>
+      <c r="G151" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I151" s="173"/>
-      <c r="J151" s="174"/>
-      <c r="K151" s="173" t="s">
+      <c r="I151" s="237"/>
+      <c r="J151" s="238"/>
+      <c r="K151" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L151" s="173" t="s">
+      <c r="L151" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M151" s="173" t="s">
+      <c r="M151" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N151" s="175">
+      <c r="N151" s="239">
         <v>5000</v>
       </c>
-      <c r="O151" s="175" t="s">
+      <c r="O151" s="239" t="s">
         <v>57</v>
       </c>
-      <c r="P151" s="175"/>
-      <c r="Q151" s="175"/>
-      <c r="R151" s="193"/>
-      <c r="S151" s="178"/>
-      <c r="T151" s="196"/>
-      <c r="U151" s="180"/>
+      <c r="P151" s="239"/>
+      <c r="Q151" s="239"/>
+      <c r="R151" s="246"/>
+      <c r="S151" s="242"/>
+      <c r="T151" s="247"/>
+      <c r="U151" s="192"/>
     </row>
     <row r="152" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="275"/>
-      <c r="B152" s="256"/>
+      <c r="A152" s="289"/>
+      <c r="B152" s="292"/>
       <c r="C152" s="160" t="s">
         <v>380</v>
       </c>
-      <c r="D152" s="180" t="s">
+      <c r="D152" s="179" t="s">
         <v>381</v>
       </c>
       <c r="E152" s="162" t="s">
@@ -15810,10 +15909,10 @@
       <c r="K152" s="173" t="s">
         <v>340</v>
       </c>
-      <c r="L152" s="181" t="s">
+      <c r="L152" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="M152" s="181" t="s">
+      <c r="M152" s="180" t="s">
         <v>473</v>
       </c>
       <c r="N152" s="175">
@@ -15826,190 +15925,190 @@
       <c r="Q152" s="176"/>
       <c r="R152" s="177"/>
       <c r="S152" s="178"/>
-      <c r="T152" s="196"/>
-      <c r="U152" s="180" t="s">
-        <v>777</v>
+      <c r="T152" s="185"/>
+      <c r="U152" s="179" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="153" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="275"/>
-      <c r="B153" s="256"/>
-      <c r="C153" s="160" t="s">
+      <c r="A153" s="289"/>
+      <c r="B153" s="292"/>
+      <c r="C153" s="235" t="s">
         <v>417</v>
       </c>
-      <c r="D153" s="180" t="s">
+      <c r="D153" s="192" t="s">
         <v>225</v>
       </c>
-      <c r="E153" s="162" t="s">
+      <c r="E153" s="248" t="s">
         <v>418</v>
       </c>
-      <c r="F153" s="162"/>
-      <c r="G153" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H153" s="173" t="s">
+      <c r="F153" s="248"/>
+      <c r="G153" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I153" s="173"/>
-      <c r="J153" s="174"/>
-      <c r="K153" s="173" t="s">
+      <c r="I153" s="237"/>
+      <c r="J153" s="238"/>
+      <c r="K153" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L153" s="173" t="s">
+      <c r="L153" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M153" s="173" t="s">
+      <c r="M153" s="237" t="s">
         <v>473</v>
       </c>
-      <c r="N153" s="175">
+      <c r="N153" s="239">
         <v>6800</v>
       </c>
-      <c r="O153" s="176">
+      <c r="O153" s="240">
         <v>700</v>
       </c>
-      <c r="P153" s="176"/>
-      <c r="Q153" s="176"/>
-      <c r="R153" s="177"/>
-      <c r="S153" s="178"/>
-      <c r="T153"/>
-      <c r="U153" s="180"/>
+      <c r="P153" s="240"/>
+      <c r="Q153" s="240"/>
+      <c r="R153" s="241"/>
+      <c r="S153" s="242"/>
+      <c r="T153" s="190"/>
+      <c r="U153" s="192"/>
     </row>
     <row r="154" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="275"/>
-      <c r="B154" s="256"/>
-      <c r="C154" s="160" t="s">
+      <c r="A154" s="289"/>
+      <c r="B154" s="292"/>
+      <c r="C154" s="235" t="s">
         <v>390</v>
       </c>
-      <c r="D154" s="180" t="s">
+      <c r="D154" s="192" t="s">
         <v>225</v>
       </c>
-      <c r="E154" s="250" t="s">
+      <c r="E154" s="190" t="s">
         <v>391</v>
       </c>
-      <c r="F154" s="250"/>
-      <c r="G154" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" s="173" t="s">
+      <c r="F154" s="190"/>
+      <c r="G154" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I154" s="173"/>
-      <c r="J154" s="174"/>
-      <c r="K154" s="173" t="s">
+      <c r="I154" s="237"/>
+      <c r="J154" s="238"/>
+      <c r="K154" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L154" s="173" t="s">
+      <c r="L154" s="237" t="s">
         <v>456</v>
       </c>
-      <c r="M154" s="173" t="s">
+      <c r="M154" s="237" t="s">
         <v>473</v>
       </c>
-      <c r="N154" s="175">
+      <c r="N154" s="239">
         <v>6900</v>
       </c>
-      <c r="O154" s="175">
+      <c r="O154" s="239">
         <v>700</v>
       </c>
-      <c r="P154" s="175"/>
-      <c r="Q154" s="175"/>
-      <c r="R154" s="193"/>
-      <c r="S154" s="178"/>
-      <c r="T154" s="196"/>
-      <c r="U154" s="180" t="s">
-        <v>762</v>
+      <c r="P154" s="239"/>
+      <c r="Q154" s="239"/>
+      <c r="R154" s="246"/>
+      <c r="S154" s="242"/>
+      <c r="T154" s="247"/>
+      <c r="U154" s="192" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="155" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="275"/>
-      <c r="B155" s="256"/>
-      <c r="C155" s="194" t="s">
+      <c r="A155" s="289"/>
+      <c r="B155" s="292"/>
+      <c r="C155" s="263" t="s">
         <v>504</v>
       </c>
-      <c r="D155" s="180" t="s">
+      <c r="D155" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E155" s="180" t="s">
+      <c r="E155" s="192" t="s">
         <v>505</v>
       </c>
-      <c r="F155" s="180"/>
-      <c r="G155" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" s="173" t="s">
+      <c r="F155" s="192"/>
+      <c r="G155" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="I155" s="173" t="s">
+      <c r="I155" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="J155" s="197"/>
-      <c r="K155" s="173" t="s">
+      <c r="J155" s="270"/>
+      <c r="K155" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L155" s="181" t="s">
+      <c r="L155" s="245" t="s">
         <v>456</v>
       </c>
-      <c r="M155" s="181" t="s">
+      <c r="M155" s="245" t="s">
         <v>461</v>
       </c>
-      <c r="N155" s="175">
+      <c r="N155" s="239">
         <v>5500</v>
       </c>
-      <c r="O155" s="176">
+      <c r="O155" s="240">
         <v>400</v>
       </c>
-      <c r="P155" s="176"/>
-      <c r="Q155" s="176"/>
-      <c r="R155" s="177"/>
-      <c r="S155" s="178"/>
-      <c r="T155"/>
-      <c r="U155" s="180"/>
+      <c r="P155" s="240"/>
+      <c r="Q155" s="240"/>
+      <c r="R155" s="241"/>
+      <c r="S155" s="242"/>
+      <c r="T155" s="190"/>
+      <c r="U155" s="192"/>
     </row>
     <row r="156" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="275"/>
-      <c r="B156" s="256"/>
-      <c r="C156" s="194" t="s">
+      <c r="A156" s="289"/>
+      <c r="B156" s="292"/>
+      <c r="C156" s="263" t="s">
         <v>254</v>
       </c>
-      <c r="D156" s="180" t="s">
+      <c r="D156" s="192" t="s">
         <v>175</v>
       </c>
-      <c r="E156" s="171" t="s">
+      <c r="E156" s="254" t="s">
         <v>512</v>
       </c>
-      <c r="F156" s="171"/>
-      <c r="G156" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" s="173" t="s">
+      <c r="F156" s="254"/>
+      <c r="G156" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I156" s="173"/>
-      <c r="J156" s="197"/>
-      <c r="K156" s="173" t="s">
+      <c r="I156" s="237"/>
+      <c r="J156" s="270"/>
+      <c r="K156" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="L156" s="173" t="s">
+      <c r="L156" s="237" t="s">
         <v>511</v>
       </c>
-      <c r="M156" s="173" t="s">
+      <c r="M156" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N156" s="175">
+      <c r="N156" s="239">
         <v>6000</v>
       </c>
-      <c r="O156" s="176">
+      <c r="O156" s="240">
         <v>400</v>
       </c>
-      <c r="P156" s="176"/>
-      <c r="Q156" s="176"/>
-      <c r="R156" s="177"/>
-      <c r="S156" s="178"/>
-      <c r="T156"/>
-      <c r="U156" s="180"/>
+      <c r="P156" s="240"/>
+      <c r="Q156" s="240"/>
+      <c r="R156" s="241"/>
+      <c r="S156" s="242"/>
+      <c r="T156" s="190"/>
+      <c r="U156" s="192"/>
     </row>
     <row r="157" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="275"/>
-      <c r="B157" s="256"/>
+      <c r="A157" s="289"/>
+      <c r="B157" s="292"/>
       <c r="C157" s="63" t="s">
         <v>430</v>
       </c>
@@ -16050,8 +16149,8 @@
       <c r="T157" s="138"/>
     </row>
     <row r="158" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="275"/>
-      <c r="B158" s="256"/>
+      <c r="A158" s="289"/>
+      <c r="B158" s="292"/>
       <c r="C158" s="63" t="s">
         <v>419</v>
       </c>
@@ -16092,8 +16191,8 @@
       <c r="T158" s="138"/>
     </row>
     <row r="159" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="275"/>
-      <c r="B159" s="256"/>
+      <c r="A159" s="289"/>
+      <c r="B159" s="292"/>
       <c r="C159" s="63" t="s">
         <v>309</v>
       </c>
@@ -16136,238 +16235,239 @@
       <c r="T159" s="138"/>
     </row>
     <row r="160" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="275"/>
-      <c r="B160" s="256"/>
-      <c r="C160" s="194" t="s">
+      <c r="A160" s="289"/>
+      <c r="B160" s="292"/>
+      <c r="C160" s="263" t="s">
         <v>352</v>
       </c>
-      <c r="D160" s="198" t="s">
+      <c r="D160" s="271" t="s">
         <v>528</v>
       </c>
-      <c r="E160" s="162" t="s">
+      <c r="E160" s="248" t="s">
         <v>353</v>
       </c>
-      <c r="F160" s="162"/>
-      <c r="G160" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="173" t="s">
+      <c r="F160" s="248"/>
+      <c r="G160" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="237" t="s">
         <v>677</v>
       </c>
-      <c r="I160" s="173" t="s">
+      <c r="I160" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="J160" s="197"/>
-      <c r="K160" s="173" t="s">
+      <c r="J160" s="270"/>
+      <c r="K160" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L160" s="181" t="s">
+      <c r="L160" s="245" t="s">
         <v>456</v>
       </c>
-      <c r="M160" s="181" t="s">
+      <c r="M160" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="N160" s="175">
+      <c r="N160" s="239">
         <v>5600</v>
       </c>
-      <c r="O160" s="176">
+      <c r="O160" s="240">
         <v>600</v>
       </c>
-      <c r="P160" s="176"/>
-      <c r="Q160" s="176"/>
-      <c r="R160" s="177"/>
-      <c r="S160" s="178"/>
-      <c r="T160"/>
-      <c r="U160" s="180"/>
+      <c r="P160" s="240"/>
+      <c r="Q160" s="240"/>
+      <c r="R160" s="241"/>
+      <c r="S160" s="242"/>
+      <c r="T160" s="190"/>
+      <c r="U160" s="192"/>
     </row>
     <row r="161" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="276"/>
-      <c r="B161" s="256"/>
-      <c r="C161" s="63" t="s">
+      <c r="A161" s="290"/>
+      <c r="B161" s="292"/>
+      <c r="C161" s="263" t="s">
         <v>210</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="E161" s="46" t="s">
+      <c r="E161" s="248" t="s">
         <v>502</v>
       </c>
-      <c r="F161" s="46"/>
-      <c r="G161" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="25" t="s">
+      <c r="F161" s="248"/>
+      <c r="G161" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I161" s="25"/>
-      <c r="J161" s="73"/>
-      <c r="K161" s="25" t="s">
+      <c r="I161" s="237"/>
+      <c r="J161" s="270"/>
+      <c r="K161" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="L161" s="30" t="s">
+      <c r="L161" s="245" t="s">
         <v>456</v>
       </c>
-      <c r="M161" s="30" t="s">
+      <c r="M161" s="245" t="s">
         <v>473</v>
       </c>
-      <c r="N161" s="40">
+      <c r="N161" s="239">
         <v>6500</v>
       </c>
-      <c r="O161" s="41">
+      <c r="O161" s="240">
         <v>600</v>
       </c>
-      <c r="P161" s="41"/>
-      <c r="Q161" s="41"/>
-      <c r="R161" s="119"/>
-      <c r="S161" s="31"/>
-      <c r="T161" s="207"/>
+      <c r="P161" s="240"/>
+      <c r="Q161" s="240"/>
+      <c r="R161" s="241"/>
+      <c r="S161" s="251"/>
+      <c r="T161" s="243"/>
+      <c r="U161" s="192"/>
     </row>
     <row r="162" spans="1:21" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="264" t="s">
+      <c r="A162" s="310" t="s">
         <v>112</v>
       </c>
-      <c r="B162" s="255" t="s">
+      <c r="B162" s="305" t="s">
         <v>193</v>
       </c>
-      <c r="C162" s="163" t="s">
+      <c r="C162" s="272" t="s">
         <v>515</v>
       </c>
-      <c r="D162" s="164" t="s">
+      <c r="D162" s="273" t="s">
         <v>349</v>
       </c>
-      <c r="E162" s="199" t="s">
+      <c r="E162" s="274" t="s">
         <v>434</v>
       </c>
-      <c r="F162" s="199"/>
-      <c r="G162" s="165" t="s">
-        <v>8</v>
-      </c>
-      <c r="H162" s="166" t="s">
+      <c r="F162" s="274"/>
+      <c r="G162" s="275" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="276" t="s">
         <v>78</v>
       </c>
-      <c r="I162" s="166" t="s">
+      <c r="I162" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="J162" s="167">
+      <c r="J162" s="277">
         <v>5</v>
       </c>
-      <c r="K162" s="166" t="s">
+      <c r="K162" s="276" t="s">
         <v>340</v>
       </c>
-      <c r="L162" s="166" t="s">
+      <c r="L162" s="276" t="s">
         <v>469</v>
       </c>
-      <c r="M162" s="166" t="s">
+      <c r="M162" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="N162" s="168">
+      <c r="N162" s="278">
         <v>3000</v>
       </c>
-      <c r="O162" s="168">
+      <c r="O162" s="278">
         <v>500</v>
       </c>
-      <c r="P162" s="168"/>
-      <c r="Q162" s="168"/>
-      <c r="R162" s="169"/>
-      <c r="S162" s="170"/>
-      <c r="T162"/>
-      <c r="U162" s="164"/>
+      <c r="P162" s="278"/>
+      <c r="Q162" s="278"/>
+      <c r="R162" s="279"/>
+      <c r="S162" s="280"/>
+      <c r="T162" s="190"/>
+      <c r="U162" s="273"/>
     </row>
     <row r="163" spans="1:21" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="264"/>
-      <c r="B163" s="256"/>
-      <c r="C163" s="160" t="s">
+      <c r="A163" s="310"/>
+      <c r="B163" s="292"/>
+      <c r="C163" s="235" t="s">
         <v>348</v>
       </c>
-      <c r="D163" s="180" t="s">
+      <c r="D163" s="192" t="s">
         <v>349</v>
       </c>
-      <c r="E163" s="162" t="s">
+      <c r="E163" s="248" t="s">
         <v>350</v>
       </c>
-      <c r="F163" s="162"/>
-      <c r="G163" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="173" t="s">
+      <c r="F163" s="248"/>
+      <c r="G163" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="I163" s="173" t="s">
+      <c r="I163" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="J163" s="174">
+      <c r="J163" s="238">
         <v>4</v>
       </c>
-      <c r="K163" s="173" t="s">
+      <c r="K163" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L163" s="173" t="s">
+      <c r="L163" s="237" t="s">
         <v>469</v>
       </c>
-      <c r="M163" s="173" t="s">
+      <c r="M163" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="N163" s="175">
+      <c r="N163" s="239">
         <v>3000</v>
       </c>
-      <c r="O163" s="176">
+      <c r="O163" s="240">
         <v>500</v>
       </c>
-      <c r="P163" s="176"/>
-      <c r="Q163" s="176"/>
-      <c r="R163" s="177"/>
-      <c r="S163" s="178"/>
-      <c r="T163"/>
-      <c r="U163" s="200"/>
+      <c r="P163" s="240"/>
+      <c r="Q163" s="240"/>
+      <c r="R163" s="241"/>
+      <c r="S163" s="242"/>
+      <c r="T163" s="190"/>
+      <c r="U163" s="281"/>
     </row>
     <row r="164" spans="1:21" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="264"/>
-      <c r="B164" s="256"/>
-      <c r="C164" s="229" t="s">
+      <c r="A164" s="310"/>
+      <c r="B164" s="292"/>
+      <c r="C164" s="216" t="s">
         <v>740</v>
       </c>
-      <c r="D164" s="230" t="s">
+      <c r="D164" s="217" t="s">
         <v>741</v>
       </c>
-      <c r="E164" s="231" t="s">
+      <c r="E164" s="218" t="s">
         <v>742</v>
       </c>
-      <c r="F164" s="231"/>
+      <c r="F164" s="218"/>
       <c r="G164" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H164" s="232"/>
-      <c r="I164" s="232"/>
-      <c r="J164" s="233"/>
-      <c r="K164" s="232" t="s">
+      <c r="H164" s="219"/>
+      <c r="I164" s="219"/>
+      <c r="J164" s="220"/>
+      <c r="K164" s="219" t="s">
         <v>743</v>
       </c>
-      <c r="L164" s="232" t="s">
+      <c r="L164" s="219" t="s">
         <v>456</v>
       </c>
-      <c r="M164" s="232" t="s">
+      <c r="M164" s="219" t="s">
         <v>678</v>
       </c>
-      <c r="N164" s="234">
+      <c r="N164" s="221">
         <v>7000</v>
       </c>
-      <c r="O164" s="235">
+      <c r="O164" s="222">
         <v>1000</v>
       </c>
-      <c r="P164" s="235"/>
-      <c r="Q164" s="235"/>
-      <c r="R164" s="236"/>
-      <c r="S164" s="237"/>
-      <c r="T164" s="238"/>
-      <c r="U164" s="239"/>
+      <c r="P164" s="222"/>
+      <c r="Q164" s="222"/>
+      <c r="R164" s="223"/>
+      <c r="S164" s="224"/>
+      <c r="T164" s="225"/>
+      <c r="U164" s="226"/>
     </row>
     <row r="165" spans="1:21" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="264"/>
-      <c r="B165" s="256"/>
+      <c r="A165" s="310"/>
+      <c r="B165" s="292"/>
       <c r="C165" s="160" t="s">
         <v>376</v>
       </c>
-      <c r="D165" s="180" t="s">
+      <c r="D165" s="179" t="s">
         <v>168</v>
       </c>
       <c r="E165" s="162" t="s">
@@ -16405,18 +16505,18 @@
       <c r="Q165" s="176"/>
       <c r="R165" s="177"/>
       <c r="S165" s="178"/>
-      <c r="T165" s="213"/>
-      <c r="U165" s="200" t="s">
-        <v>778</v>
+      <c r="T165" s="200"/>
+      <c r="U165" s="187" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="166" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="264"/>
-      <c r="B166" s="256"/>
+      <c r="A166" s="310"/>
+      <c r="B166" s="292"/>
       <c r="C166" s="160" t="s">
         <v>248</v>
       </c>
-      <c r="D166" s="180" t="s">
+      <c r="D166" s="179" t="s">
         <v>168</v>
       </c>
       <c r="E166" s="162" t="s">
@@ -16450,45 +16550,45 @@
       <c r="O166" s="175"/>
       <c r="P166" s="175"/>
       <c r="Q166" s="175"/>
-      <c r="R166" s="193"/>
+      <c r="R166" s="182"/>
       <c r="S166" s="178"/>
-      <c r="T166" s="196"/>
-      <c r="U166" s="200" t="s">
-        <v>778</v>
+      <c r="T166" s="185"/>
+      <c r="U166" s="187" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="167" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="264"/>
-      <c r="B167" s="256"/>
-      <c r="C167" s="247" t="s">
+      <c r="A167" s="310"/>
+      <c r="B167" s="292"/>
+      <c r="C167" s="232" t="s">
         <v>385</v>
       </c>
       <c r="D167" s="161" t="s">
         <v>175</v>
       </c>
-      <c r="E167" s="248" t="s">
+      <c r="E167" s="233" t="s">
         <v>510</v>
       </c>
-      <c r="F167" s="248"/>
-      <c r="G167" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="181" t="s">
+      <c r="F167" s="233"/>
+      <c r="G167" s="181" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="I167" s="181" t="s">
+      <c r="I167" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="J167" s="197">
+      <c r="J167" s="186">
         <v>5</v>
       </c>
-      <c r="K167" s="181" t="s">
+      <c r="K167" s="180" t="s">
         <v>340</v>
       </c>
-      <c r="L167" s="181" t="s">
+      <c r="L167" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="M167" s="181" t="s">
+      <c r="M167" s="180" t="s">
         <v>473</v>
       </c>
       <c r="N167" s="175">
@@ -16499,16 +16599,16 @@
       </c>
       <c r="P167" s="175"/>
       <c r="Q167" s="175"/>
-      <c r="R167" s="193"/>
+      <c r="R167" s="182"/>
       <c r="S167" s="178"/>
-      <c r="T167" s="211"/>
-      <c r="U167" s="200" t="s">
-        <v>778</v>
+      <c r="T167" s="198"/>
+      <c r="U167" s="187" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="168" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="264"/>
-      <c r="B168" s="256"/>
+      <c r="A168" s="310"/>
+      <c r="B168" s="292"/>
       <c r="C168" s="58" t="s">
         <v>358</v>
       </c>
@@ -16548,11 +16648,11 @@
       <c r="Q168" s="40"/>
       <c r="R168" s="118"/>
       <c r="S168" s="26"/>
-      <c r="T168" s="211"/>
+      <c r="T168" s="198"/>
     </row>
     <row r="169" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="264"/>
-      <c r="B169" s="257"/>
+      <c r="A169" s="310"/>
+      <c r="B169" s="297"/>
       <c r="C169" s="58" t="s">
         <v>386</v>
       </c>
@@ -16592,10 +16692,10 @@
       <c r="Q169" s="41"/>
       <c r="R169" s="119"/>
       <c r="S169" s="31"/>
-      <c r="T169" s="207"/>
+      <c r="T169" s="194"/>
     </row>
     <row r="170" spans="1:21" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="265" t="s">
+      <c r="A170" s="311" t="s">
         <v>517</v>
       </c>
       <c r="B170" s="70" t="s">
@@ -16636,11 +16736,11 @@
       <c r="Q170" s="66"/>
       <c r="R170" s="123"/>
       <c r="S170" s="69"/>
-      <c r="T170" s="214"/>
+      <c r="T170" s="201"/>
     </row>
     <row r="171" spans="1:21" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="265"/>
-      <c r="B171" s="266" t="s">
+      <c r="A171" s="311"/>
+      <c r="B171" s="291" t="s">
         <v>193</v>
       </c>
       <c r="C171" s="58" t="s">
@@ -16676,11 +16776,11 @@
       <c r="Q171" s="54"/>
       <c r="R171" s="122"/>
       <c r="S171" s="55"/>
-      <c r="T171" s="206"/>
+      <c r="T171" s="193"/>
     </row>
     <row r="172" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="265"/>
-      <c r="B172" s="256"/>
+      <c r="A172" s="311"/>
+      <c r="B172" s="292"/>
       <c r="C172" s="58" t="s">
         <v>195</v>
       </c>
@@ -16716,8 +16816,8 @@
       <c r="T172" s="138"/>
     </row>
     <row r="173" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="265"/>
-      <c r="B173" s="256"/>
+      <c r="A173" s="311"/>
+      <c r="B173" s="292"/>
       <c r="C173" s="58" t="s">
         <v>257</v>
       </c>
@@ -16758,47 +16858,49 @@
       <c r="T173" s="138"/>
     </row>
     <row r="174" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="265"/>
-      <c r="B174" s="256"/>
-      <c r="C174" s="58" t="s">
+      <c r="A174" s="311"/>
+      <c r="B174" s="292"/>
+      <c r="C174" s="235" t="s">
         <v>401</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="192" t="s">
         <v>181</v>
       </c>
-      <c r="E174" s="23" t="s">
+      <c r="E174" s="192" t="s">
         <v>427</v>
       </c>
-      <c r="G174" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H174" s="25" t="s">
+      <c r="F174" s="192"/>
+      <c r="G174" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="I174" s="25"/>
-      <c r="J174" s="72"/>
-      <c r="K174" s="25" t="s">
+      <c r="I174" s="237"/>
+      <c r="J174" s="238"/>
+      <c r="K174" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="L174" s="25" t="s">
+      <c r="L174" s="237" t="s">
         <v>477</v>
       </c>
-      <c r="M174" s="25" t="s">
+      <c r="M174" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="N174" s="40">
+      <c r="N174" s="239">
         <v>8000</v>
       </c>
-      <c r="O174" s="40"/>
-      <c r="P174" s="40"/>
-      <c r="Q174" s="40"/>
-      <c r="R174" s="118"/>
-      <c r="S174" s="26"/>
-      <c r="T174" s="138"/>
+      <c r="O174" s="239"/>
+      <c r="P174" s="239"/>
+      <c r="Q174" s="239"/>
+      <c r="R174" s="246"/>
+      <c r="S174" s="242"/>
+      <c r="T174" s="247"/>
+      <c r="U174" s="192"/>
     </row>
     <row r="175" spans="1:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="265"/>
-      <c r="B175" s="267"/>
+      <c r="A175" s="311"/>
+      <c r="B175" s="312"/>
       <c r="C175" s="58" t="s">
         <v>402</v>
       </c>
@@ -16837,10 +16939,10 @@
       <c r="T175" s="138"/>
     </row>
     <row r="176" spans="1:21" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="254" t="s">
+      <c r="A176" s="304" t="s">
         <v>113</v>
       </c>
-      <c r="B176" s="260" t="s">
+      <c r="B176" s="308" t="s">
         <v>51</v>
       </c>
       <c r="C176" s="60" t="s">
@@ -16878,11 +16980,11 @@
       <c r="Q176" s="42"/>
       <c r="R176" s="121"/>
       <c r="S176" s="36"/>
-      <c r="T176" s="210"/>
+      <c r="T176" s="197"/>
     </row>
     <row r="177" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="254"/>
-      <c r="B177" s="261"/>
+      <c r="A177" s="304"/>
+      <c r="B177" s="285"/>
       <c r="C177" s="58" t="s">
         <v>184</v>
       </c>
@@ -16921,8 +17023,8 @@
       <c r="T177" s="138"/>
     </row>
     <row r="178" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="254"/>
-      <c r="B178" s="261"/>
+      <c r="A178" s="304"/>
+      <c r="B178" s="285"/>
       <c r="C178" s="58" t="s">
         <v>183</v>
       </c>
@@ -16961,8 +17063,8 @@
       <c r="T178" s="138"/>
     </row>
     <row r="179" spans="1:20" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="254"/>
-      <c r="B179" s="261"/>
+      <c r="A179" s="304"/>
+      <c r="B179" s="285"/>
       <c r="C179" s="59" t="s">
         <v>185</v>
       </c>
@@ -16998,11 +17100,11 @@
       <c r="Q179" s="41"/>
       <c r="R179" s="119"/>
       <c r="S179" s="31"/>
-      <c r="T179" s="207"/>
+      <c r="T179" s="194"/>
     </row>
     <row r="180" spans="1:20" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="254"/>
-      <c r="B180" s="252" t="s">
+      <c r="A180" s="304"/>
+      <c r="B180" s="302" t="s">
         <v>193</v>
       </c>
       <c r="C180" s="61" t="s">
@@ -17034,11 +17136,11 @@
       <c r="Q180" s="54"/>
       <c r="R180" s="122"/>
       <c r="S180" s="55"/>
-      <c r="T180" s="206"/>
+      <c r="T180" s="193"/>
     </row>
     <row r="181" spans="1:20" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="254"/>
-      <c r="B181" s="253"/>
+      <c r="A181" s="304"/>
+      <c r="B181" s="303"/>
       <c r="C181" s="62"/>
       <c r="E181" s="48"/>
       <c r="F181" s="48"/>
@@ -17055,7 +17157,7 @@
       <c r="Q181" s="41"/>
       <c r="R181" s="119"/>
       <c r="S181" s="31"/>
-      <c r="T181" s="207"/>
+      <c r="T181" s="194"/>
     </row>
     <row r="182" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C182" s="32"/>
@@ -17074,7 +17176,7 @@
       <c r="Q182" s="42"/>
       <c r="R182" s="121"/>
       <c r="S182" s="36"/>
-      <c r="T182" s="210"/>
+      <c r="T182" s="197"/>
     </row>
     <row r="183" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C183" s="27"/>
@@ -17094,7 +17196,7 @@
       <c r="Q183" s="41"/>
       <c r="R183" s="119"/>
       <c r="S183" s="31"/>
-      <c r="T183" s="207"/>
+      <c r="T183" s="194"/>
     </row>
     <row r="184" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G184" s="24"/>
@@ -17142,7 +17244,7 @@
       <c r="Q186" s="38"/>
       <c r="R186" s="89"/>
       <c r="S186" s="16"/>
-      <c r="T186" s="215"/>
+      <c r="T186" s="202"/>
     </row>
     <row r="187" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G187" s="38"/>
@@ -17158,7 +17260,7 @@
       <c r="Q187" s="38"/>
       <c r="R187" s="89"/>
       <c r="S187" s="16"/>
-      <c r="T187" s="215"/>
+      <c r="T187" s="202"/>
     </row>
     <row r="188" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G188" s="38"/>
@@ -17174,7 +17276,7 @@
       <c r="Q188" s="38"/>
       <c r="R188" s="89"/>
       <c r="S188" s="16"/>
-      <c r="T188" s="215"/>
+      <c r="T188" s="202"/>
     </row>
     <row r="189" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G189" s="38"/>
@@ -17190,7 +17292,7 @@
       <c r="Q189" s="38"/>
       <c r="R189" s="89"/>
       <c r="S189" s="16"/>
-      <c r="T189" s="215"/>
+      <c r="T189" s="202"/>
     </row>
     <row r="190" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G190" s="38"/>
@@ -17206,7 +17308,7 @@
       <c r="Q190" s="38"/>
       <c r="R190" s="89"/>
       <c r="S190" s="16"/>
-      <c r="T190" s="215"/>
+      <c r="T190" s="202"/>
     </row>
     <row r="191" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G191" s="38"/>
@@ -17222,7 +17324,7 @@
       <c r="Q191" s="38"/>
       <c r="R191" s="89"/>
       <c r="S191" s="16"/>
-      <c r="T191" s="215"/>
+      <c r="T191" s="202"/>
     </row>
     <row r="192" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G192" s="38"/>
@@ -17238,7 +17340,7 @@
       <c r="Q192" s="38"/>
       <c r="R192" s="89"/>
       <c r="S192" s="16"/>
-      <c r="T192" s="215"/>
+      <c r="T192" s="202"/>
     </row>
     <row r="193" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G193" s="38"/>
@@ -17254,7 +17356,7 @@
       <c r="Q193" s="38"/>
       <c r="R193" s="89"/>
       <c r="S193" s="16"/>
-      <c r="T193" s="215"/>
+      <c r="T193" s="202"/>
     </row>
     <row r="194" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G194" s="38"/>
@@ -17270,7 +17372,7 @@
       <c r="Q194" s="38"/>
       <c r="R194" s="89"/>
       <c r="S194" s="16"/>
-      <c r="T194" s="215"/>
+      <c r="T194" s="202"/>
     </row>
     <row r="195" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G195" s="38"/>
@@ -17286,7 +17388,7 @@
       <c r="Q195" s="38"/>
       <c r="R195" s="89"/>
       <c r="S195" s="16"/>
-      <c r="T195" s="215"/>
+      <c r="T195" s="202"/>
     </row>
     <row r="196" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G196" s="38"/>
@@ -17302,7 +17404,7 @@
       <c r="Q196" s="38"/>
       <c r="R196" s="89"/>
       <c r="S196" s="16"/>
-      <c r="T196" s="215"/>
+      <c r="T196" s="202"/>
     </row>
     <row r="197" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G197" s="38"/>
@@ -17318,7 +17420,7 @@
       <c r="Q197" s="38"/>
       <c r="R197" s="89"/>
       <c r="S197" s="16"/>
-      <c r="T197" s="215"/>
+      <c r="T197" s="202"/>
     </row>
     <row r="198" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G198" s="38"/>
@@ -17334,7 +17436,7 @@
       <c r="Q198" s="38"/>
       <c r="R198" s="89"/>
       <c r="S198" s="16"/>
-      <c r="T198" s="215"/>
+      <c r="T198" s="202"/>
     </row>
     <row r="199" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G199" s="38"/>
@@ -17350,7 +17452,7 @@
       <c r="Q199" s="38"/>
       <c r="R199" s="89"/>
       <c r="S199" s="16"/>
-      <c r="T199" s="215"/>
+      <c r="T199" s="202"/>
     </row>
     <row r="200" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G200" s="38"/>
@@ -17366,7 +17468,7 @@
       <c r="Q200" s="38"/>
       <c r="R200" s="89"/>
       <c r="S200" s="16"/>
-      <c r="T200" s="215"/>
+      <c r="T200" s="202"/>
     </row>
     <row r="201" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G201" s="38"/>
@@ -17382,7 +17484,7 @@
       <c r="Q201" s="38"/>
       <c r="R201" s="89"/>
       <c r="S201" s="16"/>
-      <c r="T201" s="215"/>
+      <c r="T201" s="202"/>
     </row>
     <row r="202" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G202" s="38"/>
@@ -17398,7 +17500,7 @@
       <c r="Q202" s="38"/>
       <c r="R202" s="89"/>
       <c r="S202" s="16"/>
-      <c r="T202" s="215"/>
+      <c r="T202" s="202"/>
     </row>
     <row r="203" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G203" s="38"/>
@@ -17414,7 +17516,7 @@
       <c r="Q203" s="38"/>
       <c r="R203" s="89"/>
       <c r="S203" s="16"/>
-      <c r="T203" s="215"/>
+      <c r="T203" s="202"/>
     </row>
     <row r="204" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G204" s="38"/>
@@ -17430,7 +17532,7 @@
       <c r="Q204" s="38"/>
       <c r="R204" s="89"/>
       <c r="S204" s="16"/>
-      <c r="T204" s="215"/>
+      <c r="T204" s="202"/>
     </row>
     <row r="205" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G205" s="38"/>
@@ -17446,7 +17548,7 @@
       <c r="Q205" s="38"/>
       <c r="R205" s="89"/>
       <c r="S205" s="16"/>
-      <c r="T205" s="215"/>
+      <c r="T205" s="202"/>
     </row>
     <row r="206" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G206" s="38"/>
@@ -17462,7 +17564,7 @@
       <c r="Q206" s="38"/>
       <c r="R206" s="89"/>
       <c r="S206" s="16"/>
-      <c r="T206" s="215"/>
+      <c r="T206" s="202"/>
     </row>
     <row r="207" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G207" s="38"/>
@@ -17478,7 +17580,7 @@
       <c r="Q207" s="38"/>
       <c r="R207" s="89"/>
       <c r="S207" s="16"/>
-      <c r="T207" s="215"/>
+      <c r="T207" s="202"/>
     </row>
     <row r="208" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G208" s="38"/>
@@ -17494,7 +17596,7 @@
       <c r="Q208" s="38"/>
       <c r="R208" s="89"/>
       <c r="S208" s="16"/>
-      <c r="T208" s="215"/>
+      <c r="T208" s="202"/>
     </row>
     <row r="209" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G209" s="38"/>
@@ -17510,7 +17612,7 @@
       <c r="Q209" s="38"/>
       <c r="R209" s="89"/>
       <c r="S209" s="16"/>
-      <c r="T209" s="215"/>
+      <c r="T209" s="202"/>
     </row>
     <row r="210" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G210" s="38"/>
@@ -17526,7 +17628,7 @@
       <c r="Q210" s="38"/>
       <c r="R210" s="89"/>
       <c r="S210" s="16"/>
-      <c r="T210" s="215"/>
+      <c r="T210" s="202"/>
     </row>
     <row r="211" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G211" s="38"/>
@@ -17542,7 +17644,7 @@
       <c r="Q211" s="38"/>
       <c r="R211" s="89"/>
       <c r="S211" s="16"/>
-      <c r="T211" s="215"/>
+      <c r="T211" s="202"/>
     </row>
     <row r="212" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G212" s="38"/>
@@ -17557,7 +17659,7 @@
       <c r="Q212" s="38"/>
       <c r="R212" s="89"/>
       <c r="S212" s="16"/>
-      <c r="T212" s="215"/>
+      <c r="T212" s="202"/>
     </row>
     <row r="213" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G213" s="38"/>
@@ -17572,7 +17674,7 @@
       <c r="Q213" s="38"/>
       <c r="R213" s="89"/>
       <c r="S213" s="16"/>
-      <c r="T213" s="215"/>
+      <c r="T213" s="202"/>
     </row>
     <row r="214" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G214" s="38"/>
@@ -17587,7 +17689,7 @@
       <c r="Q214" s="38"/>
       <c r="R214" s="89"/>
       <c r="S214" s="16"/>
-      <c r="T214" s="215"/>
+      <c r="T214" s="202"/>
     </row>
     <row r="215" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G215" s="38"/>
@@ -17602,7 +17704,7 @@
       <c r="Q215" s="38"/>
       <c r="R215" s="89"/>
       <c r="S215" s="16"/>
-      <c r="T215" s="215"/>
+      <c r="T215" s="202"/>
     </row>
     <row r="216" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G216" s="38"/>
@@ -17617,7 +17719,7 @@
       <c r="Q216" s="38"/>
       <c r="R216" s="89"/>
       <c r="S216" s="16"/>
-      <c r="T216" s="215"/>
+      <c r="T216" s="202"/>
     </row>
     <row r="217" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G217" s="38"/>
@@ -17632,7 +17734,7 @@
       <c r="Q217" s="38"/>
       <c r="R217" s="89"/>
       <c r="S217" s="16"/>
-      <c r="T217" s="215"/>
+      <c r="T217" s="202"/>
     </row>
     <row r="218" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G218" s="38"/>
@@ -17647,7 +17749,7 @@
       <c r="Q218" s="38"/>
       <c r="R218" s="89"/>
       <c r="S218" s="16"/>
-      <c r="T218" s="215"/>
+      <c r="T218" s="202"/>
     </row>
     <row r="219" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G219" s="38"/>
@@ -17662,7 +17764,7 @@
       <c r="Q219" s="38"/>
       <c r="R219" s="89"/>
       <c r="S219" s="16"/>
-      <c r="T219" s="215"/>
+      <c r="T219" s="202"/>
     </row>
     <row r="220" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G220" s="38"/>
@@ -17677,7 +17779,7 @@
       <c r="Q220" s="38"/>
       <c r="R220" s="89"/>
       <c r="S220" s="16"/>
-      <c r="T220" s="215"/>
+      <c r="T220" s="202"/>
     </row>
     <row r="221" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G221" s="38"/>
@@ -17692,7 +17794,7 @@
       <c r="Q221" s="38"/>
       <c r="R221" s="89"/>
       <c r="S221" s="16"/>
-      <c r="T221" s="215"/>
+      <c r="T221" s="202"/>
     </row>
     <row r="222" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G222" s="38"/>
@@ -17707,7 +17809,7 @@
       <c r="Q222" s="38"/>
       <c r="R222" s="89"/>
       <c r="S222" s="16"/>
-      <c r="T222" s="215"/>
+      <c r="T222" s="202"/>
     </row>
     <row r="223" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G223" s="38"/>
@@ -17722,7 +17824,7 @@
       <c r="Q223" s="38"/>
       <c r="R223" s="89"/>
       <c r="S223" s="16"/>
-      <c r="T223" s="215"/>
+      <c r="T223" s="202"/>
     </row>
     <row r="224" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G224" s="38"/>
@@ -17737,7 +17839,7 @@
       <c r="Q224" s="38"/>
       <c r="R224" s="89"/>
       <c r="S224" s="16"/>
-      <c r="T224" s="215"/>
+      <c r="T224" s="202"/>
     </row>
     <row r="225" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G225" s="38"/>
@@ -17752,7 +17854,7 @@
       <c r="Q225" s="38"/>
       <c r="R225" s="89"/>
       <c r="S225" s="16"/>
-      <c r="T225" s="215"/>
+      <c r="T225" s="202"/>
     </row>
     <row r="226" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G226" s="38"/>
@@ -17767,7 +17869,7 @@
       <c r="Q226" s="38"/>
       <c r="R226" s="89"/>
       <c r="S226" s="16"/>
-      <c r="T226" s="215"/>
+      <c r="T226" s="202"/>
     </row>
     <row r="227" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G227" s="38"/>
@@ -17782,7 +17884,7 @@
       <c r="Q227" s="38"/>
       <c r="R227" s="89"/>
       <c r="S227" s="16"/>
-      <c r="T227" s="215"/>
+      <c r="T227" s="202"/>
     </row>
     <row r="228" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G228" s="38"/>
@@ -17797,7 +17899,7 @@
       <c r="Q228" s="38"/>
       <c r="R228" s="89"/>
       <c r="S228" s="16"/>
-      <c r="T228" s="215"/>
+      <c r="T228" s="202"/>
     </row>
     <row r="229" spans="7:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G229" s="38"/>
@@ -17812,22 +17914,10 @@
       <c r="Q229" s="38"/>
       <c r="R229" s="89"/>
       <c r="S229" s="16"/>
-      <c r="T229" s="215"/>
+      <c r="T229" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="A137:A161"/>
-    <mergeCell ref="B142:B161"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="B83:B119"/>
-    <mergeCell ref="B57:B71"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="A72:A119"/>
-    <mergeCell ref="B137:B141"/>
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="A176:A181"/>
     <mergeCell ref="B162:B169"/>
@@ -17843,6 +17933,18 @@
     <mergeCell ref="B130:B136"/>
     <mergeCell ref="A38:A51"/>
     <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="A137:A161"/>
+    <mergeCell ref="B142:B161"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="B83:B119"/>
+    <mergeCell ref="B57:B71"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="A72:A119"/>
+    <mergeCell ref="B137:B141"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17955,19 +18057,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="201" t="s">
+      <c r="C1" s="188" t="s">
         <v>692</v>
       </c>
-      <c r="D1" s="201" t="s">
+      <c r="D1" s="188" t="s">
         <v>693</v>
       </c>
-      <c r="E1" s="201" t="s">
+      <c r="E1" s="188" t="s">
         <v>720</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="188" t="s">
         <v>704</v>
       </c>
     </row>
@@ -17981,7 +18083,7 @@
       <c r="D2" t="s">
         <v>694</v>
       </c>
-      <c r="E2" s="202"/>
+      <c r="E2" s="189"/>
       <c r="F2" t="s">
         <v>719</v>
       </c>
@@ -17996,7 +18098,7 @@
       <c r="D3" t="s">
         <v>694</v>
       </c>
-      <c r="E3" s="203"/>
+      <c r="E3" s="190"/>
       <c r="F3" t="s">
         <v>706</v>
       </c>
@@ -18011,7 +18113,7 @@
       <c r="D4" t="s">
         <v>697</v>
       </c>
-      <c r="E4" s="203"/>
+      <c r="E4" s="190"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -18023,7 +18125,7 @@
       <c r="D5" t="s">
         <v>694</v>
       </c>
-      <c r="E5" s="203"/>
+      <c r="E5" s="190"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -18035,7 +18137,7 @@
       <c r="D6" t="s">
         <v>698</v>
       </c>
-      <c r="E6" s="203"/>
+      <c r="E6" s="190"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -18047,7 +18149,7 @@
       <c r="D7" t="s">
         <v>694</v>
       </c>
-      <c r="E7" s="203"/>
+      <c r="E7" s="190"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -18059,7 +18161,7 @@
       <c r="D8" t="s">
         <v>712</v>
       </c>
-      <c r="E8" s="202"/>
+      <c r="E8" s="189"/>
       <c r="F8" t="s">
         <v>714</v>
       </c>
@@ -18074,7 +18176,7 @@
       <c r="D9" t="s">
         <v>713</v>
       </c>
-      <c r="E9" s="203"/>
+      <c r="E9" s="190"/>
       <c r="F9" t="s">
         <v>715</v>
       </c>
@@ -18089,7 +18191,7 @@
       <c r="D10" t="s">
         <v>694</v>
       </c>
-      <c r="E10" s="203"/>
+      <c r="E10" s="190"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -18101,7 +18203,7 @@
       <c r="D11" t="s">
         <v>694</v>
       </c>
-      <c r="E11" s="202"/>
+      <c r="E11" s="189"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -18113,7 +18215,7 @@
       <c r="D12" t="s">
         <v>725</v>
       </c>
-      <c r="E12" s="203"/>
+      <c r="E12" s="190"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -18125,7 +18227,7 @@
       <c r="D13" t="s">
         <v>728</v>
       </c>
-      <c r="E13" s="203"/>
+      <c r="E13" s="190"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -18137,7 +18239,7 @@
       <c r="D14" t="s">
         <v>694</v>
       </c>
-      <c r="E14" s="203"/>
+      <c r="E14" s="190"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -18149,7 +18251,7 @@
       <c r="D15" t="s">
         <v>694</v>
       </c>
-      <c r="E15" s="202"/>
+      <c r="E15" s="189"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -18161,7 +18263,7 @@
       <c r="D16" t="s">
         <v>694</v>
       </c>
-      <c r="E16" s="203"/>
+      <c r="E16" s="190"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -18173,7 +18275,7 @@
       <c r="D17" t="s">
         <v>694</v>
       </c>
-      <c r="E17" s="203"/>
+      <c r="E17" s="190"/>
       <c r="F17" t="s">
         <v>705</v>
       </c>
@@ -18188,7 +18290,7 @@
       <c r="D18" t="s">
         <v>694</v>
       </c>
-      <c r="E18" s="203"/>
+      <c r="E18" s="190"/>
       <c r="F18" t="s">
         <v>723</v>
       </c>
@@ -18203,7 +18305,7 @@
       <c r="D19" t="s">
         <v>697</v>
       </c>
-      <c r="E19" s="203"/>
+      <c r="E19" s="190"/>
       <c r="F19" t="s">
         <v>700</v>
       </c>
@@ -18218,7 +18320,7 @@
       <c r="D20" t="s">
         <v>697</v>
       </c>
-      <c r="E20" s="203"/>
+      <c r="E20" s="190"/>
       <c r="F20" t="s">
         <v>699</v>
       </c>
